--- a/dictionary/Vocab.xlsx
+++ b/dictionary/Vocab.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02 Trae\TibetanDict\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02 Trae\TibetanNote\dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D367BE6-13B0-4BD6-A0D1-B7A037D34BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECA5BEA-96F1-4890-9A28-5BC5AB29C0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="5460" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocab" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="326">
   <si>
     <t>word</t>
   </si>
@@ -601,6 +601,408 @@
   </si>
   <si>
     <t>V02-L02</t>
+  </si>
+  <si>
+    <t>མིང་།</t>
+  </si>
+  <si>
+    <t>ལྷ་ས།</t>
+  </si>
+  <si>
+    <t>བོད།</t>
+  </si>
+  <si>
+    <t>བོད་པ།</t>
+  </si>
+  <si>
+    <t>བསྡད་ས།</t>
+  </si>
+  <si>
+    <t>./sounds/V01L01/V1L1-06.wav</t>
+  </si>
+  <si>
+    <t>./sounds/V01L01/V1L1-07.wav</t>
+  </si>
+  <si>
+    <t>./sounds/V01L01/V1L1-08.wav</t>
+  </si>
+  <si>
+    <t>./sounds/V01L01/V1L1-09.wav</t>
+  </si>
+  <si>
+    <t>./sounds/V01L01/V1L1-10.wav</t>
+  </si>
+  <si>
+    <t>P.N.</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>拉萨</t>
+  </si>
+  <si>
+    <t>西藏</t>
+  </si>
+  <si>
+    <t>西藏人</t>
+  </si>
+  <si>
+    <t>名前</t>
+  </si>
+  <si>
+    <t>ラサ</t>
+  </si>
+  <si>
+    <t>チベット</t>
+  </si>
+  <si>
+    <t>チベット人</t>
+  </si>
+  <si>
+    <t>nom</t>
+  </si>
+  <si>
+    <t>Lhassa</t>
+  </si>
+  <si>
+    <t>Tibet</t>
+  </si>
+  <si>
+    <t>tibétain</t>
+  </si>
+  <si>
+    <t>lieu de résidence</t>
+  </si>
+  <si>
+    <t>居住地</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Lhasa</t>
+  </si>
+  <si>
+    <t>Tibetan</t>
+  </si>
+  <si>
+    <t>living place</t>
+  </si>
+  <si>
+    <t>བསྡད་(live)+ས་(place)</t>
+  </si>
+  <si>
+    <t>སློབ་གྲྭ།</t>
+  </si>
+  <si>
+    <t>སློབ་གྲྭ་བ།</t>
+  </si>
+  <si>
+    <t>དགེ་རྒན།</t>
+  </si>
+  <si>
+    <t>ཡི་གེ།</t>
+  </si>
+  <si>
+    <t>སུ།</t>
+  </si>
+  <si>
+    <t>ག་རེ།</t>
+  </si>
+  <si>
+    <t>ག་ནས།</t>
+  </si>
+  <si>
+    <t>./sounds/V01L01/V1L1-11.wav</t>
+  </si>
+  <si>
+    <t>./sounds/V01L01/V1L1-12.wav</t>
+  </si>
+  <si>
+    <t>./sounds/V01L01/V1L1-13.wav</t>
+  </si>
+  <si>
+    <t>./sounds/V01L01/V1L1-14.wav</t>
+  </si>
+  <si>
+    <t>./sounds/V01L01/V1L1-15.wav</t>
+  </si>
+  <si>
+    <t>./sounds/V01L01/V1L1-16.wav</t>
+  </si>
+  <si>
+    <t>./sounds/V01L01/V1L1-17.wav</t>
+  </si>
+  <si>
+    <t>Pron.Interg</t>
+  </si>
+  <si>
+    <t>学校</t>
+  </si>
+  <si>
+    <t>学生</t>
+  </si>
+  <si>
+    <t>老师</t>
+  </si>
+  <si>
+    <t>字</t>
+  </si>
+  <si>
+    <t>谁</t>
+  </si>
+  <si>
+    <t>哪里</t>
+  </si>
+  <si>
+    <t>从哪里</t>
+  </si>
+  <si>
+    <t>先生</t>
+  </si>
+  <si>
+    <t>文字</t>
+  </si>
+  <si>
+    <t>だれ</t>
+  </si>
+  <si>
+    <t>どこ</t>
+  </si>
+  <si>
+    <t>どこから</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>teacher</t>
+  </si>
+  <si>
+    <t>letter</t>
+  </si>
+  <si>
+    <t>who</t>
+  </si>
+  <si>
+    <t>where</t>
+  </si>
+  <si>
+    <t>from where</t>
+  </si>
+  <si>
+    <t>école</t>
+  </si>
+  <si>
+    <t>étudiant</t>
+  </si>
+  <si>
+    <t>professeur</t>
+  </si>
+  <si>
+    <t>lettre</t>
+  </si>
+  <si>
+    <t>qui</t>
+  </si>
+  <si>
+    <t>où</t>
+  </si>
+  <si>
+    <t>d'où</t>
+  </si>
+  <si>
+    <t>quoi</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>なに</t>
+  </si>
+  <si>
+    <t>什么</t>
+  </si>
+  <si>
+    <t>ག་པར།</t>
+  </si>
+  <si>
+    <t>ནས།</t>
+  </si>
+  <si>
+    <t>ལ།</t>
+  </si>
+  <si>
+    <t>ཡིན།</t>
+  </si>
+  <si>
+    <t>ཡིན་ནྰ།</t>
+  </si>
+  <si>
+    <t>ཡིན་པས།</t>
+  </si>
+  <si>
+    <t>རེད།</t>
+  </si>
+  <si>
+    <t>རེད་པས།</t>
+  </si>
+  <si>
+    <t>ཡོད།</t>
+  </si>
+  <si>
+    <t>ཟེར་བ།</t>
+  </si>
+  <si>
+    <t>སྐུ་ཁམས་བཟང་།</t>
+  </si>
+  <si>
+    <t>./sounds/V01L01/V1L1-18.wav</t>
+  </si>
+  <si>
+    <t>./sounds/V01L01/V1L1-19.wav</t>
+  </si>
+  <si>
+    <t>./sounds/V01L01/V1L1-20.wav</t>
+  </si>
+  <si>
+    <t>./sounds/V01L01/V1L1-21.wav</t>
+  </si>
+  <si>
+    <t>./sounds/V01L01/V1L1-22.wav</t>
+  </si>
+  <si>
+    <t>./sounds/V01L01/V1L1-23.wav</t>
+  </si>
+  <si>
+    <t>./sounds/V01L01/V1L1-24.wav</t>
+  </si>
+  <si>
+    <t>./sounds/V01L01/V1L1-25.wav</t>
+  </si>
+  <si>
+    <t>./sounds/V01L01/V1L1-26.wav</t>
+  </si>
+  <si>
+    <t>./sounds/V01L01/V1L1-27.wav</t>
+  </si>
+  <si>
+    <t>./sounds/V01L01/V1L1-33.wav</t>
+  </si>
+  <si>
+    <t>Part.Nom</t>
+  </si>
+  <si>
+    <t>Cop.</t>
+  </si>
+  <si>
+    <t>Exist</t>
+  </si>
+  <si>
+    <t>Phat.</t>
+  </si>
+  <si>
+    <t>从…...</t>
+  </si>
+  <si>
+    <t>是（自我）</t>
+  </si>
+  <si>
+    <t>是…...吧</t>
+  </si>
+  <si>
+    <t>是……吗</t>
+  </si>
+  <si>
+    <t>是（事实）</t>
+  </si>
+  <si>
+    <t>有（自我）</t>
+  </si>
+  <si>
+    <t>叫</t>
+  </si>
+  <si>
+    <t>你好</t>
+  </si>
+  <si>
+    <t>～から</t>
+  </si>
+  <si>
+    <t>です（自己）</t>
+  </si>
+  <si>
+    <t>ですよね</t>
+  </si>
+  <si>
+    <t>ですか</t>
+  </si>
+  <si>
+    <t>です（事実）</t>
+  </si>
+  <si>
+    <t>ある（自己）</t>
+  </si>
+  <si>
+    <t>と申する</t>
+  </si>
+  <si>
+    <t>こんにちは</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>in; at</t>
+  </si>
+  <si>
+    <t>to be (egophoric)</t>
+  </si>
+  <si>
+    <t>to be (factual)</t>
+  </si>
+  <si>
+    <t>to have (egophoric)</t>
+  </si>
+  <si>
+    <t>to be called</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>dans ; à ; pour</t>
+  </si>
+  <si>
+    <t>～で、～に</t>
+  </si>
+  <si>
+    <t>je me demande + être</t>
+  </si>
+  <si>
+    <t>être (factuel)</t>
+  </si>
+  <si>
+    <t>avoir (égophorique)</t>
+  </si>
+  <si>
+    <t>être (égophorique)</t>
+  </si>
+  <si>
+    <t>s'appeler ; se dire</t>
+  </si>
+  <si>
+    <t>bonjour</t>
+  </si>
+  <si>
+    <t>在……；给…...</t>
   </si>
 </sst>
 </file>
@@ -930,10 +1332,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B32"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.55000000000000004"/>
@@ -1162,611 +1564,1197 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>192</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>197</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J7" t="s">
-        <v>32</v>
+        <v>203</v>
       </c>
       <c r="K7" t="s">
-        <v>33</v>
+        <v>207</v>
       </c>
       <c r="L7" t="s">
-        <v>56</v>
+        <v>217</v>
       </c>
       <c r="M7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N7" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>36</v>
-      </c>
-      <c r="R7" t="s">
-        <v>35</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>193</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>198</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>41</v>
+        <v>202</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>204</v>
       </c>
       <c r="K8" t="s">
-        <v>43</v>
+        <v>208</v>
       </c>
       <c r="L8" t="s">
-        <v>57</v>
+        <v>218</v>
       </c>
       <c r="M8" t="s">
-        <v>53</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>194</v>
       </c>
       <c r="B9" t="s">
-        <v>191</v>
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>199</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>66</v>
+        <v>202</v>
       </c>
       <c r="J9" t="s">
-        <v>62</v>
+        <v>205</v>
       </c>
       <c r="K9" t="s">
-        <v>126</v>
+        <v>209</v>
       </c>
       <c r="L9" t="s">
-        <v>142</v>
+        <v>213</v>
       </c>
       <c r="M9" t="s">
-        <v>52</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="B10" t="s">
-        <v>191</v>
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>200</v>
       </c>
       <c r="D10" t="s">
         <v>40</v>
       </c>
+      <c r="J10" t="s">
+        <v>206</v>
+      </c>
+      <c r="K10" t="s">
+        <v>210</v>
+      </c>
+      <c r="L10" t="s">
+        <v>219</v>
+      </c>
       <c r="M10" t="s">
-        <v>58</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>196</v>
       </c>
       <c r="B11" t="s">
-        <v>191</v>
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>201</v>
       </c>
       <c r="D11" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>67</v>
+        <v>221</v>
       </c>
       <c r="J11" t="s">
-        <v>63</v>
+        <v>216</v>
       </c>
       <c r="K11" t="s">
-        <v>127</v>
+        <v>216</v>
+      </c>
+      <c r="L11" t="s">
+        <v>220</v>
       </c>
       <c r="M11" t="s">
-        <v>59</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>222</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>229</v>
       </c>
       <c r="D12" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="J12" t="s">
-        <v>64</v>
+        <v>237</v>
       </c>
       <c r="K12" t="s">
-        <v>128</v>
+        <v>237</v>
       </c>
       <c r="L12" t="s">
-        <v>143</v>
+        <v>249</v>
       </c>
       <c r="M12" t="s">
-        <v>60</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>223</v>
       </c>
       <c r="B13" t="s">
-        <v>191</v>
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>230</v>
       </c>
       <c r="D13" t="s">
         <v>40</v>
       </c>
       <c r="J13" t="s">
-        <v>65</v>
+        <v>238</v>
       </c>
       <c r="K13" t="s">
-        <v>129</v>
+        <v>238</v>
       </c>
       <c r="L13" t="s">
-        <v>144</v>
+        <v>250</v>
       </c>
       <c r="M13" t="s">
-        <v>61</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>224</v>
       </c>
       <c r="B14" t="s">
-        <v>191</v>
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>231</v>
       </c>
       <c r="D14" t="s">
         <v>40</v>
       </c>
       <c r="J14" t="s">
-        <v>108</v>
+        <v>239</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>244</v>
       </c>
       <c r="L14" t="s">
-        <v>145</v>
+        <v>251</v>
       </c>
       <c r="M14" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
-        <v>70</v>
+        <v>225</v>
       </c>
       <c r="B15" t="s">
-        <v>191</v>
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>232</v>
       </c>
       <c r="D15" t="s">
         <v>40</v>
       </c>
       <c r="J15" t="s">
-        <v>93</v>
+        <v>240</v>
       </c>
       <c r="K15" t="s">
-        <v>131</v>
+        <v>245</v>
       </c>
       <c r="L15" t="s">
-        <v>146</v>
+        <v>252</v>
       </c>
       <c r="M15" t="s">
-        <v>110</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>226</v>
       </c>
       <c r="B16" t="s">
-        <v>191</v>
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>233</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c r="J16" t="s">
-        <v>94</v>
+        <v>241</v>
       </c>
       <c r="K16" t="s">
-        <v>94</v>
+        <v>246</v>
       </c>
       <c r="L16" t="s">
-        <v>147</v>
+        <v>253</v>
       </c>
       <c r="M16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
-        <v>72</v>
+        <v>227</v>
       </c>
       <c r="B17" t="s">
-        <v>191</v>
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>234</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>236</v>
       </c>
       <c r="J17" t="s">
-        <v>95</v>
+        <v>266</v>
       </c>
       <c r="K17" t="s">
-        <v>132</v>
+        <v>265</v>
       </c>
       <c r="L17" t="s">
-        <v>148</v>
+        <v>264</v>
       </c>
       <c r="M17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
-        <v>73</v>
+        <v>228</v>
       </c>
       <c r="B18" t="s">
-        <v>191</v>
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>235</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>92</v>
+        <v>236</v>
       </c>
       <c r="J18" t="s">
-        <v>96</v>
+        <v>243</v>
       </c>
       <c r="K18" t="s">
-        <v>133</v>
+        <v>248</v>
       </c>
       <c r="L18" t="s">
-        <v>149</v>
+        <v>255</v>
       </c>
       <c r="M18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>267</v>
       </c>
       <c r="B19" t="s">
-        <v>191</v>
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>278</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>236</v>
       </c>
       <c r="J19" t="s">
-        <v>97</v>
+        <v>242</v>
       </c>
       <c r="K19" t="s">
-        <v>135</v>
+        <v>247</v>
       </c>
       <c r="L19" t="s">
-        <v>150</v>
+        <v>254</v>
       </c>
       <c r="M19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
-        <v>75</v>
+        <v>268</v>
       </c>
       <c r="B20" t="s">
-        <v>191</v>
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>279</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>289</v>
       </c>
       <c r="J20" t="s">
-        <v>98</v>
+        <v>293</v>
       </c>
       <c r="K20" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="L20" t="s">
-        <v>151</v>
+        <v>309</v>
       </c>
       <c r="M20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
-        <v>76</v>
+        <v>269</v>
       </c>
       <c r="B21" t="s">
-        <v>191</v>
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>280</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>289</v>
       </c>
       <c r="J21" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="K21" t="s">
-        <v>153</v>
+        <v>318</v>
       </c>
       <c r="L21" t="s">
-        <v>152</v>
+        <v>310</v>
       </c>
       <c r="M21" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="B22" t="s">
-        <v>191</v>
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>281</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>290</v>
       </c>
       <c r="J22" t="s">
-        <v>100</v>
+        <v>294</v>
+      </c>
+      <c r="K22" t="s">
+        <v>302</v>
       </c>
       <c r="L22" t="s">
-        <v>154</v>
+        <v>311</v>
       </c>
       <c r="M22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
-        <v>78</v>
+        <v>271</v>
       </c>
       <c r="B23" t="s">
-        <v>191</v>
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>282</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>290</v>
       </c>
       <c r="J23" t="s">
-        <v>101</v>
+        <v>295</v>
       </c>
       <c r="K23" t="s">
-        <v>136</v>
-      </c>
-      <c r="L23" t="s">
-        <v>155</v>
+        <v>303</v>
       </c>
       <c r="M23" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
-        <v>79</v>
+        <v>272</v>
       </c>
       <c r="B24" t="s">
-        <v>191</v>
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>283</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
+        <v>290</v>
       </c>
       <c r="J24" t="s">
-        <v>101</v>
+        <v>296</v>
       </c>
       <c r="K24" t="s">
-        <v>136</v>
-      </c>
-      <c r="L24" t="s">
-        <v>155</v>
-      </c>
-      <c r="M24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
-        <v>80</v>
+        <v>273</v>
       </c>
       <c r="B25" t="s">
-        <v>191</v>
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>284</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>290</v>
       </c>
       <c r="J25" t="s">
-        <v>102</v>
+        <v>297</v>
       </c>
       <c r="K25" t="s">
-        <v>137</v>
+        <v>305</v>
       </c>
       <c r="L25" t="s">
-        <v>156</v>
+        <v>312</v>
       </c>
       <c r="M25" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
-        <v>81</v>
+        <v>274</v>
       </c>
       <c r="B26" t="s">
-        <v>191</v>
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>285</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>290</v>
       </c>
       <c r="J26" t="s">
-        <v>102</v>
+        <v>296</v>
       </c>
       <c r="K26" t="s">
-        <v>137</v>
-      </c>
-      <c r="L26" t="s">
-        <v>156</v>
-      </c>
-      <c r="M26" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
-        <v>82</v>
+        <v>275</v>
       </c>
       <c r="B27" t="s">
-        <v>191</v>
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>286</v>
+      </c>
+      <c r="D27" t="s">
+        <v>291</v>
       </c>
       <c r="J27" t="s">
-        <v>103</v>
+        <v>298</v>
+      </c>
+      <c r="K27" t="s">
+        <v>306</v>
+      </c>
+      <c r="L27" t="s">
+        <v>313</v>
       </c>
       <c r="M27" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
-        <v>83</v>
+        <v>276</v>
       </c>
       <c r="B28" t="s">
-        <v>191</v>
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>287</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
       </c>
       <c r="J28" t="s">
-        <v>104</v>
+        <v>299</v>
+      </c>
+      <c r="K28" t="s">
+        <v>307</v>
+      </c>
+      <c r="L28" t="s">
+        <v>314</v>
       </c>
       <c r="M28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
-        <v>84</v>
+        <v>277</v>
       </c>
       <c r="B29" t="s">
-        <v>191</v>
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>288</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>292</v>
       </c>
       <c r="J29" t="s">
-        <v>105</v>
+        <v>300</v>
       </c>
       <c r="K29" t="s">
-        <v>138</v>
+        <v>308</v>
       </c>
       <c r="L29" t="s">
-        <v>157</v>
+        <v>315</v>
       </c>
       <c r="M29" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
         <v>27</v>
       </c>
+      <c r="F30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" t="s">
+        <v>31</v>
+      </c>
       <c r="J30" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="K30" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="L30" t="s">
-        <v>157</v>
+        <v>56</v>
       </c>
       <c r="M30" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>54</v>
+      </c>
+      <c r="N30" t="s">
+        <v>34</v>
+      </c>
+      <c r="O30" t="s">
+        <v>38</v>
+      </c>
+      <c r="P30" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>36</v>
+      </c>
+      <c r="R30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
         <v>191</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>40</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="J31" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="K31" t="s">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="L31" t="s">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="M31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
         <v>191</v>
       </c>
       <c r="D32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J32" t="s">
+        <v>62</v>
+      </c>
+      <c r="K32" t="s">
+        <v>126</v>
+      </c>
+      <c r="L32" t="s">
+        <v>142</v>
+      </c>
+      <c r="M32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" t="s">
+        <v>191</v>
+      </c>
+      <c r="D33" t="s">
+        <v>40</v>
+      </c>
+      <c r="M33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" t="s">
+        <v>191</v>
+      </c>
+      <c r="D34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J34" t="s">
+        <v>63</v>
+      </c>
+      <c r="K34" t="s">
+        <v>127</v>
+      </c>
+      <c r="M34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" t="s">
+        <v>191</v>
+      </c>
+      <c r="D35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" t="s">
+        <v>64</v>
+      </c>
+      <c r="K35" t="s">
+        <v>128</v>
+      </c>
+      <c r="L35" t="s">
+        <v>143</v>
+      </c>
+      <c r="M35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" t="s">
+        <v>191</v>
+      </c>
+      <c r="D36" t="s">
+        <v>40</v>
+      </c>
+      <c r="J36" t="s">
+        <v>65</v>
+      </c>
+      <c r="K36" t="s">
+        <v>129</v>
+      </c>
+      <c r="L36" t="s">
+        <v>144</v>
+      </c>
+      <c r="M36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" t="s">
+        <v>191</v>
+      </c>
+      <c r="D37" t="s">
+        <v>40</v>
+      </c>
+      <c r="J37" t="s">
+        <v>108</v>
+      </c>
+      <c r="K37" t="s">
+        <v>130</v>
+      </c>
+      <c r="L37" t="s">
+        <v>145</v>
+      </c>
+      <c r="M37" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" t="s">
+        <v>191</v>
+      </c>
+      <c r="D38" t="s">
+        <v>40</v>
+      </c>
+      <c r="J38" t="s">
+        <v>93</v>
+      </c>
+      <c r="K38" t="s">
+        <v>131</v>
+      </c>
+      <c r="L38" t="s">
+        <v>146</v>
+      </c>
+      <c r="M38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" t="s">
+        <v>191</v>
+      </c>
+      <c r="D39" t="s">
+        <v>40</v>
+      </c>
+      <c r="J39" t="s">
+        <v>94</v>
+      </c>
+      <c r="K39" t="s">
+        <v>94</v>
+      </c>
+      <c r="L39" t="s">
+        <v>147</v>
+      </c>
+      <c r="M39" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" t="s">
+        <v>191</v>
+      </c>
+      <c r="D40" t="s">
+        <v>89</v>
+      </c>
+      <c r="J40" t="s">
+        <v>95</v>
+      </c>
+      <c r="K40" t="s">
+        <v>132</v>
+      </c>
+      <c r="L40" t="s">
+        <v>148</v>
+      </c>
+      <c r="M40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" t="s">
+        <v>191</v>
+      </c>
+      <c r="D41" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J41" t="s">
+        <v>96</v>
+      </c>
+      <c r="K41" t="s">
+        <v>133</v>
+      </c>
+      <c r="L41" t="s">
+        <v>149</v>
+      </c>
+      <c r="M41" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" t="s">
+        <v>191</v>
+      </c>
+      <c r="D42" t="s">
+        <v>90</v>
+      </c>
+      <c r="J42" t="s">
+        <v>97</v>
+      </c>
+      <c r="K42" t="s">
+        <v>135</v>
+      </c>
+      <c r="L42" t="s">
+        <v>150</v>
+      </c>
+      <c r="M42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" t="s">
+        <v>191</v>
+      </c>
+      <c r="D43" t="s">
+        <v>90</v>
+      </c>
+      <c r="J43" t="s">
+        <v>98</v>
+      </c>
+      <c r="K43" t="s">
+        <v>134</v>
+      </c>
+      <c r="L43" t="s">
+        <v>151</v>
+      </c>
+      <c r="M43" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" t="s">
+        <v>191</v>
+      </c>
+      <c r="D44" t="s">
+        <v>90</v>
+      </c>
+      <c r="J44" t="s">
+        <v>99</v>
+      </c>
+      <c r="K44" t="s">
+        <v>153</v>
+      </c>
+      <c r="L44" t="s">
+        <v>152</v>
+      </c>
+      <c r="M44" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" t="s">
+        <v>191</v>
+      </c>
+      <c r="D45" t="s">
+        <v>91</v>
+      </c>
+      <c r="J45" t="s">
+        <v>100</v>
+      </c>
+      <c r="L45" t="s">
+        <v>154</v>
+      </c>
+      <c r="M45" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" t="s">
+        <v>191</v>
+      </c>
+      <c r="D46" t="s">
+        <v>91</v>
+      </c>
+      <c r="J46" t="s">
+        <v>101</v>
+      </c>
+      <c r="K46" t="s">
+        <v>136</v>
+      </c>
+      <c r="L46" t="s">
+        <v>155</v>
+      </c>
+      <c r="M46" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" t="s">
+        <v>191</v>
+      </c>
+      <c r="D47" t="s">
+        <v>91</v>
+      </c>
+      <c r="J47" t="s">
+        <v>101</v>
+      </c>
+      <c r="K47" t="s">
+        <v>136</v>
+      </c>
+      <c r="L47" t="s">
+        <v>155</v>
+      </c>
+      <c r="M47" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" t="s">
+        <v>191</v>
+      </c>
+      <c r="D48" t="s">
+        <v>91</v>
+      </c>
+      <c r="J48" t="s">
+        <v>102</v>
+      </c>
+      <c r="K48" t="s">
+        <v>137</v>
+      </c>
+      <c r="L48" t="s">
+        <v>156</v>
+      </c>
+      <c r="M48" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" t="s">
+        <v>191</v>
+      </c>
+      <c r="D49" t="s">
+        <v>91</v>
+      </c>
+      <c r="J49" t="s">
+        <v>102</v>
+      </c>
+      <c r="K49" t="s">
+        <v>137</v>
+      </c>
+      <c r="L49" t="s">
+        <v>156</v>
+      </c>
+      <c r="M49" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" t="s">
+        <v>191</v>
+      </c>
+      <c r="J50" t="s">
+        <v>103</v>
+      </c>
+      <c r="M50" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" t="s">
+        <v>191</v>
+      </c>
+      <c r="J51" t="s">
+        <v>104</v>
+      </c>
+      <c r="M51" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" t="s">
+        <v>191</v>
+      </c>
+      <c r="D52" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="J52" t="s">
+        <v>105</v>
+      </c>
+      <c r="K52" t="s">
+        <v>138</v>
+      </c>
+      <c r="L52" t="s">
+        <v>157</v>
+      </c>
+      <c r="M52" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" t="s">
+        <v>191</v>
+      </c>
+      <c r="D53" t="s">
+        <v>27</v>
+      </c>
+      <c r="J53" t="s">
+        <v>94</v>
+      </c>
+      <c r="K53" t="s">
+        <v>139</v>
+      </c>
+      <c r="L53" t="s">
+        <v>157</v>
+      </c>
+      <c r="M53" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" t="s">
+        <v>191</v>
+      </c>
+      <c r="D54" t="s">
+        <v>27</v>
+      </c>
+      <c r="J54" t="s">
+        <v>106</v>
+      </c>
+      <c r="K54" t="s">
+        <v>140</v>
+      </c>
+      <c r="L54" t="s">
+        <v>158</v>
+      </c>
+      <c r="M54" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B55" t="s">
+        <v>191</v>
+      </c>
+      <c r="D55" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J55" t="s">
         <v>107</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K55" t="s">
         <v>141</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L55" t="s">
         <v>159</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M55" t="s">
         <v>125</v>
       </c>
     </row>

--- a/dictionary/Vocab.xlsx
+++ b/dictionary/Vocab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02 Trae\TibetanNote\dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECA5BEA-96F1-4890-9A28-5BC5AB29C0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8EB5A4-F80E-4266-807E-F0AC8385FAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="5460" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="467">
   <si>
     <t>word</t>
   </si>
@@ -1003,6 +1003,429 @@
   </si>
   <si>
     <t>在……；给…...</t>
+  </si>
+  <si>
+    <t>ར་མ།</t>
+  </si>
+  <si>
+    <t>རི།</t>
+  </si>
+  <si>
+    <t>གྲོགས་པོ།</t>
+  </si>
+  <si>
+    <t>གྲོགས་མོ།</t>
+  </si>
+  <si>
+    <t>དུས་ཚོད།</t>
+  </si>
+  <si>
+    <t>ཆུ་ཚོད།</t>
+  </si>
+  <si>
+    <t>ཉི་མ།</t>
+  </si>
+  <si>
+    <t>ཧྥ་རན་སི།</t>
+  </si>
+  <si>
+    <t>བྱང་ཐང་།</t>
+  </si>
+  <si>
+    <t>བདེ་པོ།</t>
+  </si>
+  <si>
+    <t>གཅིག</t>
+  </si>
+  <si>
+    <t>གཉིས།</t>
+  </si>
+  <si>
+    <t>གསུམ།</t>
+  </si>
+  <si>
+    <t>བཞི།</t>
+  </si>
+  <si>
+    <t>བདུན།</t>
+  </si>
+  <si>
+    <t>V01-L02</t>
+  </si>
+  <si>
+    <t>Num.</t>
+  </si>
+  <si>
+    <t>chèvre</t>
+  </si>
+  <si>
+    <t>montagne</t>
+  </si>
+  <si>
+    <t>ami</t>
+  </si>
+  <si>
+    <t>amie</t>
+  </si>
+  <si>
+    <t>temps</t>
+  </si>
+  <si>
+    <t>heure ; montre</t>
+  </si>
+  <si>
+    <t>soleil ; jour</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Changthang</t>
+  </si>
+  <si>
+    <t>bien ; en bonne santé ; confortable</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>deux</t>
+  </si>
+  <si>
+    <t>trois</t>
+  </si>
+  <si>
+    <t>quatre</t>
+  </si>
+  <si>
+    <t>sept</t>
+  </si>
+  <si>
+    <t>goat</t>
+  </si>
+  <si>
+    <t>mountain</t>
+  </si>
+  <si>
+    <t>friend (m.)</t>
+  </si>
+  <si>
+    <t>friend (f.)</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>hour; watch</t>
+  </si>
+  <si>
+    <t>sun; day</t>
+  </si>
+  <si>
+    <t>well; good; confortable</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>seven</t>
+  </si>
+  <si>
+    <t>やぎ</t>
+  </si>
+  <si>
+    <t>山</t>
+  </si>
+  <si>
+    <t>（男性の）友達</t>
+  </si>
+  <si>
+    <t>（女性の）友達</t>
+  </si>
+  <si>
+    <t>時間</t>
+  </si>
+  <si>
+    <t>～時、時計</t>
+  </si>
+  <si>
+    <t>太陽、日</t>
+  </si>
+  <si>
+    <t>フランス</t>
+  </si>
+  <si>
+    <t>チャンタン</t>
+  </si>
+  <si>
+    <t>いい、気持ちよい</t>
+  </si>
+  <si>
+    <t>一</t>
+  </si>
+  <si>
+    <t>二</t>
+  </si>
+  <si>
+    <t>三</t>
+  </si>
+  <si>
+    <t>四</t>
+  </si>
+  <si>
+    <t>七</t>
+  </si>
+  <si>
+    <t>山羊</t>
+  </si>
+  <si>
+    <t>（男性）朋友</t>
+  </si>
+  <si>
+    <t>（女性）朋友</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>……点；表</t>
+  </si>
+  <si>
+    <t>太阳；天</t>
+  </si>
+  <si>
+    <t>法国</t>
+  </si>
+  <si>
+    <t>羌塘</t>
+  </si>
+  <si>
+    <t>好；舒适</t>
+  </si>
+  <si>
+    <t>དགུ</t>
+  </si>
+  <si>
+    <t>བཅུ།</t>
+  </si>
+  <si>
+    <t>འདི།</t>
+  </si>
+  <si>
+    <t>འདི་ལ།</t>
+  </si>
+  <si>
+    <t>འདིར།</t>
+  </si>
+  <si>
+    <t>སང་ཉིན།</t>
+  </si>
+  <si>
+    <t>དེང་སང་།</t>
+  </si>
+  <si>
+    <t>འོ་ན།</t>
+  </si>
+  <si>
+    <t>ཨ་ནི།</t>
+  </si>
+  <si>
+    <t>དང་།</t>
+  </si>
+  <si>
+    <t>ཡང་།</t>
+  </si>
+  <si>
+    <t>ཀྱང་།</t>
+  </si>
+  <si>
+    <t>ཡོན་ནའང་།</t>
+  </si>
+  <si>
+    <t>ཨ་ལའི།</t>
+  </si>
+  <si>
+    <t>འགྲིག་པ།</t>
+  </si>
+  <si>
+    <t>མཇལ་བ།</t>
+  </si>
+  <si>
+    <t>neuf</t>
+  </si>
+  <si>
+    <t>dix</t>
+  </si>
+  <si>
+    <t>ce ; ceci</t>
+  </si>
+  <si>
+    <t>Dem.</t>
+  </si>
+  <si>
+    <t>Conj.</t>
+  </si>
+  <si>
+    <t>ici</t>
+  </si>
+  <si>
+    <t>demain</t>
+  </si>
+  <si>
+    <t>ces temps-ci ; actuellement</t>
+  </si>
+  <si>
+    <t>donc ; alors ; par conséquent</t>
+  </si>
+  <si>
+    <t>et ; et puis ; et donc</t>
+  </si>
+  <si>
+    <t>et</t>
+  </si>
+  <si>
+    <t>aussi</t>
+  </si>
+  <si>
+    <t>mais</t>
+  </si>
+  <si>
+    <t>ah bon</t>
+  </si>
+  <si>
+    <t>rencontrer (hon.)</t>
+  </si>
+  <si>
+    <t>être d'accord ; convenir</t>
+  </si>
+  <si>
+    <t>nine</t>
+  </si>
+  <si>
+    <t>ten</t>
+  </si>
+  <si>
+    <t>this; this one</t>
+  </si>
+  <si>
+    <t>here</t>
+  </si>
+  <si>
+    <t>tomorrow</t>
+  </si>
+  <si>
+    <t>now; right now</t>
+  </si>
+  <si>
+    <t>so; then</t>
+  </si>
+  <si>
+    <t>and; then; so</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>too</t>
+  </si>
+  <si>
+    <t>but</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>to meet (hon.)</t>
+  </si>
+  <si>
+    <t>九</t>
+  </si>
+  <si>
+    <t>十</t>
+  </si>
+  <si>
+    <t>这；这个</t>
+  </si>
+  <si>
+    <t>这里</t>
+  </si>
+  <si>
+    <t>明天</t>
+  </si>
+  <si>
+    <t>现在</t>
+  </si>
+  <si>
+    <t>然后</t>
+  </si>
+  <si>
+    <t>因此；所以</t>
+  </si>
+  <si>
+    <t>和</t>
+  </si>
+  <si>
+    <t>也</t>
+  </si>
+  <si>
+    <t>但是</t>
+  </si>
+  <si>
+    <t>哦~</t>
+  </si>
+  <si>
+    <t>可以</t>
+  </si>
+  <si>
+    <t>见面（敬语）</t>
+  </si>
+  <si>
+    <t>この、これ</t>
+  </si>
+  <si>
+    <t>ここに、ここで</t>
+  </si>
+  <si>
+    <t>あした</t>
+  </si>
+  <si>
+    <t>今、現在</t>
+  </si>
+  <si>
+    <t>ですから</t>
+  </si>
+  <si>
+    <t>これから</t>
+  </si>
+  <si>
+    <t>と</t>
+  </si>
+  <si>
+    <t>も</t>
+  </si>
+  <si>
+    <t>しかし</t>
+  </si>
+  <si>
+    <t>そうです</t>
+  </si>
+  <si>
+    <t>いい</t>
+  </si>
+  <si>
+    <t>伺う</t>
   </si>
 </sst>
 </file>
@@ -1332,10 +1755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R55"/>
+  <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.55000000000000004"/>
@@ -1825,7 +2248,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>227</v>
       </c>
@@ -1851,7 +2274,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>228</v>
       </c>
@@ -1877,7 +2300,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>267</v>
       </c>
@@ -1903,7 +2326,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>268</v>
       </c>
@@ -1929,7 +2352,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>269</v>
       </c>
@@ -1955,7 +2378,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>270</v>
       </c>
@@ -1981,7 +2404,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>271</v>
       </c>
@@ -2004,7 +2427,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
         <v>272</v>
       </c>
@@ -2024,7 +2447,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
         <v>273</v>
       </c>
@@ -2050,7 +2473,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
         <v>274</v>
       </c>
@@ -2070,7 +2493,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>275</v>
       </c>
@@ -2096,7 +2519,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
         <v>276</v>
       </c>
@@ -2122,7 +2545,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
         <v>277</v>
       </c>
@@ -2148,613 +2571,1326 @@
         <v>324</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
-        <v>25</v>
+        <v>326</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>341</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G30" t="s">
-        <v>30</v>
-      </c>
-      <c r="H30" t="s">
-        <v>25</v>
-      </c>
-      <c r="I30" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J30" t="s">
-        <v>32</v>
+        <v>386</v>
       </c>
       <c r="K30" t="s">
-        <v>33</v>
+        <v>371</v>
       </c>
       <c r="L30" t="s">
-        <v>56</v>
+        <v>358</v>
       </c>
       <c r="M30" t="s">
-        <v>54</v>
-      </c>
-      <c r="N30" t="s">
-        <v>34</v>
-      </c>
-      <c r="O30" t="s">
-        <v>38</v>
-      </c>
-      <c r="P30" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>36</v>
-      </c>
-      <c r="R30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>327</v>
       </c>
       <c r="B31" t="s">
-        <v>191</v>
+        <v>341</v>
       </c>
       <c r="D31" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="J31" t="s">
-        <v>42</v>
+        <v>386</v>
       </c>
       <c r="K31" t="s">
-        <v>43</v>
+        <v>372</v>
       </c>
       <c r="L31" t="s">
-        <v>57</v>
+        <v>359</v>
       </c>
       <c r="M31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
-        <v>47</v>
+        <v>328</v>
       </c>
       <c r="B32" t="s">
-        <v>191</v>
+        <v>341</v>
       </c>
       <c r="D32" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="J32" t="s">
-        <v>62</v>
+        <v>387</v>
       </c>
       <c r="K32" t="s">
-        <v>126</v>
+        <v>373</v>
       </c>
       <c r="L32" t="s">
-        <v>142</v>
+        <v>360</v>
       </c>
       <c r="M32" t="s">
-        <v>52</v>
+        <v>345</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
-        <v>48</v>
+        <v>329</v>
       </c>
       <c r="B33" t="s">
-        <v>191</v>
+        <v>341</v>
       </c>
       <c r="D33" t="s">
         <v>40</v>
       </c>
+      <c r="J33" t="s">
+        <v>388</v>
+      </c>
+      <c r="K33" t="s">
+        <v>374</v>
+      </c>
+      <c r="L33" t="s">
+        <v>361</v>
+      </c>
       <c r="M33" t="s">
-        <v>58</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
-        <v>49</v>
+        <v>330</v>
       </c>
       <c r="B34" t="s">
-        <v>191</v>
+        <v>341</v>
       </c>
       <c r="D34" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="J34" t="s">
-        <v>63</v>
+        <v>389</v>
       </c>
       <c r="K34" t="s">
-        <v>127</v>
+        <v>375</v>
+      </c>
+      <c r="L34" t="s">
+        <v>362</v>
       </c>
       <c r="M34" t="s">
-        <v>59</v>
+        <v>347</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
-        <v>50</v>
+        <v>331</v>
       </c>
       <c r="B35" t="s">
-        <v>191</v>
+        <v>341</v>
       </c>
       <c r="D35" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="J35" t="s">
-        <v>64</v>
+        <v>390</v>
       </c>
       <c r="K35" t="s">
-        <v>128</v>
+        <v>376</v>
       </c>
       <c r="L35" t="s">
-        <v>143</v>
+        <v>363</v>
       </c>
       <c r="M35" t="s">
-        <v>60</v>
+        <v>348</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
-        <v>51</v>
+        <v>332</v>
       </c>
       <c r="B36" t="s">
-        <v>191</v>
+        <v>341</v>
       </c>
       <c r="D36" t="s">
         <v>40</v>
       </c>
       <c r="J36" t="s">
-        <v>65</v>
+        <v>391</v>
       </c>
       <c r="K36" t="s">
-        <v>129</v>
+        <v>377</v>
       </c>
       <c r="L36" t="s">
-        <v>144</v>
+        <v>364</v>
       </c>
       <c r="M36" t="s">
-        <v>61</v>
+        <v>349</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
-        <v>69</v>
+        <v>333</v>
       </c>
       <c r="B37" t="s">
-        <v>191</v>
+        <v>341</v>
       </c>
       <c r="D37" t="s">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="J37" t="s">
-        <v>108</v>
+        <v>392</v>
       </c>
       <c r="K37" t="s">
-        <v>130</v>
+        <v>378</v>
       </c>
       <c r="L37" t="s">
-        <v>145</v>
+        <v>350</v>
       </c>
       <c r="M37" t="s">
-        <v>109</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
-        <v>70</v>
+        <v>334</v>
       </c>
       <c r="B38" t="s">
-        <v>191</v>
+        <v>341</v>
       </c>
       <c r="D38" t="s">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="J38" t="s">
-        <v>93</v>
+        <v>393</v>
       </c>
       <c r="K38" t="s">
-        <v>131</v>
+        <v>379</v>
       </c>
       <c r="L38" t="s">
-        <v>146</v>
+        <v>351</v>
       </c>
       <c r="M38" t="s">
-        <v>110</v>
+        <v>351</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
-        <v>71</v>
+        <v>335</v>
       </c>
       <c r="B39" t="s">
-        <v>191</v>
+        <v>341</v>
       </c>
       <c r="D39" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="J39" t="s">
-        <v>94</v>
+        <v>394</v>
       </c>
       <c r="K39" t="s">
-        <v>94</v>
+        <v>380</v>
       </c>
       <c r="L39" t="s">
-        <v>147</v>
+        <v>365</v>
       </c>
       <c r="M39" t="s">
-        <v>111</v>
+        <v>352</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1" t="s">
-        <v>72</v>
+        <v>336</v>
       </c>
       <c r="B40" t="s">
-        <v>191</v>
+        <v>341</v>
       </c>
       <c r="D40" t="s">
-        <v>89</v>
+        <v>342</v>
       </c>
       <c r="J40" t="s">
-        <v>95</v>
+        <v>381</v>
       </c>
       <c r="K40" t="s">
-        <v>132</v>
+        <v>381</v>
       </c>
       <c r="L40" t="s">
-        <v>148</v>
+        <v>366</v>
       </c>
       <c r="M40" t="s">
-        <v>112</v>
+        <v>353</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1" t="s">
-        <v>73</v>
+        <v>337</v>
       </c>
       <c r="B41" t="s">
-        <v>191</v>
+        <v>341</v>
       </c>
       <c r="D41" t="s">
-        <v>90</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>92</v>
+        <v>342</v>
       </c>
       <c r="J41" t="s">
-        <v>96</v>
+        <v>382</v>
       </c>
       <c r="K41" t="s">
-        <v>133</v>
+        <v>382</v>
       </c>
       <c r="L41" t="s">
-        <v>149</v>
+        <v>367</v>
       </c>
       <c r="M41" t="s">
-        <v>113</v>
+        <v>354</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
-        <v>74</v>
+        <v>338</v>
       </c>
       <c r="B42" t="s">
-        <v>191</v>
+        <v>341</v>
       </c>
       <c r="D42" t="s">
-        <v>90</v>
+        <v>342</v>
       </c>
       <c r="J42" t="s">
-        <v>97</v>
+        <v>383</v>
       </c>
       <c r="K42" t="s">
-        <v>135</v>
+        <v>383</v>
       </c>
       <c r="L42" t="s">
-        <v>150</v>
+        <v>368</v>
       </c>
       <c r="M42" t="s">
-        <v>114</v>
+        <v>355</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1" t="s">
-        <v>75</v>
+        <v>339</v>
       </c>
       <c r="B43" t="s">
-        <v>191</v>
+        <v>341</v>
       </c>
       <c r="D43" t="s">
-        <v>90</v>
+        <v>342</v>
       </c>
       <c r="J43" t="s">
-        <v>98</v>
+        <v>384</v>
       </c>
       <c r="K43" t="s">
-        <v>134</v>
+        <v>384</v>
       </c>
       <c r="L43" t="s">
-        <v>151</v>
+        <v>369</v>
       </c>
       <c r="M43" t="s">
-        <v>115</v>
+        <v>356</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
-        <v>76</v>
+        <v>340</v>
       </c>
       <c r="B44" t="s">
-        <v>191</v>
+        <v>341</v>
       </c>
       <c r="D44" t="s">
-        <v>90</v>
+        <v>342</v>
       </c>
       <c r="J44" t="s">
-        <v>99</v>
+        <v>385</v>
       </c>
       <c r="K44" t="s">
-        <v>153</v>
+        <v>385</v>
       </c>
       <c r="L44" t="s">
-        <v>152</v>
+        <v>370</v>
       </c>
       <c r="M44" t="s">
-        <v>116</v>
+        <v>357</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
-        <v>77</v>
+        <v>395</v>
       </c>
       <c r="B45" t="s">
-        <v>191</v>
+        <v>341</v>
       </c>
       <c r="D45" t="s">
-        <v>91</v>
+        <v>342</v>
       </c>
       <c r="J45" t="s">
-        <v>100</v>
+        <v>441</v>
+      </c>
+      <c r="K45" t="s">
+        <v>441</v>
       </c>
       <c r="L45" t="s">
-        <v>154</v>
+        <v>427</v>
       </c>
       <c r="M45" t="s">
-        <v>117</v>
+        <v>411</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
-        <v>78</v>
+        <v>396</v>
       </c>
       <c r="B46" t="s">
-        <v>191</v>
+        <v>341</v>
       </c>
       <c r="D46" t="s">
-        <v>91</v>
+        <v>342</v>
       </c>
       <c r="J46" t="s">
-        <v>101</v>
+        <v>442</v>
       </c>
       <c r="K46" t="s">
-        <v>136</v>
+        <v>442</v>
       </c>
       <c r="L46" t="s">
-        <v>155</v>
+        <v>428</v>
       </c>
       <c r="M46" t="s">
-        <v>118</v>
+        <v>412</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
-        <v>79</v>
+        <v>397</v>
       </c>
       <c r="B47" t="s">
-        <v>191</v>
+        <v>341</v>
       </c>
       <c r="D47" t="s">
-        <v>91</v>
+        <v>414</v>
       </c>
       <c r="J47" t="s">
-        <v>101</v>
+        <v>443</v>
       </c>
       <c r="K47" t="s">
-        <v>136</v>
+        <v>455</v>
       </c>
       <c r="L47" t="s">
-        <v>155</v>
+        <v>429</v>
       </c>
       <c r="M47" t="s">
-        <v>118</v>
+        <v>413</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B48" t="s">
+        <v>341</v>
+      </c>
+      <c r="D48" t="s">
+        <v>414</v>
+      </c>
+      <c r="J48" t="s">
+        <v>444</v>
+      </c>
+      <c r="K48" t="s">
+        <v>456</v>
+      </c>
+      <c r="L48" t="s">
+        <v>430</v>
+      </c>
+      <c r="M48" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B49" t="s">
+        <v>341</v>
+      </c>
+      <c r="D49" t="s">
+        <v>414</v>
+      </c>
+      <c r="J49" t="s">
+        <v>444</v>
+      </c>
+      <c r="K49" t="s">
+        <v>456</v>
+      </c>
+      <c r="L49" t="s">
+        <v>430</v>
+      </c>
+      <c r="M49" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B50" t="s">
+        <v>341</v>
+      </c>
+      <c r="D50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J50" t="s">
+        <v>445</v>
+      </c>
+      <c r="K50" t="s">
+        <v>457</v>
+      </c>
+      <c r="L50" t="s">
+        <v>431</v>
+      </c>
+      <c r="M50" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B51" t="s">
+        <v>341</v>
+      </c>
+      <c r="D51" t="s">
+        <v>40</v>
+      </c>
+      <c r="J51" t="s">
+        <v>446</v>
+      </c>
+      <c r="K51" t="s">
+        <v>458</v>
+      </c>
+      <c r="L51" t="s">
+        <v>432</v>
+      </c>
+      <c r="M51" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B52" t="s">
+        <v>341</v>
+      </c>
+      <c r="D52" t="s">
+        <v>415</v>
+      </c>
+      <c r="J52" t="s">
+        <v>448</v>
+      </c>
+      <c r="K52" t="s">
+        <v>459</v>
+      </c>
+      <c r="L52" t="s">
+        <v>433</v>
+      </c>
+      <c r="M52" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B53" t="s">
+        <v>341</v>
+      </c>
+      <c r="D53" t="s">
+        <v>415</v>
+      </c>
+      <c r="J53" t="s">
+        <v>447</v>
+      </c>
+      <c r="K53" t="s">
+        <v>460</v>
+      </c>
+      <c r="L53" t="s">
+        <v>434</v>
+      </c>
+      <c r="M53" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B54" t="s">
+        <v>341</v>
+      </c>
+      <c r="D54" t="s">
+        <v>289</v>
+      </c>
+      <c r="J54" t="s">
+        <v>449</v>
+      </c>
+      <c r="K54" t="s">
+        <v>461</v>
+      </c>
+      <c r="L54" t="s">
+        <v>435</v>
+      </c>
+      <c r="M54" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B55" t="s">
+        <v>341</v>
+      </c>
+      <c r="D55" t="s">
+        <v>289</v>
+      </c>
+      <c r="J55" t="s">
+        <v>450</v>
+      </c>
+      <c r="K55" t="s">
+        <v>462</v>
+      </c>
+      <c r="L55" t="s">
+        <v>436</v>
+      </c>
+      <c r="M55" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B56" t="s">
+        <v>341</v>
+      </c>
+      <c r="D56" t="s">
+        <v>289</v>
+      </c>
+      <c r="J56" t="s">
+        <v>450</v>
+      </c>
+      <c r="K56" t="s">
+        <v>462</v>
+      </c>
+      <c r="L56" t="s">
+        <v>436</v>
+      </c>
+      <c r="M56" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B57" t="s">
+        <v>341</v>
+      </c>
+      <c r="D57" t="s">
+        <v>415</v>
+      </c>
+      <c r="J57" t="s">
+        <v>451</v>
+      </c>
+      <c r="K57" t="s">
+        <v>463</v>
+      </c>
+      <c r="L57" t="s">
+        <v>437</v>
+      </c>
+      <c r="M57" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B58" t="s">
+        <v>341</v>
+      </c>
+      <c r="D58" t="s">
+        <v>415</v>
+      </c>
+      <c r="J58" t="s">
+        <v>452</v>
+      </c>
+      <c r="K58" t="s">
+        <v>464</v>
+      </c>
+      <c r="L58" t="s">
+        <v>438</v>
+      </c>
+      <c r="M58" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B59" t="s">
+        <v>341</v>
+      </c>
+      <c r="D59" t="s">
+        <v>90</v>
+      </c>
+      <c r="J59" t="s">
+        <v>453</v>
+      </c>
+      <c r="K59" t="s">
+        <v>465</v>
+      </c>
+      <c r="L59" t="s">
+        <v>439</v>
+      </c>
+      <c r="M59" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B60" t="s">
+        <v>341</v>
+      </c>
+      <c r="D60" t="s">
+        <v>27</v>
+      </c>
+      <c r="J60" t="s">
+        <v>454</v>
+      </c>
+      <c r="K60" t="s">
+        <v>466</v>
+      </c>
+      <c r="L60" t="s">
+        <v>440</v>
+      </c>
+      <c r="M60" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" t="s">
+        <v>27</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G61" t="s">
+        <v>30</v>
+      </c>
+      <c r="H61" t="s">
+        <v>25</v>
+      </c>
+      <c r="I61" t="s">
+        <v>31</v>
+      </c>
+      <c r="J61" t="s">
+        <v>32</v>
+      </c>
+      <c r="K61" t="s">
+        <v>33</v>
+      </c>
+      <c r="L61" t="s">
+        <v>56</v>
+      </c>
+      <c r="M61" t="s">
+        <v>54</v>
+      </c>
+      <c r="N61" t="s">
+        <v>34</v>
+      </c>
+      <c r="O61" t="s">
+        <v>38</v>
+      </c>
+      <c r="P61" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>36</v>
+      </c>
+      <c r="R61" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B62" t="s">
+        <v>191</v>
+      </c>
+      <c r="D62" t="s">
+        <v>40</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J62" t="s">
+        <v>42</v>
+      </c>
+      <c r="K62" t="s">
+        <v>43</v>
+      </c>
+      <c r="L62" t="s">
+        <v>57</v>
+      </c>
+      <c r="M62" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B63" t="s">
+        <v>191</v>
+      </c>
+      <c r="D63" t="s">
+        <v>40</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J63" t="s">
+        <v>62</v>
+      </c>
+      <c r="K63" t="s">
+        <v>126</v>
+      </c>
+      <c r="L63" t="s">
+        <v>142</v>
+      </c>
+      <c r="M63" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B64" t="s">
+        <v>191</v>
+      </c>
+      <c r="D64" t="s">
+        <v>40</v>
+      </c>
+      <c r="M64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65" t="s">
+        <v>191</v>
+      </c>
+      <c r="D65" t="s">
+        <v>40</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J65" t="s">
+        <v>63</v>
+      </c>
+      <c r="K65" t="s">
+        <v>127</v>
+      </c>
+      <c r="M65" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" t="s">
+        <v>191</v>
+      </c>
+      <c r="D66" t="s">
+        <v>40</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J66" t="s">
+        <v>64</v>
+      </c>
+      <c r="K66" t="s">
+        <v>128</v>
+      </c>
+      <c r="L66" t="s">
+        <v>143</v>
+      </c>
+      <c r="M66" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B67" t="s">
+        <v>191</v>
+      </c>
+      <c r="D67" t="s">
+        <v>40</v>
+      </c>
+      <c r="J67" t="s">
+        <v>65</v>
+      </c>
+      <c r="K67" t="s">
+        <v>129</v>
+      </c>
+      <c r="L67" t="s">
+        <v>144</v>
+      </c>
+      <c r="M67" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" t="s">
+        <v>191</v>
+      </c>
+      <c r="D68" t="s">
+        <v>40</v>
+      </c>
+      <c r="J68" t="s">
+        <v>108</v>
+      </c>
+      <c r="K68" t="s">
+        <v>130</v>
+      </c>
+      <c r="L68" t="s">
+        <v>145</v>
+      </c>
+      <c r="M68" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>191</v>
+      </c>
+      <c r="D69" t="s">
+        <v>40</v>
+      </c>
+      <c r="J69" t="s">
+        <v>93</v>
+      </c>
+      <c r="K69" t="s">
+        <v>131</v>
+      </c>
+      <c r="L69" t="s">
+        <v>146</v>
+      </c>
+      <c r="M69" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>191</v>
+      </c>
+      <c r="D70" t="s">
+        <v>40</v>
+      </c>
+      <c r="J70" t="s">
+        <v>94</v>
+      </c>
+      <c r="K70" t="s">
+        <v>94</v>
+      </c>
+      <c r="L70" t="s">
+        <v>147</v>
+      </c>
+      <c r="M70" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s">
+        <v>191</v>
+      </c>
+      <c r="D71" t="s">
+        <v>89</v>
+      </c>
+      <c r="J71" t="s">
+        <v>95</v>
+      </c>
+      <c r="K71" t="s">
+        <v>132</v>
+      </c>
+      <c r="L71" t="s">
+        <v>148</v>
+      </c>
+      <c r="M71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" t="s">
+        <v>191</v>
+      </c>
+      <c r="D72" t="s">
+        <v>90</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J72" t="s">
+        <v>96</v>
+      </c>
+      <c r="K72" t="s">
+        <v>133</v>
+      </c>
+      <c r="L72" t="s">
+        <v>149</v>
+      </c>
+      <c r="M72" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" t="s">
+        <v>191</v>
+      </c>
+      <c r="D73" t="s">
+        <v>90</v>
+      </c>
+      <c r="J73" t="s">
+        <v>97</v>
+      </c>
+      <c r="K73" t="s">
+        <v>135</v>
+      </c>
+      <c r="L73" t="s">
+        <v>150</v>
+      </c>
+      <c r="M73" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" t="s">
+        <v>191</v>
+      </c>
+      <c r="D74" t="s">
+        <v>90</v>
+      </c>
+      <c r="J74" t="s">
+        <v>98</v>
+      </c>
+      <c r="K74" t="s">
+        <v>134</v>
+      </c>
+      <c r="L74" t="s">
+        <v>151</v>
+      </c>
+      <c r="M74" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" t="s">
+        <v>191</v>
+      </c>
+      <c r="D75" t="s">
+        <v>90</v>
+      </c>
+      <c r="J75" t="s">
+        <v>99</v>
+      </c>
+      <c r="K75" t="s">
+        <v>153</v>
+      </c>
+      <c r="L75" t="s">
+        <v>152</v>
+      </c>
+      <c r="M75" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" t="s">
+        <v>191</v>
+      </c>
+      <c r="D76" t="s">
+        <v>91</v>
+      </c>
+      <c r="J76" t="s">
+        <v>100</v>
+      </c>
+      <c r="L76" t="s">
+        <v>154</v>
+      </c>
+      <c r="M76" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" t="s">
+        <v>191</v>
+      </c>
+      <c r="D77" t="s">
+        <v>91</v>
+      </c>
+      <c r="J77" t="s">
+        <v>101</v>
+      </c>
+      <c r="K77" t="s">
+        <v>136</v>
+      </c>
+      <c r="L77" t="s">
+        <v>155</v>
+      </c>
+      <c r="M77" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" t="s">
+        <v>191</v>
+      </c>
+      <c r="D78" t="s">
+        <v>91</v>
+      </c>
+      <c r="J78" t="s">
+        <v>101</v>
+      </c>
+      <c r="K78" t="s">
+        <v>136</v>
+      </c>
+      <c r="L78" t="s">
+        <v>155</v>
+      </c>
+      <c r="M78" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B79" t="s">
         <v>191</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D79" t="s">
         <v>91</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J79" t="s">
         <v>102</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K79" t="s">
         <v>137</v>
       </c>
-      <c r="L48" t="s">
+      <c r="L79" t="s">
         <v>156</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M79" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="1" t="s">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B80" t="s">
         <v>191</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D80" t="s">
         <v>91</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J80" t="s">
         <v>102</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K80" t="s">
         <v>137</v>
       </c>
-      <c r="L49" t="s">
+      <c r="L80" t="s">
         <v>156</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M80" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="1" t="s">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B81" t="s">
         <v>191</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J81" t="s">
         <v>103</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M81" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="1" t="s">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B82" t="s">
         <v>191</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J82" t="s">
         <v>104</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M82" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="1" t="s">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B83" t="s">
         <v>191</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D83" t="s">
         <v>27</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J83" t="s">
         <v>105</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K83" t="s">
         <v>138</v>
       </c>
-      <c r="L52" t="s">
+      <c r="L83" t="s">
         <v>157</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M83" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="1" t="s">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B84" t="s">
         <v>191</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D84" t="s">
         <v>27</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J84" t="s">
         <v>94</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K84" t="s">
         <v>139</v>
       </c>
-      <c r="L53" t="s">
+      <c r="L84" t="s">
         <v>157</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M84" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="1" t="s">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B85" t="s">
         <v>191</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D85" t="s">
         <v>27</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J85" t="s">
         <v>106</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K85" t="s">
         <v>140</v>
       </c>
-      <c r="L54" t="s">
+      <c r="L85" t="s">
         <v>158</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M85" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="1" t="s">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B86" t="s">
         <v>191</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D86" t="s">
         <v>27</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F86" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J86" t="s">
         <v>107</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K86" t="s">
         <v>141</v>
       </c>
-      <c r="L55" t="s">
+      <c r="L86" t="s">
         <v>159</v>
       </c>
-      <c r="M55" t="s">
+      <c r="M86" t="s">
         <v>125</v>
       </c>
     </row>

--- a/dictionary/Vocab.xlsx
+++ b/dictionary/Vocab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02 Trae\TibetanNote\dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8EB5A4-F80E-4266-807E-F0AC8385FAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE60976-A328-4C50-B2F6-0B59FEEAE575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="5460" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="650">
   <si>
     <t>word</t>
   </si>
@@ -1426,6 +1426,555 @@
   </si>
   <si>
     <t>伺う</t>
+  </si>
+  <si>
+    <t>མི།</t>
+  </si>
+  <si>
+    <t>ནང་མི།</t>
+  </si>
+  <si>
+    <t>མི་ཚང་།</t>
+  </si>
+  <si>
+    <t>ཕ་མ།</t>
+  </si>
+  <si>
+    <t>པ་ཕ།</t>
+  </si>
+  <si>
+    <t>པྰ་ལགས།</t>
+  </si>
+  <si>
+    <t>ཨ་མ།</t>
+  </si>
+  <si>
+    <t>ཨ་མ་ལགས།</t>
+  </si>
+  <si>
+    <t>སྤོ་སྤོ།</t>
+  </si>
+  <si>
+    <t>སྤོ་བོ་ལགས།</t>
+  </si>
+  <si>
+    <t>རྨོ་རྨོ།</t>
+  </si>
+  <si>
+    <t>རྨོ་བོ་ལགས།</t>
+  </si>
+  <si>
+    <t>སྤོ་སྤོ་རྨོ་རྨོ།</t>
+  </si>
+  <si>
+    <t>ཨ་ཅག</t>
+  </si>
+  <si>
+    <t>ཨ་ཅག་ལགས།</t>
+  </si>
+  <si>
+    <t>ཅོ་ཅོག</t>
+  </si>
+  <si>
+    <t>ཇོ་ལགས།</t>
+  </si>
+  <si>
+    <t>ཨ་ཁུ།</t>
+  </si>
+  <si>
+    <t>ཨ་ཁུ་ལགས།</t>
+  </si>
+  <si>
+    <t>ཨ་ཞང་།</t>
+  </si>
+  <si>
+    <t>ཞང་ཞང་།</t>
+  </si>
+  <si>
+    <t>ཨ་ཞང་ལགས།</t>
+  </si>
+  <si>
+    <t>ཨ་ནེ།</t>
+  </si>
+  <si>
+    <t>ཨ་ནེ་ལགས།</t>
+  </si>
+  <si>
+    <t>སྲུ་མོ།</t>
+  </si>
+  <si>
+    <t>སྲུ་མོ་ལགས།</t>
+  </si>
+  <si>
+    <t>ཕྲུ་གུ།</t>
+  </si>
+  <si>
+    <t>བུ།</t>
+  </si>
+  <si>
+    <t>ནང་(inside)+མི་(person)</t>
+  </si>
+  <si>
+    <t>མི་(person)+ཚང་(nest)</t>
+  </si>
+  <si>
+    <t>ཕ་(father)+མ་(mother)</t>
+  </si>
+  <si>
+    <t>homme ; personne</t>
+  </si>
+  <si>
+    <t>membre de la famille</t>
+  </si>
+  <si>
+    <t>famille ; foyer</t>
+  </si>
+  <si>
+    <t>parents</t>
+  </si>
+  <si>
+    <t>père ; monsieur</t>
+  </si>
+  <si>
+    <t>mère ; madame</t>
+  </si>
+  <si>
+    <t>grand-père ; monsieur</t>
+  </si>
+  <si>
+    <t>N.Hon</t>
+  </si>
+  <si>
+    <t>V.Hon</t>
+  </si>
+  <si>
+    <t>grand-mère ; madame</t>
+  </si>
+  <si>
+    <t>grands-parents</t>
+  </si>
+  <si>
+    <t>grande sœur ; madame</t>
+  </si>
+  <si>
+    <t>grand frère ; monsieur</t>
+  </si>
+  <si>
+    <t>oncle paternel</t>
+  </si>
+  <si>
+    <t>oncle maternel</t>
+  </si>
+  <si>
+    <t>tante paternelle</t>
+  </si>
+  <si>
+    <t>tante maternelle</t>
+  </si>
+  <si>
+    <t>enfant</t>
+  </si>
+  <si>
+    <t>fils ; garçon</t>
+  </si>
+  <si>
+    <t>man; person</t>
+  </si>
+  <si>
+    <t>family member</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>mother; ma'am</t>
+  </si>
+  <si>
+    <t>father; sir</t>
+  </si>
+  <si>
+    <t>grandfather; sir</t>
+  </si>
+  <si>
+    <t>grandmother; ma'am</t>
+  </si>
+  <si>
+    <t>grandparents</t>
+  </si>
+  <si>
+    <t>elder sister; ma'am</t>
+  </si>
+  <si>
+    <t>elder brother; sir</t>
+  </si>
+  <si>
+    <t>paternal uncle</t>
+  </si>
+  <si>
+    <t>maternal uncle</t>
+  </si>
+  <si>
+    <t>paternal aunt</t>
+  </si>
+  <si>
+    <t>paternel aunt</t>
+  </si>
+  <si>
+    <t>maternal aunt</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>son; boy</t>
+  </si>
+  <si>
+    <t>人</t>
+  </si>
+  <si>
+    <t>家人</t>
+  </si>
+  <si>
+    <t>家庭</t>
+  </si>
+  <si>
+    <t>父母</t>
+  </si>
+  <si>
+    <t>父亲</t>
+  </si>
+  <si>
+    <t>母亲</t>
+  </si>
+  <si>
+    <t>（外）祖父</t>
+  </si>
+  <si>
+    <t>（外）祖母</t>
+  </si>
+  <si>
+    <t>（外）祖父母</t>
+  </si>
+  <si>
+    <t>姐姐</t>
+  </si>
+  <si>
+    <t>哥哥</t>
+  </si>
+  <si>
+    <t>伯伯；叔叔</t>
+  </si>
+  <si>
+    <t>姑姑；婶婶</t>
+  </si>
+  <si>
+    <t>舅舅</t>
+  </si>
+  <si>
+    <t>姨母</t>
+  </si>
+  <si>
+    <t>孩子</t>
+  </si>
+  <si>
+    <t>儿子；男孩</t>
+  </si>
+  <si>
+    <t>家族</t>
+  </si>
+  <si>
+    <t>両親</t>
+  </si>
+  <si>
+    <t>父親</t>
+  </si>
+  <si>
+    <t>お父さん</t>
+  </si>
+  <si>
+    <t>母親</t>
+  </si>
+  <si>
+    <t>お母さん</t>
+  </si>
+  <si>
+    <t>お爺さん</t>
+  </si>
+  <si>
+    <t>お婆さん</t>
+  </si>
+  <si>
+    <t>祖父母</t>
+  </si>
+  <si>
+    <t>姉</t>
+  </si>
+  <si>
+    <t>お姉さん</t>
+  </si>
+  <si>
+    <t>兄</t>
+  </si>
+  <si>
+    <t>お兄さん</t>
+  </si>
+  <si>
+    <t>おじさん</t>
+  </si>
+  <si>
+    <t>おばさん</t>
+  </si>
+  <si>
+    <t>子供</t>
+  </si>
+  <si>
+    <t>息子、男の子</t>
+  </si>
+  <si>
+    <t>བུ་མོ།</t>
+  </si>
+  <si>
+    <t>ཚ་བོ།</t>
+  </si>
+  <si>
+    <t>ཚ་མོ།</t>
+  </si>
+  <si>
+    <t>འོག་མ།</t>
+  </si>
+  <si>
+    <t>ཨོའོ་ལགས།</t>
+  </si>
+  <si>
+    <t>ཁྱི།</t>
+  </si>
+  <si>
+    <t>ཚོང་པ།</t>
+  </si>
+  <si>
+    <t>རྩོམ་པ་པོ།</t>
+  </si>
+  <si>
+    <t>བཟོ་པ།</t>
+  </si>
+  <si>
+    <t>ཨེམ་ཆི།</t>
+  </si>
+  <si>
+    <t>ཞིང་པ།</t>
+  </si>
+  <si>
+    <t>བླ་མ།</t>
+  </si>
+  <si>
+    <t>ཀུ་ཤུ</t>
+  </si>
+  <si>
+    <t>མེ་ཏོག</t>
+  </si>
+  <si>
+    <t>ཆེ་བ།</t>
+  </si>
+  <si>
+    <t>རྒན་པ།</t>
+  </si>
+  <si>
+    <t>ཆུང་བ།</t>
+  </si>
+  <si>
+    <t>གཞོན་པ།</t>
+  </si>
+  <si>
+    <t>དཀར་པོ།</t>
+  </si>
+  <si>
+    <t>fille</t>
+  </si>
+  <si>
+    <t>petit-fils ; neveu</t>
+  </si>
+  <si>
+    <t>petite-fille ; nièce</t>
+  </si>
+  <si>
+    <t>petit-frère ; petite sœur</t>
+  </si>
+  <si>
+    <t>chien</t>
+  </si>
+  <si>
+    <t>commerçant</t>
+  </si>
+  <si>
+    <t>écrivain</t>
+  </si>
+  <si>
+    <t>ouvrier</t>
+  </si>
+  <si>
+    <t>médecin</t>
+  </si>
+  <si>
+    <t>paysan ; agriculteur</t>
+  </si>
+  <si>
+    <t>Lama</t>
+  </si>
+  <si>
+    <t>pomme</t>
+  </si>
+  <si>
+    <t>fleur</t>
+  </si>
+  <si>
+    <t>ainé</t>
+  </si>
+  <si>
+    <t>cadet</t>
+  </si>
+  <si>
+    <t>blanc</t>
+  </si>
+  <si>
+    <t>daughter; girl</t>
+  </si>
+  <si>
+    <t>grandson; nephew</t>
+  </si>
+  <si>
+    <t>granddaughter; niece</t>
+  </si>
+  <si>
+    <t>younger brother</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>bussinessman</t>
+  </si>
+  <si>
+    <t>writer</t>
+  </si>
+  <si>
+    <t>worker</t>
+  </si>
+  <si>
+    <t>doctor</t>
+  </si>
+  <si>
+    <t>farmer</t>
+  </si>
+  <si>
+    <t>Lamo</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>མེ་(fire)+ཏོག(point)</t>
+  </si>
+  <si>
+    <t>elder</t>
+  </si>
+  <si>
+    <t>younger</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>女儿；女孩</t>
+  </si>
+  <si>
+    <t>弟弟；妹妹</t>
+  </si>
+  <si>
+    <t>狗</t>
+  </si>
+  <si>
+    <t>商人</t>
+  </si>
+  <si>
+    <t>作家</t>
+  </si>
+  <si>
+    <t>工人</t>
+  </si>
+  <si>
+    <t>医生</t>
+  </si>
+  <si>
+    <t>喇嘛</t>
+  </si>
+  <si>
+    <t>苹果</t>
+  </si>
+  <si>
+    <t>花</t>
+  </si>
+  <si>
+    <t>年长的</t>
+  </si>
+  <si>
+    <t>年幼的</t>
+  </si>
+  <si>
+    <t>白色</t>
+  </si>
+  <si>
+    <t>娘、女の子</t>
+  </si>
+  <si>
+    <t>（外）孙；侄子；外甥</t>
+  </si>
+  <si>
+    <t>（外）孙女；侄女；外甥女</t>
+  </si>
+  <si>
+    <t>孫、甥</t>
+  </si>
+  <si>
+    <t>孫、姪</t>
+  </si>
+  <si>
+    <t>弟、妹</t>
+  </si>
+  <si>
+    <t>弟さん、妹さん</t>
+  </si>
+  <si>
+    <t>犬</t>
+  </si>
+  <si>
+    <t>労働者</t>
+  </si>
+  <si>
+    <t>医者</t>
+  </si>
+  <si>
+    <t>农民</t>
+  </si>
+  <si>
+    <t>農民</t>
+  </si>
+  <si>
+    <t>ラマ</t>
+  </si>
+  <si>
+    <t>リンゴ</t>
+  </si>
+  <si>
+    <t>年上</t>
+  </si>
+  <si>
+    <t>年下</t>
+  </si>
+  <si>
+    <t>白い</t>
   </si>
 </sst>
 </file>
@@ -1755,10 +2304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R86"/>
+  <dimension ref="A1:R133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K107" sqref="K107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.55000000000000004"/>
@@ -3008,7 +3557,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
         <v>399</v>
       </c>
@@ -3031,7 +3580,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
         <v>400</v>
       </c>
@@ -3054,7 +3603,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>401</v>
       </c>
@@ -3077,7 +3626,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
         <v>402</v>
       </c>
@@ -3100,7 +3649,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
         <v>403</v>
       </c>
@@ -3123,7 +3672,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1" t="s">
         <v>404</v>
       </c>
@@ -3146,7 +3695,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1" t="s">
         <v>405</v>
       </c>
@@ -3169,7 +3718,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
         <v>406</v>
       </c>
@@ -3192,7 +3741,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>407</v>
       </c>
@@ -3215,7 +3764,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1" t="s">
         <v>408</v>
       </c>
@@ -3238,7 +3787,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1" t="s">
         <v>409</v>
       </c>
@@ -3261,7 +3810,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1" t="s">
         <v>410</v>
       </c>
@@ -3269,7 +3818,7 @@
         <v>341</v>
       </c>
       <c r="D60" t="s">
-        <v>27</v>
+        <v>506</v>
       </c>
       <c r="J60" t="s">
         <v>454</v>
@@ -3284,613 +3833,1706 @@
         <v>425</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
-        <v>25</v>
+        <v>467</v>
       </c>
       <c r="B61" t="s">
         <v>26</v>
       </c>
       <c r="D61" t="s">
-        <v>27</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G61" t="s">
-        <v>30</v>
-      </c>
-      <c r="H61" t="s">
-        <v>25</v>
-      </c>
-      <c r="I61" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J61" t="s">
-        <v>32</v>
+        <v>534</v>
       </c>
       <c r="K61" t="s">
-        <v>33</v>
+        <v>534</v>
       </c>
       <c r="L61" t="s">
-        <v>56</v>
+        <v>517</v>
       </c>
       <c r="M61" t="s">
-        <v>54</v>
-      </c>
-      <c r="N61" t="s">
-        <v>34</v>
-      </c>
-      <c r="O61" t="s">
-        <v>38</v>
-      </c>
-      <c r="P61" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>36</v>
-      </c>
-      <c r="R61" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
-        <v>39</v>
+        <v>468</v>
       </c>
       <c r="B62" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="D62" t="s">
         <v>40</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>41</v>
+        <v>495</v>
       </c>
       <c r="J62" t="s">
-        <v>42</v>
+        <v>535</v>
       </c>
       <c r="K62" t="s">
-        <v>43</v>
+        <v>551</v>
       </c>
       <c r="L62" t="s">
-        <v>57</v>
+        <v>518</v>
       </c>
       <c r="M62" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
-        <v>47</v>
+        <v>469</v>
       </c>
       <c r="B63" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="D63" t="s">
         <v>40</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>66</v>
+        <v>496</v>
       </c>
       <c r="J63" t="s">
-        <v>62</v>
+        <v>536</v>
       </c>
       <c r="K63" t="s">
-        <v>126</v>
+        <v>536</v>
       </c>
       <c r="L63" t="s">
-        <v>142</v>
+        <v>519</v>
       </c>
       <c r="M63" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
-        <v>48</v>
+        <v>470</v>
       </c>
       <c r="B64" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="D64" t="s">
         <v>40</v>
       </c>
+      <c r="E64" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="J64" t="s">
+        <v>537</v>
+      </c>
+      <c r="K64" t="s">
+        <v>552</v>
+      </c>
+      <c r="L64" t="s">
+        <v>501</v>
+      </c>
       <c r="M64" t="s">
-        <v>58</v>
+        <v>501</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
-        <v>49</v>
+        <v>471</v>
       </c>
       <c r="B65" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="D65" t="s">
         <v>40</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="J65" t="s">
-        <v>63</v>
+        <v>538</v>
       </c>
       <c r="K65" t="s">
-        <v>127</v>
+        <v>553</v>
+      </c>
+      <c r="L65" t="s">
+        <v>521</v>
       </c>
       <c r="M65" t="s">
-        <v>59</v>
+        <v>502</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
-        <v>50</v>
+        <v>472</v>
       </c>
       <c r="B66" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="D66" t="s">
-        <v>40</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>68</v>
+        <v>505</v>
       </c>
       <c r="J66" t="s">
-        <v>64</v>
+        <v>538</v>
       </c>
       <c r="K66" t="s">
-        <v>128</v>
+        <v>554</v>
       </c>
       <c r="L66" t="s">
-        <v>143</v>
+        <v>521</v>
       </c>
       <c r="M66" t="s">
-        <v>60</v>
+        <v>502</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
-        <v>51</v>
+        <v>473</v>
       </c>
       <c r="B67" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="D67" t="s">
         <v>40</v>
       </c>
       <c r="J67" t="s">
-        <v>65</v>
+        <v>539</v>
       </c>
       <c r="K67" t="s">
-        <v>129</v>
+        <v>555</v>
       </c>
       <c r="L67" t="s">
-        <v>144</v>
+        <v>520</v>
       </c>
       <c r="M67" t="s">
-        <v>61</v>
+        <v>503</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>474</v>
       </c>
       <c r="B68" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="D68" t="s">
-        <v>40</v>
+        <v>505</v>
       </c>
       <c r="J68" t="s">
-        <v>108</v>
+        <v>539</v>
       </c>
       <c r="K68" t="s">
-        <v>130</v>
+        <v>556</v>
       </c>
       <c r="L68" t="s">
-        <v>145</v>
+        <v>520</v>
       </c>
       <c r="M68" t="s">
-        <v>109</v>
+        <v>503</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>475</v>
       </c>
       <c r="B69" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="D69" t="s">
         <v>40</v>
       </c>
       <c r="J69" t="s">
-        <v>93</v>
+        <v>540</v>
       </c>
       <c r="K69" t="s">
-        <v>131</v>
+        <v>557</v>
       </c>
       <c r="L69" t="s">
-        <v>146</v>
+        <v>522</v>
       </c>
       <c r="M69" t="s">
-        <v>110</v>
+        <v>504</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>476</v>
       </c>
       <c r="B70" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="D70" t="s">
-        <v>40</v>
+        <v>505</v>
       </c>
       <c r="J70" t="s">
-        <v>94</v>
+        <v>540</v>
       </c>
       <c r="K70" t="s">
-        <v>94</v>
+        <v>557</v>
       </c>
       <c r="L70" t="s">
-        <v>147</v>
+        <v>522</v>
       </c>
       <c r="M70" t="s">
-        <v>111</v>
+        <v>504</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>477</v>
       </c>
       <c r="B71" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="D71" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="J71" t="s">
-        <v>95</v>
+        <v>541</v>
       </c>
       <c r="K71" t="s">
-        <v>132</v>
+        <v>558</v>
       </c>
       <c r="L71" t="s">
-        <v>148</v>
+        <v>523</v>
       </c>
       <c r="M71" t="s">
-        <v>112</v>
+        <v>507</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>478</v>
       </c>
       <c r="B72" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="D72" t="s">
-        <v>90</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>92</v>
+        <v>505</v>
       </c>
       <c r="J72" t="s">
-        <v>96</v>
+        <v>541</v>
       </c>
       <c r="K72" t="s">
-        <v>133</v>
+        <v>558</v>
       </c>
       <c r="L72" t="s">
-        <v>149</v>
+        <v>523</v>
       </c>
       <c r="M72" t="s">
-        <v>113</v>
+        <v>507</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>479</v>
       </c>
       <c r="B73" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="D73" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="J73" t="s">
-        <v>97</v>
+        <v>542</v>
       </c>
       <c r="K73" t="s">
-        <v>135</v>
+        <v>559</v>
       </c>
       <c r="L73" t="s">
-        <v>150</v>
+        <v>524</v>
       </c>
       <c r="M73" t="s">
-        <v>114</v>
+        <v>508</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>480</v>
       </c>
       <c r="B74" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="D74" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="J74" t="s">
-        <v>98</v>
+        <v>543</v>
       </c>
       <c r="K74" t="s">
-        <v>134</v>
+        <v>560</v>
       </c>
       <c r="L74" t="s">
-        <v>151</v>
+        <v>525</v>
       </c>
       <c r="M74" t="s">
-        <v>115</v>
+        <v>509</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>481</v>
       </c>
       <c r="B75" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="D75" t="s">
-        <v>90</v>
+        <v>505</v>
       </c>
       <c r="J75" t="s">
-        <v>99</v>
+        <v>543</v>
       </c>
       <c r="K75" t="s">
-        <v>153</v>
+        <v>561</v>
       </c>
       <c r="L75" t="s">
-        <v>152</v>
+        <v>525</v>
       </c>
       <c r="M75" t="s">
-        <v>116</v>
+        <v>509</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>482</v>
       </c>
       <c r="B76" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="D76" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="J76" t="s">
-        <v>100</v>
+        <v>544</v>
+      </c>
+      <c r="K76" t="s">
+        <v>562</v>
       </c>
       <c r="L76" t="s">
-        <v>154</v>
+        <v>526</v>
       </c>
       <c r="M76" t="s">
-        <v>117</v>
+        <v>510</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>483</v>
       </c>
       <c r="B77" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="D77" t="s">
-        <v>91</v>
+        <v>505</v>
       </c>
       <c r="J77" t="s">
-        <v>101</v>
+        <v>544</v>
       </c>
       <c r="K77" t="s">
-        <v>136</v>
+        <v>563</v>
       </c>
       <c r="L77" t="s">
-        <v>155</v>
+        <v>526</v>
       </c>
       <c r="M77" t="s">
-        <v>118</v>
+        <v>510</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>484</v>
       </c>
       <c r="B78" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="D78" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="J78" t="s">
-        <v>101</v>
+        <v>545</v>
       </c>
       <c r="K78" t="s">
-        <v>136</v>
+        <v>564</v>
       </c>
       <c r="L78" t="s">
-        <v>155</v>
+        <v>527</v>
       </c>
       <c r="M78" t="s">
-        <v>118</v>
+        <v>511</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>485</v>
       </c>
       <c r="B79" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="D79" t="s">
-        <v>91</v>
+        <v>505</v>
       </c>
       <c r="J79" t="s">
-        <v>102</v>
+        <v>545</v>
       </c>
       <c r="K79" t="s">
-        <v>137</v>
+        <v>564</v>
       </c>
       <c r="L79" t="s">
-        <v>156</v>
+        <v>527</v>
       </c>
       <c r="M79" t="s">
-        <v>119</v>
+        <v>511</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>486</v>
       </c>
       <c r="B80" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="D80" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="J80" t="s">
-        <v>102</v>
+        <v>547</v>
       </c>
       <c r="K80" t="s">
-        <v>137</v>
+        <v>564</v>
       </c>
       <c r="L80" t="s">
-        <v>156</v>
+        <v>528</v>
       </c>
       <c r="M80" t="s">
-        <v>119</v>
+        <v>512</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>487</v>
       </c>
       <c r="B81" t="s">
-        <v>191</v>
+        <v>26</v>
+      </c>
+      <c r="D81" t="s">
+        <v>40</v>
       </c>
       <c r="J81" t="s">
-        <v>103</v>
+        <v>547</v>
+      </c>
+      <c r="K81" t="s">
+        <v>564</v>
+      </c>
+      <c r="L81" t="s">
+        <v>528</v>
       </c>
       <c r="M81" t="s">
-        <v>120</v>
+        <v>512</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>488</v>
       </c>
       <c r="B82" t="s">
-        <v>191</v>
+        <v>26</v>
+      </c>
+      <c r="D82" t="s">
+        <v>505</v>
       </c>
       <c r="J82" t="s">
-        <v>104</v>
+        <v>547</v>
+      </c>
+      <c r="K82" t="s">
+        <v>564</v>
+      </c>
+      <c r="L82" t="s">
+        <v>528</v>
       </c>
       <c r="M82" t="s">
-        <v>121</v>
+        <v>512</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>489</v>
       </c>
       <c r="B83" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="D83" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="J83" t="s">
-        <v>105</v>
+        <v>546</v>
       </c>
       <c r="K83" t="s">
-        <v>138</v>
+        <v>565</v>
       </c>
       <c r="L83" t="s">
-        <v>157</v>
+        <v>529</v>
       </c>
       <c r="M83" t="s">
-        <v>122</v>
+        <v>513</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>490</v>
       </c>
       <c r="B84" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="D84" t="s">
-        <v>27</v>
+        <v>505</v>
       </c>
       <c r="J84" t="s">
-        <v>94</v>
+        <v>546</v>
       </c>
       <c r="K84" t="s">
-        <v>139</v>
+        <v>565</v>
       </c>
       <c r="L84" t="s">
-        <v>157</v>
+        <v>530</v>
       </c>
       <c r="M84" t="s">
-        <v>123</v>
+        <v>513</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>491</v>
       </c>
       <c r="B85" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="D85" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="J85" t="s">
-        <v>106</v>
+        <v>548</v>
       </c>
       <c r="K85" t="s">
-        <v>140</v>
+        <v>565</v>
       </c>
       <c r="L85" t="s">
-        <v>158</v>
+        <v>531</v>
       </c>
       <c r="M85" t="s">
-        <v>124</v>
+        <v>514</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B86" t="s">
+        <v>26</v>
+      </c>
+      <c r="D86" t="s">
+        <v>505</v>
+      </c>
+      <c r="J86" t="s">
+        <v>548</v>
+      </c>
+      <c r="K86" t="s">
+        <v>565</v>
+      </c>
+      <c r="L86" t="s">
+        <v>531</v>
+      </c>
+      <c r="M86" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B87" t="s">
+        <v>26</v>
+      </c>
+      <c r="D87" t="s">
+        <v>40</v>
+      </c>
+      <c r="J87" t="s">
+        <v>549</v>
+      </c>
+      <c r="K87" t="s">
+        <v>566</v>
+      </c>
+      <c r="L87" t="s">
+        <v>532</v>
+      </c>
+      <c r="M87" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B88" t="s">
+        <v>26</v>
+      </c>
+      <c r="D88" t="s">
+        <v>40</v>
+      </c>
+      <c r="J88" t="s">
+        <v>550</v>
+      </c>
+      <c r="K88" t="s">
+        <v>567</v>
+      </c>
+      <c r="L88" t="s">
+        <v>533</v>
+      </c>
+      <c r="M88" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B89" t="s">
+        <v>26</v>
+      </c>
+      <c r="D89" t="s">
+        <v>40</v>
+      </c>
+      <c r="J89" t="s">
+        <v>620</v>
+      </c>
+      <c r="K89" t="s">
+        <v>633</v>
+      </c>
+      <c r="L89" t="s">
+        <v>603</v>
+      </c>
+      <c r="M89" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B90" t="s">
+        <v>26</v>
+      </c>
+      <c r="D90" t="s">
+        <v>40</v>
+      </c>
+      <c r="J90" t="s">
+        <v>634</v>
+      </c>
+      <c r="K90" t="s">
+        <v>636</v>
+      </c>
+      <c r="L90" t="s">
+        <v>604</v>
+      </c>
+      <c r="M90" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B91" t="s">
+        <v>26</v>
+      </c>
+      <c r="D91" t="s">
+        <v>40</v>
+      </c>
+      <c r="J91" t="s">
+        <v>635</v>
+      </c>
+      <c r="K91" t="s">
+        <v>637</v>
+      </c>
+      <c r="L91" t="s">
+        <v>605</v>
+      </c>
+      <c r="M91" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B92" t="s">
+        <v>26</v>
+      </c>
+      <c r="D92" t="s">
+        <v>40</v>
+      </c>
+      <c r="J92" t="s">
+        <v>621</v>
+      </c>
+      <c r="K92" t="s">
+        <v>638</v>
+      </c>
+      <c r="L92" t="s">
+        <v>606</v>
+      </c>
+      <c r="M92" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B93" t="s">
+        <v>26</v>
+      </c>
+      <c r="D93" t="s">
+        <v>505</v>
+      </c>
+      <c r="J93" t="s">
+        <v>621</v>
+      </c>
+      <c r="K93" t="s">
+        <v>639</v>
+      </c>
+      <c r="L93" t="s">
+        <v>606</v>
+      </c>
+      <c r="M93" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B94" t="s">
+        <v>26</v>
+      </c>
+      <c r="D94" t="s">
+        <v>40</v>
+      </c>
+      <c r="J94" t="s">
+        <v>622</v>
+      </c>
+      <c r="K94" t="s">
+        <v>640</v>
+      </c>
+      <c r="L94" t="s">
+        <v>607</v>
+      </c>
+      <c r="M94" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B95" t="s">
+        <v>26</v>
+      </c>
+      <c r="D95" t="s">
+        <v>40</v>
+      </c>
+      <c r="J95" t="s">
+        <v>623</v>
+      </c>
+      <c r="K95" t="s">
+        <v>623</v>
+      </c>
+      <c r="L95" t="s">
+        <v>608</v>
+      </c>
+      <c r="M95" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B96" t="s">
+        <v>26</v>
+      </c>
+      <c r="D96" t="s">
+        <v>40</v>
+      </c>
+      <c r="J96" t="s">
+        <v>624</v>
+      </c>
+      <c r="K96" t="s">
+        <v>624</v>
+      </c>
+      <c r="L96" t="s">
+        <v>609</v>
+      </c>
+      <c r="M96" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D97" t="s">
+        <v>40</v>
+      </c>
+      <c r="J97" t="s">
+        <v>625</v>
+      </c>
+      <c r="K97" t="s">
+        <v>641</v>
+      </c>
+      <c r="L97" t="s">
+        <v>610</v>
+      </c>
+      <c r="M97" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B98" t="s">
+        <v>26</v>
+      </c>
+      <c r="D98" t="s">
+        <v>40</v>
+      </c>
+      <c r="J98" t="s">
+        <v>626</v>
+      </c>
+      <c r="K98" t="s">
+        <v>642</v>
+      </c>
+      <c r="L98" t="s">
+        <v>611</v>
+      </c>
+      <c r="M98" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B99" t="s">
+        <v>26</v>
+      </c>
+      <c r="D99" t="s">
+        <v>40</v>
+      </c>
+      <c r="J99" t="s">
+        <v>643</v>
+      </c>
+      <c r="K99" t="s">
+        <v>644</v>
+      </c>
+      <c r="L99" t="s">
+        <v>612</v>
+      </c>
+      <c r="M99" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B100" t="s">
+        <v>26</v>
+      </c>
+      <c r="D100" t="s">
+        <v>40</v>
+      </c>
+      <c r="J100" t="s">
+        <v>627</v>
+      </c>
+      <c r="K100" t="s">
+        <v>645</v>
+      </c>
+      <c r="L100" t="s">
+        <v>613</v>
+      </c>
+      <c r="M100" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B101" t="s">
+        <v>26</v>
+      </c>
+      <c r="D101" t="s">
+        <v>40</v>
+      </c>
+      <c r="J101" t="s">
+        <v>628</v>
+      </c>
+      <c r="K101" t="s">
+        <v>646</v>
+      </c>
+      <c r="L101" t="s">
+        <v>614</v>
+      </c>
+      <c r="M101" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B102" t="s">
+        <v>26</v>
+      </c>
+      <c r="D102" t="s">
+        <v>40</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="J102" t="s">
+        <v>629</v>
+      </c>
+      <c r="K102" t="s">
+        <v>629</v>
+      </c>
+      <c r="L102" t="s">
+        <v>615</v>
+      </c>
+      <c r="M102" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B103" t="s">
+        <v>26</v>
+      </c>
+      <c r="D103" t="s">
+        <v>90</v>
+      </c>
+      <c r="J103" t="s">
+        <v>630</v>
+      </c>
+      <c r="K103" t="s">
+        <v>647</v>
+      </c>
+      <c r="L103" t="s">
+        <v>617</v>
+      </c>
+      <c r="M103" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B104" t="s">
+        <v>26</v>
+      </c>
+      <c r="D104" t="s">
+        <v>90</v>
+      </c>
+      <c r="J104" t="s">
+        <v>630</v>
+      </c>
+      <c r="K104" t="s">
+        <v>647</v>
+      </c>
+      <c r="L104" t="s">
+        <v>617</v>
+      </c>
+      <c r="M104" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B105" t="s">
+        <v>26</v>
+      </c>
+      <c r="D105" t="s">
+        <v>90</v>
+      </c>
+      <c r="J105" t="s">
+        <v>631</v>
+      </c>
+      <c r="K105" t="s">
+        <v>648</v>
+      </c>
+      <c r="L105" t="s">
+        <v>618</v>
+      </c>
+      <c r="M105" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B106" t="s">
+        <v>26</v>
+      </c>
+      <c r="D106" t="s">
+        <v>90</v>
+      </c>
+      <c r="J106" t="s">
+        <v>631</v>
+      </c>
+      <c r="K106" t="s">
+        <v>648</v>
+      </c>
+      <c r="L106" t="s">
+        <v>618</v>
+      </c>
+      <c r="M106" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B107" t="s">
+        <v>26</v>
+      </c>
+      <c r="D107" t="s">
+        <v>90</v>
+      </c>
+      <c r="J107" t="s">
+        <v>632</v>
+      </c>
+      <c r="K107" t="s">
+        <v>649</v>
+      </c>
+      <c r="L107" t="s">
+        <v>619</v>
+      </c>
+      <c r="M107" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B108" t="s">
+        <v>26</v>
+      </c>
+      <c r="D108" t="s">
+        <v>27</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G108" t="s">
+        <v>30</v>
+      </c>
+      <c r="H108" t="s">
+        <v>25</v>
+      </c>
+      <c r="I108" t="s">
+        <v>31</v>
+      </c>
+      <c r="J108" t="s">
+        <v>32</v>
+      </c>
+      <c r="K108" t="s">
+        <v>33</v>
+      </c>
+      <c r="L108" t="s">
+        <v>56</v>
+      </c>
+      <c r="M108" t="s">
+        <v>54</v>
+      </c>
+      <c r="N108" t="s">
+        <v>34</v>
+      </c>
+      <c r="O108" t="s">
+        <v>38</v>
+      </c>
+      <c r="P108" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>36</v>
+      </c>
+      <c r="R108" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B109" t="s">
+        <v>191</v>
+      </c>
+      <c r="D109" t="s">
+        <v>40</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J109" t="s">
+        <v>42</v>
+      </c>
+      <c r="K109" t="s">
+        <v>43</v>
+      </c>
+      <c r="L109" t="s">
+        <v>57</v>
+      </c>
+      <c r="M109" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B110" t="s">
+        <v>191</v>
+      </c>
+      <c r="D110" t="s">
+        <v>40</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J110" t="s">
+        <v>62</v>
+      </c>
+      <c r="K110" t="s">
+        <v>126</v>
+      </c>
+      <c r="L110" t="s">
+        <v>142</v>
+      </c>
+      <c r="M110" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B111" t="s">
+        <v>191</v>
+      </c>
+      <c r="D111" t="s">
+        <v>40</v>
+      </c>
+      <c r="M111" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B112" t="s">
+        <v>191</v>
+      </c>
+      <c r="D112" t="s">
+        <v>40</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J112" t="s">
+        <v>63</v>
+      </c>
+      <c r="K112" t="s">
+        <v>127</v>
+      </c>
+      <c r="M112" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B113" t="s">
+        <v>191</v>
+      </c>
+      <c r="D113" t="s">
+        <v>40</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J113" t="s">
+        <v>64</v>
+      </c>
+      <c r="K113" t="s">
+        <v>128</v>
+      </c>
+      <c r="L113" t="s">
+        <v>143</v>
+      </c>
+      <c r="M113" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B114" t="s">
+        <v>191</v>
+      </c>
+      <c r="D114" t="s">
+        <v>40</v>
+      </c>
+      <c r="J114" t="s">
+        <v>65</v>
+      </c>
+      <c r="K114" t="s">
+        <v>129</v>
+      </c>
+      <c r="L114" t="s">
+        <v>144</v>
+      </c>
+      <c r="M114" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B115" t="s">
+        <v>191</v>
+      </c>
+      <c r="D115" t="s">
+        <v>40</v>
+      </c>
+      <c r="J115" t="s">
+        <v>108</v>
+      </c>
+      <c r="K115" t="s">
+        <v>130</v>
+      </c>
+      <c r="L115" t="s">
+        <v>145</v>
+      </c>
+      <c r="M115" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B116" t="s">
+        <v>191</v>
+      </c>
+      <c r="D116" t="s">
+        <v>40</v>
+      </c>
+      <c r="J116" t="s">
+        <v>93</v>
+      </c>
+      <c r="K116" t="s">
+        <v>131</v>
+      </c>
+      <c r="L116" t="s">
+        <v>146</v>
+      </c>
+      <c r="M116" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B117" t="s">
+        <v>191</v>
+      </c>
+      <c r="D117" t="s">
+        <v>40</v>
+      </c>
+      <c r="J117" t="s">
+        <v>94</v>
+      </c>
+      <c r="K117" t="s">
+        <v>94</v>
+      </c>
+      <c r="L117" t="s">
+        <v>147</v>
+      </c>
+      <c r="M117" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B118" t="s">
+        <v>191</v>
+      </c>
+      <c r="D118" t="s">
+        <v>89</v>
+      </c>
+      <c r="J118" t="s">
+        <v>95</v>
+      </c>
+      <c r="K118" t="s">
+        <v>132</v>
+      </c>
+      <c r="L118" t="s">
+        <v>148</v>
+      </c>
+      <c r="M118" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B119" t="s">
+        <v>191</v>
+      </c>
+      <c r="D119" t="s">
+        <v>90</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J119" t="s">
+        <v>96</v>
+      </c>
+      <c r="K119" t="s">
+        <v>133</v>
+      </c>
+      <c r="L119" t="s">
+        <v>149</v>
+      </c>
+      <c r="M119" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B120" t="s">
+        <v>191</v>
+      </c>
+      <c r="D120" t="s">
+        <v>90</v>
+      </c>
+      <c r="J120" t="s">
+        <v>97</v>
+      </c>
+      <c r="K120" t="s">
+        <v>135</v>
+      </c>
+      <c r="L120" t="s">
+        <v>150</v>
+      </c>
+      <c r="M120" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B121" t="s">
+        <v>191</v>
+      </c>
+      <c r="D121" t="s">
+        <v>90</v>
+      </c>
+      <c r="J121" t="s">
+        <v>98</v>
+      </c>
+      <c r="K121" t="s">
+        <v>134</v>
+      </c>
+      <c r="L121" t="s">
+        <v>151</v>
+      </c>
+      <c r="M121" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B122" t="s">
+        <v>191</v>
+      </c>
+      <c r="D122" t="s">
+        <v>90</v>
+      </c>
+      <c r="J122" t="s">
+        <v>99</v>
+      </c>
+      <c r="K122" t="s">
+        <v>153</v>
+      </c>
+      <c r="L122" t="s">
+        <v>152</v>
+      </c>
+      <c r="M122" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B123" t="s">
+        <v>191</v>
+      </c>
+      <c r="D123" t="s">
+        <v>91</v>
+      </c>
+      <c r="J123" t="s">
+        <v>100</v>
+      </c>
+      <c r="L123" t="s">
+        <v>154</v>
+      </c>
+      <c r="M123" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B124" t="s">
+        <v>191</v>
+      </c>
+      <c r="D124" t="s">
+        <v>91</v>
+      </c>
+      <c r="J124" t="s">
+        <v>101</v>
+      </c>
+      <c r="K124" t="s">
+        <v>136</v>
+      </c>
+      <c r="L124" t="s">
+        <v>155</v>
+      </c>
+      <c r="M124" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B125" t="s">
+        <v>191</v>
+      </c>
+      <c r="D125" t="s">
+        <v>91</v>
+      </c>
+      <c r="J125" t="s">
+        <v>101</v>
+      </c>
+      <c r="K125" t="s">
+        <v>136</v>
+      </c>
+      <c r="L125" t="s">
+        <v>155</v>
+      </c>
+      <c r="M125" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B126" t="s">
+        <v>191</v>
+      </c>
+      <c r="D126" t="s">
+        <v>91</v>
+      </c>
+      <c r="J126" t="s">
+        <v>102</v>
+      </c>
+      <c r="K126" t="s">
+        <v>137</v>
+      </c>
+      <c r="L126" t="s">
+        <v>156</v>
+      </c>
+      <c r="M126" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B127" t="s">
+        <v>191</v>
+      </c>
+      <c r="D127" t="s">
+        <v>91</v>
+      </c>
+      <c r="J127" t="s">
+        <v>102</v>
+      </c>
+      <c r="K127" t="s">
+        <v>137</v>
+      </c>
+      <c r="L127" t="s">
+        <v>156</v>
+      </c>
+      <c r="M127" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B128" t="s">
+        <v>191</v>
+      </c>
+      <c r="J128" t="s">
+        <v>103</v>
+      </c>
+      <c r="M128" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B129" t="s">
+        <v>191</v>
+      </c>
+      <c r="J129" t="s">
+        <v>104</v>
+      </c>
+      <c r="M129" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B130" t="s">
+        <v>191</v>
+      </c>
+      <c r="D130" t="s">
+        <v>27</v>
+      </c>
+      <c r="J130" t="s">
+        <v>105</v>
+      </c>
+      <c r="K130" t="s">
+        <v>138</v>
+      </c>
+      <c r="L130" t="s">
+        <v>157</v>
+      </c>
+      <c r="M130" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B131" t="s">
+        <v>191</v>
+      </c>
+      <c r="D131" t="s">
+        <v>27</v>
+      </c>
+      <c r="J131" t="s">
+        <v>94</v>
+      </c>
+      <c r="K131" t="s">
+        <v>139</v>
+      </c>
+      <c r="L131" t="s">
+        <v>157</v>
+      </c>
+      <c r="M131" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B132" t="s">
+        <v>191</v>
+      </c>
+      <c r="D132" t="s">
+        <v>27</v>
+      </c>
+      <c r="J132" t="s">
+        <v>106</v>
+      </c>
+      <c r="K132" t="s">
+        <v>140</v>
+      </c>
+      <c r="L132" t="s">
+        <v>158</v>
+      </c>
+      <c r="M132" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B133" t="s">
         <v>191</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D133" t="s">
         <v>27</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="F133" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J86" t="s">
+      <c r="J133" t="s">
         <v>107</v>
       </c>
-      <c r="K86" t="s">
+      <c r="K133" t="s">
         <v>141</v>
       </c>
-      <c r="L86" t="s">
+      <c r="L133" t="s">
         <v>159</v>
       </c>
-      <c r="M86" t="s">
+      <c r="M133" t="s">
         <v>125</v>
       </c>
     </row>

--- a/dictionary/Vocab.xlsx
+++ b/dictionary/Vocab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02 Trae\TibetanNote\dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE60976-A328-4C50-B2F6-0B59FEEAE575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B66FA0A-3699-4468-A78B-69115A432147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="5460" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="804">
   <si>
     <t>word</t>
   </si>
@@ -1975,6 +1975,468 @@
   </si>
   <si>
     <t>白い</t>
+  </si>
+  <si>
+    <t>V01-L00</t>
+  </si>
+  <si>
+    <t>ལྷ།</t>
+  </si>
+  <si>
+    <t>གཡག</t>
+  </si>
+  <si>
+    <t>རྟ།</t>
+  </si>
+  <si>
+    <t>འགྲོག་པ།</t>
+  </si>
+  <si>
+    <t>རྡོ།</t>
+  </si>
+  <si>
+    <t>ལི་ཐང་།</t>
+  </si>
+  <si>
+    <t>ཁམས།</t>
+  </si>
+  <si>
+    <t>ས་ཆ།</t>
+  </si>
+  <si>
+    <t>ཕ་ཡུལ།</t>
+  </si>
+  <si>
+    <t>རྩེ།</t>
+  </si>
+  <si>
+    <t>རི་རྩེ།</t>
+  </si>
+  <si>
+    <t>མཚོ།</t>
+  </si>
+  <si>
+    <t>ཤ</t>
+  </si>
+  <si>
+    <t>དཀར་ཡོལ།</t>
+  </si>
+  <si>
+    <t>ལྡེ་མིག</t>
+  </si>
+  <si>
+    <t>སོ།</t>
+  </si>
+  <si>
+    <t>སྣ་ཁུག</t>
+  </si>
+  <si>
+    <t>པར།</t>
+  </si>
+  <si>
+    <t>རི་མོ།</t>
+  </si>
+  <si>
+    <t>དཔེ་ཆ།</t>
+  </si>
+  <si>
+    <t>V01-L04</t>
+  </si>
+  <si>
+    <t>divinité</t>
+  </si>
+  <si>
+    <t>yak</t>
+  </si>
+  <si>
+    <t>cheval</t>
+  </si>
+  <si>
+    <t>pierre</t>
+  </si>
+  <si>
+    <t>Lithang</t>
+  </si>
+  <si>
+    <t>Kham</t>
+  </si>
+  <si>
+    <t>lieu</t>
+  </si>
+  <si>
+    <t>pays ; région d'origine</t>
+  </si>
+  <si>
+    <t>sommet</t>
+  </si>
+  <si>
+    <t>sommet de la montagne</t>
+  </si>
+  <si>
+    <t>lac</t>
+  </si>
+  <si>
+    <t>viande</t>
+  </si>
+  <si>
+    <t>tasse</t>
+  </si>
+  <si>
+    <t>clé</t>
+  </si>
+  <si>
+    <t>dent</t>
+  </si>
+  <si>
+    <t>nez</t>
+  </si>
+  <si>
+    <t>photo ; illustration ; image</t>
+  </si>
+  <si>
+    <t>dessin ; image ; illustration</t>
+  </si>
+  <si>
+    <t>livre (format tibétain)</t>
+  </si>
+  <si>
+    <t>神</t>
+  </si>
+  <si>
+    <t>牦牛</t>
+  </si>
+  <si>
+    <t>马</t>
+  </si>
+  <si>
+    <t>éleveur nomade</t>
+  </si>
+  <si>
+    <t>牧民</t>
+  </si>
+  <si>
+    <t>石头</t>
+  </si>
+  <si>
+    <t>理塘</t>
+  </si>
+  <si>
+    <t>康区</t>
+  </si>
+  <si>
+    <t>地方</t>
+  </si>
+  <si>
+    <t>故乡</t>
+  </si>
+  <si>
+    <t>峰</t>
+  </si>
+  <si>
+    <t>山峰</t>
+  </si>
+  <si>
+    <t>湖</t>
+  </si>
+  <si>
+    <t>肉</t>
+  </si>
+  <si>
+    <t>茶杯</t>
+  </si>
+  <si>
+    <t>钥匙</t>
+  </si>
+  <si>
+    <t>牙齿</t>
+  </si>
+  <si>
+    <t>鼻子</t>
+  </si>
+  <si>
+    <t>照片</t>
+  </si>
+  <si>
+    <t>画</t>
+  </si>
+  <si>
+    <t>书（藏式）</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>horse</t>
+  </si>
+  <si>
+    <t>herdsman</t>
+  </si>
+  <si>
+    <t>stone</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>hometown</t>
+  </si>
+  <si>
+    <t>montain sommet</t>
+  </si>
+  <si>
+    <t>lake</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>tooth</t>
+  </si>
+  <si>
+    <t>nose</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>painting; drawing</t>
+  </si>
+  <si>
+    <t>book (Tibetan style)</t>
+  </si>
+  <si>
+    <t>馬</t>
+  </si>
+  <si>
+    <t>ヤク</t>
+  </si>
+  <si>
+    <t>遊牧民</t>
+  </si>
+  <si>
+    <t>石</t>
+  </si>
+  <si>
+    <t>リタン</t>
+  </si>
+  <si>
+    <t>カム</t>
+  </si>
+  <si>
+    <t>所</t>
+  </si>
+  <si>
+    <t>故郷</t>
+  </si>
+  <si>
+    <t>山の峰</t>
+  </si>
+  <si>
+    <t>茶碗</t>
+  </si>
+  <si>
+    <t>鍵</t>
+  </si>
+  <si>
+    <t>歯</t>
+  </si>
+  <si>
+    <t>鼻</t>
+  </si>
+  <si>
+    <t>写真</t>
+  </si>
+  <si>
+    <t>図</t>
+  </si>
+  <si>
+    <t>本（チベット式）</t>
+  </si>
+  <si>
+    <t>ནང་།</t>
+  </si>
+  <si>
+    <t>དང་པོ།</t>
+  </si>
+  <si>
+    <t>ལྔ།</t>
+  </si>
+  <si>
+    <t>དྲུག</t>
+  </si>
+  <si>
+    <t>བརྒྱད།</t>
+  </si>
+  <si>
+    <t>ཏག་ཏག</t>
+  </si>
+  <si>
+    <t>ག་གི</t>
+  </si>
+  <si>
+    <t>དེ།</t>
+  </si>
+  <si>
+    <t>ཅིག</t>
+  </si>
+  <si>
+    <t>སྤྲད་པ།</t>
+  </si>
+  <si>
+    <t>སྤྲོད་པ།</t>
+  </si>
+  <si>
+    <t>མིག་བསྟན་པ།</t>
+  </si>
+  <si>
+    <t>མིག་བསྟོན་པ།</t>
+  </si>
+  <si>
+    <t>ལབ་པ།</t>
+  </si>
+  <si>
+    <t>Part.V.Imper</t>
+  </si>
+  <si>
+    <t>Indef.</t>
+  </si>
+  <si>
+    <t>intérieur</t>
+  </si>
+  <si>
+    <t>cinq</t>
+  </si>
+  <si>
+    <t>premier</t>
+  </si>
+  <si>
+    <t>six</t>
+  </si>
+  <si>
+    <t>huit</t>
+  </si>
+  <si>
+    <t>exact</t>
+  </si>
+  <si>
+    <t>quel</t>
+  </si>
+  <si>
+    <t>cela</t>
+  </si>
+  <si>
+    <t>donner</t>
+  </si>
+  <si>
+    <t>montrer</t>
+  </si>
+  <si>
+    <t>dire</t>
+  </si>
+  <si>
+    <t>里面</t>
+  </si>
+  <si>
+    <t>第一</t>
+  </si>
+  <si>
+    <t>五</t>
+  </si>
+  <si>
+    <t>六</t>
+  </si>
+  <si>
+    <t>八</t>
+  </si>
+  <si>
+    <t>整；刚好</t>
+  </si>
+  <si>
+    <t>哪个</t>
+  </si>
+  <si>
+    <t>命令式</t>
+  </si>
+  <si>
+    <t>那</t>
+  </si>
+  <si>
+    <t>给</t>
+  </si>
+  <si>
+    <t>展示</t>
+  </si>
+  <si>
+    <t>说</t>
+  </si>
+  <si>
+    <t>say</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>inside</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
+  <si>
+    <t>eight</t>
+  </si>
+  <si>
+    <t>which</t>
+  </si>
+  <si>
+    <t>imperative</t>
+  </si>
+  <si>
+    <t>imperatif</t>
+  </si>
+  <si>
+    <t>that</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>内</t>
+  </si>
+  <si>
+    <t>一番目</t>
+  </si>
+  <si>
+    <t>ぴったり</t>
+  </si>
+  <si>
+    <t>どちら</t>
+  </si>
+  <si>
+    <t>その、それ</t>
+  </si>
+  <si>
+    <t>一つ</t>
+  </si>
+  <si>
+    <t>上げる</t>
+  </si>
+  <si>
+    <t>見せる</t>
+  </si>
+  <si>
+    <t>言う</t>
   </si>
 </sst>
 </file>
@@ -2304,10 +2766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R133"/>
+  <dimension ref="A1:R166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K107" sqref="K107"/>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K142" sqref="K142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.55000000000000004"/>
@@ -4931,7 +5393,7 @@
         <v>25</v>
       </c>
       <c r="B108" t="s">
-        <v>26</v>
+        <v>650</v>
       </c>
       <c r="D108" t="s">
         <v>27</v>
@@ -4978,561 +5440,1326 @@
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1" t="s">
-        <v>39</v>
+        <v>651</v>
       </c>
       <c r="B109" t="s">
-        <v>191</v>
+        <v>671</v>
       </c>
       <c r="D109" t="s">
         <v>40</v>
       </c>
-      <c r="E109" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="J109" t="s">
-        <v>42</v>
+        <v>691</v>
       </c>
       <c r="K109" t="s">
-        <v>43</v>
+        <v>691</v>
       </c>
       <c r="L109" t="s">
-        <v>57</v>
+        <v>712</v>
       </c>
       <c r="M109" t="s">
-        <v>53</v>
+        <v>672</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1" t="s">
-        <v>47</v>
+        <v>652</v>
       </c>
       <c r="B110" t="s">
-        <v>191</v>
+        <v>671</v>
       </c>
       <c r="D110" t="s">
         <v>40</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="J110" t="s">
-        <v>62</v>
+        <v>692</v>
       </c>
       <c r="K110" t="s">
-        <v>126</v>
+        <v>729</v>
       </c>
       <c r="L110" t="s">
-        <v>142</v>
+        <v>673</v>
       </c>
       <c r="M110" t="s">
-        <v>52</v>
+        <v>673</v>
       </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1" t="s">
-        <v>48</v>
+        <v>653</v>
       </c>
       <c r="B111" t="s">
-        <v>191</v>
+        <v>671</v>
       </c>
       <c r="D111" t="s">
         <v>40</v>
       </c>
+      <c r="J111" t="s">
+        <v>693</v>
+      </c>
+      <c r="K111" t="s">
+        <v>728</v>
+      </c>
+      <c r="L111" t="s">
+        <v>713</v>
+      </c>
       <c r="M111" t="s">
-        <v>58</v>
+        <v>674</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1" t="s">
-        <v>49</v>
+        <v>654</v>
       </c>
       <c r="B112" t="s">
-        <v>191</v>
+        <v>671</v>
       </c>
       <c r="D112" t="s">
         <v>40</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="J112" t="s">
-        <v>63</v>
+        <v>695</v>
       </c>
       <c r="K112" t="s">
-        <v>127</v>
+        <v>730</v>
+      </c>
+      <c r="L112" t="s">
+        <v>714</v>
       </c>
       <c r="M112" t="s">
-        <v>59</v>
+        <v>694</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1" t="s">
-        <v>50</v>
+        <v>655</v>
       </c>
       <c r="B113" t="s">
-        <v>191</v>
+        <v>671</v>
       </c>
       <c r="D113" t="s">
         <v>40</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="J113" t="s">
-        <v>64</v>
+        <v>696</v>
       </c>
       <c r="K113" t="s">
-        <v>128</v>
+        <v>731</v>
       </c>
       <c r="L113" t="s">
-        <v>143</v>
+        <v>715</v>
       </c>
       <c r="M113" t="s">
-        <v>60</v>
+        <v>675</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1" t="s">
-        <v>51</v>
+        <v>656</v>
       </c>
       <c r="B114" t="s">
-        <v>191</v>
+        <v>671</v>
       </c>
       <c r="D114" t="s">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="J114" t="s">
-        <v>65</v>
+        <v>697</v>
       </c>
       <c r="K114" t="s">
-        <v>129</v>
+        <v>732</v>
       </c>
       <c r="L114" t="s">
-        <v>144</v>
+        <v>676</v>
       </c>
       <c r="M114" t="s">
-        <v>61</v>
+        <v>676</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1" t="s">
-        <v>69</v>
+        <v>657</v>
       </c>
       <c r="B115" t="s">
-        <v>191</v>
+        <v>671</v>
       </c>
       <c r="D115" t="s">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="J115" t="s">
-        <v>108</v>
+        <v>698</v>
       </c>
       <c r="K115" t="s">
-        <v>130</v>
+        <v>733</v>
       </c>
       <c r="L115" t="s">
-        <v>145</v>
+        <v>677</v>
       </c>
       <c r="M115" t="s">
-        <v>109</v>
+        <v>677</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1" t="s">
-        <v>70</v>
+        <v>658</v>
       </c>
       <c r="B116" t="s">
-        <v>191</v>
+        <v>671</v>
       </c>
       <c r="D116" t="s">
         <v>40</v>
       </c>
       <c r="J116" t="s">
-        <v>93</v>
+        <v>699</v>
       </c>
       <c r="K116" t="s">
-        <v>131</v>
+        <v>734</v>
       </c>
       <c r="L116" t="s">
-        <v>146</v>
+        <v>716</v>
       </c>
       <c r="M116" t="s">
-        <v>110</v>
+        <v>678</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1" t="s">
-        <v>71</v>
+        <v>659</v>
       </c>
       <c r="B117" t="s">
-        <v>191</v>
+        <v>671</v>
       </c>
       <c r="D117" t="s">
         <v>40</v>
       </c>
       <c r="J117" t="s">
-        <v>94</v>
+        <v>700</v>
       </c>
       <c r="K117" t="s">
-        <v>94</v>
+        <v>735</v>
       </c>
       <c r="L117" t="s">
-        <v>147</v>
+        <v>717</v>
       </c>
       <c r="M117" t="s">
-        <v>111</v>
+        <v>679</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1" t="s">
-        <v>72</v>
+        <v>660</v>
       </c>
       <c r="B118" t="s">
-        <v>191</v>
+        <v>671</v>
       </c>
       <c r="D118" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="J118" t="s">
-        <v>95</v>
+        <v>701</v>
       </c>
       <c r="K118" t="s">
-        <v>132</v>
+        <v>701</v>
       </c>
       <c r="L118" t="s">
-        <v>148</v>
+        <v>680</v>
       </c>
       <c r="M118" t="s">
-        <v>112</v>
+        <v>680</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1" t="s">
-        <v>73</v>
+        <v>661</v>
       </c>
       <c r="B119" t="s">
-        <v>191</v>
+        <v>671</v>
       </c>
       <c r="D119" t="s">
-        <v>90</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="J119" t="s">
-        <v>96</v>
+        <v>702</v>
       </c>
       <c r="K119" t="s">
-        <v>133</v>
+        <v>736</v>
       </c>
       <c r="L119" t="s">
-        <v>149</v>
+        <v>718</v>
       </c>
       <c r="M119" t="s">
-        <v>113</v>
+        <v>681</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1" t="s">
-        <v>74</v>
+        <v>662</v>
       </c>
       <c r="B120" t="s">
-        <v>191</v>
+        <v>671</v>
       </c>
       <c r="D120" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="J120" t="s">
-        <v>97</v>
+        <v>703</v>
       </c>
       <c r="K120" t="s">
-        <v>135</v>
+        <v>703</v>
       </c>
       <c r="L120" t="s">
-        <v>150</v>
+        <v>719</v>
       </c>
       <c r="M120" t="s">
-        <v>114</v>
+        <v>682</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1" t="s">
-        <v>75</v>
+        <v>663</v>
       </c>
       <c r="B121" t="s">
-        <v>191</v>
+        <v>671</v>
       </c>
       <c r="D121" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="J121" t="s">
-        <v>98</v>
+        <v>704</v>
       </c>
       <c r="K121" t="s">
-        <v>134</v>
+        <v>704</v>
       </c>
       <c r="L121" t="s">
-        <v>151</v>
+        <v>720</v>
       </c>
       <c r="M121" t="s">
-        <v>115</v>
+        <v>683</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1" t="s">
-        <v>76</v>
+        <v>664</v>
       </c>
       <c r="B122" t="s">
-        <v>191</v>
+        <v>671</v>
       </c>
       <c r="D122" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="J122" t="s">
-        <v>99</v>
+        <v>705</v>
       </c>
       <c r="K122" t="s">
-        <v>153</v>
+        <v>737</v>
       </c>
       <c r="L122" t="s">
-        <v>152</v>
+        <v>721</v>
       </c>
       <c r="M122" t="s">
-        <v>116</v>
+        <v>684</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1" t="s">
-        <v>77</v>
+        <v>665</v>
       </c>
       <c r="B123" t="s">
-        <v>191</v>
+        <v>671</v>
       </c>
       <c r="D123" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="J123" t="s">
-        <v>100</v>
+        <v>706</v>
+      </c>
+      <c r="K123" t="s">
+        <v>738</v>
       </c>
       <c r="L123" t="s">
-        <v>154</v>
+        <v>722</v>
       </c>
       <c r="M123" t="s">
-        <v>117</v>
+        <v>685</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1" t="s">
-        <v>78</v>
+        <v>666</v>
       </c>
       <c r="B124" t="s">
-        <v>191</v>
+        <v>671</v>
       </c>
       <c r="D124" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="J124" t="s">
-        <v>101</v>
+        <v>707</v>
       </c>
       <c r="K124" t="s">
-        <v>136</v>
+        <v>739</v>
       </c>
       <c r="L124" t="s">
-        <v>155</v>
+        <v>723</v>
       </c>
       <c r="M124" t="s">
-        <v>118</v>
+        <v>686</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1" t="s">
-        <v>79</v>
+        <v>667</v>
       </c>
       <c r="B125" t="s">
-        <v>191</v>
+        <v>671</v>
       </c>
       <c r="D125" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="J125" t="s">
-        <v>101</v>
+        <v>708</v>
       </c>
       <c r="K125" t="s">
-        <v>136</v>
+        <v>740</v>
       </c>
       <c r="L125" t="s">
-        <v>155</v>
+        <v>724</v>
       </c>
       <c r="M125" t="s">
-        <v>118</v>
+        <v>687</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1" t="s">
-        <v>80</v>
+        <v>668</v>
       </c>
       <c r="B126" t="s">
-        <v>191</v>
+        <v>671</v>
       </c>
       <c r="D126" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="J126" t="s">
-        <v>102</v>
+        <v>709</v>
       </c>
       <c r="K126" t="s">
-        <v>137</v>
+        <v>741</v>
       </c>
       <c r="L126" t="s">
-        <v>156</v>
+        <v>725</v>
       </c>
       <c r="M126" t="s">
-        <v>119</v>
+        <v>688</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1" t="s">
-        <v>81</v>
+        <v>669</v>
       </c>
       <c r="B127" t="s">
-        <v>191</v>
+        <v>671</v>
       </c>
       <c r="D127" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="J127" t="s">
-        <v>102</v>
+        <v>710</v>
       </c>
       <c r="K127" t="s">
-        <v>137</v>
+        <v>742</v>
       </c>
       <c r="L127" t="s">
-        <v>156</v>
+        <v>726</v>
       </c>
       <c r="M127" t="s">
-        <v>119</v>
+        <v>689</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1" t="s">
-        <v>82</v>
+        <v>670</v>
       </c>
       <c r="B128" t="s">
-        <v>191</v>
+        <v>671</v>
+      </c>
+      <c r="D128" t="s">
+        <v>40</v>
       </c>
       <c r="J128" t="s">
-        <v>103</v>
+        <v>711</v>
+      </c>
+      <c r="K128" t="s">
+        <v>743</v>
+      </c>
+      <c r="L128" t="s">
+        <v>727</v>
       </c>
       <c r="M128" t="s">
-        <v>120</v>
+        <v>690</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1" t="s">
-        <v>83</v>
+        <v>744</v>
       </c>
       <c r="B129" t="s">
-        <v>191</v>
+        <v>671</v>
+      </c>
+      <c r="D129" t="s">
+        <v>40</v>
       </c>
       <c r="J129" t="s">
-        <v>104</v>
+        <v>771</v>
+      </c>
+      <c r="K129" t="s">
+        <v>795</v>
+      </c>
+      <c r="L129" t="s">
+        <v>786</v>
       </c>
       <c r="M129" t="s">
-        <v>121</v>
+        <v>760</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1" t="s">
-        <v>84</v>
+        <v>745</v>
       </c>
       <c r="B130" t="s">
-        <v>191</v>
+        <v>671</v>
       </c>
       <c r="D130" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="J130" t="s">
-        <v>105</v>
+        <v>772</v>
       </c>
       <c r="K130" t="s">
-        <v>138</v>
+        <v>796</v>
       </c>
       <c r="L130" t="s">
-        <v>157</v>
+        <v>787</v>
       </c>
       <c r="M130" t="s">
-        <v>122</v>
+        <v>762</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1" t="s">
-        <v>85</v>
+        <v>746</v>
       </c>
       <c r="B131" t="s">
-        <v>191</v>
+        <v>671</v>
       </c>
       <c r="D131" t="s">
-        <v>27</v>
+        <v>342</v>
       </c>
       <c r="J131" t="s">
-        <v>94</v>
+        <v>773</v>
       </c>
       <c r="K131" t="s">
-        <v>139</v>
+        <v>773</v>
       </c>
       <c r="L131" t="s">
-        <v>157</v>
+        <v>788</v>
       </c>
       <c r="M131" t="s">
-        <v>123</v>
+        <v>761</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1" t="s">
-        <v>86</v>
+        <v>747</v>
       </c>
       <c r="B132" t="s">
-        <v>191</v>
+        <v>671</v>
       </c>
       <c r="D132" t="s">
-        <v>27</v>
+        <v>342</v>
       </c>
       <c r="J132" t="s">
-        <v>106</v>
+        <v>774</v>
       </c>
       <c r="K132" t="s">
-        <v>140</v>
+        <v>774</v>
       </c>
       <c r="L132" t="s">
-        <v>158</v>
+        <v>763</v>
       </c>
       <c r="M132" t="s">
-        <v>124</v>
+        <v>763</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B133" t="s">
+        <v>671</v>
+      </c>
+      <c r="D133" t="s">
+        <v>342</v>
+      </c>
+      <c r="J133" t="s">
+        <v>775</v>
+      </c>
+      <c r="K133" t="s">
+        <v>775</v>
+      </c>
+      <c r="L133" t="s">
+        <v>789</v>
+      </c>
+      <c r="M133" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B134" t="s">
+        <v>671</v>
+      </c>
+      <c r="D134" t="s">
+        <v>90</v>
+      </c>
+      <c r="J134" t="s">
+        <v>776</v>
+      </c>
+      <c r="K134" t="s">
+        <v>797</v>
+      </c>
+      <c r="L134" t="s">
+        <v>765</v>
+      </c>
+      <c r="M134" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B135" t="s">
+        <v>671</v>
+      </c>
+      <c r="D135" t="s">
+        <v>236</v>
+      </c>
+      <c r="J135" t="s">
+        <v>777</v>
+      </c>
+      <c r="K135" t="s">
+        <v>798</v>
+      </c>
+      <c r="L135" t="s">
+        <v>790</v>
+      </c>
+      <c r="M135" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B136" t="s">
+        <v>671</v>
+      </c>
+      <c r="D136" t="s">
+        <v>758</v>
+      </c>
+      <c r="J136" t="s">
+        <v>778</v>
+      </c>
+      <c r="K136" t="s">
+        <v>778</v>
+      </c>
+      <c r="L136" t="s">
+        <v>791</v>
+      </c>
+      <c r="M136" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B137" t="s">
+        <v>671</v>
+      </c>
+      <c r="D137" t="s">
+        <v>414</v>
+      </c>
+      <c r="J137" t="s">
+        <v>779</v>
+      </c>
+      <c r="K137" t="s">
+        <v>799</v>
+      </c>
+      <c r="L137" t="s">
+        <v>793</v>
+      </c>
+      <c r="M137" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B138" t="s">
+        <v>671</v>
+      </c>
+      <c r="D138" t="s">
+        <v>759</v>
+      </c>
+      <c r="J138" t="s">
+        <v>381</v>
+      </c>
+      <c r="K138" t="s">
+        <v>800</v>
+      </c>
+      <c r="L138" t="s">
+        <v>794</v>
+      </c>
+      <c r="M138" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B139" t="s">
+        <v>671</v>
+      </c>
+      <c r="D139" t="s">
+        <v>27</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="J139" t="s">
+        <v>780</v>
+      </c>
+      <c r="K139" t="s">
+        <v>801</v>
+      </c>
+      <c r="L139" t="s">
+        <v>785</v>
+      </c>
+      <c r="M139" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B140" t="s">
+        <v>671</v>
+      </c>
+      <c r="D140" t="s">
+        <v>27</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="J140" t="s">
+        <v>781</v>
+      </c>
+      <c r="K140" t="s">
+        <v>802</v>
+      </c>
+      <c r="L140" t="s">
+        <v>784</v>
+      </c>
+      <c r="M140" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B141" t="s">
+        <v>671</v>
+      </c>
+      <c r="D141" t="s">
+        <v>27</v>
+      </c>
+      <c r="J141" t="s">
+        <v>782</v>
+      </c>
+      <c r="K141" t="s">
+        <v>803</v>
+      </c>
+      <c r="L141" t="s">
+        <v>783</v>
+      </c>
+      <c r="M141" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B142" t="s">
+        <v>191</v>
+      </c>
+      <c r="D142" t="s">
+        <v>40</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J142" t="s">
+        <v>42</v>
+      </c>
+      <c r="K142" t="s">
+        <v>43</v>
+      </c>
+      <c r="L142" t="s">
+        <v>57</v>
+      </c>
+      <c r="M142" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B143" t="s">
+        <v>191</v>
+      </c>
+      <c r="D143" t="s">
+        <v>40</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J143" t="s">
+        <v>62</v>
+      </c>
+      <c r="K143" t="s">
+        <v>126</v>
+      </c>
+      <c r="L143" t="s">
+        <v>142</v>
+      </c>
+      <c r="M143" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B144" t="s">
+        <v>191</v>
+      </c>
+      <c r="D144" t="s">
+        <v>40</v>
+      </c>
+      <c r="M144" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B145" t="s">
+        <v>191</v>
+      </c>
+      <c r="D145" t="s">
+        <v>40</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J145" t="s">
+        <v>63</v>
+      </c>
+      <c r="K145" t="s">
+        <v>127</v>
+      </c>
+      <c r="M145" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B146" t="s">
+        <v>191</v>
+      </c>
+      <c r="D146" t="s">
+        <v>40</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J146" t="s">
+        <v>64</v>
+      </c>
+      <c r="K146" t="s">
+        <v>128</v>
+      </c>
+      <c r="L146" t="s">
+        <v>143</v>
+      </c>
+      <c r="M146" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B147" t="s">
+        <v>191</v>
+      </c>
+      <c r="D147" t="s">
+        <v>40</v>
+      </c>
+      <c r="J147" t="s">
+        <v>65</v>
+      </c>
+      <c r="K147" t="s">
+        <v>129</v>
+      </c>
+      <c r="L147" t="s">
+        <v>144</v>
+      </c>
+      <c r="M147" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B148" t="s">
+        <v>191</v>
+      </c>
+      <c r="D148" t="s">
+        <v>40</v>
+      </c>
+      <c r="J148" t="s">
+        <v>108</v>
+      </c>
+      <c r="K148" t="s">
+        <v>130</v>
+      </c>
+      <c r="L148" t="s">
+        <v>145</v>
+      </c>
+      <c r="M148" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B149" t="s">
+        <v>191</v>
+      </c>
+      <c r="D149" t="s">
+        <v>40</v>
+      </c>
+      <c r="J149" t="s">
+        <v>93</v>
+      </c>
+      <c r="K149" t="s">
+        <v>131</v>
+      </c>
+      <c r="L149" t="s">
+        <v>146</v>
+      </c>
+      <c r="M149" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B150" t="s">
+        <v>191</v>
+      </c>
+      <c r="D150" t="s">
+        <v>40</v>
+      </c>
+      <c r="J150" t="s">
+        <v>94</v>
+      </c>
+      <c r="K150" t="s">
+        <v>94</v>
+      </c>
+      <c r="L150" t="s">
+        <v>147</v>
+      </c>
+      <c r="M150" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B151" t="s">
+        <v>191</v>
+      </c>
+      <c r="D151" t="s">
+        <v>89</v>
+      </c>
+      <c r="J151" t="s">
+        <v>95</v>
+      </c>
+      <c r="K151" t="s">
+        <v>132</v>
+      </c>
+      <c r="L151" t="s">
+        <v>148</v>
+      </c>
+      <c r="M151" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B152" t="s">
+        <v>191</v>
+      </c>
+      <c r="D152" t="s">
+        <v>90</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J152" t="s">
+        <v>96</v>
+      </c>
+      <c r="K152" t="s">
+        <v>133</v>
+      </c>
+      <c r="L152" t="s">
+        <v>149</v>
+      </c>
+      <c r="M152" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B153" t="s">
+        <v>191</v>
+      </c>
+      <c r="D153" t="s">
+        <v>90</v>
+      </c>
+      <c r="J153" t="s">
+        <v>97</v>
+      </c>
+      <c r="K153" t="s">
+        <v>135</v>
+      </c>
+      <c r="L153" t="s">
+        <v>150</v>
+      </c>
+      <c r="M153" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B154" t="s">
+        <v>191</v>
+      </c>
+      <c r="D154" t="s">
+        <v>90</v>
+      </c>
+      <c r="J154" t="s">
+        <v>98</v>
+      </c>
+      <c r="K154" t="s">
+        <v>134</v>
+      </c>
+      <c r="L154" t="s">
+        <v>151</v>
+      </c>
+      <c r="M154" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B155" t="s">
+        <v>191</v>
+      </c>
+      <c r="D155" t="s">
+        <v>90</v>
+      </c>
+      <c r="J155" t="s">
+        <v>99</v>
+      </c>
+      <c r="K155" t="s">
+        <v>153</v>
+      </c>
+      <c r="L155" t="s">
+        <v>152</v>
+      </c>
+      <c r="M155" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B156" t="s">
+        <v>191</v>
+      </c>
+      <c r="D156" t="s">
+        <v>91</v>
+      </c>
+      <c r="J156" t="s">
+        <v>100</v>
+      </c>
+      <c r="L156" t="s">
+        <v>154</v>
+      </c>
+      <c r="M156" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B157" t="s">
+        <v>191</v>
+      </c>
+      <c r="D157" t="s">
+        <v>91</v>
+      </c>
+      <c r="J157" t="s">
+        <v>101</v>
+      </c>
+      <c r="K157" t="s">
+        <v>136</v>
+      </c>
+      <c r="L157" t="s">
+        <v>155</v>
+      </c>
+      <c r="M157" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B158" t="s">
+        <v>191</v>
+      </c>
+      <c r="D158" t="s">
+        <v>91</v>
+      </c>
+      <c r="J158" t="s">
+        <v>101</v>
+      </c>
+      <c r="K158" t="s">
+        <v>136</v>
+      </c>
+      <c r="L158" t="s">
+        <v>155</v>
+      </c>
+      <c r="M158" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B159" t="s">
+        <v>191</v>
+      </c>
+      <c r="D159" t="s">
+        <v>91</v>
+      </c>
+      <c r="J159" t="s">
+        <v>102</v>
+      </c>
+      <c r="K159" t="s">
+        <v>137</v>
+      </c>
+      <c r="L159" t="s">
+        <v>156</v>
+      </c>
+      <c r="M159" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B160" t="s">
+        <v>191</v>
+      </c>
+      <c r="D160" t="s">
+        <v>91</v>
+      </c>
+      <c r="J160" t="s">
+        <v>102</v>
+      </c>
+      <c r="K160" t="s">
+        <v>137</v>
+      </c>
+      <c r="L160" t="s">
+        <v>156</v>
+      </c>
+      <c r="M160" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B161" t="s">
+        <v>191</v>
+      </c>
+      <c r="J161" t="s">
+        <v>103</v>
+      </c>
+      <c r="M161" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B162" t="s">
+        <v>191</v>
+      </c>
+      <c r="J162" t="s">
+        <v>104</v>
+      </c>
+      <c r="M162" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B163" t="s">
+        <v>191</v>
+      </c>
+      <c r="D163" t="s">
+        <v>27</v>
+      </c>
+      <c r="J163" t="s">
+        <v>105</v>
+      </c>
+      <c r="K163" t="s">
+        <v>138</v>
+      </c>
+      <c r="L163" t="s">
+        <v>157</v>
+      </c>
+      <c r="M163" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B164" t="s">
+        <v>191</v>
+      </c>
+      <c r="D164" t="s">
+        <v>27</v>
+      </c>
+      <c r="J164" t="s">
+        <v>94</v>
+      </c>
+      <c r="K164" t="s">
+        <v>139</v>
+      </c>
+      <c r="L164" t="s">
+        <v>157</v>
+      </c>
+      <c r="M164" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B165" t="s">
+        <v>191</v>
+      </c>
+      <c r="D165" t="s">
+        <v>27</v>
+      </c>
+      <c r="J165" t="s">
+        <v>106</v>
+      </c>
+      <c r="K165" t="s">
+        <v>140</v>
+      </c>
+      <c r="L165" t="s">
+        <v>158</v>
+      </c>
+      <c r="M165" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B166" t="s">
         <v>191</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D166" t="s">
         <v>27</v>
       </c>
-      <c r="F133" s="1" t="s">
+      <c r="F166" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J133" t="s">
+      <c r="J166" t="s">
         <v>107</v>
       </c>
-      <c r="K133" t="s">
+      <c r="K166" t="s">
         <v>141</v>
       </c>
-      <c r="L133" t="s">
+      <c r="L166" t="s">
         <v>159</v>
       </c>
-      <c r="M133" t="s">
+      <c r="M166" t="s">
         <v>125</v>
       </c>
     </row>

--- a/dictionary/Vocab.xlsx
+++ b/dictionary/Vocab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02 Trae\TibetanNote\dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B66FA0A-3699-4468-A78B-69115A432147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E543E96D-F346-4CBB-9A07-753D76CDAE07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="5460" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="953">
   <si>
     <t>word</t>
   </si>
@@ -2437,6 +2437,453 @@
   </si>
   <si>
     <t>言う</t>
+  </si>
+  <si>
+    <t>ཇ།</t>
+  </si>
+  <si>
+    <t>ཇ་སྲུབ་མ།</t>
+  </si>
+  <si>
+    <t>འོ་མ།</t>
+  </si>
+  <si>
+    <t>རྕམ་པ།</t>
+  </si>
+  <si>
+    <t>ཁ་ལག</t>
+  </si>
+  <si>
+    <t>རྒྱ་གར།</t>
+  </si>
+  <si>
+    <t>ལས་ཀ</t>
+  </si>
+  <si>
+    <t>ལོ།</t>
+  </si>
+  <si>
+    <t>ལོ་སགར།</t>
+  </si>
+  <si>
+    <t>མིག</t>
+  </si>
+  <si>
+    <t>དེབ།</t>
+  </si>
+  <si>
+    <t>ཞི་མི།</t>
+  </si>
+  <si>
+    <t>ཡིག་གཟུགས།</t>
+  </si>
+  <si>
+    <t>དག་ཆ།</t>
+  </si>
+  <si>
+    <t>གཅིག་པ།</t>
+  </si>
+  <si>
+    <t>གཙོ་བོ།</t>
+  </si>
+  <si>
+    <t>V01-L05</t>
+  </si>
+  <si>
+    <t>thé</t>
+  </si>
+  <si>
+    <t>thé au beurre</t>
+  </si>
+  <si>
+    <t>lait</t>
+  </si>
+  <si>
+    <t>Tsampa</t>
+  </si>
+  <si>
+    <t>ཐུག་པ།</t>
+  </si>
+  <si>
+    <t>beurre</t>
+  </si>
+  <si>
+    <t>nouilles ; soupe de nouilles</t>
+  </si>
+  <si>
+    <t>nourriture ; plat ; repas</t>
+  </si>
+  <si>
+    <t>Inde</t>
+  </si>
+  <si>
+    <t>travail</t>
+  </si>
+  <si>
+    <t>année ; an ; âge</t>
+  </si>
+  <si>
+    <t>nouvel an</t>
+  </si>
+  <si>
+    <t>œil</t>
+  </si>
+  <si>
+    <t>livre</t>
+  </si>
+  <si>
+    <t>chat</t>
+  </si>
+  <si>
+    <t>calligraphe</t>
+  </si>
+  <si>
+    <t>orthographe</t>
+  </si>
+  <si>
+    <t>identique ; pareil</t>
+  </si>
+  <si>
+    <t>principal</t>
+  </si>
+  <si>
+    <t>茶</t>
+  </si>
+  <si>
+    <t>酥油茶</t>
+  </si>
+  <si>
+    <t>牛奶</t>
+  </si>
+  <si>
+    <t>糌粑</t>
+  </si>
+  <si>
+    <t>酥油</t>
+  </si>
+  <si>
+    <t>面条</t>
+  </si>
+  <si>
+    <t>食物</t>
+  </si>
+  <si>
+    <t>印度</t>
+  </si>
+  <si>
+    <t>工作</t>
+  </si>
+  <si>
+    <t>年；岁</t>
+  </si>
+  <si>
+    <t>新年</t>
+  </si>
+  <si>
+    <t>眼睛</t>
+  </si>
+  <si>
+    <t>书</t>
+  </si>
+  <si>
+    <t>猫</t>
+  </si>
+  <si>
+    <t>书法</t>
+  </si>
+  <si>
+    <t>拼写</t>
+  </si>
+  <si>
+    <t>一样；相同</t>
+  </si>
+  <si>
+    <t>主要的</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>butter tea</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>butter</t>
+  </si>
+  <si>
+    <t>noodles</t>
+  </si>
+  <si>
+    <t>food; dish</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>new year</t>
+  </si>
+  <si>
+    <t>eye</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>calligraphy</t>
+  </si>
+  <si>
+    <t>orthography</t>
+  </si>
+  <si>
+    <t>same</t>
+  </si>
+  <si>
+    <t>バター茶</t>
+  </si>
+  <si>
+    <t>牛乳</t>
+  </si>
+  <si>
+    <t>ツァンパー</t>
+  </si>
+  <si>
+    <t>バター</t>
+  </si>
+  <si>
+    <t>面</t>
+  </si>
+  <si>
+    <t>食べ物</t>
+  </si>
+  <si>
+    <t>インド</t>
+  </si>
+  <si>
+    <t>仕事</t>
+  </si>
+  <si>
+    <t>年</t>
+  </si>
+  <si>
+    <t>目</t>
+  </si>
+  <si>
+    <t>本</t>
+  </si>
+  <si>
+    <t>書</t>
+  </si>
+  <si>
+    <t>正書法</t>
+  </si>
+  <si>
+    <t>同じな</t>
+  </si>
+  <si>
+    <t>主な</t>
+  </si>
+  <si>
+    <t>ཚང་མ།</t>
+  </si>
+  <si>
+    <t>དཔེ།</t>
+  </si>
+  <si>
+    <t>ཞེ་དྲགས།</t>
+  </si>
+  <si>
+    <t>ཞེ་པོ།</t>
+  </si>
+  <si>
+    <t>ཞེ་པོ་ཅིག</t>
+  </si>
+  <si>
+    <t>ཤི་མ་ཤི།</t>
+  </si>
+  <si>
+    <t>དེ་ག་རང་།</t>
+  </si>
+  <si>
+    <t>ད་ལྟ།</t>
+  </si>
+  <si>
+    <t>ད་དུང་།</t>
+  </si>
+  <si>
+    <t>ན།</t>
+  </si>
+  <si>
+    <t>དགའ་པོ་ཡོད་པ།</t>
+  </si>
+  <si>
+    <t>ཁ་ལག་ཟ་བ།</t>
+  </si>
+  <si>
+    <t>འཐུང་བ།</t>
+  </si>
+  <si>
+    <t>བྲིས་པ།</t>
+  </si>
+  <si>
+    <t>འབྲི་བ།</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>とても</t>
+  </si>
+  <si>
+    <t>すごく</t>
+  </si>
+  <si>
+    <t>確かに</t>
+  </si>
+  <si>
+    <t>今</t>
+  </si>
+  <si>
+    <t>また</t>
+  </si>
+  <si>
+    <t>～たら</t>
+  </si>
+  <si>
+    <t>好む</t>
+  </si>
+  <si>
+    <t>食べる</t>
+  </si>
+  <si>
+    <t>飲む</t>
+  </si>
+  <si>
+    <t>書く</t>
+  </si>
+  <si>
+    <t>会う</t>
+  </si>
+  <si>
+    <t>很</t>
+  </si>
+  <si>
+    <t>非常</t>
+  </si>
+  <si>
+    <t>的确</t>
+  </si>
+  <si>
+    <t>又；再</t>
+  </si>
+  <si>
+    <t>如果</t>
+  </si>
+  <si>
+    <t>喜欢</t>
+  </si>
+  <si>
+    <t>吃</t>
+  </si>
+  <si>
+    <t>喝</t>
+  </si>
+  <si>
+    <t>写</t>
+  </si>
+  <si>
+    <t>见面</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>very</t>
+  </si>
+  <si>
+    <t>enormously</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>again; moreover</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>eat</t>
+  </si>
+  <si>
+    <t>drink</t>
+  </si>
+  <si>
+    <t>write</t>
+  </si>
+  <si>
+    <t>meet</t>
+  </si>
+  <si>
+    <t>rencontrer</t>
+  </si>
+  <si>
+    <t>tous</t>
+  </si>
+  <si>
+    <t>très</t>
+  </si>
+  <si>
+    <t>très ; beaucoup</t>
+  </si>
+  <si>
+    <t>énormément</t>
+  </si>
+  <si>
+    <t>exactement ; tout à fait</t>
+  </si>
+  <si>
+    <t>maintenant</t>
+  </si>
+  <si>
+    <t>encore ; en plus</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>aimer</t>
+  </si>
+  <si>
+    <t>manger</t>
+  </si>
+  <si>
+    <t>boire</t>
+  </si>
+  <si>
+    <t>écrire</t>
+  </si>
+  <si>
+    <t>ཤི་(die)+མ་(neg.)+ཤི་(die)</t>
+  </si>
+  <si>
+    <t>Connct.Cond</t>
   </si>
 </sst>
 </file>
@@ -2766,10 +3213,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R166"/>
+  <dimension ref="A1:R199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K142" sqref="K142"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F174" sqref="F174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.55000000000000004"/>
@@ -6205,561 +6652,1326 @@
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1" t="s">
-        <v>39</v>
+        <v>804</v>
       </c>
       <c r="B142" t="s">
-        <v>191</v>
+        <v>820</v>
       </c>
       <c r="D142" t="s">
         <v>40</v>
       </c>
-      <c r="E142" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="J142" t="s">
-        <v>42</v>
+        <v>840</v>
       </c>
       <c r="K142" t="s">
-        <v>43</v>
+        <v>840</v>
       </c>
       <c r="L142" t="s">
-        <v>57</v>
+        <v>858</v>
       </c>
       <c r="M142" t="s">
-        <v>53</v>
+        <v>821</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1" t="s">
-        <v>47</v>
+        <v>805</v>
       </c>
       <c r="B143" t="s">
-        <v>191</v>
+        <v>820</v>
       </c>
       <c r="D143" t="s">
         <v>40</v>
       </c>
-      <c r="E143" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="J143" t="s">
-        <v>62</v>
+        <v>841</v>
       </c>
       <c r="K143" t="s">
-        <v>126</v>
+        <v>874</v>
       </c>
       <c r="L143" t="s">
-        <v>142</v>
+        <v>859</v>
       </c>
       <c r="M143" t="s">
-        <v>52</v>
+        <v>822</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1" t="s">
-        <v>48</v>
+        <v>806</v>
       </c>
       <c r="B144" t="s">
-        <v>191</v>
+        <v>820</v>
       </c>
       <c r="D144" t="s">
         <v>40</v>
       </c>
+      <c r="J144" t="s">
+        <v>842</v>
+      </c>
+      <c r="K144" t="s">
+        <v>875</v>
+      </c>
+      <c r="L144" t="s">
+        <v>860</v>
+      </c>
       <c r="M144" t="s">
-        <v>58</v>
+        <v>823</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1" t="s">
-        <v>49</v>
+        <v>807</v>
       </c>
       <c r="B145" t="s">
-        <v>191</v>
+        <v>820</v>
       </c>
       <c r="D145" t="s">
         <v>40</v>
       </c>
-      <c r="E145" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="J145" t="s">
-        <v>63</v>
+        <v>843</v>
       </c>
       <c r="K145" t="s">
-        <v>127</v>
+        <v>876</v>
+      </c>
+      <c r="L145" t="s">
+        <v>824</v>
       </c>
       <c r="M145" t="s">
-        <v>59</v>
+        <v>824</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="B146" t="s">
-        <v>191</v>
+        <v>820</v>
       </c>
       <c r="D146" t="s">
         <v>40</v>
       </c>
-      <c r="E146" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="J146" t="s">
-        <v>64</v>
+        <v>844</v>
       </c>
       <c r="K146" t="s">
-        <v>128</v>
+        <v>877</v>
       </c>
       <c r="L146" t="s">
-        <v>143</v>
+        <v>861</v>
       </c>
       <c r="M146" t="s">
-        <v>60</v>
+        <v>826</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1" t="s">
-        <v>51</v>
+        <v>825</v>
       </c>
       <c r="B147" t="s">
-        <v>191</v>
+        <v>820</v>
       </c>
       <c r="D147" t="s">
         <v>40</v>
       </c>
       <c r="J147" t="s">
-        <v>65</v>
+        <v>845</v>
       </c>
       <c r="K147" t="s">
-        <v>129</v>
+        <v>878</v>
       </c>
       <c r="L147" t="s">
-        <v>144</v>
+        <v>862</v>
       </c>
       <c r="M147" t="s">
-        <v>61</v>
+        <v>827</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1" t="s">
-        <v>69</v>
+        <v>808</v>
       </c>
       <c r="B148" t="s">
-        <v>191</v>
+        <v>820</v>
       </c>
       <c r="D148" t="s">
         <v>40</v>
       </c>
       <c r="J148" t="s">
-        <v>108</v>
+        <v>846</v>
       </c>
       <c r="K148" t="s">
-        <v>130</v>
+        <v>879</v>
       </c>
       <c r="L148" t="s">
-        <v>145</v>
+        <v>863</v>
       </c>
       <c r="M148" t="s">
-        <v>109</v>
+        <v>828</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1" t="s">
-        <v>70</v>
+        <v>809</v>
       </c>
       <c r="B149" t="s">
-        <v>191</v>
+        <v>820</v>
       </c>
       <c r="D149" t="s">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="J149" t="s">
-        <v>93</v>
+        <v>847</v>
       </c>
       <c r="K149" t="s">
-        <v>131</v>
+        <v>880</v>
       </c>
       <c r="L149" t="s">
-        <v>146</v>
+        <v>864</v>
       </c>
       <c r="M149" t="s">
-        <v>110</v>
+        <v>829</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1" t="s">
-        <v>71</v>
+        <v>810</v>
       </c>
       <c r="B150" t="s">
-        <v>191</v>
+        <v>820</v>
       </c>
       <c r="D150" t="s">
         <v>40</v>
       </c>
       <c r="J150" t="s">
-        <v>94</v>
+        <v>848</v>
       </c>
       <c r="K150" t="s">
-        <v>94</v>
+        <v>881</v>
       </c>
       <c r="L150" t="s">
-        <v>147</v>
+        <v>865</v>
       </c>
       <c r="M150" t="s">
-        <v>111</v>
+        <v>830</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1" t="s">
-        <v>72</v>
+        <v>811</v>
       </c>
       <c r="B151" t="s">
-        <v>191</v>
+        <v>820</v>
       </c>
       <c r="D151" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="J151" t="s">
-        <v>95</v>
+        <v>849</v>
       </c>
       <c r="K151" t="s">
-        <v>132</v>
+        <v>882</v>
       </c>
       <c r="L151" t="s">
-        <v>148</v>
+        <v>866</v>
       </c>
       <c r="M151" t="s">
-        <v>112</v>
+        <v>831</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1" t="s">
-        <v>73</v>
+        <v>812</v>
       </c>
       <c r="B152" t="s">
-        <v>191</v>
+        <v>820</v>
       </c>
       <c r="D152" t="s">
-        <v>90</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="J152" t="s">
-        <v>96</v>
+        <v>850</v>
       </c>
       <c r="K152" t="s">
-        <v>133</v>
+        <v>850</v>
       </c>
       <c r="L152" t="s">
-        <v>149</v>
+        <v>867</v>
       </c>
       <c r="M152" t="s">
-        <v>113</v>
+        <v>832</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1" t="s">
-        <v>74</v>
+        <v>813</v>
       </c>
       <c r="B153" t="s">
-        <v>191</v>
+        <v>820</v>
       </c>
       <c r="D153" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="J153" t="s">
-        <v>97</v>
+        <v>851</v>
       </c>
       <c r="K153" t="s">
-        <v>135</v>
+        <v>883</v>
       </c>
       <c r="L153" t="s">
-        <v>150</v>
+        <v>868</v>
       </c>
       <c r="M153" t="s">
-        <v>114</v>
+        <v>833</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1" t="s">
-        <v>75</v>
+        <v>814</v>
       </c>
       <c r="B154" t="s">
-        <v>191</v>
+        <v>820</v>
       </c>
       <c r="D154" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="J154" t="s">
-        <v>98</v>
+        <v>852</v>
       </c>
       <c r="K154" t="s">
-        <v>134</v>
+        <v>884</v>
       </c>
       <c r="L154" t="s">
-        <v>151</v>
+        <v>869</v>
       </c>
       <c r="M154" t="s">
-        <v>115</v>
+        <v>834</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1" t="s">
-        <v>76</v>
+        <v>815</v>
       </c>
       <c r="B155" t="s">
-        <v>191</v>
+        <v>820</v>
       </c>
       <c r="D155" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="J155" t="s">
-        <v>99</v>
+        <v>853</v>
       </c>
       <c r="K155" t="s">
-        <v>153</v>
+        <v>853</v>
       </c>
       <c r="L155" t="s">
-        <v>152</v>
+        <v>870</v>
       </c>
       <c r="M155" t="s">
-        <v>116</v>
+        <v>835</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1" t="s">
-        <v>77</v>
+        <v>816</v>
       </c>
       <c r="B156" t="s">
-        <v>191</v>
+        <v>820</v>
       </c>
       <c r="D156" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="J156" t="s">
-        <v>100</v>
+        <v>854</v>
+      </c>
+      <c r="K156" t="s">
+        <v>885</v>
       </c>
       <c r="L156" t="s">
-        <v>154</v>
+        <v>871</v>
       </c>
       <c r="M156" t="s">
-        <v>117</v>
+        <v>836</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1" t="s">
-        <v>78</v>
+        <v>817</v>
       </c>
       <c r="B157" t="s">
-        <v>191</v>
+        <v>820</v>
       </c>
       <c r="D157" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="J157" t="s">
-        <v>101</v>
+        <v>855</v>
       </c>
       <c r="K157" t="s">
-        <v>136</v>
+        <v>886</v>
       </c>
       <c r="L157" t="s">
-        <v>155</v>
+        <v>872</v>
       </c>
       <c r="M157" t="s">
-        <v>118</v>
+        <v>837</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1" t="s">
-        <v>79</v>
+        <v>818</v>
       </c>
       <c r="B158" t="s">
-        <v>191</v>
+        <v>820</v>
       </c>
       <c r="D158" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J158" t="s">
-        <v>101</v>
+        <v>856</v>
       </c>
       <c r="K158" t="s">
-        <v>136</v>
+        <v>887</v>
       </c>
       <c r="L158" t="s">
-        <v>155</v>
+        <v>873</v>
       </c>
       <c r="M158" t="s">
-        <v>118</v>
+        <v>838</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1" t="s">
-        <v>80</v>
+        <v>819</v>
       </c>
       <c r="B159" t="s">
-        <v>191</v>
+        <v>820</v>
       </c>
       <c r="D159" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J159" t="s">
-        <v>102</v>
+        <v>857</v>
       </c>
       <c r="K159" t="s">
-        <v>137</v>
+        <v>888</v>
       </c>
       <c r="L159" t="s">
-        <v>156</v>
+        <v>839</v>
       </c>
       <c r="M159" t="s">
-        <v>119</v>
+        <v>839</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1" t="s">
-        <v>81</v>
+        <v>889</v>
       </c>
       <c r="B160" t="s">
-        <v>191</v>
+        <v>820</v>
       </c>
       <c r="D160" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J160" t="s">
-        <v>102</v>
+        <v>904</v>
       </c>
       <c r="K160" t="s">
-        <v>137</v>
+        <v>904</v>
       </c>
       <c r="L160" t="s">
-        <v>156</v>
+        <v>926</v>
       </c>
       <c r="M160" t="s">
-        <v>119</v>
+        <v>939</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1" t="s">
-        <v>82</v>
+        <v>890</v>
       </c>
       <c r="B161" t="s">
-        <v>191</v>
+        <v>820</v>
+      </c>
+      <c r="D161" t="s">
+        <v>91</v>
       </c>
       <c r="J161" t="s">
-        <v>103</v>
+        <v>916</v>
+      </c>
+      <c r="K161" t="s">
+        <v>905</v>
+      </c>
+      <c r="L161" t="s">
+        <v>927</v>
       </c>
       <c r="M161" t="s">
-        <v>120</v>
+        <v>940</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1" t="s">
-        <v>83</v>
+        <v>891</v>
       </c>
       <c r="B162" t="s">
-        <v>191</v>
+        <v>820</v>
+      </c>
+      <c r="D162" t="s">
+        <v>91</v>
       </c>
       <c r="J162" t="s">
-        <v>104</v>
+        <v>916</v>
+      </c>
+      <c r="K162" t="s">
+        <v>905</v>
+      </c>
+      <c r="L162" t="s">
+        <v>927</v>
       </c>
       <c r="M162" t="s">
-        <v>121</v>
+        <v>941</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1" t="s">
-        <v>84</v>
+        <v>892</v>
       </c>
       <c r="B163" t="s">
-        <v>191</v>
+        <v>820</v>
       </c>
       <c r="D163" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="J163" t="s">
-        <v>105</v>
+        <v>916</v>
       </c>
       <c r="K163" t="s">
-        <v>138</v>
+        <v>905</v>
       </c>
       <c r="L163" t="s">
-        <v>157</v>
+        <v>927</v>
       </c>
       <c r="M163" t="s">
-        <v>122</v>
+        <v>941</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1" t="s">
-        <v>85</v>
+        <v>893</v>
       </c>
       <c r="B164" t="s">
-        <v>191</v>
+        <v>820</v>
       </c>
       <c r="D164" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="J164" t="s">
-        <v>94</v>
+        <v>916</v>
       </c>
       <c r="K164" t="s">
-        <v>139</v>
+        <v>905</v>
       </c>
       <c r="L164" t="s">
-        <v>157</v>
+        <v>927</v>
       </c>
       <c r="M164" t="s">
-        <v>123</v>
+        <v>941</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1" t="s">
-        <v>86</v>
+        <v>894</v>
       </c>
       <c r="B165" t="s">
-        <v>191</v>
+        <v>820</v>
       </c>
       <c r="D165" t="s">
-        <v>27</v>
+        <v>91</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>951</v>
       </c>
       <c r="J165" t="s">
-        <v>106</v>
+        <v>917</v>
       </c>
       <c r="K165" t="s">
-        <v>140</v>
+        <v>906</v>
       </c>
       <c r="L165" t="s">
-        <v>158</v>
+        <v>928</v>
       </c>
       <c r="M165" t="s">
-        <v>124</v>
+        <v>942</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="B166" t="s">
+        <v>820</v>
+      </c>
+      <c r="D166" t="s">
+        <v>91</v>
+      </c>
+      <c r="J166" t="s">
+        <v>918</v>
+      </c>
+      <c r="K166" t="s">
+        <v>907</v>
+      </c>
+      <c r="L166" t="s">
+        <v>929</v>
+      </c>
+      <c r="M166" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="B167" t="s">
+        <v>820</v>
+      </c>
+      <c r="D167" t="s">
+        <v>91</v>
+      </c>
+      <c r="J167" t="s">
+        <v>446</v>
+      </c>
+      <c r="K167" t="s">
+        <v>908</v>
+      </c>
+      <c r="L167" t="s">
+        <v>930</v>
+      </c>
+      <c r="M167" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B168" t="s">
+        <v>820</v>
+      </c>
+      <c r="D168" t="s">
+        <v>91</v>
+      </c>
+      <c r="J168" t="s">
+        <v>919</v>
+      </c>
+      <c r="K168" t="s">
+        <v>909</v>
+      </c>
+      <c r="L168" t="s">
+        <v>931</v>
+      </c>
+      <c r="M168" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B169" t="s">
+        <v>820</v>
+      </c>
+      <c r="D169" t="s">
+        <v>952</v>
+      </c>
+      <c r="J169" t="s">
+        <v>920</v>
+      </c>
+      <c r="K169" t="s">
+        <v>910</v>
+      </c>
+      <c r="L169" t="s">
+        <v>932</v>
+      </c>
+      <c r="M169" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B170" t="s">
+        <v>820</v>
+      </c>
+      <c r="D170" t="s">
+        <v>27</v>
+      </c>
+      <c r="J170" t="s">
+        <v>921</v>
+      </c>
+      <c r="K170" t="s">
+        <v>911</v>
+      </c>
+      <c r="L170" t="s">
+        <v>933</v>
+      </c>
+      <c r="M170" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B171" t="s">
+        <v>820</v>
+      </c>
+      <c r="D171" t="s">
+        <v>27</v>
+      </c>
+      <c r="J171" t="s">
+        <v>922</v>
+      </c>
+      <c r="K171" t="s">
+        <v>912</v>
+      </c>
+      <c r="L171" t="s">
+        <v>934</v>
+      </c>
+      <c r="M171" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B172" t="s">
+        <v>820</v>
+      </c>
+      <c r="D172" t="s">
+        <v>27</v>
+      </c>
+      <c r="J172" t="s">
+        <v>923</v>
+      </c>
+      <c r="K172" t="s">
+        <v>913</v>
+      </c>
+      <c r="L172" t="s">
+        <v>935</v>
+      </c>
+      <c r="M172" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B173" t="s">
+        <v>820</v>
+      </c>
+      <c r="D173" t="s">
+        <v>27</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="J173" t="s">
+        <v>924</v>
+      </c>
+      <c r="K173" t="s">
+        <v>914</v>
+      </c>
+      <c r="L173" t="s">
+        <v>936</v>
+      </c>
+      <c r="M173" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B174" t="s">
+        <v>820</v>
+      </c>
+      <c r="D174" t="s">
+        <v>27</v>
+      </c>
+      <c r="J174" t="s">
+        <v>925</v>
+      </c>
+      <c r="K174" t="s">
+        <v>915</v>
+      </c>
+      <c r="L174" t="s">
+        <v>937</v>
+      </c>
+      <c r="M174" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B175" t="s">
+        <v>191</v>
+      </c>
+      <c r="D175" t="s">
+        <v>40</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J175" t="s">
+        <v>42</v>
+      </c>
+      <c r="K175" t="s">
+        <v>43</v>
+      </c>
+      <c r="L175" t="s">
+        <v>57</v>
+      </c>
+      <c r="M175" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B176" t="s">
+        <v>191</v>
+      </c>
+      <c r="D176" t="s">
+        <v>40</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J176" t="s">
+        <v>62</v>
+      </c>
+      <c r="K176" t="s">
+        <v>126</v>
+      </c>
+      <c r="L176" t="s">
+        <v>142</v>
+      </c>
+      <c r="M176" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B177" t="s">
+        <v>191</v>
+      </c>
+      <c r="D177" t="s">
+        <v>40</v>
+      </c>
+      <c r="M177" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B178" t="s">
+        <v>191</v>
+      </c>
+      <c r="D178" t="s">
+        <v>40</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J178" t="s">
+        <v>63</v>
+      </c>
+      <c r="K178" t="s">
+        <v>127</v>
+      </c>
+      <c r="M178" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B179" t="s">
+        <v>191</v>
+      </c>
+      <c r="D179" t="s">
+        <v>40</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J179" t="s">
+        <v>64</v>
+      </c>
+      <c r="K179" t="s">
+        <v>128</v>
+      </c>
+      <c r="L179" t="s">
+        <v>143</v>
+      </c>
+      <c r="M179" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B180" t="s">
+        <v>191</v>
+      </c>
+      <c r="D180" t="s">
+        <v>40</v>
+      </c>
+      <c r="J180" t="s">
+        <v>65</v>
+      </c>
+      <c r="K180" t="s">
+        <v>129</v>
+      </c>
+      <c r="L180" t="s">
+        <v>144</v>
+      </c>
+      <c r="M180" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B181" t="s">
+        <v>191</v>
+      </c>
+      <c r="D181" t="s">
+        <v>40</v>
+      </c>
+      <c r="J181" t="s">
+        <v>108</v>
+      </c>
+      <c r="K181" t="s">
+        <v>130</v>
+      </c>
+      <c r="L181" t="s">
+        <v>145</v>
+      </c>
+      <c r="M181" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A182" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B182" t="s">
+        <v>191</v>
+      </c>
+      <c r="D182" t="s">
+        <v>40</v>
+      </c>
+      <c r="J182" t="s">
+        <v>93</v>
+      </c>
+      <c r="K182" t="s">
+        <v>131</v>
+      </c>
+      <c r="L182" t="s">
+        <v>146</v>
+      </c>
+      <c r="M182" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A183" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B183" t="s">
+        <v>191</v>
+      </c>
+      <c r="D183" t="s">
+        <v>40</v>
+      </c>
+      <c r="J183" t="s">
+        <v>94</v>
+      </c>
+      <c r="K183" t="s">
+        <v>94</v>
+      </c>
+      <c r="L183" t="s">
+        <v>147</v>
+      </c>
+      <c r="M183" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A184" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B184" t="s">
+        <v>191</v>
+      </c>
+      <c r="D184" t="s">
+        <v>89</v>
+      </c>
+      <c r="J184" t="s">
+        <v>95</v>
+      </c>
+      <c r="K184" t="s">
+        <v>132</v>
+      </c>
+      <c r="L184" t="s">
+        <v>148</v>
+      </c>
+      <c r="M184" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A185" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B185" t="s">
+        <v>191</v>
+      </c>
+      <c r="D185" t="s">
+        <v>90</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J185" t="s">
+        <v>96</v>
+      </c>
+      <c r="K185" t="s">
+        <v>133</v>
+      </c>
+      <c r="L185" t="s">
+        <v>149</v>
+      </c>
+      <c r="M185" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A186" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B186" t="s">
+        <v>191</v>
+      </c>
+      <c r="D186" t="s">
+        <v>90</v>
+      </c>
+      <c r="J186" t="s">
+        <v>97</v>
+      </c>
+      <c r="K186" t="s">
+        <v>135</v>
+      </c>
+      <c r="L186" t="s">
+        <v>150</v>
+      </c>
+      <c r="M186" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A187" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B187" t="s">
+        <v>191</v>
+      </c>
+      <c r="D187" t="s">
+        <v>90</v>
+      </c>
+      <c r="J187" t="s">
+        <v>98</v>
+      </c>
+      <c r="K187" t="s">
+        <v>134</v>
+      </c>
+      <c r="L187" t="s">
+        <v>151</v>
+      </c>
+      <c r="M187" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A188" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B188" t="s">
+        <v>191</v>
+      </c>
+      <c r="D188" t="s">
+        <v>90</v>
+      </c>
+      <c r="J188" t="s">
+        <v>99</v>
+      </c>
+      <c r="K188" t="s">
+        <v>153</v>
+      </c>
+      <c r="L188" t="s">
+        <v>152</v>
+      </c>
+      <c r="M188" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A189" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B189" t="s">
+        <v>191</v>
+      </c>
+      <c r="D189" t="s">
+        <v>91</v>
+      </c>
+      <c r="J189" t="s">
+        <v>100</v>
+      </c>
+      <c r="L189" t="s">
+        <v>154</v>
+      </c>
+      <c r="M189" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A190" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B190" t="s">
+        <v>191</v>
+      </c>
+      <c r="D190" t="s">
+        <v>91</v>
+      </c>
+      <c r="J190" t="s">
+        <v>101</v>
+      </c>
+      <c r="K190" t="s">
+        <v>136</v>
+      </c>
+      <c r="L190" t="s">
+        <v>155</v>
+      </c>
+      <c r="M190" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A191" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B191" t="s">
+        <v>191</v>
+      </c>
+      <c r="D191" t="s">
+        <v>91</v>
+      </c>
+      <c r="J191" t="s">
+        <v>101</v>
+      </c>
+      <c r="K191" t="s">
+        <v>136</v>
+      </c>
+      <c r="L191" t="s">
+        <v>155</v>
+      </c>
+      <c r="M191" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A192" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B192" t="s">
+        <v>191</v>
+      </c>
+      <c r="D192" t="s">
+        <v>91</v>
+      </c>
+      <c r="J192" t="s">
+        <v>102</v>
+      </c>
+      <c r="K192" t="s">
+        <v>137</v>
+      </c>
+      <c r="L192" t="s">
+        <v>156</v>
+      </c>
+      <c r="M192" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A193" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B193" t="s">
+        <v>191</v>
+      </c>
+      <c r="D193" t="s">
+        <v>91</v>
+      </c>
+      <c r="J193" t="s">
+        <v>102</v>
+      </c>
+      <c r="K193" t="s">
+        <v>137</v>
+      </c>
+      <c r="L193" t="s">
+        <v>156</v>
+      </c>
+      <c r="M193" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A194" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B194" t="s">
+        <v>191</v>
+      </c>
+      <c r="J194" t="s">
+        <v>103</v>
+      </c>
+      <c r="M194" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A195" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B195" t="s">
+        <v>191</v>
+      </c>
+      <c r="J195" t="s">
+        <v>104</v>
+      </c>
+      <c r="M195" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A196" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B196" t="s">
+        <v>191</v>
+      </c>
+      <c r="D196" t="s">
+        <v>27</v>
+      </c>
+      <c r="J196" t="s">
+        <v>105</v>
+      </c>
+      <c r="K196" t="s">
+        <v>138</v>
+      </c>
+      <c r="L196" t="s">
+        <v>157</v>
+      </c>
+      <c r="M196" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A197" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B197" t="s">
+        <v>191</v>
+      </c>
+      <c r="D197" t="s">
+        <v>27</v>
+      </c>
+      <c r="J197" t="s">
+        <v>94</v>
+      </c>
+      <c r="K197" t="s">
+        <v>139</v>
+      </c>
+      <c r="L197" t="s">
+        <v>157</v>
+      </c>
+      <c r="M197" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A198" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B198" t="s">
+        <v>191</v>
+      </c>
+      <c r="D198" t="s">
+        <v>27</v>
+      </c>
+      <c r="J198" t="s">
+        <v>106</v>
+      </c>
+      <c r="K198" t="s">
+        <v>140</v>
+      </c>
+      <c r="L198" t="s">
+        <v>158</v>
+      </c>
+      <c r="M198" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A199" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B199" t="s">
         <v>191</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D199" t="s">
         <v>27</v>
       </c>
-      <c r="F166" s="1" t="s">
+      <c r="F199" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J166" t="s">
+      <c r="J199" t="s">
         <v>107</v>
       </c>
-      <c r="K166" t="s">
+      <c r="K199" t="s">
         <v>141</v>
       </c>
-      <c r="L166" t="s">
+      <c r="L199" t="s">
         <v>159</v>
       </c>
-      <c r="M166" t="s">
+      <c r="M199" t="s">
         <v>125</v>
       </c>
     </row>

--- a/dictionary/Vocab.xlsx
+++ b/dictionary/Vocab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02 Trae\TibetanNote\dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E543E96D-F346-4CBB-9A07-753D76CDAE07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6D2908-4A34-4996-92A1-4E7471BC861E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="5460" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="1180">
   <si>
     <t>word</t>
   </si>
@@ -2884,6 +2884,687 @@
   </si>
   <si>
     <t>Connct.Cond</t>
+  </si>
+  <si>
+    <t>སེམས་ཅན།</t>
+  </si>
+  <si>
+    <t>ཅ་ལག</t>
+  </si>
+  <si>
+    <t>ཁང་པ།</t>
+  </si>
+  <si>
+    <t>ཇ་དམ།</t>
+  </si>
+  <si>
+    <t>ཟླ་བ།</t>
+  </si>
+  <si>
+    <t>དུག་སློག</t>
+  </si>
+  <si>
+    <t>ལྷམ་གོག</t>
+  </si>
+  <si>
+    <t>ཕྱུ་པ།</t>
+  </si>
+  <si>
+    <t>མེ།</t>
+  </si>
+  <si>
+    <t>ཁ་དོག</t>
+  </si>
+  <si>
+    <t>ཚོས་གཞི།</t>
+  </si>
+  <si>
+    <t>ལྡོག་ཕྱོགས།</t>
+  </si>
+  <si>
+    <t>གཟུགས་པོ།</t>
+  </si>
+  <si>
+    <t>སྐྲ།</t>
+  </si>
+  <si>
+    <t>རིང་པོ།</t>
+  </si>
+  <si>
+    <t>ཐུང་ཐུང་།</t>
+  </si>
+  <si>
+    <t>གཟུགས་པོ་རིང་པོ།</t>
+  </si>
+  <si>
+    <t>གཟུགས་པོ་ཐུང་ཐུང་།</t>
+  </si>
+  <si>
+    <t>རྙིང་པ།</t>
+  </si>
+  <si>
+    <t>གསར་པ།</t>
+  </si>
+  <si>
+    <t>V01-L06</t>
+  </si>
+  <si>
+    <t>animal</t>
+  </si>
+  <si>
+    <t>objet ; chose</t>
+  </si>
+  <si>
+    <t>ཁ་པར།</t>
+  </si>
+  <si>
+    <t>téléphone</t>
+  </si>
+  <si>
+    <t>maison</t>
+  </si>
+  <si>
+    <t>thermos</t>
+  </si>
+  <si>
+    <t>ཇ་(tea)+དམ་(bottle)</t>
+  </si>
+  <si>
+    <t>lune ; mois</t>
+  </si>
+  <si>
+    <t>vêtement</t>
+  </si>
+  <si>
+    <t>bottes ; chaussures</t>
+  </si>
+  <si>
+    <t>vêtement traditionnel tibétain</t>
+  </si>
+  <si>
+    <t>feu</t>
+  </si>
+  <si>
+    <t>couleur</t>
+  </si>
+  <si>
+    <t>contraire</t>
+  </si>
+  <si>
+    <t>corps</t>
+  </si>
+  <si>
+    <t>cheveux</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>court</t>
+  </si>
+  <si>
+    <t>grand (taille ; humain)</t>
+  </si>
+  <si>
+    <t>petit (taille ; humain)</t>
+  </si>
+  <si>
+    <t>vieux (objet)</t>
+  </si>
+  <si>
+    <t>neuf ; nouveux</t>
+  </si>
+  <si>
+    <t>动物</t>
+  </si>
+  <si>
+    <t>物品；东西</t>
+  </si>
+  <si>
+    <t>电话</t>
+  </si>
+  <si>
+    <t>房子</t>
+  </si>
+  <si>
+    <t>暖瓶</t>
+  </si>
+  <si>
+    <t>月亮；月</t>
+  </si>
+  <si>
+    <t>衣服</t>
+  </si>
+  <si>
+    <t>靴子；鞋子</t>
+  </si>
+  <si>
+    <t>藏袍</t>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>颜色</t>
+  </si>
+  <si>
+    <t>相反</t>
+  </si>
+  <si>
+    <t>身体</t>
+  </si>
+  <si>
+    <t>头发</t>
+  </si>
+  <si>
+    <t>长</t>
+  </si>
+  <si>
+    <t>短</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>矮</t>
+  </si>
+  <si>
+    <t>旧</t>
+  </si>
+  <si>
+    <t>新</t>
+  </si>
+  <si>
+    <t>object; thing</t>
+  </si>
+  <si>
+    <t>telephone</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>moon; month</t>
+  </si>
+  <si>
+    <t>clothes</t>
+  </si>
+  <si>
+    <t>boots; shoes</t>
+  </si>
+  <si>
+    <t>Tibetan clothes</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>contrary</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>hair</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>tall</t>
+  </si>
+  <si>
+    <t>old (thing)</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>動物</t>
+  </si>
+  <si>
+    <t>物</t>
+  </si>
+  <si>
+    <t>電話</t>
+  </si>
+  <si>
+    <t>屋</t>
+  </si>
+  <si>
+    <t>魔法瓶</t>
+  </si>
+  <si>
+    <t>つき、げつ</t>
+  </si>
+  <si>
+    <t>服</t>
+  </si>
+  <si>
+    <t>靴、長靴</t>
+  </si>
+  <si>
+    <t>チベット式の服</t>
+  </si>
+  <si>
+    <t>色</t>
+  </si>
+  <si>
+    <t>反対的に</t>
+  </si>
+  <si>
+    <t>体</t>
+  </si>
+  <si>
+    <t>髪</t>
+  </si>
+  <si>
+    <t>長い</t>
+  </si>
+  <si>
+    <t>短い</t>
+  </si>
+  <si>
+    <t>高い</t>
+  </si>
+  <si>
+    <t>低い</t>
+  </si>
+  <si>
+    <t>古い</t>
+  </si>
+  <si>
+    <t>新しい</t>
+  </si>
+  <si>
+    <t>ཚོས་(tint; hue)+གཞི་(base)</t>
+  </si>
+  <si>
+    <t>ལྡོག་(inverse)+ཕྱོགས་(direction)</t>
+  </si>
+  <si>
+    <t>གཟུགས་པོ་(body)+རིང་པོ་(long)</t>
+  </si>
+  <si>
+    <t>མང་པོ།</t>
+  </si>
+  <si>
+    <t>ཉུང་ཉུང་།</t>
+  </si>
+  <si>
+    <t>ཆེན་པོ།</t>
+  </si>
+  <si>
+    <t>ཆུང་ཆུང་།</t>
+  </si>
+  <si>
+    <t>གོང་ཆེན་པོ།</t>
+  </si>
+  <si>
+    <t>གོང་ཆུང་ཆུང་།</t>
+  </si>
+  <si>
+    <t>རྒན་འཁོགས།</t>
+  </si>
+  <si>
+    <t>ལོ་ཆེན་པོ།</t>
+  </si>
+  <si>
+    <t>གཞོན་གཞོན།</t>
+  </si>
+  <si>
+    <t>ལོ་ཆུང་ཆུང་།</t>
+  </si>
+  <si>
+    <t>མཐོ་པོ།</t>
+  </si>
+  <si>
+    <t>དམའ་པོ།</t>
+  </si>
+  <si>
+    <t>ཚ་པོ།</t>
+  </si>
+  <si>
+    <t>ཡག་པོ།</t>
+  </si>
+  <si>
+    <t>སྐྱིད་པོ།</t>
+  </si>
+  <si>
+    <t>སེམས་སྐྱིད་པོ།</t>
+  </si>
+  <si>
+    <t>སེམས་བཟང་པོ།</t>
+  </si>
+  <si>
+    <t>སྙིང་རྗེ་པོ།</t>
+  </si>
+  <si>
+    <t>སྙིང་རྗེ་མོ།</t>
+  </si>
+  <si>
+    <t>ནག་པོ།</t>
+  </si>
+  <si>
+    <t>དམར་པོ།</t>
+  </si>
+  <si>
+    <t>དམར་མོ།</t>
+  </si>
+  <si>
+    <t>སྔོན་པོ།</t>
+  </si>
+  <si>
+    <t>ལྗང་གུ</t>
+  </si>
+  <si>
+    <t>སེར་པོ།</t>
+  </si>
+  <si>
+    <t>འདུག</t>
+  </si>
+  <si>
+    <t>ག་པར་ག་པར།</t>
+  </si>
+  <si>
+    <t>nombreux ; beaucoup</t>
+  </si>
+  <si>
+    <t>peu ; peu nomnreux</t>
+  </si>
+  <si>
+    <t>grand ; gros</t>
+  </si>
+  <si>
+    <t>petit</t>
+  </si>
+  <si>
+    <t>cher</t>
+  </si>
+  <si>
+    <t>bon marché</t>
+  </si>
+  <si>
+    <t>vieux ; âgé</t>
+  </si>
+  <si>
+    <t>jeune ; petit</t>
+  </si>
+  <si>
+    <t>haut</t>
+  </si>
+  <si>
+    <t>bas</t>
+  </si>
+  <si>
+    <t>གྲང་མོ།</t>
+  </si>
+  <si>
+    <t>froid</t>
+  </si>
+  <si>
+    <t>chaud</t>
+  </si>
+  <si>
+    <t>bien</t>
+  </si>
+  <si>
+    <t>agréable (lieu ; époque)</t>
+  </si>
+  <si>
+    <t>joyeux</t>
+  </si>
+  <si>
+    <t>gentil ; bon</t>
+  </si>
+  <si>
+    <t>joli</t>
+  </si>
+  <si>
+    <t>noir</t>
+  </si>
+  <si>
+    <t>rouge</t>
+  </si>
+  <si>
+    <t>bleu</t>
+  </si>
+  <si>
+    <t>vert</t>
+  </si>
+  <si>
+    <t>jaune</t>
+  </si>
+  <si>
+    <t>copule existentielle perceptive</t>
+  </si>
+  <si>
+    <t>pas du tout ; allons donc</t>
+  </si>
+  <si>
+    <t>多い</t>
+  </si>
+  <si>
+    <t>少ない</t>
+  </si>
+  <si>
+    <t>大きい</t>
+  </si>
+  <si>
+    <t>小さい</t>
+  </si>
+  <si>
+    <t>安い</t>
+  </si>
+  <si>
+    <t>（値段が）高い</t>
+  </si>
+  <si>
+    <t>年を取っている</t>
+  </si>
+  <si>
+    <t>若い</t>
+  </si>
+  <si>
+    <t>冷たい</t>
+  </si>
+  <si>
+    <t>熱い</t>
+  </si>
+  <si>
+    <t>気持ちいい</t>
+  </si>
+  <si>
+    <t>嬉しい</t>
+  </si>
+  <si>
+    <t>優しい</t>
+  </si>
+  <si>
+    <t>美しい</t>
+  </si>
+  <si>
+    <t>黒い</t>
+  </si>
+  <si>
+    <t>赤い</t>
+  </si>
+  <si>
+    <t>青い</t>
+  </si>
+  <si>
+    <t>緑</t>
+  </si>
+  <si>
+    <t>黄色い</t>
+  </si>
+  <si>
+    <t>ある（視覚）</t>
+  </si>
+  <si>
+    <t>全然</t>
+  </si>
+  <si>
+    <t>多</t>
+  </si>
+  <si>
+    <t>少</t>
+  </si>
+  <si>
+    <t>大</t>
+  </si>
+  <si>
+    <t>小</t>
+  </si>
+  <si>
+    <t>低</t>
+  </si>
+  <si>
+    <t>冷</t>
+  </si>
+  <si>
+    <t>贵</t>
+  </si>
+  <si>
+    <t>便宜</t>
+  </si>
+  <si>
+    <t>年老</t>
+  </si>
+  <si>
+    <t>年轻</t>
+  </si>
+  <si>
+    <t>热</t>
+  </si>
+  <si>
+    <t>好</t>
+  </si>
+  <si>
+    <t>惬意</t>
+  </si>
+  <si>
+    <t>开心</t>
+  </si>
+  <si>
+    <t>和蔼</t>
+  </si>
+  <si>
+    <t>漂亮</t>
+  </si>
+  <si>
+    <t>黑</t>
+  </si>
+  <si>
+    <t>红</t>
+  </si>
+  <si>
+    <t>蓝</t>
+  </si>
+  <si>
+    <t>绿</t>
+  </si>
+  <si>
+    <t>黄</t>
+  </si>
+  <si>
+    <t>亲见存在动词</t>
+  </si>
+  <si>
+    <t>哪里哪里</t>
+  </si>
+  <si>
+    <t>many; numerous</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>expensive</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>young</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>cold</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>gentil</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>perceptive existentiel copular</t>
+  </si>
+  <si>
+    <t>not at all</t>
+  </si>
+  <si>
+    <t>གོང་(price)+ཆེན་པོ་(big)</t>
+  </si>
+  <si>
+    <t>གོང་(price)+ཆུང་ཆུང་(small)</t>
+  </si>
+  <si>
+    <t>ལོ་(year)+ཆེན་པོ་(big)</t>
+  </si>
+  <si>
+    <t>ལོ་(year)+ཆུང་ཆུང་(small)</t>
+  </si>
+  <si>
+    <t>སེམས་(spirit)+བཟང་པོ་(well)</t>
+  </si>
+  <si>
+    <t>སེམས་(spirit)+སྐྱིད་པོ་(pleasant)</t>
+  </si>
+  <si>
+    <t>pleasant; confortable</t>
+  </si>
+  <si>
+    <t>Expres.</t>
   </si>
 </sst>
 </file>
@@ -3213,10 +3894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R199"/>
+  <dimension ref="A1:R248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F174" sqref="F174"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D224" sqref="D224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.55000000000000004"/>
@@ -7417,561 +8098,1722 @@
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1" t="s">
-        <v>39</v>
+        <v>953</v>
       </c>
       <c r="B175" t="s">
-        <v>191</v>
+        <v>973</v>
       </c>
       <c r="D175" t="s">
         <v>40</v>
       </c>
-      <c r="E175" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="J175" t="s">
-        <v>42</v>
+        <v>996</v>
       </c>
       <c r="K175" t="s">
-        <v>43</v>
+        <v>1032</v>
       </c>
       <c r="L175" t="s">
-        <v>57</v>
+        <v>974</v>
       </c>
       <c r="M175" t="s">
-        <v>53</v>
+        <v>974</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="1" t="s">
-        <v>47</v>
+        <v>954</v>
       </c>
       <c r="B176" t="s">
-        <v>191</v>
+        <v>973</v>
       </c>
       <c r="D176" t="s">
         <v>40</v>
       </c>
-      <c r="E176" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="J176" t="s">
-        <v>62</v>
+        <v>997</v>
       </c>
       <c r="K176" t="s">
-        <v>126</v>
+        <v>1033</v>
       </c>
       <c r="L176" t="s">
-        <v>142</v>
+        <v>1016</v>
       </c>
       <c r="M176" t="s">
-        <v>52</v>
+        <v>975</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1" t="s">
-        <v>48</v>
+        <v>976</v>
       </c>
       <c r="B177" t="s">
-        <v>191</v>
+        <v>973</v>
       </c>
       <c r="D177" t="s">
         <v>40</v>
       </c>
+      <c r="J177" t="s">
+        <v>998</v>
+      </c>
+      <c r="K177" t="s">
+        <v>1034</v>
+      </c>
+      <c r="L177" t="s">
+        <v>1017</v>
+      </c>
       <c r="M177" t="s">
-        <v>58</v>
+        <v>977</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1" t="s">
-        <v>49</v>
+        <v>955</v>
       </c>
       <c r="B178" t="s">
-        <v>191</v>
+        <v>973</v>
       </c>
       <c r="D178" t="s">
         <v>40</v>
       </c>
-      <c r="E178" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="J178" t="s">
-        <v>63</v>
+        <v>999</v>
       </c>
       <c r="K178" t="s">
-        <v>127</v>
+        <v>1035</v>
+      </c>
+      <c r="L178" t="s">
+        <v>1018</v>
       </c>
       <c r="M178" t="s">
-        <v>59</v>
+        <v>978</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1" t="s">
-        <v>50</v>
+        <v>956</v>
       </c>
       <c r="B179" t="s">
-        <v>191</v>
+        <v>973</v>
       </c>
       <c r="D179" t="s">
         <v>40</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>68</v>
+        <v>980</v>
       </c>
       <c r="J179" t="s">
-        <v>64</v>
+        <v>1000</v>
       </c>
       <c r="K179" t="s">
-        <v>128</v>
+        <v>1036</v>
       </c>
       <c r="L179" t="s">
-        <v>143</v>
+        <v>979</v>
       </c>
       <c r="M179" t="s">
-        <v>60</v>
+        <v>979</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="1" t="s">
-        <v>51</v>
+        <v>957</v>
       </c>
       <c r="B180" t="s">
-        <v>191</v>
+        <v>973</v>
       </c>
       <c r="D180" t="s">
         <v>40</v>
       </c>
       <c r="J180" t="s">
-        <v>65</v>
+        <v>1001</v>
       </c>
       <c r="K180" t="s">
-        <v>129</v>
+        <v>1037</v>
       </c>
       <c r="L180" t="s">
-        <v>144</v>
+        <v>1019</v>
       </c>
       <c r="M180" t="s">
-        <v>61</v>
+        <v>981</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="1" t="s">
-        <v>69</v>
+        <v>958</v>
       </c>
       <c r="B181" t="s">
-        <v>191</v>
+        <v>973</v>
       </c>
       <c r="D181" t="s">
         <v>40</v>
       </c>
       <c r="J181" t="s">
-        <v>108</v>
+        <v>1002</v>
       </c>
       <c r="K181" t="s">
-        <v>130</v>
+        <v>1038</v>
       </c>
       <c r="L181" t="s">
-        <v>145</v>
+        <v>1020</v>
       </c>
       <c r="M181" t="s">
-        <v>109</v>
+        <v>982</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="1" t="s">
-        <v>70</v>
+        <v>959</v>
       </c>
       <c r="B182" t="s">
-        <v>191</v>
+        <v>973</v>
       </c>
       <c r="D182" t="s">
         <v>40</v>
       </c>
       <c r="J182" t="s">
-        <v>93</v>
+        <v>1003</v>
       </c>
       <c r="K182" t="s">
-        <v>131</v>
+        <v>1039</v>
       </c>
       <c r="L182" t="s">
-        <v>146</v>
+        <v>1021</v>
       </c>
       <c r="M182" t="s">
-        <v>110</v>
+        <v>983</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="1" t="s">
-        <v>71</v>
+        <v>960</v>
       </c>
       <c r="B183" t="s">
-        <v>191</v>
+        <v>973</v>
       </c>
       <c r="D183" t="s">
         <v>40</v>
       </c>
       <c r="J183" t="s">
-        <v>94</v>
+        <v>1004</v>
       </c>
       <c r="K183" t="s">
-        <v>94</v>
+        <v>1040</v>
       </c>
       <c r="L183" t="s">
-        <v>147</v>
+        <v>1022</v>
       </c>
       <c r="M183" t="s">
-        <v>111</v>
+        <v>984</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="1" t="s">
-        <v>72</v>
+        <v>961</v>
       </c>
       <c r="B184" t="s">
-        <v>191</v>
+        <v>973</v>
       </c>
       <c r="D184" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="J184" t="s">
-        <v>95</v>
+        <v>1005</v>
       </c>
       <c r="K184" t="s">
-        <v>132</v>
+        <v>1005</v>
       </c>
       <c r="L184" t="s">
-        <v>148</v>
+        <v>1023</v>
       </c>
       <c r="M184" t="s">
-        <v>112</v>
+        <v>985</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="1" t="s">
-        <v>73</v>
+        <v>962</v>
       </c>
       <c r="B185" t="s">
-        <v>191</v>
+        <v>973</v>
       </c>
       <c r="D185" t="s">
-        <v>90</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="J185" t="s">
-        <v>96</v>
+        <v>1006</v>
       </c>
       <c r="K185" t="s">
-        <v>133</v>
+        <v>1041</v>
       </c>
       <c r="L185" t="s">
-        <v>149</v>
+        <v>1024</v>
       </c>
       <c r="M185" t="s">
-        <v>113</v>
+        <v>986</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="1" t="s">
-        <v>74</v>
+        <v>963</v>
       </c>
       <c r="B186" t="s">
-        <v>191</v>
+        <v>973</v>
       </c>
       <c r="D186" t="s">
-        <v>90</v>
+        <v>40</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>1051</v>
       </c>
       <c r="J186" t="s">
-        <v>97</v>
+        <v>1006</v>
       </c>
       <c r="K186" t="s">
-        <v>135</v>
+        <v>1041</v>
       </c>
       <c r="L186" t="s">
-        <v>150</v>
+        <v>1024</v>
       </c>
       <c r="M186" t="s">
-        <v>114</v>
+        <v>986</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="1" t="s">
-        <v>75</v>
+        <v>964</v>
       </c>
       <c r="B187" t="s">
-        <v>191</v>
-      </c>
-      <c r="D187" t="s">
-        <v>90</v>
+        <v>973</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>1052</v>
       </c>
       <c r="J187" t="s">
-        <v>98</v>
+        <v>1007</v>
       </c>
       <c r="K187" t="s">
-        <v>134</v>
+        <v>1042</v>
       </c>
       <c r="L187" t="s">
-        <v>151</v>
+        <v>1025</v>
       </c>
       <c r="M187" t="s">
-        <v>115</v>
+        <v>987</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="1" t="s">
-        <v>76</v>
+        <v>965</v>
       </c>
       <c r="B188" t="s">
-        <v>191</v>
+        <v>973</v>
       </c>
       <c r="D188" t="s">
-        <v>90</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E188"/>
       <c r="J188" t="s">
-        <v>99</v>
+        <v>1008</v>
       </c>
       <c r="K188" t="s">
-        <v>153</v>
+        <v>1043</v>
       </c>
       <c r="L188" t="s">
-        <v>152</v>
+        <v>1026</v>
       </c>
       <c r="M188" t="s">
-        <v>116</v>
+        <v>988</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="1" t="s">
-        <v>77</v>
+        <v>966</v>
       </c>
       <c r="B189" t="s">
-        <v>191</v>
+        <v>973</v>
       </c>
       <c r="D189" t="s">
-        <v>91</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E189"/>
       <c r="J189" t="s">
-        <v>100</v>
+        <v>1009</v>
+      </c>
+      <c r="K189" t="s">
+        <v>1044</v>
       </c>
       <c r="L189" t="s">
-        <v>154</v>
+        <v>1027</v>
       </c>
       <c r="M189" t="s">
-        <v>117</v>
+        <v>989</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="1" t="s">
-        <v>78</v>
+        <v>967</v>
       </c>
       <c r="B190" t="s">
-        <v>191</v>
+        <v>973</v>
       </c>
       <c r="D190" t="s">
-        <v>91</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="E190"/>
       <c r="J190" t="s">
-        <v>101</v>
+        <v>1010</v>
       </c>
       <c r="K190" t="s">
-        <v>136</v>
+        <v>1045</v>
       </c>
       <c r="L190" t="s">
-        <v>155</v>
+        <v>990</v>
       </c>
       <c r="M190" t="s">
-        <v>118</v>
+        <v>990</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="1" t="s">
-        <v>79</v>
+        <v>968</v>
       </c>
       <c r="B191" t="s">
-        <v>191</v>
+        <v>973</v>
       </c>
       <c r="D191" t="s">
-        <v>91</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="E191"/>
       <c r="J191" t="s">
-        <v>101</v>
+        <v>1011</v>
       </c>
       <c r="K191" t="s">
-        <v>136</v>
+        <v>1046</v>
       </c>
       <c r="L191" t="s">
-        <v>155</v>
+        <v>1028</v>
       </c>
       <c r="M191" t="s">
-        <v>118</v>
+        <v>991</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="1" t="s">
-        <v>80</v>
+        <v>969</v>
       </c>
       <c r="B192" t="s">
-        <v>191</v>
+        <v>973</v>
       </c>
       <c r="D192" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>1053</v>
       </c>
       <c r="J192" t="s">
-        <v>102</v>
+        <v>1012</v>
       </c>
       <c r="K192" t="s">
-        <v>137</v>
+        <v>1047</v>
       </c>
       <c r="L192" t="s">
-        <v>156</v>
+        <v>1029</v>
       </c>
       <c r="M192" t="s">
-        <v>119</v>
+        <v>992</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="1" t="s">
-        <v>81</v>
+        <v>970</v>
       </c>
       <c r="B193" t="s">
-        <v>191</v>
+        <v>973</v>
       </c>
       <c r="D193" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>970</v>
       </c>
       <c r="J193" t="s">
-        <v>102</v>
+        <v>1013</v>
       </c>
       <c r="K193" t="s">
-        <v>137</v>
+        <v>1048</v>
       </c>
       <c r="L193" t="s">
-        <v>156</v>
+        <v>1028</v>
       </c>
       <c r="M193" t="s">
-        <v>119</v>
+        <v>993</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="1" t="s">
-        <v>82</v>
+        <v>971</v>
       </c>
       <c r="B194" t="s">
-        <v>191</v>
+        <v>973</v>
+      </c>
+      <c r="D194" t="s">
+        <v>90</v>
       </c>
       <c r="J194" t="s">
-        <v>103</v>
+        <v>1014</v>
+      </c>
+      <c r="K194" t="s">
+        <v>1049</v>
+      </c>
+      <c r="L194" t="s">
+        <v>1030</v>
       </c>
       <c r="M194" t="s">
-        <v>120</v>
+        <v>994</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="1" t="s">
-        <v>83</v>
+        <v>972</v>
       </c>
       <c r="B195" t="s">
-        <v>191</v>
+        <v>973</v>
+      </c>
+      <c r="D195" t="s">
+        <v>90</v>
       </c>
       <c r="J195" t="s">
-        <v>104</v>
+        <v>1015</v>
+      </c>
+      <c r="K195" t="s">
+        <v>1050</v>
+      </c>
+      <c r="L195" t="s">
+        <v>1031</v>
       </c>
       <c r="M195" t="s">
-        <v>121</v>
+        <v>995</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="1" t="s">
-        <v>84</v>
+        <v>1054</v>
       </c>
       <c r="B196" t="s">
-        <v>191</v>
+        <v>973</v>
       </c>
       <c r="D196" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="J196" t="s">
-        <v>105</v>
+        <v>1127</v>
       </c>
       <c r="K196" t="s">
-        <v>138</v>
+        <v>1106</v>
       </c>
       <c r="L196" t="s">
-        <v>157</v>
+        <v>1150</v>
       </c>
       <c r="M196" t="s">
-        <v>122</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="1" t="s">
-        <v>85</v>
+        <v>1055</v>
       </c>
       <c r="B197" t="s">
-        <v>191</v>
+        <v>973</v>
       </c>
       <c r="D197" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="J197" t="s">
-        <v>94</v>
+        <v>1128</v>
       </c>
       <c r="K197" t="s">
-        <v>139</v>
+        <v>1107</v>
       </c>
       <c r="L197" t="s">
-        <v>157</v>
+        <v>1151</v>
       </c>
       <c r="M197" t="s">
-        <v>123</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="1" t="s">
-        <v>86</v>
+        <v>1056</v>
       </c>
       <c r="B198" t="s">
-        <v>191</v>
+        <v>973</v>
       </c>
       <c r="D198" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="J198" t="s">
-        <v>106</v>
+        <v>1129</v>
       </c>
       <c r="K198" t="s">
-        <v>140</v>
+        <v>1108</v>
       </c>
       <c r="L198" t="s">
-        <v>158</v>
+        <v>1152</v>
       </c>
       <c r="M198" t="s">
-        <v>124</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B199" t="s">
+        <v>973</v>
+      </c>
+      <c r="D199" t="s">
+        <v>90</v>
+      </c>
+      <c r="J199" t="s">
+        <v>1130</v>
+      </c>
+      <c r="K199" t="s">
+        <v>1109</v>
+      </c>
+      <c r="L199" t="s">
+        <v>1153</v>
+      </c>
+      <c r="M199" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A200" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B200" t="s">
+        <v>973</v>
+      </c>
+      <c r="D200" t="s">
+        <v>90</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="J200" t="s">
+        <v>1133</v>
+      </c>
+      <c r="K200" t="s">
+        <v>1111</v>
+      </c>
+      <c r="L200" t="s">
+        <v>1154</v>
+      </c>
+      <c r="M200" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A201" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B201" t="s">
+        <v>973</v>
+      </c>
+      <c r="D201" t="s">
+        <v>90</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="J201" t="s">
+        <v>1134</v>
+      </c>
+      <c r="K201" t="s">
+        <v>1110</v>
+      </c>
+      <c r="L201" t="s">
+        <v>1155</v>
+      </c>
+      <c r="M201" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A202" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B202" t="s">
+        <v>973</v>
+      </c>
+      <c r="D202" t="s">
+        <v>90</v>
+      </c>
+      <c r="J202" t="s">
+        <v>1135</v>
+      </c>
+      <c r="K202" t="s">
+        <v>1112</v>
+      </c>
+      <c r="L202" t="s">
+        <v>1156</v>
+      </c>
+      <c r="M202" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A203" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B203" t="s">
+        <v>973</v>
+      </c>
+      <c r="D203" t="s">
+        <v>90</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="J203" t="s">
+        <v>1135</v>
+      </c>
+      <c r="K203" t="s">
+        <v>1112</v>
+      </c>
+      <c r="L203" t="s">
+        <v>1156</v>
+      </c>
+      <c r="M203" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A204" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B204" t="s">
+        <v>973</v>
+      </c>
+      <c r="D204" t="s">
+        <v>90</v>
+      </c>
+      <c r="J204" t="s">
+        <v>1136</v>
+      </c>
+      <c r="K204" t="s">
+        <v>1113</v>
+      </c>
+      <c r="L204" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M204" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A205" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B205" t="s">
+        <v>973</v>
+      </c>
+      <c r="D205" t="s">
+        <v>90</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="J205" t="s">
+        <v>1136</v>
+      </c>
+      <c r="K205" t="s">
+        <v>1113</v>
+      </c>
+      <c r="L205" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M205" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A206" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B206" t="s">
+        <v>973</v>
+      </c>
+      <c r="D206" t="s">
+        <v>90</v>
+      </c>
+      <c r="J206" t="s">
+        <v>1012</v>
+      </c>
+      <c r="K206" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L206" t="s">
+        <v>1158</v>
+      </c>
+      <c r="M206" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A207" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B207" t="s">
+        <v>973</v>
+      </c>
+      <c r="D207" t="s">
+        <v>90</v>
+      </c>
+      <c r="J207" t="s">
+        <v>1131</v>
+      </c>
+      <c r="K207" t="s">
+        <v>1048</v>
+      </c>
+      <c r="L207" t="s">
+        <v>1159</v>
+      </c>
+      <c r="M207" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A208" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B208" t="s">
+        <v>973</v>
+      </c>
+      <c r="D208" t="s">
+        <v>90</v>
+      </c>
+      <c r="J208" t="s">
+        <v>1132</v>
+      </c>
+      <c r="K208" t="s">
+        <v>1114</v>
+      </c>
+      <c r="L208" t="s">
+        <v>1160</v>
+      </c>
+      <c r="M208" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A209" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B209" t="s">
+        <v>973</v>
+      </c>
+      <c r="D209" t="s">
+        <v>90</v>
+      </c>
+      <c r="J209" t="s">
+        <v>1137</v>
+      </c>
+      <c r="K209" t="s">
+        <v>1115</v>
+      </c>
+      <c r="L209" t="s">
+        <v>1161</v>
+      </c>
+      <c r="M209" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A210" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B210" t="s">
+        <v>973</v>
+      </c>
+      <c r="D210" t="s">
+        <v>90</v>
+      </c>
+      <c r="J210" t="s">
+        <v>1138</v>
+      </c>
+      <c r="K210" t="s">
+        <v>465</v>
+      </c>
+      <c r="L210" t="s">
+        <v>438</v>
+      </c>
+      <c r="M210" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A211" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B211" t="s">
+        <v>973</v>
+      </c>
+      <c r="D211" t="s">
+        <v>90</v>
+      </c>
+      <c r="J211" t="s">
+        <v>1139</v>
+      </c>
+      <c r="K211" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L211" t="s">
+        <v>1178</v>
+      </c>
+      <c r="M211" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A212" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B212" t="s">
+        <v>973</v>
+      </c>
+      <c r="D212" t="s">
+        <v>90</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="J212" t="s">
+        <v>1140</v>
+      </c>
+      <c r="K212" t="s">
+        <v>1117</v>
+      </c>
+      <c r="L212" t="s">
+        <v>1162</v>
+      </c>
+      <c r="M212" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A213" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B213" t="s">
+        <v>973</v>
+      </c>
+      <c r="D213" t="s">
+        <v>90</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="J213" t="s">
+        <v>1141</v>
+      </c>
+      <c r="K213" t="s">
+        <v>1118</v>
+      </c>
+      <c r="L213" t="s">
+        <v>1163</v>
+      </c>
+      <c r="M213" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A214" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B214" t="s">
+        <v>973</v>
+      </c>
+      <c r="D214" t="s">
+        <v>90</v>
+      </c>
+      <c r="J214" t="s">
+        <v>1142</v>
+      </c>
+      <c r="K214" t="s">
+        <v>1119</v>
+      </c>
+      <c r="L214" t="s">
+        <v>1164</v>
+      </c>
+      <c r="M214" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A215" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B215" t="s">
+        <v>973</v>
+      </c>
+      <c r="D215" t="s">
+        <v>90</v>
+      </c>
+      <c r="J215" t="s">
+        <v>1142</v>
+      </c>
+      <c r="K215" t="s">
+        <v>1119</v>
+      </c>
+      <c r="L215" t="s">
+        <v>1164</v>
+      </c>
+      <c r="M215" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A216" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B216" t="s">
+        <v>973</v>
+      </c>
+      <c r="D216" t="s">
+        <v>90</v>
+      </c>
+      <c r="J216" t="s">
+        <v>1143</v>
+      </c>
+      <c r="K216" t="s">
+        <v>1120</v>
+      </c>
+      <c r="L216" t="s">
+        <v>1165</v>
+      </c>
+      <c r="M216" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A217" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B217" t="s">
+        <v>973</v>
+      </c>
+      <c r="D217" t="s">
+        <v>90</v>
+      </c>
+      <c r="J217" t="s">
+        <v>1144</v>
+      </c>
+      <c r="K217" t="s">
+        <v>1121</v>
+      </c>
+      <c r="L217" t="s">
+        <v>1166</v>
+      </c>
+      <c r="M217" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A218" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B218" t="s">
+        <v>973</v>
+      </c>
+      <c r="D218" t="s">
+        <v>90</v>
+      </c>
+      <c r="J218" t="s">
+        <v>1144</v>
+      </c>
+      <c r="K218" t="s">
+        <v>1121</v>
+      </c>
+      <c r="L218" t="s">
+        <v>1166</v>
+      </c>
+      <c r="M218" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A219" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B219" t="s">
+        <v>973</v>
+      </c>
+      <c r="D219" t="s">
+        <v>90</v>
+      </c>
+      <c r="J219" t="s">
+        <v>1145</v>
+      </c>
+      <c r="K219" t="s">
+        <v>1122</v>
+      </c>
+      <c r="L219" t="s">
+        <v>1167</v>
+      </c>
+      <c r="M219" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A220" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B220" t="s">
+        <v>973</v>
+      </c>
+      <c r="D220" t="s">
+        <v>90</v>
+      </c>
+      <c r="J220" t="s">
+        <v>1146</v>
+      </c>
+      <c r="K220" t="s">
+        <v>1123</v>
+      </c>
+      <c r="L220" t="s">
+        <v>1168</v>
+      </c>
+      <c r="M220" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A221" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B221" t="s">
+        <v>973</v>
+      </c>
+      <c r="D221" t="s">
+        <v>90</v>
+      </c>
+      <c r="J221" t="s">
+        <v>1147</v>
+      </c>
+      <c r="K221" t="s">
+        <v>1124</v>
+      </c>
+      <c r="L221" t="s">
+        <v>1169</v>
+      </c>
+      <c r="M221" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A222" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B222" t="s">
+        <v>973</v>
+      </c>
+      <c r="D222" t="s">
+        <v>90</v>
+      </c>
+      <c r="J222" t="s">
+        <v>1148</v>
+      </c>
+      <c r="K222" t="s">
+        <v>1125</v>
+      </c>
+      <c r="L222" t="s">
+        <v>1170</v>
+      </c>
+      <c r="M222" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A223" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B223" t="s">
+        <v>973</v>
+      </c>
+      <c r="D223" t="s">
+        <v>1179</v>
+      </c>
+      <c r="J223" t="s">
+        <v>1149</v>
+      </c>
+      <c r="K223" t="s">
+        <v>1126</v>
+      </c>
+      <c r="L223" t="s">
+        <v>1171</v>
+      </c>
+      <c r="M223" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A224" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B224" t="s">
+        <v>191</v>
+      </c>
+      <c r="D224" t="s">
+        <v>40</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J224" t="s">
+        <v>42</v>
+      </c>
+      <c r="K224" t="s">
+        <v>43</v>
+      </c>
+      <c r="L224" t="s">
+        <v>57</v>
+      </c>
+      <c r="M224" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A225" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B225" t="s">
+        <v>191</v>
+      </c>
+      <c r="D225" t="s">
+        <v>40</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J225" t="s">
+        <v>62</v>
+      </c>
+      <c r="K225" t="s">
+        <v>126</v>
+      </c>
+      <c r="L225" t="s">
+        <v>142</v>
+      </c>
+      <c r="M225" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A226" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B226" t="s">
+        <v>191</v>
+      </c>
+      <c r="D226" t="s">
+        <v>40</v>
+      </c>
+      <c r="M226" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A227" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B227" t="s">
+        <v>191</v>
+      </c>
+      <c r="D227" t="s">
+        <v>40</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J227" t="s">
+        <v>63</v>
+      </c>
+      <c r="K227" t="s">
+        <v>127</v>
+      </c>
+      <c r="M227" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A228" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B228" t="s">
+        <v>191</v>
+      </c>
+      <c r="D228" t="s">
+        <v>40</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J228" t="s">
+        <v>64</v>
+      </c>
+      <c r="K228" t="s">
+        <v>128</v>
+      </c>
+      <c r="L228" t="s">
+        <v>143</v>
+      </c>
+      <c r="M228" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A229" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B229" t="s">
+        <v>191</v>
+      </c>
+      <c r="D229" t="s">
+        <v>40</v>
+      </c>
+      <c r="J229" t="s">
+        <v>65</v>
+      </c>
+      <c r="K229" t="s">
+        <v>129</v>
+      </c>
+      <c r="L229" t="s">
+        <v>144</v>
+      </c>
+      <c r="M229" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A230" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B230" t="s">
+        <v>191</v>
+      </c>
+      <c r="D230" t="s">
+        <v>40</v>
+      </c>
+      <c r="J230" t="s">
+        <v>108</v>
+      </c>
+      <c r="K230" t="s">
+        <v>130</v>
+      </c>
+      <c r="L230" t="s">
+        <v>145</v>
+      </c>
+      <c r="M230" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A231" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B231" t="s">
+        <v>191</v>
+      </c>
+      <c r="D231" t="s">
+        <v>40</v>
+      </c>
+      <c r="J231" t="s">
+        <v>93</v>
+      </c>
+      <c r="K231" t="s">
+        <v>131</v>
+      </c>
+      <c r="L231" t="s">
+        <v>146</v>
+      </c>
+      <c r="M231" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A232" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B232" t="s">
+        <v>191</v>
+      </c>
+      <c r="D232" t="s">
+        <v>40</v>
+      </c>
+      <c r="J232" t="s">
+        <v>94</v>
+      </c>
+      <c r="K232" t="s">
+        <v>94</v>
+      </c>
+      <c r="L232" t="s">
+        <v>147</v>
+      </c>
+      <c r="M232" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A233" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B233" t="s">
+        <v>191</v>
+      </c>
+      <c r="D233" t="s">
+        <v>89</v>
+      </c>
+      <c r="J233" t="s">
+        <v>95</v>
+      </c>
+      <c r="K233" t="s">
+        <v>132</v>
+      </c>
+      <c r="L233" t="s">
+        <v>148</v>
+      </c>
+      <c r="M233" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A234" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B234" t="s">
+        <v>191</v>
+      </c>
+      <c r="D234" t="s">
+        <v>90</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J234" t="s">
+        <v>96</v>
+      </c>
+      <c r="K234" t="s">
+        <v>133</v>
+      </c>
+      <c r="L234" t="s">
+        <v>149</v>
+      </c>
+      <c r="M234" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A235" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B235" t="s">
+        <v>191</v>
+      </c>
+      <c r="D235" t="s">
+        <v>90</v>
+      </c>
+      <c r="J235" t="s">
+        <v>97</v>
+      </c>
+      <c r="K235" t="s">
+        <v>135</v>
+      </c>
+      <c r="L235" t="s">
+        <v>150</v>
+      </c>
+      <c r="M235" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A236" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B236" t="s">
+        <v>191</v>
+      </c>
+      <c r="D236" t="s">
+        <v>90</v>
+      </c>
+      <c r="J236" t="s">
+        <v>98</v>
+      </c>
+      <c r="K236" t="s">
+        <v>134</v>
+      </c>
+      <c r="L236" t="s">
+        <v>151</v>
+      </c>
+      <c r="M236" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A237" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B237" t="s">
+        <v>191</v>
+      </c>
+      <c r="D237" t="s">
+        <v>90</v>
+      </c>
+      <c r="J237" t="s">
+        <v>99</v>
+      </c>
+      <c r="K237" t="s">
+        <v>153</v>
+      </c>
+      <c r="L237" t="s">
+        <v>152</v>
+      </c>
+      <c r="M237" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A238" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B238" t="s">
+        <v>191</v>
+      </c>
+      <c r="D238" t="s">
+        <v>91</v>
+      </c>
+      <c r="J238" t="s">
+        <v>100</v>
+      </c>
+      <c r="L238" t="s">
+        <v>154</v>
+      </c>
+      <c r="M238" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A239" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B239" t="s">
+        <v>191</v>
+      </c>
+      <c r="D239" t="s">
+        <v>91</v>
+      </c>
+      <c r="J239" t="s">
+        <v>101</v>
+      </c>
+      <c r="K239" t="s">
+        <v>136</v>
+      </c>
+      <c r="L239" t="s">
+        <v>155</v>
+      </c>
+      <c r="M239" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A240" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B240" t="s">
+        <v>191</v>
+      </c>
+      <c r="D240" t="s">
+        <v>91</v>
+      </c>
+      <c r="J240" t="s">
+        <v>101</v>
+      </c>
+      <c r="K240" t="s">
+        <v>136</v>
+      </c>
+      <c r="L240" t="s">
+        <v>155</v>
+      </c>
+      <c r="M240" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A241" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B241" t="s">
+        <v>191</v>
+      </c>
+      <c r="D241" t="s">
+        <v>91</v>
+      </c>
+      <c r="J241" t="s">
+        <v>102</v>
+      </c>
+      <c r="K241" t="s">
+        <v>137</v>
+      </c>
+      <c r="L241" t="s">
+        <v>156</v>
+      </c>
+      <c r="M241" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A242" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B242" t="s">
+        <v>191</v>
+      </c>
+      <c r="D242" t="s">
+        <v>91</v>
+      </c>
+      <c r="J242" t="s">
+        <v>102</v>
+      </c>
+      <c r="K242" t="s">
+        <v>137</v>
+      </c>
+      <c r="L242" t="s">
+        <v>156</v>
+      </c>
+      <c r="M242" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A243" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B243" t="s">
+        <v>191</v>
+      </c>
+      <c r="J243" t="s">
+        <v>103</v>
+      </c>
+      <c r="M243" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A244" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B244" t="s">
+        <v>191</v>
+      </c>
+      <c r="J244" t="s">
+        <v>104</v>
+      </c>
+      <c r="M244" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A245" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B245" t="s">
+        <v>191</v>
+      </c>
+      <c r="D245" t="s">
+        <v>27</v>
+      </c>
+      <c r="J245" t="s">
+        <v>105</v>
+      </c>
+      <c r="K245" t="s">
+        <v>138</v>
+      </c>
+      <c r="L245" t="s">
+        <v>157</v>
+      </c>
+      <c r="M245" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A246" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B246" t="s">
+        <v>191</v>
+      </c>
+      <c r="D246" t="s">
+        <v>27</v>
+      </c>
+      <c r="J246" t="s">
+        <v>94</v>
+      </c>
+      <c r="K246" t="s">
+        <v>139</v>
+      </c>
+      <c r="L246" t="s">
+        <v>157</v>
+      </c>
+      <c r="M246" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A247" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B247" t="s">
+        <v>191</v>
+      </c>
+      <c r="D247" t="s">
+        <v>27</v>
+      </c>
+      <c r="J247" t="s">
+        <v>106</v>
+      </c>
+      <c r="K247" t="s">
+        <v>140</v>
+      </c>
+      <c r="L247" t="s">
+        <v>158</v>
+      </c>
+      <c r="M247" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A248" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B248" t="s">
         <v>191</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D248" t="s">
         <v>27</v>
       </c>
-      <c r="F199" s="1" t="s">
+      <c r="F248" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J199" t="s">
+      <c r="J248" t="s">
         <v>107</v>
       </c>
-      <c r="K199" t="s">
+      <c r="K248" t="s">
         <v>141</v>
       </c>
-      <c r="L199" t="s">
+      <c r="L248" t="s">
         <v>159</v>
       </c>
-      <c r="M199" t="s">
+      <c r="M248" t="s">
         <v>125</v>
       </c>
     </row>

--- a/dictionary/Vocab.xlsx
+++ b/dictionary/Vocab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02 Trae\TibetanNote\dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6D2908-4A34-4996-92A1-4E7471BC861E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B9215C-A560-4BE5-8C32-8E5C1CA9E92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="5460" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="1180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="1388">
   <si>
     <t>word</t>
   </si>
@@ -516,9 +516,6 @@
     <t>./sounds/V01L01/V1L1-03.wav</t>
   </si>
   <si>
-    <t>ཁྱེད་རད་།</t>
-  </si>
-  <si>
     <t>ཁོང་།</t>
   </si>
   <si>
@@ -3565,6 +3562,633 @@
   </si>
   <si>
     <t>Expres.</t>
+  </si>
+  <si>
+    <t>ཁྱེད་རང་།</t>
+  </si>
+  <si>
+    <t>རྒྱལ་ཁབ།</t>
+  </si>
+  <si>
+    <t>ས་བཀྲ།</t>
+  </si>
+  <si>
+    <t>ལམ་ཁ།</t>
+  </si>
+  <si>
+    <t>སྐོར་ལམ།</t>
+  </si>
+  <si>
+    <t>དགོན་པ།</t>
+  </si>
+  <si>
+    <t>གངས་རི།</t>
+  </si>
+  <si>
+    <t>ཆུ།</t>
+  </si>
+  <si>
+    <t>ཤིང་།</t>
+  </si>
+  <si>
+    <t>འཁྲིས།</t>
+  </si>
+  <si>
+    <t>འཀྱིས།</t>
+  </si>
+  <si>
+    <t>སྒང་།</t>
+  </si>
+  <si>
+    <t>སྟེང་།</t>
+  </si>
+  <si>
+    <t>ནང་ལོགས།</t>
+  </si>
+  <si>
+    <t>ཕྱི།</t>
+  </si>
+  <si>
+    <t>ཕྱི་ལོགས།</t>
+  </si>
+  <si>
+    <t>མཐའ་འཁོར།</t>
+  </si>
+  <si>
+    <t>གཡས་གཡོན།</t>
+  </si>
+  <si>
+    <t>གཡས་གཡོན་འདི་པར།</t>
+  </si>
+  <si>
+    <t>ཤར།</t>
+  </si>
+  <si>
+    <t>ཤར་ཕྱོགས།</t>
+  </si>
+  <si>
+    <t>ལྷོ།</t>
+  </si>
+  <si>
+    <t>ལྷོ་ཕྱོགས།</t>
+  </si>
+  <si>
+    <t>ནུབ་</t>
+  </si>
+  <si>
+    <t>ནུབ་ཕྱོགས།</t>
+  </si>
+  <si>
+    <t>ཕ་གི།</t>
+  </si>
+  <si>
+    <t>འདི་པར།</t>
+  </si>
+  <si>
+    <t>རང་།</t>
+  </si>
+  <si>
+    <t>ཐུགས་རྗེ་ཆེ།</t>
+  </si>
+  <si>
+    <t>ཐུགས་རྗེ་གནང་།</t>
+  </si>
+  <si>
+    <t>V01-L07</t>
+  </si>
+  <si>
+    <t>ཞྭ་མོ།</t>
+  </si>
+  <si>
+    <t>སྟོད་ཐུང་།</t>
+  </si>
+  <si>
+    <t>Dem.Dist.</t>
+  </si>
+  <si>
+    <t>སྐོར་(turn)+ལམ་(road)</t>
+  </si>
+  <si>
+    <t>གངས་(snow)+རི་(mountain)</t>
+  </si>
+  <si>
+    <t>ཤིང་སྡོང་།</t>
+  </si>
+  <si>
+    <t>ཤིང་(tree)+སྡོང་(trunk)</t>
+  </si>
+  <si>
+    <t>སྟོད་(up)+ཐུང་(short)</t>
+  </si>
+  <si>
+    <t>ནང་(inside)+ལོགས་(side)</t>
+  </si>
+  <si>
+    <t>ཕྱི་(outside)+ལོགས་(side)</t>
+  </si>
+  <si>
+    <t>གཡས་(right)+གཡོན་(left)</t>
+  </si>
+  <si>
+    <t>གཡས་(right)+གཡོན་(left)+འདི་པར་(at there)</t>
+  </si>
+  <si>
+    <t>ལྷོ་(south)+ཕྱོགས་(direction)</t>
+  </si>
+  <si>
+    <t>ཤར་(east)+ཕྱོགས་(direction)</t>
+  </si>
+  <si>
+    <t>ནུབ་(west)+ཕྱོགས་(direction)</t>
+  </si>
+  <si>
+    <t>བྱང་།</t>
+  </si>
+  <si>
+    <t>བྱང་ཕྱོགས།</t>
+  </si>
+  <si>
+    <t>བྱང་(north)+ཕྱོགས་(direction)</t>
+  </si>
+  <si>
+    <t>pays</t>
+  </si>
+  <si>
+    <t>plan ; carte (géographique)</t>
+  </si>
+  <si>
+    <t>chemin ; route</t>
+  </si>
+  <si>
+    <t>monastère</t>
+  </si>
+  <si>
+    <t>montagne aux neiges</t>
+  </si>
+  <si>
+    <t>eau ; rivière ; fleuve</t>
+  </si>
+  <si>
+    <t>bois</t>
+  </si>
+  <si>
+    <t>arbre</t>
+  </si>
+  <si>
+    <t>chapeau</t>
+  </si>
+  <si>
+    <t>veste ; chemise</t>
+  </si>
+  <si>
+    <t>proximité ; côté</t>
+  </si>
+  <si>
+    <t>centre ; milieu</t>
+  </si>
+  <si>
+    <t>sur ; dessus</t>
+  </si>
+  <si>
+    <t>sur ; dessus (L.)</t>
+  </si>
+  <si>
+    <t>extérieur</t>
+  </si>
+  <si>
+    <t>pourtout ; bords</t>
+  </si>
+  <si>
+    <t>environs ; alentours</t>
+  </si>
+  <si>
+    <t>est</t>
+  </si>
+  <si>
+    <t>sud</t>
+  </si>
+  <si>
+    <t>ouest</t>
+  </si>
+  <si>
+    <t>nord</t>
+  </si>
+  <si>
+    <t>cela ; cela là-bas</t>
+  </si>
+  <si>
+    <t>dans les environs ; dans le coin</t>
+  </si>
+  <si>
+    <t>toi ; tu</t>
+  </si>
+  <si>
+    <t>merci</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>road</t>
+  </si>
+  <si>
+    <t>chemin de cirumambulation</t>
+  </si>
+  <si>
+    <t>circumambulation road</t>
+  </si>
+  <si>
+    <t>monastery</t>
+  </si>
+  <si>
+    <t>snow mountain</t>
+  </si>
+  <si>
+    <t>water; river</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>hat</t>
+  </si>
+  <si>
+    <t>jacket; shirt</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>center</t>
+  </si>
+  <si>
+    <t>onside</t>
+  </si>
+  <si>
+    <t>outside</t>
+  </si>
+  <si>
+    <t>around</t>
+  </si>
+  <si>
+    <t>about; around</t>
+  </si>
+  <si>
+    <t>east</t>
+  </si>
+  <si>
+    <t>south</t>
+  </si>
+  <si>
+    <t>west</t>
+  </si>
+  <si>
+    <t>north</t>
+  </si>
+  <si>
+    <t>at there</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>thank you</t>
+  </si>
+  <si>
+    <t>国家</t>
+  </si>
+  <si>
+    <t>地图</t>
+  </si>
+  <si>
+    <t>路</t>
+  </si>
+  <si>
+    <t>僧院</t>
+  </si>
+  <si>
+    <t>雪山</t>
+  </si>
+  <si>
+    <t>水、河</t>
+  </si>
+  <si>
+    <t>木头</t>
+  </si>
+  <si>
+    <t>树</t>
+  </si>
+  <si>
+    <t>帽子</t>
+  </si>
+  <si>
+    <t>旁边</t>
+  </si>
+  <si>
+    <t>外套、衬衫</t>
+  </si>
+  <si>
+    <t>中心</t>
+  </si>
+  <si>
+    <t>外面</t>
+  </si>
+  <si>
+    <t>周围</t>
+  </si>
+  <si>
+    <t>上</t>
+  </si>
+  <si>
+    <t>里</t>
+  </si>
+  <si>
+    <t>外</t>
+  </si>
+  <si>
+    <t>大约</t>
+  </si>
+  <si>
+    <t>东</t>
+  </si>
+  <si>
+    <t>东边</t>
+  </si>
+  <si>
+    <t>南</t>
+  </si>
+  <si>
+    <t>南边</t>
+  </si>
+  <si>
+    <t>西</t>
+  </si>
+  <si>
+    <t>西边</t>
+  </si>
+  <si>
+    <t>北</t>
+  </si>
+  <si>
+    <t>北边</t>
+  </si>
+  <si>
+    <t>那个</t>
+  </si>
+  <si>
+    <t>那里</t>
+  </si>
+  <si>
+    <t>谢谢</t>
+  </si>
+  <si>
+    <t>国</t>
+  </si>
+  <si>
+    <t>木</t>
+  </si>
+  <si>
+    <t>地図</t>
+  </si>
+  <si>
+    <t>道</t>
+  </si>
+  <si>
+    <t>右繞の道</t>
+  </si>
+  <si>
+    <t>水、川</t>
+  </si>
+  <si>
+    <t>樹</t>
+  </si>
+  <si>
+    <t>コート、シャツ</t>
+  </si>
+  <si>
+    <t>隣</t>
+  </si>
+  <si>
+    <t>真ん中</t>
+  </si>
+  <si>
+    <t>内側</t>
+  </si>
+  <si>
+    <t>外側</t>
+  </si>
+  <si>
+    <t>周り</t>
+  </si>
+  <si>
+    <t>凡そ、大体</t>
+  </si>
+  <si>
+    <t>東</t>
+  </si>
+  <si>
+    <t>東側</t>
+  </si>
+  <si>
+    <t>南側</t>
+  </si>
+  <si>
+    <t>西側</t>
+  </si>
+  <si>
+    <t>北側</t>
+  </si>
+  <si>
+    <t>あの、あれ</t>
+  </si>
+  <si>
+    <t>そこで</t>
+  </si>
+  <si>
+    <t>君</t>
+  </si>
+  <si>
+    <t>ありがとう</t>
+  </si>
+  <si>
+    <t>པོ་ཏ་ལ།</t>
+  </si>
+  <si>
+    <t>རྩེ་ཕོ་བྲང་།</t>
+  </si>
+  <si>
+    <t>རྩེ་པོ་ཏ་ལ།</t>
+  </si>
+  <si>
+    <t>ནོར་བུ་གླིང་ཁ།</t>
+  </si>
+  <si>
+    <t>གཙུག་ལག་ཁང་།</t>
+  </si>
+  <si>
+    <t>ཇོ་ཁང་།</t>
+  </si>
+  <si>
+    <t>ར་མོ་ཆེ།</t>
+  </si>
+  <si>
+    <t>སེ་ར།</t>
+  </si>
+  <si>
+    <t>གླིང་སྐོར།</t>
+  </si>
+  <si>
+    <t>ཨ་མདོ།</t>
+  </si>
+  <si>
+    <t>དབུས་གཙང་།</t>
+  </si>
+  <si>
+    <t>རྒྱ་ནག།</t>
+  </si>
+  <si>
+    <t>འབྲུག་ཡུལ།</t>
+  </si>
+  <si>
+    <t>བལ་ཡུལ།</t>
+  </si>
+  <si>
+    <t>སོག་ཡུལ།</t>
+  </si>
+  <si>
+    <t>སོག་པོ།</t>
+  </si>
+  <si>
+    <t>布达拉宫</t>
+  </si>
+  <si>
+    <t>罗布林卡</t>
+  </si>
+  <si>
+    <t>Norbulingka</t>
+  </si>
+  <si>
+    <t>Tsuglakhang Palace</t>
+  </si>
+  <si>
+    <t>大昭寺</t>
+  </si>
+  <si>
+    <t>トゥルナン寺</t>
+  </si>
+  <si>
+    <t>小昭寺</t>
+  </si>
+  <si>
+    <t>Ramoche Temple</t>
+  </si>
+  <si>
+    <t>Jokhang Temple</t>
+  </si>
+  <si>
+    <t>ラモチェ寺</t>
+  </si>
+  <si>
+    <t>沙拉寺</t>
+  </si>
+  <si>
+    <t>外廓</t>
+  </si>
+  <si>
+    <t>Lingkhor</t>
+  </si>
+  <si>
+    <t>安多</t>
+  </si>
+  <si>
+    <t>卫藏</t>
+  </si>
+  <si>
+    <t>中国</t>
+  </si>
+  <si>
+    <t>不丹</t>
+  </si>
+  <si>
+    <t>尼泊尔</t>
+  </si>
+  <si>
+    <t>蒙古</t>
+  </si>
+  <si>
+    <t>Palais du Potala</t>
+  </si>
+  <si>
+    <t>Palais du Tsuglakhan</t>
+  </si>
+  <si>
+    <t>Temple du Jokhang</t>
+  </si>
+  <si>
+    <t>Temple du Ramiche</t>
+  </si>
+  <si>
+    <t>Temple du Sara</t>
+  </si>
+  <si>
+    <t>Amdo</t>
+  </si>
+  <si>
+    <t>Ü-Tsang</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Chine</t>
+  </si>
+  <si>
+    <t>Bhoutan</t>
+  </si>
+  <si>
+    <t>Népal</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Sara Temple</t>
+  </si>
+  <si>
+    <t>Potala Palace</t>
+  </si>
+  <si>
+    <t>ポタラ宮</t>
+  </si>
+  <si>
+    <t>ノルブリンカ</t>
+  </si>
+  <si>
+    <t>サラ寺</t>
+  </si>
+  <si>
+    <t>アムド</t>
+  </si>
+  <si>
+    <t>ウー・ツァン</t>
+  </si>
+  <si>
+    <t>ブタン</t>
+  </si>
+  <si>
+    <t>ネパール</t>
+  </si>
+  <si>
+    <t>モンゴル</t>
   </si>
 </sst>
 </file>
@@ -3894,10 +4518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R248"/>
+  <dimension ref="A1:R299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D224" sqref="D224"/>
+    <sheetView tabSelected="1" topLeftCell="A263" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H272" sqref="H272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.55000000000000004"/>
@@ -4007,7 +4631,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
-        <v>163</v>
+        <v>1179</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -4019,36 +4643,36 @@
         <v>28</v>
       </c>
       <c r="J3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K3" t="s">
         <v>170</v>
       </c>
-      <c r="K3" t="s">
-        <v>171</v>
-      </c>
       <c r="L3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M3" t="s">
+        <v>177</v>
+      </c>
+      <c r="N3" t="s">
         <v>179</v>
       </c>
-      <c r="M3" t="s">
-        <v>178</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
+        <v>183</v>
+      </c>
+      <c r="P3" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>181</v>
+      </c>
+      <c r="R3" t="s">
         <v>180</v>
-      </c>
-      <c r="O3" t="s">
-        <v>184</v>
-      </c>
-      <c r="P3" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>182</v>
-      </c>
-      <c r="R3" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -4060,1372 +4684,1372 @@
         <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D5" t="s">
         <v>28</v>
       </c>
       <c r="J5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" t="s">
         <v>168</v>
       </c>
-      <c r="D6" t="s">
-        <v>169</v>
-      </c>
       <c r="J6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D7" t="s">
         <v>40</v>
       </c>
       <c r="J7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D10" t="s">
         <v>40</v>
       </c>
       <c r="J10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D11" t="s">
         <v>40</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D12" t="s">
         <v>40</v>
       </c>
       <c r="J12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D13" t="s">
         <v>40</v>
       </c>
       <c r="J13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D14" t="s">
         <v>40</v>
       </c>
       <c r="J14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D15" t="s">
         <v>40</v>
       </c>
       <c r="J15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
       <c r="C18" t="s">
+        <v>234</v>
+      </c>
+      <c r="D18" t="s">
         <v>235</v>
       </c>
-      <c r="D18" t="s">
-        <v>236</v>
-      </c>
       <c r="J18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M21" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M22" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D23" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M23" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B24" t="s">
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B25" t="s">
         <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D25" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J25" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L25" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M25" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B26" t="s">
         <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K26" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B27" t="s">
         <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B28" t="s">
         <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D28" t="s">
         <v>27</v>
       </c>
       <c r="J28" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L28" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B29" t="s">
         <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M29" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B30" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D30" t="s">
         <v>40</v>
       </c>
       <c r="J30" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L30" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M30" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B31" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D31" t="s">
         <v>40</v>
       </c>
       <c r="J31" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M31" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B32" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D32" t="s">
         <v>40</v>
       </c>
       <c r="J32" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K32" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L32" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M32" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B33" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D33" t="s">
         <v>40</v>
       </c>
       <c r="J33" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K33" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L33" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="M33" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B34" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D34" t="s">
         <v>40</v>
       </c>
       <c r="J34" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K34" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L34" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="M34" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B35" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D35" t="s">
         <v>40</v>
       </c>
       <c r="J35" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K35" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L35" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M35" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B36" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D36" t="s">
         <v>40</v>
       </c>
       <c r="J36" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M36" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B37" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J37" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K37" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L37" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M37" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B38" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J38" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K38" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L38" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M38" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B39" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D39" t="s">
         <v>90</v>
       </c>
       <c r="J39" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K39" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L39" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M39" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B40" t="s">
+        <v>340</v>
+      </c>
+      <c r="D40" t="s">
         <v>341</v>
       </c>
-      <c r="D40" t="s">
-        <v>342</v>
-      </c>
       <c r="J40" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K40" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L40" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M40" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B41" t="s">
+        <v>340</v>
+      </c>
+      <c r="D41" t="s">
         <v>341</v>
       </c>
-      <c r="D41" t="s">
-        <v>342</v>
-      </c>
       <c r="J41" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K41" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L41" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="M41" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B42" t="s">
+        <v>340</v>
+      </c>
+      <c r="D42" t="s">
         <v>341</v>
       </c>
-      <c r="D42" t="s">
-        <v>342</v>
-      </c>
       <c r="J42" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K42" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L42" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M42" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B43" t="s">
+        <v>340</v>
+      </c>
+      <c r="D43" t="s">
         <v>341</v>
       </c>
-      <c r="D43" t="s">
-        <v>342</v>
-      </c>
       <c r="J43" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K43" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L43" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M43" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B44" t="s">
         <v>340</v>
       </c>
-      <c r="B44" t="s">
+      <c r="D44" t="s">
         <v>341</v>
       </c>
-      <c r="D44" t="s">
-        <v>342</v>
-      </c>
       <c r="J44" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K44" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L44" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M44" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B45" t="s">
+        <v>340</v>
+      </c>
+      <c r="D45" t="s">
         <v>341</v>
       </c>
-      <c r="D45" t="s">
-        <v>342</v>
-      </c>
       <c r="J45" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K45" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L45" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M45" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B46" t="s">
+        <v>340</v>
+      </c>
+      <c r="D46" t="s">
         <v>341</v>
       </c>
-      <c r="D46" t="s">
-        <v>342</v>
-      </c>
       <c r="J46" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K46" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L46" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M46" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B47" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D47" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J47" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K47" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L47" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M47" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B48" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D48" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J48" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K48" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L48" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M48" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B49" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D49" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J49" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K49" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L49" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M49" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B50" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D50" t="s">
         <v>40</v>
       </c>
       <c r="J50" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K50" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L50" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M50" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B51" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D51" t="s">
         <v>40</v>
       </c>
       <c r="J51" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K51" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L51" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M51" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B52" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D52" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J52" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K52" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L52" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="M52" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B53" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D53" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J53" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K53" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L53" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M53" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D54" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J54" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K54" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="L54" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M54" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B55" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D55" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J55" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K55" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L55" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M55" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B56" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D56" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J56" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K56" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L56" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M56" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B57" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D57" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J57" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K57" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L57" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M57" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B58" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D58" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J58" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K58" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L58" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M58" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B59" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D59" t="s">
         <v>90</v>
       </c>
       <c r="J59" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K59" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L59" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="M59" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B60" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D60" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="J60" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K60" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L60" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="M60" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B61" t="s">
         <v>26</v>
@@ -5434,21 +6058,21 @@
         <v>40</v>
       </c>
       <c r="J61" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K61" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L61" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M61" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B62" t="s">
         <v>26</v>
@@ -5457,24 +6081,24 @@
         <v>40</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J62" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K62" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L62" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="M62" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B63" t="s">
         <v>26</v>
@@ -5483,24 +6107,24 @@
         <v>40</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J63" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K63" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L63" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="M63" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B64" t="s">
         <v>26</v>
@@ -5509,24 +6133,24 @@
         <v>40</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J64" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K64" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="L64" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M64" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B65" t="s">
         <v>26</v>
@@ -5535,44 +6159,44 @@
         <v>40</v>
       </c>
       <c r="J65" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K65" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L65" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M65" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B66" t="s">
         <v>26</v>
       </c>
       <c r="D66" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J66" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K66" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L66" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M66" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B67" t="s">
         <v>26</v>
@@ -5581,44 +6205,44 @@
         <v>40</v>
       </c>
       <c r="J67" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="K67" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L67" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M67" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B68" t="s">
         <v>26</v>
       </c>
       <c r="D68" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J68" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="K68" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L68" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M68" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B69" t="s">
         <v>26</v>
@@ -5627,44 +6251,44 @@
         <v>40</v>
       </c>
       <c r="J69" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K69" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L69" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="M69" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B70" t="s">
         <v>26</v>
       </c>
       <c r="D70" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J70" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K70" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L70" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="M70" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B71" t="s">
         <v>26</v>
@@ -5673,44 +6297,44 @@
         <v>40</v>
       </c>
       <c r="J71" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K71" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="L71" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M71" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B72" t="s">
         <v>26</v>
       </c>
       <c r="D72" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J72" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K72" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="L72" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M72" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B73" t="s">
         <v>26</v>
@@ -5719,21 +6343,21 @@
         <v>40</v>
       </c>
       <c r="J73" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K73" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L73" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="M73" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B74" t="s">
         <v>26</v>
@@ -5742,44 +6366,44 @@
         <v>40</v>
       </c>
       <c r="J74" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K74" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L74" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="M74" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B75" t="s">
         <v>26</v>
       </c>
       <c r="D75" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J75" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K75" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L75" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="M75" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B76" t="s">
         <v>26</v>
@@ -5788,44 +6412,44 @@
         <v>40</v>
       </c>
       <c r="J76" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K76" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L76" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="M76" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B77" t="s">
         <v>26</v>
       </c>
       <c r="D77" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J77" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K77" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L77" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="M77" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B78" t="s">
         <v>26</v>
@@ -5834,44 +6458,44 @@
         <v>40</v>
       </c>
       <c r="J78" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K78" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L78" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="M78" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B79" t="s">
         <v>26</v>
       </c>
       <c r="D79" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J79" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K79" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L79" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="M79" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B80" t="s">
         <v>26</v>
@@ -5880,21 +6504,21 @@
         <v>40</v>
       </c>
       <c r="J80" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K80" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L80" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M80" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B81" t="s">
         <v>26</v>
@@ -5903,44 +6527,44 @@
         <v>40</v>
       </c>
       <c r="J81" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K81" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L81" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M81" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B82" t="s">
         <v>26</v>
       </c>
       <c r="D82" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J82" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K82" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L82" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M82" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B83" t="s">
         <v>26</v>
@@ -5949,44 +6573,44 @@
         <v>40</v>
       </c>
       <c r="J83" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K83" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L83" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="M83" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B84" t="s">
         <v>26</v>
       </c>
       <c r="D84" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J84" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K84" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L84" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="M84" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B85" t="s">
         <v>26</v>
@@ -5995,44 +6619,44 @@
         <v>40</v>
       </c>
       <c r="J85" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K85" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L85" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M85" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B86" t="s">
         <v>26</v>
       </c>
       <c r="D86" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J86" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K86" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L86" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M86" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B87" t="s">
         <v>26</v>
@@ -6041,21 +6665,21 @@
         <v>40</v>
       </c>
       <c r="J87" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K87" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L87" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="M87" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B88" t="s">
         <v>26</v>
@@ -6064,21 +6688,21 @@
         <v>40</v>
       </c>
       <c r="J88" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="K88" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L88" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="M88" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B89" t="s">
         <v>26</v>
@@ -6087,21 +6711,21 @@
         <v>40</v>
       </c>
       <c r="J89" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="K89" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="L89" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M89" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B90" t="s">
         <v>26</v>
@@ -6110,21 +6734,21 @@
         <v>40</v>
       </c>
       <c r="J90" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="K90" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="L90" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="M90" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B91" t="s">
         <v>26</v>
@@ -6133,21 +6757,21 @@
         <v>40</v>
       </c>
       <c r="J91" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K91" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="L91" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="M91" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B92" t="s">
         <v>26</v>
@@ -6156,44 +6780,44 @@
         <v>40</v>
       </c>
       <c r="J92" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K92" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="L92" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="M92" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B93" t="s">
         <v>26</v>
       </c>
       <c r="D93" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J93" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K93" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="L93" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="M93" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B94" t="s">
         <v>26</v>
@@ -6202,21 +6826,21 @@
         <v>40</v>
       </c>
       <c r="J94" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K94" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="L94" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M94" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B95" t="s">
         <v>26</v>
@@ -6225,21 +6849,21 @@
         <v>40</v>
       </c>
       <c r="J95" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K95" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L95" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="M95" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B96" t="s">
         <v>26</v>
@@ -6248,21 +6872,21 @@
         <v>40</v>
       </c>
       <c r="J96" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K96" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L96" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="M96" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B97" t="s">
         <v>26</v>
@@ -6271,21 +6895,21 @@
         <v>40</v>
       </c>
       <c r="J97" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="K97" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="L97" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M97" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B98" t="s">
         <v>26</v>
@@ -6294,21 +6918,21 @@
         <v>40</v>
       </c>
       <c r="J98" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K98" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="L98" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="M98" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B99" t="s">
         <v>26</v>
@@ -6317,21 +6941,21 @@
         <v>40</v>
       </c>
       <c r="J99" t="s">
+        <v>642</v>
+      </c>
+      <c r="K99" t="s">
         <v>643</v>
       </c>
-      <c r="K99" t="s">
-        <v>644</v>
-      </c>
       <c r="L99" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M99" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B100" t="s">
         <v>26</v>
@@ -6340,21 +6964,21 @@
         <v>40</v>
       </c>
       <c r="J100" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="K100" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="L100" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="M100" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B101" t="s">
         <v>26</v>
@@ -6363,21 +6987,21 @@
         <v>40</v>
       </c>
       <c r="J101" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K101" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="L101" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="M101" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B102" t="s">
         <v>26</v>
@@ -6386,24 +7010,24 @@
         <v>40</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J102" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K102" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="L102" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="M102" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B103" t="s">
         <v>26</v>
@@ -6412,21 +7036,21 @@
         <v>90</v>
       </c>
       <c r="J103" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K103" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L103" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M103" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B104" t="s">
         <v>26</v>
@@ -6435,21 +7059,21 @@
         <v>90</v>
       </c>
       <c r="J104" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K104" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L104" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M104" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B105" t="s">
         <v>26</v>
@@ -6458,21 +7082,21 @@
         <v>90</v>
       </c>
       <c r="J105" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K105" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L105" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="M105" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B106" t="s">
         <v>26</v>
@@ -6481,21 +7105,21 @@
         <v>90</v>
       </c>
       <c r="J106" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K106" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L106" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="M106" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B107" t="s">
         <v>26</v>
@@ -6504,16 +7128,16 @@
         <v>90</v>
       </c>
       <c r="J107" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K107" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L107" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="M107" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -6521,7 +7145,7 @@
         <v>25</v>
       </c>
       <c r="B108" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D108" t="s">
         <v>27</v>
@@ -6568,859 +7192,859 @@
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B109" t="s">
+        <v>670</v>
+      </c>
+      <c r="D109" t="s">
+        <v>40</v>
+      </c>
+      <c r="J109" t="s">
+        <v>690</v>
+      </c>
+      <c r="K109" t="s">
+        <v>690</v>
+      </c>
+      <c r="L109" t="s">
+        <v>711</v>
+      </c>
+      <c r="M109" t="s">
         <v>671</v>
-      </c>
-      <c r="D109" t="s">
-        <v>40</v>
-      </c>
-      <c r="J109" t="s">
-        <v>691</v>
-      </c>
-      <c r="K109" t="s">
-        <v>691</v>
-      </c>
-      <c r="L109" t="s">
-        <v>712</v>
-      </c>
-      <c r="M109" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B110" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D110" t="s">
         <v>40</v>
       </c>
       <c r="J110" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K110" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="L110" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M110" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B111" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D111" t="s">
         <v>40</v>
       </c>
       <c r="J111" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="K111" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="L111" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="M111" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B112" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D112" t="s">
         <v>40</v>
       </c>
       <c r="J112" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="K112" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="L112" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="M112" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B113" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D113" t="s">
         <v>40</v>
       </c>
       <c r="J113" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="K113" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="L113" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="M113" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B114" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D114" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J114" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="K114" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="L114" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="M114" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B115" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D115" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J115" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="K115" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="L115" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="M115" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B116" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D116" t="s">
         <v>40</v>
       </c>
       <c r="J116" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="K116" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="L116" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="M116" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B117" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D117" t="s">
         <v>40</v>
       </c>
       <c r="J117" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="K117" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="L117" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M117" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B118" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D118" t="s">
         <v>40</v>
       </c>
       <c r="J118" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="K118" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="L118" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="M118" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B119" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D119" t="s">
         <v>40</v>
       </c>
       <c r="J119" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="K119" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="L119" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="M119" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B120" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D120" t="s">
         <v>40</v>
       </c>
       <c r="J120" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="K120" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="L120" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="M120" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B121" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D121" t="s">
         <v>40</v>
       </c>
       <c r="J121" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="K121" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="L121" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="M121" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B122" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D122" t="s">
         <v>40</v>
       </c>
       <c r="J122" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="K122" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="L122" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="M122" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B123" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D123" t="s">
         <v>40</v>
       </c>
       <c r="J123" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="K123" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="L123" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="M123" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B124" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D124" t="s">
         <v>40</v>
       </c>
       <c r="J124" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K124" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="L124" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="M124" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B125" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D125" t="s">
         <v>40</v>
       </c>
       <c r="J125" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K125" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="L125" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="M125" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B126" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D126" t="s">
         <v>40</v>
       </c>
       <c r="J126" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="K126" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="L126" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="M126" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B127" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D127" t="s">
         <v>40</v>
       </c>
       <c r="J127" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K127" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="L127" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="M127" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B128" t="s">
         <v>670</v>
       </c>
-      <c r="B128" t="s">
-        <v>671</v>
-      </c>
       <c r="D128" t="s">
         <v>40</v>
       </c>
       <c r="J128" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K128" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L128" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="M128" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B129" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D129" t="s">
         <v>40</v>
       </c>
       <c r="J129" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="K129" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="L129" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="M129" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B130" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D130" t="s">
         <v>40</v>
       </c>
       <c r="J130" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="K130" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="L130" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="M130" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B131" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D131" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J131" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="K131" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="L131" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="M131" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B132" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D132" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J132" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="K132" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="L132" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="M132" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B133" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D133" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J133" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="K133" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L133" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="M133" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B134" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D134" t="s">
         <v>90</v>
       </c>
       <c r="J134" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="K134" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="L134" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="M134" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B135" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D135" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J135" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K135" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="L135" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="M135" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B136" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D136" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="J136" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="K136" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="L136" t="s">
+        <v>790</v>
+      </c>
+      <c r="M136" t="s">
         <v>791</v>
-      </c>
-      <c r="M136" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B137" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D137" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J137" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="K137" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="L137" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="M137" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B138" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D138" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="J138" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K138" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="L138" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="M138" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B139" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D139" t="s">
         <v>27</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J139" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="K139" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="L139" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="M139" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B140" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D140" t="s">
         <v>27</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J140" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K140" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="L140" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="M140" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B141" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D141" t="s">
         <v>27</v>
       </c>
       <c r="J141" t="s">
+        <v>781</v>
+      </c>
+      <c r="K141" t="s">
+        <v>802</v>
+      </c>
+      <c r="L141" t="s">
         <v>782</v>
       </c>
-      <c r="K141" t="s">
-        <v>803</v>
-      </c>
-      <c r="L141" t="s">
-        <v>783</v>
-      </c>
       <c r="M141" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B142" t="s">
+        <v>819</v>
+      </c>
+      <c r="D142" t="s">
+        <v>40</v>
+      </c>
+      <c r="J142" t="s">
+        <v>839</v>
+      </c>
+      <c r="K142" t="s">
+        <v>839</v>
+      </c>
+      <c r="L142" t="s">
+        <v>857</v>
+      </c>
+      <c r="M142" t="s">
         <v>820</v>
-      </c>
-      <c r="D142" t="s">
-        <v>40</v>
-      </c>
-      <c r="J142" t="s">
-        <v>840</v>
-      </c>
-      <c r="K142" t="s">
-        <v>840</v>
-      </c>
-      <c r="L142" t="s">
-        <v>858</v>
-      </c>
-      <c r="M142" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B143" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D143" t="s">
         <v>40</v>
       </c>
       <c r="J143" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="K143" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="L143" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="M143" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B144" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D144" t="s">
         <v>40</v>
       </c>
       <c r="J144" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="K144" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="L144" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="M144" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B145" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D145" t="s">
         <v>40</v>
       </c>
       <c r="J145" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="K145" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="L145" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="M145" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -7428,2392 +8052,3589 @@
         <v>83</v>
       </c>
       <c r="B146" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D146" t="s">
         <v>40</v>
       </c>
       <c r="J146" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="K146" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="L146" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="M146" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B147" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D147" t="s">
         <v>40</v>
       </c>
       <c r="J147" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="K147" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="L147" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="M147" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B148" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D148" t="s">
         <v>40</v>
       </c>
       <c r="J148" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="K148" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="L148" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="M148" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B149" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D149" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J149" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="K149" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="L149" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="M149" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B150" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D150" t="s">
         <v>40</v>
       </c>
       <c r="J150" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K150" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="L150" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="M150" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B151" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D151" t="s">
         <v>40</v>
       </c>
       <c r="J151" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="K151" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="L151" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="M151" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B152" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D152" t="s">
         <v>40</v>
       </c>
       <c r="J152" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="K152" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="L152" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="M152" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B153" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D153" t="s">
         <v>40</v>
       </c>
       <c r="J153" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="K153" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="L153" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="M153" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B154" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D154" t="s">
         <v>40</v>
       </c>
       <c r="J154" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="K154" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="L154" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="M154" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B155" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D155" t="s">
         <v>40</v>
       </c>
       <c r="J155" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="K155" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="L155" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="M155" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B156" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D156" t="s">
         <v>40</v>
       </c>
       <c r="J156" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="K156" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="L156" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="M156" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B157" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D157" t="s">
         <v>40</v>
       </c>
       <c r="J157" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K157" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="L157" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="M157" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B158" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D158" t="s">
         <v>90</v>
       </c>
       <c r="J158" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K158" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="L158" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="M158" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="B159" t="s">
         <v>819</v>
-      </c>
-      <c r="B159" t="s">
-        <v>820</v>
       </c>
       <c r="D159" t="s">
         <v>90</v>
       </c>
       <c r="J159" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="K159" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="L159" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="M159" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B160" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D160" t="s">
         <v>90</v>
       </c>
       <c r="J160" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="K160" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="L160" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="M160" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B161" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D161" t="s">
         <v>91</v>
       </c>
       <c r="J161" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="K161" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="L161" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="M161" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B162" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D162" t="s">
         <v>91</v>
       </c>
       <c r="J162" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="K162" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="L162" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="M162" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B163" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D163" t="s">
         <v>91</v>
       </c>
       <c r="J163" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="K163" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="L163" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="M163" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B164" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D164" t="s">
         <v>91</v>
       </c>
       <c r="J164" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="K164" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="L164" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="M164" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B165" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D165" t="s">
         <v>91</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="J165" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="K165" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="L165" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="M165" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B166" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D166" t="s">
         <v>91</v>
       </c>
       <c r="J166" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="K166" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="L166" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="M166" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B167" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D167" t="s">
         <v>91</v>
       </c>
       <c r="J167" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K167" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="L167" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="M167" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B168" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D168" t="s">
         <v>91</v>
       </c>
       <c r="J168" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="K168" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="L168" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="M168" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B169" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D169" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J169" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="K169" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="L169" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="M169" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B170" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D170" t="s">
         <v>27</v>
       </c>
       <c r="J170" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="K170" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="L170" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="M170" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B171" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D171" t="s">
         <v>27</v>
       </c>
       <c r="J171" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="K171" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="L171" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="M171" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B172" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D172" t="s">
         <v>27</v>
       </c>
       <c r="J172" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="K172" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="L172" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="M172" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B173" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D173" t="s">
         <v>27</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="J173" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="K173" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="L173" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="M173" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B174" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D174" t="s">
         <v>27</v>
       </c>
       <c r="J174" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="K174" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="L174" t="s">
+        <v>936</v>
+      </c>
+      <c r="M174" t="s">
         <v>937</v>
-      </c>
-      <c r="M174" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B175" t="s">
+        <v>972</v>
+      </c>
+      <c r="D175" t="s">
+        <v>40</v>
+      </c>
+      <c r="J175" t="s">
+        <v>995</v>
+      </c>
+      <c r="K175" t="s">
+        <v>1031</v>
+      </c>
+      <c r="L175" t="s">
         <v>973</v>
       </c>
-      <c r="D175" t="s">
-        <v>40</v>
-      </c>
-      <c r="J175" t="s">
-        <v>996</v>
-      </c>
-      <c r="K175" t="s">
-        <v>1032</v>
-      </c>
-      <c r="L175" t="s">
-        <v>974</v>
-      </c>
       <c r="M175" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B176" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D176" t="s">
         <v>40</v>
       </c>
       <c r="J176" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="K176" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="L176" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="M176" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="B177" t="s">
+        <v>972</v>
+      </c>
+      <c r="D177" t="s">
+        <v>40</v>
+      </c>
+      <c r="J177" t="s">
+        <v>997</v>
+      </c>
+      <c r="K177" t="s">
+        <v>1033</v>
+      </c>
+      <c r="L177" t="s">
+        <v>1016</v>
+      </c>
+      <c r="M177" t="s">
         <v>976</v>
-      </c>
-      <c r="B177" t="s">
-        <v>973</v>
-      </c>
-      <c r="D177" t="s">
-        <v>40</v>
-      </c>
-      <c r="J177" t="s">
-        <v>998</v>
-      </c>
-      <c r="K177" t="s">
-        <v>1034</v>
-      </c>
-      <c r="L177" t="s">
-        <v>1017</v>
-      </c>
-      <c r="M177" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B178" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D178" t="s">
         <v>40</v>
       </c>
       <c r="J178" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="K178" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="L178" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="M178" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B179" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D179" t="s">
         <v>40</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J179" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="K179" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="L179" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="M179" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B180" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D180" t="s">
         <v>40</v>
       </c>
       <c r="J180" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="K180" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="L180" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="M180" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B181" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D181" t="s">
         <v>40</v>
       </c>
       <c r="J181" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="K181" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="L181" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="M181" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B182" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D182" t="s">
         <v>40</v>
       </c>
       <c r="J182" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="K182" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="L182" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="M182" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B183" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D183" t="s">
         <v>40</v>
       </c>
       <c r="J183" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="K183" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="L183" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="M183" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B184" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D184" t="s">
         <v>40</v>
       </c>
       <c r="J184" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="K184" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="L184" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="M184" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B185" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D185" t="s">
         <v>40</v>
       </c>
       <c r="J185" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="K185" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="L185" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="M185" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B186" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D186" t="s">
         <v>40</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="J186" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="K186" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="L186" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="M186" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B187" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="J187" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="K187" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="L187" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="M187" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B188" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D188" t="s">
         <v>40</v>
       </c>
       <c r="E188"/>
       <c r="J188" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="K188" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="L188" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="M188" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B189" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D189" t="s">
         <v>40</v>
       </c>
       <c r="E189"/>
       <c r="J189" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="K189" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="L189" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="M189" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B190" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D190" t="s">
         <v>90</v>
       </c>
       <c r="E190"/>
       <c r="J190" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="K190" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="L190" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="M190" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B191" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D191" t="s">
         <v>90</v>
       </c>
       <c r="E191"/>
       <c r="J191" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="K191" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="L191" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="M191" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B192" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D192" t="s">
         <v>90</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="J192" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="K192" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="L192" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="M192" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B193" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D193" t="s">
         <v>90</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="J193" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="K193" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L193" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="M193" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B194" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D194" t="s">
         <v>90</v>
       </c>
       <c r="J194" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="K194" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="L194" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="M194" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B195" t="s">
         <v>972</v>
-      </c>
-      <c r="B195" t="s">
-        <v>973</v>
       </c>
       <c r="D195" t="s">
         <v>90</v>
       </c>
       <c r="J195" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="K195" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="L195" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="M195" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B196" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D196" t="s">
         <v>90</v>
       </c>
       <c r="J196" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="K196" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="L196" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="M196" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B197" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D197" t="s">
         <v>90</v>
       </c>
       <c r="J197" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="K197" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="L197" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="M197" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B198" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D198" t="s">
         <v>90</v>
       </c>
       <c r="J198" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="K198" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="L198" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="M198" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B199" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D199" t="s">
         <v>90</v>
       </c>
       <c r="J199" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="K199" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="L199" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="M199" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B200" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D200" t="s">
         <v>90</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="J200" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="K200" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="L200" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="M200" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B201" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D201" t="s">
         <v>90</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="J201" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="K201" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="L201" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="M201" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B202" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D202" t="s">
         <v>90</v>
       </c>
       <c r="J202" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="K202" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="L202" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="M202" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B203" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D203" t="s">
         <v>90</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="J203" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="K203" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="L203" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="M203" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B204" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D204" t="s">
         <v>90</v>
       </c>
       <c r="J204" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="K204" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="L204" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="M204" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B205" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D205" t="s">
         <v>90</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="J205" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="K205" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="L205" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="M205" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B206" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D206" t="s">
         <v>90</v>
       </c>
       <c r="J206" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="K206" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="L206" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="M206" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B207" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D207" t="s">
         <v>90</v>
       </c>
       <c r="J207" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="K207" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L207" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="M207" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B208" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D208" t="s">
         <v>90</v>
       </c>
       <c r="J208" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="K208" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="L208" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="M208" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B209" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D209" t="s">
         <v>90</v>
       </c>
       <c r="J209" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="K209" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="L209" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="M209" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B210" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D210" t="s">
         <v>90</v>
       </c>
       <c r="J210" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="K210" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L210" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M210" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B211" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D211" t="s">
         <v>90</v>
       </c>
       <c r="J211" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="K211" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="L211" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="M211" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B212" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D212" t="s">
         <v>90</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="J212" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="K212" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="L212" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="M212" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B213" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D213" t="s">
         <v>90</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="J213" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="K213" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="L213" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="M213" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B214" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D214" t="s">
         <v>90</v>
       </c>
       <c r="J214" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="K214" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="L214" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="M214" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B215" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D215" t="s">
         <v>90</v>
       </c>
       <c r="J215" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="K215" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="L215" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="M215" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B216" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D216" t="s">
         <v>90</v>
       </c>
       <c r="J216" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="K216" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="L216" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="M216" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B217" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D217" t="s">
         <v>90</v>
       </c>
       <c r="J217" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="K217" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="L217" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="M217" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B218" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D218" t="s">
         <v>90</v>
       </c>
       <c r="J218" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="K218" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="L218" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="M218" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B219" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D219" t="s">
         <v>90</v>
       </c>
       <c r="J219" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="K219" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="L219" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="M219" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B220" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D220" t="s">
         <v>90</v>
       </c>
       <c r="J220" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="K220" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="L220" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="M220" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B221" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D221" t="s">
         <v>90</v>
       </c>
       <c r="J221" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="K221" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="L221" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="M221" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B222" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D222" t="s">
         <v>90</v>
       </c>
       <c r="J222" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="K222" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="L222" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="M222" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B223" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D223" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="J223" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="K223" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="L223" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="M223" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="1" t="s">
-        <v>39</v>
+        <v>1180</v>
       </c>
       <c r="B224" t="s">
-        <v>191</v>
+        <v>1209</v>
       </c>
       <c r="D224" t="s">
         <v>40</v>
       </c>
-      <c r="E224" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="J224" t="s">
-        <v>42</v>
+        <v>1278</v>
       </c>
       <c r="K224" t="s">
-        <v>43</v>
+        <v>1307</v>
       </c>
       <c r="L224" t="s">
-        <v>57</v>
+        <v>1253</v>
       </c>
       <c r="M224" t="s">
-        <v>53</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="1" t="s">
-        <v>47</v>
+        <v>1181</v>
       </c>
       <c r="B225" t="s">
-        <v>191</v>
+        <v>1209</v>
       </c>
       <c r="D225" t="s">
         <v>40</v>
       </c>
-      <c r="E225" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="J225" t="s">
-        <v>62</v>
+        <v>1279</v>
       </c>
       <c r="K225" t="s">
-        <v>126</v>
+        <v>1309</v>
       </c>
       <c r="L225" t="s">
-        <v>142</v>
+        <v>1254</v>
       </c>
       <c r="M225" t="s">
-        <v>52</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="1" t="s">
-        <v>48</v>
+        <v>1182</v>
       </c>
       <c r="B226" t="s">
-        <v>191</v>
+        <v>1209</v>
       </c>
       <c r="D226" t="s">
         <v>40</v>
       </c>
+      <c r="J226" t="s">
+        <v>1280</v>
+      </c>
+      <c r="K226" t="s">
+        <v>1310</v>
+      </c>
+      <c r="L226" t="s">
+        <v>1255</v>
+      </c>
       <c r="M226" t="s">
-        <v>58</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="1" t="s">
-        <v>49</v>
+        <v>1183</v>
       </c>
       <c r="B227" t="s">
-        <v>191</v>
+        <v>1209</v>
       </c>
       <c r="D227" t="s">
         <v>40</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J227" t="s">
-        <v>63</v>
+        <v>1213</v>
       </c>
       <c r="K227" t="s">
-        <v>127</v>
+        <v>1311</v>
+      </c>
+      <c r="L227" t="s">
+        <v>1257</v>
       </c>
       <c r="M227" t="s">
-        <v>59</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="1" t="s">
-        <v>50</v>
+        <v>1184</v>
       </c>
       <c r="B228" t="s">
-        <v>191</v>
+        <v>1209</v>
       </c>
       <c r="D228" t="s">
         <v>40</v>
       </c>
-      <c r="E228" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="J228" t="s">
-        <v>64</v>
+        <v>1281</v>
       </c>
       <c r="K228" t="s">
-        <v>128</v>
+        <v>1281</v>
       </c>
       <c r="L228" t="s">
-        <v>143</v>
+        <v>1258</v>
       </c>
       <c r="M228" t="s">
-        <v>60</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="1" t="s">
-        <v>51</v>
+        <v>1185</v>
       </c>
       <c r="B229" t="s">
-        <v>191</v>
+        <v>1209</v>
       </c>
       <c r="D229" t="s">
         <v>40</v>
       </c>
+      <c r="E229" s="1" t="s">
+        <v>1214</v>
+      </c>
       <c r="J229" t="s">
-        <v>65</v>
+        <v>1282</v>
       </c>
       <c r="K229" t="s">
-        <v>129</v>
+        <v>1282</v>
       </c>
       <c r="L229" t="s">
-        <v>144</v>
+        <v>1259</v>
       </c>
       <c r="M229" t="s">
-        <v>61</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="1" t="s">
-        <v>69</v>
+        <v>1186</v>
       </c>
       <c r="B230" t="s">
-        <v>191</v>
+        <v>1209</v>
       </c>
       <c r="D230" t="s">
         <v>40</v>
       </c>
       <c r="J230" t="s">
-        <v>108</v>
+        <v>1283</v>
       </c>
       <c r="K230" t="s">
-        <v>130</v>
+        <v>1312</v>
       </c>
       <c r="L230" t="s">
-        <v>145</v>
+        <v>1260</v>
       </c>
       <c r="M230" t="s">
-        <v>109</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="1" t="s">
-        <v>70</v>
+        <v>1187</v>
       </c>
       <c r="B231" t="s">
-        <v>191</v>
+        <v>1209</v>
       </c>
       <c r="D231" t="s">
         <v>40</v>
       </c>
       <c r="J231" t="s">
-        <v>93</v>
+        <v>1284</v>
       </c>
       <c r="K231" t="s">
-        <v>131</v>
+        <v>1308</v>
       </c>
       <c r="L231" t="s">
-        <v>146</v>
+        <v>1261</v>
       </c>
       <c r="M231" t="s">
-        <v>110</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="1" t="s">
-        <v>71</v>
+        <v>1215</v>
       </c>
       <c r="B232" t="s">
-        <v>191</v>
+        <v>1209</v>
       </c>
       <c r="D232" t="s">
         <v>40</v>
       </c>
+      <c r="E232" s="1" t="s">
+        <v>1216</v>
+      </c>
       <c r="J232" t="s">
-        <v>94</v>
+        <v>1285</v>
       </c>
       <c r="K232" t="s">
-        <v>94</v>
+        <v>1313</v>
       </c>
       <c r="L232" t="s">
-        <v>147</v>
+        <v>1262</v>
       </c>
       <c r="M232" t="s">
-        <v>111</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="1" t="s">
-        <v>72</v>
+        <v>1210</v>
       </c>
       <c r="B233" t="s">
-        <v>191</v>
+        <v>1209</v>
       </c>
       <c r="D233" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="J233" t="s">
-        <v>95</v>
+        <v>1286</v>
       </c>
       <c r="K233" t="s">
-        <v>132</v>
+        <v>1286</v>
       </c>
       <c r="L233" t="s">
-        <v>148</v>
+        <v>1263</v>
       </c>
       <c r="M233" t="s">
-        <v>112</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="1" t="s">
-        <v>73</v>
+        <v>1211</v>
       </c>
       <c r="B234" t="s">
-        <v>191</v>
+        <v>1209</v>
       </c>
       <c r="D234" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>92</v>
+        <v>1217</v>
       </c>
       <c r="J234" t="s">
-        <v>96</v>
+        <v>1288</v>
       </c>
       <c r="K234" t="s">
-        <v>133</v>
+        <v>1314</v>
       </c>
       <c r="L234" t="s">
-        <v>149</v>
+        <v>1264</v>
       </c>
       <c r="M234" t="s">
-        <v>113</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="1" t="s">
-        <v>74</v>
+        <v>1188</v>
       </c>
       <c r="B235" t="s">
-        <v>191</v>
+        <v>1209</v>
       </c>
       <c r="D235" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="J235" t="s">
-        <v>97</v>
+        <v>1287</v>
       </c>
       <c r="K235" t="s">
-        <v>135</v>
+        <v>1315</v>
       </c>
       <c r="L235" t="s">
-        <v>150</v>
+        <v>1265</v>
       </c>
       <c r="M235" t="s">
-        <v>114</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="1" t="s">
-        <v>75</v>
+        <v>1189</v>
       </c>
       <c r="B236" t="s">
-        <v>191</v>
+        <v>1209</v>
       </c>
       <c r="D236" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="J236" t="s">
-        <v>98</v>
+        <v>1289</v>
       </c>
       <c r="K236" t="s">
-        <v>134</v>
+        <v>1316</v>
       </c>
       <c r="L236" t="s">
-        <v>151</v>
+        <v>1266</v>
       </c>
       <c r="M236" t="s">
-        <v>115</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="1" t="s">
-        <v>76</v>
+        <v>1190</v>
       </c>
       <c r="B237" t="s">
-        <v>191</v>
+        <v>1209</v>
       </c>
       <c r="D237" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="J237" t="s">
-        <v>99</v>
+        <v>1292</v>
       </c>
       <c r="K237" t="s">
-        <v>153</v>
+        <v>1292</v>
       </c>
       <c r="L237" t="s">
-        <v>152</v>
+        <v>1267</v>
       </c>
       <c r="M237" t="s">
-        <v>116</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="1" t="s">
-        <v>77</v>
+        <v>1191</v>
       </c>
       <c r="B238" t="s">
-        <v>191</v>
+        <v>1209</v>
       </c>
       <c r="D238" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="J238" t="s">
-        <v>100</v>
+        <v>1292</v>
+      </c>
+      <c r="K238" t="s">
+        <v>1292</v>
       </c>
       <c r="L238" t="s">
-        <v>154</v>
+        <v>1267</v>
       </c>
       <c r="M238" t="s">
-        <v>117</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="1" t="s">
-        <v>78</v>
+        <v>743</v>
       </c>
       <c r="B239" t="s">
-        <v>191</v>
+        <v>1209</v>
       </c>
       <c r="D239" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="J239" t="s">
-        <v>101</v>
+        <v>1293</v>
       </c>
       <c r="K239" t="s">
-        <v>136</v>
+        <v>794</v>
       </c>
       <c r="L239" t="s">
-        <v>155</v>
+        <v>785</v>
       </c>
       <c r="M239" t="s">
-        <v>118</v>
+        <v>759</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="1" t="s">
-        <v>79</v>
+        <v>1192</v>
       </c>
       <c r="B240" t="s">
-        <v>191</v>
+        <v>1209</v>
       </c>
       <c r="D240" t="s">
-        <v>91</v>
+        <v>40</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>1218</v>
       </c>
       <c r="J240" t="s">
-        <v>101</v>
+        <v>770</v>
       </c>
       <c r="K240" t="s">
-        <v>136</v>
+        <v>1317</v>
       </c>
       <c r="L240" t="s">
-        <v>155</v>
+        <v>785</v>
       </c>
       <c r="M240" t="s">
-        <v>118</v>
+        <v>759</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="1" t="s">
-        <v>80</v>
+        <v>1193</v>
       </c>
       <c r="B241" t="s">
-        <v>191</v>
+        <v>1209</v>
       </c>
       <c r="D241" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="J241" t="s">
-        <v>102</v>
+        <v>1294</v>
       </c>
       <c r="K241" t="s">
-        <v>137</v>
+        <v>1294</v>
       </c>
       <c r="L241" t="s">
-        <v>156</v>
+        <v>1268</v>
       </c>
       <c r="M241" t="s">
-        <v>119</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="1" t="s">
-        <v>81</v>
+        <v>1194</v>
       </c>
       <c r="B242" t="s">
-        <v>191</v>
+        <v>1209</v>
       </c>
       <c r="D242" t="s">
-        <v>91</v>
+        <v>40</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>1219</v>
       </c>
       <c r="J242" t="s">
-        <v>102</v>
+        <v>1290</v>
       </c>
       <c r="K242" t="s">
-        <v>137</v>
+        <v>1318</v>
       </c>
       <c r="L242" t="s">
-        <v>156</v>
+        <v>1268</v>
       </c>
       <c r="M242" t="s">
-        <v>119</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="1" t="s">
-        <v>82</v>
+        <v>1195</v>
       </c>
       <c r="B243" t="s">
-        <v>191</v>
+        <v>1209</v>
+      </c>
+      <c r="D243" t="s">
+        <v>40</v>
       </c>
       <c r="J243" t="s">
-        <v>103</v>
+        <v>1291</v>
+      </c>
+      <c r="K243" t="s">
+        <v>1319</v>
+      </c>
+      <c r="L243" t="s">
+        <v>1269</v>
       </c>
       <c r="M243" t="s">
-        <v>120</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="1" t="s">
-        <v>83</v>
+        <v>1196</v>
       </c>
       <c r="B244" t="s">
-        <v>191</v>
+        <v>1209</v>
+      </c>
+      <c r="D244" t="s">
+        <v>91</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>1220</v>
       </c>
       <c r="J244" t="s">
-        <v>104</v>
+        <v>1295</v>
+      </c>
+      <c r="K244" t="s">
+        <v>1320</v>
+      </c>
+      <c r="L244" t="s">
+        <v>1270</v>
       </c>
       <c r="M244" t="s">
-        <v>121</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="1" t="s">
-        <v>84</v>
+        <v>1197</v>
       </c>
       <c r="B245" t="s">
-        <v>191</v>
+        <v>1209</v>
       </c>
       <c r="D245" t="s">
-        <v>27</v>
+        <v>91</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>1221</v>
       </c>
       <c r="J245" t="s">
-        <v>105</v>
+        <v>1295</v>
       </c>
       <c r="K245" t="s">
-        <v>138</v>
+        <v>1320</v>
       </c>
       <c r="L245" t="s">
-        <v>157</v>
+        <v>1270</v>
       </c>
       <c r="M245" t="s">
-        <v>122</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="1" t="s">
-        <v>85</v>
+        <v>1198</v>
       </c>
       <c r="B246" t="s">
-        <v>191</v>
+        <v>1209</v>
       </c>
       <c r="D246" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="J246" t="s">
-        <v>94</v>
+        <v>1296</v>
       </c>
       <c r="K246" t="s">
-        <v>139</v>
+        <v>1321</v>
       </c>
       <c r="L246" t="s">
-        <v>157</v>
+        <v>1271</v>
       </c>
       <c r="M246" t="s">
-        <v>123</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="1" t="s">
-        <v>86</v>
+        <v>1199</v>
       </c>
       <c r="B247" t="s">
-        <v>191</v>
+        <v>1209</v>
       </c>
       <c r="D247" t="s">
-        <v>27</v>
+        <v>40</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>1223</v>
       </c>
       <c r="J247" t="s">
-        <v>106</v>
+        <v>1297</v>
       </c>
       <c r="K247" t="s">
-        <v>140</v>
+        <v>1322</v>
       </c>
       <c r="L247" t="s">
-        <v>158</v>
+        <v>1271</v>
       </c>
       <c r="M247" t="s">
-        <v>124</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D248" t="s">
+        <v>40</v>
+      </c>
+      <c r="J248" t="s">
+        <v>1298</v>
+      </c>
+      <c r="K248" t="s">
+        <v>1298</v>
+      </c>
+      <c r="L248" t="s">
+        <v>1272</v>
+      </c>
+      <c r="M248" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A249" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D249" t="s">
+        <v>40</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="J249" t="s">
+        <v>1299</v>
+      </c>
+      <c r="K249" t="s">
+        <v>1323</v>
+      </c>
+      <c r="L249" t="s">
+        <v>1272</v>
+      </c>
+      <c r="M249" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A250" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B250" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D250" t="s">
+        <v>40</v>
+      </c>
+      <c r="J250" t="s">
+        <v>1300</v>
+      </c>
+      <c r="K250" t="s">
+        <v>1300</v>
+      </c>
+      <c r="L250" t="s">
+        <v>1273</v>
+      </c>
+      <c r="M250" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A251" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D251" t="s">
+        <v>40</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="J251" t="s">
+        <v>1301</v>
+      </c>
+      <c r="K251" t="s">
+        <v>1324</v>
+      </c>
+      <c r="L251" t="s">
+        <v>1273</v>
+      </c>
+      <c r="M251" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A252" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D252" t="s">
+        <v>40</v>
+      </c>
+      <c r="J252" t="s">
+        <v>1302</v>
+      </c>
+      <c r="K252" t="s">
+        <v>1302</v>
+      </c>
+      <c r="L252" t="s">
+        <v>1274</v>
+      </c>
+      <c r="M252" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A253" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D253" t="s">
+        <v>40</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="J253" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K253" t="s">
+        <v>1325</v>
+      </c>
+      <c r="L253" t="s">
+        <v>1274</v>
+      </c>
+      <c r="M253" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A254" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D254" t="s">
+        <v>1212</v>
+      </c>
+      <c r="J254" t="s">
+        <v>1304</v>
+      </c>
+      <c r="K254" t="s">
+        <v>1326</v>
+      </c>
+      <c r="L254" t="s">
+        <v>792</v>
+      </c>
+      <c r="M254" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A255" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D255" t="s">
+        <v>413</v>
+      </c>
+      <c r="J255" t="s">
+        <v>1305</v>
+      </c>
+      <c r="K255" t="s">
+        <v>1327</v>
+      </c>
+      <c r="L255" t="s">
+        <v>1275</v>
+      </c>
+      <c r="M255" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A256" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B256" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D256" t="s">
+        <v>28</v>
+      </c>
+      <c r="J256" t="s">
+        <v>169</v>
+      </c>
+      <c r="K256" t="s">
+        <v>1328</v>
+      </c>
+      <c r="L256" t="s">
+        <v>1276</v>
+      </c>
+      <c r="M256" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A257" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D257" t="s">
+        <v>1178</v>
+      </c>
+      <c r="J257" t="s">
+        <v>1306</v>
+      </c>
+      <c r="K257" t="s">
+        <v>1329</v>
+      </c>
+      <c r="L257" t="s">
+        <v>1277</v>
+      </c>
+      <c r="M257" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A258" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D258" t="s">
+        <v>1178</v>
+      </c>
+      <c r="J258" t="s">
+        <v>1306</v>
+      </c>
+      <c r="K258" t="s">
+        <v>1329</v>
+      </c>
+      <c r="L258" t="s">
+        <v>1277</v>
+      </c>
+      <c r="M258" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A259" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D259" t="s">
+        <v>201</v>
+      </c>
+      <c r="J259" t="s">
+        <v>1346</v>
+      </c>
+      <c r="K259" t="s">
+        <v>1380</v>
+      </c>
+      <c r="L259" t="s">
+        <v>1379</v>
+      </c>
+      <c r="M259" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A260" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D260" t="s">
+        <v>201</v>
+      </c>
+      <c r="J260" t="s">
+        <v>1346</v>
+      </c>
+      <c r="K260" t="s">
+        <v>1380</v>
+      </c>
+      <c r="L260" t="s">
+        <v>1379</v>
+      </c>
+      <c r="M260" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A261" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D261" t="s">
+        <v>201</v>
+      </c>
+      <c r="J261" t="s">
+        <v>1346</v>
+      </c>
+      <c r="K261" t="s">
+        <v>1380</v>
+      </c>
+      <c r="L261" t="s">
+        <v>1379</v>
+      </c>
+      <c r="M261" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A262" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D262" t="s">
+        <v>201</v>
+      </c>
+      <c r="J262" t="s">
+        <v>1347</v>
+      </c>
+      <c r="K262" t="s">
+        <v>1381</v>
+      </c>
+      <c r="L262" t="s">
+        <v>1348</v>
+      </c>
+      <c r="M262" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A263" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D263" t="s">
+        <v>201</v>
+      </c>
+      <c r="L263" t="s">
+        <v>1349</v>
+      </c>
+      <c r="M263" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A264" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D264" t="s">
+        <v>201</v>
+      </c>
+      <c r="J264" t="s">
+        <v>1350</v>
+      </c>
+      <c r="K264" t="s">
+        <v>1351</v>
+      </c>
+      <c r="L264" t="s">
+        <v>1354</v>
+      </c>
+      <c r="M264" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A265" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D265" t="s">
+        <v>201</v>
+      </c>
+      <c r="J265" t="s">
+        <v>1352</v>
+      </c>
+      <c r="K265" t="s">
+        <v>1355</v>
+      </c>
+      <c r="L265" t="s">
+        <v>1353</v>
+      </c>
+      <c r="M265" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A266" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D266" t="s">
+        <v>201</v>
+      </c>
+      <c r="J266" t="s">
+        <v>1356</v>
+      </c>
+      <c r="K266" t="s">
+        <v>1382</v>
+      </c>
+      <c r="L266" t="s">
+        <v>1378</v>
+      </c>
+      <c r="M266" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A267" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D267" t="s">
+        <v>201</v>
+      </c>
+      <c r="J267" t="s">
+        <v>1357</v>
+      </c>
+      <c r="L267" t="s">
+        <v>1358</v>
+      </c>
+      <c r="M267" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A268" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D268" t="s">
+        <v>201</v>
+      </c>
+      <c r="J268" t="s">
+        <v>1359</v>
+      </c>
+      <c r="K268" t="s">
+        <v>1383</v>
+      </c>
+      <c r="L268" t="s">
+        <v>1370</v>
+      </c>
+      <c r="M268" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A269" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D269" t="s">
+        <v>201</v>
+      </c>
+      <c r="J269" t="s">
+        <v>1360</v>
+      </c>
+      <c r="K269" t="s">
+        <v>1384</v>
+      </c>
+      <c r="L269" t="s">
+        <v>1371</v>
+      </c>
+      <c r="M269" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A270" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D270" t="s">
+        <v>201</v>
+      </c>
+      <c r="J270" t="s">
+        <v>1361</v>
+      </c>
+      <c r="K270" t="s">
+        <v>1361</v>
+      </c>
+      <c r="L270" t="s">
+        <v>1372</v>
+      </c>
+      <c r="M270" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A271" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B271" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D271" t="s">
+        <v>201</v>
+      </c>
+      <c r="J271" t="s">
+        <v>1362</v>
+      </c>
+      <c r="K271" t="s">
+        <v>1385</v>
+      </c>
+      <c r="L271" t="s">
+        <v>1374</v>
+      </c>
+      <c r="M271" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A272" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D272" t="s">
+        <v>201</v>
+      </c>
+      <c r="J272" t="s">
+        <v>1363</v>
+      </c>
+      <c r="K272" t="s">
+        <v>1386</v>
+      </c>
+      <c r="L272" t="s">
+        <v>1377</v>
+      </c>
+      <c r="M272" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A273" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D273" t="s">
+        <v>201</v>
+      </c>
+      <c r="J273" t="s">
+        <v>1364</v>
+      </c>
+      <c r="K273" t="s">
+        <v>1387</v>
+      </c>
+      <c r="L273" t="s">
+        <v>1376</v>
+      </c>
+      <c r="M273" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A274" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B274" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D274" t="s">
+        <v>201</v>
+      </c>
+      <c r="J274" t="s">
+        <v>1364</v>
+      </c>
+      <c r="K274" t="s">
+        <v>1387</v>
+      </c>
+      <c r="L274" t="s">
+        <v>1376</v>
+      </c>
+      <c r="M274" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A275" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B275" t="s">
+        <v>190</v>
+      </c>
+      <c r="D275" t="s">
+        <v>40</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J275" t="s">
+        <v>42</v>
+      </c>
+      <c r="K275" t="s">
+        <v>43</v>
+      </c>
+      <c r="L275" t="s">
+        <v>57</v>
+      </c>
+      <c r="M275" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A276" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B276" t="s">
+        <v>190</v>
+      </c>
+      <c r="D276" t="s">
+        <v>40</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J276" t="s">
+        <v>62</v>
+      </c>
+      <c r="K276" t="s">
+        <v>126</v>
+      </c>
+      <c r="L276" t="s">
+        <v>142</v>
+      </c>
+      <c r="M276" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A277" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B277" t="s">
+        <v>190</v>
+      </c>
+      <c r="D277" t="s">
+        <v>40</v>
+      </c>
+      <c r="M277" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A278" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B278" t="s">
+        <v>190</v>
+      </c>
+      <c r="D278" t="s">
+        <v>40</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J278" t="s">
+        <v>63</v>
+      </c>
+      <c r="K278" t="s">
+        <v>127</v>
+      </c>
+      <c r="M278" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A279" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B279" t="s">
+        <v>190</v>
+      </c>
+      <c r="D279" t="s">
+        <v>40</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J279" t="s">
+        <v>64</v>
+      </c>
+      <c r="K279" t="s">
+        <v>128</v>
+      </c>
+      <c r="L279" t="s">
+        <v>143</v>
+      </c>
+      <c r="M279" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A280" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B280" t="s">
+        <v>190</v>
+      </c>
+      <c r="D280" t="s">
+        <v>40</v>
+      </c>
+      <c r="J280" t="s">
+        <v>65</v>
+      </c>
+      <c r="K280" t="s">
+        <v>129</v>
+      </c>
+      <c r="L280" t="s">
+        <v>144</v>
+      </c>
+      <c r="M280" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A281" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B281" t="s">
+        <v>190</v>
+      </c>
+      <c r="D281" t="s">
+        <v>40</v>
+      </c>
+      <c r="J281" t="s">
+        <v>108</v>
+      </c>
+      <c r="K281" t="s">
+        <v>130</v>
+      </c>
+      <c r="L281" t="s">
+        <v>145</v>
+      </c>
+      <c r="M281" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A282" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B282" t="s">
+        <v>190</v>
+      </c>
+      <c r="D282" t="s">
+        <v>40</v>
+      </c>
+      <c r="J282" t="s">
+        <v>93</v>
+      </c>
+      <c r="K282" t="s">
+        <v>131</v>
+      </c>
+      <c r="L282" t="s">
+        <v>146</v>
+      </c>
+      <c r="M282" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A283" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B283" t="s">
+        <v>190</v>
+      </c>
+      <c r="D283" t="s">
+        <v>40</v>
+      </c>
+      <c r="J283" t="s">
+        <v>94</v>
+      </c>
+      <c r="K283" t="s">
+        <v>94</v>
+      </c>
+      <c r="L283" t="s">
+        <v>147</v>
+      </c>
+      <c r="M283" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A284" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B284" t="s">
+        <v>190</v>
+      </c>
+      <c r="D284" t="s">
+        <v>89</v>
+      </c>
+      <c r="J284" t="s">
+        <v>95</v>
+      </c>
+      <c r="K284" t="s">
+        <v>132</v>
+      </c>
+      <c r="L284" t="s">
+        <v>148</v>
+      </c>
+      <c r="M284" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A285" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B285" t="s">
+        <v>190</v>
+      </c>
+      <c r="D285" t="s">
+        <v>90</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J285" t="s">
+        <v>96</v>
+      </c>
+      <c r="K285" t="s">
+        <v>133</v>
+      </c>
+      <c r="L285" t="s">
+        <v>149</v>
+      </c>
+      <c r="M285" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A286" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B286" t="s">
+        <v>190</v>
+      </c>
+      <c r="D286" t="s">
+        <v>90</v>
+      </c>
+      <c r="J286" t="s">
+        <v>97</v>
+      </c>
+      <c r="K286" t="s">
+        <v>135</v>
+      </c>
+      <c r="L286" t="s">
+        <v>150</v>
+      </c>
+      <c r="M286" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A287" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B287" t="s">
+        <v>190</v>
+      </c>
+      <c r="D287" t="s">
+        <v>90</v>
+      </c>
+      <c r="J287" t="s">
+        <v>98</v>
+      </c>
+      <c r="K287" t="s">
+        <v>134</v>
+      </c>
+      <c r="L287" t="s">
+        <v>151</v>
+      </c>
+      <c r="M287" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A288" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B288" t="s">
+        <v>190</v>
+      </c>
+      <c r="D288" t="s">
+        <v>90</v>
+      </c>
+      <c r="J288" t="s">
+        <v>99</v>
+      </c>
+      <c r="K288" t="s">
+        <v>153</v>
+      </c>
+      <c r="L288" t="s">
+        <v>152</v>
+      </c>
+      <c r="M288" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A289" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B289" t="s">
+        <v>190</v>
+      </c>
+      <c r="D289" t="s">
+        <v>91</v>
+      </c>
+      <c r="J289" t="s">
+        <v>100</v>
+      </c>
+      <c r="L289" t="s">
+        <v>154</v>
+      </c>
+      <c r="M289" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A290" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B290" t="s">
+        <v>190</v>
+      </c>
+      <c r="D290" t="s">
+        <v>91</v>
+      </c>
+      <c r="J290" t="s">
+        <v>101</v>
+      </c>
+      <c r="K290" t="s">
+        <v>136</v>
+      </c>
+      <c r="L290" t="s">
+        <v>155</v>
+      </c>
+      <c r="M290" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A291" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B291" t="s">
+        <v>190</v>
+      </c>
+      <c r="D291" t="s">
+        <v>91</v>
+      </c>
+      <c r="J291" t="s">
+        <v>101</v>
+      </c>
+      <c r="K291" t="s">
+        <v>136</v>
+      </c>
+      <c r="L291" t="s">
+        <v>155</v>
+      </c>
+      <c r="M291" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A292" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B292" t="s">
+        <v>190</v>
+      </c>
+      <c r="D292" t="s">
+        <v>91</v>
+      </c>
+      <c r="J292" t="s">
+        <v>102</v>
+      </c>
+      <c r="K292" t="s">
+        <v>137</v>
+      </c>
+      <c r="L292" t="s">
+        <v>156</v>
+      </c>
+      <c r="M292" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A293" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B293" t="s">
+        <v>190</v>
+      </c>
+      <c r="D293" t="s">
+        <v>91</v>
+      </c>
+      <c r="J293" t="s">
+        <v>102</v>
+      </c>
+      <c r="K293" t="s">
+        <v>137</v>
+      </c>
+      <c r="L293" t="s">
+        <v>156</v>
+      </c>
+      <c r="M293" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A294" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B294" t="s">
+        <v>190</v>
+      </c>
+      <c r="J294" t="s">
+        <v>103</v>
+      </c>
+      <c r="M294" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A295" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B295" t="s">
+        <v>190</v>
+      </c>
+      <c r="J295" t="s">
+        <v>104</v>
+      </c>
+      <c r="M295" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A296" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B296" t="s">
+        <v>190</v>
+      </c>
+      <c r="D296" t="s">
+        <v>27</v>
+      </c>
+      <c r="J296" t="s">
+        <v>105</v>
+      </c>
+      <c r="K296" t="s">
+        <v>138</v>
+      </c>
+      <c r="L296" t="s">
+        <v>157</v>
+      </c>
+      <c r="M296" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A297" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B297" t="s">
+        <v>190</v>
+      </c>
+      <c r="D297" t="s">
+        <v>27</v>
+      </c>
+      <c r="J297" t="s">
+        <v>94</v>
+      </c>
+      <c r="K297" t="s">
+        <v>139</v>
+      </c>
+      <c r="L297" t="s">
+        <v>157</v>
+      </c>
+      <c r="M297" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A298" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B298" t="s">
+        <v>190</v>
+      </c>
+      <c r="D298" t="s">
+        <v>27</v>
+      </c>
+      <c r="J298" t="s">
+        <v>106</v>
+      </c>
+      <c r="K298" t="s">
+        <v>140</v>
+      </c>
+      <c r="L298" t="s">
+        <v>158</v>
+      </c>
+      <c r="M298" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A299" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B248" t="s">
-        <v>191</v>
-      </c>
-      <c r="D248" t="s">
+      <c r="B299" t="s">
+        <v>190</v>
+      </c>
+      <c r="D299" t="s">
         <v>27</v>
       </c>
-      <c r="F248" s="1" t="s">
+      <c r="F299" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J248" t="s">
+      <c r="J299" t="s">
         <v>107</v>
       </c>
-      <c r="K248" t="s">
+      <c r="K299" t="s">
         <v>141</v>
       </c>
-      <c r="L248" t="s">
+      <c r="L299" t="s">
         <v>159</v>
       </c>
-      <c r="M248" t="s">
+      <c r="M299" t="s">
         <v>125</v>
       </c>
     </row>

--- a/dictionary/Vocab.xlsx
+++ b/dictionary/Vocab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02 Trae\TibetanNote\dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B9215C-A560-4BE5-8C32-8E5C1CA9E92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D35DFA3-1BC8-4A89-92E6-05DB1343C1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="5460" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="1388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2531" uniqueCount="1643">
   <si>
     <t>word</t>
   </si>
@@ -4189,6 +4189,771 @@
   </si>
   <si>
     <t>モンゴル</t>
+  </si>
+  <si>
+    <t>V02-L03</t>
+  </si>
+  <si>
+    <t>ཁྱད་ཆོས།</t>
+  </si>
+  <si>
+    <t>གཤིས་ཀ</t>
+  </si>
+  <si>
+    <t>སྤྱོད་པ།</t>
+  </si>
+  <si>
+    <t>དཀའ་ངལ།</t>
+  </si>
+  <si>
+    <t>སེམས།</t>
+  </si>
+  <si>
+    <t>རྙོག་ཁྲ།</t>
+  </si>
+  <si>
+    <t>འཛིན་གྲྭ།</t>
+  </si>
+  <si>
+    <t>༼ས་༽རྒྱ་ཆེན་པོ།</t>
+  </si>
+  <si>
+    <t>སྡུག་ཆགས།</t>
+  </si>
+  <si>
+    <t>ལྗིད་པོ།</t>
+  </si>
+  <si>
+    <t>ལྗིད་ཁོག་ཚ་པོ།</t>
+  </si>
+  <si>
+    <t>ཡང་པོ།</t>
+  </si>
+  <si>
+    <t>ཁྱད་མཚར་པོ།</t>
+  </si>
+  <si>
+    <t>སྤུས་དག་པོ།</t>
+  </si>
+  <si>
+    <t>མངར་མོ།</t>
+  </si>
+  <si>
+    <t>སྐྱོ་པོ།</t>
+  </si>
+  <si>
+    <t>ལྷོད་ལྷོད།</t>
+  </si>
+  <si>
+    <t>ཉོབ་ཏོ།</t>
+  </si>
+  <si>
+    <t>འཇོན་པོ།</t>
+  </si>
+  <si>
+    <t>ཧུར་བརྩོན་ཆེནཔོ།</t>
+  </si>
+  <si>
+    <t>སྒྱིད་ལ་ངན་པོ།</t>
+  </si>
+  <si>
+    <t>དྲང་པོ།</t>
+  </si>
+  <si>
+    <t>ཁ་རི་ཁ་ཐུག</t>
+  </si>
+  <si>
+    <t>སྣང་བ་སྐྱིད་པོ།</t>
+  </si>
+  <si>
+    <t>ཞེད་སྣང་ཚ་པོ།</t>
+  </si>
+  <si>
+    <t>ཧམ་པ་ཚ་པོ།</t>
+  </si>
+  <si>
+    <t>ཧམ་པ་ཆེན་པོ།</t>
+  </si>
+  <si>
+    <t>སྤྱོད་པ་རྩུབ་པོ།</t>
+  </si>
+  <si>
+    <t>འཇམ་པོ།</t>
+  </si>
+  <si>
+    <t>འདྲ་པོ།</t>
+  </si>
+  <si>
+    <t>ནང་ནས།</t>
+  </si>
+  <si>
+    <t>རང་འཇགས།</t>
+  </si>
+  <si>
+    <t>ལོགས་དགར།</t>
+  </si>
+  <si>
+    <t>ནང་བཞིན།</t>
+  </si>
+  <si>
+    <t>དཔེ་མི་སྲིད་པའི།</t>
+  </si>
+  <si>
+    <t>རྦད་དེ།</t>
+  </si>
+  <si>
+    <t>ཤོས།</t>
+  </si>
+  <si>
+    <t>དཔོར་ན།</t>
+  </si>
+  <si>
+    <t>མ་གཏོགས།</t>
+  </si>
+  <si>
+    <t>སྤྱིར་བཏང་།</t>
+  </si>
+  <si>
+    <t>དངོས་གནས་བྱས་ན།</t>
+  </si>
+  <si>
+    <t>རྒྱུག་པ།</t>
+  </si>
+  <si>
+    <t>བརྒྱུགས།</t>
+  </si>
+  <si>
+    <t>ཆོབ་བསླངས་པ།</t>
+  </si>
+  <si>
+    <t>ཆོབ་སློང་བ།</t>
+  </si>
+  <si>
+    <t>བྱམས་པོ་བྱེད་པ།</t>
+  </si>
+  <si>
+    <t>བསམས་པ།</t>
+  </si>
+  <si>
+    <t>སེམས་པ།</t>
+  </si>
+  <si>
+    <t>ཁོང་ཁྲོ་ལང་བ།</t>
+  </si>
+  <si>
+    <t>ཁོང་ཁྲོ་ལངས་པ།</t>
+  </si>
+  <si>
+    <t>ཆོབ་བསླངས་པ་</t>
+  </si>
+  <si>
+    <t>caractéristique ; particularité</t>
+  </si>
+  <si>
+    <t>bizarre ; étrange</t>
+  </si>
+  <si>
+    <t>nature ; caractère ; personnalité</t>
+  </si>
+  <si>
+    <t>ཁྱད་(characteristic)+མཚར་པོ་(marverlous)</t>
+  </si>
+  <si>
+    <t>comportement ; conduite</t>
+  </si>
+  <si>
+    <t>དཀའ་(difficulty)+ངལ་(fatigue)</t>
+  </si>
+  <si>
+    <t>difficulté</t>
+  </si>
+  <si>
+    <t>esprit ; cœur</t>
+  </si>
+  <si>
+    <t>problème</t>
+  </si>
+  <si>
+    <t>classe ; salle de classe ; cours</t>
+  </si>
+  <si>
+    <t>étendu; vaste</t>
+  </si>
+  <si>
+    <t>༼ས་༽(earth)+རྒྱ་(extend)+ཆེན་པོ་(big)</t>
+  </si>
+  <si>
+    <t>mauvais</t>
+  </si>
+  <si>
+    <t>lourd</t>
+  </si>
+  <si>
+    <t>léger</t>
+  </si>
+  <si>
+    <t>ལྗིད་ཁོག་(heavy)+ཚ་པོ་(hot)</t>
+  </si>
+  <si>
+    <t>སྤུས་(quality)+དག་པོ་(pure)</t>
+  </si>
+  <si>
+    <t>de qualité ; de bonne qualité</t>
+  </si>
+  <si>
+    <t>sucré</t>
+  </si>
+  <si>
+    <t>compliqué ; problématique</t>
+  </si>
+  <si>
+    <t>རྙོག་ཁྲ་ཚ་པོ།</t>
+  </si>
+  <si>
+    <t>རྙོག་ཁྲ་(problem)+ཚ་པོ་(hot)</t>
+  </si>
+  <si>
+    <t>pauvre ; faible ; déficient</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> relax ; cool ; tranquille</t>
+  </si>
+  <si>
+    <t>mou ; léthargique</t>
+  </si>
+  <si>
+    <t>capable ; énergique ; efficace</t>
+  </si>
+  <si>
+    <t>ཧུར་བརྩོན་(effort)+ཆེནཔོ་(big)</t>
+  </si>
+  <si>
+    <t>སྒྱིད་(energy)+ལ་ངན་པོ་(bad)</t>
+  </si>
+  <si>
+    <t>très travailleur ; zélé</t>
+  </si>
+  <si>
+    <t>paresseux</t>
+  </si>
+  <si>
+    <t>franc ; honnête ; droit</t>
+  </si>
+  <si>
+    <t>direct ; franc ; mordant</t>
+  </si>
+  <si>
+    <t>joyeux ; jovial</t>
+  </si>
+  <si>
+    <t>སྣང་བ་(appearance)+སྐྱིད་པོ་(happy)</t>
+  </si>
+  <si>
+    <t>ཆོབ་ཚ་པོ།</t>
+  </si>
+  <si>
+    <t>ཆོབ་(joke)+ཚ་པོ་(hot)</t>
+  </si>
+  <si>
+    <t>ཞེད་(afraid)+སྣང་(appearance)+ཚ་པོ་(hot)</t>
+  </si>
+  <si>
+    <t>drôle ; comique</t>
+  </si>
+  <si>
+    <t>effrayant</t>
+  </si>
+  <si>
+    <t>frightening; fearsome</t>
+  </si>
+  <si>
+    <t>ཧམ་པ་(greed)+ཚ་པོ་(hot)</t>
+  </si>
+  <si>
+    <t>ཧམ་པ་(greed)+ཆེན་པོ་(big)</t>
+  </si>
+  <si>
+    <t>cupide ; avide ; capricieux ; insistant</t>
+  </si>
+  <si>
+    <t>violent ; brusque</t>
+  </si>
+  <si>
+    <t>སྤྱོད་པ་(beaviour)+རྩུབ་པོ་(brusque)</t>
+  </si>
+  <si>
+    <t>violent; brusque; abrupt</t>
+  </si>
+  <si>
+    <t>doux ; lisse ; gentil</t>
+  </si>
+  <si>
+    <t>semblable</t>
+  </si>
+  <si>
+    <t>parmi</t>
+  </si>
+  <si>
+    <t>même ; encore</t>
+  </si>
+  <si>
+    <t>différent ; distinct ; séparé</t>
+  </si>
+  <si>
+    <t>ནང་(inside)+ནས(ablative)</t>
+  </si>
+  <si>
+    <t>ལོགས་(side)+དགར་(seperate)</t>
+  </si>
+  <si>
+    <t>དཔེ་(example)+མི་སྲིད་པ(very impossible)+འི་(genitive)</t>
+  </si>
+  <si>
+    <t>དཔོ(example)+ར་(dative/locative)+ན་(if)</t>
+  </si>
+  <si>
+    <t>མ་(negative)+གཏོགས་(included)</t>
+  </si>
+  <si>
+    <t>དངོས་གནས་(really)+བྱས་(do)+ན་(if)</t>
+  </si>
+  <si>
+    <t>བྱམས་པོ་(affectionate)+བྱེད་པ་(do)</t>
+  </si>
+  <si>
+    <t>ཁོང་ཁྲོ་(anger)+ལང་བ་(get up)</t>
+  </si>
+  <si>
+    <t>autant ; aussi ; comme</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>complètement</t>
+  </si>
+  <si>
+    <t>le plus</t>
+  </si>
+  <si>
+    <t>par exemple</t>
+  </si>
+  <si>
+    <t>hormis ; sauf ; à part ; sinon</t>
+  </si>
+  <si>
+    <t>en général</t>
+  </si>
+  <si>
+    <t>en réalité</t>
+  </si>
+  <si>
+    <t>courir</t>
+  </si>
+  <si>
+    <t>faire des blagues ; faire rire ; faire de l'humour</t>
+  </si>
+  <si>
+    <t>bien traiter ; être tendre ; avoir de la tendresse</t>
+  </si>
+  <si>
+    <t>penser</t>
+  </si>
+  <si>
+    <t>se mettre en colère ; s'énerver</t>
+  </si>
+  <si>
+    <t>strange</t>
+  </si>
+  <si>
+    <t>character; personnality</t>
+  </si>
+  <si>
+    <t>difficulty</t>
+  </si>
+  <si>
+    <t>characteristic; peculiarity</t>
+  </si>
+  <si>
+    <t>behaviour; conduct</t>
+  </si>
+  <si>
+    <t>spirit; heart</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>class; classroom; course</t>
+  </si>
+  <si>
+    <t>vast; extensive</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>heavy</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>high-quality</t>
+  </si>
+  <si>
+    <t>sweet</t>
+  </si>
+  <si>
+    <t>complicated; problematic</t>
+  </si>
+  <si>
+    <t>poor; weak; deficient</t>
+  </si>
+  <si>
+    <t>relaxed; cool; quiet</t>
+  </si>
+  <si>
+    <t>capable; efficient; energetic</t>
+  </si>
+  <si>
+    <t>hardworking; zealous</t>
+  </si>
+  <si>
+    <t>lazy</t>
+  </si>
+  <si>
+    <t>frank; honest; direct</t>
+  </si>
+  <si>
+    <t>direct; frank; caustic</t>
+  </si>
+  <si>
+    <t>joyful; jovial</t>
+  </si>
+  <si>
+    <t>funny; comical</t>
+  </si>
+  <si>
+    <t>greedy; avid; capricious</t>
+  </si>
+  <si>
+    <t>gentle; smooth; kind</t>
+  </si>
+  <si>
+    <t>similar</t>
+  </si>
+  <si>
+    <t>among</t>
+  </si>
+  <si>
+    <t>same; again</t>
+  </si>
+  <si>
+    <t>different; distinct; separate</t>
+  </si>
+  <si>
+    <t>as much; also; as</t>
+  </si>
+  <si>
+    <t>completely</t>
+  </si>
+  <si>
+    <t>the most</t>
+  </si>
+  <si>
+    <t>for example</t>
+  </si>
+  <si>
+    <t>except; apart form; otherwise</t>
+  </si>
+  <si>
+    <t>in general</t>
+  </si>
+  <si>
+    <t>in reality</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>joke; make laugh</t>
+  </si>
+  <si>
+    <t>be gentle</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>get angry</t>
+  </si>
+  <si>
+    <t>特征；特点</t>
+  </si>
+  <si>
+    <t>古怪的；奇怪的</t>
+  </si>
+  <si>
+    <t>本性；性格；个性</t>
+  </si>
+  <si>
+    <t>行为；举止</t>
+  </si>
+  <si>
+    <t>困难</t>
+  </si>
+  <si>
+    <t>精神</t>
+  </si>
+  <si>
+    <t>问题</t>
+  </si>
+  <si>
+    <t>班级；教室；课程</t>
+  </si>
+  <si>
+    <t>广阔的；辽阔的</t>
+  </si>
+  <si>
+    <t>坏的</t>
+  </si>
+  <si>
+    <t>重的</t>
+  </si>
+  <si>
+    <t>轻的</t>
+  </si>
+  <si>
+    <t>优质的</t>
+  </si>
+  <si>
+    <t>甜的</t>
+  </si>
+  <si>
+    <t>复杂的；有问题的</t>
+  </si>
+  <si>
+    <t>贫穷的；弱的；有缺陷的</t>
+  </si>
+  <si>
+    <t>放松的、安静的</t>
+  </si>
+  <si>
+    <t>limp; lethargic</t>
+  </si>
+  <si>
+    <t>无力的</t>
+  </si>
+  <si>
+    <t>有能力的；精力充沛的；高效的</t>
+  </si>
+  <si>
+    <t>勤奋的；热情的</t>
+  </si>
+  <si>
+    <t>懒惰的</t>
+  </si>
+  <si>
+    <t>尖刻的</t>
+  </si>
+  <si>
+    <t>坦率的；正直的</t>
+  </si>
+  <si>
+    <t>快乐的；愉快的</t>
+  </si>
+  <si>
+    <t>滑稽的</t>
+  </si>
+  <si>
+    <t>可怕的</t>
+  </si>
+  <si>
+    <t>贪婪的</t>
+  </si>
+  <si>
+    <t>暴力的</t>
+  </si>
+  <si>
+    <t>温柔的；友好的</t>
+  </si>
+  <si>
+    <t>相似的</t>
+  </si>
+  <si>
+    <t>在……之中</t>
+  </si>
+  <si>
+    <t>不同的；独特的</t>
+  </si>
+  <si>
+    <t>同样</t>
+  </si>
+  <si>
+    <t>超级</t>
+  </si>
+  <si>
+    <t>完全地</t>
+  </si>
+  <si>
+    <t>最</t>
+  </si>
+  <si>
+    <t>比如</t>
+  </si>
+  <si>
+    <t>只；除</t>
+  </si>
+  <si>
+    <t>一般来说</t>
+  </si>
+  <si>
+    <t>实际上</t>
+  </si>
+  <si>
+    <t>跑</t>
+  </si>
+  <si>
+    <t>开玩笑</t>
+  </si>
+  <si>
+    <t>善良</t>
+  </si>
+  <si>
+    <t>想</t>
+  </si>
+  <si>
+    <t>生气</t>
+  </si>
+  <si>
+    <t>特徴、特性</t>
+  </si>
+  <si>
+    <t>奇妙的、変な</t>
+  </si>
+  <si>
+    <t>性質、性格</t>
+  </si>
+  <si>
+    <t>行動、態度</t>
+  </si>
+  <si>
+    <t>困難</t>
+  </si>
+  <si>
+    <t>問題</t>
+  </si>
+  <si>
+    <t>クラス、教室、授業</t>
+  </si>
+  <si>
+    <t>広い</t>
+  </si>
+  <si>
+    <t>悪い</t>
+  </si>
+  <si>
+    <t>重い</t>
+  </si>
+  <si>
+    <t>軽い</t>
+  </si>
+  <si>
+    <t>良品</t>
+  </si>
+  <si>
+    <t>甘い</t>
+  </si>
+  <si>
+    <t>複雑な、問題的な</t>
+  </si>
+  <si>
+    <t>貧しい、弱い</t>
+  </si>
+  <si>
+    <t>リラックス、静かな</t>
+  </si>
+  <si>
+    <t>無力的な</t>
+  </si>
+  <si>
+    <t>効率的、能力がある</t>
+  </si>
+  <si>
+    <t>勤勉的、熱心的</t>
+  </si>
+  <si>
+    <t>怠ける</t>
+  </si>
+  <si>
+    <t>率直、正直</t>
+  </si>
+  <si>
+    <t>さっくりする</t>
+  </si>
+  <si>
+    <t>楽しい</t>
+  </si>
+  <si>
+    <t>面白い</t>
+  </si>
+  <si>
+    <t>恐ろしい</t>
+  </si>
+  <si>
+    <t>卑しい</t>
+  </si>
+  <si>
+    <t>暴力的な</t>
+  </si>
+  <si>
+    <t>優しい、親しい</t>
+  </si>
+  <si>
+    <t>似ている</t>
+  </si>
+  <si>
+    <t>～の中</t>
+  </si>
+  <si>
+    <t>異なる</t>
+  </si>
+  <si>
+    <t>超</t>
+  </si>
+  <si>
+    <t>完全に</t>
+  </si>
+  <si>
+    <t>最も</t>
+  </si>
+  <si>
+    <t>例えば</t>
+  </si>
+  <si>
+    <t>しか</t>
+  </si>
+  <si>
+    <t>普通は</t>
+  </si>
+  <si>
+    <t>実に</t>
+  </si>
+  <si>
+    <t>走る</t>
+  </si>
+  <si>
+    <t>冗談する、笑わせる</t>
+  </si>
+  <si>
+    <t>優しくする</t>
+  </si>
+  <si>
+    <t>思う</t>
+  </si>
+  <si>
+    <t>怒る、イライラする</t>
   </si>
 </sst>
 </file>
@@ -4518,16 +5283,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R299"/>
+  <dimension ref="A1:R347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H272" sqref="H272"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C335" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="K348" sqref="K348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="1"/>
-    <col min="2" max="2" width="5.3984375" customWidth="1"/>
+    <col min="1" max="1" width="10.46484375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.19921875" customWidth="1"/>
     <col min="3" max="3" width="16.86328125" customWidth="1"/>
     <col min="5" max="6" width="9.06640625" style="1"/>
   </cols>
@@ -11638,6 +12406,1211 @@
         <v>125</v>
       </c>
     </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A300" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B300" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D300" t="s">
+        <v>40</v>
+      </c>
+      <c r="J300" t="s">
+        <v>1554</v>
+      </c>
+      <c r="K300" t="s">
+        <v>1600</v>
+      </c>
+      <c r="L300" t="s">
+        <v>1515</v>
+      </c>
+      <c r="M300" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A301" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D301" t="s">
+        <v>90</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="J301" t="s">
+        <v>1555</v>
+      </c>
+      <c r="K301" t="s">
+        <v>1601</v>
+      </c>
+      <c r="L301" t="s">
+        <v>1512</v>
+      </c>
+      <c r="M301" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A302" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D302" t="s">
+        <v>40</v>
+      </c>
+      <c r="E302"/>
+      <c r="J302" t="s">
+        <v>1556</v>
+      </c>
+      <c r="K302" t="s">
+        <v>1602</v>
+      </c>
+      <c r="L302" t="s">
+        <v>1513</v>
+      </c>
+      <c r="M302" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A303" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D303" t="s">
+        <v>40</v>
+      </c>
+      <c r="E303"/>
+      <c r="J303" t="s">
+        <v>1557</v>
+      </c>
+      <c r="K303" t="s">
+        <v>1603</v>
+      </c>
+      <c r="L303" t="s">
+        <v>1516</v>
+      </c>
+      <c r="M303" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A304" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D304" t="s">
+        <v>40</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="J304" t="s">
+        <v>1558</v>
+      </c>
+      <c r="K304" t="s">
+        <v>1604</v>
+      </c>
+      <c r="L304" t="s">
+        <v>1514</v>
+      </c>
+      <c r="M304" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A305" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D305" t="s">
+        <v>40</v>
+      </c>
+      <c r="E305"/>
+      <c r="J305" t="s">
+        <v>1559</v>
+      </c>
+      <c r="K305" t="s">
+        <v>1559</v>
+      </c>
+      <c r="L305" t="s">
+        <v>1517</v>
+      </c>
+      <c r="M305" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A306" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D306" t="s">
+        <v>40</v>
+      </c>
+      <c r="E306"/>
+      <c r="J306" t="s">
+        <v>1560</v>
+      </c>
+      <c r="K306" t="s">
+        <v>1605</v>
+      </c>
+      <c r="L306" t="s">
+        <v>1518</v>
+      </c>
+      <c r="M306" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A307" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B307" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D307" t="s">
+        <v>40</v>
+      </c>
+      <c r="E307"/>
+      <c r="J307" t="s">
+        <v>1561</v>
+      </c>
+      <c r="K307" t="s">
+        <v>1606</v>
+      </c>
+      <c r="L307" t="s">
+        <v>1519</v>
+      </c>
+      <c r="M307" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A308" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B308" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D308" t="s">
+        <v>90</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="J308" t="s">
+        <v>1562</v>
+      </c>
+      <c r="K308" t="s">
+        <v>1607</v>
+      </c>
+      <c r="L308" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M308" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A309" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B309" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D309" t="s">
+        <v>90</v>
+      </c>
+      <c r="E309"/>
+      <c r="J309" t="s">
+        <v>1563</v>
+      </c>
+      <c r="K309" t="s">
+        <v>1608</v>
+      </c>
+      <c r="L309" t="s">
+        <v>1521</v>
+      </c>
+      <c r="M309" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A310" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D310" t="s">
+        <v>90</v>
+      </c>
+      <c r="E310"/>
+      <c r="J310" t="s">
+        <v>1564</v>
+      </c>
+      <c r="K310" t="s">
+        <v>1609</v>
+      </c>
+      <c r="L310" t="s">
+        <v>1522</v>
+      </c>
+      <c r="M310" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A311" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D311" t="s">
+        <v>90</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="J311" t="s">
+        <v>1564</v>
+      </c>
+      <c r="K311" t="s">
+        <v>1610</v>
+      </c>
+      <c r="L311" t="s">
+        <v>1522</v>
+      </c>
+      <c r="M311" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A312" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B312" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D312" t="s">
+        <v>90</v>
+      </c>
+      <c r="E312"/>
+      <c r="J312" t="s">
+        <v>1565</v>
+      </c>
+      <c r="K312" t="s">
+        <v>1610</v>
+      </c>
+      <c r="L312" t="s">
+        <v>1523</v>
+      </c>
+      <c r="M312" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A313" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D313" t="s">
+        <v>90</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="J313" t="s">
+        <v>1566</v>
+      </c>
+      <c r="K313" t="s">
+        <v>1611</v>
+      </c>
+      <c r="L313" t="s">
+        <v>1524</v>
+      </c>
+      <c r="M313" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A314" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B314" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D314" t="s">
+        <v>90</v>
+      </c>
+      <c r="E314"/>
+      <c r="J314" t="s">
+        <v>1567</v>
+      </c>
+      <c r="K314" t="s">
+        <v>1612</v>
+      </c>
+      <c r="L314" t="s">
+        <v>1525</v>
+      </c>
+      <c r="M314" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A315" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D315" t="s">
+        <v>90</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J315" t="s">
+        <v>1568</v>
+      </c>
+      <c r="K315" t="s">
+        <v>1613</v>
+      </c>
+      <c r="L315" t="s">
+        <v>1526</v>
+      </c>
+      <c r="M315" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A316" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D316" t="s">
+        <v>90</v>
+      </c>
+      <c r="E316"/>
+      <c r="J316" t="s">
+        <v>1569</v>
+      </c>
+      <c r="K316" t="s">
+        <v>1614</v>
+      </c>
+      <c r="L316" t="s">
+        <v>1527</v>
+      </c>
+      <c r="M316" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A317" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B317" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D317" t="s">
+        <v>90</v>
+      </c>
+      <c r="E317"/>
+      <c r="J317" t="s">
+        <v>1570</v>
+      </c>
+      <c r="K317" t="s">
+        <v>1615</v>
+      </c>
+      <c r="L317" t="s">
+        <v>1528</v>
+      </c>
+      <c r="M317" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A318" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B318" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D318" t="s">
+        <v>90</v>
+      </c>
+      <c r="E318"/>
+      <c r="J318" t="s">
+        <v>1572</v>
+      </c>
+      <c r="K318" t="s">
+        <v>1616</v>
+      </c>
+      <c r="L318" t="s">
+        <v>1571</v>
+      </c>
+      <c r="M318" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A319" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B319" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D319" t="s">
+        <v>90</v>
+      </c>
+      <c r="E319"/>
+      <c r="J319" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K319" t="s">
+        <v>1617</v>
+      </c>
+      <c r="L319" t="s">
+        <v>1529</v>
+      </c>
+      <c r="M319" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A320" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B320" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D320" t="s">
+        <v>90</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="J320" t="s">
+        <v>1574</v>
+      </c>
+      <c r="K320" t="s">
+        <v>1618</v>
+      </c>
+      <c r="L320" t="s">
+        <v>1530</v>
+      </c>
+      <c r="M320" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A321" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B321" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D321" t="s">
+        <v>90</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="J321" t="s">
+        <v>1575</v>
+      </c>
+      <c r="K321" t="s">
+        <v>1619</v>
+      </c>
+      <c r="L321" t="s">
+        <v>1531</v>
+      </c>
+      <c r="M321" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A322" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B322" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D322" t="s">
+        <v>90</v>
+      </c>
+      <c r="E322"/>
+      <c r="J322" t="s">
+        <v>1577</v>
+      </c>
+      <c r="K322" t="s">
+        <v>1620</v>
+      </c>
+      <c r="L322" t="s">
+        <v>1532</v>
+      </c>
+      <c r="M322" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A323" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D323" t="s">
+        <v>90</v>
+      </c>
+      <c r="E323"/>
+      <c r="J323" t="s">
+        <v>1576</v>
+      </c>
+      <c r="K323" t="s">
+        <v>1621</v>
+      </c>
+      <c r="L323" t="s">
+        <v>1533</v>
+      </c>
+      <c r="M323" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A324" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D324" t="s">
+        <v>90</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="J324" t="s">
+        <v>1578</v>
+      </c>
+      <c r="K324" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L324" t="s">
+        <v>1534</v>
+      </c>
+      <c r="M324" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A325" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B325" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D325" t="s">
+        <v>90</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="J325" t="s">
+        <v>1579</v>
+      </c>
+      <c r="K325" t="s">
+        <v>1623</v>
+      </c>
+      <c r="L325" t="s">
+        <v>1535</v>
+      </c>
+      <c r="M325" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A326" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B326" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D326" t="s">
+        <v>90</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="J326" t="s">
+        <v>1580</v>
+      </c>
+      <c r="K326" t="s">
+        <v>1624</v>
+      </c>
+      <c r="L326" t="s">
+        <v>1479</v>
+      </c>
+      <c r="M326" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A327" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B327" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D327" t="s">
+        <v>90</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J327" t="s">
+        <v>1581</v>
+      </c>
+      <c r="K327" t="s">
+        <v>1625</v>
+      </c>
+      <c r="L327" t="s">
+        <v>1536</v>
+      </c>
+      <c r="M327" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A328" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B328" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D328" t="s">
+        <v>90</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="J328" t="s">
+        <v>1581</v>
+      </c>
+      <c r="K328" t="s">
+        <v>1625</v>
+      </c>
+      <c r="L328" t="s">
+        <v>1536</v>
+      </c>
+      <c r="M328" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A329" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B329" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D329" t="s">
+        <v>90</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="J329" t="s">
+        <v>1582</v>
+      </c>
+      <c r="K329" t="s">
+        <v>1626</v>
+      </c>
+      <c r="L329" t="s">
+        <v>1485</v>
+      </c>
+      <c r="M329" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A330" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B330" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D330" t="s">
+        <v>90</v>
+      </c>
+      <c r="E330"/>
+      <c r="J330" t="s">
+        <v>1583</v>
+      </c>
+      <c r="K330" t="s">
+        <v>1627</v>
+      </c>
+      <c r="L330" t="s">
+        <v>1537</v>
+      </c>
+      <c r="M330" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A331" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B331" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D331" t="s">
+        <v>90</v>
+      </c>
+      <c r="E331"/>
+      <c r="J331" t="s">
+        <v>1584</v>
+      </c>
+      <c r="K331" t="s">
+        <v>1628</v>
+      </c>
+      <c r="L331" t="s">
+        <v>1538</v>
+      </c>
+      <c r="M331" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A332" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D332" t="s">
+        <v>89</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="J332" t="s">
+        <v>1585</v>
+      </c>
+      <c r="K332" t="s">
+        <v>1629</v>
+      </c>
+      <c r="L332" t="s">
+        <v>1539</v>
+      </c>
+      <c r="M332" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A333" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D333" t="s">
+        <v>91</v>
+      </c>
+      <c r="J333" t="s">
+        <v>918</v>
+      </c>
+      <c r="K333" t="s">
+        <v>908</v>
+      </c>
+      <c r="L333" t="s">
+        <v>1540</v>
+      </c>
+      <c r="M333" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A334" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D334" t="s">
+        <v>90</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="J334" t="s">
+        <v>1586</v>
+      </c>
+      <c r="K334" t="s">
+        <v>1630</v>
+      </c>
+      <c r="L334" t="s">
+        <v>1541</v>
+      </c>
+      <c r="M334" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A335" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D335" t="s">
+        <v>91</v>
+      </c>
+      <c r="J335" t="s">
+        <v>1587</v>
+      </c>
+      <c r="K335" t="s">
+        <v>886</v>
+      </c>
+      <c r="L335" t="s">
+        <v>1542</v>
+      </c>
+      <c r="M335" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A336" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D336" t="s">
+        <v>91</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="J336" t="s">
+        <v>1588</v>
+      </c>
+      <c r="K336" t="s">
+        <v>1631</v>
+      </c>
+      <c r="L336" t="s">
+        <v>1500</v>
+      </c>
+      <c r="M336" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A337" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D337" t="s">
+        <v>91</v>
+      </c>
+      <c r="J337" t="s">
+        <v>1589</v>
+      </c>
+      <c r="K337" t="s">
+        <v>1632</v>
+      </c>
+      <c r="L337" t="s">
+        <v>1543</v>
+      </c>
+      <c r="M337" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A338" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D338" t="s">
+        <v>91</v>
+      </c>
+      <c r="J338" t="s">
+        <v>1590</v>
+      </c>
+      <c r="K338" t="s">
+        <v>1633</v>
+      </c>
+      <c r="L338" t="s">
+        <v>1544</v>
+      </c>
+      <c r="M338" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A339" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D339" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J339" t="s">
+        <v>1591</v>
+      </c>
+      <c r="K339" t="s">
+        <v>1634</v>
+      </c>
+      <c r="L339" t="s">
+        <v>1545</v>
+      </c>
+      <c r="M339" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A340" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D340" t="s">
+        <v>89</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="J340" t="s">
+        <v>1592</v>
+      </c>
+      <c r="K340" t="s">
+        <v>1635</v>
+      </c>
+      <c r="L340" t="s">
+        <v>1546</v>
+      </c>
+      <c r="M340" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A341" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D341" t="s">
+        <v>91</v>
+      </c>
+      <c r="J341" t="s">
+        <v>1593</v>
+      </c>
+      <c r="K341" t="s">
+        <v>1636</v>
+      </c>
+      <c r="L341" t="s">
+        <v>1547</v>
+      </c>
+      <c r="M341" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A342" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D342" t="s">
+        <v>91</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J342" t="s">
+        <v>1594</v>
+      </c>
+      <c r="K342" t="s">
+        <v>1637</v>
+      </c>
+      <c r="L342" t="s">
+        <v>1548</v>
+      </c>
+      <c r="M342" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A343" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B343" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D343" t="s">
+        <v>27</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="J343" t="s">
+        <v>1595</v>
+      </c>
+      <c r="K343" t="s">
+        <v>1638</v>
+      </c>
+      <c r="L343" t="s">
+        <v>1549</v>
+      </c>
+      <c r="M343" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A344" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D344" t="s">
+        <v>27</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="G344" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="J344" t="s">
+        <v>1596</v>
+      </c>
+      <c r="K344" t="s">
+        <v>1639</v>
+      </c>
+      <c r="L344" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M344" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A345" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C345" s="1"/>
+      <c r="D345" t="s">
+        <v>27</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="G345" s="1"/>
+      <c r="J345" t="s">
+        <v>1597</v>
+      </c>
+      <c r="K345" t="s">
+        <v>1640</v>
+      </c>
+      <c r="L345" t="s">
+        <v>1551</v>
+      </c>
+      <c r="M345" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A346" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D346" t="s">
+        <v>27</v>
+      </c>
+      <c r="G346" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="J346" t="s">
+        <v>1598</v>
+      </c>
+      <c r="K346" t="s">
+        <v>1641</v>
+      </c>
+      <c r="L346" t="s">
+        <v>1552</v>
+      </c>
+      <c r="M346" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A347" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B347" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C347" s="1"/>
+      <c r="D347" t="s">
+        <v>27</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="F347" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="J347" t="s">
+        <v>1599</v>
+      </c>
+      <c r="K347" t="s">
+        <v>1642</v>
+      </c>
+      <c r="L347" t="s">
+        <v>1553</v>
+      </c>
+      <c r="M347" t="s">
+        <v>1511</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dictionary/Vocab.xlsx
+++ b/dictionary/Vocab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02 Trae\TibetanNote\dictionary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_Trae\TibetanNote\dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D35DFA3-1BC8-4A89-92E6-05DB1343C1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC573BB0-ECAA-4D49-B80E-6B6FACA9DB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="5460" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocab" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2531" uniqueCount="1643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2860" uniqueCount="1860">
   <si>
     <t>word</t>
   </si>
@@ -4954,6 +4954,657 @@
   </si>
   <si>
     <t>怒る、イライラする</t>
+  </si>
+  <si>
+    <t>ཐབ་ཚང་།</t>
+  </si>
+  <si>
+    <t>V01-L08</t>
+  </si>
+  <si>
+    <t>སྒོ་ང་།</t>
+  </si>
+  <si>
+    <t>ཤིང་ཏོག</t>
+  </si>
+  <si>
+    <t>སྒམ།</t>
+  </si>
+  <si>
+    <t>འཁྱག་སྒམ།</t>
+  </si>
+  <si>
+    <t>སྡེར་མ།</t>
+  </si>
+  <si>
+    <t>ཕོར་པ།</t>
+  </si>
+  <si>
+    <t>ཁྲུས་ཁང་།</t>
+  </si>
+  <si>
+    <t>གསང་སྤྱོད།</t>
+  </si>
+  <si>
+    <t>ཨ་ཅོར།</t>
+  </si>
+  <si>
+    <t>སོ་སྨན།</t>
+  </si>
+  <si>
+    <t>སོ་འཁྲུད།</t>
+  </si>
+  <si>
+    <t>ཤེར་སྒོ།</t>
+  </si>
+  <si>
+    <t>གད་སྙིགས་བླུགས་ས།</t>
+  </si>
+  <si>
+    <t>དངུལ།</t>
+  </si>
+  <si>
+    <t>སྐུ།</t>
+  </si>
+  <si>
+    <t>སྐུ་འདྲ།</t>
+  </si>
+  <si>
+    <t>སྤོས།</t>
+  </si>
+  <si>
+    <t>གདན།</t>
+  </si>
+  <si>
+    <t>ས་གདན།</t>
+  </si>
+  <si>
+    <t>ཆ་སྒམ།</t>
+  </si>
+  <si>
+    <t>སྒྲོག་ཙེ།</t>
+  </si>
+  <si>
+    <t>ཅོག་ཙེ།</t>
+  </si>
+  <si>
+    <t>རྐབ་བཀྱག</t>
+  </si>
+  <si>
+    <t>ཤོག་བུ།</t>
+  </si>
+  <si>
+    <t>སྨྱུ་གུ།</t>
+  </si>
+  <si>
+    <t>གློག</t>
+  </si>
+  <si>
+    <t>གློག་ཀླད།</t>
+  </si>
+  <si>
+    <t>བརྙན་འཕྲིན།</t>
+  </si>
+  <si>
+    <t>ཉལ་ཁྱི།</t>
+  </si>
+  <si>
+    <t>ཉལ་ཆས།</t>
+  </si>
+  <si>
+    <t>སྒེའུ་ཁུང་།</t>
+  </si>
+  <si>
+    <t>སྒོ།</t>
+  </si>
+  <si>
+    <t>མིག་ཤེལ།</t>
+  </si>
+  <si>
+    <t>སྨན་ཁང་།</t>
+  </si>
+  <si>
+    <t>ནམ་རྒྱུན།</t>
+  </si>
+  <si>
+    <t>དེ་རིང་།</t>
+  </si>
+  <si>
+    <t>སྔོན་མ།</t>
+  </si>
+  <si>
+    <t>མཉམ་དུ།</t>
+  </si>
+  <si>
+    <t>རྒྱབ།</t>
+  </si>
+  <si>
+    <t>རྒྱབ་ལོགས།</t>
+  </si>
+  <si>
+    <t>མདུན།</t>
+  </si>
+  <si>
+    <t>མདུན་ལོགས།</t>
+  </si>
+  <si>
+    <t>འོག</t>
+  </si>
+  <si>
+    <t>བར།</t>
+  </si>
+  <si>
+    <t>བར་རུ།</t>
+  </si>
+  <si>
+    <t>གཉིས་ཀ</t>
+  </si>
+  <si>
+    <t>厨房</t>
+  </si>
+  <si>
+    <t>蛋</t>
+  </si>
+  <si>
+    <t>水果</t>
+  </si>
+  <si>
+    <t>箱子</t>
+  </si>
+  <si>
+    <t>冰箱</t>
+  </si>
+  <si>
+    <t>碟子</t>
+  </si>
+  <si>
+    <t>碗</t>
+  </si>
+  <si>
+    <t>卫生间</t>
+  </si>
+  <si>
+    <t>厕所</t>
+  </si>
+  <si>
+    <t>厕纸</t>
+  </si>
+  <si>
+    <t>牙膏</t>
+  </si>
+  <si>
+    <t>牙刷</t>
+  </si>
+  <si>
+    <t>镜子</t>
+  </si>
+  <si>
+    <t>垃圾桶</t>
+  </si>
+  <si>
+    <t>钱</t>
+  </si>
+  <si>
+    <t>雕像</t>
+  </si>
+  <si>
+    <t>香</t>
+  </si>
+  <si>
+    <t>枕头；毯子</t>
+  </si>
+  <si>
+    <t>毯子</t>
+  </si>
+  <si>
+    <t>橱柜</t>
+  </si>
+  <si>
+    <t>书桌</t>
+  </si>
+  <si>
+    <t>桌子</t>
+  </si>
+  <si>
+    <t>座位；凳子；椅子</t>
+  </si>
+  <si>
+    <t>纸</t>
+  </si>
+  <si>
+    <t>电视</t>
+  </si>
+  <si>
+    <t>电；电灯</t>
+  </si>
+  <si>
+    <t>电脑</t>
+  </si>
+  <si>
+    <t>床</t>
+  </si>
+  <si>
+    <t>床单</t>
+  </si>
+  <si>
+    <t>窗户</t>
+  </si>
+  <si>
+    <t>门</t>
+  </si>
+  <si>
+    <t>眼镜</t>
+  </si>
+  <si>
+    <t>医院</t>
+  </si>
+  <si>
+    <t>通常</t>
+  </si>
+  <si>
+    <t>今天</t>
+  </si>
+  <si>
+    <t>以前</t>
+  </si>
+  <si>
+    <t>一起</t>
+  </si>
+  <si>
+    <t>后面</t>
+  </si>
+  <si>
+    <t>后</t>
+  </si>
+  <si>
+    <t>前面</t>
+  </si>
+  <si>
+    <t>下</t>
+  </si>
+  <si>
+    <t>之间</t>
+  </si>
+  <si>
+    <t>俩</t>
+  </si>
+  <si>
+    <t>台所</t>
+  </si>
+  <si>
+    <t>卵</t>
+  </si>
+  <si>
+    <t>果物</t>
+  </si>
+  <si>
+    <t>箱</t>
+  </si>
+  <si>
+    <t>冷蔵庫</t>
+  </si>
+  <si>
+    <t>皿</t>
+  </si>
+  <si>
+    <t>お手洗い</t>
+  </si>
+  <si>
+    <t>トイレット</t>
+  </si>
+  <si>
+    <t>トイレットペーパー</t>
+  </si>
+  <si>
+    <t>歯磨き</t>
+  </si>
+  <si>
+    <t>歯ブラシ</t>
+  </si>
+  <si>
+    <t>鏡</t>
+  </si>
+  <si>
+    <t>ゴミ箱</t>
+  </si>
+  <si>
+    <t>お金</t>
+  </si>
+  <si>
+    <t>スタチュー</t>
+  </si>
+  <si>
+    <t>線香</t>
+  </si>
+  <si>
+    <t>枕；毛布</t>
+  </si>
+  <si>
+    <t>毛布</t>
+  </si>
+  <si>
+    <t>袋戸棚</t>
+  </si>
+  <si>
+    <t>机</t>
+  </si>
+  <si>
+    <t>テーブル</t>
+  </si>
+  <si>
+    <t>椅子</t>
+  </si>
+  <si>
+    <t>紙</t>
+  </si>
+  <si>
+    <t>万年筆；鉛筆</t>
+  </si>
+  <si>
+    <t>钢笔；铅笔</t>
+  </si>
+  <si>
+    <t>電気</t>
+  </si>
+  <si>
+    <t>コンピューター</t>
+  </si>
+  <si>
+    <t>テレビ</t>
+  </si>
+  <si>
+    <t>ベット</t>
+  </si>
+  <si>
+    <t>敷布</t>
+  </si>
+  <si>
+    <t>窓</t>
+  </si>
+  <si>
+    <t>ドア</t>
+  </si>
+  <si>
+    <t>眼鏡</t>
+  </si>
+  <si>
+    <t>病院</t>
+  </si>
+  <si>
+    <t>今日</t>
+  </si>
+  <si>
+    <t>以前、その前</t>
+  </si>
+  <si>
+    <t>一緒に</t>
+  </si>
+  <si>
+    <t>後</t>
+  </si>
+  <si>
+    <t>前</t>
+  </si>
+  <si>
+    <t>の中</t>
+  </si>
+  <si>
+    <t>二人</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t>fruit</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>refrigerator</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>bowl</t>
+  </si>
+  <si>
+    <t>bathroom</t>
+  </si>
+  <si>
+    <t>toilettes</t>
+  </si>
+  <si>
+    <t>toilette paper</t>
+  </si>
+  <si>
+    <t>toothpaste</t>
+  </si>
+  <si>
+    <t>toothbrush</t>
+  </si>
+  <si>
+    <t>mirror</t>
+  </si>
+  <si>
+    <t>trash can</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>statue</t>
+  </si>
+  <si>
+    <t>incense</t>
+  </si>
+  <si>
+    <t>pillow; carpet</t>
+  </si>
+  <si>
+    <t>carpet</t>
+  </si>
+  <si>
+    <t>cupboard</t>
+  </si>
+  <si>
+    <t>desk</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>chair; sofa</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>pen; pencil</t>
+  </si>
+  <si>
+    <t>computer</t>
+  </si>
+  <si>
+    <t>television</t>
+  </si>
+  <si>
+    <t>bed</t>
+  </si>
+  <si>
+    <t>sheet</t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>door</t>
+  </si>
+  <si>
+    <t>glasses</t>
+  </si>
+  <si>
+    <t>hospital</t>
+  </si>
+  <si>
+    <t>normaly</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>before</t>
+  </si>
+  <si>
+    <t>together</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>backside</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>frontside</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>between</t>
+  </si>
+  <si>
+    <t>two people</t>
+  </si>
+  <si>
+    <t>cuisine (pièce)</t>
+  </si>
+  <si>
+    <t>œuf</t>
+  </si>
+  <si>
+    <t>boîte</t>
+  </si>
+  <si>
+    <t>réfrigérateur</t>
+  </si>
+  <si>
+    <t>assiette</t>
+  </si>
+  <si>
+    <t>bol</t>
+  </si>
+  <si>
+    <t>salle de bains</t>
+  </si>
+  <si>
+    <t>serviette de toilette</t>
+  </si>
+  <si>
+    <t>dentifrice</t>
+  </si>
+  <si>
+    <t>brosse à dents</t>
+  </si>
+  <si>
+    <t>miroir</t>
+  </si>
+  <si>
+    <t>poubelle</t>
+  </si>
+  <si>
+    <t>argent</t>
+  </si>
+  <si>
+    <t>encens</t>
+  </si>
+  <si>
+    <t>coussin ; tapis ; matelas</t>
+  </si>
+  <si>
+    <t>tapis</t>
+  </si>
+  <si>
+    <t>buffet ; placard</t>
+  </si>
+  <si>
+    <t>bureau (meuble)</t>
+  </si>
+  <si>
+    <t>siège ; chaise ; fauteuil</t>
+  </si>
+  <si>
+    <t>papier ; feuille</t>
+  </si>
+  <si>
+    <t>stylo ; crayon</t>
+  </si>
+  <si>
+    <t>electricity; lamp</t>
+  </si>
+  <si>
+    <t>éléctricité ; lampe</t>
+  </si>
+  <si>
+    <t>ordinateur</t>
+  </si>
+  <si>
+    <t>télévision</t>
+  </si>
+  <si>
+    <t>lit</t>
+  </si>
+  <si>
+    <t>drap ; couverture</t>
+  </si>
+  <si>
+    <t>fenêtre</t>
+  </si>
+  <si>
+    <t>porte</t>
+  </si>
+  <si>
+    <t>lunettes</t>
+  </si>
+  <si>
+    <t>hôpital</t>
+  </si>
+  <si>
+    <t>d'habitude ; normalement</t>
+  </si>
+  <si>
+    <t>aujourd'hui</t>
+  </si>
+  <si>
+    <t>autrefois ; avant</t>
+  </si>
+  <si>
+    <t>ensemble</t>
+  </si>
+  <si>
+    <t>derrière ; arrière</t>
+  </si>
+  <si>
+    <t>devant ; avant</t>
+  </si>
+  <si>
+    <t>dessous</t>
+  </si>
+  <si>
+    <t>entre</t>
+  </si>
+  <si>
+    <t>les deux</t>
+  </si>
+  <si>
+    <t>Loc.N.</t>
   </si>
 </sst>
 </file>
@@ -5005,7 +5656,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5283,16 +5934,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R347"/>
+  <dimension ref="A1:R394"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C335" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C256" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K348" sqref="K348"/>
+      <selection pane="bottomRight" activeCell="E321" sqref="E321"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="10.46484375" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.19921875" customWidth="1"/>
@@ -11848,1766 +12499,2847 @@
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="1" t="s">
-        <v>39</v>
+        <v>1643</v>
       </c>
       <c r="B275" t="s">
-        <v>190</v>
+        <v>1644</v>
       </c>
       <c r="D275" t="s">
         <v>40</v>
       </c>
-      <c r="E275" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="J275" t="s">
-        <v>42</v>
+        <v>1691</v>
       </c>
       <c r="K275" t="s">
-        <v>43</v>
+        <v>1734</v>
       </c>
       <c r="L275" t="s">
-        <v>57</v>
+        <v>1775</v>
       </c>
       <c r="M275" t="s">
-        <v>53</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="1" t="s">
-        <v>47</v>
+        <v>1645</v>
       </c>
       <c r="B276" t="s">
-        <v>190</v>
+        <v>1644</v>
       </c>
       <c r="D276" t="s">
         <v>40</v>
       </c>
-      <c r="E276" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="J276" t="s">
-        <v>62</v>
+        <v>1692</v>
       </c>
       <c r="K276" t="s">
-        <v>126</v>
+        <v>1735</v>
       </c>
       <c r="L276" t="s">
-        <v>142</v>
+        <v>1776</v>
       </c>
       <c r="M276" t="s">
-        <v>52</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="1" t="s">
-        <v>48</v>
+        <v>1646</v>
       </c>
       <c r="B277" t="s">
-        <v>190</v>
+        <v>1644</v>
       </c>
       <c r="D277" t="s">
         <v>40</v>
       </c>
+      <c r="J277" t="s">
+        <v>1693</v>
+      </c>
+      <c r="K277" t="s">
+        <v>1736</v>
+      </c>
+      <c r="L277" t="s">
+        <v>1777</v>
+      </c>
       <c r="M277" t="s">
-        <v>58</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="1" t="s">
-        <v>49</v>
+        <v>1647</v>
       </c>
       <c r="B278" t="s">
-        <v>190</v>
+        <v>1644</v>
       </c>
       <c r="D278" t="s">
         <v>40</v>
       </c>
-      <c r="E278" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="J278" t="s">
-        <v>63</v>
+        <v>1694</v>
       </c>
       <c r="K278" t="s">
-        <v>127</v>
+        <v>1737</v>
+      </c>
+      <c r="L278" t="s">
+        <v>1778</v>
       </c>
       <c r="M278" t="s">
-        <v>59</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="1" t="s">
-        <v>50</v>
+        <v>1648</v>
       </c>
       <c r="B279" t="s">
-        <v>190</v>
+        <v>1644</v>
       </c>
       <c r="D279" t="s">
         <v>40</v>
       </c>
-      <c r="E279" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="J279" t="s">
-        <v>64</v>
+        <v>1695</v>
       </c>
       <c r="K279" t="s">
-        <v>128</v>
+        <v>1738</v>
       </c>
       <c r="L279" t="s">
-        <v>143</v>
+        <v>1779</v>
       </c>
       <c r="M279" t="s">
-        <v>60</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="1" t="s">
-        <v>51</v>
+        <v>1649</v>
       </c>
       <c r="B280" t="s">
-        <v>190</v>
+        <v>1644</v>
       </c>
       <c r="D280" t="s">
         <v>40</v>
       </c>
       <c r="J280" t="s">
-        <v>65</v>
+        <v>1696</v>
       </c>
       <c r="K280" t="s">
-        <v>129</v>
+        <v>1739</v>
       </c>
       <c r="L280" t="s">
-        <v>144</v>
+        <v>1780</v>
       </c>
       <c r="M280" t="s">
-        <v>61</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="1" t="s">
-        <v>69</v>
+        <v>1650</v>
       </c>
       <c r="B281" t="s">
-        <v>190</v>
+        <v>1644</v>
       </c>
       <c r="D281" t="s">
         <v>40</v>
       </c>
       <c r="J281" t="s">
-        <v>108</v>
+        <v>1697</v>
       </c>
       <c r="K281" t="s">
-        <v>130</v>
+        <v>736</v>
       </c>
       <c r="L281" t="s">
-        <v>145</v>
+        <v>1781</v>
       </c>
       <c r="M281" t="s">
-        <v>109</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="1" t="s">
-        <v>70</v>
+        <v>1651</v>
       </c>
       <c r="B282" t="s">
-        <v>190</v>
+        <v>1644</v>
       </c>
       <c r="D282" t="s">
         <v>40</v>
       </c>
       <c r="J282" t="s">
-        <v>93</v>
+        <v>1698</v>
       </c>
       <c r="K282" t="s">
-        <v>131</v>
+        <v>1740</v>
       </c>
       <c r="L282" t="s">
-        <v>146</v>
+        <v>1782</v>
       </c>
       <c r="M282" t="s">
-        <v>110</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="1" t="s">
-        <v>71</v>
+        <v>1652</v>
       </c>
       <c r="B283" t="s">
-        <v>190</v>
+        <v>1644</v>
       </c>
       <c r="D283" t="s">
         <v>40</v>
       </c>
       <c r="J283" t="s">
-        <v>94</v>
+        <v>1699</v>
       </c>
       <c r="K283" t="s">
-        <v>94</v>
+        <v>1741</v>
       </c>
       <c r="L283" t="s">
-        <v>147</v>
+        <v>1783</v>
       </c>
       <c r="M283" t="s">
-        <v>111</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="1" t="s">
-        <v>72</v>
+        <v>1653</v>
       </c>
       <c r="B284" t="s">
-        <v>190</v>
+        <v>1644</v>
       </c>
       <c r="D284" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="J284" t="s">
-        <v>95</v>
+        <v>1700</v>
       </c>
       <c r="K284" t="s">
-        <v>132</v>
+        <v>1742</v>
       </c>
       <c r="L284" t="s">
-        <v>148</v>
+        <v>1784</v>
       </c>
       <c r="M284" t="s">
-        <v>112</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="1" t="s">
-        <v>73</v>
+        <v>1654</v>
       </c>
       <c r="B285" t="s">
-        <v>190</v>
+        <v>1644</v>
       </c>
       <c r="D285" t="s">
-        <v>90</v>
-      </c>
-      <c r="E285" s="1" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="J285" t="s">
-        <v>96</v>
+        <v>1701</v>
       </c>
       <c r="K285" t="s">
-        <v>133</v>
+        <v>1743</v>
       </c>
       <c r="L285" t="s">
-        <v>149</v>
+        <v>1785</v>
       </c>
       <c r="M285" t="s">
-        <v>113</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="1" t="s">
-        <v>74</v>
+        <v>1655</v>
       </c>
       <c r="B286" t="s">
-        <v>190</v>
+        <v>1644</v>
       </c>
       <c r="D286" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="J286" t="s">
-        <v>97</v>
+        <v>1702</v>
       </c>
       <c r="K286" t="s">
-        <v>135</v>
+        <v>1744</v>
       </c>
       <c r="L286" t="s">
-        <v>150</v>
+        <v>1786</v>
       </c>
       <c r="M286" t="s">
-        <v>114</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="1" t="s">
-        <v>75</v>
+        <v>1656</v>
       </c>
       <c r="B287" t="s">
-        <v>190</v>
+        <v>1644</v>
       </c>
       <c r="D287" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="J287" t="s">
-        <v>98</v>
+        <v>1703</v>
       </c>
       <c r="K287" t="s">
-        <v>134</v>
+        <v>1745</v>
       </c>
       <c r="L287" t="s">
-        <v>151</v>
+        <v>1787</v>
       </c>
       <c r="M287" t="s">
-        <v>115</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="1" t="s">
-        <v>76</v>
+        <v>1657</v>
       </c>
       <c r="B288" t="s">
-        <v>190</v>
+        <v>1644</v>
       </c>
       <c r="D288" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="J288" t="s">
-        <v>99</v>
+        <v>1704</v>
       </c>
       <c r="K288" t="s">
-        <v>153</v>
+        <v>1746</v>
       </c>
       <c r="L288" t="s">
-        <v>152</v>
+        <v>1788</v>
       </c>
       <c r="M288" t="s">
-        <v>116</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="1" t="s">
-        <v>77</v>
+        <v>1658</v>
       </c>
       <c r="B289" t="s">
-        <v>190</v>
+        <v>1644</v>
       </c>
       <c r="D289" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="J289" t="s">
-        <v>100</v>
+        <v>1705</v>
+      </c>
+      <c r="K289" t="s">
+        <v>1747</v>
       </c>
       <c r="L289" t="s">
-        <v>154</v>
+        <v>1789</v>
       </c>
       <c r="M289" t="s">
-        <v>117</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="1" t="s">
-        <v>78</v>
+        <v>1659</v>
       </c>
       <c r="B290" t="s">
-        <v>190</v>
+        <v>1644</v>
       </c>
       <c r="D290" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="J290" t="s">
-        <v>101</v>
+        <v>1706</v>
       </c>
       <c r="K290" t="s">
-        <v>136</v>
+        <v>1748</v>
       </c>
       <c r="L290" t="s">
-        <v>155</v>
+        <v>1790</v>
       </c>
       <c r="M290" t="s">
-        <v>118</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="1" t="s">
-        <v>79</v>
+        <v>1660</v>
       </c>
       <c r="B291" t="s">
-        <v>190</v>
+        <v>1644</v>
       </c>
       <c r="D291" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="J291" t="s">
-        <v>101</v>
+        <v>1706</v>
       </c>
       <c r="K291" t="s">
-        <v>136</v>
+        <v>1748</v>
       </c>
       <c r="L291" t="s">
-        <v>155</v>
+        <v>1790</v>
       </c>
       <c r="M291" t="s">
-        <v>118</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="1" t="s">
-        <v>80</v>
+        <v>1661</v>
       </c>
       <c r="B292" t="s">
-        <v>190</v>
+        <v>1644</v>
       </c>
       <c r="D292" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="J292" t="s">
-        <v>102</v>
+        <v>1707</v>
       </c>
       <c r="K292" t="s">
-        <v>137</v>
+        <v>1749</v>
       </c>
       <c r="L292" t="s">
-        <v>156</v>
+        <v>1791</v>
       </c>
       <c r="M292" t="s">
-        <v>119</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="1" t="s">
-        <v>81</v>
+        <v>1662</v>
       </c>
       <c r="B293" t="s">
-        <v>190</v>
+        <v>1644</v>
       </c>
       <c r="D293" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="J293" t="s">
-        <v>102</v>
+        <v>1708</v>
       </c>
       <c r="K293" t="s">
-        <v>137</v>
+        <v>1750</v>
       </c>
       <c r="L293" t="s">
-        <v>156</v>
+        <v>1792</v>
       </c>
       <c r="M293" t="s">
-        <v>119</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="1" t="s">
-        <v>82</v>
+        <v>1663</v>
       </c>
       <c r="B294" t="s">
-        <v>190</v>
+        <v>1644</v>
+      </c>
+      <c r="D294" t="s">
+        <v>40</v>
       </c>
       <c r="J294" t="s">
-        <v>103</v>
+        <v>1709</v>
+      </c>
+      <c r="K294" t="s">
+        <v>1751</v>
+      </c>
+      <c r="L294" t="s">
+        <v>1793</v>
       </c>
       <c r="M294" t="s">
-        <v>120</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="1" t="s">
-        <v>83</v>
+        <v>1664</v>
       </c>
       <c r="B295" t="s">
-        <v>190</v>
+        <v>1644</v>
+      </c>
+      <c r="D295" t="s">
+        <v>40</v>
       </c>
       <c r="J295" t="s">
-        <v>104</v>
+        <v>1710</v>
+      </c>
+      <c r="K295" t="s">
+        <v>1752</v>
+      </c>
+      <c r="L295" t="s">
+        <v>1794</v>
       </c>
       <c r="M295" t="s">
-        <v>121</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="1" t="s">
-        <v>84</v>
+        <v>1665</v>
       </c>
       <c r="B296" t="s">
-        <v>190</v>
+        <v>1644</v>
       </c>
       <c r="D296" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="J296" t="s">
-        <v>105</v>
+        <v>1711</v>
       </c>
       <c r="K296" t="s">
-        <v>138</v>
+        <v>1753</v>
       </c>
       <c r="L296" t="s">
-        <v>157</v>
+        <v>1795</v>
       </c>
       <c r="M296" t="s">
-        <v>122</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="1" t="s">
-        <v>85</v>
+        <v>1666</v>
       </c>
       <c r="B297" t="s">
-        <v>190</v>
+        <v>1644</v>
       </c>
       <c r="D297" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="J297" t="s">
-        <v>94</v>
+        <v>1712</v>
       </c>
       <c r="K297" t="s">
-        <v>139</v>
+        <v>1754</v>
       </c>
       <c r="L297" t="s">
-        <v>157</v>
+        <v>1796</v>
       </c>
       <c r="M297" t="s">
-        <v>123</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="1" t="s">
-        <v>86</v>
+        <v>1667</v>
       </c>
       <c r="B298" t="s">
-        <v>190</v>
+        <v>1644</v>
       </c>
       <c r="D298" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="J298" t="s">
-        <v>106</v>
+        <v>1713</v>
       </c>
       <c r="K298" t="s">
-        <v>140</v>
+        <v>1755</v>
       </c>
       <c r="L298" t="s">
-        <v>158</v>
+        <v>1797</v>
       </c>
       <c r="M298" t="s">
-        <v>124</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="1" t="s">
-        <v>87</v>
+        <v>1668</v>
       </c>
       <c r="B299" t="s">
-        <v>190</v>
+        <v>1644</v>
       </c>
       <c r="D299" t="s">
-        <v>27</v>
-      </c>
-      <c r="F299" s="1" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="J299" t="s">
-        <v>107</v>
+        <v>1714</v>
       </c>
       <c r="K299" t="s">
-        <v>141</v>
+        <v>1756</v>
       </c>
       <c r="L299" t="s">
-        <v>159</v>
+        <v>1798</v>
       </c>
       <c r="M299" t="s">
-        <v>125</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="1" t="s">
-        <v>1389</v>
+        <v>1669</v>
       </c>
       <c r="B300" t="s">
-        <v>1388</v>
+        <v>1644</v>
       </c>
       <c r="D300" t="s">
         <v>40</v>
       </c>
       <c r="J300" t="s">
-        <v>1554</v>
+        <v>1758</v>
       </c>
       <c r="K300" t="s">
-        <v>1600</v>
+        <v>1757</v>
       </c>
       <c r="L300" t="s">
-        <v>1515</v>
+        <v>1799</v>
       </c>
       <c r="M300" t="s">
-        <v>1440</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="1" t="s">
-        <v>1401</v>
+        <v>1670</v>
       </c>
       <c r="B301" t="s">
-        <v>1388</v>
+        <v>1644</v>
       </c>
       <c r="D301" t="s">
-        <v>90</v>
-      </c>
-      <c r="E301" s="1" t="s">
-        <v>1443</v>
+        <v>40</v>
       </c>
       <c r="J301" t="s">
-        <v>1555</v>
+        <v>1716</v>
       </c>
       <c r="K301" t="s">
-        <v>1601</v>
+        <v>1759</v>
       </c>
       <c r="L301" t="s">
-        <v>1512</v>
+        <v>1840</v>
       </c>
       <c r="M301" t="s">
-        <v>1441</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="1" t="s">
-        <v>1390</v>
+        <v>1671</v>
       </c>
       <c r="B302" t="s">
-        <v>1388</v>
+        <v>1644</v>
       </c>
       <c r="D302" t="s">
         <v>40</v>
       </c>
-      <c r="E302"/>
       <c r="J302" t="s">
-        <v>1556</v>
+        <v>1717</v>
       </c>
       <c r="K302" t="s">
-        <v>1602</v>
+        <v>1760</v>
       </c>
       <c r="L302" t="s">
-        <v>1513</v>
+        <v>1800</v>
       </c>
       <c r="M302" t="s">
-        <v>1442</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="1" t="s">
-        <v>1391</v>
+        <v>1672</v>
       </c>
       <c r="B303" t="s">
-        <v>1388</v>
+        <v>1644</v>
       </c>
       <c r="D303" t="s">
         <v>40</v>
       </c>
-      <c r="E303"/>
       <c r="J303" t="s">
-        <v>1557</v>
+        <v>1715</v>
       </c>
       <c r="K303" t="s">
-        <v>1603</v>
+        <v>1761</v>
       </c>
       <c r="L303" t="s">
-        <v>1516</v>
+        <v>1801</v>
       </c>
       <c r="M303" t="s">
-        <v>1444</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="1" t="s">
-        <v>1392</v>
+        <v>1673</v>
       </c>
       <c r="B304" t="s">
-        <v>1388</v>
+        <v>1644</v>
       </c>
       <c r="D304" t="s">
         <v>40</v>
       </c>
-      <c r="E304" s="1" t="s">
-        <v>1445</v>
-      </c>
       <c r="J304" t="s">
-        <v>1558</v>
+        <v>1718</v>
       </c>
       <c r="K304" t="s">
-        <v>1604</v>
+        <v>1762</v>
       </c>
       <c r="L304" t="s">
-        <v>1514</v>
+        <v>1802</v>
       </c>
       <c r="M304" t="s">
-        <v>1446</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="1" t="s">
-        <v>1393</v>
+        <v>1674</v>
       </c>
       <c r="B305" t="s">
-        <v>1388</v>
+        <v>1644</v>
       </c>
       <c r="D305" t="s">
         <v>40</v>
       </c>
-      <c r="E305"/>
       <c r="J305" t="s">
-        <v>1559</v>
+        <v>1719</v>
       </c>
       <c r="K305" t="s">
-        <v>1559</v>
+        <v>1763</v>
       </c>
       <c r="L305" t="s">
-        <v>1517</v>
+        <v>1803</v>
       </c>
       <c r="M305" t="s">
-        <v>1447</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="1" t="s">
-        <v>1394</v>
+        <v>1675</v>
       </c>
       <c r="B306" t="s">
-        <v>1388</v>
+        <v>1644</v>
       </c>
       <c r="D306" t="s">
         <v>40</v>
       </c>
-      <c r="E306"/>
       <c r="J306" t="s">
-        <v>1560</v>
+        <v>1720</v>
       </c>
       <c r="K306" t="s">
-        <v>1605</v>
+        <v>1764</v>
       </c>
       <c r="L306" t="s">
-        <v>1518</v>
+        <v>1804</v>
       </c>
       <c r="M306" t="s">
-        <v>1448</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="1" t="s">
-        <v>1395</v>
+        <v>1676</v>
       </c>
       <c r="B307" t="s">
-        <v>1388</v>
+        <v>1644</v>
       </c>
       <c r="D307" t="s">
         <v>40</v>
       </c>
-      <c r="E307"/>
       <c r="J307" t="s">
-        <v>1561</v>
+        <v>1721</v>
       </c>
       <c r="K307" t="s">
-        <v>1606</v>
+        <v>1765</v>
       </c>
       <c r="L307" t="s">
-        <v>1519</v>
+        <v>1805</v>
       </c>
       <c r="M307" t="s">
-        <v>1449</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="1" t="s">
-        <v>1396</v>
+        <v>1677</v>
       </c>
       <c r="B308" t="s">
-        <v>1388</v>
+        <v>1644</v>
       </c>
       <c r="D308" t="s">
-        <v>90</v>
-      </c>
-      <c r="E308" s="1" t="s">
-        <v>1451</v>
+        <v>40</v>
       </c>
       <c r="J308" t="s">
-        <v>1562</v>
+        <v>1722</v>
       </c>
       <c r="K308" t="s">
-        <v>1607</v>
+        <v>1766</v>
       </c>
       <c r="L308" t="s">
-        <v>1520</v>
+        <v>1806</v>
       </c>
       <c r="M308" t="s">
-        <v>1450</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="1" t="s">
-        <v>1397</v>
+        <v>1678</v>
       </c>
       <c r="B309" t="s">
-        <v>1388</v>
+        <v>1644</v>
       </c>
       <c r="D309" t="s">
-        <v>90</v>
-      </c>
-      <c r="E309"/>
+        <v>40</v>
+      </c>
       <c r="J309" t="s">
-        <v>1563</v>
+        <v>1723</v>
       </c>
       <c r="K309" t="s">
-        <v>1608</v>
+        <v>1767</v>
       </c>
       <c r="L309" t="s">
-        <v>1521</v>
+        <v>1807</v>
       </c>
       <c r="M309" t="s">
-        <v>1452</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="1" t="s">
-        <v>1398</v>
+        <v>1679</v>
       </c>
       <c r="B310" t="s">
-        <v>1388</v>
+        <v>1644</v>
       </c>
       <c r="D310" t="s">
-        <v>90</v>
-      </c>
-      <c r="E310"/>
+        <v>91</v>
+      </c>
       <c r="J310" t="s">
-        <v>1564</v>
+        <v>1724</v>
       </c>
       <c r="K310" t="s">
-        <v>1609</v>
+        <v>1636</v>
       </c>
       <c r="L310" t="s">
-        <v>1522</v>
+        <v>1808</v>
       </c>
       <c r="M310" t="s">
-        <v>1453</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="1" t="s">
-        <v>1399</v>
+        <v>1680</v>
       </c>
       <c r="B311" t="s">
-        <v>1388</v>
+        <v>1644</v>
       </c>
       <c r="D311" t="s">
-        <v>90</v>
-      </c>
-      <c r="E311" s="1" t="s">
-        <v>1455</v>
+        <v>91</v>
       </c>
       <c r="J311" t="s">
-        <v>1564</v>
+        <v>1725</v>
       </c>
       <c r="K311" t="s">
-        <v>1610</v>
+        <v>1768</v>
       </c>
       <c r="L311" t="s">
-        <v>1522</v>
+        <v>1809</v>
       </c>
       <c r="M311" t="s">
-        <v>1453</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="1" t="s">
-        <v>1400</v>
+        <v>1681</v>
       </c>
       <c r="B312" t="s">
-        <v>1388</v>
+        <v>1644</v>
       </c>
       <c r="D312" t="s">
-        <v>90</v>
-      </c>
-      <c r="E312"/>
+        <v>91</v>
+      </c>
       <c r="J312" t="s">
-        <v>1565</v>
+        <v>1726</v>
       </c>
       <c r="K312" t="s">
-        <v>1610</v>
+        <v>1769</v>
       </c>
       <c r="L312" t="s">
-        <v>1523</v>
+        <v>1810</v>
       </c>
       <c r="M312" t="s">
-        <v>1454</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="1" t="s">
-        <v>1402</v>
+        <v>1682</v>
       </c>
       <c r="B313" t="s">
-        <v>1388</v>
+        <v>1644</v>
       </c>
       <c r="D313" t="s">
-        <v>90</v>
-      </c>
-      <c r="E313" s="1" t="s">
-        <v>1456</v>
+        <v>91</v>
       </c>
       <c r="J313" t="s">
-        <v>1566</v>
+        <v>1727</v>
       </c>
       <c r="K313" t="s">
-        <v>1611</v>
+        <v>1770</v>
       </c>
       <c r="L313" t="s">
-        <v>1524</v>
+        <v>1811</v>
       </c>
       <c r="M313" t="s">
-        <v>1457</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="1" t="s">
-        <v>1403</v>
+        <v>1683</v>
       </c>
       <c r="B314" t="s">
-        <v>1388</v>
+        <v>1644</v>
       </c>
       <c r="D314" t="s">
-        <v>90</v>
-      </c>
-      <c r="E314"/>
+        <v>1859</v>
+      </c>
       <c r="J314" t="s">
-        <v>1567</v>
+        <v>1729</v>
       </c>
       <c r="K314" t="s">
-        <v>1612</v>
+        <v>1771</v>
       </c>
       <c r="L314" t="s">
-        <v>1525</v>
+        <v>1812</v>
       </c>
       <c r="M314" t="s">
-        <v>1458</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="1" t="s">
-        <v>1460</v>
+        <v>1684</v>
       </c>
       <c r="B315" t="s">
-        <v>1388</v>
+        <v>1644</v>
       </c>
       <c r="D315" t="s">
-        <v>90</v>
-      </c>
-      <c r="E315" s="1" t="s">
-        <v>1461</v>
+        <v>1859</v>
       </c>
       <c r="J315" t="s">
-        <v>1568</v>
+        <v>1728</v>
       </c>
       <c r="K315" t="s">
-        <v>1613</v>
+        <v>1771</v>
       </c>
       <c r="L315" t="s">
-        <v>1526</v>
+        <v>1813</v>
       </c>
       <c r="M315" t="s">
-        <v>1459</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="1" t="s">
-        <v>1404</v>
+        <v>1685</v>
       </c>
       <c r="B316" t="s">
-        <v>1388</v>
+        <v>1644</v>
       </c>
       <c r="D316" t="s">
-        <v>90</v>
-      </c>
-      <c r="E316"/>
+        <v>1859</v>
+      </c>
       <c r="J316" t="s">
-        <v>1569</v>
+        <v>62</v>
       </c>
       <c r="K316" t="s">
-        <v>1614</v>
+        <v>1772</v>
       </c>
       <c r="L316" t="s">
-        <v>1527</v>
+        <v>1814</v>
       </c>
       <c r="M316" t="s">
-        <v>1462</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="1" t="s">
-        <v>1405</v>
+        <v>1686</v>
       </c>
       <c r="B317" t="s">
-        <v>1388</v>
+        <v>1644</v>
       </c>
       <c r="D317" t="s">
-        <v>90</v>
-      </c>
-      <c r="E317"/>
+        <v>1859</v>
+      </c>
       <c r="J317" t="s">
-        <v>1570</v>
+        <v>1730</v>
       </c>
       <c r="K317" t="s">
-        <v>1615</v>
+        <v>1772</v>
       </c>
       <c r="L317" t="s">
-        <v>1528</v>
+        <v>1815</v>
       </c>
       <c r="M317" t="s">
-        <v>1463</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="1" t="s">
-        <v>1406</v>
+        <v>1687</v>
       </c>
       <c r="B318" t="s">
-        <v>1388</v>
+        <v>1644</v>
       </c>
       <c r="D318" t="s">
-        <v>90</v>
-      </c>
-      <c r="E318"/>
+        <v>1859</v>
+      </c>
       <c r="J318" t="s">
-        <v>1572</v>
+        <v>1731</v>
       </c>
       <c r="K318" t="s">
-        <v>1616</v>
+        <v>1731</v>
       </c>
       <c r="L318" t="s">
-        <v>1571</v>
+        <v>1816</v>
       </c>
       <c r="M318" t="s">
-        <v>1464</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="1" t="s">
-        <v>1407</v>
+        <v>1688</v>
       </c>
       <c r="B319" t="s">
-        <v>1388</v>
+        <v>1644</v>
       </c>
       <c r="D319" t="s">
-        <v>90</v>
-      </c>
-      <c r="E319"/>
+        <v>1859</v>
+      </c>
       <c r="J319" t="s">
-        <v>1573</v>
+        <v>1732</v>
       </c>
       <c r="K319" t="s">
-        <v>1617</v>
+        <v>1773</v>
       </c>
       <c r="L319" t="s">
-        <v>1529</v>
+        <v>1817</v>
       </c>
       <c r="M319" t="s">
-        <v>1465</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="1" t="s">
-        <v>1408</v>
+        <v>1689</v>
       </c>
       <c r="B320" t="s">
-        <v>1388</v>
+        <v>1644</v>
       </c>
       <c r="D320" t="s">
-        <v>90</v>
-      </c>
-      <c r="E320" s="1" t="s">
-        <v>1466</v>
+        <v>1859</v>
       </c>
       <c r="J320" t="s">
-        <v>1574</v>
+        <v>1732</v>
       </c>
       <c r="K320" t="s">
-        <v>1618</v>
+        <v>1773</v>
       </c>
       <c r="L320" t="s">
-        <v>1530</v>
+        <v>1817</v>
       </c>
       <c r="M320" t="s">
-        <v>1468</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="1" t="s">
-        <v>1409</v>
+        <v>1690</v>
       </c>
       <c r="B321" t="s">
-        <v>1388</v>
+        <v>1644</v>
       </c>
       <c r="D321" t="s">
-        <v>90</v>
-      </c>
-      <c r="E321" s="1" t="s">
-        <v>1467</v>
+        <v>28</v>
       </c>
       <c r="J321" t="s">
-        <v>1575</v>
+        <v>1733</v>
       </c>
       <c r="K321" t="s">
-        <v>1619</v>
+        <v>1774</v>
       </c>
       <c r="L321" t="s">
-        <v>1531</v>
+        <v>1818</v>
       </c>
       <c r="M321" t="s">
-        <v>1469</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="1" t="s">
-        <v>1410</v>
+        <v>39</v>
       </c>
       <c r="B322" t="s">
-        <v>1388</v>
+        <v>190</v>
       </c>
       <c r="D322" t="s">
-        <v>90</v>
-      </c>
-      <c r="E322"/>
+        <v>40</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="J322" t="s">
-        <v>1577</v>
+        <v>42</v>
       </c>
       <c r="K322" t="s">
-        <v>1620</v>
+        <v>43</v>
       </c>
       <c r="L322" t="s">
-        <v>1532</v>
+        <v>57</v>
       </c>
       <c r="M322" t="s">
-        <v>1470</v>
+        <v>53</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" s="1" t="s">
-        <v>1411</v>
+        <v>47</v>
       </c>
       <c r="B323" t="s">
-        <v>1388</v>
+        <v>190</v>
       </c>
       <c r="D323" t="s">
-        <v>90</v>
-      </c>
-      <c r="E323"/>
+        <v>40</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="J323" t="s">
-        <v>1576</v>
+        <v>62</v>
       </c>
       <c r="K323" t="s">
-        <v>1621</v>
+        <v>126</v>
       </c>
       <c r="L323" t="s">
-        <v>1533</v>
+        <v>142</v>
       </c>
       <c r="M323" t="s">
-        <v>1471</v>
+        <v>52</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" s="1" t="s">
-        <v>1412</v>
+        <v>48</v>
       </c>
       <c r="B324" t="s">
-        <v>1388</v>
+        <v>190</v>
       </c>
       <c r="D324" t="s">
-        <v>90</v>
-      </c>
-      <c r="E324" s="1" t="s">
-        <v>1473</v>
-      </c>
-      <c r="J324" t="s">
-        <v>1578</v>
-      </c>
-      <c r="K324" t="s">
-        <v>1622</v>
-      </c>
-      <c r="L324" t="s">
-        <v>1534</v>
+        <v>40</v>
       </c>
       <c r="M324" t="s">
-        <v>1472</v>
+        <v>58</v>
       </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="1" t="s">
-        <v>1474</v>
+        <v>49</v>
       </c>
       <c r="B325" t="s">
-        <v>1388</v>
+        <v>190</v>
       </c>
       <c r="D325" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>1475</v>
+        <v>67</v>
       </c>
       <c r="J325" t="s">
-        <v>1579</v>
+        <v>63</v>
       </c>
       <c r="K325" t="s">
-        <v>1623</v>
-      </c>
-      <c r="L325" t="s">
-        <v>1535</v>
+        <v>127</v>
       </c>
       <c r="M325" t="s">
-        <v>1477</v>
+        <v>59</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" s="1" t="s">
-        <v>1413</v>
+        <v>50</v>
       </c>
       <c r="B326" t="s">
-        <v>1388</v>
+        <v>190</v>
       </c>
       <c r="D326" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>1476</v>
+        <v>68</v>
       </c>
       <c r="J326" t="s">
-        <v>1580</v>
+        <v>64</v>
       </c>
       <c r="K326" t="s">
-        <v>1624</v>
+        <v>128</v>
       </c>
       <c r="L326" t="s">
-        <v>1479</v>
+        <v>143</v>
       </c>
       <c r="M326" t="s">
-        <v>1478</v>
+        <v>60</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" s="1" t="s">
-        <v>1414</v>
+        <v>51</v>
       </c>
       <c r="B327" t="s">
-        <v>1388</v>
+        <v>190</v>
       </c>
       <c r="D327" t="s">
-        <v>90</v>
-      </c>
-      <c r="E327" s="1" t="s">
-        <v>1480</v>
+        <v>40</v>
       </c>
       <c r="J327" t="s">
-        <v>1581</v>
+        <v>65</v>
       </c>
       <c r="K327" t="s">
-        <v>1625</v>
+        <v>129</v>
       </c>
       <c r="L327" t="s">
-        <v>1536</v>
+        <v>144</v>
       </c>
       <c r="M327" t="s">
-        <v>1482</v>
+        <v>61</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" s="1" t="s">
-        <v>1415</v>
+        <v>69</v>
       </c>
       <c r="B328" t="s">
-        <v>1388</v>
+        <v>190</v>
       </c>
       <c r="D328" t="s">
-        <v>90</v>
-      </c>
-      <c r="E328" s="1" t="s">
-        <v>1481</v>
+        <v>40</v>
       </c>
       <c r="J328" t="s">
-        <v>1581</v>
+        <v>108</v>
       </c>
       <c r="K328" t="s">
-        <v>1625</v>
+        <v>130</v>
       </c>
       <c r="L328" t="s">
-        <v>1536</v>
+        <v>145</v>
       </c>
       <c r="M328" t="s">
-        <v>1482</v>
+        <v>109</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" s="1" t="s">
-        <v>1416</v>
+        <v>70</v>
       </c>
       <c r="B329" t="s">
-        <v>1388</v>
+        <v>190</v>
       </c>
       <c r="D329" t="s">
-        <v>90</v>
-      </c>
-      <c r="E329" s="1" t="s">
-        <v>1484</v>
+        <v>40</v>
       </c>
       <c r="J329" t="s">
-        <v>1582</v>
+        <v>93</v>
       </c>
       <c r="K329" t="s">
-        <v>1626</v>
+        <v>131</v>
       </c>
       <c r="L329" t="s">
-        <v>1485</v>
+        <v>146</v>
       </c>
       <c r="M329" t="s">
-        <v>1483</v>
+        <v>110</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" s="1" t="s">
-        <v>1417</v>
+        <v>71</v>
       </c>
       <c r="B330" t="s">
-        <v>1388</v>
+        <v>190</v>
       </c>
       <c r="D330" t="s">
-        <v>90</v>
-      </c>
-      <c r="E330"/>
+        <v>40</v>
+      </c>
       <c r="J330" t="s">
-        <v>1583</v>
+        <v>94</v>
       </c>
       <c r="K330" t="s">
-        <v>1627</v>
+        <v>94</v>
       </c>
       <c r="L330" t="s">
-        <v>1537</v>
+        <v>147</v>
       </c>
       <c r="M330" t="s">
-        <v>1486</v>
+        <v>111</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" s="1" t="s">
-        <v>1418</v>
+        <v>72</v>
       </c>
       <c r="B331" t="s">
-        <v>1388</v>
+        <v>190</v>
       </c>
       <c r="D331" t="s">
-        <v>90</v>
-      </c>
-      <c r="E331"/>
+        <v>89</v>
+      </c>
       <c r="J331" t="s">
-        <v>1584</v>
+        <v>95</v>
       </c>
       <c r="K331" t="s">
-        <v>1628</v>
+        <v>132</v>
       </c>
       <c r="L331" t="s">
-        <v>1538</v>
+        <v>148</v>
       </c>
       <c r="M331" t="s">
-        <v>1487</v>
+        <v>112</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" s="1" t="s">
-        <v>1419</v>
+        <v>73</v>
       </c>
       <c r="B332" t="s">
-        <v>1388</v>
+        <v>190</v>
       </c>
       <c r="D332" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>1491</v>
+        <v>92</v>
       </c>
       <c r="J332" t="s">
-        <v>1585</v>
+        <v>96</v>
       </c>
       <c r="K332" t="s">
-        <v>1629</v>
+        <v>133</v>
       </c>
       <c r="L332" t="s">
-        <v>1539</v>
+        <v>149</v>
       </c>
       <c r="M332" t="s">
-        <v>1488</v>
+        <v>113</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" s="1" t="s">
-        <v>1420</v>
+        <v>74</v>
       </c>
       <c r="B333" t="s">
-        <v>1388</v>
+        <v>190</v>
       </c>
       <c r="D333" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J333" t="s">
-        <v>918</v>
+        <v>97</v>
       </c>
       <c r="K333" t="s">
-        <v>908</v>
+        <v>135</v>
       </c>
       <c r="L333" t="s">
-        <v>1540</v>
+        <v>150</v>
       </c>
       <c r="M333" t="s">
-        <v>1489</v>
+        <v>114</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" s="1" t="s">
-        <v>1421</v>
+        <v>75</v>
       </c>
       <c r="B334" t="s">
-        <v>1388</v>
+        <v>190</v>
       </c>
       <c r="D334" t="s">
         <v>90</v>
       </c>
-      <c r="E334" s="1" t="s">
-        <v>1492</v>
-      </c>
       <c r="J334" t="s">
-        <v>1586</v>
+        <v>98</v>
       </c>
       <c r="K334" t="s">
-        <v>1630</v>
+        <v>134</v>
       </c>
       <c r="L334" t="s">
-        <v>1541</v>
+        <v>151</v>
       </c>
       <c r="M334" t="s">
-        <v>1490</v>
+        <v>115</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" s="1" t="s">
-        <v>1422</v>
+        <v>76</v>
       </c>
       <c r="B335" t="s">
-        <v>1388</v>
+        <v>190</v>
       </c>
       <c r="D335" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J335" t="s">
-        <v>1587</v>
+        <v>99</v>
       </c>
       <c r="K335" t="s">
-        <v>886</v>
+        <v>153</v>
       </c>
       <c r="L335" t="s">
-        <v>1542</v>
+        <v>152</v>
       </c>
       <c r="M335" t="s">
-        <v>1499</v>
+        <v>116</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" s="1" t="s">
-        <v>1423</v>
+        <v>77</v>
       </c>
       <c r="B336" t="s">
-        <v>1388</v>
+        <v>190</v>
       </c>
       <c r="D336" t="s">
         <v>91</v>
       </c>
-      <c r="E336" s="1" t="s">
-        <v>1493</v>
-      </c>
       <c r="J336" t="s">
-        <v>1588</v>
-      </c>
-      <c r="K336" t="s">
-        <v>1631</v>
+        <v>100</v>
       </c>
       <c r="L336" t="s">
-        <v>1500</v>
+        <v>154</v>
       </c>
       <c r="M336" t="s">
-        <v>1500</v>
+        <v>117</v>
       </c>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" s="1" t="s">
-        <v>1424</v>
+        <v>78</v>
       </c>
       <c r="B337" t="s">
-        <v>1388</v>
+        <v>190</v>
       </c>
       <c r="D337" t="s">
         <v>91</v>
       </c>
       <c r="J337" t="s">
-        <v>1589</v>
+        <v>101</v>
       </c>
       <c r="K337" t="s">
-        <v>1632</v>
+        <v>136</v>
       </c>
       <c r="L337" t="s">
-        <v>1543</v>
+        <v>155</v>
       </c>
       <c r="M337" t="s">
-        <v>1501</v>
+        <v>118</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" s="1" t="s">
-        <v>1425</v>
+        <v>79</v>
       </c>
       <c r="B338" t="s">
-        <v>1388</v>
+        <v>190</v>
       </c>
       <c r="D338" t="s">
         <v>91</v>
       </c>
       <c r="J338" t="s">
-        <v>1590</v>
+        <v>101</v>
       </c>
       <c r="K338" t="s">
-        <v>1633</v>
+        <v>136</v>
       </c>
       <c r="L338" t="s">
-        <v>1544</v>
+        <v>155</v>
       </c>
       <c r="M338" t="s">
-        <v>1502</v>
+        <v>118</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" s="1" t="s">
-        <v>1426</v>
+        <v>80</v>
       </c>
       <c r="B339" t="s">
-        <v>1388</v>
+        <v>190</v>
       </c>
       <c r="D339" t="s">
-        <v>1178</v>
-      </c>
-      <c r="E339" s="1" t="s">
-        <v>1494</v>
+        <v>91</v>
       </c>
       <c r="J339" t="s">
-        <v>1591</v>
+        <v>102</v>
       </c>
       <c r="K339" t="s">
-        <v>1634</v>
+        <v>137</v>
       </c>
       <c r="L339" t="s">
-        <v>1545</v>
+        <v>156</v>
       </c>
       <c r="M339" t="s">
-        <v>1503</v>
+        <v>119</v>
       </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" s="1" t="s">
-        <v>1427</v>
+        <v>81</v>
       </c>
       <c r="B340" t="s">
-        <v>1388</v>
+        <v>190</v>
       </c>
       <c r="D340" t="s">
-        <v>89</v>
-      </c>
-      <c r="E340" s="1" t="s">
-        <v>1495</v>
+        <v>91</v>
       </c>
       <c r="J340" t="s">
-        <v>1592</v>
+        <v>102</v>
       </c>
       <c r="K340" t="s">
-        <v>1635</v>
+        <v>137</v>
       </c>
       <c r="L340" t="s">
-        <v>1546</v>
+        <v>156</v>
       </c>
       <c r="M340" t="s">
-        <v>1504</v>
+        <v>119</v>
       </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" s="1" t="s">
-        <v>1428</v>
+        <v>82</v>
       </c>
       <c r="B341" t="s">
-        <v>1388</v>
-      </c>
-      <c r="D341" t="s">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="J341" t="s">
-        <v>1593</v>
-      </c>
-      <c r="K341" t="s">
-        <v>1636</v>
-      </c>
-      <c r="L341" t="s">
-        <v>1547</v>
+        <v>103</v>
       </c>
       <c r="M341" t="s">
-        <v>1505</v>
+        <v>120</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" s="1" t="s">
-        <v>1429</v>
+        <v>83</v>
       </c>
       <c r="B342" t="s">
-        <v>1388</v>
-      </c>
-      <c r="D342" t="s">
-        <v>91</v>
-      </c>
-      <c r="E342" s="1" t="s">
-        <v>1496</v>
+        <v>190</v>
       </c>
       <c r="J342" t="s">
-        <v>1594</v>
-      </c>
-      <c r="K342" t="s">
-        <v>1637</v>
-      </c>
-      <c r="L342" t="s">
-        <v>1548</v>
+        <v>104</v>
       </c>
       <c r="M342" t="s">
-        <v>1506</v>
+        <v>121</v>
       </c>
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" s="1" t="s">
-        <v>1430</v>
+        <v>84</v>
       </c>
       <c r="B343" t="s">
-        <v>1388</v>
+        <v>190</v>
       </c>
       <c r="D343" t="s">
         <v>27</v>
       </c>
-      <c r="F343" s="1" t="s">
-        <v>1431</v>
-      </c>
       <c r="J343" t="s">
-        <v>1595</v>
+        <v>105</v>
       </c>
       <c r="K343" t="s">
-        <v>1638</v>
+        <v>138</v>
       </c>
       <c r="L343" t="s">
-        <v>1549</v>
+        <v>157</v>
       </c>
       <c r="M343" t="s">
-        <v>1507</v>
+        <v>122</v>
       </c>
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" s="1" t="s">
-        <v>1432</v>
+        <v>85</v>
       </c>
       <c r="B344" t="s">
-        <v>1388</v>
+        <v>190</v>
       </c>
       <c r="D344" t="s">
         <v>27</v>
       </c>
-      <c r="E344" s="1" t="s">
-        <v>1439</v>
-      </c>
-      <c r="G344" s="1" t="s">
-        <v>1433</v>
-      </c>
       <c r="J344" t="s">
-        <v>1596</v>
+        <v>94</v>
       </c>
       <c r="K344" t="s">
-        <v>1639</v>
+        <v>139</v>
       </c>
       <c r="L344" t="s">
-        <v>1550</v>
+        <v>157</v>
       </c>
       <c r="M344" t="s">
-        <v>1508</v>
+        <v>123</v>
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" s="1" t="s">
-        <v>1434</v>
+        <v>86</v>
       </c>
       <c r="B345" t="s">
-        <v>1388</v>
-      </c>
-      <c r="C345" s="1"/>
+        <v>190</v>
+      </c>
       <c r="D345" t="s">
         <v>27</v>
       </c>
-      <c r="E345" s="1" t="s">
-        <v>1497</v>
-      </c>
-      <c r="G345" s="1"/>
       <c r="J345" t="s">
-        <v>1597</v>
+        <v>106</v>
       </c>
       <c r="K345" t="s">
-        <v>1640</v>
+        <v>140</v>
       </c>
       <c r="L345" t="s">
-        <v>1551</v>
+        <v>158</v>
       </c>
       <c r="M345" t="s">
-        <v>1509</v>
+        <v>124</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" s="1" t="s">
-        <v>1435</v>
+        <v>87</v>
       </c>
       <c r="B346" t="s">
-        <v>1388</v>
+        <v>190</v>
       </c>
       <c r="D346" t="s">
         <v>27</v>
       </c>
-      <c r="G346" s="1" t="s">
-        <v>1436</v>
+      <c r="F346" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="J346" t="s">
-        <v>1598</v>
+        <v>107</v>
       </c>
       <c r="K346" t="s">
-        <v>1641</v>
+        <v>141</v>
       </c>
       <c r="L346" t="s">
-        <v>1552</v>
+        <v>159</v>
       </c>
       <c r="M346" t="s">
-        <v>1510</v>
+        <v>125</v>
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" s="1" t="s">
-        <v>1437</v>
+        <v>1389</v>
       </c>
       <c r="B347" t="s">
         <v>1388</v>
       </c>
-      <c r="C347" s="1"/>
       <c r="D347" t="s">
+        <v>40</v>
+      </c>
+      <c r="J347" t="s">
+        <v>1554</v>
+      </c>
+      <c r="K347" t="s">
+        <v>1600</v>
+      </c>
+      <c r="L347" t="s">
+        <v>1515</v>
+      </c>
+      <c r="M347" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A348" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B348" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D348" t="s">
+        <v>90</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="J348" t="s">
+        <v>1555</v>
+      </c>
+      <c r="K348" t="s">
+        <v>1601</v>
+      </c>
+      <c r="L348" t="s">
+        <v>1512</v>
+      </c>
+      <c r="M348" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A349" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D349" t="s">
+        <v>40</v>
+      </c>
+      <c r="E349"/>
+      <c r="J349" t="s">
+        <v>1556</v>
+      </c>
+      <c r="K349" t="s">
+        <v>1602</v>
+      </c>
+      <c r="L349" t="s">
+        <v>1513</v>
+      </c>
+      <c r="M349" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A350" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B350" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D350" t="s">
+        <v>40</v>
+      </c>
+      <c r="E350"/>
+      <c r="J350" t="s">
+        <v>1557</v>
+      </c>
+      <c r="K350" t="s">
+        <v>1603</v>
+      </c>
+      <c r="L350" t="s">
+        <v>1516</v>
+      </c>
+      <c r="M350" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A351" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B351" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D351" t="s">
+        <v>40</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="J351" t="s">
+        <v>1558</v>
+      </c>
+      <c r="K351" t="s">
+        <v>1604</v>
+      </c>
+      <c r="L351" t="s">
+        <v>1514</v>
+      </c>
+      <c r="M351" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A352" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D352" t="s">
+        <v>40</v>
+      </c>
+      <c r="E352"/>
+      <c r="J352" t="s">
+        <v>1559</v>
+      </c>
+      <c r="K352" t="s">
+        <v>1559</v>
+      </c>
+      <c r="L352" t="s">
+        <v>1517</v>
+      </c>
+      <c r="M352" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A353" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D353" t="s">
+        <v>40</v>
+      </c>
+      <c r="E353"/>
+      <c r="J353" t="s">
+        <v>1560</v>
+      </c>
+      <c r="K353" t="s">
+        <v>1605</v>
+      </c>
+      <c r="L353" t="s">
+        <v>1518</v>
+      </c>
+      <c r="M353" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="354" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A354" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D354" t="s">
+        <v>40</v>
+      </c>
+      <c r="E354"/>
+      <c r="J354" t="s">
+        <v>1561</v>
+      </c>
+      <c r="K354" t="s">
+        <v>1606</v>
+      </c>
+      <c r="L354" t="s">
+        <v>1519</v>
+      </c>
+      <c r="M354" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A355" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D355" t="s">
+        <v>90</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="J355" t="s">
+        <v>1562</v>
+      </c>
+      <c r="K355" t="s">
+        <v>1607</v>
+      </c>
+      <c r="L355" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M355" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="356" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A356" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D356" t="s">
+        <v>90</v>
+      </c>
+      <c r="E356"/>
+      <c r="J356" t="s">
+        <v>1563</v>
+      </c>
+      <c r="K356" t="s">
+        <v>1608</v>
+      </c>
+      <c r="L356" t="s">
+        <v>1521</v>
+      </c>
+      <c r="M356" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="357" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A357" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D357" t="s">
+        <v>90</v>
+      </c>
+      <c r="E357"/>
+      <c r="J357" t="s">
+        <v>1564</v>
+      </c>
+      <c r="K357" t="s">
+        <v>1609</v>
+      </c>
+      <c r="L357" t="s">
+        <v>1522</v>
+      </c>
+      <c r="M357" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="358" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A358" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D358" t="s">
+        <v>90</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="J358" t="s">
+        <v>1564</v>
+      </c>
+      <c r="K358" t="s">
+        <v>1610</v>
+      </c>
+      <c r="L358" t="s">
+        <v>1522</v>
+      </c>
+      <c r="M358" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A359" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B359" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D359" t="s">
+        <v>90</v>
+      </c>
+      <c r="E359"/>
+      <c r="J359" t="s">
+        <v>1565</v>
+      </c>
+      <c r="K359" t="s">
+        <v>1610</v>
+      </c>
+      <c r="L359" t="s">
+        <v>1523</v>
+      </c>
+      <c r="M359" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A360" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B360" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D360" t="s">
+        <v>90</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="J360" t="s">
+        <v>1566</v>
+      </c>
+      <c r="K360" t="s">
+        <v>1611</v>
+      </c>
+      <c r="L360" t="s">
+        <v>1524</v>
+      </c>
+      <c r="M360" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="361" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A361" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B361" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D361" t="s">
+        <v>90</v>
+      </c>
+      <c r="E361"/>
+      <c r="J361" t="s">
+        <v>1567</v>
+      </c>
+      <c r="K361" t="s">
+        <v>1612</v>
+      </c>
+      <c r="L361" t="s">
+        <v>1525</v>
+      </c>
+      <c r="M361" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A362" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D362" t="s">
+        <v>90</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="J362" t="s">
+        <v>1568</v>
+      </c>
+      <c r="K362" t="s">
+        <v>1613</v>
+      </c>
+      <c r="L362" t="s">
+        <v>1526</v>
+      </c>
+      <c r="M362" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="363" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A363" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D363" t="s">
+        <v>90</v>
+      </c>
+      <c r="E363"/>
+      <c r="J363" t="s">
+        <v>1569</v>
+      </c>
+      <c r="K363" t="s">
+        <v>1614</v>
+      </c>
+      <c r="L363" t="s">
+        <v>1527</v>
+      </c>
+      <c r="M363" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="364" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A364" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B364" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D364" t="s">
+        <v>90</v>
+      </c>
+      <c r="E364"/>
+      <c r="J364" t="s">
+        <v>1570</v>
+      </c>
+      <c r="K364" t="s">
+        <v>1615</v>
+      </c>
+      <c r="L364" t="s">
+        <v>1528</v>
+      </c>
+      <c r="M364" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="365" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A365" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D365" t="s">
+        <v>90</v>
+      </c>
+      <c r="E365"/>
+      <c r="J365" t="s">
+        <v>1572</v>
+      </c>
+      <c r="K365" t="s">
+        <v>1616</v>
+      </c>
+      <c r="L365" t="s">
+        <v>1571</v>
+      </c>
+      <c r="M365" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="366" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A366" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D366" t="s">
+        <v>90</v>
+      </c>
+      <c r="E366"/>
+      <c r="J366" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K366" t="s">
+        <v>1617</v>
+      </c>
+      <c r="L366" t="s">
+        <v>1529</v>
+      </c>
+      <c r="M366" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="367" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A367" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D367" t="s">
+        <v>90</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="J367" t="s">
+        <v>1574</v>
+      </c>
+      <c r="K367" t="s">
+        <v>1618</v>
+      </c>
+      <c r="L367" t="s">
+        <v>1530</v>
+      </c>
+      <c r="M367" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="368" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A368" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D368" t="s">
+        <v>90</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="J368" t="s">
+        <v>1575</v>
+      </c>
+      <c r="K368" t="s">
+        <v>1619</v>
+      </c>
+      <c r="L368" t="s">
+        <v>1531</v>
+      </c>
+      <c r="M368" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="369" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A369" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D369" t="s">
+        <v>90</v>
+      </c>
+      <c r="E369"/>
+      <c r="J369" t="s">
+        <v>1577</v>
+      </c>
+      <c r="K369" t="s">
+        <v>1620</v>
+      </c>
+      <c r="L369" t="s">
+        <v>1532</v>
+      </c>
+      <c r="M369" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="370" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A370" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D370" t="s">
+        <v>90</v>
+      </c>
+      <c r="E370"/>
+      <c r="J370" t="s">
+        <v>1576</v>
+      </c>
+      <c r="K370" t="s">
+        <v>1621</v>
+      </c>
+      <c r="L370" t="s">
+        <v>1533</v>
+      </c>
+      <c r="M370" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="371" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A371" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D371" t="s">
+        <v>90</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="J371" t="s">
+        <v>1578</v>
+      </c>
+      <c r="K371" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L371" t="s">
+        <v>1534</v>
+      </c>
+      <c r="M371" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="372" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A372" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B372" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D372" t="s">
+        <v>90</v>
+      </c>
+      <c r="E372" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="J372" t="s">
+        <v>1579</v>
+      </c>
+      <c r="K372" t="s">
+        <v>1623</v>
+      </c>
+      <c r="L372" t="s">
+        <v>1535</v>
+      </c>
+      <c r="M372" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="373" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A373" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D373" t="s">
+        <v>90</v>
+      </c>
+      <c r="E373" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="J373" t="s">
+        <v>1580</v>
+      </c>
+      <c r="K373" t="s">
+        <v>1624</v>
+      </c>
+      <c r="L373" t="s">
+        <v>1479</v>
+      </c>
+      <c r="M373" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="374" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A374" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D374" t="s">
+        <v>90</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J374" t="s">
+        <v>1581</v>
+      </c>
+      <c r="K374" t="s">
+        <v>1625</v>
+      </c>
+      <c r="L374" t="s">
+        <v>1536</v>
+      </c>
+      <c r="M374" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="375" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A375" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D375" t="s">
+        <v>90</v>
+      </c>
+      <c r="E375" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="J375" t="s">
+        <v>1581</v>
+      </c>
+      <c r="K375" t="s">
+        <v>1625</v>
+      </c>
+      <c r="L375" t="s">
+        <v>1536</v>
+      </c>
+      <c r="M375" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="376" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A376" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D376" t="s">
+        <v>90</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="J376" t="s">
+        <v>1582</v>
+      </c>
+      <c r="K376" t="s">
+        <v>1626</v>
+      </c>
+      <c r="L376" t="s">
+        <v>1485</v>
+      </c>
+      <c r="M376" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="377" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A377" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D377" t="s">
+        <v>90</v>
+      </c>
+      <c r="E377"/>
+      <c r="J377" t="s">
+        <v>1583</v>
+      </c>
+      <c r="K377" t="s">
+        <v>1627</v>
+      </c>
+      <c r="L377" t="s">
+        <v>1537</v>
+      </c>
+      <c r="M377" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A378" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D378" t="s">
+        <v>90</v>
+      </c>
+      <c r="E378"/>
+      <c r="J378" t="s">
+        <v>1584</v>
+      </c>
+      <c r="K378" t="s">
+        <v>1628</v>
+      </c>
+      <c r="L378" t="s">
+        <v>1538</v>
+      </c>
+      <c r="M378" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A379" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B379" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D379" t="s">
+        <v>89</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="J379" t="s">
+        <v>1585</v>
+      </c>
+      <c r="K379" t="s">
+        <v>1629</v>
+      </c>
+      <c r="L379" t="s">
+        <v>1539</v>
+      </c>
+      <c r="M379" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="380" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A380" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D380" t="s">
+        <v>91</v>
+      </c>
+      <c r="J380" t="s">
+        <v>918</v>
+      </c>
+      <c r="K380" t="s">
+        <v>908</v>
+      </c>
+      <c r="L380" t="s">
+        <v>1540</v>
+      </c>
+      <c r="M380" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="381" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A381" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B381" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D381" t="s">
+        <v>90</v>
+      </c>
+      <c r="E381" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="J381" t="s">
+        <v>1586</v>
+      </c>
+      <c r="K381" t="s">
+        <v>1630</v>
+      </c>
+      <c r="L381" t="s">
+        <v>1541</v>
+      </c>
+      <c r="M381" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="382" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A382" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B382" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D382" t="s">
+        <v>91</v>
+      </c>
+      <c r="J382" t="s">
+        <v>1587</v>
+      </c>
+      <c r="K382" t="s">
+        <v>886</v>
+      </c>
+      <c r="L382" t="s">
+        <v>1542</v>
+      </c>
+      <c r="M382" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="383" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A383" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B383" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D383" t="s">
+        <v>91</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="J383" t="s">
+        <v>1588</v>
+      </c>
+      <c r="K383" t="s">
+        <v>1631</v>
+      </c>
+      <c r="L383" t="s">
+        <v>1500</v>
+      </c>
+      <c r="M383" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="384" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A384" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D384" t="s">
+        <v>91</v>
+      </c>
+      <c r="J384" t="s">
+        <v>1589</v>
+      </c>
+      <c r="K384" t="s">
+        <v>1632</v>
+      </c>
+      <c r="L384" t="s">
+        <v>1543</v>
+      </c>
+      <c r="M384" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="385" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A385" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D385" t="s">
+        <v>91</v>
+      </c>
+      <c r="J385" t="s">
+        <v>1590</v>
+      </c>
+      <c r="K385" t="s">
+        <v>1633</v>
+      </c>
+      <c r="L385" t="s">
+        <v>1544</v>
+      </c>
+      <c r="M385" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="386" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A386" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B386" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D386" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J386" t="s">
+        <v>1591</v>
+      </c>
+      <c r="K386" t="s">
+        <v>1634</v>
+      </c>
+      <c r="L386" t="s">
+        <v>1545</v>
+      </c>
+      <c r="M386" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="387" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A387" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D387" t="s">
+        <v>89</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="J387" t="s">
+        <v>1592</v>
+      </c>
+      <c r="K387" t="s">
+        <v>1635</v>
+      </c>
+      <c r="L387" t="s">
+        <v>1546</v>
+      </c>
+      <c r="M387" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="388" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A388" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B388" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D388" t="s">
+        <v>91</v>
+      </c>
+      <c r="J388" t="s">
+        <v>1593</v>
+      </c>
+      <c r="K388" t="s">
+        <v>1636</v>
+      </c>
+      <c r="L388" t="s">
+        <v>1547</v>
+      </c>
+      <c r="M388" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="389" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A389" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B389" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D389" t="s">
+        <v>91</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J389" t="s">
+        <v>1594</v>
+      </c>
+      <c r="K389" t="s">
+        <v>1637</v>
+      </c>
+      <c r="L389" t="s">
+        <v>1548</v>
+      </c>
+      <c r="M389" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="390" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A390" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D390" t="s">
         <v>27</v>
       </c>
-      <c r="E347" s="1" t="s">
+      <c r="F390" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="J390" t="s">
+        <v>1595</v>
+      </c>
+      <c r="K390" t="s">
+        <v>1638</v>
+      </c>
+      <c r="L390" t="s">
+        <v>1549</v>
+      </c>
+      <c r="M390" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="391" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A391" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B391" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D391" t="s">
+        <v>27</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="G391" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="J391" t="s">
+        <v>1596</v>
+      </c>
+      <c r="K391" t="s">
+        <v>1639</v>
+      </c>
+      <c r="L391" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M391" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="392" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A392" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B392" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C392" s="1"/>
+      <c r="D392" t="s">
+        <v>27</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="G392" s="1"/>
+      <c r="J392" t="s">
+        <v>1597</v>
+      </c>
+      <c r="K392" t="s">
+        <v>1640</v>
+      </c>
+      <c r="L392" t="s">
+        <v>1551</v>
+      </c>
+      <c r="M392" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="393" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A393" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B393" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D393" t="s">
+        <v>27</v>
+      </c>
+      <c r="G393" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="J393" t="s">
+        <v>1598</v>
+      </c>
+      <c r="K393" t="s">
+        <v>1641</v>
+      </c>
+      <c r="L393" t="s">
+        <v>1552</v>
+      </c>
+      <c r="M393" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="394" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A394" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B394" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C394" s="1"/>
+      <c r="D394" t="s">
+        <v>27</v>
+      </c>
+      <c r="E394" s="1" t="s">
         <v>1498</v>
       </c>
-      <c r="F347" s="1" t="s">
+      <c r="F394" s="1" t="s">
         <v>1438</v>
       </c>
-      <c r="J347" t="s">
+      <c r="J394" t="s">
         <v>1599</v>
       </c>
-      <c r="K347" t="s">
+      <c r="K394" t="s">
         <v>1642</v>
       </c>
-      <c r="L347" t="s">
+      <c r="L394" t="s">
         <v>1553</v>
       </c>
-      <c r="M347" t="s">
+      <c r="M394" t="s">
         <v>1511</v>
       </c>
     </row>

--- a/dictionary/Vocab.xlsx
+++ b/dictionary/Vocab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_Trae\TibetanNote\dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC573BB0-ECAA-4D49-B80E-6B6FACA9DB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF58CEB-FFC9-4662-B4E9-AD1A379DF3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3594,9 +3594,6 @@
     <t>འཁྲིས།</t>
   </si>
   <si>
-    <t>འཀྱིས།</t>
-  </si>
-  <si>
     <t>སྒང་།</t>
   </si>
   <si>
@@ -5605,6 +5602,9 @@
   </si>
   <si>
     <t>Loc.N.</t>
+  </si>
+  <si>
+    <t>དཀྱིས།</t>
   </si>
 </sst>
 </file>
@@ -5937,10 +5937,10 @@
   <dimension ref="A1:R394"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C256" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C232" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E321" sqref="E321"/>
+      <selection pane="bottomRight" activeCell="C238" sqref="C238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.55000000000000004"/>
@@ -11305,22 +11305,22 @@
         <v>1180</v>
       </c>
       <c r="B224" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D224" t="s">
         <v>40</v>
       </c>
       <c r="J224" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="K224" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="L224" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="M224" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -11328,22 +11328,22 @@
         <v>1181</v>
       </c>
       <c r="B225" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D225" t="s">
         <v>40</v>
       </c>
       <c r="J225" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="K225" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="L225" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="M225" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -11351,22 +11351,22 @@
         <v>1182</v>
       </c>
       <c r="B226" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D226" t="s">
         <v>40</v>
       </c>
       <c r="J226" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="K226" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="L226" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="M226" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -11374,22 +11374,22 @@
         <v>1183</v>
       </c>
       <c r="B227" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D227" t="s">
         <v>40</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="K227" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="L227" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="M227" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -11397,22 +11397,22 @@
         <v>1184</v>
       </c>
       <c r="B228" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D228" t="s">
         <v>40</v>
       </c>
       <c r="J228" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="K228" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="L228" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="M228" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -11420,25 +11420,25 @@
         <v>1185</v>
       </c>
       <c r="B229" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D229" t="s">
         <v>40</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="J229" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="K229" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="L229" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="M229" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -11446,22 +11446,22 @@
         <v>1186</v>
       </c>
       <c r="B230" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D230" t="s">
         <v>40</v>
       </c>
       <c r="J230" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="K230" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="L230" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="M230" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -11469,97 +11469,97 @@
         <v>1187</v>
       </c>
       <c r="B231" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D231" t="s">
         <v>40</v>
       </c>
       <c r="J231" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="K231" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="L231" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="M231" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D232" t="s">
+        <v>40</v>
+      </c>
+      <c r="E232" s="1" t="s">
         <v>1215</v>
       </c>
-      <c r="B232" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D232" t="s">
-        <v>40</v>
-      </c>
-      <c r="E232" s="1" t="s">
-        <v>1216</v>
-      </c>
       <c r="J232" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="K232" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="L232" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="M232" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B233" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D233" t="s">
         <v>40</v>
       </c>
       <c r="J233" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="K233" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="L233" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="M233" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B234" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D234" t="s">
         <v>40</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="J234" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="K234" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="L234" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="M234" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -11567,91 +11567,91 @@
         <v>1188</v>
       </c>
       <c r="B235" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D235" t="s">
         <v>40</v>
       </c>
       <c r="J235" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="K235" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="L235" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="M235" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="1" t="s">
-        <v>1189</v>
+        <v>1859</v>
       </c>
       <c r="B236" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D236" t="s">
         <v>40</v>
       </c>
       <c r="J236" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="K236" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="L236" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="M236" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B237" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D237" t="s">
         <v>40</v>
       </c>
       <c r="J237" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="K237" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="L237" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="M237" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B238" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D238" t="s">
         <v>40</v>
       </c>
       <c r="J238" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="K238" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="L238" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="M238" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -11659,13 +11659,13 @@
         <v>743</v>
       </c>
       <c r="B239" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D239" t="s">
         <v>40</v>
       </c>
       <c r="J239" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="K239" t="s">
         <v>794</v>
@@ -11679,22 +11679,22 @@
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B240" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D240" t="s">
         <v>40</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J240" t="s">
         <v>770</v>
       </c>
       <c r="K240" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="L240" t="s">
         <v>785</v>
@@ -11705,376 +11705,376 @@
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B241" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D241" t="s">
         <v>40</v>
       </c>
       <c r="J241" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="K241" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="L241" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="M241" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B242" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D242" t="s">
         <v>40</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J242" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="K242" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="L242" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="M242" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B243" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D243" t="s">
         <v>40</v>
       </c>
       <c r="J243" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="K243" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="L243" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="M243" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B244" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D244" t="s">
         <v>91</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J244" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="K244" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="L244" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="M244" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B245" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D245" t="s">
         <v>91</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J245" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="K245" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="L245" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="M245" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B246" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D246" t="s">
         <v>40</v>
       </c>
       <c r="J246" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="K246" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="L246" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="M246" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B247" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D247" t="s">
         <v>40</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="J247" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="K247" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="L247" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="M247" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B248" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D248" t="s">
         <v>40</v>
       </c>
       <c r="J248" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="K248" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="L248" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="M248" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B249" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D249" t="s">
         <v>40</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J249" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="K249" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="L249" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="M249" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B250" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D250" t="s">
         <v>40</v>
       </c>
       <c r="J250" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="K250" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="L250" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="M250" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B251" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D251" t="s">
         <v>40</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="J251" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="K251" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="L251" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="M251" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B252" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D252" t="s">
         <v>40</v>
       </c>
       <c r="J252" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="K252" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="L252" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="M252" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D253" t="s">
+        <v>40</v>
+      </c>
+      <c r="E253" s="1" t="s">
         <v>1226</v>
       </c>
-      <c r="B253" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D253" t="s">
-        <v>40</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>1227</v>
-      </c>
       <c r="J253" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="K253" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="L253" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="M253" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B254" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D254" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="J254" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="K254" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="L254" t="s">
         <v>792</v>
       </c>
       <c r="M254" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="B255" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D255" t="s">
         <v>413</v>
       </c>
       <c r="J255" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="K255" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="L255" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="M255" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B256" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D256" t="s">
         <v>28</v>
@@ -12083,1499 +12083,1499 @@
         <v>169</v>
       </c>
       <c r="K256" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="L256" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="M256" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="B257" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D257" t="s">
         <v>1178</v>
       </c>
       <c r="J257" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="K257" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="L257" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="M257" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B258" t="s">
         <v>1208</v>
-      </c>
-      <c r="B258" t="s">
-        <v>1209</v>
       </c>
       <c r="D258" t="s">
         <v>1178</v>
       </c>
       <c r="J258" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="K258" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="L258" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="M258" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B259" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D259" t="s">
         <v>201</v>
       </c>
       <c r="J259" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="K259" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="L259" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="M259" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="1" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B260" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D260" t="s">
         <v>201</v>
       </c>
       <c r="J260" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="K260" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="L260" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="M260" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B261" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D261" t="s">
         <v>201</v>
       </c>
       <c r="J261" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="K261" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="L261" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="M261" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="1" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B262" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D262" t="s">
         <v>201</v>
       </c>
       <c r="J262" t="s">
+        <v>1346</v>
+      </c>
+      <c r="K262" t="s">
+        <v>1380</v>
+      </c>
+      <c r="L262" t="s">
         <v>1347</v>
       </c>
-      <c r="K262" t="s">
-        <v>1381</v>
-      </c>
-      <c r="L262" t="s">
-        <v>1348</v>
-      </c>
       <c r="M262" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="1" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B263" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D263" t="s">
         <v>201</v>
       </c>
       <c r="L263" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="M263" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="1" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B264" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D264" t="s">
         <v>201</v>
       </c>
       <c r="J264" t="s">
+        <v>1349</v>
+      </c>
+      <c r="K264" t="s">
         <v>1350</v>
       </c>
-      <c r="K264" t="s">
-        <v>1351</v>
-      </c>
       <c r="L264" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="M264" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="1" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B265" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D265" t="s">
         <v>201</v>
       </c>
       <c r="J265" t="s">
+        <v>1351</v>
+      </c>
+      <c r="K265" t="s">
+        <v>1354</v>
+      </c>
+      <c r="L265" t="s">
         <v>1352</v>
       </c>
-      <c r="K265" t="s">
-        <v>1355</v>
-      </c>
-      <c r="L265" t="s">
-        <v>1353</v>
-      </c>
       <c r="M265" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="1" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B266" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D266" t="s">
         <v>201</v>
       </c>
       <c r="J266" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="K266" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="L266" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="M266" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="1" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B267" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D267" t="s">
         <v>201</v>
       </c>
       <c r="J267" t="s">
+        <v>1356</v>
+      </c>
+      <c r="L267" t="s">
         <v>1357</v>
       </c>
-      <c r="L267" t="s">
-        <v>1358</v>
-      </c>
       <c r="M267" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="1" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B268" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D268" t="s">
         <v>201</v>
       </c>
       <c r="J268" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="K268" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="L268" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="M268" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="1" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B269" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D269" t="s">
         <v>201</v>
       </c>
       <c r="J269" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="K269" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="L269" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="M269" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="1" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B270" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D270" t="s">
         <v>201</v>
       </c>
       <c r="J270" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="K270" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="L270" t="s">
+        <v>1371</v>
+      </c>
+      <c r="M270" t="s">
         <v>1372</v>
-      </c>
-      <c r="M270" t="s">
-        <v>1373</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="1" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B271" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D271" t="s">
         <v>201</v>
       </c>
       <c r="J271" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="K271" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="L271" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="M271" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="1" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B272" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D272" t="s">
         <v>201</v>
       </c>
       <c r="J272" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="K272" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="L272" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="M272" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="1" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B273" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D273" t="s">
         <v>201</v>
       </c>
       <c r="J273" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="K273" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="L273" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="M273" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="1" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B274" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D274" t="s">
         <v>201</v>
       </c>
       <c r="J274" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="K274" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="L274" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="M274" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="1" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B275" t="s">
         <v>1643</v>
       </c>
-      <c r="B275" t="s">
-        <v>1644</v>
-      </c>
       <c r="D275" t="s">
         <v>40</v>
       </c>
       <c r="J275" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="K275" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="L275" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="M275" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="1" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="B276" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D276" t="s">
         <v>40</v>
       </c>
       <c r="J276" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="K276" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="L276" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="M276" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="1" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B277" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D277" t="s">
         <v>40</v>
       </c>
       <c r="J277" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="K277" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="L277" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="M277" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="1" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B278" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D278" t="s">
         <v>40</v>
       </c>
       <c r="J278" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="K278" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="L278" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="M278" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="1" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="B279" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D279" t="s">
         <v>40</v>
       </c>
       <c r="J279" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="K279" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="L279" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="M279" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="1" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B280" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D280" t="s">
         <v>40</v>
       </c>
       <c r="J280" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="K280" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="L280" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="M280" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="1" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B281" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D281" t="s">
         <v>40</v>
       </c>
       <c r="J281" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="K281" t="s">
         <v>736</v>
       </c>
       <c r="L281" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="M281" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="1" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B282" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D282" t="s">
         <v>40</v>
       </c>
       <c r="J282" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="K282" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="L282" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="M282" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="1" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="B283" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D283" t="s">
         <v>40</v>
       </c>
       <c r="J283" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="K283" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="L283" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="M283" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="1" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B284" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D284" t="s">
         <v>40</v>
       </c>
       <c r="J284" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="K284" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="L284" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="M284" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="1" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="B285" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D285" t="s">
         <v>40</v>
       </c>
       <c r="J285" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="K285" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="L285" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="M285" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="1" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="B286" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D286" t="s">
         <v>40</v>
       </c>
       <c r="J286" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="K286" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="L286" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="M286" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="1" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B287" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D287" t="s">
         <v>40</v>
       </c>
       <c r="J287" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="K287" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="L287" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="M287" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="1" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="B288" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D288" t="s">
         <v>40</v>
       </c>
       <c r="J288" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="K288" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="L288" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="M288" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="1" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B289" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D289" t="s">
         <v>40</v>
       </c>
       <c r="J289" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="K289" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="L289" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="M289" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="1" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="B290" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D290" t="s">
         <v>40</v>
       </c>
       <c r="J290" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="K290" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="L290" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="M290" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="1" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B291" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D291" t="s">
         <v>40</v>
       </c>
       <c r="J291" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="K291" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="L291" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="M291" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="1" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="B292" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D292" t="s">
         <v>40</v>
       </c>
       <c r="J292" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="K292" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="L292" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="M292" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="1" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="B293" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D293" t="s">
         <v>40</v>
       </c>
       <c r="J293" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="K293" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="L293" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="M293" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="B294" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D294" t="s">
         <v>40</v>
       </c>
       <c r="J294" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="K294" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="L294" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="M294" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="1" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B295" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D295" t="s">
         <v>40</v>
       </c>
       <c r="J295" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="K295" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="L295" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="M295" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="1" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="B296" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D296" t="s">
         <v>40</v>
       </c>
       <c r="J296" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="K296" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="L296" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="M296" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="B297" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D297" t="s">
         <v>40</v>
       </c>
       <c r="J297" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="K297" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="L297" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="M297" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="1" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="B298" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D298" t="s">
         <v>40</v>
       </c>
       <c r="J298" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="K298" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="L298" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="M298" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="1" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="B299" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D299" t="s">
         <v>40</v>
       </c>
       <c r="J299" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="K299" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="L299" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="M299" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="1" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="B300" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D300" t="s">
         <v>40</v>
       </c>
       <c r="J300" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="K300" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="L300" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="M300" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="1" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="B301" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D301" t="s">
         <v>40</v>
       </c>
       <c r="J301" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="K301" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="L301" t="s">
+        <v>1839</v>
+      </c>
+      <c r="M301" t="s">
         <v>1840</v>
-      </c>
-      <c r="M301" t="s">
-        <v>1841</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="1" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="B302" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D302" t="s">
         <v>40</v>
       </c>
       <c r="J302" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="K302" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="L302" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="M302" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="1" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="B303" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D303" t="s">
         <v>40</v>
       </c>
       <c r="J303" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="K303" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="L303" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="M303" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="1" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="B304" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D304" t="s">
         <v>40</v>
       </c>
       <c r="J304" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="K304" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="L304" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="M304" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="1" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="B305" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D305" t="s">
         <v>40</v>
       </c>
       <c r="J305" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="K305" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="L305" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="M305" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="1" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="B306" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D306" t="s">
         <v>40</v>
       </c>
       <c r="J306" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="K306" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="L306" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="M306" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="1" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="B307" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D307" t="s">
         <v>40</v>
       </c>
       <c r="J307" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="K307" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="L307" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="M307" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="1" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="B308" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D308" t="s">
         <v>40</v>
       </c>
       <c r="J308" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="K308" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="L308" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="M308" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B309" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D309" t="s">
         <v>40</v>
       </c>
       <c r="J309" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="K309" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="L309" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="M309" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="1" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="B310" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D310" t="s">
         <v>91</v>
       </c>
       <c r="J310" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="K310" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="L310" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="M310" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="B311" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D311" t="s">
         <v>91</v>
       </c>
       <c r="J311" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="K311" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="L311" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="M311" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="1" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="B312" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D312" t="s">
         <v>91</v>
       </c>
       <c r="J312" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="K312" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="L312" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="M312" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="1" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="B313" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D313" t="s">
         <v>91</v>
       </c>
       <c r="J313" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="K313" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="L313" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="M313" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="1" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="B314" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D314" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="J314" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="K314" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="L314" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="M314" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="1" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="B315" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D315" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="J315" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="K315" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="L315" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="M315" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="1" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="B316" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D316" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="J316" t="s">
         <v>62</v>
       </c>
       <c r="K316" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="L316" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="M316" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="1" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="B317" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D317" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="J317" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="K317" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="L317" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="M317" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="1" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B318" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D318" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="J318" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="K318" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="L318" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="M318" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="1" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B319" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D319" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="J319" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="K319" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="L319" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="M319" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="1" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B320" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D320" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="J320" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="K320" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="L320" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="M320" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="1" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B321" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D321" t="s">
         <v>28</v>
       </c>
       <c r="J321" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="K321" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="L321" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="M321" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -14140,831 +14140,831 @@
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" s="1" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B347" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D347" t="s">
         <v>40</v>
       </c>
       <c r="J347" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="K347" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="L347" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="M347" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" s="1" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B348" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D348" t="s">
         <v>90</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="J348" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="K348" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="L348" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="M348" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" s="1" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B349" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D349" t="s">
         <v>40</v>
       </c>
       <c r="E349"/>
       <c r="J349" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="K349" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="L349" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="M349" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" s="1" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B350" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D350" t="s">
         <v>40</v>
       </c>
       <c r="E350"/>
       <c r="J350" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="K350" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="L350" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="M350" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" s="1" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B351" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D351" t="s">
         <v>40</v>
       </c>
       <c r="E351" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="J351" t="s">
+        <v>1557</v>
+      </c>
+      <c r="K351" t="s">
+        <v>1603</v>
+      </c>
+      <c r="L351" t="s">
+        <v>1513</v>
+      </c>
+      <c r="M351" t="s">
         <v>1445</v>
-      </c>
-      <c r="J351" t="s">
-        <v>1558</v>
-      </c>
-      <c r="K351" t="s">
-        <v>1604</v>
-      </c>
-      <c r="L351" t="s">
-        <v>1514</v>
-      </c>
-      <c r="M351" t="s">
-        <v>1446</v>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" s="1" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B352" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D352" t="s">
         <v>40</v>
       </c>
       <c r="E352"/>
       <c r="J352" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="K352" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="L352" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="M352" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" s="1" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B353" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D353" t="s">
         <v>40</v>
       </c>
       <c r="E353"/>
       <c r="J353" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="K353" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="L353" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="M353" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" s="1" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B354" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D354" t="s">
         <v>40</v>
       </c>
       <c r="E354"/>
       <c r="J354" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="K354" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="L354" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="M354" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" s="1" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B355" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D355" t="s">
         <v>90</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="J355" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="K355" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="L355" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="M355" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" s="1" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B356" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D356" t="s">
         <v>90</v>
       </c>
       <c r="E356"/>
       <c r="J356" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="K356" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="L356" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="M356" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" s="1" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B357" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D357" t="s">
         <v>90</v>
       </c>
       <c r="E357"/>
       <c r="J357" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K357" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="L357" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="M357" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" s="1" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B358" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D358" t="s">
         <v>90</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="J358" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="K358" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="L358" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="M358" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" s="1" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B359" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D359" t="s">
         <v>90</v>
       </c>
       <c r="E359"/>
       <c r="J359" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="K359" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="L359" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="M359" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" s="1" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B360" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D360" t="s">
         <v>90</v>
       </c>
       <c r="E360" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="J360" t="s">
+        <v>1565</v>
+      </c>
+      <c r="K360" t="s">
+        <v>1610</v>
+      </c>
+      <c r="L360" t="s">
+        <v>1523</v>
+      </c>
+      <c r="M360" t="s">
         <v>1456</v>
-      </c>
-      <c r="J360" t="s">
-        <v>1566</v>
-      </c>
-      <c r="K360" t="s">
-        <v>1611</v>
-      </c>
-      <c r="L360" t="s">
-        <v>1524</v>
-      </c>
-      <c r="M360" t="s">
-        <v>1457</v>
       </c>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" s="1" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B361" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D361" t="s">
         <v>90</v>
       </c>
       <c r="E361"/>
       <c r="J361" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="K361" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="L361" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="M361" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" s="1" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B362" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D362" t="s">
         <v>90</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="J362" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="K362" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="L362" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="M362" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" s="1" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B363" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D363" t="s">
         <v>90</v>
       </c>
       <c r="E363"/>
       <c r="J363" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="K363" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="L363" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="M363" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" s="1" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B364" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D364" t="s">
         <v>90</v>
       </c>
       <c r="E364"/>
       <c r="J364" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="K364" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="L364" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="M364" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" s="1" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B365" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D365" t="s">
         <v>90</v>
       </c>
       <c r="E365"/>
       <c r="J365" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="K365" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="L365" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="M365" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" s="1" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B366" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D366" t="s">
         <v>90</v>
       </c>
       <c r="E366"/>
       <c r="J366" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="K366" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="L366" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="M366" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" s="1" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B367" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D367" t="s">
         <v>90</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="J367" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="K367" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="L367" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="M367" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" s="1" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B368" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D368" t="s">
         <v>90</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="J368" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="K368" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="L368" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="M368" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" s="1" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B369" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D369" t="s">
         <v>90</v>
       </c>
       <c r="E369"/>
       <c r="J369" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="K369" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="L369" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="M369" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="370" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" s="1" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B370" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D370" t="s">
         <v>90</v>
       </c>
       <c r="E370"/>
       <c r="J370" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="K370" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="L370" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="M370" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" s="1" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B371" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D371" t="s">
         <v>90</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="J371" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="K371" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="L371" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="M371" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B372" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D372" t="s">
         <v>90</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="J372" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="K372" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="L372" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="M372" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" s="1" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B373" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D373" t="s">
         <v>90</v>
       </c>
       <c r="E373" s="1" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="J373" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="K373" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="L373" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="M373" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" s="1" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B374" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D374" t="s">
         <v>90</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="J374" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="K374" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="L374" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="M374" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" s="1" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B375" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D375" t="s">
         <v>90</v>
       </c>
       <c r="E375" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J375" t="s">
+        <v>1580</v>
+      </c>
+      <c r="K375" t="s">
+        <v>1624</v>
+      </c>
+      <c r="L375" t="s">
+        <v>1535</v>
+      </c>
+      <c r="M375" t="s">
         <v>1481</v>
-      </c>
-      <c r="J375" t="s">
-        <v>1581</v>
-      </c>
-      <c r="K375" t="s">
-        <v>1625</v>
-      </c>
-      <c r="L375" t="s">
-        <v>1536</v>
-      </c>
-      <c r="M375" t="s">
-        <v>1482</v>
       </c>
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" s="1" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B376" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D376" t="s">
         <v>90</v>
       </c>
       <c r="E376" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="J376" t="s">
+        <v>1581</v>
+      </c>
+      <c r="K376" t="s">
+        <v>1625</v>
+      </c>
+      <c r="L376" t="s">
         <v>1484</v>
       </c>
-      <c r="J376" t="s">
-        <v>1582</v>
-      </c>
-      <c r="K376" t="s">
-        <v>1626</v>
-      </c>
-      <c r="L376" t="s">
-        <v>1485</v>
-      </c>
       <c r="M376" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" s="1" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B377" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D377" t="s">
         <v>90</v>
       </c>
       <c r="E377"/>
       <c r="J377" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="K377" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="L377" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="M377" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" s="1" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B378" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D378" t="s">
         <v>90</v>
       </c>
       <c r="E378"/>
       <c r="J378" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="K378" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="L378" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="M378" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" s="1" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B379" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D379" t="s">
         <v>89</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="J379" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="K379" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="L379" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="M379" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" s="1" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B380" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D380" t="s">
         <v>91</v>
@@ -14976,371 +14976,371 @@
         <v>908</v>
       </c>
       <c r="L380" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="M380" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" s="1" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B381" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D381" t="s">
         <v>90</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="J381" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="K381" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="L381" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="M381" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" s="1" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B382" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D382" t="s">
         <v>91</v>
       </c>
       <c r="J382" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="K382" t="s">
         <v>886</v>
       </c>
       <c r="L382" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="M382" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" s="1" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B383" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D383" t="s">
         <v>91</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="J383" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="K383" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="L383" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="M383" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" s="1" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B384" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D384" t="s">
         <v>91</v>
       </c>
       <c r="J384" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="K384" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="L384" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="M384" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" s="1" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B385" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D385" t="s">
         <v>91</v>
       </c>
       <c r="J385" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="K385" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="L385" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="M385" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" s="1" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B386" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D386" t="s">
         <v>1178</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="J386" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="K386" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="L386" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="M386" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" s="1" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B387" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D387" t="s">
         <v>89</v>
       </c>
       <c r="E387" s="1" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="J387" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="K387" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="L387" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="M387" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" s="1" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B388" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D388" t="s">
         <v>91</v>
       </c>
       <c r="J388" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="K388" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="L388" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="M388" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" s="1" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B389" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D389" t="s">
         <v>91</v>
       </c>
       <c r="E389" s="1" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="J389" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="K389" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="L389" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="M389" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" s="1" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B390" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D390" t="s">
         <v>27</v>
       </c>
       <c r="F390" s="1" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="J390" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="K390" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="L390" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="M390" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" s="1" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B391" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D391" t="s">
         <v>27</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="G391" s="1" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="J391" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="K391" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="L391" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="M391" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" s="1" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B392" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C392" s="1"/>
       <c r="D392" t="s">
         <v>27</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="G392" s="1"/>
       <c r="J392" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="K392" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="L392" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="M392" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B393" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D393" t="s">
         <v>27</v>
       </c>
       <c r="G393" s="1" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="J393" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="K393" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="L393" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="M393" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" s="1" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B394" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C394" s="1"/>
       <c r="D394" t="s">
         <v>27</v>
       </c>
       <c r="E394" s="1" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="F394" s="1" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="J394" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="K394" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="L394" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="M394" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
   </sheetData>

--- a/dictionary/Vocab.xlsx
+++ b/dictionary/Vocab.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_Trae\TibetanNote\dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF58CEB-FFC9-4662-B4E9-AD1A379DF3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5B0736-D6B3-4BAA-8252-C51719DBB098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocab" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2860" uniqueCount="1860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3138" uniqueCount="2053">
   <si>
     <t>word</t>
   </si>
@@ -5605,6 +5616,585 @@
   </si>
   <si>
     <t>དཀྱིས།</t>
+  </si>
+  <si>
+    <t>V01-L09</t>
+  </si>
+  <si>
+    <t>སྐད་སྒྱུར།</t>
+  </si>
+  <si>
+    <t>སློབ་གྲོགས།</t>
+  </si>
+  <si>
+    <t>སྤུན་སྐྱ།</t>
+  </si>
+  <si>
+    <t>དཔེ་མཛོད་ཁང་།</t>
+  </si>
+  <si>
+    <t>ཕྲེང་བ།</t>
+  </si>
+  <si>
+    <t>ཨང་གྲངས།</t>
+  </si>
+  <si>
+    <t>ཀླད་ཀོར།</t>
+  </si>
+  <si>
+    <t>བརྒྱ།</t>
+  </si>
+  <si>
+    <t>ཐམ་པ།</t>
+  </si>
+  <si>
+    <t>སྒོར་མོ།</t>
+  </si>
+  <si>
+    <t>རྒྱ་མི།</t>
+  </si>
+  <si>
+    <t>རྒྱ་སྐད།</t>
+  </si>
+  <si>
+    <t>དབྱིན་ཇིའི་ལུང་པ།</t>
+  </si>
+  <si>
+    <t>འཇར་མན།</t>
+  </si>
+  <si>
+    <t>རྒྱལ་ས།</t>
+  </si>
+  <si>
+    <t>གྲོང་ཁྱེར།</t>
+  </si>
+  <si>
+    <t>གྲོང་གསེབ།</t>
+  </si>
+  <si>
+    <t>ཁྲོམ།</t>
+  </si>
+  <si>
+    <t>གུར།</t>
+  </si>
+  <si>
+    <t>རྫོང་།</t>
+  </si>
+  <si>
+    <t>ཟ་ཁང་།</t>
+  </si>
+  <si>
+    <t>མཁས་པོ།</t>
+  </si>
+  <si>
+    <t>གཞན་དག</t>
+  </si>
+  <si>
+    <t>ཞིང་པོ།</t>
+  </si>
+  <si>
+    <t>ཁ་ཤས།</t>
+  </si>
+  <si>
+    <t>མང་ཆེ་བ།</t>
+  </si>
+  <si>
+    <t>ཨོའོ་ཙམ།</t>
+  </si>
+  <si>
+    <t>དངོས་གནས།</t>
+  </si>
+  <si>
+    <t>ཁྱོན་ནས།</t>
+  </si>
+  <si>
+    <t>གང་འདྲ།</t>
+  </si>
+  <si>
+    <t>འདི་འདྲ།</t>
+  </si>
+  <si>
+    <t>དེ་འདྲ།</t>
+  </si>
+  <si>
+    <t>འདི་འདྲའི།</t>
+  </si>
+  <si>
+    <t>དེ་འདྲའི།</t>
+  </si>
+  <si>
+    <t>ངས་བྱས་ན།</t>
+  </si>
+  <si>
+    <t>གཡར་བ།</t>
+  </si>
+  <si>
+    <t>དགོས་པ།</t>
+  </si>
+  <si>
+    <t>ཕེབས་པ།</t>
+  </si>
+  <si>
+    <t>ཤོག</t>
+  </si>
+  <si>
+    <t>翻译</t>
+  </si>
+  <si>
+    <t>同学</t>
+  </si>
+  <si>
+    <t>父母；亲戚；兄弟姐妹</t>
+  </si>
+  <si>
+    <t>图书馆</t>
+  </si>
+  <si>
+    <t>佛珠</t>
+  </si>
+  <si>
+    <t>数字</t>
+  </si>
+  <si>
+    <t>零</t>
+  </si>
+  <si>
+    <t>百</t>
+  </si>
+  <si>
+    <t>整</t>
+  </si>
+  <si>
+    <t>钱币；货币</t>
+  </si>
+  <si>
+    <t>汉人</t>
+  </si>
+  <si>
+    <t>汉语</t>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>德国</t>
+  </si>
+  <si>
+    <t>首都</t>
+  </si>
+  <si>
+    <t>城市</t>
+  </si>
+  <si>
+    <t>乡村</t>
+  </si>
+  <si>
+    <t>市场；市中心</t>
+  </si>
+  <si>
+    <t>帐篷</t>
+  </si>
+  <si>
+    <t>区</t>
+  </si>
+  <si>
+    <t>饭店</t>
+  </si>
+  <si>
+    <t>exellent ; calé ; très compétent</t>
+  </si>
+  <si>
+    <t>优秀；有见识的</t>
+  </si>
+  <si>
+    <t>traducteur</t>
+  </si>
+  <si>
+    <t>copain de classe</t>
+  </si>
+  <si>
+    <t>parent ; proche ; frère ; sœur ; cousin</t>
+  </si>
+  <si>
+    <t>bibliothèque</t>
+  </si>
+  <si>
+    <t>rosaire ; chapelet</t>
+  </si>
+  <si>
+    <t>numéro ; nombre ; chiffre</t>
+  </si>
+  <si>
+    <t>zéro</t>
+  </si>
+  <si>
+    <t>cent</t>
+  </si>
+  <si>
+    <t>pièce ; unité monétaire ; argent</t>
+  </si>
+  <si>
+    <t>chinois (personne)</t>
+  </si>
+  <si>
+    <t>chinois (langue)</t>
+  </si>
+  <si>
+    <t>Angleterre ; Royaume-Uni ; Grande-Bretagne</t>
+  </si>
+  <si>
+    <t>Allemagne</t>
+  </si>
+  <si>
+    <t>capitale</t>
+  </si>
+  <si>
+    <t>ville</t>
+  </si>
+  <si>
+    <t>village ; campagne</t>
+  </si>
+  <si>
+    <t>marché ; centre-ville</t>
+  </si>
+  <si>
+    <t>tente</t>
+  </si>
+  <si>
+    <t>zone ; district</t>
+  </si>
+  <si>
+    <t>restaurant</t>
+  </si>
+  <si>
+    <t>autre</t>
+  </si>
+  <si>
+    <t>bon ; délicieux</t>
+  </si>
+  <si>
+    <t>quelques ; certains ; quelques-uns</t>
+  </si>
+  <si>
+    <t>la plupart ; la majorité</t>
+  </si>
+  <si>
+    <t>pas mal</t>
+  </si>
+  <si>
+    <t>vraiment ; vrai</t>
+  </si>
+  <si>
+    <t>pas du tout</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>comme ça ; ainsi ; tel</t>
+  </si>
+  <si>
+    <t>tellement + adj ; si + adj ; aussi + adj que ça</t>
+  </si>
+  <si>
+    <t>tellement + adj ; si + adj</t>
+  </si>
+  <si>
+    <t>pas vraiment + nom ou adj ; pas très + adj</t>
+  </si>
+  <si>
+    <t>à mon avis</t>
+  </si>
+  <si>
+    <t>prêter ; emprunter</t>
+  </si>
+  <si>
+    <t>avoir besoin ; devoir ; falloir ; vouloir</t>
+  </si>
+  <si>
+    <t>venir ; aller ; arriver ; partir</t>
+  </si>
+  <si>
+    <t>une des terminaisons de l'impératif</t>
+  </si>
+  <si>
+    <t>tranlator</t>
+  </si>
+  <si>
+    <t>classmate</t>
+  </si>
+  <si>
+    <t>parent; relative; sibling; cousin</t>
+  </si>
+  <si>
+    <t>library</t>
+  </si>
+  <si>
+    <t>rosary</t>
+  </si>
+  <si>
+    <t>number; figure</t>
+  </si>
+  <si>
+    <t>zero</t>
+  </si>
+  <si>
+    <t>hundred</t>
+  </si>
+  <si>
+    <t>pile ; rond (après dizaine ou centaine)</t>
+  </si>
+  <si>
+    <t>exactly; right</t>
+  </si>
+  <si>
+    <t>coin; currency</t>
+  </si>
+  <si>
+    <t>Han people</t>
+  </si>
+  <si>
+    <t>Chinese language</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>capital</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>village; countryside</t>
+  </si>
+  <si>
+    <t>market; downtown</t>
+  </si>
+  <si>
+    <t>tent</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>excellent; very competent</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>delicious</t>
+  </si>
+  <si>
+    <t>some; certain</t>
+  </si>
+  <si>
+    <t>most; the mojority</t>
+  </si>
+  <si>
+    <t>a little bit</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>how</t>
+  </si>
+  <si>
+    <t>like this</t>
+  </si>
+  <si>
+    <t>like that</t>
+  </si>
+  <si>
+    <t>so that</t>
+  </si>
+  <si>
+    <t>not really</t>
+  </si>
+  <si>
+    <t>in my opinion</t>
+  </si>
+  <si>
+    <t>lend; borrow</t>
+  </si>
+  <si>
+    <t>need; have to; should; want</t>
+  </si>
+  <si>
+    <t>come; go; arrive; leave</t>
+  </si>
+  <si>
+    <t>one of the imperative endings</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>美味的</t>
+  </si>
+  <si>
+    <t>一些</t>
+  </si>
+  <si>
+    <t>大多数</t>
+  </si>
+  <si>
+    <t>一点</t>
+  </si>
+  <si>
+    <t>真的</t>
+  </si>
+  <si>
+    <t>完全不</t>
+  </si>
+  <si>
+    <t>像这样</t>
+  </si>
+  <si>
+    <t>像那样</t>
+  </si>
+  <si>
+    <t>这么</t>
+  </si>
+  <si>
+    <t>那么</t>
+  </si>
+  <si>
+    <t>不是很</t>
+  </si>
+  <si>
+    <t>依我来看</t>
+  </si>
+  <si>
+    <t>借</t>
+  </si>
+  <si>
+    <t>需要；得；应该；要</t>
+  </si>
+  <si>
+    <t>来；去；到；走</t>
+  </si>
+  <si>
+    <t>命令词尾</t>
+  </si>
+  <si>
+    <t>翻訳者</t>
+  </si>
+  <si>
+    <t>同級生</t>
+  </si>
+  <si>
+    <t>図書館</t>
+  </si>
+  <si>
+    <t>念珠</t>
+  </si>
+  <si>
+    <t>数</t>
+  </si>
+  <si>
+    <t>ちょうど</t>
+  </si>
+  <si>
+    <t>通貨</t>
+  </si>
+  <si>
+    <t>漢族</t>
+  </si>
+  <si>
+    <t>漢語</t>
+  </si>
+  <si>
+    <t>イギリス</t>
+  </si>
+  <si>
+    <t>ドイツ</t>
+  </si>
+  <si>
+    <t>町</t>
+  </si>
+  <si>
+    <t>村</t>
+  </si>
+  <si>
+    <t>テント</t>
+  </si>
+  <si>
+    <t>レストラン</t>
+  </si>
+  <si>
+    <t>優れる、手際が良い</t>
+  </si>
+  <si>
+    <t>市場、都心</t>
+  </si>
+  <si>
+    <t>両親、親戚、兄弟</t>
+  </si>
+  <si>
+    <t>ほかの</t>
+  </si>
+  <si>
+    <t>美味しい</t>
+  </si>
+  <si>
+    <t>いくつか、若干</t>
+  </si>
+  <si>
+    <t>大分</t>
+  </si>
+  <si>
+    <t>ちょっと</t>
+  </si>
+  <si>
+    <t>本当に</t>
+  </si>
+  <si>
+    <t>什么样</t>
+  </si>
+  <si>
+    <t>どんな</t>
+  </si>
+  <si>
+    <t>こんな</t>
+  </si>
+  <si>
+    <t>そんな</t>
+  </si>
+  <si>
+    <t>このように</t>
+  </si>
+  <si>
+    <t>そのように</t>
+  </si>
+  <si>
+    <t>私にとって</t>
+  </si>
+  <si>
+    <t>貸す、借りる</t>
+  </si>
+  <si>
+    <t>要る、なければなりません、べき、たい</t>
+  </si>
+  <si>
+    <t>いらっしゃる</t>
+  </si>
+  <si>
+    <t>命令形の一つの語尾</t>
+  </si>
+  <si>
+    <t>Adj./N.</t>
+  </si>
+  <si>
+    <t>Interg.</t>
+  </si>
+  <si>
+    <t>V.Part.</t>
   </si>
 </sst>
 </file>
@@ -5934,13 +6524,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R394"/>
+  <dimension ref="A1:R434"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C232" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C361" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C238" sqref="C238"/>
+      <selection pane="bottomRight" activeCell="E360" sqref="E360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.55000000000000004"/>
@@ -5949,6 +6539,7 @@
     <col min="2" max="2" width="7.19921875" customWidth="1"/>
     <col min="3" max="3" width="16.86328125" customWidth="1"/>
     <col min="5" max="6" width="9.06640625" style="1"/>
+    <col min="12" max="12" width="9.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -13580,1766 +14171,2680 @@
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="1" t="s">
-        <v>39</v>
+        <v>1861</v>
       </c>
       <c r="B322" t="s">
-        <v>190</v>
+        <v>1860</v>
       </c>
       <c r="D322" t="s">
         <v>40</v>
       </c>
-      <c r="E322" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="J322" t="s">
-        <v>42</v>
+        <v>1900</v>
       </c>
       <c r="K322" t="s">
-        <v>43</v>
+        <v>2015</v>
       </c>
       <c r="L322" t="s">
-        <v>57</v>
+        <v>1960</v>
       </c>
       <c r="M322" t="s">
-        <v>53</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" s="1" t="s">
-        <v>47</v>
+        <v>1862</v>
       </c>
       <c r="B323" t="s">
-        <v>190</v>
+        <v>1860</v>
       </c>
       <c r="D323" t="s">
         <v>40</v>
       </c>
-      <c r="E323" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="J323" t="s">
-        <v>62</v>
+        <v>1901</v>
       </c>
       <c r="K323" t="s">
-        <v>126</v>
+        <v>2016</v>
       </c>
       <c r="L323" t="s">
-        <v>142</v>
+        <v>1961</v>
       </c>
       <c r="M323" t="s">
-        <v>52</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" s="1" t="s">
-        <v>48</v>
+        <v>1863</v>
       </c>
       <c r="B324" t="s">
-        <v>190</v>
+        <v>1860</v>
       </c>
       <c r="D324" t="s">
         <v>40</v>
       </c>
+      <c r="J324" t="s">
+        <v>1902</v>
+      </c>
+      <c r="K324" t="s">
+        <v>2032</v>
+      </c>
+      <c r="L324" t="s">
+        <v>1962</v>
+      </c>
       <c r="M324" t="s">
-        <v>58</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="1" t="s">
-        <v>49</v>
+        <v>1864</v>
       </c>
       <c r="B325" t="s">
-        <v>190</v>
+        <v>1860</v>
       </c>
       <c r="D325" t="s">
         <v>40</v>
       </c>
-      <c r="E325" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="J325" t="s">
-        <v>63</v>
+        <v>1903</v>
       </c>
       <c r="K325" t="s">
-        <v>127</v>
+        <v>2017</v>
+      </c>
+      <c r="L325" t="s">
+        <v>1963</v>
       </c>
       <c r="M325" t="s">
-        <v>59</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" s="1" t="s">
-        <v>50</v>
+        <v>1865</v>
       </c>
       <c r="B326" t="s">
-        <v>190</v>
+        <v>1860</v>
       </c>
       <c r="D326" t="s">
         <v>40</v>
       </c>
-      <c r="E326" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="J326" t="s">
-        <v>64</v>
+        <v>1904</v>
       </c>
       <c r="K326" t="s">
-        <v>128</v>
+        <v>2018</v>
       </c>
       <c r="L326" t="s">
-        <v>143</v>
+        <v>1964</v>
       </c>
       <c r="M326" t="s">
-        <v>60</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" s="1" t="s">
-        <v>51</v>
+        <v>1866</v>
       </c>
       <c r="B327" t="s">
-        <v>190</v>
+        <v>1860</v>
       </c>
       <c r="D327" t="s">
         <v>40</v>
       </c>
       <c r="J327" t="s">
-        <v>65</v>
+        <v>1905</v>
       </c>
       <c r="K327" t="s">
-        <v>129</v>
+        <v>2019</v>
       </c>
       <c r="L327" t="s">
-        <v>144</v>
+        <v>1965</v>
       </c>
       <c r="M327" t="s">
-        <v>61</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" s="1" t="s">
-        <v>69</v>
+        <v>1867</v>
       </c>
       <c r="B328" t="s">
-        <v>190</v>
+        <v>1860</v>
       </c>
       <c r="D328" t="s">
-        <v>40</v>
+        <v>341</v>
       </c>
       <c r="J328" t="s">
-        <v>108</v>
+        <v>1906</v>
       </c>
       <c r="K328" t="s">
-        <v>130</v>
+        <v>1906</v>
       </c>
       <c r="L328" t="s">
-        <v>145</v>
+        <v>1966</v>
       </c>
       <c r="M328" t="s">
-        <v>109</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" s="1" t="s">
-        <v>70</v>
+        <v>1868</v>
       </c>
       <c r="B329" t="s">
-        <v>190</v>
+        <v>1860</v>
       </c>
       <c r="D329" t="s">
-        <v>40</v>
+        <v>341</v>
       </c>
       <c r="J329" t="s">
-        <v>93</v>
+        <v>1907</v>
       </c>
       <c r="K329" t="s">
-        <v>131</v>
+        <v>1907</v>
       </c>
       <c r="L329" t="s">
-        <v>146</v>
+        <v>1967</v>
       </c>
       <c r="M329" t="s">
-        <v>110</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" s="1" t="s">
-        <v>71</v>
+        <v>1869</v>
       </c>
       <c r="B330" t="s">
-        <v>190</v>
+        <v>1860</v>
       </c>
       <c r="D330" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="J330" t="s">
-        <v>94</v>
+        <v>1908</v>
       </c>
       <c r="K330" t="s">
-        <v>94</v>
+        <v>2020</v>
       </c>
       <c r="L330" t="s">
-        <v>147</v>
+        <v>1969</v>
       </c>
       <c r="M330" t="s">
-        <v>111</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" s="1" t="s">
-        <v>72</v>
+        <v>1870</v>
       </c>
       <c r="B331" t="s">
-        <v>190</v>
+        <v>1860</v>
       </c>
       <c r="D331" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="J331" t="s">
-        <v>95</v>
+        <v>1909</v>
       </c>
       <c r="K331" t="s">
-        <v>132</v>
+        <v>2021</v>
       </c>
       <c r="L331" t="s">
-        <v>148</v>
+        <v>1970</v>
       </c>
       <c r="M331" t="s">
-        <v>112</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" s="1" t="s">
-        <v>73</v>
+        <v>1871</v>
       </c>
       <c r="B332" t="s">
-        <v>190</v>
+        <v>1860</v>
       </c>
       <c r="D332" t="s">
-        <v>90</v>
-      </c>
-      <c r="E332" s="1" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="J332" t="s">
-        <v>96</v>
+        <v>1910</v>
       </c>
       <c r="K332" t="s">
-        <v>133</v>
+        <v>2022</v>
       </c>
       <c r="L332" t="s">
-        <v>149</v>
+        <v>1971</v>
       </c>
       <c r="M332" t="s">
-        <v>113</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" s="1" t="s">
-        <v>74</v>
+        <v>1872</v>
       </c>
       <c r="B333" t="s">
-        <v>190</v>
+        <v>1860</v>
       </c>
       <c r="D333" t="s">
-        <v>90</v>
+        <v>201</v>
       </c>
       <c r="J333" t="s">
-        <v>97</v>
+        <v>1911</v>
       </c>
       <c r="K333" t="s">
-        <v>135</v>
+        <v>2023</v>
       </c>
       <c r="L333" t="s">
-        <v>150</v>
+        <v>1972</v>
       </c>
       <c r="M333" t="s">
-        <v>114</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" s="1" t="s">
-        <v>75</v>
+        <v>1873</v>
       </c>
       <c r="B334" t="s">
-        <v>190</v>
+        <v>1860</v>
       </c>
       <c r="D334" t="s">
-        <v>90</v>
+        <v>201</v>
       </c>
       <c r="J334" t="s">
-        <v>98</v>
+        <v>1912</v>
       </c>
       <c r="K334" t="s">
-        <v>134</v>
+        <v>2024</v>
       </c>
       <c r="L334" t="s">
-        <v>151</v>
+        <v>1973</v>
       </c>
       <c r="M334" t="s">
-        <v>115</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" s="1" t="s">
-        <v>76</v>
+        <v>1874</v>
       </c>
       <c r="B335" t="s">
-        <v>190</v>
+        <v>1860</v>
       </c>
       <c r="D335" t="s">
-        <v>90</v>
+        <v>201</v>
       </c>
       <c r="J335" t="s">
-        <v>99</v>
+        <v>1913</v>
       </c>
       <c r="K335" t="s">
-        <v>153</v>
+        <v>2025</v>
       </c>
       <c r="L335" t="s">
-        <v>152</v>
+        <v>1974</v>
       </c>
       <c r="M335" t="s">
-        <v>116</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" s="1" t="s">
-        <v>77</v>
+        <v>1875</v>
       </c>
       <c r="B336" t="s">
-        <v>190</v>
+        <v>1860</v>
       </c>
       <c r="D336" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="J336" t="s">
-        <v>100</v>
+        <v>1914</v>
+      </c>
+      <c r="K336" t="s">
+        <v>1914</v>
       </c>
       <c r="L336" t="s">
-        <v>154</v>
+        <v>1975</v>
       </c>
       <c r="M336" t="s">
-        <v>117</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" s="1" t="s">
-        <v>78</v>
+        <v>1876</v>
       </c>
       <c r="B337" t="s">
-        <v>190</v>
+        <v>1860</v>
       </c>
       <c r="D337" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="J337" t="s">
-        <v>101</v>
+        <v>1915</v>
       </c>
       <c r="K337" t="s">
-        <v>136</v>
+        <v>2026</v>
       </c>
       <c r="L337" t="s">
-        <v>155</v>
+        <v>1976</v>
       </c>
       <c r="M337" t="s">
-        <v>118</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" s="1" t="s">
-        <v>79</v>
+        <v>1877</v>
       </c>
       <c r="B338" t="s">
-        <v>190</v>
+        <v>1860</v>
       </c>
       <c r="D338" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="J338" t="s">
-        <v>101</v>
+        <v>1916</v>
       </c>
       <c r="K338" t="s">
-        <v>136</v>
+        <v>2027</v>
       </c>
       <c r="L338" t="s">
-        <v>155</v>
+        <v>1977</v>
       </c>
       <c r="M338" t="s">
-        <v>118</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" s="1" t="s">
-        <v>80</v>
+        <v>1878</v>
       </c>
       <c r="B339" t="s">
-        <v>190</v>
+        <v>1860</v>
       </c>
       <c r="D339" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="J339" t="s">
-        <v>102</v>
+        <v>1917</v>
       </c>
       <c r="K339" t="s">
-        <v>137</v>
+        <v>2031</v>
       </c>
       <c r="L339" t="s">
-        <v>156</v>
+        <v>1978</v>
       </c>
       <c r="M339" t="s">
-        <v>119</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" s="1" t="s">
-        <v>81</v>
+        <v>1879</v>
       </c>
       <c r="B340" t="s">
-        <v>190</v>
+        <v>1860</v>
       </c>
       <c r="D340" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="J340" t="s">
-        <v>102</v>
+        <v>1918</v>
       </c>
       <c r="K340" t="s">
-        <v>137</v>
+        <v>2028</v>
       </c>
       <c r="L340" t="s">
-        <v>156</v>
+        <v>1979</v>
       </c>
       <c r="M340" t="s">
-        <v>119</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" s="1" t="s">
-        <v>82</v>
+        <v>1880</v>
       </c>
       <c r="B341" t="s">
-        <v>190</v>
+        <v>1860</v>
+      </c>
+      <c r="D341" t="s">
+        <v>40</v>
       </c>
       <c r="J341" t="s">
-        <v>103</v>
+        <v>1919</v>
+      </c>
+      <c r="K341" t="s">
+        <v>1919</v>
+      </c>
+      <c r="L341" t="s">
+        <v>1980</v>
       </c>
       <c r="M341" t="s">
-        <v>120</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" s="1" t="s">
-        <v>83</v>
+        <v>1881</v>
       </c>
       <c r="B342" t="s">
-        <v>190</v>
+        <v>1860</v>
+      </c>
+      <c r="D342" t="s">
+        <v>40</v>
       </c>
       <c r="J342" t="s">
-        <v>104</v>
+        <v>1920</v>
+      </c>
+      <c r="K342" t="s">
+        <v>2029</v>
+      </c>
+      <c r="L342" t="s">
+        <v>1942</v>
       </c>
       <c r="M342" t="s">
-        <v>121</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" s="1" t="s">
-        <v>84</v>
+        <v>1882</v>
       </c>
       <c r="B343" t="s">
-        <v>190</v>
+        <v>1860</v>
       </c>
       <c r="D343" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="J343" t="s">
-        <v>105</v>
+        <v>1922</v>
       </c>
       <c r="K343" t="s">
-        <v>138</v>
+        <v>2030</v>
       </c>
       <c r="L343" t="s">
-        <v>157</v>
+        <v>1981</v>
       </c>
       <c r="M343" t="s">
-        <v>122</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" s="1" t="s">
-        <v>85</v>
+        <v>1883</v>
       </c>
       <c r="B344" t="s">
-        <v>190</v>
+        <v>1860</v>
       </c>
       <c r="D344" t="s">
-        <v>27</v>
+        <v>2050</v>
       </c>
       <c r="J344" t="s">
-        <v>94</v>
+        <v>1998</v>
       </c>
       <c r="K344" t="s">
-        <v>139</v>
+        <v>2033</v>
       </c>
       <c r="L344" t="s">
-        <v>157</v>
+        <v>1982</v>
       </c>
       <c r="M344" t="s">
-        <v>123</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" s="1" t="s">
-        <v>86</v>
+        <v>1884</v>
       </c>
       <c r="B345" t="s">
-        <v>190</v>
+        <v>1860</v>
       </c>
       <c r="D345" t="s">
-        <v>27</v>
+        <v>2050</v>
       </c>
       <c r="J345" t="s">
-        <v>106</v>
+        <v>1999</v>
       </c>
       <c r="K345" t="s">
-        <v>140</v>
+        <v>2034</v>
       </c>
       <c r="L345" t="s">
-        <v>158</v>
+        <v>1983</v>
       </c>
       <c r="M345" t="s">
-        <v>124</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" s="1" t="s">
-        <v>87</v>
+        <v>1885</v>
       </c>
       <c r="B346" t="s">
-        <v>190</v>
+        <v>1860</v>
       </c>
       <c r="D346" t="s">
-        <v>27</v>
-      </c>
-      <c r="F346" s="1" t="s">
-        <v>88</v>
+        <v>2050</v>
       </c>
       <c r="J346" t="s">
-        <v>107</v>
+        <v>2000</v>
       </c>
       <c r="K346" t="s">
-        <v>141</v>
+        <v>2035</v>
       </c>
       <c r="L346" t="s">
-        <v>159</v>
+        <v>1984</v>
       </c>
       <c r="M346" t="s">
-        <v>125</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" s="1" t="s">
-        <v>1388</v>
+        <v>1886</v>
       </c>
       <c r="B347" t="s">
-        <v>1387</v>
+        <v>1860</v>
       </c>
       <c r="D347" t="s">
-        <v>40</v>
+        <v>2050</v>
       </c>
       <c r="J347" t="s">
-        <v>1553</v>
+        <v>2001</v>
       </c>
       <c r="K347" t="s">
-        <v>1599</v>
+        <v>2036</v>
       </c>
       <c r="L347" t="s">
-        <v>1514</v>
+        <v>1985</v>
       </c>
       <c r="M347" t="s">
-        <v>1439</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" s="1" t="s">
-        <v>1400</v>
+        <v>1887</v>
       </c>
       <c r="B348" t="s">
-        <v>1387</v>
+        <v>1860</v>
       </c>
       <c r="D348" t="s">
-        <v>90</v>
-      </c>
-      <c r="E348" s="1" t="s">
-        <v>1442</v>
+        <v>91</v>
       </c>
       <c r="J348" t="s">
-        <v>1554</v>
+        <v>2002</v>
       </c>
       <c r="K348" t="s">
-        <v>1600</v>
+        <v>2037</v>
       </c>
       <c r="L348" t="s">
-        <v>1511</v>
+        <v>1986</v>
       </c>
       <c r="M348" t="s">
-        <v>1440</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" s="1" t="s">
-        <v>1389</v>
+        <v>1888</v>
       </c>
       <c r="B349" t="s">
-        <v>1387</v>
+        <v>1860</v>
       </c>
       <c r="D349" t="s">
-        <v>40</v>
-      </c>
-      <c r="E349"/>
+        <v>91</v>
+      </c>
       <c r="J349" t="s">
-        <v>1555</v>
+        <v>2003</v>
       </c>
       <c r="K349" t="s">
-        <v>1601</v>
+        <v>2038</v>
       </c>
       <c r="L349" t="s">
-        <v>1512</v>
+        <v>1987</v>
       </c>
       <c r="M349" t="s">
-        <v>1441</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" s="1" t="s">
-        <v>1390</v>
+        <v>1889</v>
       </c>
       <c r="B350" t="s">
-        <v>1387</v>
+        <v>1860</v>
       </c>
       <c r="D350" t="s">
-        <v>40</v>
-      </c>
-      <c r="E350"/>
+        <v>91</v>
+      </c>
       <c r="J350" t="s">
-        <v>1556</v>
+        <v>2004</v>
       </c>
       <c r="K350" t="s">
-        <v>1602</v>
+        <v>1125</v>
       </c>
       <c r="L350" t="s">
-        <v>1515</v>
+        <v>1170</v>
       </c>
       <c r="M350" t="s">
-        <v>1443</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" s="1" t="s">
-        <v>1391</v>
+        <v>1890</v>
       </c>
       <c r="B351" t="s">
-        <v>1387</v>
+        <v>1860</v>
       </c>
       <c r="D351" t="s">
-        <v>40</v>
-      </c>
-      <c r="E351" s="1" t="s">
-        <v>1444</v>
+        <v>2051</v>
       </c>
       <c r="J351" t="s">
-        <v>1557</v>
+        <v>2039</v>
       </c>
       <c r="K351" t="s">
-        <v>1603</v>
+        <v>2040</v>
       </c>
       <c r="L351" t="s">
-        <v>1513</v>
+        <v>1988</v>
       </c>
       <c r="M351" t="s">
-        <v>1445</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" s="1" t="s">
-        <v>1392</v>
+        <v>1891</v>
       </c>
       <c r="B352" t="s">
-        <v>1387</v>
+        <v>1860</v>
       </c>
       <c r="D352" t="s">
-        <v>40</v>
-      </c>
-      <c r="E352"/>
+        <v>91</v>
+      </c>
       <c r="J352" t="s">
-        <v>1558</v>
+        <v>2005</v>
       </c>
       <c r="K352" t="s">
-        <v>1558</v>
+        <v>2043</v>
       </c>
       <c r="L352" t="s">
-        <v>1516</v>
+        <v>1989</v>
       </c>
       <c r="M352" t="s">
-        <v>1446</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" s="1" t="s">
-        <v>1393</v>
+        <v>1892</v>
       </c>
       <c r="B353" t="s">
-        <v>1387</v>
+        <v>1860</v>
       </c>
       <c r="D353" t="s">
-        <v>40</v>
-      </c>
-      <c r="E353"/>
+        <v>91</v>
+      </c>
       <c r="J353" t="s">
-        <v>1559</v>
+        <v>2006</v>
       </c>
       <c r="K353" t="s">
-        <v>1604</v>
+        <v>2044</v>
       </c>
       <c r="L353" t="s">
-        <v>1517</v>
+        <v>1990</v>
       </c>
       <c r="M353" t="s">
-        <v>1447</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" s="1" t="s">
-        <v>1394</v>
+        <v>1893</v>
       </c>
       <c r="B354" t="s">
-        <v>1387</v>
+        <v>1860</v>
       </c>
       <c r="D354" t="s">
-        <v>40</v>
-      </c>
-      <c r="E354"/>
+        <v>91</v>
+      </c>
       <c r="J354" t="s">
-        <v>1560</v>
+        <v>2007</v>
       </c>
       <c r="K354" t="s">
-        <v>1605</v>
+        <v>2041</v>
       </c>
       <c r="L354" t="s">
-        <v>1518</v>
+        <v>1991</v>
       </c>
       <c r="M354" t="s">
-        <v>1448</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" s="1" t="s">
-        <v>1395</v>
+        <v>1894</v>
       </c>
       <c r="B355" t="s">
-        <v>1387</v>
+        <v>1860</v>
       </c>
       <c r="D355" t="s">
-        <v>90</v>
-      </c>
-      <c r="E355" s="1" t="s">
-        <v>1450</v>
+        <v>91</v>
       </c>
       <c r="J355" t="s">
-        <v>1561</v>
+        <v>2008</v>
       </c>
       <c r="K355" t="s">
-        <v>1606</v>
+        <v>2042</v>
       </c>
       <c r="L355" t="s">
-        <v>1519</v>
+        <v>1991</v>
       </c>
       <c r="M355" t="s">
-        <v>1449</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" s="1" t="s">
-        <v>1396</v>
+        <v>1205</v>
       </c>
       <c r="B356" t="s">
-        <v>1387</v>
+        <v>1860</v>
       </c>
       <c r="D356" t="s">
-        <v>90</v>
-      </c>
-      <c r="E356"/>
+        <v>91</v>
+      </c>
       <c r="J356" t="s">
-        <v>1562</v>
-      </c>
-      <c r="K356" t="s">
-        <v>1607</v>
+        <v>2009</v>
       </c>
       <c r="L356" t="s">
-        <v>1520</v>
+        <v>1992</v>
       </c>
       <c r="M356" t="s">
-        <v>1451</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" s="1" t="s">
-        <v>1397</v>
+        <v>1895</v>
       </c>
       <c r="B357" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D357" t="s">
-        <v>90</v>
-      </c>
-      <c r="E357"/>
+        <v>1860</v>
+      </c>
       <c r="J357" t="s">
-        <v>1563</v>
+        <v>2010</v>
       </c>
       <c r="K357" t="s">
-        <v>1608</v>
+        <v>2045</v>
       </c>
       <c r="L357" t="s">
-        <v>1521</v>
+        <v>1993</v>
       </c>
       <c r="M357" t="s">
-        <v>1452</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" s="1" t="s">
-        <v>1398</v>
+        <v>1896</v>
       </c>
       <c r="B358" t="s">
-        <v>1387</v>
+        <v>1860</v>
       </c>
       <c r="D358" t="s">
-        <v>90</v>
-      </c>
-      <c r="E358" s="1" t="s">
-        <v>1454</v>
+        <v>27</v>
       </c>
       <c r="J358" t="s">
-        <v>1563</v>
+        <v>2011</v>
       </c>
       <c r="K358" t="s">
-        <v>1609</v>
+        <v>2046</v>
       </c>
       <c r="L358" t="s">
-        <v>1521</v>
+        <v>1994</v>
       </c>
       <c r="M358" t="s">
-        <v>1452</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" s="1" t="s">
-        <v>1399</v>
+        <v>1897</v>
       </c>
       <c r="B359" t="s">
-        <v>1387</v>
+        <v>1860</v>
       </c>
       <c r="D359" t="s">
-        <v>90</v>
-      </c>
-      <c r="E359"/>
+        <v>27</v>
+      </c>
       <c r="J359" t="s">
-        <v>1564</v>
+        <v>2012</v>
       </c>
       <c r="K359" t="s">
-        <v>1609</v>
+        <v>2047</v>
       </c>
       <c r="L359" t="s">
-        <v>1522</v>
+        <v>1995</v>
       </c>
       <c r="M359" t="s">
-        <v>1453</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" s="1" t="s">
-        <v>1401</v>
+        <v>1898</v>
       </c>
       <c r="B360" t="s">
-        <v>1387</v>
+        <v>1860</v>
       </c>
       <c r="D360" t="s">
-        <v>90</v>
-      </c>
-      <c r="E360" s="1" t="s">
-        <v>1455</v>
+        <v>27</v>
       </c>
       <c r="J360" t="s">
-        <v>1565</v>
+        <v>2013</v>
       </c>
       <c r="K360" t="s">
-        <v>1610</v>
+        <v>2048</v>
       </c>
       <c r="L360" t="s">
-        <v>1523</v>
+        <v>1996</v>
       </c>
       <c r="M360" t="s">
-        <v>1456</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" s="1" t="s">
-        <v>1402</v>
+        <v>1899</v>
       </c>
       <c r="B361" t="s">
-        <v>1387</v>
+        <v>1860</v>
       </c>
       <c r="D361" t="s">
-        <v>90</v>
-      </c>
-      <c r="E361"/>
+        <v>2052</v>
+      </c>
       <c r="J361" t="s">
-        <v>1566</v>
+        <v>2014</v>
       </c>
       <c r="K361" t="s">
-        <v>1611</v>
+        <v>2049</v>
       </c>
       <c r="L361" t="s">
-        <v>1524</v>
+        <v>1997</v>
       </c>
       <c r="M361" t="s">
-        <v>1457</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" s="1" t="s">
-        <v>1459</v>
+        <v>39</v>
       </c>
       <c r="B362" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D362" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>1460</v>
+        <v>41</v>
       </c>
       <c r="J362" t="s">
-        <v>1567</v>
+        <v>42</v>
       </c>
       <c r="K362" t="s">
-        <v>1612</v>
+        <v>43</v>
       </c>
       <c r="L362" t="s">
-        <v>1525</v>
+        <v>57</v>
       </c>
       <c r="M362" t="s">
-        <v>1458</v>
+        <v>53</v>
       </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" s="1" t="s">
-        <v>1403</v>
+        <v>47</v>
       </c>
       <c r="B363" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D363" t="s">
-        <v>90</v>
-      </c>
-      <c r="E363"/>
+        <v>40</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="J363" t="s">
-        <v>1568</v>
+        <v>62</v>
       </c>
       <c r="K363" t="s">
-        <v>1613</v>
+        <v>126</v>
       </c>
       <c r="L363" t="s">
-        <v>1526</v>
+        <v>142</v>
       </c>
       <c r="M363" t="s">
-        <v>1461</v>
+        <v>52</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" s="1" t="s">
-        <v>1404</v>
+        <v>48</v>
       </c>
       <c r="B364" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D364" t="s">
-        <v>90</v>
-      </c>
-      <c r="E364"/>
-      <c r="J364" t="s">
-        <v>1569</v>
-      </c>
-      <c r="K364" t="s">
-        <v>1614</v>
-      </c>
-      <c r="L364" t="s">
-        <v>1527</v>
+        <v>40</v>
       </c>
       <c r="M364" t="s">
-        <v>1462</v>
+        <v>58</v>
       </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" s="1" t="s">
-        <v>1405</v>
+        <v>49</v>
       </c>
       <c r="B365" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D365" t="s">
-        <v>90</v>
-      </c>
-      <c r="E365"/>
+        <v>40</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="J365" t="s">
-        <v>1571</v>
+        <v>63</v>
       </c>
       <c r="K365" t="s">
-        <v>1615</v>
-      </c>
-      <c r="L365" t="s">
-        <v>1570</v>
+        <v>127</v>
       </c>
       <c r="M365" t="s">
-        <v>1463</v>
+        <v>59</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" s="1" t="s">
-        <v>1406</v>
+        <v>50</v>
       </c>
       <c r="B366" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D366" t="s">
-        <v>90</v>
-      </c>
-      <c r="E366"/>
+        <v>40</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="J366" t="s">
-        <v>1572</v>
+        <v>64</v>
       </c>
       <c r="K366" t="s">
-        <v>1616</v>
+        <v>128</v>
       </c>
       <c r="L366" t="s">
-        <v>1528</v>
+        <v>143</v>
       </c>
       <c r="M366" t="s">
-        <v>1464</v>
+        <v>60</v>
       </c>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" s="1" t="s">
-        <v>1407</v>
+        <v>51</v>
       </c>
       <c r="B367" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D367" t="s">
-        <v>90</v>
-      </c>
-      <c r="E367" s="1" t="s">
-        <v>1465</v>
+        <v>40</v>
       </c>
       <c r="J367" t="s">
-        <v>1573</v>
+        <v>65</v>
       </c>
       <c r="K367" t="s">
-        <v>1617</v>
+        <v>129</v>
       </c>
       <c r="L367" t="s">
-        <v>1529</v>
+        <v>144</v>
       </c>
       <c r="M367" t="s">
-        <v>1467</v>
+        <v>61</v>
       </c>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" s="1" t="s">
-        <v>1408</v>
+        <v>69</v>
       </c>
       <c r="B368" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D368" t="s">
-        <v>90</v>
-      </c>
-      <c r="E368" s="1" t="s">
-        <v>1466</v>
+        <v>40</v>
       </c>
       <c r="J368" t="s">
-        <v>1574</v>
+        <v>108</v>
       </c>
       <c r="K368" t="s">
-        <v>1618</v>
+        <v>130</v>
       </c>
       <c r="L368" t="s">
-        <v>1530</v>
+        <v>145</v>
       </c>
       <c r="M368" t="s">
-        <v>1468</v>
+        <v>109</v>
       </c>
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" s="1" t="s">
-        <v>1409</v>
+        <v>70</v>
       </c>
       <c r="B369" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D369" t="s">
-        <v>90</v>
-      </c>
-      <c r="E369"/>
+        <v>40</v>
+      </c>
       <c r="J369" t="s">
-        <v>1576</v>
+        <v>93</v>
       </c>
       <c r="K369" t="s">
-        <v>1619</v>
+        <v>131</v>
       </c>
       <c r="L369" t="s">
-        <v>1531</v>
+        <v>146</v>
       </c>
       <c r="M369" t="s">
-        <v>1469</v>
+        <v>110</v>
       </c>
     </row>
     <row r="370" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" s="1" t="s">
-        <v>1410</v>
+        <v>71</v>
       </c>
       <c r="B370" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D370" t="s">
-        <v>90</v>
-      </c>
-      <c r="E370"/>
+        <v>40</v>
+      </c>
       <c r="J370" t="s">
-        <v>1575</v>
+        <v>94</v>
       </c>
       <c r="K370" t="s">
-        <v>1620</v>
+        <v>94</v>
       </c>
       <c r="L370" t="s">
-        <v>1532</v>
+        <v>147</v>
       </c>
       <c r="M370" t="s">
-        <v>1470</v>
+        <v>111</v>
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" s="1" t="s">
-        <v>1411</v>
+        <v>72</v>
       </c>
       <c r="B371" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D371" t="s">
-        <v>90</v>
-      </c>
-      <c r="E371" s="1" t="s">
-        <v>1472</v>
+        <v>89</v>
       </c>
       <c r="J371" t="s">
-        <v>1577</v>
+        <v>95</v>
       </c>
       <c r="K371" t="s">
-        <v>1621</v>
+        <v>132</v>
       </c>
       <c r="L371" t="s">
-        <v>1533</v>
+        <v>148</v>
       </c>
       <c r="M371" t="s">
-        <v>1471</v>
+        <v>112</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" s="1" t="s">
-        <v>1473</v>
+        <v>73</v>
       </c>
       <c r="B372" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D372" t="s">
         <v>90</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>1474</v>
+        <v>92</v>
       </c>
       <c r="J372" t="s">
-        <v>1578</v>
+        <v>96</v>
       </c>
       <c r="K372" t="s">
-        <v>1622</v>
+        <v>133</v>
       </c>
       <c r="L372" t="s">
-        <v>1534</v>
+        <v>149</v>
       </c>
       <c r="M372" t="s">
-        <v>1476</v>
+        <v>113</v>
       </c>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" s="1" t="s">
-        <v>1412</v>
+        <v>74</v>
       </c>
       <c r="B373" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D373" t="s">
         <v>90</v>
       </c>
-      <c r="E373" s="1" t="s">
-        <v>1475</v>
-      </c>
       <c r="J373" t="s">
-        <v>1579</v>
+        <v>97</v>
       </c>
       <c r="K373" t="s">
-        <v>1623</v>
+        <v>135</v>
       </c>
       <c r="L373" t="s">
-        <v>1478</v>
+        <v>150</v>
       </c>
       <c r="M373" t="s">
-        <v>1477</v>
+        <v>114</v>
       </c>
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" s="1" t="s">
-        <v>1413</v>
+        <v>75</v>
       </c>
       <c r="B374" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D374" t="s">
         <v>90</v>
       </c>
-      <c r="E374" s="1" t="s">
-        <v>1479</v>
-      </c>
       <c r="J374" t="s">
-        <v>1580</v>
+        <v>98</v>
       </c>
       <c r="K374" t="s">
-        <v>1624</v>
+        <v>134</v>
       </c>
       <c r="L374" t="s">
-        <v>1535</v>
+        <v>151</v>
       </c>
       <c r="M374" t="s">
-        <v>1481</v>
+        <v>115</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" s="1" t="s">
-        <v>1414</v>
+        <v>76</v>
       </c>
       <c r="B375" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D375" t="s">
         <v>90</v>
       </c>
-      <c r="E375" s="1" t="s">
-        <v>1480</v>
-      </c>
       <c r="J375" t="s">
-        <v>1580</v>
+        <v>99</v>
       </c>
       <c r="K375" t="s">
-        <v>1624</v>
+        <v>153</v>
       </c>
       <c r="L375" t="s">
-        <v>1535</v>
+        <v>152</v>
       </c>
       <c r="M375" t="s">
-        <v>1481</v>
+        <v>116</v>
       </c>
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" s="1" t="s">
-        <v>1415</v>
+        <v>77</v>
       </c>
       <c r="B376" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D376" t="s">
-        <v>90</v>
-      </c>
-      <c r="E376" s="1" t="s">
-        <v>1483</v>
+        <v>91</v>
       </c>
       <c r="J376" t="s">
-        <v>1581</v>
-      </c>
-      <c r="K376" t="s">
-        <v>1625</v>
+        <v>100</v>
       </c>
       <c r="L376" t="s">
-        <v>1484</v>
+        <v>154</v>
       </c>
       <c r="M376" t="s">
-        <v>1482</v>
+        <v>117</v>
       </c>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" s="1" t="s">
-        <v>1416</v>
+        <v>78</v>
       </c>
       <c r="B377" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D377" t="s">
-        <v>90</v>
-      </c>
-      <c r="E377"/>
+        <v>91</v>
+      </c>
       <c r="J377" t="s">
-        <v>1582</v>
+        <v>101</v>
       </c>
       <c r="K377" t="s">
-        <v>1626</v>
+        <v>136</v>
       </c>
       <c r="L377" t="s">
-        <v>1536</v>
+        <v>155</v>
       </c>
       <c r="M377" t="s">
-        <v>1485</v>
+        <v>118</v>
       </c>
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" s="1" t="s">
-        <v>1417</v>
+        <v>79</v>
       </c>
       <c r="B378" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D378" t="s">
-        <v>90</v>
-      </c>
-      <c r="E378"/>
+        <v>91</v>
+      </c>
       <c r="J378" t="s">
-        <v>1583</v>
+        <v>101</v>
       </c>
       <c r="K378" t="s">
-        <v>1627</v>
+        <v>136</v>
       </c>
       <c r="L378" t="s">
-        <v>1537</v>
+        <v>155</v>
       </c>
       <c r="M378" t="s">
-        <v>1486</v>
+        <v>118</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" s="1" t="s">
-        <v>1418</v>
+        <v>80</v>
       </c>
       <c r="B379" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D379" t="s">
-        <v>89</v>
-      </c>
-      <c r="E379" s="1" t="s">
-        <v>1490</v>
+        <v>91</v>
       </c>
       <c r="J379" t="s">
-        <v>1584</v>
+        <v>102</v>
       </c>
       <c r="K379" t="s">
-        <v>1628</v>
+        <v>137</v>
       </c>
       <c r="L379" t="s">
-        <v>1538</v>
+        <v>156</v>
       </c>
       <c r="M379" t="s">
-        <v>1487</v>
+        <v>119</v>
       </c>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" s="1" t="s">
-        <v>1419</v>
+        <v>81</v>
       </c>
       <c r="B380" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D380" t="s">
         <v>91</v>
       </c>
       <c r="J380" t="s">
-        <v>918</v>
+        <v>102</v>
       </c>
       <c r="K380" t="s">
-        <v>908</v>
+        <v>137</v>
       </c>
       <c r="L380" t="s">
-        <v>1539</v>
+        <v>156</v>
       </c>
       <c r="M380" t="s">
-        <v>1488</v>
+        <v>119</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" s="1" t="s">
-        <v>1420</v>
+        <v>82</v>
       </c>
       <c r="B381" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D381" t="s">
-        <v>90</v>
-      </c>
-      <c r="E381" s="1" t="s">
-        <v>1491</v>
+        <v>190</v>
       </c>
       <c r="J381" t="s">
-        <v>1585</v>
-      </c>
-      <c r="K381" t="s">
-        <v>1629</v>
-      </c>
-      <c r="L381" t="s">
-        <v>1540</v>
+        <v>103</v>
       </c>
       <c r="M381" t="s">
-        <v>1489</v>
+        <v>120</v>
       </c>
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" s="1" t="s">
-        <v>1421</v>
+        <v>83</v>
       </c>
       <c r="B382" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D382" t="s">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="J382" t="s">
-        <v>1586</v>
-      </c>
-      <c r="K382" t="s">
-        <v>886</v>
-      </c>
-      <c r="L382" t="s">
-        <v>1541</v>
+        <v>104</v>
       </c>
       <c r="M382" t="s">
-        <v>1498</v>
+        <v>121</v>
       </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" s="1" t="s">
-        <v>1422</v>
+        <v>84</v>
       </c>
       <c r="B383" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D383" t="s">
-        <v>91</v>
-      </c>
-      <c r="E383" s="1" t="s">
-        <v>1492</v>
+        <v>27</v>
       </c>
       <c r="J383" t="s">
-        <v>1587</v>
+        <v>105</v>
       </c>
       <c r="K383" t="s">
-        <v>1630</v>
+        <v>138</v>
       </c>
       <c r="L383" t="s">
-        <v>1499</v>
+        <v>157</v>
       </c>
       <c r="M383" t="s">
-        <v>1499</v>
+        <v>122</v>
       </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" s="1" t="s">
-        <v>1423</v>
+        <v>85</v>
       </c>
       <c r="B384" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D384" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="J384" t="s">
-        <v>1588</v>
+        <v>94</v>
       </c>
       <c r="K384" t="s">
-        <v>1631</v>
+        <v>139</v>
       </c>
       <c r="L384" t="s">
-        <v>1542</v>
+        <v>157</v>
       </c>
       <c r="M384" t="s">
-        <v>1500</v>
+        <v>123</v>
       </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" s="1" t="s">
-        <v>1424</v>
+        <v>86</v>
       </c>
       <c r="B385" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D385" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="J385" t="s">
-        <v>1589</v>
+        <v>106</v>
       </c>
       <c r="K385" t="s">
-        <v>1632</v>
+        <v>140</v>
       </c>
       <c r="L385" t="s">
-        <v>1543</v>
+        <v>158</v>
       </c>
       <c r="M385" t="s">
-        <v>1501</v>
+        <v>124</v>
       </c>
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" s="1" t="s">
-        <v>1425</v>
+        <v>87</v>
       </c>
       <c r="B386" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D386" t="s">
-        <v>1178</v>
-      </c>
-      <c r="E386" s="1" t="s">
-        <v>1493</v>
+        <v>27</v>
+      </c>
+      <c r="F386" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="J386" t="s">
-        <v>1590</v>
+        <v>107</v>
       </c>
       <c r="K386" t="s">
-        <v>1633</v>
+        <v>141</v>
       </c>
       <c r="L386" t="s">
-        <v>1544</v>
+        <v>159</v>
       </c>
       <c r="M386" t="s">
-        <v>1502</v>
+        <v>125</v>
       </c>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" s="1" t="s">
-        <v>1426</v>
+        <v>1388</v>
       </c>
       <c r="B387" t="s">
         <v>1387</v>
       </c>
       <c r="D387" t="s">
-        <v>89</v>
-      </c>
-      <c r="E387" s="1" t="s">
-        <v>1494</v>
+        <v>40</v>
       </c>
       <c r="J387" t="s">
-        <v>1591</v>
+        <v>1553</v>
       </c>
       <c r="K387" t="s">
-        <v>1634</v>
+        <v>1599</v>
       </c>
       <c r="L387" t="s">
-        <v>1545</v>
+        <v>1514</v>
       </c>
       <c r="M387" t="s">
-        <v>1503</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" s="1" t="s">
-        <v>1427</v>
+        <v>1400</v>
       </c>
       <c r="B388" t="s">
         <v>1387</v>
       </c>
       <c r="D388" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>1442</v>
       </c>
       <c r="J388" t="s">
-        <v>1592</v>
+        <v>1554</v>
       </c>
       <c r="K388" t="s">
-        <v>1635</v>
+        <v>1600</v>
       </c>
       <c r="L388" t="s">
-        <v>1546</v>
+        <v>1511</v>
       </c>
       <c r="M388" t="s">
-        <v>1504</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" s="1" t="s">
-        <v>1428</v>
+        <v>1389</v>
       </c>
       <c r="B389" t="s">
         <v>1387</v>
       </c>
       <c r="D389" t="s">
-        <v>91</v>
-      </c>
-      <c r="E389" s="1" t="s">
-        <v>1495</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E389"/>
       <c r="J389" t="s">
-        <v>1593</v>
+        <v>1555</v>
       </c>
       <c r="K389" t="s">
-        <v>1636</v>
+        <v>1601</v>
       </c>
       <c r="L389" t="s">
-        <v>1547</v>
+        <v>1512</v>
       </c>
       <c r="M389" t="s">
-        <v>1505</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" s="1" t="s">
-        <v>1429</v>
+        <v>1390</v>
       </c>
       <c r="B390" t="s">
         <v>1387</v>
       </c>
       <c r="D390" t="s">
-        <v>27</v>
-      </c>
-      <c r="F390" s="1" t="s">
-        <v>1430</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E390"/>
       <c r="J390" t="s">
-        <v>1594</v>
+        <v>1556</v>
       </c>
       <c r="K390" t="s">
-        <v>1637</v>
+        <v>1602</v>
       </c>
       <c r="L390" t="s">
-        <v>1548</v>
+        <v>1515</v>
       </c>
       <c r="M390" t="s">
-        <v>1506</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" s="1" t="s">
-        <v>1431</v>
+        <v>1391</v>
       </c>
       <c r="B391" t="s">
         <v>1387</v>
       </c>
       <c r="D391" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>1438</v>
-      </c>
-      <c r="G391" s="1" t="s">
-        <v>1432</v>
+        <v>1444</v>
       </c>
       <c r="J391" t="s">
-        <v>1595</v>
+        <v>1557</v>
       </c>
       <c r="K391" t="s">
-        <v>1638</v>
+        <v>1603</v>
       </c>
       <c r="L391" t="s">
-        <v>1549</v>
+        <v>1513</v>
       </c>
       <c r="M391" t="s">
-        <v>1507</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" s="1" t="s">
-        <v>1433</v>
+        <v>1392</v>
       </c>
       <c r="B392" t="s">
         <v>1387</v>
       </c>
-      <c r="C392" s="1"/>
       <c r="D392" t="s">
-        <v>27</v>
-      </c>
-      <c r="E392" s="1" t="s">
-        <v>1496</v>
-      </c>
-      <c r="G392" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="E392"/>
       <c r="J392" t="s">
-        <v>1596</v>
+        <v>1558</v>
       </c>
       <c r="K392" t="s">
-        <v>1639</v>
+        <v>1558</v>
       </c>
       <c r="L392" t="s">
-        <v>1550</v>
+        <v>1516</v>
       </c>
       <c r="M392" t="s">
-        <v>1508</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" s="1" t="s">
-        <v>1434</v>
+        <v>1393</v>
       </c>
       <c r="B393" t="s">
         <v>1387</v>
       </c>
       <c r="D393" t="s">
-        <v>27</v>
-      </c>
-      <c r="G393" s="1" t="s">
-        <v>1435</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E393"/>
       <c r="J393" t="s">
-        <v>1597</v>
+        <v>1559</v>
       </c>
       <c r="K393" t="s">
-        <v>1640</v>
+        <v>1604</v>
       </c>
       <c r="L393" t="s">
-        <v>1551</v>
+        <v>1517</v>
       </c>
       <c r="M393" t="s">
-        <v>1509</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" s="1" t="s">
-        <v>1436</v>
+        <v>1394</v>
       </c>
       <c r="B394" t="s">
         <v>1387</v>
       </c>
-      <c r="C394" s="1"/>
       <c r="D394" t="s">
+        <v>40</v>
+      </c>
+      <c r="E394"/>
+      <c r="J394" t="s">
+        <v>1560</v>
+      </c>
+      <c r="K394" t="s">
+        <v>1605</v>
+      </c>
+      <c r="L394" t="s">
+        <v>1518</v>
+      </c>
+      <c r="M394" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="395" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A395" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B395" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D395" t="s">
+        <v>90</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="J395" t="s">
+        <v>1561</v>
+      </c>
+      <c r="K395" t="s">
+        <v>1606</v>
+      </c>
+      <c r="L395" t="s">
+        <v>1519</v>
+      </c>
+      <c r="M395" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="396" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A396" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B396" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D396" t="s">
+        <v>90</v>
+      </c>
+      <c r="E396"/>
+      <c r="J396" t="s">
+        <v>1562</v>
+      </c>
+      <c r="K396" t="s">
+        <v>1607</v>
+      </c>
+      <c r="L396" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M396" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="397" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A397" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B397" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D397" t="s">
+        <v>90</v>
+      </c>
+      <c r="E397"/>
+      <c r="J397" t="s">
+        <v>1563</v>
+      </c>
+      <c r="K397" t="s">
+        <v>1608</v>
+      </c>
+      <c r="L397" t="s">
+        <v>1521</v>
+      </c>
+      <c r="M397" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="398" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A398" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D398" t="s">
+        <v>90</v>
+      </c>
+      <c r="E398" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="J398" t="s">
+        <v>1563</v>
+      </c>
+      <c r="K398" t="s">
+        <v>1609</v>
+      </c>
+      <c r="L398" t="s">
+        <v>1521</v>
+      </c>
+      <c r="M398" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="399" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A399" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B399" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D399" t="s">
+        <v>90</v>
+      </c>
+      <c r="E399"/>
+      <c r="J399" t="s">
+        <v>1564</v>
+      </c>
+      <c r="K399" t="s">
+        <v>1609</v>
+      </c>
+      <c r="L399" t="s">
+        <v>1522</v>
+      </c>
+      <c r="M399" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="400" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A400" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B400" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D400" t="s">
+        <v>90</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="J400" t="s">
+        <v>1565</v>
+      </c>
+      <c r="K400" t="s">
+        <v>1610</v>
+      </c>
+      <c r="L400" t="s">
+        <v>1523</v>
+      </c>
+      <c r="M400" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="401" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A401" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D401" t="s">
+        <v>90</v>
+      </c>
+      <c r="E401"/>
+      <c r="J401" t="s">
+        <v>1566</v>
+      </c>
+      <c r="K401" t="s">
+        <v>1611</v>
+      </c>
+      <c r="L401" t="s">
+        <v>1524</v>
+      </c>
+      <c r="M401" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="402" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A402" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D402" t="s">
+        <v>90</v>
+      </c>
+      <c r="E402" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="J402" t="s">
+        <v>1567</v>
+      </c>
+      <c r="K402" t="s">
+        <v>1612</v>
+      </c>
+      <c r="L402" t="s">
+        <v>1525</v>
+      </c>
+      <c r="M402" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="403" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A403" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D403" t="s">
+        <v>90</v>
+      </c>
+      <c r="E403"/>
+      <c r="J403" t="s">
+        <v>1568</v>
+      </c>
+      <c r="K403" t="s">
+        <v>1613</v>
+      </c>
+      <c r="L403" t="s">
+        <v>1526</v>
+      </c>
+      <c r="M403" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="404" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A404" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D404" t="s">
+        <v>90</v>
+      </c>
+      <c r="E404"/>
+      <c r="J404" t="s">
+        <v>1569</v>
+      </c>
+      <c r="K404" t="s">
+        <v>1614</v>
+      </c>
+      <c r="L404" t="s">
+        <v>1527</v>
+      </c>
+      <c r="M404" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="405" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A405" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B405" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D405" t="s">
+        <v>90</v>
+      </c>
+      <c r="E405"/>
+      <c r="J405" t="s">
+        <v>1571</v>
+      </c>
+      <c r="K405" t="s">
+        <v>1615</v>
+      </c>
+      <c r="L405" t="s">
+        <v>1570</v>
+      </c>
+      <c r="M405" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="406" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A406" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B406" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D406" t="s">
+        <v>90</v>
+      </c>
+      <c r="E406"/>
+      <c r="J406" t="s">
+        <v>1572</v>
+      </c>
+      <c r="K406" t="s">
+        <v>1616</v>
+      </c>
+      <c r="L406" t="s">
+        <v>1528</v>
+      </c>
+      <c r="M406" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="407" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A407" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B407" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D407" t="s">
+        <v>90</v>
+      </c>
+      <c r="E407" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="J407" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K407" t="s">
+        <v>1617</v>
+      </c>
+      <c r="L407" t="s">
+        <v>1529</v>
+      </c>
+      <c r="M407" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="408" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A408" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D408" t="s">
+        <v>90</v>
+      </c>
+      <c r="E408" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="J408" t="s">
+        <v>1574</v>
+      </c>
+      <c r="K408" t="s">
+        <v>1618</v>
+      </c>
+      <c r="L408" t="s">
+        <v>1530</v>
+      </c>
+      <c r="M408" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="409" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A409" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B409" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D409" t="s">
+        <v>90</v>
+      </c>
+      <c r="E409"/>
+      <c r="J409" t="s">
+        <v>1576</v>
+      </c>
+      <c r="K409" t="s">
+        <v>1619</v>
+      </c>
+      <c r="L409" t="s">
+        <v>1531</v>
+      </c>
+      <c r="M409" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="410" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A410" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D410" t="s">
+        <v>90</v>
+      </c>
+      <c r="E410"/>
+      <c r="J410" t="s">
+        <v>1575</v>
+      </c>
+      <c r="K410" t="s">
+        <v>1620</v>
+      </c>
+      <c r="L410" t="s">
+        <v>1532</v>
+      </c>
+      <c r="M410" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="411" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A411" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D411" t="s">
+        <v>90</v>
+      </c>
+      <c r="E411" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="J411" t="s">
+        <v>1577</v>
+      </c>
+      <c r="K411" t="s">
+        <v>1621</v>
+      </c>
+      <c r="L411" t="s">
+        <v>1533</v>
+      </c>
+      <c r="M411" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="412" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A412" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B412" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D412" t="s">
+        <v>90</v>
+      </c>
+      <c r="E412" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="J412" t="s">
+        <v>1578</v>
+      </c>
+      <c r="K412" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L412" t="s">
+        <v>1534</v>
+      </c>
+      <c r="M412" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="413" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A413" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D413" t="s">
+        <v>90</v>
+      </c>
+      <c r="E413" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="J413" t="s">
+        <v>1579</v>
+      </c>
+      <c r="K413" t="s">
+        <v>1623</v>
+      </c>
+      <c r="L413" t="s">
+        <v>1478</v>
+      </c>
+      <c r="M413" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="414" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A414" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B414" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D414" t="s">
+        <v>90</v>
+      </c>
+      <c r="E414" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="J414" t="s">
+        <v>1580</v>
+      </c>
+      <c r="K414" t="s">
+        <v>1624</v>
+      </c>
+      <c r="L414" t="s">
+        <v>1535</v>
+      </c>
+      <c r="M414" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="415" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A415" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B415" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D415" t="s">
+        <v>90</v>
+      </c>
+      <c r="E415" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J415" t="s">
+        <v>1580</v>
+      </c>
+      <c r="K415" t="s">
+        <v>1624</v>
+      </c>
+      <c r="L415" t="s">
+        <v>1535</v>
+      </c>
+      <c r="M415" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="416" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A416" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B416" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D416" t="s">
+        <v>90</v>
+      </c>
+      <c r="E416" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="J416" t="s">
+        <v>1581</v>
+      </c>
+      <c r="K416" t="s">
+        <v>1625</v>
+      </c>
+      <c r="L416" t="s">
+        <v>1484</v>
+      </c>
+      <c r="M416" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="417" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A417" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B417" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D417" t="s">
+        <v>90</v>
+      </c>
+      <c r="E417"/>
+      <c r="J417" t="s">
+        <v>1582</v>
+      </c>
+      <c r="K417" t="s">
+        <v>1626</v>
+      </c>
+      <c r="L417" t="s">
+        <v>1536</v>
+      </c>
+      <c r="M417" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="418" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A418" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B418" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D418" t="s">
+        <v>90</v>
+      </c>
+      <c r="E418"/>
+      <c r="J418" t="s">
+        <v>1583</v>
+      </c>
+      <c r="K418" t="s">
+        <v>1627</v>
+      </c>
+      <c r="L418" t="s">
+        <v>1537</v>
+      </c>
+      <c r="M418" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="419" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A419" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B419" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D419" t="s">
+        <v>89</v>
+      </c>
+      <c r="E419" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="J419" t="s">
+        <v>1584</v>
+      </c>
+      <c r="K419" t="s">
+        <v>1628</v>
+      </c>
+      <c r="L419" t="s">
+        <v>1538</v>
+      </c>
+      <c r="M419" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="420" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A420" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B420" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D420" t="s">
+        <v>91</v>
+      </c>
+      <c r="J420" t="s">
+        <v>918</v>
+      </c>
+      <c r="K420" t="s">
+        <v>908</v>
+      </c>
+      <c r="L420" t="s">
+        <v>1539</v>
+      </c>
+      <c r="M420" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="421" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A421" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B421" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D421" t="s">
+        <v>90</v>
+      </c>
+      <c r="E421" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="J421" t="s">
+        <v>1585</v>
+      </c>
+      <c r="K421" t="s">
+        <v>1629</v>
+      </c>
+      <c r="L421" t="s">
+        <v>1540</v>
+      </c>
+      <c r="M421" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="422" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A422" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B422" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D422" t="s">
+        <v>91</v>
+      </c>
+      <c r="J422" t="s">
+        <v>1586</v>
+      </c>
+      <c r="K422" t="s">
+        <v>886</v>
+      </c>
+      <c r="L422" t="s">
+        <v>1541</v>
+      </c>
+      <c r="M422" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="423" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A423" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B423" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D423" t="s">
+        <v>91</v>
+      </c>
+      <c r="E423" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="J423" t="s">
+        <v>1587</v>
+      </c>
+      <c r="K423" t="s">
+        <v>1630</v>
+      </c>
+      <c r="L423" t="s">
+        <v>1499</v>
+      </c>
+      <c r="M423" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="424" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A424" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B424" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D424" t="s">
+        <v>91</v>
+      </c>
+      <c r="J424" t="s">
+        <v>1588</v>
+      </c>
+      <c r="K424" t="s">
+        <v>1631</v>
+      </c>
+      <c r="L424" t="s">
+        <v>1542</v>
+      </c>
+      <c r="M424" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="425" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A425" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B425" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D425" t="s">
+        <v>91</v>
+      </c>
+      <c r="J425" t="s">
+        <v>1589</v>
+      </c>
+      <c r="K425" t="s">
+        <v>1632</v>
+      </c>
+      <c r="L425" t="s">
+        <v>1543</v>
+      </c>
+      <c r="M425" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="426" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A426" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B426" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D426" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E426" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="J426" t="s">
+        <v>1590</v>
+      </c>
+      <c r="K426" t="s">
+        <v>1633</v>
+      </c>
+      <c r="L426" t="s">
+        <v>1544</v>
+      </c>
+      <c r="M426" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="427" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A427" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B427" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D427" t="s">
+        <v>89</v>
+      </c>
+      <c r="E427" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J427" t="s">
+        <v>1591</v>
+      </c>
+      <c r="K427" t="s">
+        <v>1634</v>
+      </c>
+      <c r="L427" t="s">
+        <v>1545</v>
+      </c>
+      <c r="M427" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="428" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A428" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B428" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D428" t="s">
+        <v>91</v>
+      </c>
+      <c r="J428" t="s">
+        <v>1592</v>
+      </c>
+      <c r="K428" t="s">
+        <v>1635</v>
+      </c>
+      <c r="L428" t="s">
+        <v>1546</v>
+      </c>
+      <c r="M428" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="429" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A429" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B429" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D429" t="s">
+        <v>91</v>
+      </c>
+      <c r="E429" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="J429" t="s">
+        <v>1593</v>
+      </c>
+      <c r="K429" t="s">
+        <v>1636</v>
+      </c>
+      <c r="L429" t="s">
+        <v>1547</v>
+      </c>
+      <c r="M429" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="430" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A430" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B430" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D430" t="s">
         <v>27</v>
       </c>
-      <c r="E394" s="1" t="s">
+      <c r="F430" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="J430" t="s">
+        <v>1594</v>
+      </c>
+      <c r="K430" t="s">
+        <v>1637</v>
+      </c>
+      <c r="L430" t="s">
+        <v>1548</v>
+      </c>
+      <c r="M430" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="431" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A431" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B431" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D431" t="s">
+        <v>27</v>
+      </c>
+      <c r="E431" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="G431" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="J431" t="s">
+        <v>1595</v>
+      </c>
+      <c r="K431" t="s">
+        <v>1638</v>
+      </c>
+      <c r="L431" t="s">
+        <v>1549</v>
+      </c>
+      <c r="M431" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="432" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A432" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B432" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C432" s="1"/>
+      <c r="D432" t="s">
+        <v>27</v>
+      </c>
+      <c r="E432" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="G432" s="1"/>
+      <c r="J432" t="s">
+        <v>1596</v>
+      </c>
+      <c r="K432" t="s">
+        <v>1639</v>
+      </c>
+      <c r="L432" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M432" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="433" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A433" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B433" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D433" t="s">
+        <v>27</v>
+      </c>
+      <c r="G433" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="J433" t="s">
+        <v>1597</v>
+      </c>
+      <c r="K433" t="s">
+        <v>1640</v>
+      </c>
+      <c r="L433" t="s">
+        <v>1551</v>
+      </c>
+      <c r="M433" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="434" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A434" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B434" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C434" s="1"/>
+      <c r="D434" t="s">
+        <v>27</v>
+      </c>
+      <c r="E434" s="1" t="s">
         <v>1497</v>
       </c>
-      <c r="F394" s="1" t="s">
+      <c r="F434" s="1" t="s">
         <v>1437</v>
       </c>
-      <c r="J394" t="s">
+      <c r="J434" t="s">
         <v>1598</v>
       </c>
-      <c r="K394" t="s">
+      <c r="K434" t="s">
         <v>1641</v>
       </c>
-      <c r="L394" t="s">
+      <c r="L434" t="s">
         <v>1552</v>
       </c>
-      <c r="M394" t="s">
+      <c r="M434" t="s">
         <v>1510</v>
       </c>
     </row>

--- a/dictionary/Vocab.xlsx
+++ b/dictionary/Vocab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_Trae\TibetanNote\dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5B0736-D6B3-4BAA-8252-C51719DBB098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05281C7D-D4FA-4A2D-9B64-5B27033EC670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3138" uniqueCount="2053">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3438" uniqueCount="2271">
   <si>
     <t>word</t>
   </si>
@@ -6195,6 +6195,660 @@
   </si>
   <si>
     <t>V.Part.</t>
+  </si>
+  <si>
+    <t>ཞོགས་ཇ།</t>
+  </si>
+  <si>
+    <t>ཚལ།</t>
+  </si>
+  <si>
+    <t>ལག་པ།</t>
+  </si>
+  <si>
+    <t>ཉིན་གུང་།</t>
+  </si>
+  <si>
+    <t>ཞོགས་པ།</t>
+  </si>
+  <si>
+    <t>དགོང་དག</t>
+  </si>
+  <si>
+    <t>ཉིན་གུང་རྒྱབ།</t>
+  </si>
+  <si>
+    <t>རྟག་པར།</t>
+  </si>
+  <si>
+    <t>སྐད་བརྒྱབ་པ།</t>
+  </si>
+  <si>
+    <t>སྐད་རྒྱག་པ།</t>
+  </si>
+  <si>
+    <t>སྐད་རྒྱག་པ་</t>
+  </si>
+  <si>
+    <t>ངལ་གསོ་བརྒྱབ་པ།</t>
+  </si>
+  <si>
+    <t>ངལ་གསོ་བརྒྱབ་པ་</t>
+  </si>
+  <si>
+    <t>ངལ་གསོ་རྒྱག་པ།</t>
+  </si>
+  <si>
+    <t>ཡར་ལང་བ།</t>
+  </si>
+  <si>
+    <t>ཡར་ལང་བ་</t>
+  </si>
+  <si>
+    <t>ཉལ་བ།</t>
+  </si>
+  <si>
+    <t>འཁྲི་བ།</t>
+  </si>
+  <si>
+    <t>བྱེད་པ།</t>
+  </si>
+  <si>
+    <t>༼ཁ་ལག་༽ཟ་བ།</t>
+  </si>
+  <si>
+    <t>༼ཁ་ལག་༽ཟ་བ་</t>
+  </si>
+  <si>
+    <t>འགྲོ་བ།</t>
+  </si>
+  <si>
+    <t>ཡོང་བ།</t>
+  </si>
+  <si>
+    <t>ལོག་ཡོང་བ།</t>
+  </si>
+  <si>
+    <t>ལོག་འགྲོ་བ།</t>
+  </si>
+  <si>
+    <t>ལོག་ཡོང་བ་</t>
+  </si>
+  <si>
+    <t>ལོག་འགྲོ་བ་</t>
+  </si>
+  <si>
+    <t>ལས་ཀ་བྱེད་པ།</t>
+  </si>
+  <si>
+    <t>ལས་ཀ་བྱེད་པ་</t>
+  </si>
+  <si>
+    <t>རོགས་པ་བྱེད་པ།</t>
+  </si>
+  <si>
+    <t>རོགས་པ་བྱེད་པ་</t>
+  </si>
+  <si>
+    <t>ཁ་ལག་བཟོ་བ།</t>
+  </si>
+  <si>
+    <t>ཁ་ལག་བཟོ་བ་</t>
+  </si>
+  <si>
+    <t>༼དེབ་༽ལྟ་བ།</t>
+  </si>
+  <si>
+    <t>༼དེབ་༽ལྟ་བ་</t>
+  </si>
+  <si>
+    <t>ལྟ་བ།</t>
+  </si>
+  <si>
+    <t>གོན་པ།</t>
+  </si>
+  <si>
+    <t>སྐད་ཆ་བཤད་པ།</t>
+  </si>
+  <si>
+    <t>སྐད་ཆ་བཤད་པ་</t>
+  </si>
+  <si>
+    <t>སྐད་ཆ་ཤོད་པ། / སྐད་ཆ་འཆད་པ།</t>
+  </si>
+  <si>
+    <t>ལེན་པ།</t>
+  </si>
+  <si>
+    <t>ཉོ་བ།</t>
+  </si>
+  <si>
+    <t>འཚོང་བ།</t>
+  </si>
+  <si>
+    <t>དགའ་པོ་བྱེད་པ།</t>
+  </si>
+  <si>
+    <t>དགའ་པོ་བྱེད་པ་</t>
+  </si>
+  <si>
+    <t>གཉིད་ཁུག་པ།</t>
+  </si>
+  <si>
+    <t>གཉིད་སད་པ།</t>
+  </si>
+  <si>
+    <t>གཉིད་ཁུག་པ་</t>
+  </si>
+  <si>
+    <t>གཉིད་སད་པ་</t>
+  </si>
+  <si>
+    <t>ན་བ།</t>
+  </si>
+  <si>
+    <t>སོ་སོ།</t>
+  </si>
+  <si>
+    <t>ཀར་འགྲོ་བ།</t>
+  </si>
+  <si>
+    <t>དེ་ནས།</t>
+  </si>
+  <si>
+    <t>དེ་ནས་</t>
+  </si>
+  <si>
+    <t>བྱས་ཙང་།</t>
+  </si>
+  <si>
+    <t>སོང་ཙང་།</t>
+  </si>
+  <si>
+    <t>བར་དུ།</t>
+  </si>
+  <si>
+    <t>བར་རུ་ལ།</t>
+  </si>
+  <si>
+    <t>ཙམ།</t>
+  </si>
+  <si>
+    <t>ག་རེ་ཡིན་ནཱ།</t>
+  </si>
+  <si>
+    <t>རྒྱུ་མཚན་ག་རེ་ཡིན་ནཱ།</t>
+  </si>
+  <si>
+    <t>གང་ཡིན་ཟེར་ན།</t>
+  </si>
+  <si>
+    <t>རྒྱུ་མཚན་ག་རེ་ཟེར་ན།</t>
+  </si>
+  <si>
+    <t>V01-L10</t>
+  </si>
+  <si>
+    <t>petit-déjeuner</t>
+  </si>
+  <si>
+    <t>légume</t>
+  </si>
+  <si>
+    <t>main ; bras</t>
+  </si>
+  <si>
+    <t>midi</t>
+  </si>
+  <si>
+    <t>matin</t>
+  </si>
+  <si>
+    <t>soir ; nuit</t>
+  </si>
+  <si>
+    <t>après-midi</t>
+  </si>
+  <si>
+    <t>toujours</t>
+  </si>
+  <si>
+    <t>crier ; sonner (réveil) ; parler (une langue)</t>
+  </si>
+  <si>
+    <t>se reposer</t>
+  </si>
+  <si>
+    <t>se lever ; être debout</t>
+  </si>
+  <si>
+    <t>se coucher ; être couché</t>
+  </si>
+  <si>
+    <t>laver ; se laver</t>
+  </si>
+  <si>
+    <t>faire ; verbalisateur</t>
+  </si>
+  <si>
+    <t>aller ; s'en aller ; partir</t>
+  </si>
+  <si>
+    <t>venir (de qqpart)</t>
+  </si>
+  <si>
+    <t>revenir</t>
+  </si>
+  <si>
+    <t>retourner ; s'en retourner ; repartir ; rentrer</t>
+  </si>
+  <si>
+    <t>travailler</t>
+  </si>
+  <si>
+    <t>aider</t>
+  </si>
+  <si>
+    <t>cuisiner ; préparer un repas</t>
+  </si>
+  <si>
+    <t>lire (un livre)</t>
+  </si>
+  <si>
+    <t>regarder (+datif)</t>
+  </si>
+  <si>
+    <t>mettre soi-même (vêtement)</t>
+  </si>
+  <si>
+    <t>parler</t>
+  </si>
+  <si>
+    <t>prendre</t>
+  </si>
+  <si>
+    <t>acheter</t>
+  </si>
+  <si>
+    <t>vendre</t>
+  </si>
+  <si>
+    <t>être content</t>
+  </si>
+  <si>
+    <t>V.non contr.</t>
+  </si>
+  <si>
+    <t>dormir</t>
+  </si>
+  <si>
+    <t>se réveiller</t>
+  </si>
+  <si>
+    <t>être malade</t>
+  </si>
+  <si>
+    <t>aller faire qqch</t>
+  </si>
+  <si>
+    <t>soi-même</t>
+  </si>
+  <si>
+    <t>ensuite ; et puis</t>
+  </si>
+  <si>
+    <t>c'est pour ça que … ; donc</t>
+  </si>
+  <si>
+    <t>jusqu'à</t>
+  </si>
+  <si>
+    <t>environ ; à peu près</t>
+  </si>
+  <si>
+    <t>pourquoi</t>
+  </si>
+  <si>
+    <t>parce que</t>
+  </si>
+  <si>
+    <t>breakfast</t>
+  </si>
+  <si>
+    <t>vegetable</t>
+  </si>
+  <si>
+    <t>hand; arm</t>
+  </si>
+  <si>
+    <t>morning</t>
+  </si>
+  <si>
+    <t>afternoon</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>get up; stand</t>
+  </si>
+  <si>
+    <t>lie down; lie</t>
+  </si>
+  <si>
+    <t>wash; wash</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>look (+dative)</t>
+  </si>
+  <si>
+    <t>put on yourself (clothing)</t>
+  </si>
+  <si>
+    <t>speak</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>sell</t>
+  </si>
+  <si>
+    <t>be happy</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>wake up</t>
+  </si>
+  <si>
+    <t>be ill</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>that's why ...; therefore</t>
+  </si>
+  <si>
+    <t>until</t>
+  </si>
+  <si>
+    <t>approximately; pretty much</t>
+  </si>
+  <si>
+    <t>noon</t>
+  </si>
+  <si>
+    <t>evening; night</t>
+  </si>
+  <si>
+    <t>shout; ring (alarm clock); speak (one language)</t>
+  </si>
+  <si>
+    <t>do; verbaliser</t>
+  </si>
+  <si>
+    <t>go; leave</t>
+  </si>
+  <si>
+    <t>come (from qqpart)</t>
+  </si>
+  <si>
+    <t>return; leave again</t>
+  </si>
+  <si>
+    <t>cook; prepare a meal</t>
+  </si>
+  <si>
+    <t>read (a book)</t>
+  </si>
+  <si>
+    <t>go do something</t>
+  </si>
+  <si>
+    <t>then; and then</t>
+  </si>
+  <si>
+    <t>why</t>
+  </si>
+  <si>
+    <t>because</t>
+  </si>
+  <si>
+    <t>朝食</t>
+  </si>
+  <si>
+    <t>野菜</t>
+  </si>
+  <si>
+    <t>朝</t>
+  </si>
+  <si>
+    <t>午後</t>
+  </si>
+  <si>
+    <t>いつも</t>
+  </si>
+  <si>
+    <t>休む</t>
+  </si>
+  <si>
+    <t>帰る</t>
+  </si>
+  <si>
+    <t>話す</t>
+  </si>
+  <si>
+    <t>取る</t>
+  </si>
+  <si>
+    <t>買う</t>
+  </si>
+  <si>
+    <t>売る</t>
+  </si>
+  <si>
+    <t>寝る</t>
+  </si>
+  <si>
+    <t>病気になる</t>
+  </si>
+  <si>
+    <t>自己</t>
+  </si>
+  <si>
+    <t>というのは</t>
+  </si>
+  <si>
+    <t>手、腕</t>
+  </si>
+  <si>
+    <t>お昼</t>
+  </si>
+  <si>
+    <t>夜</t>
+  </si>
+  <si>
+    <t>起きる、立つ</t>
+  </si>
+  <si>
+    <t>横になる</t>
+  </si>
+  <si>
+    <t>洗う</t>
+  </si>
+  <si>
+    <t>する</t>
+  </si>
+  <si>
+    <t>行く、去る</t>
+  </si>
+  <si>
+    <t>来る</t>
+  </si>
+  <si>
+    <t>帰る、戻る</t>
+  </si>
+  <si>
+    <t>手伝う</t>
+  </si>
+  <si>
+    <t>料理する</t>
+  </si>
+  <si>
+    <t>（本を）読む</t>
+  </si>
+  <si>
+    <t>（自分の服を）着る</t>
+  </si>
+  <si>
+    <t>元気がある</t>
+  </si>
+  <si>
+    <t>目が覚める</t>
+  </si>
+  <si>
+    <t>にいく</t>
+  </si>
+  <si>
+    <t>自分</t>
+  </si>
+  <si>
+    <t>そうしたら、それから</t>
+  </si>
+  <si>
+    <t>というわけで、そこで</t>
+  </si>
+  <si>
+    <t>までに</t>
+  </si>
+  <si>
+    <t>約、かなり</t>
+  </si>
+  <si>
+    <t>どうして</t>
+  </si>
+  <si>
+    <t>叫ぶ、（目覚まし時計）鳴る、（言語）話す</t>
+  </si>
+  <si>
+    <t>早餐</t>
+  </si>
+  <si>
+    <t>蔬菜</t>
+  </si>
+  <si>
+    <t>中午</t>
+  </si>
+  <si>
+    <t>下午</t>
+  </si>
+  <si>
+    <t>总是</t>
+  </si>
+  <si>
+    <t>休息</t>
+  </si>
+  <si>
+    <t>返回</t>
+  </si>
+  <si>
+    <t>帮助</t>
+  </si>
+  <si>
+    <t>看（+与格）</t>
+  </si>
+  <si>
+    <t>拿</t>
+  </si>
+  <si>
+    <t>买</t>
+  </si>
+  <si>
+    <t>卖</t>
+  </si>
+  <si>
+    <t>睡</t>
+  </si>
+  <si>
+    <t>醒来</t>
+  </si>
+  <si>
+    <t>直到</t>
+  </si>
+  <si>
+    <t>为什么</t>
+  </si>
+  <si>
+    <t>因为</t>
+  </si>
+  <si>
+    <t>手；手臂</t>
+  </si>
+  <si>
+    <t>早上</t>
+  </si>
+  <si>
+    <t>傍晚；晚上</t>
+  </si>
+  <si>
+    <t>喊；响（闹钟）；说（一种语言）</t>
+  </si>
+  <si>
+    <t>起床；站</t>
+  </si>
+  <si>
+    <t>躺下；躺</t>
+  </si>
+  <si>
+    <t>洗</t>
+  </si>
+  <si>
+    <t>做；动词化标记</t>
+  </si>
+  <si>
+    <t>去；离开</t>
+  </si>
+  <si>
+    <t>来</t>
+  </si>
+  <si>
+    <t>做饭</t>
+  </si>
+  <si>
+    <t>读（书）</t>
+  </si>
+  <si>
+    <t>穿（衣服）</t>
+  </si>
+  <si>
+    <t>高兴</t>
+  </si>
+  <si>
+    <t>病</t>
+  </si>
+  <si>
+    <t>去做</t>
+  </si>
+  <si>
+    <t>所以；因此</t>
+  </si>
+  <si>
+    <t>大约；几乎</t>
   </si>
 </sst>
 </file>
@@ -6524,13 +7178,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R434"/>
+  <dimension ref="A1:R479"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C361" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F389" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E360" sqref="E360"/>
+      <selection pane="bottomRight" activeCell="J405" sqref="J405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.55000000000000004"/>
@@ -6538,8 +7192,8 @@
     <col min="1" max="1" width="10.46484375" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.19921875" customWidth="1"/>
     <col min="3" max="3" width="16.86328125" customWidth="1"/>
-    <col min="5" max="6" width="9.06640625" style="1"/>
-    <col min="12" max="12" width="9.86328125" customWidth="1"/>
+    <col min="5" max="8" width="9.06640625" style="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -6561,10 +7215,10 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -9163,10 +9817,10 @@
       <c r="F108" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G108" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H108" t="s">
+      <c r="H108" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I108" t="s">
@@ -15085,1771 +15739,2761 @@
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" s="1" t="s">
-        <v>39</v>
+        <v>2053</v>
       </c>
       <c r="B362" t="s">
-        <v>190</v>
+        <v>2116</v>
       </c>
       <c r="D362" t="s">
         <v>40</v>
       </c>
-      <c r="E362" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="J362" t="s">
-        <v>42</v>
+        <v>2236</v>
       </c>
       <c r="K362" t="s">
-        <v>43</v>
+        <v>2197</v>
       </c>
       <c r="L362" t="s">
-        <v>57</v>
+        <v>2158</v>
       </c>
       <c r="M362" t="s">
-        <v>53</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" s="1" t="s">
-        <v>47</v>
+        <v>2054</v>
       </c>
       <c r="B363" t="s">
-        <v>190</v>
+        <v>2116</v>
       </c>
       <c r="D363" t="s">
         <v>40</v>
       </c>
-      <c r="E363" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="J363" t="s">
-        <v>62</v>
+        <v>2237</v>
       </c>
       <c r="K363" t="s">
-        <v>126</v>
+        <v>2198</v>
       </c>
       <c r="L363" t="s">
-        <v>142</v>
+        <v>2159</v>
       </c>
       <c r="M363" t="s">
-        <v>52</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" s="1" t="s">
-        <v>48</v>
+        <v>2055</v>
       </c>
       <c r="B364" t="s">
-        <v>190</v>
+        <v>2116</v>
       </c>
       <c r="D364" t="s">
         <v>40</v>
       </c>
+      <c r="J364" t="s">
+        <v>2253</v>
+      </c>
+      <c r="K364" t="s">
+        <v>2212</v>
+      </c>
+      <c r="L364" t="s">
+        <v>2160</v>
+      </c>
       <c r="M364" t="s">
-        <v>58</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" s="1" t="s">
-        <v>49</v>
+        <v>2056</v>
       </c>
       <c r="B365" t="s">
-        <v>190</v>
+        <v>2116</v>
       </c>
       <c r="D365" t="s">
         <v>40</v>
       </c>
-      <c r="E365" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="J365" t="s">
-        <v>63</v>
+        <v>2238</v>
       </c>
       <c r="K365" t="s">
-        <v>127</v>
+        <v>2213</v>
+      </c>
+      <c r="L365" t="s">
+        <v>2184</v>
       </c>
       <c r="M365" t="s">
-        <v>59</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" s="1" t="s">
-        <v>50</v>
+        <v>2057</v>
       </c>
       <c r="B366" t="s">
-        <v>190</v>
+        <v>2116</v>
       </c>
       <c r="D366" t="s">
         <v>40</v>
       </c>
-      <c r="E366" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="J366" t="s">
-        <v>64</v>
+        <v>2254</v>
       </c>
       <c r="K366" t="s">
-        <v>128</v>
+        <v>2199</v>
       </c>
       <c r="L366" t="s">
-        <v>143</v>
+        <v>2161</v>
       </c>
       <c r="M366" t="s">
-        <v>60</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" s="1" t="s">
-        <v>51</v>
+        <v>2058</v>
       </c>
       <c r="B367" t="s">
-        <v>190</v>
+        <v>2116</v>
       </c>
       <c r="D367" t="s">
         <v>40</v>
       </c>
       <c r="J367" t="s">
-        <v>65</v>
+        <v>2255</v>
       </c>
       <c r="K367" t="s">
-        <v>129</v>
+        <v>2214</v>
       </c>
       <c r="L367" t="s">
-        <v>144</v>
+        <v>2185</v>
       </c>
       <c r="M367" t="s">
-        <v>61</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" s="1" t="s">
-        <v>69</v>
+        <v>2059</v>
       </c>
       <c r="B368" t="s">
-        <v>190</v>
+        <v>2116</v>
       </c>
       <c r="D368" t="s">
         <v>40</v>
       </c>
       <c r="J368" t="s">
-        <v>108</v>
+        <v>2239</v>
       </c>
       <c r="K368" t="s">
-        <v>130</v>
+        <v>2200</v>
       </c>
       <c r="L368" t="s">
-        <v>145</v>
+        <v>2162</v>
       </c>
       <c r="M368" t="s">
-        <v>109</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" s="1" t="s">
-        <v>70</v>
+        <v>2060</v>
       </c>
       <c r="B369" t="s">
-        <v>190</v>
+        <v>2116</v>
       </c>
       <c r="D369" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="J369" t="s">
-        <v>93</v>
+        <v>2240</v>
       </c>
       <c r="K369" t="s">
-        <v>131</v>
+        <v>2201</v>
       </c>
       <c r="L369" t="s">
-        <v>146</v>
+        <v>2163</v>
       </c>
       <c r="M369" t="s">
-        <v>110</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="370" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" s="1" t="s">
-        <v>71</v>
+        <v>2061</v>
       </c>
       <c r="B370" t="s">
-        <v>190</v>
-      </c>
-      <c r="D370" t="s">
-        <v>40</v>
+        <v>2116</v>
+      </c>
+      <c r="E370" s="1" t="s">
+        <v>2063</v>
+      </c>
+      <c r="G370" s="1" t="s">
+        <v>2062</v>
       </c>
       <c r="J370" t="s">
-        <v>94</v>
+        <v>2256</v>
       </c>
       <c r="K370" t="s">
-        <v>94</v>
+        <v>2235</v>
       </c>
       <c r="L370" t="s">
-        <v>147</v>
+        <v>2186</v>
       </c>
       <c r="M370" t="s">
-        <v>111</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" s="1" t="s">
-        <v>72</v>
+        <v>2064</v>
       </c>
       <c r="B371" t="s">
-        <v>190</v>
-      </c>
-      <c r="D371" t="s">
-        <v>89</v>
+        <v>2116</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="G371" s="1" t="s">
+        <v>2066</v>
       </c>
       <c r="J371" t="s">
-        <v>95</v>
+        <v>2241</v>
       </c>
       <c r="K371" t="s">
-        <v>132</v>
+        <v>2202</v>
       </c>
       <c r="L371" t="s">
-        <v>148</v>
+        <v>2164</v>
       </c>
       <c r="M371" t="s">
-        <v>112</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" s="1" t="s">
-        <v>73</v>
+        <v>2067</v>
       </c>
       <c r="B372" t="s">
-        <v>190</v>
-      </c>
-      <c r="D372" t="s">
-        <v>90</v>
+        <v>2116</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>92</v>
+        <v>2068</v>
       </c>
       <c r="J372" t="s">
-        <v>96</v>
+        <v>2257</v>
       </c>
       <c r="K372" t="s">
-        <v>133</v>
+        <v>2215</v>
       </c>
       <c r="L372" t="s">
-        <v>149</v>
+        <v>2165</v>
       </c>
       <c r="M372" t="s">
-        <v>113</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" s="1" t="s">
-        <v>74</v>
+        <v>2069</v>
       </c>
       <c r="B373" t="s">
-        <v>190</v>
-      </c>
-      <c r="D373" t="s">
-        <v>90</v>
+        <v>2116</v>
       </c>
       <c r="J373" t="s">
-        <v>97</v>
+        <v>2258</v>
       </c>
       <c r="K373" t="s">
-        <v>135</v>
+        <v>2216</v>
       </c>
       <c r="L373" t="s">
-        <v>150</v>
+        <v>2166</v>
       </c>
       <c r="M373" t="s">
-        <v>114</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" s="1" t="s">
-        <v>75</v>
+        <v>2070</v>
       </c>
       <c r="B374" t="s">
-        <v>190</v>
-      </c>
-      <c r="D374" t="s">
-        <v>90</v>
+        <v>2116</v>
       </c>
       <c r="J374" t="s">
-        <v>98</v>
+        <v>2259</v>
       </c>
       <c r="K374" t="s">
-        <v>134</v>
+        <v>2217</v>
       </c>
       <c r="L374" t="s">
-        <v>151</v>
+        <v>2167</v>
       </c>
       <c r="M374" t="s">
-        <v>115</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" s="1" t="s">
-        <v>76</v>
+        <v>2071</v>
       </c>
       <c r="B375" t="s">
-        <v>190</v>
-      </c>
-      <c r="D375" t="s">
-        <v>90</v>
+        <v>2116</v>
       </c>
       <c r="J375" t="s">
-        <v>99</v>
+        <v>2260</v>
       </c>
       <c r="K375" t="s">
-        <v>153</v>
+        <v>2218</v>
       </c>
       <c r="L375" t="s">
-        <v>152</v>
+        <v>2187</v>
       </c>
       <c r="M375" t="s">
-        <v>116</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" s="1" t="s">
-        <v>77</v>
+        <v>2072</v>
       </c>
       <c r="B376" t="s">
-        <v>190</v>
-      </c>
-      <c r="D376" t="s">
-        <v>91</v>
+        <v>2116</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>2073</v>
       </c>
       <c r="J376" t="s">
-        <v>100</v>
+        <v>921</v>
+      </c>
+      <c r="K376" t="s">
+        <v>911</v>
       </c>
       <c r="L376" t="s">
-        <v>154</v>
+        <v>933</v>
       </c>
       <c r="M376" t="s">
-        <v>117</v>
+        <v>947</v>
       </c>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" s="1" t="s">
-        <v>78</v>
+        <v>2074</v>
       </c>
       <c r="B377" t="s">
-        <v>190</v>
-      </c>
-      <c r="D377" t="s">
-        <v>91</v>
+        <v>2116</v>
       </c>
       <c r="J377" t="s">
-        <v>101</v>
+        <v>2261</v>
       </c>
       <c r="K377" t="s">
-        <v>136</v>
+        <v>2219</v>
       </c>
       <c r="L377" t="s">
-        <v>155</v>
+        <v>2188</v>
       </c>
       <c r="M377" t="s">
-        <v>118</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" s="1" t="s">
-        <v>79</v>
+        <v>2075</v>
       </c>
       <c r="B378" t="s">
-        <v>190</v>
-      </c>
-      <c r="D378" t="s">
-        <v>91</v>
+        <v>2116</v>
       </c>
       <c r="J378" t="s">
-        <v>101</v>
+        <v>2262</v>
       </c>
       <c r="K378" t="s">
-        <v>136</v>
+        <v>2220</v>
       </c>
       <c r="L378" t="s">
-        <v>155</v>
+        <v>2189</v>
       </c>
       <c r="M378" t="s">
-        <v>118</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" s="1" t="s">
-        <v>80</v>
+        <v>2076</v>
       </c>
       <c r="B379" t="s">
-        <v>190</v>
-      </c>
-      <c r="D379" t="s">
-        <v>91</v>
+        <v>2116</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>2078</v>
       </c>
       <c r="J379" t="s">
-        <v>102</v>
+        <v>2242</v>
       </c>
       <c r="K379" t="s">
-        <v>137</v>
+        <v>2203</v>
       </c>
       <c r="L379" t="s">
-        <v>156</v>
+        <v>2168</v>
       </c>
       <c r="M379" t="s">
-        <v>119</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" s="1" t="s">
-        <v>81</v>
+        <v>2077</v>
       </c>
       <c r="B380" t="s">
-        <v>190</v>
-      </c>
-      <c r="D380" t="s">
-        <v>91</v>
+        <v>2116</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>2079</v>
       </c>
       <c r="J380" t="s">
-        <v>102</v>
+        <v>2242</v>
       </c>
       <c r="K380" t="s">
-        <v>137</v>
+        <v>2221</v>
       </c>
       <c r="L380" t="s">
-        <v>156</v>
+        <v>2190</v>
       </c>
       <c r="M380" t="s">
-        <v>119</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" s="1" t="s">
-        <v>82</v>
+        <v>2080</v>
       </c>
       <c r="B381" t="s">
-        <v>190</v>
+        <v>2116</v>
+      </c>
+      <c r="E381" s="1" t="s">
+        <v>2081</v>
       </c>
       <c r="J381" t="s">
-        <v>103</v>
+        <v>847</v>
+      </c>
+      <c r="K381" t="s">
+        <v>880</v>
+      </c>
+      <c r="L381" t="s">
+        <v>864</v>
       </c>
       <c r="M381" t="s">
-        <v>120</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" s="1" t="s">
-        <v>83</v>
+        <v>2082</v>
       </c>
       <c r="B382" t="s">
-        <v>190</v>
+        <v>2116</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>2083</v>
       </c>
       <c r="J382" t="s">
-        <v>104</v>
+        <v>2243</v>
+      </c>
+      <c r="K382" t="s">
+        <v>2222</v>
+      </c>
+      <c r="L382" t="s">
+        <v>2169</v>
       </c>
       <c r="M382" t="s">
-        <v>121</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" s="1" t="s">
-        <v>84</v>
+        <v>2084</v>
       </c>
       <c r="B383" t="s">
-        <v>190</v>
-      </c>
-      <c r="D383" t="s">
-        <v>27</v>
+        <v>2116</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>2085</v>
       </c>
       <c r="J383" t="s">
-        <v>105</v>
+        <v>2263</v>
       </c>
       <c r="K383" t="s">
-        <v>138</v>
+        <v>2223</v>
       </c>
       <c r="L383" t="s">
-        <v>157</v>
+        <v>2191</v>
       </c>
       <c r="M383" t="s">
-        <v>122</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" s="1" t="s">
-        <v>85</v>
+        <v>2086</v>
       </c>
       <c r="B384" t="s">
-        <v>190</v>
-      </c>
-      <c r="D384" t="s">
-        <v>27</v>
+        <v>2116</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>2087</v>
       </c>
       <c r="J384" t="s">
-        <v>94</v>
+        <v>2264</v>
       </c>
       <c r="K384" t="s">
-        <v>139</v>
+        <v>2224</v>
       </c>
       <c r="L384" t="s">
-        <v>157</v>
+        <v>2192</v>
       </c>
       <c r="M384" t="s">
-        <v>123</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" s="1" t="s">
-        <v>86</v>
+        <v>2088</v>
       </c>
       <c r="B385" t="s">
-        <v>190</v>
-      </c>
-      <c r="D385" t="s">
-        <v>27</v>
+        <v>2116</v>
       </c>
       <c r="J385" t="s">
-        <v>106</v>
+        <v>2244</v>
       </c>
       <c r="K385" t="s">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="L385" t="s">
-        <v>158</v>
+        <v>2170</v>
       </c>
       <c r="M385" t="s">
-        <v>124</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" s="1" t="s">
-        <v>87</v>
+        <v>2089</v>
       </c>
       <c r="B386" t="s">
-        <v>190</v>
-      </c>
-      <c r="D386" t="s">
-        <v>27</v>
-      </c>
-      <c r="F386" s="1" t="s">
-        <v>88</v>
+        <v>2116</v>
       </c>
       <c r="J386" t="s">
-        <v>107</v>
+        <v>2265</v>
       </c>
       <c r="K386" t="s">
-        <v>141</v>
+        <v>2225</v>
       </c>
       <c r="L386" t="s">
-        <v>159</v>
+        <v>2171</v>
       </c>
       <c r="M386" t="s">
-        <v>125</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" s="1" t="s">
-        <v>1388</v>
+        <v>2090</v>
       </c>
       <c r="B387" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D387" t="s">
-        <v>40</v>
+        <v>2116</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>2091</v>
+      </c>
+      <c r="G387" s="1" t="s">
+        <v>2092</v>
       </c>
       <c r="J387" t="s">
-        <v>1553</v>
+        <v>781</v>
       </c>
       <c r="K387" t="s">
-        <v>1599</v>
+        <v>2204</v>
       </c>
       <c r="L387" t="s">
-        <v>1514</v>
+        <v>2172</v>
       </c>
       <c r="M387" t="s">
-        <v>1439</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" s="1" t="s">
-        <v>1400</v>
+        <v>2093</v>
       </c>
       <c r="B388" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D388" t="s">
-        <v>90</v>
-      </c>
-      <c r="E388" s="1" t="s">
-        <v>1442</v>
+        <v>2116</v>
       </c>
       <c r="J388" t="s">
-        <v>1554</v>
+        <v>2245</v>
       </c>
       <c r="K388" t="s">
-        <v>1600</v>
+        <v>2205</v>
       </c>
       <c r="L388" t="s">
-        <v>1511</v>
+        <v>2173</v>
       </c>
       <c r="M388" t="s">
-        <v>1440</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" s="1" t="s">
-        <v>1389</v>
+        <v>2094</v>
       </c>
       <c r="B389" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D389" t="s">
-        <v>40</v>
-      </c>
-      <c r="E389"/>
+        <v>2116</v>
+      </c>
       <c r="J389" t="s">
-        <v>1555</v>
+        <v>2246</v>
       </c>
       <c r="K389" t="s">
-        <v>1601</v>
+        <v>2206</v>
       </c>
       <c r="L389" t="s">
-        <v>1512</v>
+        <v>2174</v>
       </c>
       <c r="M389" t="s">
-        <v>1441</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" s="1" t="s">
-        <v>1390</v>
+        <v>2095</v>
       </c>
       <c r="B390" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D390" t="s">
-        <v>40</v>
-      </c>
-      <c r="E390"/>
+        <v>2116</v>
+      </c>
       <c r="J390" t="s">
-        <v>1556</v>
+        <v>2247</v>
       </c>
       <c r="K390" t="s">
-        <v>1602</v>
+        <v>2207</v>
       </c>
       <c r="L390" t="s">
-        <v>1515</v>
+        <v>2175</v>
       </c>
       <c r="M390" t="s">
-        <v>1443</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" s="1" t="s">
-        <v>1391</v>
+        <v>2096</v>
       </c>
       <c r="B391" t="s">
-        <v>1387</v>
+        <v>2116</v>
       </c>
       <c r="D391" t="s">
-        <v>40</v>
+        <v>2146</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>1444</v>
+        <v>2097</v>
       </c>
       <c r="J391" t="s">
-        <v>1557</v>
+        <v>2266</v>
       </c>
       <c r="K391" t="s">
-        <v>1603</v>
+        <v>2226</v>
       </c>
       <c r="L391" t="s">
-        <v>1513</v>
+        <v>2176</v>
       </c>
       <c r="M391" t="s">
-        <v>1445</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" s="1" t="s">
-        <v>1392</v>
+        <v>2098</v>
       </c>
       <c r="B392" t="s">
-        <v>1387</v>
+        <v>2116</v>
       </c>
       <c r="D392" t="s">
-        <v>40</v>
-      </c>
-      <c r="E392"/>
+        <v>2146</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>2100</v>
+      </c>
       <c r="J392" t="s">
-        <v>1558</v>
+        <v>2248</v>
       </c>
       <c r="K392" t="s">
-        <v>1558</v>
+        <v>2208</v>
       </c>
       <c r="L392" t="s">
-        <v>1516</v>
+        <v>2177</v>
       </c>
       <c r="M392" t="s">
-        <v>1446</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" s="1" t="s">
-        <v>1393</v>
+        <v>2099</v>
       </c>
       <c r="B393" t="s">
-        <v>1387</v>
+        <v>2116</v>
       </c>
       <c r="D393" t="s">
-        <v>40</v>
-      </c>
-      <c r="E393"/>
+        <v>2146</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>2101</v>
+      </c>
       <c r="J393" t="s">
-        <v>1559</v>
+        <v>2249</v>
       </c>
       <c r="K393" t="s">
-        <v>1604</v>
+        <v>2227</v>
       </c>
       <c r="L393" t="s">
-        <v>1517</v>
+        <v>2178</v>
       </c>
       <c r="M393" t="s">
-        <v>1447</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" s="1" t="s">
-        <v>1394</v>
+        <v>2102</v>
       </c>
       <c r="B394" t="s">
-        <v>1387</v>
+        <v>2116</v>
       </c>
       <c r="D394" t="s">
-        <v>40</v>
-      </c>
-      <c r="E394"/>
+        <v>2146</v>
+      </c>
       <c r="J394" t="s">
-        <v>1560</v>
+        <v>2267</v>
       </c>
       <c r="K394" t="s">
-        <v>1605</v>
+        <v>2209</v>
       </c>
       <c r="L394" t="s">
-        <v>1518</v>
+        <v>2179</v>
       </c>
       <c r="M394" t="s">
-        <v>1448</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="395" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" s="1" t="s">
-        <v>1395</v>
+        <v>2104</v>
       </c>
       <c r="B395" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D395" t="s">
-        <v>90</v>
-      </c>
-      <c r="E395" s="1" t="s">
-        <v>1450</v>
+        <v>2116</v>
       </c>
       <c r="J395" t="s">
-        <v>1561</v>
+        <v>2268</v>
       </c>
       <c r="K395" t="s">
-        <v>1606</v>
+        <v>2228</v>
       </c>
       <c r="L395" t="s">
-        <v>1519</v>
+        <v>2193</v>
       </c>
       <c r="M395" t="s">
-        <v>1449</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" s="1" t="s">
-        <v>1396</v>
+        <v>2103</v>
       </c>
       <c r="B396" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D396" t="s">
-        <v>90</v>
-      </c>
-      <c r="E396"/>
+        <v>2116</v>
+      </c>
       <c r="J396" t="s">
-        <v>1562</v>
+        <v>2210</v>
       </c>
       <c r="K396" t="s">
-        <v>1607</v>
+        <v>2229</v>
       </c>
       <c r="L396" t="s">
-        <v>1520</v>
+        <v>2180</v>
       </c>
       <c r="M396" t="s">
-        <v>1451</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" s="1" t="s">
-        <v>1397</v>
+        <v>2105</v>
       </c>
       <c r="B397" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D397" t="s">
-        <v>90</v>
-      </c>
-      <c r="E397"/>
+        <v>2116</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>2106</v>
+      </c>
       <c r="J397" t="s">
-        <v>1563</v>
+        <v>446</v>
       </c>
       <c r="K397" t="s">
-        <v>1608</v>
+        <v>2230</v>
       </c>
       <c r="L397" t="s">
-        <v>1521</v>
+        <v>2194</v>
       </c>
       <c r="M397" t="s">
-        <v>1452</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" s="1" t="s">
-        <v>1398</v>
+        <v>2107</v>
       </c>
       <c r="B398" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D398" t="s">
-        <v>90</v>
-      </c>
-      <c r="E398" s="1" t="s">
-        <v>1454</v>
+        <v>2116</v>
       </c>
       <c r="J398" t="s">
-        <v>1563</v>
+        <v>2269</v>
       </c>
       <c r="K398" t="s">
-        <v>1609</v>
+        <v>2231</v>
       </c>
       <c r="L398" t="s">
-        <v>1521</v>
+        <v>2181</v>
       </c>
       <c r="M398" t="s">
-        <v>1452</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" s="1" t="s">
-        <v>1399</v>
+        <v>2108</v>
       </c>
       <c r="B399" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D399" t="s">
-        <v>90</v>
-      </c>
-      <c r="E399"/>
+        <v>2116</v>
+      </c>
       <c r="J399" t="s">
-        <v>1564</v>
+        <v>2269</v>
       </c>
       <c r="K399" t="s">
-        <v>1609</v>
+        <v>2231</v>
       </c>
       <c r="L399" t="s">
-        <v>1522</v>
+        <v>2181</v>
       </c>
       <c r="M399" t="s">
-        <v>1453</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" s="1" t="s">
-        <v>1401</v>
+        <v>2109</v>
       </c>
       <c r="B400" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D400" t="s">
-        <v>90</v>
-      </c>
-      <c r="E400" s="1" t="s">
-        <v>1455</v>
+        <v>2116</v>
       </c>
       <c r="J400" t="s">
-        <v>1565</v>
+        <v>2250</v>
       </c>
       <c r="K400" t="s">
-        <v>1610</v>
+        <v>2232</v>
       </c>
       <c r="L400" t="s">
-        <v>1523</v>
+        <v>2182</v>
       </c>
       <c r="M400" t="s">
-        <v>1456</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" s="1" t="s">
-        <v>1402</v>
+        <v>2110</v>
       </c>
       <c r="B401" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D401" t="s">
-        <v>90</v>
-      </c>
-      <c r="E401"/>
+        <v>2116</v>
+      </c>
       <c r="J401" t="s">
-        <v>1566</v>
+        <v>2250</v>
       </c>
       <c r="K401" t="s">
-        <v>1611</v>
+        <v>2232</v>
       </c>
       <c r="L401" t="s">
-        <v>1524</v>
+        <v>2182</v>
       </c>
       <c r="M401" t="s">
-        <v>1457</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" s="1" t="s">
-        <v>1459</v>
+        <v>2111</v>
       </c>
       <c r="B402" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D402" t="s">
-        <v>90</v>
-      </c>
-      <c r="E402" s="1" t="s">
-        <v>1460</v>
+        <v>2116</v>
       </c>
       <c r="J402" t="s">
-        <v>1567</v>
+        <v>2270</v>
       </c>
       <c r="K402" t="s">
-        <v>1612</v>
+        <v>2233</v>
       </c>
       <c r="L402" t="s">
-        <v>1525</v>
+        <v>2183</v>
       </c>
       <c r="M402" t="s">
-        <v>1458</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" s="1" t="s">
-        <v>1403</v>
+        <v>2112</v>
       </c>
       <c r="B403" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D403" t="s">
-        <v>90</v>
-      </c>
-      <c r="E403"/>
+        <v>2116</v>
+      </c>
       <c r="J403" t="s">
-        <v>1568</v>
+        <v>2251</v>
       </c>
       <c r="K403" t="s">
-        <v>1613</v>
+        <v>2234</v>
       </c>
       <c r="L403" t="s">
-        <v>1526</v>
+        <v>2195</v>
       </c>
       <c r="M403" t="s">
-        <v>1461</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" s="1" t="s">
-        <v>1404</v>
+        <v>2113</v>
       </c>
       <c r="B404" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D404" t="s">
-        <v>90</v>
-      </c>
-      <c r="E404"/>
+        <v>2116</v>
+      </c>
       <c r="J404" t="s">
-        <v>1569</v>
+        <v>2251</v>
       </c>
       <c r="K404" t="s">
-        <v>1614</v>
+        <v>2234</v>
       </c>
       <c r="L404" t="s">
-        <v>1527</v>
+        <v>2195</v>
       </c>
       <c r="M404" t="s">
-        <v>1462</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" s="1" t="s">
-        <v>1405</v>
+        <v>2114</v>
       </c>
       <c r="B405" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D405" t="s">
-        <v>90</v>
-      </c>
-      <c r="E405"/>
+        <v>2116</v>
+      </c>
       <c r="J405" t="s">
-        <v>1571</v>
+        <v>2252</v>
       </c>
       <c r="K405" t="s">
-        <v>1615</v>
+        <v>2211</v>
       </c>
       <c r="L405" t="s">
-        <v>1570</v>
+        <v>2196</v>
       </c>
       <c r="M405" t="s">
-        <v>1463</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" s="1" t="s">
-        <v>1406</v>
+        <v>2115</v>
       </c>
       <c r="B406" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D406" t="s">
-        <v>90</v>
-      </c>
-      <c r="E406"/>
+        <v>2116</v>
+      </c>
       <c r="J406" t="s">
-        <v>1572</v>
+        <v>2252</v>
       </c>
       <c r="K406" t="s">
-        <v>1616</v>
+        <v>2211</v>
       </c>
       <c r="L406" t="s">
-        <v>1528</v>
+        <v>2196</v>
       </c>
       <c r="M406" t="s">
-        <v>1464</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="407" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" s="1" t="s">
-        <v>1407</v>
+        <v>39</v>
       </c>
       <c r="B407" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D407" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="E407" s="1" t="s">
-        <v>1465</v>
+        <v>41</v>
       </c>
       <c r="J407" t="s">
-        <v>1573</v>
+        <v>42</v>
       </c>
       <c r="K407" t="s">
-        <v>1617</v>
+        <v>43</v>
       </c>
       <c r="L407" t="s">
-        <v>1529</v>
+        <v>57</v>
       </c>
       <c r="M407" t="s">
-        <v>1467</v>
+        <v>53</v>
       </c>
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" s="1" t="s">
-        <v>1408</v>
+        <v>47</v>
       </c>
       <c r="B408" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D408" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="E408" s="1" t="s">
-        <v>1466</v>
+        <v>66</v>
       </c>
       <c r="J408" t="s">
-        <v>1574</v>
+        <v>62</v>
       </c>
       <c r="K408" t="s">
-        <v>1618</v>
+        <v>126</v>
       </c>
       <c r="L408" t="s">
-        <v>1530</v>
+        <v>142</v>
       </c>
       <c r="M408" t="s">
-        <v>1468</v>
+        <v>52</v>
       </c>
     </row>
     <row r="409" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" s="1" t="s">
-        <v>1409</v>
+        <v>48</v>
       </c>
       <c r="B409" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D409" t="s">
-        <v>90</v>
-      </c>
-      <c r="E409"/>
-      <c r="J409" t="s">
-        <v>1576</v>
-      </c>
-      <c r="K409" t="s">
-        <v>1619</v>
-      </c>
-      <c r="L409" t="s">
-        <v>1531</v>
+        <v>40</v>
       </c>
       <c r="M409" t="s">
-        <v>1469</v>
+        <v>58</v>
       </c>
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" s="1" t="s">
-        <v>1410</v>
+        <v>49</v>
       </c>
       <c r="B410" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D410" t="s">
-        <v>90</v>
-      </c>
-      <c r="E410"/>
+        <v>40</v>
+      </c>
+      <c r="E410" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="J410" t="s">
-        <v>1575</v>
+        <v>63</v>
       </c>
       <c r="K410" t="s">
-        <v>1620</v>
-      </c>
-      <c r="L410" t="s">
-        <v>1532</v>
+        <v>127</v>
       </c>
       <c r="M410" t="s">
-        <v>1470</v>
+        <v>59</v>
       </c>
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" s="1" t="s">
-        <v>1411</v>
+        <v>50</v>
       </c>
       <c r="B411" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D411" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>1472</v>
+        <v>68</v>
       </c>
       <c r="J411" t="s">
-        <v>1577</v>
+        <v>64</v>
       </c>
       <c r="K411" t="s">
-        <v>1621</v>
+        <v>128</v>
       </c>
       <c r="L411" t="s">
-        <v>1533</v>
+        <v>143</v>
       </c>
       <c r="M411" t="s">
-        <v>1471</v>
+        <v>60</v>
       </c>
     </row>
     <row r="412" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" s="1" t="s">
-        <v>1473</v>
+        <v>51</v>
       </c>
       <c r="B412" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D412" t="s">
-        <v>90</v>
-      </c>
-      <c r="E412" s="1" t="s">
-        <v>1474</v>
+        <v>40</v>
       </c>
       <c r="J412" t="s">
-        <v>1578</v>
+        <v>65</v>
       </c>
       <c r="K412" t="s">
-        <v>1622</v>
+        <v>129</v>
       </c>
       <c r="L412" t="s">
-        <v>1534</v>
+        <v>144</v>
       </c>
       <c r="M412" t="s">
-        <v>1476</v>
+        <v>61</v>
       </c>
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" s="1" t="s">
-        <v>1412</v>
+        <v>69</v>
       </c>
       <c r="B413" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D413" t="s">
-        <v>90</v>
-      </c>
-      <c r="E413" s="1" t="s">
-        <v>1475</v>
+        <v>40</v>
       </c>
       <c r="J413" t="s">
-        <v>1579</v>
+        <v>108</v>
       </c>
       <c r="K413" t="s">
-        <v>1623</v>
+        <v>130</v>
       </c>
       <c r="L413" t="s">
-        <v>1478</v>
+        <v>145</v>
       </c>
       <c r="M413" t="s">
-        <v>1477</v>
+        <v>109</v>
       </c>
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" s="1" t="s">
-        <v>1413</v>
+        <v>70</v>
       </c>
       <c r="B414" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D414" t="s">
-        <v>90</v>
-      </c>
-      <c r="E414" s="1" t="s">
-        <v>1479</v>
+        <v>40</v>
       </c>
       <c r="J414" t="s">
-        <v>1580</v>
+        <v>93</v>
       </c>
       <c r="K414" t="s">
-        <v>1624</v>
+        <v>131</v>
       </c>
       <c r="L414" t="s">
-        <v>1535</v>
+        <v>146</v>
       </c>
       <c r="M414" t="s">
-        <v>1481</v>
+        <v>110</v>
       </c>
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" s="1" t="s">
-        <v>1414</v>
+        <v>71</v>
       </c>
       <c r="B415" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D415" t="s">
-        <v>90</v>
-      </c>
-      <c r="E415" s="1" t="s">
-        <v>1480</v>
+        <v>40</v>
       </c>
       <c r="J415" t="s">
-        <v>1580</v>
+        <v>94</v>
       </c>
       <c r="K415" t="s">
-        <v>1624</v>
+        <v>94</v>
       </c>
       <c r="L415" t="s">
-        <v>1535</v>
+        <v>147</v>
       </c>
       <c r="M415" t="s">
-        <v>1481</v>
+        <v>111</v>
       </c>
     </row>
     <row r="416" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" s="1" t="s">
-        <v>1415</v>
+        <v>72</v>
       </c>
       <c r="B416" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D416" t="s">
-        <v>90</v>
-      </c>
-      <c r="E416" s="1" t="s">
-        <v>1483</v>
+        <v>89</v>
       </c>
       <c r="J416" t="s">
-        <v>1581</v>
+        <v>95</v>
       </c>
       <c r="K416" t="s">
-        <v>1625</v>
+        <v>132</v>
       </c>
       <c r="L416" t="s">
-        <v>1484</v>
+        <v>148</v>
       </c>
       <c r="M416" t="s">
-        <v>1482</v>
+        <v>112</v>
       </c>
     </row>
     <row r="417" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" s="1" t="s">
-        <v>1416</v>
+        <v>73</v>
       </c>
       <c r="B417" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D417" t="s">
         <v>90</v>
       </c>
-      <c r="E417"/>
+      <c r="E417" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="J417" t="s">
-        <v>1582</v>
+        <v>96</v>
       </c>
       <c r="K417" t="s">
-        <v>1626</v>
+        <v>133</v>
       </c>
       <c r="L417" t="s">
-        <v>1536</v>
+        <v>149</v>
       </c>
       <c r="M417" t="s">
-        <v>1485</v>
+        <v>113</v>
       </c>
     </row>
     <row r="418" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" s="1" t="s">
-        <v>1417</v>
+        <v>74</v>
       </c>
       <c r="B418" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D418" t="s">
         <v>90</v>
       </c>
-      <c r="E418"/>
       <c r="J418" t="s">
-        <v>1583</v>
+        <v>97</v>
       </c>
       <c r="K418" t="s">
-        <v>1627</v>
+        <v>135</v>
       </c>
       <c r="L418" t="s">
-        <v>1537</v>
+        <v>150</v>
       </c>
       <c r="M418" t="s">
-        <v>1486</v>
+        <v>114</v>
       </c>
     </row>
     <row r="419" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" s="1" t="s">
-        <v>1418</v>
+        <v>75</v>
       </c>
       <c r="B419" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D419" t="s">
-        <v>89</v>
-      </c>
-      <c r="E419" s="1" t="s">
-        <v>1490</v>
+        <v>90</v>
       </c>
       <c r="J419" t="s">
-        <v>1584</v>
+        <v>98</v>
       </c>
       <c r="K419" t="s">
-        <v>1628</v>
+        <v>134</v>
       </c>
       <c r="L419" t="s">
-        <v>1538</v>
+        <v>151</v>
       </c>
       <c r="M419" t="s">
-        <v>1487</v>
+        <v>115</v>
       </c>
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" s="1" t="s">
-        <v>1419</v>
+        <v>76</v>
       </c>
       <c r="B420" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D420" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J420" t="s">
-        <v>918</v>
+        <v>99</v>
       </c>
       <c r="K420" t="s">
-        <v>908</v>
+        <v>153</v>
       </c>
       <c r="L420" t="s">
-        <v>1539</v>
+        <v>152</v>
       </c>
       <c r="M420" t="s">
-        <v>1488</v>
+        <v>116</v>
       </c>
     </row>
     <row r="421" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" s="1" t="s">
-        <v>1420</v>
+        <v>77</v>
       </c>
       <c r="B421" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D421" t="s">
-        <v>90</v>
-      </c>
-      <c r="E421" s="1" t="s">
-        <v>1491</v>
+        <v>91</v>
       </c>
       <c r="J421" t="s">
-        <v>1585</v>
-      </c>
-      <c r="K421" t="s">
-        <v>1629</v>
+        <v>100</v>
       </c>
       <c r="L421" t="s">
-        <v>1540</v>
+        <v>154</v>
       </c>
       <c r="M421" t="s">
-        <v>1489</v>
+        <v>117</v>
       </c>
     </row>
     <row r="422" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" s="1" t="s">
-        <v>1421</v>
+        <v>78</v>
       </c>
       <c r="B422" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D422" t="s">
         <v>91</v>
       </c>
       <c r="J422" t="s">
-        <v>1586</v>
+        <v>101</v>
       </c>
       <c r="K422" t="s">
-        <v>886</v>
+        <v>136</v>
       </c>
       <c r="L422" t="s">
-        <v>1541</v>
+        <v>155</v>
       </c>
       <c r="M422" t="s">
-        <v>1498</v>
+        <v>118</v>
       </c>
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" s="1" t="s">
-        <v>1422</v>
+        <v>79</v>
       </c>
       <c r="B423" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D423" t="s">
         <v>91</v>
       </c>
-      <c r="E423" s="1" t="s">
-        <v>1492</v>
-      </c>
       <c r="J423" t="s">
-        <v>1587</v>
+        <v>101</v>
       </c>
       <c r="K423" t="s">
-        <v>1630</v>
+        <v>136</v>
       </c>
       <c r="L423" t="s">
-        <v>1499</v>
+        <v>155</v>
       </c>
       <c r="M423" t="s">
-        <v>1499</v>
+        <v>118</v>
       </c>
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" s="1" t="s">
-        <v>1423</v>
+        <v>80</v>
       </c>
       <c r="B424" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D424" t="s">
         <v>91</v>
       </c>
       <c r="J424" t="s">
-        <v>1588</v>
+        <v>102</v>
       </c>
       <c r="K424" t="s">
-        <v>1631</v>
+        <v>137</v>
       </c>
       <c r="L424" t="s">
-        <v>1542</v>
+        <v>156</v>
       </c>
       <c r="M424" t="s">
-        <v>1500</v>
+        <v>119</v>
       </c>
     </row>
     <row r="425" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" s="1" t="s">
-        <v>1424</v>
+        <v>81</v>
       </c>
       <c r="B425" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D425" t="s">
         <v>91</v>
       </c>
       <c r="J425" t="s">
-        <v>1589</v>
+        <v>102</v>
       </c>
       <c r="K425" t="s">
-        <v>1632</v>
+        <v>137</v>
       </c>
       <c r="L425" t="s">
-        <v>1543</v>
+        <v>156</v>
       </c>
       <c r="M425" t="s">
-        <v>1501</v>
+        <v>119</v>
       </c>
     </row>
     <row r="426" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" s="1" t="s">
-        <v>1425</v>
+        <v>82</v>
       </c>
       <c r="B426" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D426" t="s">
-        <v>1178</v>
-      </c>
-      <c r="E426" s="1" t="s">
-        <v>1493</v>
+        <v>190</v>
       </c>
       <c r="J426" t="s">
-        <v>1590</v>
-      </c>
-      <c r="K426" t="s">
-        <v>1633</v>
-      </c>
-      <c r="L426" t="s">
-        <v>1544</v>
+        <v>103</v>
       </c>
       <c r="M426" t="s">
-        <v>1502</v>
+        <v>120</v>
       </c>
     </row>
     <row r="427" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" s="1" t="s">
-        <v>1426</v>
+        <v>83</v>
       </c>
       <c r="B427" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D427" t="s">
-        <v>89</v>
-      </c>
-      <c r="E427" s="1" t="s">
-        <v>1494</v>
+        <v>190</v>
       </c>
       <c r="J427" t="s">
-        <v>1591</v>
-      </c>
-      <c r="K427" t="s">
-        <v>1634</v>
-      </c>
-      <c r="L427" t="s">
-        <v>1545</v>
+        <v>104</v>
       </c>
       <c r="M427" t="s">
-        <v>1503</v>
+        <v>121</v>
       </c>
     </row>
     <row r="428" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" s="1" t="s">
-        <v>1427</v>
+        <v>84</v>
       </c>
       <c r="B428" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D428" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="J428" t="s">
-        <v>1592</v>
+        <v>105</v>
       </c>
       <c r="K428" t="s">
-        <v>1635</v>
+        <v>138</v>
       </c>
       <c r="L428" t="s">
-        <v>1546</v>
+        <v>157</v>
       </c>
       <c r="M428" t="s">
-        <v>1504</v>
+        <v>122</v>
       </c>
     </row>
     <row r="429" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" s="1" t="s">
-        <v>1428</v>
+        <v>85</v>
       </c>
       <c r="B429" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D429" t="s">
-        <v>91</v>
-      </c>
-      <c r="E429" s="1" t="s">
-        <v>1495</v>
+        <v>27</v>
       </c>
       <c r="J429" t="s">
-        <v>1593</v>
+        <v>94</v>
       </c>
       <c r="K429" t="s">
-        <v>1636</v>
+        <v>139</v>
       </c>
       <c r="L429" t="s">
-        <v>1547</v>
+        <v>157</v>
       </c>
       <c r="M429" t="s">
-        <v>1505</v>
+        <v>123</v>
       </c>
     </row>
     <row r="430" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" s="1" t="s">
-        <v>1429</v>
+        <v>86</v>
       </c>
       <c r="B430" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D430" t="s">
         <v>27</v>
       </c>
-      <c r="F430" s="1" t="s">
-        <v>1430</v>
-      </c>
       <c r="J430" t="s">
-        <v>1594</v>
+        <v>106</v>
       </c>
       <c r="K430" t="s">
-        <v>1637</v>
+        <v>140</v>
       </c>
       <c r="L430" t="s">
-        <v>1548</v>
+        <v>158</v>
       </c>
       <c r="M430" t="s">
-        <v>1506</v>
+        <v>124</v>
       </c>
     </row>
     <row r="431" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" s="1" t="s">
-        <v>1431</v>
+        <v>87</v>
       </c>
       <c r="B431" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D431" t="s">
         <v>27</v>
       </c>
-      <c r="E431" s="1" t="s">
-        <v>1438</v>
-      </c>
-      <c r="G431" s="1" t="s">
-        <v>1432</v>
+      <c r="F431" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="J431" t="s">
-        <v>1595</v>
+        <v>107</v>
       </c>
       <c r="K431" t="s">
-        <v>1638</v>
+        <v>141</v>
       </c>
       <c r="L431" t="s">
-        <v>1549</v>
+        <v>159</v>
       </c>
       <c r="M431" t="s">
-        <v>1507</v>
+        <v>125</v>
       </c>
     </row>
     <row r="432" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" s="1" t="s">
-        <v>1433</v>
+        <v>1388</v>
       </c>
       <c r="B432" t="s">
         <v>1387</v>
       </c>
-      <c r="C432" s="1"/>
       <c r="D432" t="s">
-        <v>27</v>
-      </c>
-      <c r="E432" s="1" t="s">
-        <v>1496</v>
-      </c>
-      <c r="G432" s="1"/>
+        <v>40</v>
+      </c>
       <c r="J432" t="s">
-        <v>1596</v>
+        <v>1553</v>
       </c>
       <c r="K432" t="s">
-        <v>1639</v>
+        <v>1599</v>
       </c>
       <c r="L432" t="s">
-        <v>1550</v>
+        <v>1514</v>
       </c>
       <c r="M432" t="s">
-        <v>1508</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="433" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" s="1" t="s">
-        <v>1434</v>
+        <v>1400</v>
       </c>
       <c r="B433" t="s">
         <v>1387</v>
       </c>
       <c r="D433" t="s">
-        <v>27</v>
-      </c>
-      <c r="G433" s="1" t="s">
-        <v>1435</v>
+        <v>90</v>
+      </c>
+      <c r="E433" s="1" t="s">
+        <v>1442</v>
       </c>
       <c r="J433" t="s">
-        <v>1597</v>
+        <v>1554</v>
       </c>
       <c r="K433" t="s">
-        <v>1640</v>
+        <v>1600</v>
       </c>
       <c r="L433" t="s">
-        <v>1551</v>
+        <v>1511</v>
       </c>
       <c r="M433" t="s">
-        <v>1509</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="434" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" s="1" t="s">
-        <v>1436</v>
+        <v>1389</v>
       </c>
       <c r="B434" t="s">
         <v>1387</v>
       </c>
-      <c r="C434" s="1"/>
       <c r="D434" t="s">
+        <v>40</v>
+      </c>
+      <c r="E434"/>
+      <c r="J434" t="s">
+        <v>1555</v>
+      </c>
+      <c r="K434" t="s">
+        <v>1601</v>
+      </c>
+      <c r="L434" t="s">
+        <v>1512</v>
+      </c>
+      <c r="M434" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="435" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A435" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B435" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D435" t="s">
+        <v>40</v>
+      </c>
+      <c r="E435"/>
+      <c r="J435" t="s">
+        <v>1556</v>
+      </c>
+      <c r="K435" t="s">
+        <v>1602</v>
+      </c>
+      <c r="L435" t="s">
+        <v>1515</v>
+      </c>
+      <c r="M435" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="436" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A436" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B436" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D436" t="s">
+        <v>40</v>
+      </c>
+      <c r="E436" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="J436" t="s">
+        <v>1557</v>
+      </c>
+      <c r="K436" t="s">
+        <v>1603</v>
+      </c>
+      <c r="L436" t="s">
+        <v>1513</v>
+      </c>
+      <c r="M436" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="437" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A437" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B437" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D437" t="s">
+        <v>40</v>
+      </c>
+      <c r="E437"/>
+      <c r="J437" t="s">
+        <v>1558</v>
+      </c>
+      <c r="K437" t="s">
+        <v>1558</v>
+      </c>
+      <c r="L437" t="s">
+        <v>1516</v>
+      </c>
+      <c r="M437" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="438" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A438" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B438" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D438" t="s">
+        <v>40</v>
+      </c>
+      <c r="E438"/>
+      <c r="J438" t="s">
+        <v>1559</v>
+      </c>
+      <c r="K438" t="s">
+        <v>1604</v>
+      </c>
+      <c r="L438" t="s">
+        <v>1517</v>
+      </c>
+      <c r="M438" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="439" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A439" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B439" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D439" t="s">
+        <v>40</v>
+      </c>
+      <c r="E439"/>
+      <c r="J439" t="s">
+        <v>1560</v>
+      </c>
+      <c r="K439" t="s">
+        <v>1605</v>
+      </c>
+      <c r="L439" t="s">
+        <v>1518</v>
+      </c>
+      <c r="M439" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="440" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A440" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B440" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D440" t="s">
+        <v>90</v>
+      </c>
+      <c r="E440" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="J440" t="s">
+        <v>1561</v>
+      </c>
+      <c r="K440" t="s">
+        <v>1606</v>
+      </c>
+      <c r="L440" t="s">
+        <v>1519</v>
+      </c>
+      <c r="M440" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="441" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A441" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B441" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D441" t="s">
+        <v>90</v>
+      </c>
+      <c r="E441"/>
+      <c r="J441" t="s">
+        <v>1562</v>
+      </c>
+      <c r="K441" t="s">
+        <v>1607</v>
+      </c>
+      <c r="L441" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M441" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="442" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A442" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B442" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D442" t="s">
+        <v>90</v>
+      </c>
+      <c r="E442"/>
+      <c r="J442" t="s">
+        <v>1563</v>
+      </c>
+      <c r="K442" t="s">
+        <v>1608</v>
+      </c>
+      <c r="L442" t="s">
+        <v>1521</v>
+      </c>
+      <c r="M442" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="443" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A443" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B443" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D443" t="s">
+        <v>90</v>
+      </c>
+      <c r="E443" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="J443" t="s">
+        <v>1563</v>
+      </c>
+      <c r="K443" t="s">
+        <v>1609</v>
+      </c>
+      <c r="L443" t="s">
+        <v>1521</v>
+      </c>
+      <c r="M443" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="444" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A444" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B444" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D444" t="s">
+        <v>90</v>
+      </c>
+      <c r="E444"/>
+      <c r="J444" t="s">
+        <v>1564</v>
+      </c>
+      <c r="K444" t="s">
+        <v>1609</v>
+      </c>
+      <c r="L444" t="s">
+        <v>1522</v>
+      </c>
+      <c r="M444" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="445" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A445" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B445" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D445" t="s">
+        <v>90</v>
+      </c>
+      <c r="E445" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="J445" t="s">
+        <v>1565</v>
+      </c>
+      <c r="K445" t="s">
+        <v>1610</v>
+      </c>
+      <c r="L445" t="s">
+        <v>1523</v>
+      </c>
+      <c r="M445" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="446" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A446" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D446" t="s">
+        <v>90</v>
+      </c>
+      <c r="E446"/>
+      <c r="J446" t="s">
+        <v>1566</v>
+      </c>
+      <c r="K446" t="s">
+        <v>1611</v>
+      </c>
+      <c r="L446" t="s">
+        <v>1524</v>
+      </c>
+      <c r="M446" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="447" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A447" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D447" t="s">
+        <v>90</v>
+      </c>
+      <c r="E447" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="J447" t="s">
+        <v>1567</v>
+      </c>
+      <c r="K447" t="s">
+        <v>1612</v>
+      </c>
+      <c r="L447" t="s">
+        <v>1525</v>
+      </c>
+      <c r="M447" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="448" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A448" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B448" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D448" t="s">
+        <v>90</v>
+      </c>
+      <c r="E448"/>
+      <c r="J448" t="s">
+        <v>1568</v>
+      </c>
+      <c r="K448" t="s">
+        <v>1613</v>
+      </c>
+      <c r="L448" t="s">
+        <v>1526</v>
+      </c>
+      <c r="M448" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="449" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A449" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B449" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D449" t="s">
+        <v>90</v>
+      </c>
+      <c r="E449"/>
+      <c r="J449" t="s">
+        <v>1569</v>
+      </c>
+      <c r="K449" t="s">
+        <v>1614</v>
+      </c>
+      <c r="L449" t="s">
+        <v>1527</v>
+      </c>
+      <c r="M449" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="450" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A450" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B450" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D450" t="s">
+        <v>90</v>
+      </c>
+      <c r="E450"/>
+      <c r="J450" t="s">
+        <v>1571</v>
+      </c>
+      <c r="K450" t="s">
+        <v>1615</v>
+      </c>
+      <c r="L450" t="s">
+        <v>1570</v>
+      </c>
+      <c r="M450" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="451" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A451" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B451" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D451" t="s">
+        <v>90</v>
+      </c>
+      <c r="E451"/>
+      <c r="J451" t="s">
+        <v>1572</v>
+      </c>
+      <c r="K451" t="s">
+        <v>1616</v>
+      </c>
+      <c r="L451" t="s">
+        <v>1528</v>
+      </c>
+      <c r="M451" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="452" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A452" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B452" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D452" t="s">
+        <v>90</v>
+      </c>
+      <c r="E452" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="J452" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K452" t="s">
+        <v>1617</v>
+      </c>
+      <c r="L452" t="s">
+        <v>1529</v>
+      </c>
+      <c r="M452" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="453" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A453" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B453" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D453" t="s">
+        <v>90</v>
+      </c>
+      <c r="E453" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="J453" t="s">
+        <v>1574</v>
+      </c>
+      <c r="K453" t="s">
+        <v>1618</v>
+      </c>
+      <c r="L453" t="s">
+        <v>1530</v>
+      </c>
+      <c r="M453" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="454" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A454" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B454" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D454" t="s">
+        <v>90</v>
+      </c>
+      <c r="E454"/>
+      <c r="J454" t="s">
+        <v>1576</v>
+      </c>
+      <c r="K454" t="s">
+        <v>1619</v>
+      </c>
+      <c r="L454" t="s">
+        <v>1531</v>
+      </c>
+      <c r="M454" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="455" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A455" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B455" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D455" t="s">
+        <v>90</v>
+      </c>
+      <c r="E455"/>
+      <c r="J455" t="s">
+        <v>1575</v>
+      </c>
+      <c r="K455" t="s">
+        <v>1620</v>
+      </c>
+      <c r="L455" t="s">
+        <v>1532</v>
+      </c>
+      <c r="M455" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="456" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A456" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B456" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D456" t="s">
+        <v>90</v>
+      </c>
+      <c r="E456" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="J456" t="s">
+        <v>1577</v>
+      </c>
+      <c r="K456" t="s">
+        <v>1621</v>
+      </c>
+      <c r="L456" t="s">
+        <v>1533</v>
+      </c>
+      <c r="M456" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="457" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A457" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B457" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D457" t="s">
+        <v>90</v>
+      </c>
+      <c r="E457" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="J457" t="s">
+        <v>1578</v>
+      </c>
+      <c r="K457" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L457" t="s">
+        <v>1534</v>
+      </c>
+      <c r="M457" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="458" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A458" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B458" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D458" t="s">
+        <v>90</v>
+      </c>
+      <c r="E458" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="J458" t="s">
+        <v>1579</v>
+      </c>
+      <c r="K458" t="s">
+        <v>1623</v>
+      </c>
+      <c r="L458" t="s">
+        <v>1478</v>
+      </c>
+      <c r="M458" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="459" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A459" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B459" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D459" t="s">
+        <v>90</v>
+      </c>
+      <c r="E459" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="J459" t="s">
+        <v>1580</v>
+      </c>
+      <c r="K459" t="s">
+        <v>1624</v>
+      </c>
+      <c r="L459" t="s">
+        <v>1535</v>
+      </c>
+      <c r="M459" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="460" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A460" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B460" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D460" t="s">
+        <v>90</v>
+      </c>
+      <c r="E460" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J460" t="s">
+        <v>1580</v>
+      </c>
+      <c r="K460" t="s">
+        <v>1624</v>
+      </c>
+      <c r="L460" t="s">
+        <v>1535</v>
+      </c>
+      <c r="M460" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="461" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A461" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B461" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D461" t="s">
+        <v>90</v>
+      </c>
+      <c r="E461" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="J461" t="s">
+        <v>1581</v>
+      </c>
+      <c r="K461" t="s">
+        <v>1625</v>
+      </c>
+      <c r="L461" t="s">
+        <v>1484</v>
+      </c>
+      <c r="M461" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="462" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A462" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B462" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D462" t="s">
+        <v>90</v>
+      </c>
+      <c r="E462"/>
+      <c r="J462" t="s">
+        <v>1582</v>
+      </c>
+      <c r="K462" t="s">
+        <v>1626</v>
+      </c>
+      <c r="L462" t="s">
+        <v>1536</v>
+      </c>
+      <c r="M462" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="463" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A463" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B463" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D463" t="s">
+        <v>90</v>
+      </c>
+      <c r="E463"/>
+      <c r="J463" t="s">
+        <v>1583</v>
+      </c>
+      <c r="K463" t="s">
+        <v>1627</v>
+      </c>
+      <c r="L463" t="s">
+        <v>1537</v>
+      </c>
+      <c r="M463" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="464" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A464" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B464" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D464" t="s">
+        <v>89</v>
+      </c>
+      <c r="E464" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="J464" t="s">
+        <v>1584</v>
+      </c>
+      <c r="K464" t="s">
+        <v>1628</v>
+      </c>
+      <c r="L464" t="s">
+        <v>1538</v>
+      </c>
+      <c r="M464" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="465" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A465" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B465" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D465" t="s">
+        <v>91</v>
+      </c>
+      <c r="J465" t="s">
+        <v>918</v>
+      </c>
+      <c r="K465" t="s">
+        <v>908</v>
+      </c>
+      <c r="L465" t="s">
+        <v>1539</v>
+      </c>
+      <c r="M465" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="466" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A466" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B466" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D466" t="s">
+        <v>90</v>
+      </c>
+      <c r="E466" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="J466" t="s">
+        <v>1585</v>
+      </c>
+      <c r="K466" t="s">
+        <v>1629</v>
+      </c>
+      <c r="L466" t="s">
+        <v>1540</v>
+      </c>
+      <c r="M466" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="467" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A467" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B467" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D467" t="s">
+        <v>91</v>
+      </c>
+      <c r="J467" t="s">
+        <v>1586</v>
+      </c>
+      <c r="K467" t="s">
+        <v>886</v>
+      </c>
+      <c r="L467" t="s">
+        <v>1541</v>
+      </c>
+      <c r="M467" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="468" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A468" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B468" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D468" t="s">
+        <v>91</v>
+      </c>
+      <c r="E468" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="J468" t="s">
+        <v>1587</v>
+      </c>
+      <c r="K468" t="s">
+        <v>1630</v>
+      </c>
+      <c r="L468" t="s">
+        <v>1499</v>
+      </c>
+      <c r="M468" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="469" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A469" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B469" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D469" t="s">
+        <v>91</v>
+      </c>
+      <c r="J469" t="s">
+        <v>1588</v>
+      </c>
+      <c r="K469" t="s">
+        <v>1631</v>
+      </c>
+      <c r="L469" t="s">
+        <v>1542</v>
+      </c>
+      <c r="M469" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="470" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A470" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B470" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D470" t="s">
+        <v>91</v>
+      </c>
+      <c r="J470" t="s">
+        <v>1589</v>
+      </c>
+      <c r="K470" t="s">
+        <v>1632</v>
+      </c>
+      <c r="L470" t="s">
+        <v>1543</v>
+      </c>
+      <c r="M470" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="471" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A471" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B471" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D471" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E471" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="J471" t="s">
+        <v>1590</v>
+      </c>
+      <c r="K471" t="s">
+        <v>1633</v>
+      </c>
+      <c r="L471" t="s">
+        <v>1544</v>
+      </c>
+      <c r="M471" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="472" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A472" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B472" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D472" t="s">
+        <v>89</v>
+      </c>
+      <c r="E472" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J472" t="s">
+        <v>1591</v>
+      </c>
+      <c r="K472" t="s">
+        <v>1634</v>
+      </c>
+      <c r="L472" t="s">
+        <v>1545</v>
+      </c>
+      <c r="M472" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="473" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A473" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B473" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D473" t="s">
+        <v>91</v>
+      </c>
+      <c r="J473" t="s">
+        <v>1592</v>
+      </c>
+      <c r="K473" t="s">
+        <v>1635</v>
+      </c>
+      <c r="L473" t="s">
+        <v>1546</v>
+      </c>
+      <c r="M473" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="474" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A474" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B474" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D474" t="s">
+        <v>91</v>
+      </c>
+      <c r="E474" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="J474" t="s">
+        <v>1593</v>
+      </c>
+      <c r="K474" t="s">
+        <v>1636</v>
+      </c>
+      <c r="L474" t="s">
+        <v>1547</v>
+      </c>
+      <c r="M474" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="475" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A475" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B475" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D475" t="s">
         <v>27</v>
       </c>
-      <c r="E434" s="1" t="s">
+      <c r="F475" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="J475" t="s">
+        <v>1594</v>
+      </c>
+      <c r="K475" t="s">
+        <v>1637</v>
+      </c>
+      <c r="L475" t="s">
+        <v>1548</v>
+      </c>
+      <c r="M475" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="476" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A476" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B476" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D476" t="s">
+        <v>27</v>
+      </c>
+      <c r="E476" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="G476" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="J476" t="s">
+        <v>1595</v>
+      </c>
+      <c r="K476" t="s">
+        <v>1638</v>
+      </c>
+      <c r="L476" t="s">
+        <v>1549</v>
+      </c>
+      <c r="M476" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="477" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A477" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B477" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C477" s="1"/>
+      <c r="D477" t="s">
+        <v>27</v>
+      </c>
+      <c r="E477" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J477" t="s">
+        <v>1596</v>
+      </c>
+      <c r="K477" t="s">
+        <v>1639</v>
+      </c>
+      <c r="L477" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M477" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="478" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A478" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B478" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D478" t="s">
+        <v>27</v>
+      </c>
+      <c r="G478" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="J478" t="s">
+        <v>1597</v>
+      </c>
+      <c r="K478" t="s">
+        <v>1640</v>
+      </c>
+      <c r="L478" t="s">
+        <v>1551</v>
+      </c>
+      <c r="M478" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="479" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A479" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B479" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C479" s="1"/>
+      <c r="D479" t="s">
+        <v>27</v>
+      </c>
+      <c r="E479" s="1" t="s">
         <v>1497</v>
       </c>
-      <c r="F434" s="1" t="s">
+      <c r="F479" s="1" t="s">
         <v>1437</v>
       </c>
-      <c r="J434" t="s">
+      <c r="J479" t="s">
         <v>1598</v>
       </c>
-      <c r="K434" t="s">
+      <c r="K479" t="s">
         <v>1641</v>
       </c>
-      <c r="L434" t="s">
+      <c r="L479" t="s">
         <v>1552</v>
       </c>
-      <c r="M434" t="s">
+      <c r="M479" t="s">
         <v>1510</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dictionary/Vocab.xlsx
+++ b/dictionary/Vocab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_Trae\TibetanNote\dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05281C7D-D4FA-4A2D-9B64-5B27033EC670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC18868-D4AD-410E-B8E6-4E899BB11845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11438" yWindow="0" windowWidth="11684" windowHeight="13763" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocab" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3438" uniqueCount="2271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3692" uniqueCount="2472">
   <si>
     <t>word</t>
   </si>
@@ -6849,6 +6849,609 @@
   </si>
   <si>
     <t>大约；几乎</t>
+  </si>
+  <si>
+    <t>V01-L11</t>
+  </si>
+  <si>
+    <t>གནས་ཚུལ།</t>
+  </si>
+  <si>
+    <t>ཆུང་དུས།</t>
+  </si>
+  <si>
+    <t>ཁྱོ་ག</t>
+  </si>
+  <si>
+    <t>སྐྱེས་དམན།</t>
+  </si>
+  <si>
+    <t>སྨན་ཞབས།</t>
+  </si>
+  <si>
+    <t>སྐུ་ཞབས།</t>
+  </si>
+  <si>
+    <t>གནས་ཚུལ་</t>
+  </si>
+  <si>
+    <t>ཆུང་དུས་</t>
+  </si>
+  <si>
+    <t>སྐྱེས་དམན་</t>
+  </si>
+  <si>
+    <t>སྨན་ཞབས་</t>
+  </si>
+  <si>
+    <t>སྐུ་ཞབས་</t>
+  </si>
+  <si>
+    <t>སྤྱི་སྐད།</t>
+  </si>
+  <si>
+    <t>བོད་སྐད།</t>
+  </si>
+  <si>
+    <t>མགོ</t>
+  </si>
+  <si>
+    <t>སྤགས།</t>
+  </si>
+  <si>
+    <t>ཆང་།</t>
+  </si>
+  <si>
+    <t>ཨ་མེ་རི་ཀ</t>
+  </si>
+  <si>
+    <t>ཨ་རི།</t>
+  </si>
+  <si>
+    <t>ཕྱིད་ཀ</t>
+  </si>
+  <si>
+    <t>སྐར་མ།</t>
+  </si>
+  <si>
+    <t>གཟའ་ཟླ་བ།</t>
+  </si>
+  <si>
+    <t>གཟའ་མིག་དམར།</t>
+  </si>
+  <si>
+    <t>གཟའ་ལྷག་པ།</t>
+  </si>
+  <si>
+    <t>གཟའ་ཕུར་བུ།</t>
+  </si>
+  <si>
+    <t>གཟའ་པ་སངས།</t>
+  </si>
+  <si>
+    <t>གཟའ་སྤེན་པ།</t>
+  </si>
+  <si>
+    <t>གཟའ་ཉི་མ།</t>
+  </si>
+  <si>
+    <t>ཁག་པོ།</t>
+  </si>
+  <si>
+    <t>དཀའ་ལས་ཁག་པོ།</t>
+  </si>
+  <si>
+    <t>ཤུགས་ཆེན་པོ།</t>
+  </si>
+  <si>
+    <t>ཏོག་ཙམ།</t>
+  </si>
+  <si>
+    <t>ག་ས་ག་ནས།</t>
+  </si>
+  <si>
+    <t>དུས་ཚོད་བཏང་བ།</t>
+  </si>
+  <si>
+    <t>ཤེས་པ།</t>
+  </si>
+  <si>
+    <t>གྲོད་ཁོག་ལྟོགས་པ།</t>
+  </si>
+  <si>
+    <t>གྲོད་ཁོག་ལྟོགས་པ་</t>
+  </si>
+  <si>
+    <t>དུས་ཚོད་བཏང་བ་</t>
+  </si>
+  <si>
+    <t>ཁ་སྐོམ་པ།</t>
+  </si>
+  <si>
+    <t>ཁ་སྐོམ་པ་</t>
+  </si>
+  <si>
+    <t>༼སྒོ་༽ཕྱེ་བ།</t>
+  </si>
+  <si>
+    <t>༼ཁ་༽ཕྱེ་བ།</t>
+  </si>
+  <si>
+    <t>འབྱེད་པ།</t>
+  </si>
+  <si>
+    <t>༼སྒོ་༽བརྒྱབ་པ།</t>
+  </si>
+  <si>
+    <t>༼ཁ་༽བརྒྱབ་པ།</t>
+  </si>
+  <si>
+    <t>རྒྱག་པ།</t>
+  </si>
+  <si>
+    <t>བླུག་པ།</t>
+  </si>
+  <si>
+    <t>རྒྱུགས།</t>
+  </si>
+  <si>
+    <t>སྐོར།</t>
+  </si>
+  <si>
+    <t>དུས།</t>
+  </si>
+  <si>
+    <t>ཡག</t>
+  </si>
+  <si>
+    <t>situation ; nouvelles</t>
+  </si>
+  <si>
+    <t>enfance ; dans l'enfance</t>
+  </si>
+  <si>
+    <t>mari ; époux</t>
+  </si>
+  <si>
+    <t>femme ; épouse</t>
+  </si>
+  <si>
+    <t>infirmier</t>
+  </si>
+  <si>
+    <t>monsieur ; moine</t>
+  </si>
+  <si>
+    <t>langue commune</t>
+  </si>
+  <si>
+    <t>tibétain parlé</t>
+  </si>
+  <si>
+    <t>tête</t>
+  </si>
+  <si>
+    <t>pâte de tsampa et de thé au beurre</t>
+  </si>
+  <si>
+    <t>Chang (boisson à base d'orge fermentée)</t>
+  </si>
+  <si>
+    <t>Etats-Unis</t>
+  </si>
+  <si>
+    <t>demi ; moitié</t>
+  </si>
+  <si>
+    <t>minute ; étoile</t>
+  </si>
+  <si>
+    <t>lundi</t>
+  </si>
+  <si>
+    <t>mardi</t>
+  </si>
+  <si>
+    <t>mercredi</t>
+  </si>
+  <si>
+    <t>jeudi</t>
+  </si>
+  <si>
+    <t>vendredi</t>
+  </si>
+  <si>
+    <t>samedi</t>
+  </si>
+  <si>
+    <t>dimanche</t>
+  </si>
+  <si>
+    <t>difficile</t>
+  </si>
+  <si>
+    <t>fort</t>
+  </si>
+  <si>
+    <t>un peu</t>
+  </si>
+  <si>
+    <t>de partout</t>
+  </si>
+  <si>
+    <t>passer du temps</t>
+  </si>
+  <si>
+    <t>savoir ; comprendre</t>
+  </si>
+  <si>
+    <t>avoir faim</t>
+  </si>
+  <si>
+    <t>avoir soif</t>
+  </si>
+  <si>
+    <t>ouvrir une porte</t>
+  </si>
+  <si>
+    <t>ouvrir une boîte</t>
+  </si>
+  <si>
+    <t>fermer une porte</t>
+  </si>
+  <si>
+    <t>fermer une boîte</t>
+  </si>
+  <si>
+    <t>verser</t>
+  </si>
+  <si>
+    <t>aller (imp)</t>
+  </si>
+  <si>
+    <t>au sujet de ; à propos de</t>
+  </si>
+  <si>
+    <t>quand ; lorsque</t>
+  </si>
+  <si>
+    <t>nominalisateur permettant de former un nom d'action irrealis</t>
+  </si>
+  <si>
+    <t>situation; news</t>
+  </si>
+  <si>
+    <t>childhood; in childhood</t>
+  </si>
+  <si>
+    <t>nurse</t>
+  </si>
+  <si>
+    <t>sir; monk</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>Tsampa and butter tea paste</t>
+  </si>
+  <si>
+    <t>Chang (fermented barley drink)</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>minute; star</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>from everywhere</t>
+  </si>
+  <si>
+    <t>be hungry</t>
+  </si>
+  <si>
+    <t>be thirsty</t>
+  </si>
+  <si>
+    <t>pour</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>common language</t>
+  </si>
+  <si>
+    <t>spoken Tibetan</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>a little</t>
+  </si>
+  <si>
+    <t>spend time</t>
+  </si>
+  <si>
+    <t>know; understand</t>
+  </si>
+  <si>
+    <t>open a door</t>
+  </si>
+  <si>
+    <t>open a box</t>
+  </si>
+  <si>
+    <t>close a door</t>
+  </si>
+  <si>
+    <t>close a box</t>
+  </si>
+  <si>
+    <t>go (imp)</t>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
+    <t>when</t>
+  </si>
+  <si>
+    <t>nominalizer to form an irrealis action name</t>
+  </si>
+  <si>
+    <t>看護婦</t>
+  </si>
+  <si>
+    <t>共通語</t>
+  </si>
+  <si>
+    <t>チベット語を話す</t>
+  </si>
+  <si>
+    <t>頭</t>
+  </si>
+  <si>
+    <t>ツァンパとバターティーペースト</t>
+  </si>
+  <si>
+    <t>米国</t>
+  </si>
+  <si>
+    <t>月曜日</t>
+  </si>
+  <si>
+    <t>火曜日</t>
+  </si>
+  <si>
+    <t>水曜日</t>
+  </si>
+  <si>
+    <t>木曜日</t>
+  </si>
+  <si>
+    <t>金曜日</t>
+  </si>
+  <si>
+    <t>土曜日</t>
+  </si>
+  <si>
+    <t>日曜日</t>
+  </si>
+  <si>
+    <t>難しい</t>
+  </si>
+  <si>
+    <t>強い</t>
+  </si>
+  <si>
+    <t>どこからでも</t>
+  </si>
+  <si>
+    <t>時間を過ごす</t>
+  </si>
+  <si>
+    <t>渇く</t>
+  </si>
+  <si>
+    <t>ドアを開ける</t>
+  </si>
+  <si>
+    <t>箱を開ける</t>
+  </si>
+  <si>
+    <t>ドアを閉じる</t>
+  </si>
+  <si>
+    <t>注ぐ</t>
+  </si>
+  <si>
+    <t>に関しては;に関しては</t>
+  </si>
+  <si>
+    <t>状況、ニュース</t>
+  </si>
+  <si>
+    <t>幼年、幼少期に</t>
+  </si>
+  <si>
+    <t>夫</t>
+  </si>
+  <si>
+    <t>妻</t>
+  </si>
+  <si>
+    <t>さん（男性）、僧</t>
+  </si>
+  <si>
+    <t>チャン（大麦発酵飲料）</t>
+  </si>
+  <si>
+    <t>半分</t>
+  </si>
+  <si>
+    <t>分、星</t>
+  </si>
+  <si>
+    <t>知る、分かる</t>
+  </si>
+  <si>
+    <t>お腹が空く</t>
+  </si>
+  <si>
+    <t>箱を閉じる</t>
+  </si>
+  <si>
+    <t>行け</t>
+  </si>
+  <si>
+    <t>とき</t>
+  </si>
+  <si>
+    <t>動詞に接する名詞化語尾</t>
+  </si>
+  <si>
+    <t>护士</t>
+  </si>
+  <si>
+    <t>藏语口语</t>
+  </si>
+  <si>
+    <t>头</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>星期一</t>
+  </si>
+  <si>
+    <t>星期二</t>
+  </si>
+  <si>
+    <t>星期三</t>
+  </si>
+  <si>
+    <t>星期四</t>
+  </si>
+  <si>
+    <t>星期五</t>
+  </si>
+  <si>
+    <t>星期六</t>
+  </si>
+  <si>
+    <t>星期日</t>
+  </si>
+  <si>
+    <t>难</t>
+  </si>
+  <si>
+    <t>强</t>
+  </si>
+  <si>
+    <t>一点儿</t>
+  </si>
+  <si>
+    <t>来自任何地方</t>
+  </si>
+  <si>
+    <t>渴</t>
+  </si>
+  <si>
+    <t>开门</t>
+  </si>
+  <si>
+    <t>倒</t>
+  </si>
+  <si>
+    <t>情况；新闻</t>
+  </si>
+  <si>
+    <t>童年；小时候</t>
+  </si>
+  <si>
+    <t>丈夫</t>
+  </si>
+  <si>
+    <t>妻子</t>
+  </si>
+  <si>
+    <t>先生；和尚</t>
+  </si>
+  <si>
+    <t>共同语</t>
+  </si>
+  <si>
+    <t>糌粑和酥油茶混合后搓成的面团</t>
+  </si>
+  <si>
+    <t>青稞酒</t>
+  </si>
+  <si>
+    <t>半</t>
+  </si>
+  <si>
+    <t>分钟；星星</t>
+  </si>
+  <si>
+    <t>度过一段时间</t>
+  </si>
+  <si>
+    <t>知道；理解</t>
+  </si>
+  <si>
+    <t>饿</t>
+  </si>
+  <si>
+    <t>关门</t>
+  </si>
+  <si>
+    <t>打开箱子</t>
+  </si>
+  <si>
+    <t>关闭箱子</t>
+  </si>
+  <si>
+    <t>走（imp）</t>
+  </si>
+  <si>
+    <t>时；的时候</t>
+  </si>
+  <si>
+    <t>动词后的名词化标记</t>
   </si>
 </sst>
 </file>
@@ -7178,13 +7781,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R479"/>
+  <dimension ref="A1:R519"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F389" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C399" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J405" sqref="J405"/>
+      <selection pane="bottomRight" activeCell="H442" sqref="H442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.55000000000000004"/>
@@ -7193,7 +7796,7 @@
     <col min="2" max="2" width="7.19921875" customWidth="1"/>
     <col min="3" max="3" width="16.86328125" customWidth="1"/>
     <col min="5" max="8" width="9.06640625" style="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="12" max="12" width="19.06640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -16086,6 +16689,9 @@
       <c r="B377" t="s">
         <v>2116</v>
       </c>
+      <c r="I377" s="1" t="s">
+        <v>2318</v>
+      </c>
       <c r="J377" t="s">
         <v>2261</v>
       </c>
@@ -16729,1765 +17335,2604 @@
     </row>
     <row r="407" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" s="1" t="s">
-        <v>39</v>
+        <v>2272</v>
       </c>
       <c r="B407" t="s">
-        <v>190</v>
-      </c>
-      <c r="D407" t="s">
-        <v>40</v>
+        <v>2271</v>
       </c>
       <c r="E407" s="1" t="s">
-        <v>41</v>
+        <v>2278</v>
       </c>
       <c r="J407" t="s">
-        <v>42</v>
+        <v>2453</v>
       </c>
       <c r="K407" t="s">
-        <v>43</v>
+        <v>2421</v>
       </c>
       <c r="L407" t="s">
-        <v>57</v>
+        <v>2360</v>
       </c>
       <c r="M407" t="s">
-        <v>53</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" s="1" t="s">
-        <v>47</v>
+        <v>2273</v>
       </c>
       <c r="B408" t="s">
-        <v>190</v>
-      </c>
-      <c r="D408" t="s">
-        <v>40</v>
+        <v>2271</v>
       </c>
       <c r="E408" s="1" t="s">
-        <v>66</v>
+        <v>2279</v>
       </c>
       <c r="J408" t="s">
-        <v>62</v>
+        <v>2454</v>
       </c>
       <c r="K408" t="s">
-        <v>126</v>
+        <v>2422</v>
       </c>
       <c r="L408" t="s">
-        <v>142</v>
+        <v>2361</v>
       </c>
       <c r="M408" t="s">
-        <v>52</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="409" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" s="1" t="s">
-        <v>48</v>
+        <v>2274</v>
       </c>
       <c r="B409" t="s">
-        <v>190</v>
-      </c>
-      <c r="D409" t="s">
-        <v>40</v>
+        <v>2271</v>
+      </c>
+      <c r="J409" t="s">
+        <v>2455</v>
+      </c>
+      <c r="K409" t="s">
+        <v>2423</v>
+      </c>
+      <c r="L409" t="s">
+        <v>2382</v>
       </c>
       <c r="M409" t="s">
-        <v>58</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" s="1" t="s">
-        <v>49</v>
+        <v>2275</v>
       </c>
       <c r="B410" t="s">
-        <v>190</v>
-      </c>
-      <c r="D410" t="s">
-        <v>40</v>
+        <v>2271</v>
       </c>
       <c r="E410" s="1" t="s">
-        <v>67</v>
+        <v>2280</v>
       </c>
       <c r="J410" t="s">
-        <v>63</v>
+        <v>2456</v>
       </c>
       <c r="K410" t="s">
-        <v>127</v>
+        <v>2424</v>
+      </c>
+      <c r="L410" t="s">
+        <v>2383</v>
       </c>
       <c r="M410" t="s">
-        <v>59</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" s="1" t="s">
-        <v>50</v>
+        <v>2276</v>
       </c>
       <c r="B411" t="s">
-        <v>190</v>
-      </c>
-      <c r="D411" t="s">
-        <v>40</v>
+        <v>2271</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>68</v>
+        <v>2281</v>
       </c>
       <c r="J411" t="s">
-        <v>64</v>
+        <v>2435</v>
       </c>
       <c r="K411" t="s">
-        <v>128</v>
+        <v>2398</v>
       </c>
       <c r="L411" t="s">
-        <v>143</v>
+        <v>2362</v>
       </c>
       <c r="M411" t="s">
-        <v>60</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="412" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" s="1" t="s">
-        <v>51</v>
+        <v>2277</v>
       </c>
       <c r="B412" t="s">
-        <v>190</v>
-      </c>
-      <c r="D412" t="s">
-        <v>40</v>
+        <v>2271</v>
+      </c>
+      <c r="E412" s="1" t="s">
+        <v>2282</v>
       </c>
       <c r="J412" t="s">
-        <v>65</v>
+        <v>2457</v>
       </c>
       <c r="K412" t="s">
-        <v>129</v>
+        <v>2425</v>
       </c>
       <c r="L412" t="s">
-        <v>144</v>
+        <v>2363</v>
       </c>
       <c r="M412" t="s">
-        <v>61</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" s="1" t="s">
-        <v>69</v>
+        <v>2283</v>
       </c>
       <c r="B413" t="s">
-        <v>190</v>
-      </c>
-      <c r="D413" t="s">
-        <v>40</v>
+        <v>2271</v>
       </c>
       <c r="J413" t="s">
-        <v>108</v>
+        <v>2458</v>
       </c>
       <c r="K413" t="s">
-        <v>130</v>
+        <v>2399</v>
       </c>
       <c r="L413" t="s">
-        <v>145</v>
+        <v>2384</v>
       </c>
       <c r="M413" t="s">
-        <v>109</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" s="1" t="s">
-        <v>70</v>
+        <v>2284</v>
       </c>
       <c r="B414" t="s">
-        <v>190</v>
-      </c>
-      <c r="D414" t="s">
-        <v>40</v>
+        <v>2271</v>
       </c>
       <c r="J414" t="s">
-        <v>93</v>
+        <v>2436</v>
       </c>
       <c r="K414" t="s">
-        <v>131</v>
+        <v>2400</v>
       </c>
       <c r="L414" t="s">
-        <v>146</v>
+        <v>2385</v>
       </c>
       <c r="M414" t="s">
-        <v>110</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" s="1" t="s">
-        <v>71</v>
+        <v>2285</v>
       </c>
       <c r="B415" t="s">
-        <v>190</v>
-      </c>
-      <c r="D415" t="s">
-        <v>40</v>
+        <v>2271</v>
       </c>
       <c r="J415" t="s">
-        <v>94</v>
+        <v>2437</v>
       </c>
       <c r="K415" t="s">
-        <v>94</v>
+        <v>2401</v>
       </c>
       <c r="L415" t="s">
-        <v>147</v>
+        <v>2364</v>
       </c>
       <c r="M415" t="s">
-        <v>111</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="416" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" s="1" t="s">
-        <v>72</v>
+        <v>2286</v>
       </c>
       <c r="B416" t="s">
-        <v>190</v>
-      </c>
-      <c r="D416" t="s">
-        <v>89</v>
+        <v>2271</v>
       </c>
       <c r="J416" t="s">
-        <v>95</v>
+        <v>2459</v>
       </c>
       <c r="K416" t="s">
-        <v>132</v>
+        <v>2402</v>
       </c>
       <c r="L416" t="s">
-        <v>148</v>
+        <v>2365</v>
       </c>
       <c r="M416" t="s">
-        <v>112</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="417" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" s="1" t="s">
-        <v>73</v>
+        <v>2287</v>
       </c>
       <c r="B417" t="s">
-        <v>190</v>
-      </c>
-      <c r="D417" t="s">
-        <v>90</v>
-      </c>
-      <c r="E417" s="1" t="s">
-        <v>92</v>
+        <v>2271</v>
       </c>
       <c r="J417" t="s">
-        <v>96</v>
+        <v>2460</v>
       </c>
       <c r="K417" t="s">
-        <v>133</v>
+        <v>2426</v>
       </c>
       <c r="L417" t="s">
-        <v>149</v>
+        <v>2366</v>
       </c>
       <c r="M417" t="s">
-        <v>113</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="418" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" s="1" t="s">
-        <v>74</v>
+        <v>2288</v>
       </c>
       <c r="B418" t="s">
-        <v>190</v>
-      </c>
-      <c r="D418" t="s">
-        <v>90</v>
+        <v>2271</v>
       </c>
       <c r="J418" t="s">
-        <v>97</v>
+        <v>2438</v>
       </c>
       <c r="K418" t="s">
-        <v>135</v>
+        <v>2403</v>
       </c>
       <c r="L418" t="s">
-        <v>150</v>
+        <v>2367</v>
       </c>
       <c r="M418" t="s">
-        <v>114</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="419" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" s="1" t="s">
-        <v>75</v>
+        <v>2289</v>
       </c>
       <c r="B419" t="s">
-        <v>190</v>
-      </c>
-      <c r="D419" t="s">
-        <v>90</v>
+        <v>2271</v>
       </c>
       <c r="J419" t="s">
-        <v>98</v>
+        <v>2438</v>
       </c>
       <c r="K419" t="s">
-        <v>134</v>
+        <v>2403</v>
       </c>
       <c r="L419" t="s">
-        <v>151</v>
+        <v>2367</v>
       </c>
       <c r="M419" t="s">
-        <v>115</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" s="1" t="s">
-        <v>76</v>
+        <v>2290</v>
       </c>
       <c r="B420" t="s">
-        <v>190</v>
-      </c>
-      <c r="D420" t="s">
-        <v>90</v>
+        <v>2271</v>
       </c>
       <c r="J420" t="s">
-        <v>99</v>
+        <v>2461</v>
       </c>
       <c r="K420" t="s">
-        <v>153</v>
+        <v>2427</v>
       </c>
       <c r="L420" t="s">
-        <v>152</v>
+        <v>2386</v>
       </c>
       <c r="M420" t="s">
-        <v>116</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="421" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" s="1" t="s">
-        <v>77</v>
+        <v>2291</v>
       </c>
       <c r="B421" t="s">
-        <v>190</v>
-      </c>
-      <c r="D421" t="s">
-        <v>91</v>
+        <v>2271</v>
       </c>
       <c r="J421" t="s">
-        <v>100</v>
+        <v>2462</v>
+      </c>
+      <c r="K421" t="s">
+        <v>2428</v>
       </c>
       <c r="L421" t="s">
-        <v>154</v>
+        <v>2368</v>
       </c>
       <c r="M421" t="s">
-        <v>117</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="422" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" s="1" t="s">
-        <v>78</v>
+        <v>2292</v>
       </c>
       <c r="B422" t="s">
-        <v>190</v>
-      </c>
-      <c r="D422" t="s">
-        <v>91</v>
+        <v>2271</v>
       </c>
       <c r="J422" t="s">
-        <v>101</v>
+        <v>2439</v>
       </c>
       <c r="K422" t="s">
-        <v>136</v>
+        <v>2404</v>
       </c>
       <c r="L422" t="s">
-        <v>155</v>
+        <v>2369</v>
       </c>
       <c r="M422" t="s">
-        <v>118</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" s="1" t="s">
-        <v>79</v>
+        <v>2293</v>
       </c>
       <c r="B423" t="s">
-        <v>190</v>
-      </c>
-      <c r="D423" t="s">
-        <v>91</v>
+        <v>2271</v>
       </c>
       <c r="J423" t="s">
-        <v>101</v>
+        <v>2440</v>
       </c>
       <c r="K423" t="s">
-        <v>136</v>
+        <v>2405</v>
       </c>
       <c r="L423" t="s">
-        <v>155</v>
+        <v>2370</v>
       </c>
       <c r="M423" t="s">
-        <v>118</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" s="1" t="s">
-        <v>80</v>
+        <v>2294</v>
       </c>
       <c r="B424" t="s">
-        <v>190</v>
-      </c>
-      <c r="D424" t="s">
-        <v>91</v>
+        <v>2271</v>
       </c>
       <c r="J424" t="s">
-        <v>102</v>
+        <v>2441</v>
       </c>
       <c r="K424" t="s">
-        <v>137</v>
+        <v>2406</v>
       </c>
       <c r="L424" t="s">
-        <v>156</v>
+        <v>2371</v>
       </c>
       <c r="M424" t="s">
-        <v>119</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="425" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" s="1" t="s">
-        <v>81</v>
+        <v>2295</v>
       </c>
       <c r="B425" t="s">
-        <v>190</v>
-      </c>
-      <c r="D425" t="s">
-        <v>91</v>
+        <v>2271</v>
       </c>
       <c r="J425" t="s">
-        <v>102</v>
+        <v>2442</v>
       </c>
       <c r="K425" t="s">
-        <v>137</v>
+        <v>2407</v>
       </c>
       <c r="L425" t="s">
-        <v>156</v>
+        <v>2372</v>
       </c>
       <c r="M425" t="s">
-        <v>119</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="426" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" s="1" t="s">
-        <v>82</v>
+        <v>2296</v>
       </c>
       <c r="B426" t="s">
-        <v>190</v>
+        <v>2271</v>
       </c>
       <c r="J426" t="s">
-        <v>103</v>
+        <v>2443</v>
+      </c>
+      <c r="K426" t="s">
+        <v>2408</v>
+      </c>
+      <c r="L426" t="s">
+        <v>2373</v>
       </c>
       <c r="M426" t="s">
-        <v>120</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="427" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" s="1" t="s">
-        <v>83</v>
+        <v>2297</v>
       </c>
       <c r="B427" t="s">
-        <v>190</v>
+        <v>2271</v>
       </c>
       <c r="J427" t="s">
-        <v>104</v>
+        <v>2444</v>
+      </c>
+      <c r="K427" t="s">
+        <v>2409</v>
+      </c>
+      <c r="L427" t="s">
+        <v>2374</v>
       </c>
       <c r="M427" t="s">
-        <v>121</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="428" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" s="1" t="s">
-        <v>84</v>
+        <v>2298</v>
       </c>
       <c r="B428" t="s">
-        <v>190</v>
-      </c>
-      <c r="D428" t="s">
-        <v>27</v>
+        <v>2271</v>
       </c>
       <c r="J428" t="s">
-        <v>105</v>
+        <v>2445</v>
       </c>
       <c r="K428" t="s">
-        <v>138</v>
+        <v>2410</v>
       </c>
       <c r="L428" t="s">
-        <v>157</v>
+        <v>2375</v>
       </c>
       <c r="M428" t="s">
-        <v>122</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="429" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" s="1" t="s">
-        <v>85</v>
+        <v>2299</v>
       </c>
       <c r="B429" t="s">
-        <v>190</v>
-      </c>
-      <c r="D429" t="s">
-        <v>27</v>
+        <v>2271</v>
       </c>
       <c r="J429" t="s">
-        <v>94</v>
+        <v>2446</v>
       </c>
       <c r="K429" t="s">
-        <v>139</v>
+        <v>2411</v>
       </c>
       <c r="L429" t="s">
-        <v>157</v>
+        <v>2376</v>
       </c>
       <c r="M429" t="s">
-        <v>123</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="430" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" s="1" t="s">
-        <v>86</v>
+        <v>2300</v>
       </c>
       <c r="B430" t="s">
-        <v>190</v>
-      </c>
-      <c r="D430" t="s">
-        <v>27</v>
+        <v>2271</v>
       </c>
       <c r="J430" t="s">
-        <v>106</v>
+        <v>2446</v>
       </c>
       <c r="K430" t="s">
-        <v>140</v>
+        <v>2411</v>
       </c>
       <c r="L430" t="s">
-        <v>158</v>
+        <v>2376</v>
       </c>
       <c r="M430" t="s">
-        <v>124</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="431" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" s="1" t="s">
-        <v>87</v>
+        <v>2301</v>
       </c>
       <c r="B431" t="s">
-        <v>190</v>
-      </c>
-      <c r="D431" t="s">
-        <v>27</v>
-      </c>
-      <c r="F431" s="1" t="s">
-        <v>88</v>
+        <v>2271</v>
       </c>
       <c r="J431" t="s">
-        <v>107</v>
+        <v>2447</v>
       </c>
       <c r="K431" t="s">
-        <v>141</v>
+        <v>2412</v>
       </c>
       <c r="L431" t="s">
-        <v>159</v>
+        <v>2377</v>
       </c>
       <c r="M431" t="s">
-        <v>125</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="432" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" s="1" t="s">
-        <v>1388</v>
+        <v>2302</v>
       </c>
       <c r="B432" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D432" t="s">
-        <v>40</v>
+        <v>2271</v>
       </c>
       <c r="J432" t="s">
-        <v>1553</v>
+        <v>2448</v>
       </c>
       <c r="K432" t="s">
-        <v>1599</v>
+        <v>2037</v>
       </c>
       <c r="L432" t="s">
-        <v>1514</v>
+        <v>2387</v>
       </c>
       <c r="M432" t="s">
-        <v>1439</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="433" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" s="1" t="s">
-        <v>1400</v>
+        <v>2303</v>
       </c>
       <c r="B433" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D433" t="s">
-        <v>90</v>
-      </c>
-      <c r="E433" s="1" t="s">
-        <v>1442</v>
+        <v>2271</v>
       </c>
       <c r="J433" t="s">
-        <v>1554</v>
+        <v>2449</v>
       </c>
       <c r="K433" t="s">
-        <v>1600</v>
+        <v>2413</v>
       </c>
       <c r="L433" t="s">
-        <v>1511</v>
+        <v>2378</v>
       </c>
       <c r="M433" t="s">
-        <v>1440</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="434" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" s="1" t="s">
-        <v>1389</v>
+        <v>2304</v>
       </c>
       <c r="B434" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D434" t="s">
-        <v>40</v>
-      </c>
-      <c r="E434"/>
+        <v>2271</v>
+      </c>
+      <c r="E434" s="1" t="s">
+        <v>2308</v>
+      </c>
       <c r="J434" t="s">
-        <v>1555</v>
+        <v>2463</v>
       </c>
       <c r="K434" t="s">
-        <v>1601</v>
+        <v>2414</v>
       </c>
       <c r="L434" t="s">
-        <v>1512</v>
+        <v>2388</v>
       </c>
       <c r="M434" t="s">
-        <v>1441</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="435" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" s="1" t="s">
-        <v>1390</v>
+        <v>2305</v>
       </c>
       <c r="B435" t="s">
-        <v>1387</v>
+        <v>2271</v>
       </c>
       <c r="D435" t="s">
-        <v>40</v>
-      </c>
-      <c r="E435"/>
+        <v>2146</v>
+      </c>
       <c r="J435" t="s">
-        <v>1556</v>
+        <v>2464</v>
       </c>
       <c r="K435" t="s">
-        <v>1602</v>
+        <v>2429</v>
       </c>
       <c r="L435" t="s">
-        <v>1515</v>
+        <v>2389</v>
       </c>
       <c r="M435" t="s">
-        <v>1443</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="436" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" s="1" t="s">
-        <v>1391</v>
+        <v>2306</v>
       </c>
       <c r="B436" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D436" t="s">
-        <v>40</v>
+        <v>2271</v>
       </c>
       <c r="E436" s="1" t="s">
-        <v>1444</v>
+        <v>2307</v>
       </c>
       <c r="J436" t="s">
-        <v>1557</v>
+        <v>2465</v>
       </c>
       <c r="K436" t="s">
-        <v>1603</v>
+        <v>2430</v>
       </c>
       <c r="L436" t="s">
-        <v>1513</v>
+        <v>2379</v>
       </c>
       <c r="M436" t="s">
-        <v>1445</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="437" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" s="1" t="s">
-        <v>1392</v>
+        <v>2309</v>
       </c>
       <c r="B437" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D437" t="s">
-        <v>40</v>
-      </c>
-      <c r="E437"/>
+        <v>2271</v>
+      </c>
+      <c r="E437" s="1" t="s">
+        <v>2310</v>
+      </c>
       <c r="J437" t="s">
-        <v>1558</v>
+        <v>2450</v>
       </c>
       <c r="K437" t="s">
-        <v>1558</v>
+        <v>2415</v>
       </c>
       <c r="L437" t="s">
-        <v>1516</v>
+        <v>2380</v>
       </c>
       <c r="M437" t="s">
-        <v>1446</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="438" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" s="1" t="s">
-        <v>1393</v>
+        <v>2311</v>
       </c>
       <c r="B438" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D438" t="s">
-        <v>40</v>
-      </c>
-      <c r="E438"/>
+        <v>2271</v>
+      </c>
+      <c r="G438" s="1" t="s">
+        <v>2313</v>
+      </c>
       <c r="J438" t="s">
-        <v>1559</v>
+        <v>2451</v>
       </c>
       <c r="K438" t="s">
-        <v>1604</v>
+        <v>2416</v>
       </c>
       <c r="L438" t="s">
-        <v>1517</v>
+        <v>2390</v>
       </c>
       <c r="M438" t="s">
-        <v>1447</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="439" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" s="1" t="s">
-        <v>1394</v>
+        <v>2312</v>
       </c>
       <c r="B439" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D439" t="s">
-        <v>40</v>
-      </c>
-      <c r="E439"/>
+        <v>2271</v>
+      </c>
+      <c r="G439" s="1" t="s">
+        <v>2313</v>
+      </c>
       <c r="J439" t="s">
-        <v>1560</v>
+        <v>2467</v>
       </c>
       <c r="K439" t="s">
-        <v>1605</v>
+        <v>2417</v>
       </c>
       <c r="L439" t="s">
-        <v>1518</v>
+        <v>2391</v>
       </c>
       <c r="M439" t="s">
-        <v>1448</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="440" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" s="1" t="s">
-        <v>1395</v>
+        <v>2314</v>
       </c>
       <c r="B440" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D440" t="s">
-        <v>90</v>
-      </c>
-      <c r="E440" s="1" t="s">
-        <v>1450</v>
+        <v>2271</v>
+      </c>
+      <c r="G440" s="1" t="s">
+        <v>2316</v>
       </c>
       <c r="J440" t="s">
-        <v>1561</v>
+        <v>2466</v>
       </c>
       <c r="K440" t="s">
-        <v>1606</v>
+        <v>2418</v>
       </c>
       <c r="L440" t="s">
-        <v>1519</v>
+        <v>2392</v>
       </c>
       <c r="M440" t="s">
-        <v>1449</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="441" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" s="1" t="s">
-        <v>1396</v>
+        <v>2315</v>
       </c>
       <c r="B441" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D441" t="s">
-        <v>90</v>
-      </c>
-      <c r="E441"/>
+        <v>2271</v>
+      </c>
+      <c r="G441" s="1" t="s">
+        <v>2316</v>
+      </c>
       <c r="J441" t="s">
-        <v>1562</v>
+        <v>2468</v>
       </c>
       <c r="K441" t="s">
-        <v>1607</v>
+        <v>2431</v>
       </c>
       <c r="L441" t="s">
-        <v>1520</v>
+        <v>2393</v>
       </c>
       <c r="M441" t="s">
-        <v>1451</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" s="1" t="s">
-        <v>1397</v>
+        <v>2317</v>
       </c>
       <c r="B442" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D442" t="s">
-        <v>90</v>
-      </c>
-      <c r="E442"/>
+        <v>2271</v>
+      </c>
       <c r="J442" t="s">
-        <v>1563</v>
+        <v>2452</v>
       </c>
       <c r="K442" t="s">
-        <v>1608</v>
+        <v>2419</v>
       </c>
       <c r="L442" t="s">
-        <v>1521</v>
+        <v>2381</v>
       </c>
       <c r="M442" t="s">
-        <v>1452</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="443" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" s="1" t="s">
-        <v>1398</v>
+        <v>2318</v>
       </c>
       <c r="B443" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D443" t="s">
-        <v>90</v>
-      </c>
-      <c r="E443" s="1" t="s">
-        <v>1454</v>
+        <v>2271</v>
       </c>
       <c r="J443" t="s">
-        <v>1563</v>
+        <v>2469</v>
       </c>
       <c r="K443" t="s">
-        <v>1609</v>
+        <v>2432</v>
       </c>
       <c r="L443" t="s">
-        <v>1521</v>
+        <v>2394</v>
       </c>
       <c r="M443" t="s">
-        <v>1452</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="444" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" s="1" t="s">
-        <v>1399</v>
+        <v>2319</v>
       </c>
       <c r="B444" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D444" t="s">
-        <v>90</v>
-      </c>
-      <c r="E444"/>
+        <v>2271</v>
+      </c>
       <c r="J444" t="s">
-        <v>1564</v>
+        <v>1294</v>
       </c>
       <c r="K444" t="s">
-        <v>1609</v>
+        <v>2420</v>
       </c>
       <c r="L444" t="s">
-        <v>1522</v>
+        <v>2395</v>
       </c>
       <c r="M444" t="s">
-        <v>1453</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="445" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" s="1" t="s">
-        <v>1401</v>
+        <v>2320</v>
       </c>
       <c r="B445" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D445" t="s">
-        <v>90</v>
-      </c>
-      <c r="E445" s="1" t="s">
-        <v>1455</v>
+        <v>2271</v>
       </c>
       <c r="J445" t="s">
-        <v>1565</v>
+        <v>2470</v>
       </c>
       <c r="K445" t="s">
-        <v>1610</v>
+        <v>2433</v>
       </c>
       <c r="L445" t="s">
-        <v>1523</v>
+        <v>2396</v>
       </c>
       <c r="M445" t="s">
-        <v>1456</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="446" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" s="1" t="s">
-        <v>1402</v>
+        <v>2321</v>
       </c>
       <c r="B446" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D446" t="s">
-        <v>90</v>
-      </c>
-      <c r="E446"/>
+        <v>2271</v>
+      </c>
       <c r="J446" t="s">
-        <v>1566</v>
+        <v>2471</v>
       </c>
       <c r="K446" t="s">
-        <v>1611</v>
+        <v>2434</v>
       </c>
       <c r="L446" t="s">
-        <v>1524</v>
+        <v>2397</v>
       </c>
       <c r="M446" t="s">
-        <v>1457</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="447" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" s="1" t="s">
-        <v>1459</v>
+        <v>39</v>
       </c>
       <c r="B447" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D447" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="E447" s="1" t="s">
-        <v>1460</v>
+        <v>41</v>
       </c>
       <c r="J447" t="s">
-        <v>1567</v>
+        <v>42</v>
       </c>
       <c r="K447" t="s">
-        <v>1612</v>
+        <v>43</v>
       </c>
       <c r="L447" t="s">
-        <v>1525</v>
+        <v>57</v>
       </c>
       <c r="M447" t="s">
-        <v>1458</v>
+        <v>53</v>
       </c>
     </row>
     <row r="448" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" s="1" t="s">
-        <v>1403</v>
+        <v>47</v>
       </c>
       <c r="B448" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D448" t="s">
-        <v>90</v>
-      </c>
-      <c r="E448"/>
+        <v>40</v>
+      </c>
+      <c r="E448" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="J448" t="s">
-        <v>1568</v>
+        <v>62</v>
       </c>
       <c r="K448" t="s">
-        <v>1613</v>
+        <v>126</v>
       </c>
       <c r="L448" t="s">
-        <v>1526</v>
+        <v>142</v>
       </c>
       <c r="M448" t="s">
-        <v>1461</v>
+        <v>52</v>
       </c>
     </row>
     <row r="449" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" s="1" t="s">
-        <v>1404</v>
+        <v>48</v>
       </c>
       <c r="B449" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D449" t="s">
-        <v>90</v>
-      </c>
-      <c r="E449"/>
-      <c r="J449" t="s">
-        <v>1569</v>
-      </c>
-      <c r="K449" t="s">
-        <v>1614</v>
-      </c>
-      <c r="L449" t="s">
-        <v>1527</v>
+        <v>40</v>
       </c>
       <c r="M449" t="s">
-        <v>1462</v>
+        <v>58</v>
       </c>
     </row>
     <row r="450" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" s="1" t="s">
-        <v>1405</v>
+        <v>49</v>
       </c>
       <c r="B450" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D450" t="s">
-        <v>90</v>
-      </c>
-      <c r="E450"/>
+        <v>40</v>
+      </c>
+      <c r="E450" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="J450" t="s">
-        <v>1571</v>
+        <v>63</v>
       </c>
       <c r="K450" t="s">
-        <v>1615</v>
-      </c>
-      <c r="L450" t="s">
-        <v>1570</v>
+        <v>127</v>
       </c>
       <c r="M450" t="s">
-        <v>1463</v>
+        <v>59</v>
       </c>
     </row>
     <row r="451" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" s="1" t="s">
-        <v>1406</v>
+        <v>50</v>
       </c>
       <c r="B451" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D451" t="s">
-        <v>90</v>
-      </c>
-      <c r="E451"/>
+        <v>40</v>
+      </c>
+      <c r="E451" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="J451" t="s">
-        <v>1572</v>
+        <v>64</v>
       </c>
       <c r="K451" t="s">
-        <v>1616</v>
+        <v>128</v>
       </c>
       <c r="L451" t="s">
-        <v>1528</v>
+        <v>143</v>
       </c>
       <c r="M451" t="s">
-        <v>1464</v>
+        <v>60</v>
       </c>
     </row>
     <row r="452" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" s="1" t="s">
-        <v>1407</v>
+        <v>51</v>
       </c>
       <c r="B452" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D452" t="s">
-        <v>90</v>
-      </c>
-      <c r="E452" s="1" t="s">
-        <v>1465</v>
+        <v>40</v>
       </c>
       <c r="J452" t="s">
-        <v>1573</v>
+        <v>65</v>
       </c>
       <c r="K452" t="s">
-        <v>1617</v>
+        <v>129</v>
       </c>
       <c r="L452" t="s">
-        <v>1529</v>
+        <v>144</v>
       </c>
       <c r="M452" t="s">
-        <v>1467</v>
+        <v>61</v>
       </c>
     </row>
     <row r="453" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" s="1" t="s">
-        <v>1408</v>
+        <v>69</v>
       </c>
       <c r="B453" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D453" t="s">
-        <v>90</v>
-      </c>
-      <c r="E453" s="1" t="s">
-        <v>1466</v>
+        <v>40</v>
       </c>
       <c r="J453" t="s">
-        <v>1574</v>
+        <v>108</v>
       </c>
       <c r="K453" t="s">
-        <v>1618</v>
+        <v>130</v>
       </c>
       <c r="L453" t="s">
-        <v>1530</v>
+        <v>145</v>
       </c>
       <c r="M453" t="s">
-        <v>1468</v>
+        <v>109</v>
       </c>
     </row>
     <row r="454" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" s="1" t="s">
-        <v>1409</v>
+        <v>70</v>
       </c>
       <c r="B454" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D454" t="s">
-        <v>90</v>
-      </c>
-      <c r="E454"/>
+        <v>40</v>
+      </c>
       <c r="J454" t="s">
-        <v>1576</v>
+        <v>93</v>
       </c>
       <c r="K454" t="s">
-        <v>1619</v>
+        <v>131</v>
       </c>
       <c r="L454" t="s">
-        <v>1531</v>
+        <v>146</v>
       </c>
       <c r="M454" t="s">
-        <v>1469</v>
+        <v>110</v>
       </c>
     </row>
     <row r="455" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" s="1" t="s">
-        <v>1410</v>
+        <v>71</v>
       </c>
       <c r="B455" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D455" t="s">
-        <v>90</v>
-      </c>
-      <c r="E455"/>
+        <v>40</v>
+      </c>
       <c r="J455" t="s">
-        <v>1575</v>
+        <v>94</v>
       </c>
       <c r="K455" t="s">
-        <v>1620</v>
+        <v>94</v>
       </c>
       <c r="L455" t="s">
-        <v>1532</v>
+        <v>147</v>
       </c>
       <c r="M455" t="s">
-        <v>1470</v>
+        <v>111</v>
       </c>
     </row>
     <row r="456" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" s="1" t="s">
-        <v>1411</v>
+        <v>72</v>
       </c>
       <c r="B456" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D456" t="s">
-        <v>90</v>
-      </c>
-      <c r="E456" s="1" t="s">
-        <v>1472</v>
+        <v>89</v>
       </c>
       <c r="J456" t="s">
-        <v>1577</v>
+        <v>95</v>
       </c>
       <c r="K456" t="s">
-        <v>1621</v>
+        <v>132</v>
       </c>
       <c r="L456" t="s">
-        <v>1533</v>
+        <v>148</v>
       </c>
       <c r="M456" t="s">
-        <v>1471</v>
+        <v>112</v>
       </c>
     </row>
     <row r="457" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" s="1" t="s">
-        <v>1473</v>
+        <v>73</v>
       </c>
       <c r="B457" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D457" t="s">
         <v>90</v>
       </c>
       <c r="E457" s="1" t="s">
-        <v>1474</v>
+        <v>92</v>
       </c>
       <c r="J457" t="s">
-        <v>1578</v>
+        <v>96</v>
       </c>
       <c r="K457" t="s">
-        <v>1622</v>
+        <v>133</v>
       </c>
       <c r="L457" t="s">
-        <v>1534</v>
+        <v>149</v>
       </c>
       <c r="M457" t="s">
-        <v>1476</v>
+        <v>113</v>
       </c>
     </row>
     <row r="458" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" s="1" t="s">
-        <v>1412</v>
+        <v>74</v>
       </c>
       <c r="B458" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D458" t="s">
         <v>90</v>
       </c>
-      <c r="E458" s="1" t="s">
-        <v>1475</v>
-      </c>
       <c r="J458" t="s">
-        <v>1579</v>
+        <v>97</v>
       </c>
       <c r="K458" t="s">
-        <v>1623</v>
+        <v>135</v>
       </c>
       <c r="L458" t="s">
-        <v>1478</v>
+        <v>150</v>
       </c>
       <c r="M458" t="s">
-        <v>1477</v>
+        <v>114</v>
       </c>
     </row>
     <row r="459" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" s="1" t="s">
-        <v>1413</v>
+        <v>75</v>
       </c>
       <c r="B459" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D459" t="s">
         <v>90</v>
       </c>
-      <c r="E459" s="1" t="s">
-        <v>1479</v>
-      </c>
       <c r="J459" t="s">
-        <v>1580</v>
+        <v>98</v>
       </c>
       <c r="K459" t="s">
-        <v>1624</v>
+        <v>134</v>
       </c>
       <c r="L459" t="s">
-        <v>1535</v>
+        <v>151</v>
       </c>
       <c r="M459" t="s">
-        <v>1481</v>
+        <v>115</v>
       </c>
     </row>
     <row r="460" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" s="1" t="s">
-        <v>1414</v>
+        <v>76</v>
       </c>
       <c r="B460" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D460" t="s">
         <v>90</v>
       </c>
-      <c r="E460" s="1" t="s">
-        <v>1480</v>
-      </c>
       <c r="J460" t="s">
-        <v>1580</v>
+        <v>99</v>
       </c>
       <c r="K460" t="s">
-        <v>1624</v>
+        <v>153</v>
       </c>
       <c r="L460" t="s">
-        <v>1535</v>
+        <v>152</v>
       </c>
       <c r="M460" t="s">
-        <v>1481</v>
+        <v>116</v>
       </c>
     </row>
     <row r="461" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" s="1" t="s">
-        <v>1415</v>
+        <v>77</v>
       </c>
       <c r="B461" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D461" t="s">
-        <v>90</v>
-      </c>
-      <c r="E461" s="1" t="s">
-        <v>1483</v>
+        <v>91</v>
       </c>
       <c r="J461" t="s">
-        <v>1581</v>
-      </c>
-      <c r="K461" t="s">
-        <v>1625</v>
+        <v>100</v>
       </c>
       <c r="L461" t="s">
-        <v>1484</v>
+        <v>154</v>
       </c>
       <c r="M461" t="s">
-        <v>1482</v>
+        <v>117</v>
       </c>
     </row>
     <row r="462" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" s="1" t="s">
-        <v>1416</v>
+        <v>78</v>
       </c>
       <c r="B462" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D462" t="s">
-        <v>90</v>
-      </c>
-      <c r="E462"/>
+        <v>91</v>
+      </c>
       <c r="J462" t="s">
-        <v>1582</v>
+        <v>101</v>
       </c>
       <c r="K462" t="s">
-        <v>1626</v>
+        <v>136</v>
       </c>
       <c r="L462" t="s">
-        <v>1536</v>
+        <v>155</v>
       </c>
       <c r="M462" t="s">
-        <v>1485</v>
+        <v>118</v>
       </c>
     </row>
     <row r="463" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" s="1" t="s">
-        <v>1417</v>
+        <v>79</v>
       </c>
       <c r="B463" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D463" t="s">
-        <v>90</v>
-      </c>
-      <c r="E463"/>
+        <v>91</v>
+      </c>
       <c r="J463" t="s">
-        <v>1583</v>
+        <v>101</v>
       </c>
       <c r="K463" t="s">
-        <v>1627</v>
+        <v>136</v>
       </c>
       <c r="L463" t="s">
-        <v>1537</v>
+        <v>155</v>
       </c>
       <c r="M463" t="s">
-        <v>1486</v>
+        <v>118</v>
       </c>
     </row>
     <row r="464" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" s="1" t="s">
-        <v>1418</v>
+        <v>80</v>
       </c>
       <c r="B464" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D464" t="s">
-        <v>89</v>
-      </c>
-      <c r="E464" s="1" t="s">
-        <v>1490</v>
+        <v>91</v>
       </c>
       <c r="J464" t="s">
-        <v>1584</v>
+        <v>102</v>
       </c>
       <c r="K464" t="s">
-        <v>1628</v>
+        <v>137</v>
       </c>
       <c r="L464" t="s">
-        <v>1538</v>
+        <v>156</v>
       </c>
       <c r="M464" t="s">
-        <v>1487</v>
+        <v>119</v>
       </c>
     </row>
     <row r="465" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" s="1" t="s">
-        <v>1419</v>
+        <v>81</v>
       </c>
       <c r="B465" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D465" t="s">
         <v>91</v>
       </c>
       <c r="J465" t="s">
-        <v>918</v>
+        <v>102</v>
       </c>
       <c r="K465" t="s">
-        <v>908</v>
+        <v>137</v>
       </c>
       <c r="L465" t="s">
-        <v>1539</v>
+        <v>156</v>
       </c>
       <c r="M465" t="s">
-        <v>1488</v>
+        <v>119</v>
       </c>
     </row>
     <row r="466" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" s="1" t="s">
-        <v>1420</v>
+        <v>82</v>
       </c>
       <c r="B466" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D466" t="s">
-        <v>90</v>
-      </c>
-      <c r="E466" s="1" t="s">
-        <v>1491</v>
+        <v>190</v>
       </c>
       <c r="J466" t="s">
-        <v>1585</v>
-      </c>
-      <c r="K466" t="s">
-        <v>1629</v>
-      </c>
-      <c r="L466" t="s">
-        <v>1540</v>
+        <v>103</v>
       </c>
       <c r="M466" t="s">
-        <v>1489</v>
+        <v>120</v>
       </c>
     </row>
     <row r="467" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" s="1" t="s">
-        <v>1421</v>
+        <v>83</v>
       </c>
       <c r="B467" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D467" t="s">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="J467" t="s">
-        <v>1586</v>
-      </c>
-      <c r="K467" t="s">
-        <v>886</v>
-      </c>
-      <c r="L467" t="s">
-        <v>1541</v>
+        <v>104</v>
       </c>
       <c r="M467" t="s">
-        <v>1498</v>
+        <v>121</v>
       </c>
     </row>
     <row r="468" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" s="1" t="s">
-        <v>1422</v>
+        <v>84</v>
       </c>
       <c r="B468" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D468" t="s">
-        <v>91</v>
-      </c>
-      <c r="E468" s="1" t="s">
-        <v>1492</v>
+        <v>27</v>
       </c>
       <c r="J468" t="s">
-        <v>1587</v>
+        <v>105</v>
       </c>
       <c r="K468" t="s">
-        <v>1630</v>
+        <v>138</v>
       </c>
       <c r="L468" t="s">
-        <v>1499</v>
+        <v>157</v>
       </c>
       <c r="M468" t="s">
-        <v>1499</v>
+        <v>122</v>
       </c>
     </row>
     <row r="469" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" s="1" t="s">
-        <v>1423</v>
+        <v>85</v>
       </c>
       <c r="B469" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D469" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="J469" t="s">
-        <v>1588</v>
+        <v>94</v>
       </c>
       <c r="K469" t="s">
-        <v>1631</v>
+        <v>139</v>
       </c>
       <c r="L469" t="s">
-        <v>1542</v>
+        <v>157</v>
       </c>
       <c r="M469" t="s">
-        <v>1500</v>
+        <v>123</v>
       </c>
     </row>
     <row r="470" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" s="1" t="s">
-        <v>1424</v>
+        <v>86</v>
       </c>
       <c r="B470" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D470" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="J470" t="s">
-        <v>1589</v>
+        <v>106</v>
       </c>
       <c r="K470" t="s">
-        <v>1632</v>
+        <v>140</v>
       </c>
       <c r="L470" t="s">
-        <v>1543</v>
+        <v>158</v>
       </c>
       <c r="M470" t="s">
-        <v>1501</v>
+        <v>124</v>
       </c>
     </row>
     <row r="471" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" s="1" t="s">
-        <v>1425</v>
+        <v>87</v>
       </c>
       <c r="B471" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D471" t="s">
-        <v>1178</v>
-      </c>
-      <c r="E471" s="1" t="s">
-        <v>1493</v>
+        <v>27</v>
+      </c>
+      <c r="F471" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="J471" t="s">
-        <v>1590</v>
+        <v>107</v>
       </c>
       <c r="K471" t="s">
-        <v>1633</v>
+        <v>141</v>
       </c>
       <c r="L471" t="s">
-        <v>1544</v>
+        <v>159</v>
       </c>
       <c r="M471" t="s">
-        <v>1502</v>
+        <v>125</v>
       </c>
     </row>
     <row r="472" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" s="1" t="s">
-        <v>1426</v>
+        <v>1388</v>
       </c>
       <c r="B472" t="s">
         <v>1387</v>
       </c>
       <c r="D472" t="s">
-        <v>89</v>
-      </c>
-      <c r="E472" s="1" t="s">
-        <v>1494</v>
+        <v>40</v>
       </c>
       <c r="J472" t="s">
-        <v>1591</v>
+        <v>1553</v>
       </c>
       <c r="K472" t="s">
-        <v>1634</v>
+        <v>1599</v>
       </c>
       <c r="L472" t="s">
-        <v>1545</v>
+        <v>1514</v>
       </c>
       <c r="M472" t="s">
-        <v>1503</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="473" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" s="1" t="s">
-        <v>1427</v>
+        <v>1400</v>
       </c>
       <c r="B473" t="s">
         <v>1387</v>
       </c>
       <c r="D473" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="E473" s="1" t="s">
+        <v>1442</v>
       </c>
       <c r="J473" t="s">
-        <v>1592</v>
+        <v>1554</v>
       </c>
       <c r="K473" t="s">
-        <v>1635</v>
+        <v>1600</v>
       </c>
       <c r="L473" t="s">
-        <v>1546</v>
+        <v>1511</v>
       </c>
       <c r="M473" t="s">
-        <v>1504</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="474" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" s="1" t="s">
-        <v>1428</v>
+        <v>1389</v>
       </c>
       <c r="B474" t="s">
         <v>1387</v>
       </c>
       <c r="D474" t="s">
-        <v>91</v>
-      </c>
-      <c r="E474" s="1" t="s">
-        <v>1495</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E474"/>
       <c r="J474" t="s">
-        <v>1593</v>
+        <v>1555</v>
       </c>
       <c r="K474" t="s">
-        <v>1636</v>
+        <v>1601</v>
       </c>
       <c r="L474" t="s">
-        <v>1547</v>
+        <v>1512</v>
       </c>
       <c r="M474" t="s">
-        <v>1505</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="475" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" s="1" t="s">
-        <v>1429</v>
+        <v>1390</v>
       </c>
       <c r="B475" t="s">
         <v>1387</v>
       </c>
       <c r="D475" t="s">
-        <v>27</v>
-      </c>
-      <c r="F475" s="1" t="s">
-        <v>1430</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E475"/>
       <c r="J475" t="s">
-        <v>1594</v>
+        <v>1556</v>
       </c>
       <c r="K475" t="s">
-        <v>1637</v>
+        <v>1602</v>
       </c>
       <c r="L475" t="s">
-        <v>1548</v>
+        <v>1515</v>
       </c>
       <c r="M475" t="s">
-        <v>1506</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="476" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" s="1" t="s">
-        <v>1431</v>
+        <v>1391</v>
       </c>
       <c r="B476" t="s">
         <v>1387</v>
       </c>
       <c r="D476" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E476" s="1" t="s">
-        <v>1438</v>
-      </c>
-      <c r="G476" s="1" t="s">
-        <v>1432</v>
+        <v>1444</v>
       </c>
       <c r="J476" t="s">
-        <v>1595</v>
+        <v>1557</v>
       </c>
       <c r="K476" t="s">
-        <v>1638</v>
+        <v>1603</v>
       </c>
       <c r="L476" t="s">
-        <v>1549</v>
+        <v>1513</v>
       </c>
       <c r="M476" t="s">
-        <v>1507</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="477" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" s="1" t="s">
-        <v>1433</v>
+        <v>1392</v>
       </c>
       <c r="B477" t="s">
         <v>1387</v>
       </c>
-      <c r="C477" s="1"/>
       <c r="D477" t="s">
-        <v>27</v>
-      </c>
-      <c r="E477" s="1" t="s">
-        <v>1496</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E477"/>
       <c r="J477" t="s">
-        <v>1596</v>
+        <v>1558</v>
       </c>
       <c r="K477" t="s">
-        <v>1639</v>
+        <v>1558</v>
       </c>
       <c r="L477" t="s">
-        <v>1550</v>
+        <v>1516</v>
       </c>
       <c r="M477" t="s">
-        <v>1508</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="478" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" s="1" t="s">
-        <v>1434</v>
+        <v>1393</v>
       </c>
       <c r="B478" t="s">
         <v>1387</v>
       </c>
       <c r="D478" t="s">
-        <v>27</v>
-      </c>
-      <c r="G478" s="1" t="s">
-        <v>1435</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E478"/>
       <c r="J478" t="s">
-        <v>1597</v>
+        <v>1559</v>
       </c>
       <c r="K478" t="s">
-        <v>1640</v>
+        <v>1604</v>
       </c>
       <c r="L478" t="s">
-        <v>1551</v>
+        <v>1517</v>
       </c>
       <c r="M478" t="s">
-        <v>1509</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="479" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" s="1" t="s">
-        <v>1436</v>
+        <v>1394</v>
       </c>
       <c r="B479" t="s">
         <v>1387</v>
       </c>
-      <c r="C479" s="1"/>
       <c r="D479" t="s">
+        <v>40</v>
+      </c>
+      <c r="E479"/>
+      <c r="J479" t="s">
+        <v>1560</v>
+      </c>
+      <c r="K479" t="s">
+        <v>1605</v>
+      </c>
+      <c r="L479" t="s">
+        <v>1518</v>
+      </c>
+      <c r="M479" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="480" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A480" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B480" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D480" t="s">
+        <v>90</v>
+      </c>
+      <c r="E480" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="J480" t="s">
+        <v>1561</v>
+      </c>
+      <c r="K480" t="s">
+        <v>1606</v>
+      </c>
+      <c r="L480" t="s">
+        <v>1519</v>
+      </c>
+      <c r="M480" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="481" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A481" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B481" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D481" t="s">
+        <v>90</v>
+      </c>
+      <c r="E481"/>
+      <c r="J481" t="s">
+        <v>1562</v>
+      </c>
+      <c r="K481" t="s">
+        <v>1607</v>
+      </c>
+      <c r="L481" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M481" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="482" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A482" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D482" t="s">
+        <v>90</v>
+      </c>
+      <c r="E482"/>
+      <c r="J482" t="s">
+        <v>1563</v>
+      </c>
+      <c r="K482" t="s">
+        <v>1608</v>
+      </c>
+      <c r="L482" t="s">
+        <v>1521</v>
+      </c>
+      <c r="M482" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="483" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A483" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B483" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D483" t="s">
+        <v>90</v>
+      </c>
+      <c r="E483" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="J483" t="s">
+        <v>1563</v>
+      </c>
+      <c r="K483" t="s">
+        <v>1609</v>
+      </c>
+      <c r="L483" t="s">
+        <v>1521</v>
+      </c>
+      <c r="M483" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="484" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A484" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B484" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D484" t="s">
+        <v>90</v>
+      </c>
+      <c r="E484"/>
+      <c r="J484" t="s">
+        <v>1564</v>
+      </c>
+      <c r="K484" t="s">
+        <v>1609</v>
+      </c>
+      <c r="L484" t="s">
+        <v>1522</v>
+      </c>
+      <c r="M484" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="485" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A485" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B485" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D485" t="s">
+        <v>90</v>
+      </c>
+      <c r="E485" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="J485" t="s">
+        <v>1565</v>
+      </c>
+      <c r="K485" t="s">
+        <v>1610</v>
+      </c>
+      <c r="L485" t="s">
+        <v>1523</v>
+      </c>
+      <c r="M485" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="486" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A486" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B486" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D486" t="s">
+        <v>90</v>
+      </c>
+      <c r="E486"/>
+      <c r="J486" t="s">
+        <v>1566</v>
+      </c>
+      <c r="K486" t="s">
+        <v>1611</v>
+      </c>
+      <c r="L486" t="s">
+        <v>1524</v>
+      </c>
+      <c r="M486" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="487" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A487" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B487" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D487" t="s">
+        <v>90</v>
+      </c>
+      <c r="E487" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="J487" t="s">
+        <v>1567</v>
+      </c>
+      <c r="K487" t="s">
+        <v>1612</v>
+      </c>
+      <c r="L487" t="s">
+        <v>1525</v>
+      </c>
+      <c r="M487" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="488" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A488" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B488" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D488" t="s">
+        <v>90</v>
+      </c>
+      <c r="E488"/>
+      <c r="J488" t="s">
+        <v>1568</v>
+      </c>
+      <c r="K488" t="s">
+        <v>1613</v>
+      </c>
+      <c r="L488" t="s">
+        <v>1526</v>
+      </c>
+      <c r="M488" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="489" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A489" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B489" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D489" t="s">
+        <v>90</v>
+      </c>
+      <c r="E489"/>
+      <c r="J489" t="s">
+        <v>1569</v>
+      </c>
+      <c r="K489" t="s">
+        <v>1614</v>
+      </c>
+      <c r="L489" t="s">
+        <v>1527</v>
+      </c>
+      <c r="M489" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="490" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A490" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B490" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D490" t="s">
+        <v>90</v>
+      </c>
+      <c r="E490"/>
+      <c r="J490" t="s">
+        <v>1571</v>
+      </c>
+      <c r="K490" t="s">
+        <v>1615</v>
+      </c>
+      <c r="L490" t="s">
+        <v>1570</v>
+      </c>
+      <c r="M490" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="491" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A491" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B491" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D491" t="s">
+        <v>90</v>
+      </c>
+      <c r="E491"/>
+      <c r="J491" t="s">
+        <v>1572</v>
+      </c>
+      <c r="K491" t="s">
+        <v>1616</v>
+      </c>
+      <c r="L491" t="s">
+        <v>1528</v>
+      </c>
+      <c r="M491" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="492" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A492" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B492" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D492" t="s">
+        <v>90</v>
+      </c>
+      <c r="E492" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="J492" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K492" t="s">
+        <v>1617</v>
+      </c>
+      <c r="L492" t="s">
+        <v>1529</v>
+      </c>
+      <c r="M492" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="493" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A493" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D493" t="s">
+        <v>90</v>
+      </c>
+      <c r="E493" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="J493" t="s">
+        <v>1574</v>
+      </c>
+      <c r="K493" t="s">
+        <v>1618</v>
+      </c>
+      <c r="L493" t="s">
+        <v>1530</v>
+      </c>
+      <c r="M493" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="494" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A494" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B494" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D494" t="s">
+        <v>90</v>
+      </c>
+      <c r="E494"/>
+      <c r="J494" t="s">
+        <v>1576</v>
+      </c>
+      <c r="K494" t="s">
+        <v>1619</v>
+      </c>
+      <c r="L494" t="s">
+        <v>1531</v>
+      </c>
+      <c r="M494" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="495" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A495" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D495" t="s">
+        <v>90</v>
+      </c>
+      <c r="E495"/>
+      <c r="J495" t="s">
+        <v>1575</v>
+      </c>
+      <c r="K495" t="s">
+        <v>1620</v>
+      </c>
+      <c r="L495" t="s">
+        <v>1532</v>
+      </c>
+      <c r="M495" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="496" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A496" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B496" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D496" t="s">
+        <v>90</v>
+      </c>
+      <c r="E496" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="J496" t="s">
+        <v>1577</v>
+      </c>
+      <c r="K496" t="s">
+        <v>1621</v>
+      </c>
+      <c r="L496" t="s">
+        <v>1533</v>
+      </c>
+      <c r="M496" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="497" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A497" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D497" t="s">
+        <v>90</v>
+      </c>
+      <c r="E497" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="J497" t="s">
+        <v>1578</v>
+      </c>
+      <c r="K497" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L497" t="s">
+        <v>1534</v>
+      </c>
+      <c r="M497" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="498" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A498" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B498" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D498" t="s">
+        <v>90</v>
+      </c>
+      <c r="E498" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="J498" t="s">
+        <v>1579</v>
+      </c>
+      <c r="K498" t="s">
+        <v>1623</v>
+      </c>
+      <c r="L498" t="s">
+        <v>1478</v>
+      </c>
+      <c r="M498" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="499" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A499" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B499" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D499" t="s">
+        <v>90</v>
+      </c>
+      <c r="E499" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="J499" t="s">
+        <v>1580</v>
+      </c>
+      <c r="K499" t="s">
+        <v>1624</v>
+      </c>
+      <c r="L499" t="s">
+        <v>1535</v>
+      </c>
+      <c r="M499" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="500" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A500" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B500" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D500" t="s">
+        <v>90</v>
+      </c>
+      <c r="E500" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J500" t="s">
+        <v>1580</v>
+      </c>
+      <c r="K500" t="s">
+        <v>1624</v>
+      </c>
+      <c r="L500" t="s">
+        <v>1535</v>
+      </c>
+      <c r="M500" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="501" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A501" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B501" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D501" t="s">
+        <v>90</v>
+      </c>
+      <c r="E501" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="J501" t="s">
+        <v>1581</v>
+      </c>
+      <c r="K501" t="s">
+        <v>1625</v>
+      </c>
+      <c r="L501" t="s">
+        <v>1484</v>
+      </c>
+      <c r="M501" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="502" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A502" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B502" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D502" t="s">
+        <v>90</v>
+      </c>
+      <c r="E502"/>
+      <c r="J502" t="s">
+        <v>1582</v>
+      </c>
+      <c r="K502" t="s">
+        <v>1626</v>
+      </c>
+      <c r="L502" t="s">
+        <v>1536</v>
+      </c>
+      <c r="M502" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="503" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A503" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D503" t="s">
+        <v>90</v>
+      </c>
+      <c r="E503"/>
+      <c r="J503" t="s">
+        <v>1583</v>
+      </c>
+      <c r="K503" t="s">
+        <v>1627</v>
+      </c>
+      <c r="L503" t="s">
+        <v>1537</v>
+      </c>
+      <c r="M503" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="504" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A504" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D504" t="s">
+        <v>89</v>
+      </c>
+      <c r="E504" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="J504" t="s">
+        <v>1584</v>
+      </c>
+      <c r="K504" t="s">
+        <v>1628</v>
+      </c>
+      <c r="L504" t="s">
+        <v>1538</v>
+      </c>
+      <c r="M504" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="505" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A505" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D505" t="s">
+        <v>91</v>
+      </c>
+      <c r="J505" t="s">
+        <v>918</v>
+      </c>
+      <c r="K505" t="s">
+        <v>908</v>
+      </c>
+      <c r="L505" t="s">
+        <v>1539</v>
+      </c>
+      <c r="M505" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="506" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A506" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D506" t="s">
+        <v>90</v>
+      </c>
+      <c r="E506" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="J506" t="s">
+        <v>1585</v>
+      </c>
+      <c r="K506" t="s">
+        <v>1629</v>
+      </c>
+      <c r="L506" t="s">
+        <v>1540</v>
+      </c>
+      <c r="M506" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="507" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A507" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B507" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D507" t="s">
+        <v>91</v>
+      </c>
+      <c r="J507" t="s">
+        <v>1586</v>
+      </c>
+      <c r="K507" t="s">
+        <v>886</v>
+      </c>
+      <c r="L507" t="s">
+        <v>1541</v>
+      </c>
+      <c r="M507" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="508" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A508" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B508" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D508" t="s">
+        <v>91</v>
+      </c>
+      <c r="E508" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="J508" t="s">
+        <v>1587</v>
+      </c>
+      <c r="K508" t="s">
+        <v>1630</v>
+      </c>
+      <c r="L508" t="s">
+        <v>1499</v>
+      </c>
+      <c r="M508" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="509" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A509" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B509" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D509" t="s">
+        <v>91</v>
+      </c>
+      <c r="J509" t="s">
+        <v>1588</v>
+      </c>
+      <c r="K509" t="s">
+        <v>1631</v>
+      </c>
+      <c r="L509" t="s">
+        <v>1542</v>
+      </c>
+      <c r="M509" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="510" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A510" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B510" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D510" t="s">
+        <v>91</v>
+      </c>
+      <c r="J510" t="s">
+        <v>1589</v>
+      </c>
+      <c r="K510" t="s">
+        <v>1632</v>
+      </c>
+      <c r="L510" t="s">
+        <v>1543</v>
+      </c>
+      <c r="M510" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="511" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A511" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B511" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D511" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E511" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="J511" t="s">
+        <v>1590</v>
+      </c>
+      <c r="K511" t="s">
+        <v>1633</v>
+      </c>
+      <c r="L511" t="s">
+        <v>1544</v>
+      </c>
+      <c r="M511" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="512" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A512" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B512" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D512" t="s">
+        <v>89</v>
+      </c>
+      <c r="E512" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J512" t="s">
+        <v>1591</v>
+      </c>
+      <c r="K512" t="s">
+        <v>1634</v>
+      </c>
+      <c r="L512" t="s">
+        <v>1545</v>
+      </c>
+      <c r="M512" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="513" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A513" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D513" t="s">
+        <v>91</v>
+      </c>
+      <c r="J513" t="s">
+        <v>1592</v>
+      </c>
+      <c r="K513" t="s">
+        <v>1635</v>
+      </c>
+      <c r="L513" t="s">
+        <v>1546</v>
+      </c>
+      <c r="M513" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="514" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A514" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B514" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D514" t="s">
+        <v>91</v>
+      </c>
+      <c r="E514" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="J514" t="s">
+        <v>1593</v>
+      </c>
+      <c r="K514" t="s">
+        <v>1636</v>
+      </c>
+      <c r="L514" t="s">
+        <v>1547</v>
+      </c>
+      <c r="M514" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="515" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A515" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D515" t="s">
         <v>27</v>
       </c>
-      <c r="E479" s="1" t="s">
+      <c r="F515" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="J515" t="s">
+        <v>1594</v>
+      </c>
+      <c r="K515" t="s">
+        <v>1637</v>
+      </c>
+      <c r="L515" t="s">
+        <v>1548</v>
+      </c>
+      <c r="M515" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="516" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A516" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D516" t="s">
+        <v>27</v>
+      </c>
+      <c r="E516" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="G516" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="J516" t="s">
+        <v>1595</v>
+      </c>
+      <c r="K516" t="s">
+        <v>1638</v>
+      </c>
+      <c r="L516" t="s">
+        <v>1549</v>
+      </c>
+      <c r="M516" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="517" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A517" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C517" s="1"/>
+      <c r="D517" t="s">
+        <v>27</v>
+      </c>
+      <c r="E517" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J517" t="s">
+        <v>1596</v>
+      </c>
+      <c r="K517" t="s">
+        <v>1639</v>
+      </c>
+      <c r="L517" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M517" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="518" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A518" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D518" t="s">
+        <v>27</v>
+      </c>
+      <c r="G518" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="J518" t="s">
+        <v>1597</v>
+      </c>
+      <c r="K518" t="s">
+        <v>1640</v>
+      </c>
+      <c r="L518" t="s">
+        <v>1551</v>
+      </c>
+      <c r="M518" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="519" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A519" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C519" s="1"/>
+      <c r="D519" t="s">
+        <v>27</v>
+      </c>
+      <c r="E519" s="1" t="s">
         <v>1497</v>
       </c>
-      <c r="F479" s="1" t="s">
+      <c r="F519" s="1" t="s">
         <v>1437</v>
       </c>
-      <c r="J479" t="s">
+      <c r="J519" t="s">
         <v>1598</v>
       </c>
-      <c r="K479" t="s">
+      <c r="K519" t="s">
         <v>1641</v>
       </c>
-      <c r="L479" t="s">
+      <c r="L519" t="s">
         <v>1552</v>
       </c>
-      <c r="M479" t="s">
+      <c r="M519" t="s">
         <v>1510</v>
       </c>
     </row>

--- a/dictionary/Vocab.xlsx
+++ b/dictionary/Vocab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_Trae\TibetanNote\dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC18868-D4AD-410E-B8E6-4E899BB11845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DDAA97-7141-4622-A54E-21E998E4EA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11438" yWindow="0" windowWidth="11684" windowHeight="13763" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocab" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3692" uniqueCount="2472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4065" uniqueCount="2687">
   <si>
     <t>word</t>
   </si>
@@ -6356,9 +6356,6 @@
     <t>དེ་ནས།</t>
   </si>
   <si>
-    <t>དེ་ནས་</t>
-  </si>
-  <si>
     <t>བྱས་ཙང་།</t>
   </si>
   <si>
@@ -6875,9 +6872,6 @@
     <t>གནས་ཚུལ་</t>
   </si>
   <si>
-    <t>ཆུང་དུས་</t>
-  </si>
-  <si>
     <t>སྐྱེས་དམན་</t>
   </si>
   <si>
@@ -7452,6 +7446,657 @@
   </si>
   <si>
     <t>动词后的名词化标记</t>
+  </si>
+  <si>
+    <t>N. / Adj.</t>
+  </si>
+  <si>
+    <t>Conct.</t>
+  </si>
+  <si>
+    <t>Nmlz.</t>
+  </si>
+  <si>
+    <t>དེ་ (that) + ནས་ (from)</t>
+  </si>
+  <si>
+    <t>ཆུང་ (small) + དུས་ (time)</t>
+  </si>
+  <si>
+    <t>V01-L12</t>
+  </si>
+  <si>
+    <t>དབྱིད་ཀ</t>
+  </si>
+  <si>
+    <t>དབྱར་ཁ།</t>
+  </si>
+  <si>
+    <t>སྟོན་ཀ</t>
+  </si>
+  <si>
+    <t>དགུན་ཁ།</t>
+  </si>
+  <si>
+    <t>མཚན་མོ།</t>
+  </si>
+  <si>
+    <t>གུང་གསེང་།</t>
+  </si>
+  <si>
+    <t>ཚ་གྲང་།</t>
+  </si>
+  <si>
+    <t>སྤྲིན་པ།</t>
+  </si>
+  <si>
+    <t>ལྷགས་པ།</t>
+  </si>
+  <si>
+    <t>གངས།</t>
+  </si>
+  <si>
+    <t>ཆར་པ།</t>
+  </si>
+  <si>
+    <t>ཡོ་རོབ།</t>
+  </si>
+  <si>
+    <t>ཡུ་རོབ།</t>
+  </si>
+  <si>
+    <t>ཨུ་རུ་སུ།</t>
+  </si>
+  <si>
+    <t>ལས་ཁུངས།</t>
+  </si>
+  <si>
+    <t>གློག་བརྙན།</t>
+  </si>
+  <si>
+    <t>ཐབས་ཤིས།</t>
+  </si>
+  <si>
+    <t>ཐག་རིང་པོ།</t>
+  </si>
+  <si>
+    <t>མཚམས་མཚམས་ལ།</t>
+  </si>
+  <si>
+    <t>ད་ལོ།</t>
+  </si>
+  <si>
+    <t>བཟོ་བ།</t>
+  </si>
+  <si>
+    <t>རྩེད་མོ་རྩེ་བ།</t>
+  </si>
+  <si>
+    <t>༼ཨ་མཆཙག་༽ཉན་པ།</t>
+  </si>
+  <si>
+    <t>བཞག་པ།</t>
+  </si>
+  <si>
+    <t>དྲི་བ་དྲིས་པ།</t>
+  </si>
+  <si>
+    <t>སྐད་ཆ་དྲིས་པ།</t>
+  </si>
+  <si>
+    <t>འཇོག་པ།</t>
+  </si>
+  <si>
+    <t>འདྲི་བ།</t>
+  </si>
+  <si>
+    <t>ཁ་པར་བཏང་བ།</t>
+  </si>
+  <si>
+    <t>ཁ་པར་བརྒྱབ་པ།</t>
+  </si>
+  <si>
+    <t>གོ་བ།</t>
+  </si>
+  <si>
+    <t>༼མིག་༽མཐོང་བ།</t>
+  </si>
+  <si>
+    <t>འཁྱག་པ།</t>
+  </si>
+  <si>
+    <t>ཆར་པ་བཏང་བ།</t>
+  </si>
+  <si>
+    <t>ཆར་པ་བབས་པ།</t>
+  </si>
+  <si>
+    <t>གཏོང་བ།</t>
+  </si>
+  <si>
+    <t>འབབ་བ།</t>
+  </si>
+  <si>
+    <t>གངས་བཏང་བ།</t>
+  </si>
+  <si>
+    <t>གངས་བབས་པ།</t>
+  </si>
+  <si>
+    <t>ཉི་མ་སྐྱིད་པོ་བསྟན་པ།</t>
+  </si>
+  <si>
+    <t>སྟོན་པ།</t>
+  </si>
+  <si>
+    <t>ཟེར།</t>
+  </si>
+  <si>
+    <t>printemps</t>
+  </si>
+  <si>
+    <t>été</t>
+  </si>
+  <si>
+    <t>autumne</t>
+  </si>
+  <si>
+    <t>hiver</t>
+  </si>
+  <si>
+    <t>nuit</t>
+  </si>
+  <si>
+    <t>vacances</t>
+  </si>
+  <si>
+    <t>temps ; météo</t>
+  </si>
+  <si>
+    <t>température</t>
+  </si>
+  <si>
+    <t>nuage</t>
+  </si>
+  <si>
+    <t>vent</t>
+  </si>
+  <si>
+    <t>neige</t>
+  </si>
+  <si>
+    <t>pluie</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Russie</t>
+  </si>
+  <si>
+    <t>གནམ་གཤིས།</t>
+  </si>
+  <si>
+    <t>bureau (pièce) ; entreprise ; administration</t>
+  </si>
+  <si>
+    <t>cinéma ; film</t>
+  </si>
+  <si>
+    <t>méthode ; solution ; moyen</t>
+  </si>
+  <si>
+    <t>éloigné</t>
+  </si>
+  <si>
+    <t>ཐག་ཉེ་པོ།</t>
+  </si>
+  <si>
+    <t>proche</t>
+  </si>
+  <si>
+    <t>bizarre</t>
+  </si>
+  <si>
+    <t>quelques fois ; de temps en temps ; parfois ; des fois</t>
+  </si>
+  <si>
+    <t>ཕྱུག་པོ།</t>
+  </si>
+  <si>
+    <t>གནམ་(sky) + གཤིས་(nature)</t>
+  </si>
+  <si>
+    <t>ཚ་(hot) + གྲང་(cold)</t>
+  </si>
+  <si>
+    <t>ལས་(work) + ཁུངས་(hole)</t>
+  </si>
+  <si>
+    <t>གློག་(electricity) + བརྙན་(silhouette)</t>
+  </si>
+  <si>
+    <t>ཐབས་(method) + ཤིས་(know)</t>
+  </si>
+  <si>
+    <t>ཐག་(distance) + རིང་པོ་(long)</t>
+  </si>
+  <si>
+    <t>ཐག་(distance) + ཉེ་པོ་(short)</t>
+  </si>
+  <si>
+    <t>ཁྱད་(characteristic) + མཚར་པོ་(surprising)</t>
+  </si>
+  <si>
+    <t>མཚམས་(limit) + མཚམས་(limit) + ལ་(dative)</t>
+  </si>
+  <si>
+    <t>ད་(now) + ལོ་(year)</t>
+  </si>
+  <si>
+    <t>riche</t>
+  </si>
+  <si>
+    <t>cette année</t>
+  </si>
+  <si>
+    <t>fabriquer ; faire réparer</t>
+  </si>
+  <si>
+    <t>jouer ; taquiner ; plaisanter</t>
+  </si>
+  <si>
+    <t>écouter (+dat.)</t>
+  </si>
+  <si>
+    <t>poser</t>
+  </si>
+  <si>
+    <t>demander ; poser des questions</t>
+  </si>
+  <si>
+    <t>téléphoner</t>
+  </si>
+  <si>
+    <t>entendre</t>
+  </si>
+  <si>
+    <t>voir</t>
+  </si>
+  <si>
+    <t>avoir très froid ; geler</t>
+  </si>
+  <si>
+    <t>pleuvoir</t>
+  </si>
+  <si>
+    <t>neiger</t>
+  </si>
+  <si>
+    <t>(le soleil) briller</t>
+  </si>
+  <si>
+    <t>regarde (imp.)</t>
+  </si>
+  <si>
+    <t>venir (imp.)</t>
+  </si>
+  <si>
+    <t>il paraît ; on dit</t>
+  </si>
+  <si>
+    <t>༼ཨ་མཆཙག་༽(ear) + ཉན་པ་ (hear)</t>
+  </si>
+  <si>
+    <t>རྩེད་མོ་(game) + རྩེ་བ་(play)</t>
+  </si>
+  <si>
+    <t>དྲི་བ་(question) + དྲིས་པ་(ask)</t>
+  </si>
+  <si>
+    <t>སྐད་ཆ་(speech) + དྲིས་པ་(ask)</t>
+  </si>
+  <si>
+    <t>ཁ་པར་(phone) + བཏང་བ་(vblz.)</t>
+  </si>
+  <si>
+    <t>ཁ་པར་(phone) + བརྒྱབ་པ་(vblz.)</t>
+  </si>
+  <si>
+    <t>ཆར་པ་(rain) + བཏང་བ་(vblz.)</t>
+  </si>
+  <si>
+    <t>ཆར་པ་(rain) + བབས་པ་ (descend)</t>
+  </si>
+  <si>
+    <t>གངས་(snow) + བཏང་བ་(vblz.)</t>
+  </si>
+  <si>
+    <t>གངས་(snow) + བབས་པ་(descend)</t>
+  </si>
+  <si>
+    <t>ཉི་མ་(sun) + སྐྱིད་པོ་(nice) + བསྟན་པ་'show)</t>
+  </si>
+  <si>
+    <t>spring</t>
+  </si>
+  <si>
+    <t>summer</t>
+  </si>
+  <si>
+    <t>winter</t>
+  </si>
+  <si>
+    <t>night</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>cloud</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>snow</t>
+  </si>
+  <si>
+    <t>rain</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>cinema; film</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>near</t>
+  </si>
+  <si>
+    <t>rich</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>sometimes; from time to time; sometimes; sometimes</t>
+  </si>
+  <si>
+    <t>this year</t>
+  </si>
+  <si>
+    <t>play; tease; joke</t>
+  </si>
+  <si>
+    <t>listen (+dat.)</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>hear</t>
+  </si>
+  <si>
+    <t>to be very cold; freeze</t>
+  </si>
+  <si>
+    <t>(the sun) shine</t>
+  </si>
+  <si>
+    <t>look (imp.)</t>
+  </si>
+  <si>
+    <t>it appears; it is said</t>
+  </si>
+  <si>
+    <t>autumn</t>
+  </si>
+  <si>
+    <t>weather</t>
+  </si>
+  <si>
+    <t>office; enterprise; administration</t>
+  </si>
+  <si>
+    <t>method; solution; medium</t>
+  </si>
+  <si>
+    <t>make; have repaired</t>
+  </si>
+  <si>
+    <t>ask questions</t>
+  </si>
+  <si>
+    <t>make a phone call</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>come (imp.)</t>
+  </si>
+  <si>
+    <t>春</t>
+  </si>
+  <si>
+    <t>夏</t>
+  </si>
+  <si>
+    <t>秋</t>
+  </si>
+  <si>
+    <t>冬</t>
+  </si>
+  <si>
+    <t>休日</t>
+  </si>
+  <si>
+    <t>天気</t>
+  </si>
+  <si>
+    <t>温度</t>
+  </si>
+  <si>
+    <t>雲</t>
+  </si>
+  <si>
+    <t>風</t>
+  </si>
+  <si>
+    <t>雪</t>
+  </si>
+  <si>
+    <t>雨</t>
+  </si>
+  <si>
+    <t>ヨーロッパ</t>
+  </si>
+  <si>
+    <t>ロシア</t>
+  </si>
+  <si>
+    <t>同じような</t>
+  </si>
+  <si>
+    <t>遠い</t>
+  </si>
+  <si>
+    <t>近く</t>
+  </si>
+  <si>
+    <t>おかしい</t>
+  </si>
+  <si>
+    <t>置く</t>
+  </si>
+  <si>
+    <t>電話をかける</t>
+  </si>
+  <si>
+    <t>聞く</t>
+  </si>
+  <si>
+    <t>(太陽が)輝く</t>
+  </si>
+  <si>
+    <t>事務所、会社、行政</t>
+  </si>
+  <si>
+    <t>映画</t>
+  </si>
+  <si>
+    <t>方式、やり方</t>
+  </si>
+  <si>
+    <t>豊かな</t>
+  </si>
+  <si>
+    <t>たまに、時々</t>
+  </si>
+  <si>
+    <t>今年</t>
+  </si>
+  <si>
+    <t>作る、修理する</t>
+  </si>
+  <si>
+    <t>遊ぶ、悪戯をする、冗談する</t>
+  </si>
+  <si>
+    <t>聞く（+dat.）</t>
+  </si>
+  <si>
+    <t>問う</t>
+  </si>
+  <si>
+    <t>非常に寒い、凍る</t>
+  </si>
+  <si>
+    <t>雨が降る</t>
+  </si>
+  <si>
+    <t>雪が降る</t>
+  </si>
+  <si>
+    <t>見ろ</t>
+  </si>
+  <si>
+    <t>こい</t>
+  </si>
+  <si>
+    <t>～が</t>
+  </si>
+  <si>
+    <t>という</t>
+  </si>
+  <si>
+    <t>春天</t>
+  </si>
+  <si>
+    <t>夏天</t>
+  </si>
+  <si>
+    <t>秋天</t>
+  </si>
+  <si>
+    <t>晚上</t>
+  </si>
+  <si>
+    <t>假期</t>
+  </si>
+  <si>
+    <t>天气</t>
+  </si>
+  <si>
+    <t>云</t>
+  </si>
+  <si>
+    <t>风</t>
+  </si>
+  <si>
+    <t>欧洲</t>
+  </si>
+  <si>
+    <t>俄罗斯</t>
+  </si>
+  <si>
+    <t>听 （+dat.）</t>
+  </si>
+  <si>
+    <t>放</t>
+  </si>
+  <si>
+    <t>提问</t>
+  </si>
+  <si>
+    <t>听见</t>
+  </si>
+  <si>
+    <t>（太阳）照耀</t>
+  </si>
+  <si>
+    <t>办公室；企业；管理</t>
+  </si>
+  <si>
+    <t>电影</t>
+  </si>
+  <si>
+    <t>方法</t>
+  </si>
+  <si>
+    <t>类似的</t>
+  </si>
+  <si>
+    <t>远的</t>
+  </si>
+  <si>
+    <t>近的</t>
+  </si>
+  <si>
+    <t>富的</t>
+  </si>
+  <si>
+    <t>奇怪的</t>
+  </si>
+  <si>
+    <t>有时；不时</t>
+  </si>
+  <si>
+    <t>做；修理</t>
+  </si>
+  <si>
+    <t>玩；逗；开玩笑</t>
+  </si>
+  <si>
+    <t>打电话</t>
+  </si>
+  <si>
+    <t>看见</t>
+  </si>
+  <si>
+    <t>非常冷；冻结</t>
+  </si>
+  <si>
+    <t>下雨</t>
+  </si>
+  <si>
+    <t>下雪</t>
+  </si>
+  <si>
+    <t>看（命令）</t>
+  </si>
+  <si>
+    <t>来（命令）</t>
+  </si>
+  <si>
+    <t>据说</t>
   </si>
 </sst>
 </file>
@@ -7781,13 +8426,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R519"/>
+  <dimension ref="A1:R564"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C399" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D445" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H442" sqref="H442"/>
+      <selection pane="bottomRight" activeCell="H491" sqref="H491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.55000000000000004"/>
@@ -16345,22 +16990,22 @@
         <v>2053</v>
       </c>
       <c r="B362" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="D362" t="s">
         <v>40</v>
       </c>
       <c r="J362" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="K362" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="L362" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="M362" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -16368,22 +17013,22 @@
         <v>2054</v>
       </c>
       <c r="B363" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="D363" t="s">
         <v>40</v>
       </c>
       <c r="J363" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="K363" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="L363" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="M363" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -16391,22 +17036,22 @@
         <v>2055</v>
       </c>
       <c r="B364" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="D364" t="s">
         <v>40</v>
       </c>
       <c r="J364" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K364" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="L364" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="M364" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -16414,22 +17059,22 @@
         <v>2056</v>
       </c>
       <c r="B365" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="D365" t="s">
         <v>40</v>
       </c>
       <c r="J365" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="K365" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="L365" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="M365" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -16437,22 +17082,22 @@
         <v>2057</v>
       </c>
       <c r="B366" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="D366" t="s">
         <v>40</v>
       </c>
       <c r="J366" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="K366" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="L366" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="M366" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -16460,22 +17105,22 @@
         <v>2058</v>
       </c>
       <c r="B367" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="D367" t="s">
         <v>40</v>
       </c>
       <c r="J367" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="K367" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="L367" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="M367" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -16483,22 +17128,22 @@
         <v>2059</v>
       </c>
       <c r="B368" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="D368" t="s">
         <v>40</v>
       </c>
       <c r="J368" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="K368" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="L368" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="M368" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -16506,22 +17151,22 @@
         <v>2060</v>
       </c>
       <c r="B369" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="D369" t="s">
         <v>91</v>
       </c>
       <c r="J369" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="K369" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="L369" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="M369" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="370" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -16529,7 +17174,10 @@
         <v>2061</v>
       </c>
       <c r="B370" t="s">
-        <v>2116</v>
+        <v>2115</v>
+      </c>
+      <c r="D370" t="s">
+        <v>27</v>
       </c>
       <c r="E370" s="1" t="s">
         <v>2063</v>
@@ -16538,16 +17186,16 @@
         <v>2062</v>
       </c>
       <c r="J370" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="K370" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="L370" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="M370" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -16555,7 +17203,10 @@
         <v>2064</v>
       </c>
       <c r="B371" t="s">
-        <v>2116</v>
+        <v>2115</v>
+      </c>
+      <c r="D371" t="s">
+        <v>27</v>
       </c>
       <c r="E371" s="1" t="s">
         <v>2065</v>
@@ -16564,16 +17215,16 @@
         <v>2066</v>
       </c>
       <c r="J371" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="K371" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="L371" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="M371" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -16581,22 +17232,25 @@
         <v>2067</v>
       </c>
       <c r="B372" t="s">
-        <v>2116</v>
+        <v>2115</v>
+      </c>
+      <c r="D372" t="s">
+        <v>27</v>
       </c>
       <c r="E372" s="1" t="s">
         <v>2068</v>
       </c>
       <c r="J372" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="K372" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="L372" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="M372" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -16604,19 +17258,22 @@
         <v>2069</v>
       </c>
       <c r="B373" t="s">
-        <v>2116</v>
+        <v>2115</v>
+      </c>
+      <c r="D373" t="s">
+        <v>27</v>
       </c>
       <c r="J373" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="K373" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="L373" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="M373" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -16624,19 +17281,22 @@
         <v>2070</v>
       </c>
       <c r="B374" t="s">
-        <v>2116</v>
+        <v>2115</v>
+      </c>
+      <c r="D374" t="s">
+        <v>27</v>
       </c>
       <c r="J374" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="K374" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="L374" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="M374" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -16644,19 +17304,22 @@
         <v>2071</v>
       </c>
       <c r="B375" t="s">
-        <v>2116</v>
+        <v>2115</v>
+      </c>
+      <c r="D375" t="s">
+        <v>27</v>
       </c>
       <c r="J375" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="K375" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="L375" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="M375" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -16664,7 +17327,10 @@
         <v>2072</v>
       </c>
       <c r="B376" t="s">
-        <v>2116</v>
+        <v>2115</v>
+      </c>
+      <c r="D376" t="s">
+        <v>27</v>
       </c>
       <c r="E376" s="1" t="s">
         <v>2073</v>
@@ -16687,22 +17353,25 @@
         <v>2074</v>
       </c>
       <c r="B377" t="s">
-        <v>2116</v>
+        <v>2115</v>
+      </c>
+      <c r="D377" t="s">
+        <v>27</v>
       </c>
       <c r="I377" s="1" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
       <c r="J377" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="K377" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="L377" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="M377" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -16710,19 +17379,22 @@
         <v>2075</v>
       </c>
       <c r="B378" t="s">
-        <v>2116</v>
+        <v>2115</v>
+      </c>
+      <c r="D378" t="s">
+        <v>27</v>
       </c>
       <c r="J378" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="K378" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="L378" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="M378" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -16730,22 +17402,25 @@
         <v>2076</v>
       </c>
       <c r="B379" t="s">
-        <v>2116</v>
+        <v>2115</v>
+      </c>
+      <c r="D379" t="s">
+        <v>27</v>
       </c>
       <c r="E379" s="1" t="s">
         <v>2078</v>
       </c>
       <c r="J379" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="K379" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="L379" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="M379" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -16753,22 +17428,25 @@
         <v>2077</v>
       </c>
       <c r="B380" t="s">
-        <v>2116</v>
+        <v>2115</v>
+      </c>
+      <c r="D380" t="s">
+        <v>27</v>
       </c>
       <c r="E380" s="1" t="s">
         <v>2079</v>
       </c>
       <c r="J380" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="K380" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="L380" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="M380" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -16776,7 +17454,10 @@
         <v>2080</v>
       </c>
       <c r="B381" t="s">
-        <v>2116</v>
+        <v>2115</v>
+      </c>
+      <c r="D381" t="s">
+        <v>27</v>
       </c>
       <c r="E381" s="1" t="s">
         <v>2081</v>
@@ -16791,7 +17472,7 @@
         <v>864</v>
       </c>
       <c r="M381" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -16799,22 +17480,25 @@
         <v>2082</v>
       </c>
       <c r="B382" t="s">
-        <v>2116</v>
+        <v>2115</v>
+      </c>
+      <c r="D382" t="s">
+        <v>27</v>
       </c>
       <c r="E382" s="1" t="s">
         <v>2083</v>
       </c>
       <c r="J382" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="K382" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="L382" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="M382" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -16822,22 +17506,25 @@
         <v>2084</v>
       </c>
       <c r="B383" t="s">
-        <v>2116</v>
+        <v>2115</v>
+      </c>
+      <c r="D383" t="s">
+        <v>27</v>
       </c>
       <c r="E383" s="1" t="s">
         <v>2085</v>
       </c>
       <c r="J383" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="K383" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="L383" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="M383" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -16845,22 +17532,25 @@
         <v>2086</v>
       </c>
       <c r="B384" t="s">
-        <v>2116</v>
+        <v>2115</v>
+      </c>
+      <c r="D384" t="s">
+        <v>27</v>
       </c>
       <c r="E384" s="1" t="s">
         <v>2087</v>
       </c>
       <c r="J384" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="K384" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="L384" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="M384" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -16868,19 +17558,22 @@
         <v>2088</v>
       </c>
       <c r="B385" t="s">
-        <v>2116</v>
+        <v>2115</v>
+      </c>
+      <c r="D385" t="s">
+        <v>27</v>
       </c>
       <c r="J385" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="K385" t="s">
         <v>33</v>
       </c>
       <c r="L385" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="M385" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -16888,19 +17581,22 @@
         <v>2089</v>
       </c>
       <c r="B386" t="s">
-        <v>2116</v>
+        <v>2115</v>
+      </c>
+      <c r="D386" t="s">
+        <v>27</v>
       </c>
       <c r="J386" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="K386" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="L386" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="M386" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -16908,7 +17604,10 @@
         <v>2090</v>
       </c>
       <c r="B387" t="s">
-        <v>2116</v>
+        <v>2115</v>
+      </c>
+      <c r="D387" t="s">
+        <v>27</v>
       </c>
       <c r="E387" s="1" t="s">
         <v>2091</v>
@@ -16920,13 +17619,13 @@
         <v>781</v>
       </c>
       <c r="K387" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="L387" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="M387" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -16934,19 +17633,22 @@
         <v>2093</v>
       </c>
       <c r="B388" t="s">
-        <v>2116</v>
+        <v>2115</v>
+      </c>
+      <c r="D388" t="s">
+        <v>27</v>
       </c>
       <c r="J388" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="K388" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="L388" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="M388" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -16954,19 +17656,22 @@
         <v>2094</v>
       </c>
       <c r="B389" t="s">
-        <v>2116</v>
+        <v>2115</v>
+      </c>
+      <c r="D389" t="s">
+        <v>27</v>
       </c>
       <c r="J389" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="K389" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="L389" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="M389" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -16974,19 +17679,22 @@
         <v>2095</v>
       </c>
       <c r="B390" t="s">
-        <v>2116</v>
+        <v>2115</v>
+      </c>
+      <c r="D390" t="s">
+        <v>27</v>
       </c>
       <c r="J390" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="K390" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="L390" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="M390" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -16994,25 +17702,25 @@
         <v>2096</v>
       </c>
       <c r="B391" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="D391" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="E391" s="1" t="s">
         <v>2097</v>
       </c>
       <c r="J391" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="K391" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="L391" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="M391" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -17020,25 +17728,25 @@
         <v>2098</v>
       </c>
       <c r="B392" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="D392" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="E392" s="1" t="s">
         <v>2100</v>
       </c>
       <c r="J392" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="K392" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="L392" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="M392" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -17046,25 +17754,25 @@
         <v>2099</v>
       </c>
       <c r="B393" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="D393" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="E393" s="1" t="s">
         <v>2101</v>
       </c>
       <c r="J393" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="K393" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="L393" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="M393" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -17072,22 +17780,22 @@
         <v>2102</v>
       </c>
       <c r="B394" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="D394" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="J394" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="K394" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="L394" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="M394" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="395" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -17095,19 +17803,19 @@
         <v>2104</v>
       </c>
       <c r="B395" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="J395" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="K395" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="L395" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="M395" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -17115,19 +17823,22 @@
         <v>2103</v>
       </c>
       <c r="B396" t="s">
-        <v>2116</v>
+        <v>2115</v>
+      </c>
+      <c r="D396" t="s">
+        <v>28</v>
       </c>
       <c r="J396" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="K396" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="L396" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="M396" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -17135,2804 +17846,3947 @@
         <v>2105</v>
       </c>
       <c r="B397" t="s">
-        <v>2116</v>
+        <v>2115</v>
+      </c>
+      <c r="D397" t="s">
+        <v>414</v>
       </c>
       <c r="E397" s="1" t="s">
-        <v>2106</v>
+        <v>2473</v>
       </c>
       <c r="J397" t="s">
         <v>446</v>
       </c>
       <c r="K397" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="L397" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="M397" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" s="1" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="B398" t="s">
-        <v>2116</v>
+        <v>2115</v>
+      </c>
+      <c r="D398" t="s">
+        <v>414</v>
       </c>
       <c r="J398" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="K398" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="L398" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="M398" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" s="1" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="B399" t="s">
-        <v>2116</v>
+        <v>2115</v>
+      </c>
+      <c r="D399" t="s">
+        <v>414</v>
       </c>
       <c r="J399" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="K399" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="L399" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="M399" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" s="1" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="B400" t="s">
-        <v>2116</v>
+        <v>2115</v>
+      </c>
+      <c r="D400" t="s">
+        <v>89</v>
       </c>
       <c r="J400" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="K400" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="L400" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="M400" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" s="1" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B401" t="s">
-        <v>2116</v>
+        <v>2115</v>
+      </c>
+      <c r="D401" t="s">
+        <v>89</v>
       </c>
       <c r="J401" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="K401" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="L401" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="M401" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" s="1" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="B402" t="s">
-        <v>2116</v>
+        <v>2115</v>
+      </c>
+      <c r="D402" t="s">
+        <v>91</v>
       </c>
       <c r="J402" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="K402" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="L402" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="M402" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" s="1" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="B403" t="s">
-        <v>2116</v>
+        <v>2115</v>
+      </c>
+      <c r="D403" t="s">
+        <v>414</v>
       </c>
       <c r="J403" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="K403" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="L403" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="M403" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" s="1" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="B404" t="s">
-        <v>2116</v>
+        <v>2115</v>
+      </c>
+      <c r="D404" t="s">
+        <v>414</v>
       </c>
       <c r="J404" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="K404" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="L404" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="M404" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" s="1" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="B405" t="s">
-        <v>2116</v>
+        <v>2115</v>
+      </c>
+      <c r="D405" t="s">
+        <v>414</v>
       </c>
       <c r="J405" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="K405" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="L405" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="M405" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" s="1" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B406" t="s">
         <v>2115</v>
       </c>
-      <c r="B406" t="s">
-        <v>2116</v>
+      <c r="D406" t="s">
+        <v>414</v>
       </c>
       <c r="J406" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="K406" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="L406" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="M406" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="407" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" s="1" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="B407" t="s">
-        <v>2271</v>
+        <v>2270</v>
+      </c>
+      <c r="D407" t="s">
+        <v>40</v>
       </c>
       <c r="E407" s="1" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="J407" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
       <c r="K407" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
       <c r="L407" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
       <c r="M407" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" s="1" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="B408" t="s">
-        <v>2271</v>
+        <v>2270</v>
+      </c>
+      <c r="D408" t="s">
+        <v>40</v>
       </c>
       <c r="E408" s="1" t="s">
-        <v>2279</v>
+        <v>2474</v>
       </c>
       <c r="J408" t="s">
-        <v>2454</v>
+        <v>2452</v>
       </c>
       <c r="K408" t="s">
-        <v>2422</v>
+        <v>2420</v>
       </c>
       <c r="L408" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
       <c r="M408" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="409" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" s="1" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="B409" t="s">
-        <v>2271</v>
+        <v>2270</v>
+      </c>
+      <c r="D409" t="s">
+        <v>40</v>
       </c>
       <c r="J409" t="s">
-        <v>2455</v>
+        <v>2453</v>
       </c>
       <c r="K409" t="s">
-        <v>2423</v>
+        <v>2421</v>
       </c>
       <c r="L409" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
       <c r="M409" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" s="1" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="B410" t="s">
-        <v>2271</v>
+        <v>2270</v>
+      </c>
+      <c r="D410" t="s">
+        <v>40</v>
       </c>
       <c r="E410" s="1" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="J410" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="K410" t="s">
-        <v>2424</v>
+        <v>2422</v>
       </c>
       <c r="L410" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
       <c r="M410" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" s="1" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="B411" t="s">
-        <v>2271</v>
+        <v>2270</v>
+      </c>
+      <c r="D411" t="s">
+        <v>40</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="J411" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
       <c r="K411" t="s">
-        <v>2398</v>
+        <v>2396</v>
       </c>
       <c r="L411" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
       <c r="M411" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="412" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" s="1" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="B412" t="s">
-        <v>2271</v>
+        <v>2270</v>
+      </c>
+      <c r="D412" t="s">
+        <v>40</v>
       </c>
       <c r="E412" s="1" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="J412" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
       <c r="K412" t="s">
-        <v>2425</v>
+        <v>2423</v>
       </c>
       <c r="L412" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
       <c r="M412" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" s="1" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="B413" t="s">
-        <v>2271</v>
+        <v>2270</v>
+      </c>
+      <c r="D413" t="s">
+        <v>40</v>
       </c>
       <c r="J413" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="K413" t="s">
-        <v>2399</v>
+        <v>2397</v>
       </c>
       <c r="L413" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
       <c r="M413" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" s="1" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="B414" t="s">
-        <v>2271</v>
+        <v>2270</v>
+      </c>
+      <c r="D414" t="s">
+        <v>40</v>
       </c>
       <c r="J414" t="s">
-        <v>2436</v>
+        <v>2434</v>
       </c>
       <c r="K414" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="L414" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
       <c r="M414" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" s="1" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="B415" t="s">
-        <v>2271</v>
+        <v>2270</v>
+      </c>
+      <c r="D415" t="s">
+        <v>40</v>
       </c>
       <c r="J415" t="s">
-        <v>2437</v>
+        <v>2435</v>
       </c>
       <c r="K415" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
       <c r="L415" t="s">
-        <v>2364</v>
+        <v>2362</v>
       </c>
       <c r="M415" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="416" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" s="1" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="B416" t="s">
-        <v>2271</v>
+        <v>2270</v>
+      </c>
+      <c r="D416" t="s">
+        <v>40</v>
       </c>
       <c r="J416" t="s">
-        <v>2459</v>
+        <v>2457</v>
       </c>
       <c r="K416" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
       <c r="L416" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
       <c r="M416" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="417" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" s="1" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="B417" t="s">
-        <v>2271</v>
+        <v>2270</v>
+      </c>
+      <c r="D417" t="s">
+        <v>40</v>
       </c>
       <c r="J417" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
       <c r="K417" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
       <c r="L417" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
       <c r="M417" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="418" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" s="1" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="B418" t="s">
-        <v>2271</v>
+        <v>2270</v>
+      </c>
+      <c r="D418" t="s">
+        <v>201</v>
       </c>
       <c r="J418" t="s">
-        <v>2438</v>
+        <v>2436</v>
       </c>
       <c r="K418" t="s">
-        <v>2403</v>
+        <v>2401</v>
       </c>
       <c r="L418" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="M418" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="419" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" s="1" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="B419" t="s">
-        <v>2271</v>
+        <v>2270</v>
+      </c>
+      <c r="D419" t="s">
+        <v>201</v>
       </c>
       <c r="J419" t="s">
-        <v>2438</v>
+        <v>2436</v>
       </c>
       <c r="K419" t="s">
-        <v>2403</v>
+        <v>2401</v>
       </c>
       <c r="L419" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="M419" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" s="1" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="B420" t="s">
-        <v>2271</v>
+        <v>2270</v>
+      </c>
+      <c r="D420" t="s">
+        <v>2470</v>
       </c>
       <c r="J420" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
       <c r="K420" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
       <c r="L420" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
       <c r="M420" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="421" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" s="1" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="B421" t="s">
-        <v>2271</v>
+        <v>2270</v>
+      </c>
+      <c r="D421" t="s">
+        <v>40</v>
       </c>
       <c r="J421" t="s">
-        <v>2462</v>
+        <v>2460</v>
       </c>
       <c r="K421" t="s">
-        <v>2428</v>
+        <v>2426</v>
       </c>
       <c r="L421" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
       <c r="M421" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="422" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" s="1" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="B422" t="s">
-        <v>2271</v>
+        <v>2270</v>
+      </c>
+      <c r="D422" t="s">
+        <v>40</v>
       </c>
       <c r="J422" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
       <c r="K422" t="s">
-        <v>2404</v>
+        <v>2402</v>
       </c>
       <c r="L422" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
       <c r="M422" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" s="1" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="B423" t="s">
-        <v>2271</v>
+        <v>2270</v>
+      </c>
+      <c r="D423" t="s">
+        <v>40</v>
       </c>
       <c r="J423" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
       <c r="K423" t="s">
-        <v>2405</v>
+        <v>2403</v>
       </c>
       <c r="L423" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="M423" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" s="1" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
       <c r="B424" t="s">
-        <v>2271</v>
+        <v>2270</v>
+      </c>
+      <c r="D424" t="s">
+        <v>40</v>
       </c>
       <c r="J424" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
       <c r="K424" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
       <c r="L424" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
       <c r="M424" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="425" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" s="1" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="B425" t="s">
-        <v>2271</v>
+        <v>2270</v>
+      </c>
+      <c r="D425" t="s">
+        <v>40</v>
       </c>
       <c r="J425" t="s">
-        <v>2442</v>
+        <v>2440</v>
       </c>
       <c r="K425" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
       <c r="L425" t="s">
-        <v>2372</v>
+        <v>2370</v>
       </c>
       <c r="M425" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="426" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" s="1" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="B426" t="s">
-        <v>2271</v>
+        <v>2270</v>
+      </c>
+      <c r="D426" t="s">
+        <v>40</v>
       </c>
       <c r="J426" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
       <c r="K426" t="s">
-        <v>2408</v>
+        <v>2406</v>
       </c>
       <c r="L426" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
       <c r="M426" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="427" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" s="1" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="B427" t="s">
-        <v>2271</v>
+        <v>2270</v>
+      </c>
+      <c r="D427" t="s">
+        <v>40</v>
       </c>
       <c r="J427" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="K427" t="s">
-        <v>2409</v>
+        <v>2407</v>
       </c>
       <c r="L427" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
       <c r="M427" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="428" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" s="1" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
       <c r="B428" t="s">
-        <v>2271</v>
+        <v>2270</v>
+      </c>
+      <c r="D428" t="s">
+        <v>40</v>
       </c>
       <c r="J428" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
       <c r="K428" t="s">
-        <v>2410</v>
+        <v>2408</v>
       </c>
       <c r="L428" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
       <c r="M428" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="429" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" s="1" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="B429" t="s">
-        <v>2271</v>
+        <v>2270</v>
+      </c>
+      <c r="D429" t="s">
+        <v>90</v>
       </c>
       <c r="J429" t="s">
-        <v>2446</v>
+        <v>2444</v>
       </c>
       <c r="K429" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
       <c r="L429" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
       <c r="M429" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="430" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" s="1" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="B430" t="s">
-        <v>2271</v>
+        <v>2270</v>
+      </c>
+      <c r="D430" t="s">
+        <v>90</v>
       </c>
       <c r="J430" t="s">
-        <v>2446</v>
+        <v>2444</v>
       </c>
       <c r="K430" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
       <c r="L430" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
       <c r="M430" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="431" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" s="1" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="B431" t="s">
-        <v>2271</v>
+        <v>2270</v>
+      </c>
+      <c r="D431" t="s">
+        <v>90</v>
       </c>
       <c r="J431" t="s">
-        <v>2447</v>
+        <v>2445</v>
       </c>
       <c r="K431" t="s">
-        <v>2412</v>
+        <v>2410</v>
       </c>
       <c r="L431" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
       <c r="M431" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="432" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" s="1" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
       <c r="B432" t="s">
-        <v>2271</v>
+        <v>2270</v>
+      </c>
+      <c r="D432" t="s">
+        <v>90</v>
       </c>
       <c r="J432" t="s">
-        <v>2448</v>
+        <v>2446</v>
       </c>
       <c r="K432" t="s">
         <v>2037</v>
       </c>
       <c r="L432" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
       <c r="M432" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="433" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" s="1" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="B433" t="s">
-        <v>2271</v>
+        <v>2270</v>
+      </c>
+      <c r="D433" t="s">
+        <v>91</v>
       </c>
       <c r="J433" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
       <c r="K433" t="s">
-        <v>2413</v>
+        <v>2411</v>
       </c>
       <c r="L433" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
       <c r="M433" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="434" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" s="1" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
       <c r="B434" t="s">
-        <v>2271</v>
+        <v>2270</v>
+      </c>
+      <c r="D434" t="s">
+        <v>27</v>
       </c>
       <c r="E434" s="1" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="J434" t="s">
-        <v>2463</v>
+        <v>2461</v>
       </c>
       <c r="K434" t="s">
-        <v>2414</v>
+        <v>2412</v>
       </c>
       <c r="L434" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
       <c r="M434" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="435" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" s="1" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
       <c r="B435" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="D435" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="J435" t="s">
-        <v>2464</v>
+        <v>2462</v>
       </c>
       <c r="K435" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
       <c r="L435" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="M435" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="436" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" s="1" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
       <c r="B436" t="s">
-        <v>2271</v>
+        <v>2270</v>
+      </c>
+      <c r="D436" t="s">
+        <v>2145</v>
       </c>
       <c r="E436" s="1" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="J436" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="K436" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
       <c r="L436" t="s">
-        <v>2379</v>
+        <v>2377</v>
       </c>
       <c r="M436" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="437" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" s="1" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="B437" t="s">
-        <v>2271</v>
+        <v>2270</v>
+      </c>
+      <c r="D437" t="s">
+        <v>2145</v>
       </c>
       <c r="E437" s="1" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="J437" t="s">
-        <v>2450</v>
+        <v>2448</v>
       </c>
       <c r="K437" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
       <c r="L437" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="M437" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="438" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" s="1" t="s">
+        <v>2309</v>
+      </c>
+      <c r="B438" t="s">
+        <v>2270</v>
+      </c>
+      <c r="D438" t="s">
+        <v>27</v>
+      </c>
+      <c r="G438" s="1" t="s">
         <v>2311</v>
       </c>
-      <c r="B438" t="s">
-        <v>2271</v>
-      </c>
-      <c r="G438" s="1" t="s">
-        <v>2313</v>
-      </c>
       <c r="J438" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
       <c r="K438" t="s">
-        <v>2416</v>
+        <v>2414</v>
       </c>
       <c r="L438" t="s">
-        <v>2390</v>
+        <v>2388</v>
       </c>
       <c r="M438" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="439" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" s="1" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="B439" t="s">
-        <v>2271</v>
+        <v>2270</v>
+      </c>
+      <c r="D439" t="s">
+        <v>27</v>
       </c>
       <c r="G439" s="1" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
       <c r="J439" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
       <c r="K439" t="s">
-        <v>2417</v>
+        <v>2415</v>
       </c>
       <c r="L439" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
       <c r="M439" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="440" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" s="1" t="s">
+        <v>2312</v>
+      </c>
+      <c r="B440" t="s">
+        <v>2270</v>
+      </c>
+      <c r="D440" t="s">
+        <v>27</v>
+      </c>
+      <c r="G440" s="1" t="s">
         <v>2314</v>
       </c>
-      <c r="B440" t="s">
-        <v>2271</v>
-      </c>
-      <c r="G440" s="1" t="s">
-        <v>2316</v>
-      </c>
       <c r="J440" t="s">
-        <v>2466</v>
+        <v>2464</v>
       </c>
       <c r="K440" t="s">
-        <v>2418</v>
+        <v>2416</v>
       </c>
       <c r="L440" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="M440" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="441" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" s="1" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="B441" t="s">
-        <v>2271</v>
+        <v>2270</v>
+      </c>
+      <c r="D441" t="s">
+        <v>27</v>
       </c>
       <c r="G441" s="1" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="J441" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
       <c r="K441" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="L441" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
       <c r="M441" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" s="1" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="B442" t="s">
-        <v>2271</v>
+        <v>2270</v>
+      </c>
+      <c r="D442" t="s">
+        <v>27</v>
       </c>
       <c r="J442" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
       <c r="K442" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="L442" t="s">
-        <v>2381</v>
+        <v>2379</v>
       </c>
       <c r="M442" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="443" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" s="1" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
       <c r="B443" t="s">
-        <v>2271</v>
+        <v>2270</v>
+      </c>
+      <c r="D443" t="s">
+        <v>27</v>
       </c>
       <c r="J443" t="s">
-        <v>2469</v>
+        <v>2467</v>
       </c>
       <c r="K443" t="s">
-        <v>2432</v>
+        <v>2430</v>
       </c>
       <c r="L443" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
       <c r="M443" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="444" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" s="1" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="B444" t="s">
-        <v>2271</v>
+        <v>2270</v>
+      </c>
+      <c r="D444" t="s">
+        <v>91</v>
       </c>
       <c r="J444" t="s">
         <v>1294</v>
       </c>
       <c r="K444" t="s">
-        <v>2420</v>
+        <v>2418</v>
       </c>
       <c r="L444" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
       <c r="M444" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="445" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" s="1" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
       <c r="B445" t="s">
-        <v>2271</v>
+        <v>2270</v>
+      </c>
+      <c r="D445" t="s">
+        <v>2471</v>
       </c>
       <c r="J445" t="s">
-        <v>2470</v>
+        <v>2468</v>
       </c>
       <c r="K445" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
       <c r="L445" t="s">
-        <v>2396</v>
+        <v>2394</v>
       </c>
       <c r="M445" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="446" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" s="1" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="B446" t="s">
-        <v>2271</v>
+        <v>2270</v>
+      </c>
+      <c r="D446" t="s">
+        <v>2472</v>
       </c>
       <c r="J446" t="s">
-        <v>2471</v>
+        <v>2469</v>
       </c>
       <c r="K446" t="s">
-        <v>2434</v>
+        <v>2432</v>
       </c>
       <c r="L446" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
       <c r="M446" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="447" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" s="1" t="s">
-        <v>39</v>
+        <v>2476</v>
       </c>
       <c r="B447" t="s">
-        <v>190</v>
-      </c>
-      <c r="D447" t="s">
-        <v>40</v>
-      </c>
-      <c r="E447" s="1" t="s">
-        <v>41</v>
+        <v>2475</v>
       </c>
       <c r="J447" t="s">
-        <v>42</v>
+        <v>2653</v>
       </c>
       <c r="K447" t="s">
-        <v>43</v>
+        <v>2615</v>
       </c>
       <c r="L447" t="s">
-        <v>57</v>
+        <v>2580</v>
       </c>
       <c r="M447" t="s">
-        <v>53</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="448" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" s="1" t="s">
-        <v>47</v>
+        <v>2477</v>
       </c>
       <c r="B448" t="s">
-        <v>190</v>
-      </c>
-      <c r="D448" t="s">
-        <v>40</v>
-      </c>
-      <c r="E448" s="1" t="s">
-        <v>66</v>
+        <v>2475</v>
       </c>
       <c r="J448" t="s">
-        <v>62</v>
+        <v>2654</v>
       </c>
       <c r="K448" t="s">
-        <v>126</v>
+        <v>2616</v>
       </c>
       <c r="L448" t="s">
-        <v>142</v>
+        <v>2581</v>
       </c>
       <c r="M448" t="s">
-        <v>52</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="449" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" s="1" t="s">
-        <v>48</v>
+        <v>2478</v>
       </c>
       <c r="B449" t="s">
-        <v>190</v>
-      </c>
-      <c r="D449" t="s">
-        <v>40</v>
+        <v>2475</v>
+      </c>
+      <c r="J449" t="s">
+        <v>2655</v>
+      </c>
+      <c r="K449" t="s">
+        <v>2617</v>
+      </c>
+      <c r="L449" t="s">
+        <v>2606</v>
       </c>
       <c r="M449" t="s">
-        <v>58</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="450" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" s="1" t="s">
-        <v>49</v>
+        <v>2479</v>
       </c>
       <c r="B450" t="s">
-        <v>190</v>
-      </c>
-      <c r="D450" t="s">
-        <v>40</v>
-      </c>
-      <c r="E450" s="1" t="s">
-        <v>67</v>
+        <v>2475</v>
       </c>
       <c r="J450" t="s">
-        <v>63</v>
+        <v>2618</v>
       </c>
       <c r="K450" t="s">
-        <v>127</v>
+        <v>2618</v>
+      </c>
+      <c r="L450" t="s">
+        <v>2582</v>
       </c>
       <c r="M450" t="s">
-        <v>59</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="451" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" s="1" t="s">
-        <v>50</v>
+        <v>2480</v>
       </c>
       <c r="B451" t="s">
-        <v>190</v>
-      </c>
-      <c r="D451" t="s">
-        <v>40</v>
-      </c>
-      <c r="E451" s="1" t="s">
-        <v>68</v>
+        <v>2475</v>
       </c>
       <c r="J451" t="s">
-        <v>64</v>
+        <v>2656</v>
       </c>
       <c r="K451" t="s">
-        <v>128</v>
+        <v>2213</v>
       </c>
       <c r="L451" t="s">
-        <v>143</v>
+        <v>2583</v>
       </c>
       <c r="M451" t="s">
-        <v>60</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="452" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" s="1" t="s">
-        <v>51</v>
+        <v>2481</v>
       </c>
       <c r="B452" t="s">
-        <v>190</v>
-      </c>
-      <c r="D452" t="s">
-        <v>40</v>
+        <v>2475</v>
       </c>
       <c r="J452" t="s">
-        <v>65</v>
+        <v>2657</v>
       </c>
       <c r="K452" t="s">
-        <v>129</v>
+        <v>2619</v>
       </c>
       <c r="L452" t="s">
-        <v>144</v>
+        <v>2584</v>
       </c>
       <c r="M452" t="s">
-        <v>61</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="453" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" s="1" t="s">
-        <v>69</v>
+        <v>2532</v>
       </c>
       <c r="B453" t="s">
-        <v>190</v>
-      </c>
-      <c r="D453" t="s">
-        <v>40</v>
+        <v>2475</v>
+      </c>
+      <c r="E453" s="1" t="s">
+        <v>2542</v>
       </c>
       <c r="J453" t="s">
-        <v>108</v>
+        <v>2658</v>
       </c>
       <c r="K453" t="s">
-        <v>130</v>
+        <v>2620</v>
       </c>
       <c r="L453" t="s">
-        <v>145</v>
+        <v>2607</v>
       </c>
       <c r="M453" t="s">
-        <v>109</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="454" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" s="1" t="s">
-        <v>70</v>
+        <v>2482</v>
       </c>
       <c r="B454" t="s">
-        <v>190</v>
-      </c>
-      <c r="D454" t="s">
-        <v>40</v>
+        <v>2475</v>
+      </c>
+      <c r="E454" s="1" t="s">
+        <v>2543</v>
       </c>
       <c r="J454" t="s">
-        <v>93</v>
+        <v>2621</v>
       </c>
       <c r="K454" t="s">
-        <v>131</v>
+        <v>2621</v>
       </c>
       <c r="L454" t="s">
-        <v>146</v>
+        <v>2585</v>
       </c>
       <c r="M454" t="s">
-        <v>110</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="455" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" s="1" t="s">
-        <v>71</v>
+        <v>2483</v>
       </c>
       <c r="B455" t="s">
-        <v>190</v>
-      </c>
-      <c r="D455" t="s">
-        <v>40</v>
+        <v>2475</v>
       </c>
       <c r="J455" t="s">
-        <v>94</v>
+        <v>2659</v>
       </c>
       <c r="K455" t="s">
-        <v>94</v>
+        <v>2622</v>
       </c>
       <c r="L455" t="s">
-        <v>147</v>
+        <v>2586</v>
       </c>
       <c r="M455" t="s">
-        <v>111</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="456" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" s="1" t="s">
-        <v>72</v>
+        <v>2484</v>
       </c>
       <c r="B456" t="s">
-        <v>190</v>
-      </c>
-      <c r="D456" t="s">
-        <v>89</v>
+        <v>2475</v>
       </c>
       <c r="J456" t="s">
-        <v>95</v>
+        <v>2660</v>
       </c>
       <c r="K456" t="s">
-        <v>132</v>
+        <v>2623</v>
       </c>
       <c r="L456" t="s">
-        <v>148</v>
+        <v>2587</v>
       </c>
       <c r="M456" t="s">
-        <v>112</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="457" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" s="1" t="s">
-        <v>73</v>
+        <v>2485</v>
       </c>
       <c r="B457" t="s">
-        <v>190</v>
-      </c>
-      <c r="D457" t="s">
-        <v>90</v>
-      </c>
-      <c r="E457" s="1" t="s">
-        <v>92</v>
+        <v>2475</v>
       </c>
       <c r="J457" t="s">
-        <v>96</v>
+        <v>2624</v>
       </c>
       <c r="K457" t="s">
-        <v>133</v>
+        <v>2624</v>
       </c>
       <c r="L457" t="s">
-        <v>149</v>
+        <v>2588</v>
       </c>
       <c r="M457" t="s">
-        <v>113</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="458" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" s="1" t="s">
-        <v>74</v>
+        <v>2486</v>
       </c>
       <c r="B458" t="s">
-        <v>190</v>
-      </c>
-      <c r="D458" t="s">
-        <v>90</v>
+        <v>2475</v>
       </c>
       <c r="J458" t="s">
-        <v>97</v>
+        <v>2625</v>
       </c>
       <c r="K458" t="s">
-        <v>135</v>
+        <v>2625</v>
       </c>
       <c r="L458" t="s">
-        <v>150</v>
+        <v>2589</v>
       </c>
       <c r="M458" t="s">
-        <v>114</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="459" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" s="1" t="s">
-        <v>75</v>
+        <v>2487</v>
       </c>
       <c r="B459" t="s">
-        <v>190</v>
-      </c>
-      <c r="D459" t="s">
-        <v>90</v>
+        <v>2475</v>
       </c>
       <c r="J459" t="s">
-        <v>98</v>
+        <v>2661</v>
       </c>
       <c r="K459" t="s">
-        <v>134</v>
+        <v>2626</v>
       </c>
       <c r="L459" t="s">
-        <v>151</v>
+        <v>2530</v>
       </c>
       <c r="M459" t="s">
-        <v>115</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="460" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" s="1" t="s">
-        <v>76</v>
+        <v>2488</v>
       </c>
       <c r="B460" t="s">
-        <v>190</v>
-      </c>
-      <c r="D460" t="s">
-        <v>90</v>
+        <v>2475</v>
       </c>
       <c r="J460" t="s">
-        <v>99</v>
+        <v>2661</v>
       </c>
       <c r="K460" t="s">
-        <v>153</v>
+        <v>2626</v>
       </c>
       <c r="L460" t="s">
-        <v>152</v>
+        <v>2530</v>
       </c>
       <c r="M460" t="s">
-        <v>116</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="461" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" s="1" t="s">
-        <v>77</v>
+        <v>2489</v>
       </c>
       <c r="B461" t="s">
-        <v>190</v>
-      </c>
-      <c r="D461" t="s">
-        <v>91</v>
+        <v>2475</v>
       </c>
       <c r="J461" t="s">
-        <v>100</v>
+        <v>2662</v>
+      </c>
+      <c r="K461" t="s">
+        <v>2627</v>
       </c>
       <c r="L461" t="s">
-        <v>154</v>
+        <v>2590</v>
       </c>
       <c r="M461" t="s">
-        <v>117</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="462" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" s="1" t="s">
-        <v>78</v>
+        <v>2490</v>
       </c>
       <c r="B462" t="s">
-        <v>190</v>
-      </c>
-      <c r="D462" t="s">
-        <v>91</v>
+        <v>2475</v>
+      </c>
+      <c r="E462" s="1" t="s">
+        <v>2544</v>
       </c>
       <c r="J462" t="s">
-        <v>101</v>
+        <v>2668</v>
       </c>
       <c r="K462" t="s">
-        <v>136</v>
+        <v>2636</v>
       </c>
       <c r="L462" t="s">
-        <v>155</v>
+        <v>2608</v>
       </c>
       <c r="M462" t="s">
-        <v>118</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="463" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" s="1" t="s">
-        <v>79</v>
+        <v>2491</v>
       </c>
       <c r="B463" t="s">
-        <v>190</v>
-      </c>
-      <c r="D463" t="s">
-        <v>91</v>
+        <v>2475</v>
+      </c>
+      <c r="E463" s="1" t="s">
+        <v>2545</v>
       </c>
       <c r="J463" t="s">
-        <v>101</v>
+        <v>2669</v>
       </c>
       <c r="K463" t="s">
-        <v>136</v>
+        <v>2637</v>
       </c>
       <c r="L463" t="s">
-        <v>155</v>
+        <v>2591</v>
       </c>
       <c r="M463" t="s">
-        <v>118</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="464" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" s="1" t="s">
-        <v>80</v>
+        <v>2492</v>
       </c>
       <c r="B464" t="s">
-        <v>190</v>
-      </c>
-      <c r="D464" t="s">
-        <v>91</v>
+        <v>2475</v>
+      </c>
+      <c r="E464" s="1" t="s">
+        <v>2546</v>
       </c>
       <c r="J464" t="s">
-        <v>102</v>
+        <v>2670</v>
       </c>
       <c r="K464" t="s">
-        <v>137</v>
+        <v>2638</v>
       </c>
       <c r="L464" t="s">
-        <v>156</v>
+        <v>2609</v>
       </c>
       <c r="M464" t="s">
-        <v>119</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="465" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" s="1" t="s">
-        <v>81</v>
+        <v>1417</v>
       </c>
       <c r="B465" t="s">
-        <v>190</v>
-      </c>
-      <c r="D465" t="s">
-        <v>91</v>
+        <v>2475</v>
       </c>
       <c r="J465" t="s">
-        <v>102</v>
+        <v>2671</v>
       </c>
       <c r="K465" t="s">
-        <v>137</v>
+        <v>2628</v>
       </c>
       <c r="L465" t="s">
-        <v>156</v>
+        <v>1537</v>
       </c>
       <c r="M465" t="s">
-        <v>119</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="466" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" s="1" t="s">
-        <v>82</v>
+        <v>2493</v>
       </c>
       <c r="B466" t="s">
-        <v>190</v>
+        <v>2475</v>
+      </c>
+      <c r="E466" s="1" t="s">
+        <v>2547</v>
       </c>
       <c r="J466" t="s">
-        <v>103</v>
+        <v>2672</v>
+      </c>
+      <c r="K466" t="s">
+        <v>2629</v>
+      </c>
+      <c r="L466" t="s">
+        <v>2592</v>
       </c>
       <c r="M466" t="s">
-        <v>120</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="467" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" s="1" t="s">
-        <v>83</v>
+        <v>2537</v>
       </c>
       <c r="B467" t="s">
-        <v>190</v>
+        <v>2475</v>
+      </c>
+      <c r="E467" s="1" t="s">
+        <v>2548</v>
       </c>
       <c r="J467" t="s">
-        <v>104</v>
+        <v>2673</v>
+      </c>
+      <c r="K467" t="s">
+        <v>2630</v>
+      </c>
+      <c r="L467" t="s">
+        <v>2593</v>
       </c>
       <c r="M467" t="s">
-        <v>121</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="468" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" s="1" t="s">
-        <v>84</v>
+        <v>2541</v>
       </c>
       <c r="B468" t="s">
-        <v>190</v>
-      </c>
-      <c r="D468" t="s">
-        <v>27</v>
+        <v>2475</v>
       </c>
       <c r="J468" t="s">
-        <v>105</v>
+        <v>2674</v>
       </c>
       <c r="K468" t="s">
-        <v>138</v>
+        <v>2639</v>
       </c>
       <c r="L468" t="s">
-        <v>157</v>
+        <v>2594</v>
       </c>
       <c r="M468" t="s">
-        <v>122</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="469" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" s="1" t="s">
-        <v>85</v>
+        <v>1400</v>
       </c>
       <c r="B469" t="s">
-        <v>190</v>
-      </c>
-      <c r="D469" t="s">
-        <v>27</v>
+        <v>2475</v>
+      </c>
+      <c r="E469" s="1" t="s">
+        <v>2549</v>
       </c>
       <c r="J469" t="s">
-        <v>94</v>
+        <v>2675</v>
       </c>
       <c r="K469" t="s">
-        <v>139</v>
+        <v>2631</v>
       </c>
       <c r="L469" t="s">
-        <v>157</v>
+        <v>2595</v>
       </c>
       <c r="M469" t="s">
-        <v>123</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="470" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" s="1" t="s">
-        <v>86</v>
+        <v>2494</v>
       </c>
       <c r="B470" t="s">
-        <v>190</v>
-      </c>
-      <c r="D470" t="s">
-        <v>27</v>
+        <v>2475</v>
+      </c>
+      <c r="E470" s="1" t="s">
+        <v>2550</v>
       </c>
       <c r="J470" t="s">
-        <v>106</v>
+        <v>2676</v>
       </c>
       <c r="K470" t="s">
-        <v>140</v>
+        <v>2640</v>
       </c>
       <c r="L470" t="s">
-        <v>158</v>
+        <v>2596</v>
       </c>
       <c r="M470" t="s">
-        <v>124</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="471" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" s="1" t="s">
-        <v>87</v>
+        <v>2495</v>
       </c>
       <c r="B471" t="s">
-        <v>190</v>
-      </c>
-      <c r="D471" t="s">
-        <v>27</v>
-      </c>
-      <c r="F471" s="1" t="s">
-        <v>88</v>
+        <v>2475</v>
+      </c>
+      <c r="E471" s="1" t="s">
+        <v>2551</v>
       </c>
       <c r="J471" t="s">
-        <v>107</v>
+        <v>2641</v>
       </c>
       <c r="K471" t="s">
-        <v>141</v>
+        <v>2641</v>
       </c>
       <c r="L471" t="s">
-        <v>159</v>
+        <v>2597</v>
       </c>
       <c r="M471" t="s">
-        <v>125</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="472" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" s="1" t="s">
-        <v>1388</v>
+        <v>2496</v>
       </c>
       <c r="B472" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D472" t="s">
-        <v>40</v>
+        <v>2475</v>
       </c>
       <c r="J472" t="s">
-        <v>1553</v>
+        <v>2677</v>
       </c>
       <c r="K472" t="s">
-        <v>1599</v>
+        <v>2642</v>
       </c>
       <c r="L472" t="s">
-        <v>1514</v>
+        <v>2610</v>
       </c>
       <c r="M472" t="s">
-        <v>1439</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="473" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" s="1" t="s">
-        <v>1400</v>
+        <v>2497</v>
       </c>
       <c r="B473" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D473" t="s">
-        <v>90</v>
+        <v>2475</v>
       </c>
       <c r="E473" s="1" t="s">
-        <v>1442</v>
+        <v>2570</v>
       </c>
       <c r="J473" t="s">
-        <v>1554</v>
+        <v>2678</v>
       </c>
       <c r="K473" t="s">
-        <v>1600</v>
+        <v>2643</v>
       </c>
       <c r="L473" t="s">
-        <v>1511</v>
+        <v>2598</v>
       </c>
       <c r="M473" t="s">
-        <v>1440</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="474" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" s="1" t="s">
-        <v>1389</v>
+        <v>2498</v>
       </c>
       <c r="B474" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D474" t="s">
-        <v>40</v>
-      </c>
-      <c r="E474"/>
+        <v>2475</v>
+      </c>
+      <c r="E474" s="1" t="s">
+        <v>2569</v>
+      </c>
       <c r="J474" t="s">
-        <v>1555</v>
+        <v>2663</v>
       </c>
       <c r="K474" t="s">
-        <v>1601</v>
+        <v>2644</v>
       </c>
       <c r="L474" t="s">
-        <v>1512</v>
+        <v>2599</v>
       </c>
       <c r="M474" t="s">
-        <v>1441</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="475" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" s="1" t="s">
-        <v>1390</v>
+        <v>2499</v>
       </c>
       <c r="B475" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D475" t="s">
-        <v>40</v>
-      </c>
-      <c r="E475"/>
+        <v>2475</v>
+      </c>
+      <c r="G475" s="1" t="s">
+        <v>2502</v>
+      </c>
       <c r="J475" t="s">
-        <v>1556</v>
+        <v>2664</v>
       </c>
       <c r="K475" t="s">
-        <v>1602</v>
+        <v>2632</v>
       </c>
       <c r="L475" t="s">
-        <v>1515</v>
+        <v>2600</v>
       </c>
       <c r="M475" t="s">
-        <v>1443</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="476" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" s="1" t="s">
-        <v>1391</v>
+        <v>2500</v>
       </c>
       <c r="B476" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D476" t="s">
-        <v>40</v>
+        <v>2475</v>
       </c>
       <c r="E476" s="1" t="s">
-        <v>1444</v>
+        <v>2571</v>
+      </c>
+      <c r="G476" s="1" t="s">
+        <v>2503</v>
       </c>
       <c r="J476" t="s">
-        <v>1557</v>
+        <v>2665</v>
       </c>
       <c r="K476" t="s">
-        <v>1603</v>
+        <v>2645</v>
       </c>
       <c r="L476" t="s">
-        <v>1513</v>
+        <v>2611</v>
       </c>
       <c r="M476" t="s">
-        <v>1445</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="477" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" s="1" t="s">
-        <v>1392</v>
+        <v>2501</v>
       </c>
       <c r="B477" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D477" t="s">
-        <v>40</v>
-      </c>
-      <c r="E477"/>
+        <v>2475</v>
+      </c>
+      <c r="E477" s="1" t="s">
+        <v>2572</v>
+      </c>
+      <c r="G477" s="1" t="s">
+        <v>2503</v>
+      </c>
       <c r="J477" t="s">
-        <v>1558</v>
+        <v>2665</v>
       </c>
       <c r="K477" t="s">
-        <v>1558</v>
+        <v>2645</v>
       </c>
       <c r="L477" t="s">
-        <v>1516</v>
+        <v>2611</v>
       </c>
       <c r="M477" t="s">
-        <v>1446</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="478" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" s="1" t="s">
-        <v>1393</v>
+        <v>2504</v>
       </c>
       <c r="B478" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D478" t="s">
-        <v>40</v>
-      </c>
-      <c r="E478"/>
+        <v>2475</v>
+      </c>
+      <c r="E478" s="1" t="s">
+        <v>2573</v>
+      </c>
+      <c r="G478" s="1" t="s">
+        <v>2511</v>
+      </c>
       <c r="J478" t="s">
-        <v>1559</v>
+        <v>2679</v>
       </c>
       <c r="K478" t="s">
-        <v>1604</v>
+        <v>2633</v>
       </c>
       <c r="L478" t="s">
-        <v>1517</v>
+        <v>2612</v>
       </c>
       <c r="M478" t="s">
-        <v>1447</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="479" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" s="1" t="s">
-        <v>1394</v>
+        <v>2505</v>
       </c>
       <c r="B479" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D479" t="s">
-        <v>40</v>
-      </c>
-      <c r="E479"/>
+        <v>2475</v>
+      </c>
+      <c r="E479" s="1" t="s">
+        <v>2574</v>
+      </c>
+      <c r="G479" s="1" t="s">
+        <v>2314</v>
+      </c>
       <c r="J479" t="s">
-        <v>1560</v>
+        <v>2679</v>
       </c>
       <c r="K479" t="s">
-        <v>1605</v>
+        <v>2633</v>
       </c>
       <c r="L479" t="s">
-        <v>1518</v>
+        <v>2612</v>
       </c>
       <c r="M479" t="s">
-        <v>1448</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="480" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" s="1" t="s">
-        <v>1395</v>
+        <v>2506</v>
       </c>
       <c r="B480" t="s">
-        <v>1387</v>
+        <v>2475</v>
       </c>
       <c r="D480" t="s">
-        <v>90</v>
-      </c>
-      <c r="E480" s="1" t="s">
-        <v>1450</v>
+        <v>2145</v>
       </c>
       <c r="J480" t="s">
-        <v>1561</v>
+        <v>2666</v>
       </c>
       <c r="K480" t="s">
-        <v>1606</v>
+        <v>2634</v>
       </c>
       <c r="L480" t="s">
-        <v>1519</v>
+        <v>2601</v>
       </c>
       <c r="M480" t="s">
-        <v>1449</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="481" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" s="1" t="s">
-        <v>1396</v>
+        <v>2507</v>
       </c>
       <c r="B481" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D481" t="s">
-        <v>90</v>
-      </c>
-      <c r="E481"/>
+        <v>2475</v>
+      </c>
       <c r="J481" t="s">
-        <v>1562</v>
+        <v>2680</v>
       </c>
       <c r="K481" t="s">
-        <v>1607</v>
+        <v>33</v>
       </c>
       <c r="L481" t="s">
-        <v>1520</v>
+        <v>2613</v>
       </c>
       <c r="M481" t="s">
-        <v>1451</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="482" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" s="1" t="s">
-        <v>1397</v>
+        <v>2508</v>
       </c>
       <c r="B482" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D482" t="s">
-        <v>90</v>
-      </c>
-      <c r="E482"/>
+        <v>2475</v>
+      </c>
       <c r="J482" t="s">
-        <v>1563</v>
+        <v>2681</v>
       </c>
       <c r="K482" t="s">
-        <v>1608</v>
+        <v>2646</v>
       </c>
       <c r="L482" t="s">
-        <v>1521</v>
+        <v>2602</v>
       </c>
       <c r="M482" t="s">
-        <v>1452</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="483" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" s="1" t="s">
-        <v>1398</v>
+        <v>2509</v>
       </c>
       <c r="B483" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D483" t="s">
-        <v>90</v>
+        <v>2475</v>
       </c>
       <c r="E483" s="1" t="s">
-        <v>1454</v>
+        <v>2575</v>
+      </c>
+      <c r="G483" s="1" t="s">
+        <v>2511</v>
       </c>
       <c r="J483" t="s">
-        <v>1563</v>
+        <v>2682</v>
       </c>
       <c r="K483" t="s">
-        <v>1609</v>
+        <v>2647</v>
       </c>
       <c r="L483" t="s">
-        <v>1521</v>
+        <v>2589</v>
       </c>
       <c r="M483" t="s">
-        <v>1452</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="484" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" s="1" t="s">
-        <v>1399</v>
+        <v>2510</v>
       </c>
       <c r="B484" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D484" t="s">
-        <v>90</v>
-      </c>
-      <c r="E484"/>
+        <v>2475</v>
+      </c>
+      <c r="E484" s="1" t="s">
+        <v>2576</v>
+      </c>
+      <c r="G484" s="1" t="s">
+        <v>2512</v>
+      </c>
       <c r="J484" t="s">
-        <v>1564</v>
+        <v>2682</v>
       </c>
       <c r="K484" t="s">
-        <v>1609</v>
+        <v>2647</v>
       </c>
       <c r="L484" t="s">
-        <v>1522</v>
+        <v>2589</v>
       </c>
       <c r="M484" t="s">
-        <v>1453</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="485" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" s="1" t="s">
-        <v>1401</v>
+        <v>2513</v>
       </c>
       <c r="B485" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D485" t="s">
-        <v>90</v>
+        <v>2475</v>
       </c>
       <c r="E485" s="1" t="s">
-        <v>1455</v>
+        <v>2577</v>
+      </c>
+      <c r="G485" s="1" t="s">
+        <v>2511</v>
       </c>
       <c r="J485" t="s">
-        <v>1565</v>
+        <v>2683</v>
       </c>
       <c r="K485" t="s">
-        <v>1610</v>
+        <v>2648</v>
       </c>
       <c r="L485" t="s">
-        <v>1523</v>
+        <v>2588</v>
       </c>
       <c r="M485" t="s">
-        <v>1456</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="486" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" s="1" t="s">
-        <v>1402</v>
+        <v>2514</v>
       </c>
       <c r="B486" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D486" t="s">
-        <v>90</v>
-      </c>
-      <c r="E486"/>
+        <v>2475</v>
+      </c>
+      <c r="E486" s="1" t="s">
+        <v>2578</v>
+      </c>
+      <c r="G486" s="1" t="s">
+        <v>2512</v>
+      </c>
       <c r="J486" t="s">
-        <v>1566</v>
+        <v>2683</v>
       </c>
       <c r="K486" t="s">
-        <v>1611</v>
+        <v>2648</v>
       </c>
       <c r="L486" t="s">
-        <v>1524</v>
+        <v>2588</v>
       </c>
       <c r="M486" t="s">
-        <v>1457</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="487" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" s="1" t="s">
-        <v>1459</v>
+        <v>2515</v>
       </c>
       <c r="B487" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D487" t="s">
-        <v>90</v>
+        <v>2475</v>
       </c>
       <c r="E487" s="1" t="s">
-        <v>1460</v>
+        <v>2579</v>
+      </c>
+      <c r="G487" s="1" t="s">
+        <v>2516</v>
       </c>
       <c r="J487" t="s">
-        <v>1567</v>
+        <v>2667</v>
       </c>
       <c r="K487" t="s">
-        <v>1612</v>
+        <v>2635</v>
       </c>
       <c r="L487" t="s">
-        <v>1525</v>
+        <v>2603</v>
       </c>
       <c r="M487" t="s">
-        <v>1458</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="488" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" s="1" t="s">
-        <v>1403</v>
+        <v>31</v>
       </c>
       <c r="B488" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D488" t="s">
-        <v>90</v>
-      </c>
-      <c r="E488"/>
+        <v>2475</v>
+      </c>
       <c r="J488" t="s">
-        <v>1568</v>
+        <v>2684</v>
       </c>
       <c r="K488" t="s">
-        <v>1613</v>
+        <v>2649</v>
       </c>
       <c r="L488" t="s">
-        <v>1526</v>
+        <v>2604</v>
       </c>
       <c r="M488" t="s">
-        <v>1461</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="489" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" s="1" t="s">
-        <v>1404</v>
+        <v>1899</v>
       </c>
       <c r="B489" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D489" t="s">
-        <v>90</v>
-      </c>
-      <c r="E489"/>
+        <v>2475</v>
+      </c>
       <c r="J489" t="s">
-        <v>1569</v>
+        <v>2685</v>
       </c>
       <c r="K489" t="s">
-        <v>1614</v>
+        <v>2650</v>
       </c>
       <c r="L489" t="s">
-        <v>1527</v>
+        <v>2614</v>
       </c>
       <c r="M489" t="s">
-        <v>1462</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="490" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A490" s="1" t="s">
-        <v>1405</v>
+        <v>750</v>
       </c>
       <c r="B490" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D490" t="s">
-        <v>90</v>
-      </c>
-      <c r="E490"/>
+        <v>2475</v>
+      </c>
       <c r="J490" t="s">
-        <v>1571</v>
+        <v>450</v>
       </c>
       <c r="K490" t="s">
-        <v>1615</v>
+        <v>2651</v>
       </c>
       <c r="L490" t="s">
-        <v>1570</v>
+        <v>436</v>
       </c>
       <c r="M490" t="s">
-        <v>1463</v>
+        <v>422</v>
       </c>
     </row>
     <row r="491" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" s="1" t="s">
-        <v>1406</v>
+        <v>2517</v>
       </c>
       <c r="B491" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D491" t="s">
-        <v>90</v>
-      </c>
-      <c r="E491"/>
+        <v>2475</v>
+      </c>
       <c r="J491" t="s">
-        <v>1572</v>
+        <v>2686</v>
       </c>
       <c r="K491" t="s">
-        <v>1616</v>
+        <v>2652</v>
       </c>
       <c r="L491" t="s">
-        <v>1528</v>
+        <v>2605</v>
       </c>
       <c r="M491" t="s">
-        <v>1464</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="492" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" s="1" t="s">
-        <v>1407</v>
+        <v>39</v>
       </c>
       <c r="B492" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D492" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="E492" s="1" t="s">
-        <v>1465</v>
+        <v>41</v>
       </c>
       <c r="J492" t="s">
-        <v>1573</v>
+        <v>42</v>
       </c>
       <c r="K492" t="s">
-        <v>1617</v>
+        <v>43</v>
       </c>
       <c r="L492" t="s">
-        <v>1529</v>
+        <v>57</v>
       </c>
       <c r="M492" t="s">
-        <v>1467</v>
+        <v>53</v>
       </c>
     </row>
     <row r="493" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" s="1" t="s">
-        <v>1408</v>
+        <v>47</v>
       </c>
       <c r="B493" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D493" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="E493" s="1" t="s">
-        <v>1466</v>
+        <v>66</v>
       </c>
       <c r="J493" t="s">
-        <v>1574</v>
+        <v>62</v>
       </c>
       <c r="K493" t="s">
-        <v>1618</v>
+        <v>126</v>
       </c>
       <c r="L493" t="s">
-        <v>1530</v>
+        <v>142</v>
       </c>
       <c r="M493" t="s">
-        <v>1468</v>
+        <v>52</v>
       </c>
     </row>
     <row r="494" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" s="1" t="s">
-        <v>1409</v>
+        <v>48</v>
       </c>
       <c r="B494" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D494" t="s">
-        <v>90</v>
-      </c>
-      <c r="E494"/>
-      <c r="J494" t="s">
-        <v>1576</v>
-      </c>
-      <c r="K494" t="s">
-        <v>1619</v>
-      </c>
-      <c r="L494" t="s">
-        <v>1531</v>
+        <v>40</v>
       </c>
       <c r="M494" t="s">
-        <v>1469</v>
+        <v>58</v>
       </c>
     </row>
     <row r="495" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" s="1" t="s">
-        <v>1410</v>
+        <v>49</v>
       </c>
       <c r="B495" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D495" t="s">
-        <v>90</v>
-      </c>
-      <c r="E495"/>
+        <v>40</v>
+      </c>
+      <c r="E495" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="J495" t="s">
-        <v>1575</v>
+        <v>63</v>
       </c>
       <c r="K495" t="s">
-        <v>1620</v>
-      </c>
-      <c r="L495" t="s">
-        <v>1532</v>
+        <v>127</v>
       </c>
       <c r="M495" t="s">
-        <v>1470</v>
+        <v>59</v>
       </c>
     </row>
     <row r="496" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" s="1" t="s">
-        <v>1411</v>
+        <v>50</v>
       </c>
       <c r="B496" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D496" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="E496" s="1" t="s">
-        <v>1472</v>
+        <v>68</v>
       </c>
       <c r="J496" t="s">
-        <v>1577</v>
+        <v>64</v>
       </c>
       <c r="K496" t="s">
-        <v>1621</v>
+        <v>128</v>
       </c>
       <c r="L496" t="s">
-        <v>1533</v>
+        <v>143</v>
       </c>
       <c r="M496" t="s">
-        <v>1471</v>
+        <v>60</v>
       </c>
     </row>
     <row r="497" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" s="1" t="s">
-        <v>1473</v>
+        <v>51</v>
       </c>
       <c r="B497" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D497" t="s">
-        <v>90</v>
-      </c>
-      <c r="E497" s="1" t="s">
-        <v>1474</v>
+        <v>40</v>
       </c>
       <c r="J497" t="s">
-        <v>1578</v>
+        <v>65</v>
       </c>
       <c r="K497" t="s">
-        <v>1622</v>
+        <v>129</v>
       </c>
       <c r="L497" t="s">
-        <v>1534</v>
+        <v>144</v>
       </c>
       <c r="M497" t="s">
-        <v>1476</v>
+        <v>61</v>
       </c>
     </row>
     <row r="498" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A498" s="1" t="s">
-        <v>1412</v>
+        <v>69</v>
       </c>
       <c r="B498" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D498" t="s">
-        <v>90</v>
-      </c>
-      <c r="E498" s="1" t="s">
-        <v>1475</v>
+        <v>40</v>
       </c>
       <c r="J498" t="s">
-        <v>1579</v>
+        <v>108</v>
       </c>
       <c r="K498" t="s">
-        <v>1623</v>
+        <v>130</v>
       </c>
       <c r="L498" t="s">
-        <v>1478</v>
+        <v>145</v>
       </c>
       <c r="M498" t="s">
-        <v>1477</v>
+        <v>109</v>
       </c>
     </row>
     <row r="499" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" s="1" t="s">
-        <v>1413</v>
+        <v>70</v>
       </c>
       <c r="B499" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D499" t="s">
-        <v>90</v>
-      </c>
-      <c r="E499" s="1" t="s">
-        <v>1479</v>
+        <v>40</v>
       </c>
       <c r="J499" t="s">
-        <v>1580</v>
+        <v>93</v>
       </c>
       <c r="K499" t="s">
-        <v>1624</v>
+        <v>131</v>
       </c>
       <c r="L499" t="s">
-        <v>1535</v>
+        <v>146</v>
       </c>
       <c r="M499" t="s">
-        <v>1481</v>
+        <v>110</v>
       </c>
     </row>
     <row r="500" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A500" s="1" t="s">
-        <v>1414</v>
+        <v>71</v>
       </c>
       <c r="B500" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D500" t="s">
-        <v>90</v>
-      </c>
-      <c r="E500" s="1" t="s">
-        <v>1480</v>
+        <v>40</v>
       </c>
       <c r="J500" t="s">
-        <v>1580</v>
+        <v>94</v>
       </c>
       <c r="K500" t="s">
-        <v>1624</v>
+        <v>94</v>
       </c>
       <c r="L500" t="s">
-        <v>1535</v>
+        <v>147</v>
       </c>
       <c r="M500" t="s">
-        <v>1481</v>
+        <v>111</v>
       </c>
     </row>
     <row r="501" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" s="1" t="s">
-        <v>1415</v>
+        <v>72</v>
       </c>
       <c r="B501" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D501" t="s">
-        <v>90</v>
-      </c>
-      <c r="E501" s="1" t="s">
-        <v>1483</v>
+        <v>89</v>
       </c>
       <c r="J501" t="s">
-        <v>1581</v>
+        <v>95</v>
       </c>
       <c r="K501" t="s">
-        <v>1625</v>
+        <v>132</v>
       </c>
       <c r="L501" t="s">
-        <v>1484</v>
+        <v>148</v>
       </c>
       <c r="M501" t="s">
-        <v>1482</v>
+        <v>112</v>
       </c>
     </row>
     <row r="502" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" s="1" t="s">
-        <v>1416</v>
+        <v>73</v>
       </c>
       <c r="B502" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D502" t="s">
         <v>90</v>
       </c>
-      <c r="E502"/>
+      <c r="E502" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="J502" t="s">
-        <v>1582</v>
+        <v>96</v>
       </c>
       <c r="K502" t="s">
-        <v>1626</v>
+        <v>133</v>
       </c>
       <c r="L502" t="s">
-        <v>1536</v>
+        <v>149</v>
       </c>
       <c r="M502" t="s">
-        <v>1485</v>
+        <v>113</v>
       </c>
     </row>
     <row r="503" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" s="1" t="s">
-        <v>1417</v>
+        <v>74</v>
       </c>
       <c r="B503" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D503" t="s">
         <v>90</v>
       </c>
-      <c r="E503"/>
       <c r="J503" t="s">
-        <v>1583</v>
+        <v>97</v>
       </c>
       <c r="K503" t="s">
-        <v>1627</v>
+        <v>135</v>
       </c>
       <c r="L503" t="s">
-        <v>1537</v>
+        <v>150</v>
       </c>
       <c r="M503" t="s">
-        <v>1486</v>
+        <v>114</v>
       </c>
     </row>
     <row r="504" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" s="1" t="s">
-        <v>1418</v>
+        <v>75</v>
       </c>
       <c r="B504" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D504" t="s">
-        <v>89</v>
-      </c>
-      <c r="E504" s="1" t="s">
-        <v>1490</v>
+        <v>90</v>
       </c>
       <c r="J504" t="s">
-        <v>1584</v>
+        <v>98</v>
       </c>
       <c r="K504" t="s">
-        <v>1628</v>
+        <v>134</v>
       </c>
       <c r="L504" t="s">
-        <v>1538</v>
+        <v>151</v>
       </c>
       <c r="M504" t="s">
-        <v>1487</v>
+        <v>115</v>
       </c>
     </row>
     <row r="505" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" s="1" t="s">
-        <v>1419</v>
+        <v>76</v>
       </c>
       <c r="B505" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D505" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J505" t="s">
-        <v>918</v>
+        <v>99</v>
       </c>
       <c r="K505" t="s">
-        <v>908</v>
+        <v>153</v>
       </c>
       <c r="L505" t="s">
-        <v>1539</v>
+        <v>152</v>
       </c>
       <c r="M505" t="s">
-        <v>1488</v>
+        <v>116</v>
       </c>
     </row>
     <row r="506" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A506" s="1" t="s">
-        <v>1420</v>
+        <v>77</v>
       </c>
       <c r="B506" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D506" t="s">
-        <v>90</v>
-      </c>
-      <c r="E506" s="1" t="s">
-        <v>1491</v>
+        <v>91</v>
       </c>
       <c r="J506" t="s">
-        <v>1585</v>
-      </c>
-      <c r="K506" t="s">
-        <v>1629</v>
+        <v>100</v>
       </c>
       <c r="L506" t="s">
-        <v>1540</v>
+        <v>154</v>
       </c>
       <c r="M506" t="s">
-        <v>1489</v>
+        <v>117</v>
       </c>
     </row>
     <row r="507" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A507" s="1" t="s">
-        <v>1421</v>
+        <v>78</v>
       </c>
       <c r="B507" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D507" t="s">
         <v>91</v>
       </c>
       <c r="J507" t="s">
-        <v>1586</v>
+        <v>101</v>
       </c>
       <c r="K507" t="s">
-        <v>886</v>
+        <v>136</v>
       </c>
       <c r="L507" t="s">
-        <v>1541</v>
+        <v>155</v>
       </c>
       <c r="M507" t="s">
-        <v>1498</v>
+        <v>118</v>
       </c>
     </row>
     <row r="508" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A508" s="1" t="s">
-        <v>1422</v>
+        <v>79</v>
       </c>
       <c r="B508" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D508" t="s">
         <v>91</v>
       </c>
-      <c r="E508" s="1" t="s">
-        <v>1492</v>
-      </c>
       <c r="J508" t="s">
-        <v>1587</v>
+        <v>101</v>
       </c>
       <c r="K508" t="s">
-        <v>1630</v>
+        <v>136</v>
       </c>
       <c r="L508" t="s">
-        <v>1499</v>
+        <v>155</v>
       </c>
       <c r="M508" t="s">
-        <v>1499</v>
+        <v>118</v>
       </c>
     </row>
     <row r="509" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A509" s="1" t="s">
-        <v>1423</v>
+        <v>80</v>
       </c>
       <c r="B509" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D509" t="s">
         <v>91</v>
       </c>
       <c r="J509" t="s">
-        <v>1588</v>
+        <v>102</v>
       </c>
       <c r="K509" t="s">
-        <v>1631</v>
+        <v>137</v>
       </c>
       <c r="L509" t="s">
-        <v>1542</v>
+        <v>156</v>
       </c>
       <c r="M509" t="s">
-        <v>1500</v>
+        <v>119</v>
       </c>
     </row>
     <row r="510" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A510" s="1" t="s">
-        <v>1424</v>
+        <v>81</v>
       </c>
       <c r="B510" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D510" t="s">
         <v>91</v>
       </c>
       <c r="J510" t="s">
-        <v>1589</v>
+        <v>102</v>
       </c>
       <c r="K510" t="s">
-        <v>1632</v>
+        <v>137</v>
       </c>
       <c r="L510" t="s">
-        <v>1543</v>
+        <v>156</v>
       </c>
       <c r="M510" t="s">
-        <v>1501</v>
+        <v>119</v>
       </c>
     </row>
     <row r="511" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A511" s="1" t="s">
-        <v>1425</v>
+        <v>82</v>
       </c>
       <c r="B511" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D511" t="s">
-        <v>1178</v>
-      </c>
-      <c r="E511" s="1" t="s">
-        <v>1493</v>
+        <v>190</v>
       </c>
       <c r="J511" t="s">
-        <v>1590</v>
-      </c>
-      <c r="K511" t="s">
-        <v>1633</v>
-      </c>
-      <c r="L511" t="s">
-        <v>1544</v>
+        <v>103</v>
       </c>
       <c r="M511" t="s">
-        <v>1502</v>
+        <v>120</v>
       </c>
     </row>
     <row r="512" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A512" s="1" t="s">
-        <v>1426</v>
+        <v>83</v>
       </c>
       <c r="B512" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D512" t="s">
-        <v>89</v>
-      </c>
-      <c r="E512" s="1" t="s">
-        <v>1494</v>
+        <v>190</v>
       </c>
       <c r="J512" t="s">
-        <v>1591</v>
-      </c>
-      <c r="K512" t="s">
-        <v>1634</v>
-      </c>
-      <c r="L512" t="s">
-        <v>1545</v>
+        <v>104</v>
       </c>
       <c r="M512" t="s">
-        <v>1503</v>
+        <v>121</v>
       </c>
     </row>
     <row r="513" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A513" s="1" t="s">
-        <v>1427</v>
+        <v>84</v>
       </c>
       <c r="B513" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D513" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="J513" t="s">
-        <v>1592</v>
+        <v>105</v>
       </c>
       <c r="K513" t="s">
-        <v>1635</v>
+        <v>138</v>
       </c>
       <c r="L513" t="s">
-        <v>1546</v>
+        <v>157</v>
       </c>
       <c r="M513" t="s">
-        <v>1504</v>
+        <v>122</v>
       </c>
     </row>
     <row r="514" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A514" s="1" t="s">
-        <v>1428</v>
+        <v>85</v>
       </c>
       <c r="B514" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D514" t="s">
-        <v>91</v>
-      </c>
-      <c r="E514" s="1" t="s">
-        <v>1495</v>
+        <v>27</v>
       </c>
       <c r="J514" t="s">
-        <v>1593</v>
+        <v>94</v>
       </c>
       <c r="K514" t="s">
-        <v>1636</v>
+        <v>139</v>
       </c>
       <c r="L514" t="s">
-        <v>1547</v>
+        <v>157</v>
       </c>
       <c r="M514" t="s">
-        <v>1505</v>
+        <v>123</v>
       </c>
     </row>
     <row r="515" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A515" s="1" t="s">
-        <v>1429</v>
+        <v>86</v>
       </c>
       <c r="B515" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D515" t="s">
         <v>27</v>
       </c>
-      <c r="F515" s="1" t="s">
-        <v>1430</v>
-      </c>
       <c r="J515" t="s">
-        <v>1594</v>
+        <v>106</v>
       </c>
       <c r="K515" t="s">
-        <v>1637</v>
+        <v>140</v>
       </c>
       <c r="L515" t="s">
-        <v>1548</v>
+        <v>158</v>
       </c>
       <c r="M515" t="s">
-        <v>1506</v>
+        <v>124</v>
       </c>
     </row>
     <row r="516" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A516" s="1" t="s">
-        <v>1431</v>
+        <v>87</v>
       </c>
       <c r="B516" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D516" t="s">
         <v>27</v>
       </c>
-      <c r="E516" s="1" t="s">
-        <v>1438</v>
-      </c>
-      <c r="G516" s="1" t="s">
-        <v>1432</v>
+      <c r="F516" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="J516" t="s">
-        <v>1595</v>
+        <v>107</v>
       </c>
       <c r="K516" t="s">
-        <v>1638</v>
+        <v>141</v>
       </c>
       <c r="L516" t="s">
-        <v>1549</v>
+        <v>159</v>
       </c>
       <c r="M516" t="s">
-        <v>1507</v>
+        <v>125</v>
       </c>
     </row>
     <row r="517" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A517" s="1" t="s">
-        <v>1433</v>
+        <v>1388</v>
       </c>
       <c r="B517" t="s">
         <v>1387</v>
       </c>
-      <c r="C517" s="1"/>
       <c r="D517" t="s">
-        <v>27</v>
-      </c>
-      <c r="E517" s="1" t="s">
-        <v>1496</v>
+        <v>40</v>
       </c>
       <c r="J517" t="s">
-        <v>1596</v>
+        <v>1553</v>
       </c>
       <c r="K517" t="s">
-        <v>1639</v>
+        <v>1599</v>
       </c>
       <c r="L517" t="s">
-        <v>1550</v>
+        <v>1514</v>
       </c>
       <c r="M517" t="s">
-        <v>1508</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="518" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A518" s="1" t="s">
-        <v>1434</v>
+        <v>1400</v>
       </c>
       <c r="B518" t="s">
         <v>1387</v>
       </c>
       <c r="D518" t="s">
-        <v>27</v>
-      </c>
-      <c r="G518" s="1" t="s">
-        <v>1435</v>
+        <v>90</v>
+      </c>
+      <c r="E518" s="1" t="s">
+        <v>1442</v>
       </c>
       <c r="J518" t="s">
-        <v>1597</v>
+        <v>1554</v>
       </c>
       <c r="K518" t="s">
-        <v>1640</v>
+        <v>1600</v>
       </c>
       <c r="L518" t="s">
-        <v>1551</v>
+        <v>1511</v>
       </c>
       <c r="M518" t="s">
-        <v>1509</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="519" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A519" s="1" t="s">
-        <v>1436</v>
+        <v>1389</v>
       </c>
       <c r="B519" t="s">
         <v>1387</v>
       </c>
-      <c r="C519" s="1"/>
       <c r="D519" t="s">
+        <v>40</v>
+      </c>
+      <c r="E519"/>
+      <c r="J519" t="s">
+        <v>1555</v>
+      </c>
+      <c r="K519" t="s">
+        <v>1601</v>
+      </c>
+      <c r="L519" t="s">
+        <v>1512</v>
+      </c>
+      <c r="M519" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="520" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A520" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D520" t="s">
+        <v>40</v>
+      </c>
+      <c r="E520"/>
+      <c r="J520" t="s">
+        <v>1556</v>
+      </c>
+      <c r="K520" t="s">
+        <v>1602</v>
+      </c>
+      <c r="L520" t="s">
+        <v>1515</v>
+      </c>
+      <c r="M520" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="521" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A521" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D521" t="s">
+        <v>40</v>
+      </c>
+      <c r="E521" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="J521" t="s">
+        <v>1557</v>
+      </c>
+      <c r="K521" t="s">
+        <v>1603</v>
+      </c>
+      <c r="L521" t="s">
+        <v>1513</v>
+      </c>
+      <c r="M521" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="522" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A522" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D522" t="s">
+        <v>40</v>
+      </c>
+      <c r="E522"/>
+      <c r="J522" t="s">
+        <v>1558</v>
+      </c>
+      <c r="K522" t="s">
+        <v>1558</v>
+      </c>
+      <c r="L522" t="s">
+        <v>1516</v>
+      </c>
+      <c r="M522" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="523" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A523" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B523" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D523" t="s">
+        <v>40</v>
+      </c>
+      <c r="E523"/>
+      <c r="J523" t="s">
+        <v>1559</v>
+      </c>
+      <c r="K523" t="s">
+        <v>1604</v>
+      </c>
+      <c r="L523" t="s">
+        <v>1517</v>
+      </c>
+      <c r="M523" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="524" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A524" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D524" t="s">
+        <v>40</v>
+      </c>
+      <c r="E524"/>
+      <c r="J524" t="s">
+        <v>1560</v>
+      </c>
+      <c r="K524" t="s">
+        <v>1605</v>
+      </c>
+      <c r="L524" t="s">
+        <v>1518</v>
+      </c>
+      <c r="M524" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="525" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A525" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B525" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D525" t="s">
+        <v>90</v>
+      </c>
+      <c r="E525" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="J525" t="s">
+        <v>1561</v>
+      </c>
+      <c r="K525" t="s">
+        <v>1606</v>
+      </c>
+      <c r="L525" t="s">
+        <v>1519</v>
+      </c>
+      <c r="M525" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="526" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A526" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B526" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D526" t="s">
+        <v>90</v>
+      </c>
+      <c r="E526"/>
+      <c r="J526" t="s">
+        <v>1562</v>
+      </c>
+      <c r="K526" t="s">
+        <v>1607</v>
+      </c>
+      <c r="L526" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M526" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="527" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A527" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B527" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D527" t="s">
+        <v>90</v>
+      </c>
+      <c r="E527"/>
+      <c r="J527" t="s">
+        <v>1563</v>
+      </c>
+      <c r="K527" t="s">
+        <v>1608</v>
+      </c>
+      <c r="L527" t="s">
+        <v>1521</v>
+      </c>
+      <c r="M527" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="528" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A528" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B528" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D528" t="s">
+        <v>90</v>
+      </c>
+      <c r="E528" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="J528" t="s">
+        <v>1563</v>
+      </c>
+      <c r="K528" t="s">
+        <v>1609</v>
+      </c>
+      <c r="L528" t="s">
+        <v>1521</v>
+      </c>
+      <c r="M528" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="529" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A529" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B529" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D529" t="s">
+        <v>90</v>
+      </c>
+      <c r="E529"/>
+      <c r="J529" t="s">
+        <v>1564</v>
+      </c>
+      <c r="K529" t="s">
+        <v>1609</v>
+      </c>
+      <c r="L529" t="s">
+        <v>1522</v>
+      </c>
+      <c r="M529" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="530" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A530" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B530" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D530" t="s">
+        <v>90</v>
+      </c>
+      <c r="E530" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="J530" t="s">
+        <v>1565</v>
+      </c>
+      <c r="K530" t="s">
+        <v>1610</v>
+      </c>
+      <c r="L530" t="s">
+        <v>1523</v>
+      </c>
+      <c r="M530" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="531" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A531" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B531" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D531" t="s">
+        <v>90</v>
+      </c>
+      <c r="E531"/>
+      <c r="J531" t="s">
+        <v>1566</v>
+      </c>
+      <c r="K531" t="s">
+        <v>1611</v>
+      </c>
+      <c r="L531" t="s">
+        <v>1524</v>
+      </c>
+      <c r="M531" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="532" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A532" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D532" t="s">
+        <v>90</v>
+      </c>
+      <c r="E532" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="J532" t="s">
+        <v>1567</v>
+      </c>
+      <c r="K532" t="s">
+        <v>1612</v>
+      </c>
+      <c r="L532" t="s">
+        <v>1525</v>
+      </c>
+      <c r="M532" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="533" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A533" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B533" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D533" t="s">
+        <v>90</v>
+      </c>
+      <c r="E533"/>
+      <c r="J533" t="s">
+        <v>1568</v>
+      </c>
+      <c r="K533" t="s">
+        <v>1613</v>
+      </c>
+      <c r="L533" t="s">
+        <v>1526</v>
+      </c>
+      <c r="M533" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="534" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A534" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B534" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D534" t="s">
+        <v>90</v>
+      </c>
+      <c r="E534"/>
+      <c r="J534" t="s">
+        <v>1569</v>
+      </c>
+      <c r="K534" t="s">
+        <v>1614</v>
+      </c>
+      <c r="L534" t="s">
+        <v>1527</v>
+      </c>
+      <c r="M534" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="535" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A535" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B535" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D535" t="s">
+        <v>90</v>
+      </c>
+      <c r="E535"/>
+      <c r="J535" t="s">
+        <v>1571</v>
+      </c>
+      <c r="K535" t="s">
+        <v>1615</v>
+      </c>
+      <c r="L535" t="s">
+        <v>1570</v>
+      </c>
+      <c r="M535" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="536" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A536" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B536" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D536" t="s">
+        <v>90</v>
+      </c>
+      <c r="E536"/>
+      <c r="J536" t="s">
+        <v>1572</v>
+      </c>
+      <c r="K536" t="s">
+        <v>1616</v>
+      </c>
+      <c r="L536" t="s">
+        <v>1528</v>
+      </c>
+      <c r="M536" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="537" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A537" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B537" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D537" t="s">
+        <v>90</v>
+      </c>
+      <c r="E537" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="J537" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K537" t="s">
+        <v>1617</v>
+      </c>
+      <c r="L537" t="s">
+        <v>1529</v>
+      </c>
+      <c r="M537" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="538" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A538" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B538" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D538" t="s">
+        <v>90</v>
+      </c>
+      <c r="E538" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="J538" t="s">
+        <v>1574</v>
+      </c>
+      <c r="K538" t="s">
+        <v>1618</v>
+      </c>
+      <c r="L538" t="s">
+        <v>1530</v>
+      </c>
+      <c r="M538" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="539" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A539" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B539" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D539" t="s">
+        <v>90</v>
+      </c>
+      <c r="E539"/>
+      <c r="J539" t="s">
+        <v>1576</v>
+      </c>
+      <c r="K539" t="s">
+        <v>1619</v>
+      </c>
+      <c r="L539" t="s">
+        <v>1531</v>
+      </c>
+      <c r="M539" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="540" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A540" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B540" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D540" t="s">
+        <v>90</v>
+      </c>
+      <c r="E540"/>
+      <c r="J540" t="s">
+        <v>1575</v>
+      </c>
+      <c r="K540" t="s">
+        <v>1620</v>
+      </c>
+      <c r="L540" t="s">
+        <v>1532</v>
+      </c>
+      <c r="M540" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="541" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A541" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B541" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D541" t="s">
+        <v>90</v>
+      </c>
+      <c r="E541" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="J541" t="s">
+        <v>1577</v>
+      </c>
+      <c r="K541" t="s">
+        <v>1621</v>
+      </c>
+      <c r="L541" t="s">
+        <v>1533</v>
+      </c>
+      <c r="M541" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="542" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A542" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B542" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D542" t="s">
+        <v>90</v>
+      </c>
+      <c r="E542" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="J542" t="s">
+        <v>1578</v>
+      </c>
+      <c r="K542" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L542" t="s">
+        <v>1534</v>
+      </c>
+      <c r="M542" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="543" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A543" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B543" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D543" t="s">
+        <v>90</v>
+      </c>
+      <c r="E543" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="J543" t="s">
+        <v>1579</v>
+      </c>
+      <c r="K543" t="s">
+        <v>1623</v>
+      </c>
+      <c r="L543" t="s">
+        <v>1478</v>
+      </c>
+      <c r="M543" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="544" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A544" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B544" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D544" t="s">
+        <v>90</v>
+      </c>
+      <c r="E544" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="J544" t="s">
+        <v>1580</v>
+      </c>
+      <c r="K544" t="s">
+        <v>1624</v>
+      </c>
+      <c r="L544" t="s">
+        <v>1535</v>
+      </c>
+      <c r="M544" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="545" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A545" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B545" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D545" t="s">
+        <v>90</v>
+      </c>
+      <c r="E545" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J545" t="s">
+        <v>1580</v>
+      </c>
+      <c r="K545" t="s">
+        <v>1624</v>
+      </c>
+      <c r="L545" t="s">
+        <v>1535</v>
+      </c>
+      <c r="M545" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="546" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A546" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B546" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D546" t="s">
+        <v>90</v>
+      </c>
+      <c r="E546" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="J546" t="s">
+        <v>1581</v>
+      </c>
+      <c r="K546" t="s">
+        <v>1625</v>
+      </c>
+      <c r="L546" t="s">
+        <v>1484</v>
+      </c>
+      <c r="M546" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="547" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A547" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B547" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D547" t="s">
+        <v>90</v>
+      </c>
+      <c r="E547"/>
+      <c r="J547" t="s">
+        <v>1582</v>
+      </c>
+      <c r="K547" t="s">
+        <v>1626</v>
+      </c>
+      <c r="L547" t="s">
+        <v>1536</v>
+      </c>
+      <c r="M547" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="548" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A548" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B548" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D548" t="s">
+        <v>90</v>
+      </c>
+      <c r="E548"/>
+      <c r="J548" t="s">
+        <v>1583</v>
+      </c>
+      <c r="K548" t="s">
+        <v>1627</v>
+      </c>
+      <c r="L548" t="s">
+        <v>1537</v>
+      </c>
+      <c r="M548" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="549" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A549" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B549" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D549" t="s">
+        <v>89</v>
+      </c>
+      <c r="E549" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="J549" t="s">
+        <v>1584</v>
+      </c>
+      <c r="K549" t="s">
+        <v>1628</v>
+      </c>
+      <c r="L549" t="s">
+        <v>1538</v>
+      </c>
+      <c r="M549" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="550" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A550" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B550" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D550" t="s">
+        <v>91</v>
+      </c>
+      <c r="J550" t="s">
+        <v>918</v>
+      </c>
+      <c r="K550" t="s">
+        <v>908</v>
+      </c>
+      <c r="L550" t="s">
+        <v>1539</v>
+      </c>
+      <c r="M550" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="551" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A551" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B551" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D551" t="s">
+        <v>90</v>
+      </c>
+      <c r="E551" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="J551" t="s">
+        <v>1585</v>
+      </c>
+      <c r="K551" t="s">
+        <v>1629</v>
+      </c>
+      <c r="L551" t="s">
+        <v>1540</v>
+      </c>
+      <c r="M551" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="552" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A552" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B552" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D552" t="s">
+        <v>91</v>
+      </c>
+      <c r="J552" t="s">
+        <v>1586</v>
+      </c>
+      <c r="K552" t="s">
+        <v>886</v>
+      </c>
+      <c r="L552" t="s">
+        <v>1541</v>
+      </c>
+      <c r="M552" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="553" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A553" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B553" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D553" t="s">
+        <v>91</v>
+      </c>
+      <c r="E553" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="J553" t="s">
+        <v>1587</v>
+      </c>
+      <c r="K553" t="s">
+        <v>1630</v>
+      </c>
+      <c r="L553" t="s">
+        <v>1499</v>
+      </c>
+      <c r="M553" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="554" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A554" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B554" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D554" t="s">
+        <v>91</v>
+      </c>
+      <c r="J554" t="s">
+        <v>1588</v>
+      </c>
+      <c r="K554" t="s">
+        <v>1631</v>
+      </c>
+      <c r="L554" t="s">
+        <v>1542</v>
+      </c>
+      <c r="M554" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="555" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A555" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B555" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D555" t="s">
+        <v>91</v>
+      </c>
+      <c r="J555" t="s">
+        <v>1589</v>
+      </c>
+      <c r="K555" t="s">
+        <v>1632</v>
+      </c>
+      <c r="L555" t="s">
+        <v>1543</v>
+      </c>
+      <c r="M555" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="556" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A556" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B556" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D556" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E556" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="J556" t="s">
+        <v>1590</v>
+      </c>
+      <c r="K556" t="s">
+        <v>1633</v>
+      </c>
+      <c r="L556" t="s">
+        <v>1544</v>
+      </c>
+      <c r="M556" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="557" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A557" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B557" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D557" t="s">
+        <v>89</v>
+      </c>
+      <c r="E557" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J557" t="s">
+        <v>1591</v>
+      </c>
+      <c r="K557" t="s">
+        <v>1634</v>
+      </c>
+      <c r="L557" t="s">
+        <v>1545</v>
+      </c>
+      <c r="M557" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="558" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A558" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B558" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D558" t="s">
+        <v>91</v>
+      </c>
+      <c r="J558" t="s">
+        <v>1592</v>
+      </c>
+      <c r="K558" t="s">
+        <v>1635</v>
+      </c>
+      <c r="L558" t="s">
+        <v>1546</v>
+      </c>
+      <c r="M558" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="559" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A559" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B559" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D559" t="s">
+        <v>91</v>
+      </c>
+      <c r="E559" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="J559" t="s">
+        <v>1593</v>
+      </c>
+      <c r="K559" t="s">
+        <v>1636</v>
+      </c>
+      <c r="L559" t="s">
+        <v>1547</v>
+      </c>
+      <c r="M559" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="560" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A560" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B560" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D560" t="s">
         <v>27</v>
       </c>
-      <c r="E519" s="1" t="s">
+      <c r="F560" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="J560" t="s">
+        <v>1594</v>
+      </c>
+      <c r="K560" t="s">
+        <v>1637</v>
+      </c>
+      <c r="L560" t="s">
+        <v>1548</v>
+      </c>
+      <c r="M560" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="561" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A561" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B561" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D561" t="s">
+        <v>27</v>
+      </c>
+      <c r="E561" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="G561" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="J561" t="s">
+        <v>1595</v>
+      </c>
+      <c r="K561" t="s">
+        <v>1638</v>
+      </c>
+      <c r="L561" t="s">
+        <v>1549</v>
+      </c>
+      <c r="M561" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="562" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A562" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B562" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C562" s="1"/>
+      <c r="D562" t="s">
+        <v>27</v>
+      </c>
+      <c r="E562" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J562" t="s">
+        <v>1596</v>
+      </c>
+      <c r="K562" t="s">
+        <v>1639</v>
+      </c>
+      <c r="L562" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M562" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="563" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A563" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B563" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D563" t="s">
+        <v>27</v>
+      </c>
+      <c r="G563" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="J563" t="s">
+        <v>1597</v>
+      </c>
+      <c r="K563" t="s">
+        <v>1640</v>
+      </c>
+      <c r="L563" t="s">
+        <v>1551</v>
+      </c>
+      <c r="M563" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="564" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A564" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B564" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C564" s="1"/>
+      <c r="D564" t="s">
+        <v>27</v>
+      </c>
+      <c r="E564" s="1" t="s">
         <v>1497</v>
       </c>
-      <c r="F519" s="1" t="s">
+      <c r="F564" s="1" t="s">
         <v>1437</v>
       </c>
-      <c r="J519" t="s">
+      <c r="J564" t="s">
         <v>1598</v>
       </c>
-      <c r="K519" t="s">
+      <c r="K564" t="s">
         <v>1641</v>
       </c>
-      <c r="L519" t="s">
+      <c r="L564" t="s">
         <v>1552</v>
       </c>
-      <c r="M519" t="s">
+      <c r="M564" t="s">
         <v>1510</v>
       </c>
     </row>

--- a/dictionary/Vocab.xlsx
+++ b/dictionary/Vocab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_Trae\TibetanNote\dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DDAA97-7141-4622-A54E-21E998E4EA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EB590D-43ED-44FD-BF73-DEBD1288A5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4065" uniqueCount="2687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4109" uniqueCount="2687">
   <si>
     <t>word</t>
   </si>
@@ -8429,10 +8429,10 @@
   <dimension ref="A1:R564"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D445" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C487" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H491" sqref="H491"/>
+      <selection pane="bottomRight" activeCell="D447" sqref="D447:D491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.55000000000000004"/>
@@ -19037,6 +19037,9 @@
       <c r="B447" t="s">
         <v>2475</v>
       </c>
+      <c r="D447" t="s">
+        <v>40</v>
+      </c>
       <c r="J447" t="s">
         <v>2653</v>
       </c>
@@ -19057,6 +19060,9 @@
       <c r="B448" t="s">
         <v>2475</v>
       </c>
+      <c r="D448" t="s">
+        <v>40</v>
+      </c>
       <c r="J448" t="s">
         <v>2654</v>
       </c>
@@ -19077,6 +19083,9 @@
       <c r="B449" t="s">
         <v>2475</v>
       </c>
+      <c r="D449" t="s">
+        <v>40</v>
+      </c>
       <c r="J449" t="s">
         <v>2655</v>
       </c>
@@ -19097,6 +19106,9 @@
       <c r="B450" t="s">
         <v>2475</v>
       </c>
+      <c r="D450" t="s">
+        <v>40</v>
+      </c>
       <c r="J450" t="s">
         <v>2618</v>
       </c>
@@ -19117,6 +19129,9 @@
       <c r="B451" t="s">
         <v>2475</v>
       </c>
+      <c r="D451" t="s">
+        <v>40</v>
+      </c>
       <c r="J451" t="s">
         <v>2656</v>
       </c>
@@ -19137,6 +19152,9 @@
       <c r="B452" t="s">
         <v>2475</v>
       </c>
+      <c r="D452" t="s">
+        <v>40</v>
+      </c>
       <c r="J452" t="s">
         <v>2657</v>
       </c>
@@ -19157,6 +19175,9 @@
       <c r="B453" t="s">
         <v>2475</v>
       </c>
+      <c r="D453" t="s">
+        <v>40</v>
+      </c>
       <c r="E453" s="1" t="s">
         <v>2542</v>
       </c>
@@ -19180,6 +19201,9 @@
       <c r="B454" t="s">
         <v>2475</v>
       </c>
+      <c r="D454" t="s">
+        <v>40</v>
+      </c>
       <c r="E454" s="1" t="s">
         <v>2543</v>
       </c>
@@ -19203,6 +19227,9 @@
       <c r="B455" t="s">
         <v>2475</v>
       </c>
+      <c r="D455" t="s">
+        <v>40</v>
+      </c>
       <c r="J455" t="s">
         <v>2659</v>
       </c>
@@ -19223,6 +19250,9 @@
       <c r="B456" t="s">
         <v>2475</v>
       </c>
+      <c r="D456" t="s">
+        <v>40</v>
+      </c>
       <c r="J456" t="s">
         <v>2660</v>
       </c>
@@ -19243,6 +19273,9 @@
       <c r="B457" t="s">
         <v>2475</v>
       </c>
+      <c r="D457" t="s">
+        <v>40</v>
+      </c>
       <c r="J457" t="s">
         <v>2624</v>
       </c>
@@ -19263,6 +19296,9 @@
       <c r="B458" t="s">
         <v>2475</v>
       </c>
+      <c r="D458" t="s">
+        <v>40</v>
+      </c>
       <c r="J458" t="s">
         <v>2625</v>
       </c>
@@ -19283,6 +19319,9 @@
       <c r="B459" t="s">
         <v>2475</v>
       </c>
+      <c r="D459" t="s">
+        <v>40</v>
+      </c>
       <c r="J459" t="s">
         <v>2661</v>
       </c>
@@ -19303,6 +19342,9 @@
       <c r="B460" t="s">
         <v>2475</v>
       </c>
+      <c r="D460" t="s">
+        <v>40</v>
+      </c>
       <c r="J460" t="s">
         <v>2661</v>
       </c>
@@ -19323,6 +19365,9 @@
       <c r="B461" t="s">
         <v>2475</v>
       </c>
+      <c r="D461" t="s">
+        <v>40</v>
+      </c>
       <c r="J461" t="s">
         <v>2662</v>
       </c>
@@ -19343,6 +19388,9 @@
       <c r="B462" t="s">
         <v>2475</v>
       </c>
+      <c r="D462" t="s">
+        <v>40</v>
+      </c>
       <c r="E462" s="1" t="s">
         <v>2544</v>
       </c>
@@ -19366,6 +19414,9 @@
       <c r="B463" t="s">
         <v>2475</v>
       </c>
+      <c r="D463" t="s">
+        <v>40</v>
+      </c>
       <c r="E463" s="1" t="s">
         <v>2545</v>
       </c>
@@ -19389,6 +19440,9 @@
       <c r="B464" t="s">
         <v>2475</v>
       </c>
+      <c r="D464" t="s">
+        <v>40</v>
+      </c>
       <c r="E464" s="1" t="s">
         <v>2546</v>
       </c>
@@ -19412,6 +19466,9 @@
       <c r="B465" t="s">
         <v>2475</v>
       </c>
+      <c r="D465" t="s">
+        <v>90</v>
+      </c>
       <c r="J465" t="s">
         <v>2671</v>
       </c>
@@ -19432,6 +19489,9 @@
       <c r="B466" t="s">
         <v>2475</v>
       </c>
+      <c r="D466" t="s">
+        <v>90</v>
+      </c>
       <c r="E466" s="1" t="s">
         <v>2547</v>
       </c>
@@ -19455,6 +19515,9 @@
       <c r="B467" t="s">
         <v>2475</v>
       </c>
+      <c r="D467" t="s">
+        <v>90</v>
+      </c>
       <c r="E467" s="1" t="s">
         <v>2548</v>
       </c>
@@ -19478,6 +19541,9 @@
       <c r="B468" t="s">
         <v>2475</v>
       </c>
+      <c r="D468" t="s">
+        <v>90</v>
+      </c>
       <c r="J468" t="s">
         <v>2674</v>
       </c>
@@ -19498,6 +19564,9 @@
       <c r="B469" t="s">
         <v>2475</v>
       </c>
+      <c r="D469" t="s">
+        <v>90</v>
+      </c>
       <c r="E469" s="1" t="s">
         <v>2549</v>
       </c>
@@ -19521,6 +19590,9 @@
       <c r="B470" t="s">
         <v>2475</v>
       </c>
+      <c r="D470" t="s">
+        <v>91</v>
+      </c>
       <c r="E470" s="1" t="s">
         <v>2550</v>
       </c>
@@ -19544,6 +19616,9 @@
       <c r="B471" t="s">
         <v>2475</v>
       </c>
+      <c r="D471" t="s">
+        <v>91</v>
+      </c>
       <c r="E471" s="1" t="s">
         <v>2551</v>
       </c>
@@ -19567,6 +19642,9 @@
       <c r="B472" t="s">
         <v>2475</v>
       </c>
+      <c r="D472" t="s">
+        <v>27</v>
+      </c>
       <c r="J472" t="s">
         <v>2677</v>
       </c>
@@ -19587,6 +19665,9 @@
       <c r="B473" t="s">
         <v>2475</v>
       </c>
+      <c r="D473" t="s">
+        <v>27</v>
+      </c>
       <c r="E473" s="1" t="s">
         <v>2570</v>
       </c>
@@ -19610,6 +19691,9 @@
       <c r="B474" t="s">
         <v>2475</v>
       </c>
+      <c r="D474" t="s">
+        <v>27</v>
+      </c>
       <c r="E474" s="1" t="s">
         <v>2569</v>
       </c>
@@ -19633,6 +19717,9 @@
       <c r="B475" t="s">
         <v>2475</v>
       </c>
+      <c r="D475" t="s">
+        <v>27</v>
+      </c>
       <c r="G475" s="1" t="s">
         <v>2502</v>
       </c>
@@ -19656,6 +19743,9 @@
       <c r="B476" t="s">
         <v>2475</v>
       </c>
+      <c r="D476" t="s">
+        <v>27</v>
+      </c>
       <c r="E476" s="1" t="s">
         <v>2571</v>
       </c>
@@ -19682,6 +19772,9 @@
       <c r="B477" t="s">
         <v>2475</v>
       </c>
+      <c r="D477" t="s">
+        <v>27</v>
+      </c>
       <c r="E477" s="1" t="s">
         <v>2572</v>
       </c>
@@ -19708,6 +19801,9 @@
       <c r="B478" t="s">
         <v>2475</v>
       </c>
+      <c r="D478" t="s">
+        <v>27</v>
+      </c>
       <c r="E478" s="1" t="s">
         <v>2573</v>
       </c>
@@ -19734,6 +19830,9 @@
       <c r="B479" t="s">
         <v>2475</v>
       </c>
+      <c r="D479" t="s">
+        <v>27</v>
+      </c>
       <c r="E479" s="1" t="s">
         <v>2574</v>
       </c>
@@ -19783,6 +19882,9 @@
       <c r="B481" t="s">
         <v>2475</v>
       </c>
+      <c r="D481" t="s">
+        <v>2145</v>
+      </c>
       <c r="J481" t="s">
         <v>2680</v>
       </c>
@@ -19803,6 +19905,9 @@
       <c r="B482" t="s">
         <v>2475</v>
       </c>
+      <c r="D482" t="s">
+        <v>2145</v>
+      </c>
       <c r="J482" t="s">
         <v>2681</v>
       </c>
@@ -19823,6 +19928,9 @@
       <c r="B483" t="s">
         <v>2475</v>
       </c>
+      <c r="D483" t="s">
+        <v>2145</v>
+      </c>
       <c r="E483" s="1" t="s">
         <v>2575</v>
       </c>
@@ -19849,6 +19957,9 @@
       <c r="B484" t="s">
         <v>2475</v>
       </c>
+      <c r="D484" t="s">
+        <v>2145</v>
+      </c>
       <c r="E484" s="1" t="s">
         <v>2576</v>
       </c>
@@ -19875,6 +19986,9 @@
       <c r="B485" t="s">
         <v>2475</v>
       </c>
+      <c r="D485" t="s">
+        <v>2145</v>
+      </c>
       <c r="E485" s="1" t="s">
         <v>2577</v>
       </c>
@@ -19901,6 +20015,9 @@
       <c r="B486" t="s">
         <v>2475</v>
       </c>
+      <c r="D486" t="s">
+        <v>2145</v>
+      </c>
       <c r="E486" s="1" t="s">
         <v>2578</v>
       </c>
@@ -19927,6 +20044,9 @@
       <c r="B487" t="s">
         <v>2475</v>
       </c>
+      <c r="D487" t="s">
+        <v>2145</v>
+      </c>
       <c r="E487" s="1" t="s">
         <v>2579</v>
       </c>
@@ -19953,6 +20073,9 @@
       <c r="B488" t="s">
         <v>2475</v>
       </c>
+      <c r="D488" t="s">
+        <v>27</v>
+      </c>
       <c r="J488" t="s">
         <v>2684</v>
       </c>
@@ -19973,6 +20096,9 @@
       <c r="B489" t="s">
         <v>2475</v>
       </c>
+      <c r="D489" t="s">
+        <v>27</v>
+      </c>
       <c r="J489" t="s">
         <v>2685</v>
       </c>
@@ -19993,6 +20119,9 @@
       <c r="B490" t="s">
         <v>2475</v>
       </c>
+      <c r="D490" t="s">
+        <v>2471</v>
+      </c>
       <c r="J490" t="s">
         <v>450</v>
       </c>
@@ -20012,6 +20141,9 @@
       </c>
       <c r="B491" t="s">
         <v>2475</v>
+      </c>
+      <c r="D491" t="s">
+        <v>2052</v>
       </c>
       <c r="J491" t="s">
         <v>2686</v>

--- a/dictionary/Vocab.xlsx
+++ b/dictionary/Vocab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_Trae\TibetanNote\dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EB590D-43ED-44FD-BF73-DEBD1288A5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A1BBC1-82EF-4F65-BC8D-DD4A526AD7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4109" uniqueCount="2687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4449" uniqueCount="2900">
   <si>
     <t>word</t>
   </si>
@@ -8097,6 +8097,645 @@
   </si>
   <si>
     <t>据说</t>
+  </si>
+  <si>
+    <t>V02-L01</t>
+  </si>
+  <si>
+    <t>ང་རང་།</t>
+  </si>
+  <si>
+    <t>ཁོ་རང་།</t>
+  </si>
+  <si>
+    <t>མོ་རང་།</t>
+  </si>
+  <si>
+    <t>རོགས་པ།</t>
+  </si>
+  <si>
+    <t>འཆར་གཞི།</t>
+  </si>
+  <si>
+    <t>མ་འོངས་པ།</t>
+  </si>
+  <si>
+    <t>བདུན་ཕྲ</t>
+  </si>
+  <si>
+    <t>མཚན།</t>
+  </si>
+  <si>
+    <t>མི་ཚེ།</t>
+  </si>
+  <si>
+    <t>གླིང་ག</t>
+  </si>
+  <si>
+    <t>བོད་ཟས།</t>
+  </si>
+  <si>
+    <t>ཚགས་ཤ</t>
+  </si>
+  <si>
+    <t>ངོ་ཤེས་པ།</t>
+  </si>
+  <si>
+    <t>སྣ་མིན་སྣ་ཚོགས།</t>
+  </si>
+  <si>
+    <t>སྣ་ཚོགས།</t>
+  </si>
+  <si>
+    <t>འདྲ་མི་འདྲ།</t>
+  </si>
+  <si>
+    <t>གང་མང་མང་།</t>
+  </si>
+  <si>
+    <t>གཅིག་པོ།</t>
+  </si>
+  <si>
+    <t>ལས་སླ་པོ།</t>
+  </si>
+  <si>
+    <t>སྟབས་བདེ་པོ།</t>
+  </si>
+  <si>
+    <t>རྩ་ཆེན་པོ།</t>
+  </si>
+  <si>
+    <t>གལ་ཆེན་པོ།</t>
+  </si>
+  <si>
+    <t>བསྡུ་གསོག་བརྒྱབ་པ།</t>
+  </si>
+  <si>
+    <t>ཕོར་པ་འཁྲུ་བ།</t>
+  </si>
+  <si>
+    <t>འཆམ་འཆམ་ལ་འགྲོ་བ།</t>
+  </si>
+  <si>
+    <t>སླེབས་པ།</t>
+  </si>
+  <si>
+    <t>ཆགས་པ།</t>
+  </si>
+  <si>
+    <t>གླིང་ག་བཏང་བ།</t>
+  </si>
+  <si>
+    <t>གུང་གསེང་བཏང་བ།</t>
+  </si>
+  <si>
+    <t>ཐུབ་པ།</t>
+  </si>
+  <si>
+    <t>མུ་མཐུད་ནས།</t>
+  </si>
+  <si>
+    <t>རིང་ལ།</t>
+  </si>
+  <si>
+    <t>རྗེས་མ།</t>
+  </si>
+  <si>
+    <t>གཞུག་མ།</t>
+  </si>
+  <si>
+    <t>རྗེས་ལ།</t>
+  </si>
+  <si>
+    <t>གཞུག་ལ།</t>
+  </si>
+  <si>
+    <t>གཞུག་གུར།</t>
+  </si>
+  <si>
+    <t>གནངས་ཉིན་ཀ</t>
+  </si>
+  <si>
+    <t>དུས་སང་།</t>
+  </si>
+  <si>
+    <t>ལོ་རྗེས་མ།</t>
+  </si>
+  <si>
+    <t>དོ་དགོང་།</t>
+  </si>
+  <si>
+    <t>ཉིན་ལྟར་རེ་བཞིན།</t>
+  </si>
+  <si>
+    <t>ལོ་ལྟར་རེ་བཞིན།</t>
+  </si>
+  <si>
+    <t>ག་རེ་བྱས་ནས།</t>
+  </si>
+  <si>
+    <t>བྱས།</t>
+  </si>
+  <si>
+    <t>ཡང་ན།</t>
+  </si>
+  <si>
+    <t>ཡང་མིན་ན།</t>
+  </si>
+  <si>
+    <t>དེ་མིན།</t>
+  </si>
+  <si>
+    <t>ལབ་ཡག་ལ།</t>
+  </si>
+  <si>
+    <t>tu ; toi ; soi-même</t>
+  </si>
+  <si>
+    <t>moi-même ; moi</t>
+  </si>
+  <si>
+    <t>il ; elle</t>
+  </si>
+  <si>
+    <t>elle ; il</t>
+  </si>
+  <si>
+    <t>ami ; amie</t>
+  </si>
+  <si>
+    <t>projet</t>
+  </si>
+  <si>
+    <t>futur ; avenir</t>
+  </si>
+  <si>
+    <t>vie ; existence (humaine)</t>
+  </si>
+  <si>
+    <t>parc ; jardin</t>
+  </si>
+  <si>
+    <t>nourriture tibétainne ; plat tibétain</t>
+  </si>
+  <si>
+    <t>viande de yak</t>
+  </si>
+  <si>
+    <t>une connaisance ; une personne qu'on connaît</t>
+  </si>
+  <si>
+    <t>toutes sortes de ; divers</t>
+  </si>
+  <si>
+    <t>toutes sortes de ; divers ; tout et n'import quoi</t>
+  </si>
+  <si>
+    <t>autant que possible</t>
+  </si>
+  <si>
+    <t>seul</t>
+  </si>
+  <si>
+    <t>facile</t>
+  </si>
+  <si>
+    <t>simple ; pratique ; facile d'usage</t>
+  </si>
+  <si>
+    <t>précieux</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>ranger ; faire ses valises</t>
+  </si>
+  <si>
+    <t>faire la vaisselle</t>
+  </si>
+  <si>
+    <t>se promener</t>
+  </si>
+  <si>
+    <t>connaître qqn ; reconnaître qqn</t>
+  </si>
+  <si>
+    <t>arriver</t>
+  </si>
+  <si>
+    <t>devenir</t>
+  </si>
+  <si>
+    <t>pique-niquer</t>
+  </si>
+  <si>
+    <t>passer des vacances</t>
+  </si>
+  <si>
+    <t>pouvoir + V</t>
+  </si>
+  <si>
+    <t>continuer de + V</t>
+  </si>
+  <si>
+    <t>pendant</t>
+  </si>
+  <si>
+    <t>prochain ; suivant</t>
+  </si>
+  <si>
+    <t>après ; par la suite ; dans ; au bout de</t>
+  </si>
+  <si>
+    <t>l'an prochain</t>
+  </si>
+  <si>
+    <t>ce soir</t>
+  </si>
+  <si>
+    <t>tous les jours</t>
+  </si>
+  <si>
+    <t>tous les ans</t>
+  </si>
+  <si>
+    <t>et (dans une énumération) ; adverbialisateur (après un adjectif)</t>
+  </si>
+  <si>
+    <t>ou bien</t>
+  </si>
+  <si>
+    <t>sinon ; à part ça ; aussi</t>
+  </si>
+  <si>
+    <t>d'après</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>myself; me</t>
+  </si>
+  <si>
+    <t>he; she</t>
+  </si>
+  <si>
+    <t>she; he</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>park; garden</t>
+  </si>
+  <si>
+    <t>Tibetan food; Tibetan dish</t>
+  </si>
+  <si>
+    <t>yak meat</t>
+  </si>
+  <si>
+    <t>all kinds of; diverse</t>
+  </si>
+  <si>
+    <t>all kinds of; diverse; anything and everything</t>
+  </si>
+  <si>
+    <t>as much as possible</t>
+  </si>
+  <si>
+    <t>alone</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>precious</t>
+  </si>
+  <si>
+    <t>arrive</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>continue to + V</t>
+  </si>
+  <si>
+    <t>during</t>
+  </si>
+  <si>
+    <t>after; thereafter; in; after</t>
+  </si>
+  <si>
+    <t>next year</t>
+  </si>
+  <si>
+    <t>every year</t>
+  </si>
+  <si>
+    <t>and (in an enumeration); adverbializer (after an adjective)</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>otherwise; apart from that; also</t>
+  </si>
+  <si>
+    <t>according to</t>
+  </si>
+  <si>
+    <t>you; oneself</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>life; (human) existence</t>
+  </si>
+  <si>
+    <t>an acquaintance</t>
+  </si>
+  <si>
+    <t>simple; practice; easy to use</t>
+  </si>
+  <si>
+    <t>arrange; pack</t>
+  </si>
+  <si>
+    <t>wash dishes</t>
+  </si>
+  <si>
+    <t>go for a stroll</t>
+  </si>
+  <si>
+    <t>know someone; recognize someone</t>
+  </si>
+  <si>
+    <t>picnic</t>
+  </si>
+  <si>
+    <t>go for a holiday</t>
+  </si>
+  <si>
+    <t>can + V</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>tonight</t>
+  </si>
+  <si>
+    <t>every day</t>
+  </si>
+  <si>
+    <t>未来</t>
+  </si>
+  <si>
+    <t>ヤク肉</t>
+  </si>
+  <si>
+    <t>知人</t>
+  </si>
+  <si>
+    <t>できるだけ</t>
+  </si>
+  <si>
+    <t>一人</t>
+  </si>
+  <si>
+    <t>易しい</t>
+  </si>
+  <si>
+    <t>大事な</t>
+  </si>
+  <si>
+    <t>皿を洗う</t>
+  </si>
+  <si>
+    <t>成る</t>
+  </si>
+  <si>
+    <t>次に</t>
+  </si>
+  <si>
+    <t>来年</t>
+  </si>
+  <si>
+    <t>毎日</t>
+  </si>
+  <si>
+    <t>毎年</t>
+  </si>
+  <si>
+    <t>又は</t>
+  </si>
+  <si>
+    <t>聞いたところでは</t>
+  </si>
+  <si>
+    <t>あなた、自分自身</t>
+  </si>
+  <si>
+    <t>私、自分</t>
+  </si>
+  <si>
+    <t>彼女、彼</t>
+  </si>
+  <si>
+    <t>友達</t>
+  </si>
+  <si>
+    <t>計画</t>
+  </si>
+  <si>
+    <t>生命、(人間の)存在</t>
+  </si>
+  <si>
+    <t>公園、庭</t>
+  </si>
+  <si>
+    <t>チベット料理</t>
+  </si>
+  <si>
+    <t>各種類の、多様な</t>
+  </si>
+  <si>
+    <t>あらゆる種類の、多様な、何でも</t>
+  </si>
+  <si>
+    <t>簡単な、使いやすい</t>
+  </si>
+  <si>
+    <t>貴重な</t>
+  </si>
+  <si>
+    <t>整える、片付ける</t>
+  </si>
+  <si>
+    <t>散歩する</t>
+  </si>
+  <si>
+    <t>人を知っている</t>
+  </si>
+  <si>
+    <t>着く、到着する</t>
+  </si>
+  <si>
+    <t>ピクニックする</t>
+  </si>
+  <si>
+    <t>休みを過ごす</t>
+  </si>
+  <si>
+    <t>できる</t>
+  </si>
+  <si>
+    <t>続けてV</t>
+  </si>
+  <si>
+    <t>～中</t>
+  </si>
+  <si>
+    <t>後、以後</t>
+  </si>
+  <si>
+    <t>今夜</t>
+  </si>
+  <si>
+    <t>なぜ</t>
+  </si>
+  <si>
+    <t>そして(列挙)、副詞化(形容詞の後)</t>
+  </si>
+  <si>
+    <t>然も無くば、それはさておき、また</t>
+  </si>
+  <si>
+    <t>朋友</t>
+  </si>
+  <si>
+    <t>周</t>
+  </si>
+  <si>
+    <t>牦牛肉</t>
+  </si>
+  <si>
+    <t>熟人</t>
+  </si>
+  <si>
+    <t>独自</t>
+  </si>
+  <si>
+    <t>容易</t>
+  </si>
+  <si>
+    <t>珍贵</t>
+  </si>
+  <si>
+    <t>重要</t>
+  </si>
+  <si>
+    <t>洗碗</t>
+  </si>
+  <si>
+    <t>到达</t>
+  </si>
+  <si>
+    <t>成为</t>
+  </si>
+  <si>
+    <t>野餐</t>
+  </si>
+  <si>
+    <t>去度假</t>
+  </si>
+  <si>
+    <t>继续 + V</t>
+  </si>
+  <si>
+    <t>下一个</t>
+  </si>
+  <si>
+    <t>明年</t>
+  </si>
+  <si>
+    <t>今晚</t>
+  </si>
+  <si>
+    <t>每天</t>
+  </si>
+  <si>
+    <t>每年</t>
+  </si>
+  <si>
+    <t>和（在枚举中）;状语词（形容词之后）</t>
+  </si>
+  <si>
+    <t>或</t>
+  </si>
+  <si>
+    <t>根据</t>
+  </si>
+  <si>
+    <t>你；自己</t>
+  </si>
+  <si>
+    <t>我自己；我</t>
+  </si>
+  <si>
+    <t>他；她</t>
+  </si>
+  <si>
+    <t>她；他</t>
+  </si>
+  <si>
+    <t>计划</t>
+  </si>
+  <si>
+    <t>生命；（人类）存在</t>
+  </si>
+  <si>
+    <t>公园；花园</t>
+  </si>
+  <si>
+    <t>藏菜</t>
+  </si>
+  <si>
+    <t>各种；不同</t>
+  </si>
+  <si>
+    <t>各种；不同；任何事物</t>
+  </si>
+  <si>
+    <t>尽量</t>
+  </si>
+  <si>
+    <t>简单；易于使用</t>
+  </si>
+  <si>
+    <t>安排；整理行李</t>
+  </si>
+  <si>
+    <t>散步</t>
+  </si>
+  <si>
+    <t>认识某人；认出某人</t>
+  </si>
+  <si>
+    <t>能</t>
+  </si>
+  <si>
+    <t>……时</t>
+  </si>
+  <si>
+    <t>后；以后</t>
+  </si>
+  <si>
+    <t>否则；除此之外；也</t>
   </si>
 </sst>
 </file>
@@ -8426,13 +9065,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R564"/>
+  <dimension ref="A1:R617"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C487" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H534" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D447" sqref="D447:D491"/>
+      <selection pane="bottomRight" activeCell="J541" sqref="J541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.55000000000000004"/>
@@ -20160,1765 +20799,2891 @@
     </row>
     <row r="492" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" s="1" t="s">
-        <v>39</v>
+        <v>1205</v>
       </c>
       <c r="B492" t="s">
-        <v>190</v>
-      </c>
-      <c r="D492" t="s">
-        <v>40</v>
-      </c>
-      <c r="E492" s="1" t="s">
-        <v>41</v>
+        <v>2687</v>
       </c>
       <c r="J492" t="s">
-        <v>42</v>
+        <v>2881</v>
       </c>
       <c r="K492" t="s">
-        <v>43</v>
+        <v>2833</v>
       </c>
       <c r="L492" t="s">
-        <v>57</v>
+        <v>2803</v>
       </c>
       <c r="M492" t="s">
-        <v>53</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="493" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" s="1" t="s">
-        <v>47</v>
+        <v>2688</v>
       </c>
       <c r="B493" t="s">
-        <v>190</v>
-      </c>
-      <c r="D493" t="s">
-        <v>40</v>
-      </c>
-      <c r="E493" s="1" t="s">
-        <v>66</v>
+        <v>2687</v>
       </c>
       <c r="J493" t="s">
-        <v>62</v>
+        <v>2882</v>
       </c>
       <c r="K493" t="s">
-        <v>126</v>
+        <v>2834</v>
       </c>
       <c r="L493" t="s">
-        <v>142</v>
+        <v>2779</v>
       </c>
       <c r="M493" t="s">
-        <v>52</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="494" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" s="1" t="s">
-        <v>48</v>
+        <v>2689</v>
       </c>
       <c r="B494" t="s">
-        <v>190</v>
-      </c>
-      <c r="D494" t="s">
-        <v>40</v>
+        <v>2687</v>
+      </c>
+      <c r="J494" t="s">
+        <v>2883</v>
+      </c>
+      <c r="K494" t="s">
+        <v>171</v>
+      </c>
+      <c r="L494" t="s">
+        <v>2780</v>
       </c>
       <c r="M494" t="s">
-        <v>58</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="495" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" s="1" t="s">
-        <v>49</v>
+        <v>2690</v>
       </c>
       <c r="B495" t="s">
-        <v>190</v>
-      </c>
-      <c r="D495" t="s">
-        <v>40</v>
-      </c>
-      <c r="E495" s="1" t="s">
-        <v>67</v>
+        <v>2687</v>
       </c>
       <c r="J495" t="s">
-        <v>63</v>
+        <v>2884</v>
       </c>
       <c r="K495" t="s">
-        <v>127</v>
+        <v>2835</v>
+      </c>
+      <c r="L495" t="s">
+        <v>2781</v>
       </c>
       <c r="M495" t="s">
-        <v>59</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="496" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" s="1" t="s">
-        <v>50</v>
+        <v>2691</v>
       </c>
       <c r="B496" t="s">
-        <v>190</v>
-      </c>
-      <c r="D496" t="s">
-        <v>40</v>
-      </c>
-      <c r="E496" s="1" t="s">
-        <v>68</v>
+        <v>2687</v>
       </c>
       <c r="J496" t="s">
-        <v>64</v>
+        <v>2859</v>
       </c>
       <c r="K496" t="s">
-        <v>128</v>
+        <v>2836</v>
       </c>
       <c r="L496" t="s">
-        <v>143</v>
+        <v>2804</v>
       </c>
       <c r="M496" t="s">
-        <v>60</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="497" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" s="1" t="s">
-        <v>51</v>
+        <v>2692</v>
       </c>
       <c r="B497" t="s">
-        <v>190</v>
-      </c>
-      <c r="D497" t="s">
-        <v>40</v>
+        <v>2687</v>
+      </c>
+      <c r="E497" s="1" t="s">
+        <v>2692</v>
       </c>
       <c r="J497" t="s">
-        <v>65</v>
+        <v>2885</v>
       </c>
       <c r="K497" t="s">
-        <v>129</v>
+        <v>2837</v>
       </c>
       <c r="L497" t="s">
-        <v>144</v>
+        <v>2782</v>
       </c>
       <c r="M497" t="s">
-        <v>61</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="498" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A498" s="1" t="s">
-        <v>69</v>
+        <v>2693</v>
       </c>
       <c r="B498" t="s">
-        <v>190</v>
-      </c>
-      <c r="D498" t="s">
-        <v>40</v>
+        <v>2687</v>
+      </c>
+      <c r="E498" s="1" t="s">
+        <v>2693</v>
       </c>
       <c r="J498" t="s">
-        <v>108</v>
+        <v>2818</v>
       </c>
       <c r="K498" t="s">
-        <v>130</v>
+        <v>2818</v>
       </c>
       <c r="L498" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M498" t="s">
-        <v>109</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="499" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" s="1" t="s">
-        <v>70</v>
+        <v>2694</v>
       </c>
       <c r="B499" t="s">
-        <v>190</v>
-      </c>
-      <c r="D499" t="s">
-        <v>40</v>
+        <v>2687</v>
+      </c>
+      <c r="E499" s="1" t="s">
+        <v>2694</v>
       </c>
       <c r="J499" t="s">
-        <v>93</v>
+        <v>2860</v>
       </c>
       <c r="K499" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="L499" t="s">
-        <v>146</v>
+        <v>57</v>
       </c>
       <c r="M499" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
     </row>
     <row r="500" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A500" s="1" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="B500" t="s">
-        <v>190</v>
-      </c>
-      <c r="D500" t="s">
-        <v>40</v>
+        <v>2687</v>
+      </c>
+      <c r="E500" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="J500" t="s">
-        <v>94</v>
+        <v>2860</v>
       </c>
       <c r="K500" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="L500" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="M500" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
     </row>
     <row r="501" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" s="1" t="s">
-        <v>72</v>
+        <v>2695</v>
       </c>
       <c r="B501" t="s">
-        <v>190</v>
-      </c>
-      <c r="D501" t="s">
-        <v>89</v>
+        <v>2687</v>
       </c>
       <c r="J501" t="s">
-        <v>95</v>
+        <v>2656</v>
       </c>
       <c r="K501" t="s">
-        <v>132</v>
+        <v>2213</v>
       </c>
       <c r="L501" t="s">
-        <v>148</v>
+        <v>2583</v>
       </c>
       <c r="M501" t="s">
-        <v>112</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="502" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" s="1" t="s">
-        <v>73</v>
+        <v>2480</v>
       </c>
       <c r="B502" t="s">
-        <v>190</v>
-      </c>
-      <c r="D502" t="s">
-        <v>90</v>
-      </c>
-      <c r="E502" s="1" t="s">
-        <v>92</v>
+        <v>2687</v>
       </c>
       <c r="J502" t="s">
-        <v>96</v>
+        <v>2656</v>
       </c>
       <c r="K502" t="s">
-        <v>133</v>
+        <v>2213</v>
       </c>
       <c r="L502" t="s">
-        <v>149</v>
+        <v>2583</v>
       </c>
       <c r="M502" t="s">
-        <v>113</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="503" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" s="1" t="s">
-        <v>74</v>
+        <v>2696</v>
       </c>
       <c r="B503" t="s">
-        <v>190</v>
-      </c>
-      <c r="D503" t="s">
-        <v>90</v>
+        <v>2687</v>
+      </c>
+      <c r="E503" s="1" t="s">
+        <v>2696</v>
       </c>
       <c r="J503" t="s">
-        <v>97</v>
+        <v>2886</v>
       </c>
       <c r="K503" t="s">
-        <v>135</v>
+        <v>2838</v>
       </c>
       <c r="L503" t="s">
-        <v>150</v>
+        <v>2805</v>
       </c>
       <c r="M503" t="s">
-        <v>114</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="504" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" s="1" t="s">
-        <v>75</v>
+        <v>2697</v>
       </c>
       <c r="B504" t="s">
-        <v>190</v>
-      </c>
-      <c r="D504" t="s">
-        <v>90</v>
+        <v>2687</v>
       </c>
       <c r="J504" t="s">
-        <v>98</v>
+        <v>2887</v>
       </c>
       <c r="K504" t="s">
-        <v>134</v>
+        <v>2839</v>
       </c>
       <c r="L504" t="s">
-        <v>151</v>
+        <v>2783</v>
       </c>
       <c r="M504" t="s">
-        <v>115</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="505" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" s="1" t="s">
-        <v>76</v>
+        <v>2698</v>
       </c>
       <c r="B505" t="s">
-        <v>190</v>
-      </c>
-      <c r="D505" t="s">
-        <v>90</v>
+        <v>2687</v>
       </c>
       <c r="J505" t="s">
-        <v>99</v>
+        <v>2888</v>
       </c>
       <c r="K505" t="s">
-        <v>153</v>
+        <v>2840</v>
       </c>
       <c r="L505" t="s">
-        <v>152</v>
+        <v>2784</v>
       </c>
       <c r="M505" t="s">
-        <v>116</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="506" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A506" s="1" t="s">
-        <v>77</v>
+        <v>2699</v>
       </c>
       <c r="B506" t="s">
-        <v>190</v>
-      </c>
-      <c r="D506" t="s">
-        <v>91</v>
+        <v>2687</v>
       </c>
       <c r="J506" t="s">
-        <v>100</v>
+        <v>2861</v>
+      </c>
+      <c r="K506" t="s">
+        <v>2819</v>
       </c>
       <c r="L506" t="s">
-        <v>154</v>
+        <v>2785</v>
       </c>
       <c r="M506" t="s">
-        <v>117</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="507" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A507" s="1" t="s">
-        <v>78</v>
+        <v>2700</v>
       </c>
       <c r="B507" t="s">
-        <v>190</v>
-      </c>
-      <c r="D507" t="s">
-        <v>91</v>
+        <v>2687</v>
+      </c>
+      <c r="E507" s="1" t="s">
+        <v>2700</v>
       </c>
       <c r="J507" t="s">
-        <v>101</v>
+        <v>2862</v>
       </c>
       <c r="K507" t="s">
-        <v>136</v>
+        <v>2820</v>
       </c>
       <c r="L507" t="s">
-        <v>155</v>
+        <v>2806</v>
       </c>
       <c r="M507" t="s">
-        <v>118</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="508" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A508" s="1" t="s">
-        <v>79</v>
+        <v>2701</v>
       </c>
       <c r="B508" t="s">
-        <v>190</v>
-      </c>
-      <c r="D508" t="s">
-        <v>91</v>
+        <v>2687</v>
       </c>
       <c r="J508" t="s">
-        <v>101</v>
+        <v>2889</v>
       </c>
       <c r="K508" t="s">
-        <v>136</v>
+        <v>2841</v>
       </c>
       <c r="L508" t="s">
-        <v>155</v>
+        <v>2786</v>
       </c>
       <c r="M508" t="s">
-        <v>118</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="509" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A509" s="1" t="s">
-        <v>80</v>
+        <v>2702</v>
       </c>
       <c r="B509" t="s">
-        <v>190</v>
-      </c>
-      <c r="D509" t="s">
-        <v>91</v>
+        <v>2687</v>
       </c>
       <c r="J509" t="s">
-        <v>102</v>
+        <v>2889</v>
       </c>
       <c r="K509" t="s">
-        <v>137</v>
+        <v>2841</v>
       </c>
       <c r="L509" t="s">
-        <v>156</v>
+        <v>2786</v>
       </c>
       <c r="M509" t="s">
-        <v>119</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="510" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A510" s="1" t="s">
-        <v>81</v>
+        <v>2703</v>
       </c>
       <c r="B510" t="s">
-        <v>190</v>
-      </c>
-      <c r="D510" t="s">
-        <v>91</v>
+        <v>2687</v>
       </c>
       <c r="J510" t="s">
-        <v>102</v>
+        <v>2890</v>
       </c>
       <c r="K510" t="s">
-        <v>137</v>
+        <v>2842</v>
       </c>
       <c r="L510" t="s">
-        <v>156</v>
+        <v>2787</v>
       </c>
       <c r="M510" t="s">
-        <v>119</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="511" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A511" s="1" t="s">
-        <v>82</v>
+        <v>2704</v>
       </c>
       <c r="B511" t="s">
-        <v>190</v>
+        <v>2687</v>
+      </c>
+      <c r="E511" s="1" t="s">
+        <v>2704</v>
       </c>
       <c r="J511" t="s">
-        <v>103</v>
+        <v>2891</v>
+      </c>
+      <c r="K511" t="s">
+        <v>2821</v>
+      </c>
+      <c r="L511" t="s">
+        <v>2788</v>
       </c>
       <c r="M511" t="s">
-        <v>120</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="512" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A512" s="1" t="s">
-        <v>83</v>
+        <v>2705</v>
       </c>
       <c r="B512" t="s">
-        <v>190</v>
+        <v>2687</v>
       </c>
       <c r="J512" t="s">
-        <v>104</v>
+        <v>2863</v>
+      </c>
+      <c r="K512" t="s">
+        <v>2822</v>
+      </c>
+      <c r="L512" t="s">
+        <v>2789</v>
       </c>
       <c r="M512" t="s">
-        <v>121</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="513" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A513" s="1" t="s">
-        <v>84</v>
+        <v>2706</v>
       </c>
       <c r="B513" t="s">
-        <v>190</v>
-      </c>
-      <c r="D513" t="s">
-        <v>27</v>
+        <v>2687</v>
+      </c>
+      <c r="E513" s="1" t="s">
+        <v>2706</v>
       </c>
       <c r="J513" t="s">
-        <v>105</v>
+        <v>2864</v>
       </c>
       <c r="K513" t="s">
-        <v>138</v>
+        <v>2823</v>
       </c>
       <c r="L513" t="s">
-        <v>157</v>
+        <v>2790</v>
       </c>
       <c r="M513" t="s">
-        <v>122</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="514" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A514" s="1" t="s">
-        <v>85</v>
+        <v>2707</v>
       </c>
       <c r="B514" t="s">
-        <v>190</v>
-      </c>
-      <c r="D514" t="s">
-        <v>27</v>
+        <v>2687</v>
+      </c>
+      <c r="E514" s="1" t="s">
+        <v>2707</v>
       </c>
       <c r="J514" t="s">
-        <v>94</v>
+        <v>2892</v>
       </c>
       <c r="K514" t="s">
-        <v>139</v>
+        <v>2843</v>
       </c>
       <c r="L514" t="s">
-        <v>157</v>
+        <v>2807</v>
       </c>
       <c r="M514" t="s">
-        <v>123</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="515" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A515" s="1" t="s">
-        <v>86</v>
+        <v>2708</v>
       </c>
       <c r="B515" t="s">
-        <v>190</v>
-      </c>
-      <c r="D515" t="s">
-        <v>27</v>
+        <v>2687</v>
+      </c>
+      <c r="E515" s="1" t="s">
+        <v>2708</v>
       </c>
       <c r="J515" t="s">
-        <v>106</v>
+        <v>2865</v>
       </c>
       <c r="K515" t="s">
-        <v>140</v>
+        <v>2844</v>
       </c>
       <c r="L515" t="s">
-        <v>158</v>
+        <v>2791</v>
       </c>
       <c r="M515" t="s">
-        <v>124</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="516" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A516" s="1" t="s">
-        <v>87</v>
+        <v>2709</v>
       </c>
       <c r="B516" t="s">
-        <v>190</v>
-      </c>
-      <c r="D516" t="s">
-        <v>27</v>
-      </c>
-      <c r="F516" s="1" t="s">
-        <v>88</v>
+        <v>2687</v>
+      </c>
+      <c r="E516" s="1" t="s">
+        <v>2709</v>
       </c>
       <c r="J516" t="s">
-        <v>107</v>
+        <v>2866</v>
       </c>
       <c r="K516" t="s">
-        <v>141</v>
+        <v>2824</v>
       </c>
       <c r="L516" t="s">
-        <v>159</v>
+        <v>2756</v>
       </c>
       <c r="M516" t="s">
-        <v>125</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="517" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A517" s="1" t="s">
-        <v>1388</v>
+        <v>2710</v>
       </c>
       <c r="B517" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D517" t="s">
-        <v>40</v>
+        <v>2687</v>
+      </c>
+      <c r="E517" s="1" t="s">
+        <v>2710</v>
       </c>
       <c r="J517" t="s">
-        <v>1553</v>
+        <v>2893</v>
       </c>
       <c r="K517" t="s">
-        <v>1599</v>
+        <v>2845</v>
       </c>
       <c r="L517" t="s">
-        <v>1514</v>
+        <v>2808</v>
       </c>
       <c r="M517" t="s">
-        <v>1439</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="518" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A518" s="1" t="s">
-        <v>1400</v>
+        <v>2711</v>
       </c>
       <c r="B518" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D518" t="s">
-        <v>90</v>
+        <v>2687</v>
       </c>
       <c r="E518" s="1" t="s">
-        <v>1442</v>
+        <v>2711</v>
       </c>
       <c r="J518" t="s">
-        <v>1554</v>
+        <v>2867</v>
       </c>
       <c r="K518" t="s">
-        <v>1600</v>
+        <v>2825</v>
       </c>
       <c r="L518" t="s">
-        <v>1511</v>
+        <v>2809</v>
       </c>
       <c r="M518" t="s">
-        <v>1440</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="519" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A519" s="1" t="s">
-        <v>1389</v>
+        <v>2712</v>
       </c>
       <c r="B519" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D519" t="s">
-        <v>40</v>
-      </c>
-      <c r="E519"/>
+        <v>2687</v>
+      </c>
+      <c r="E519" s="1" t="s">
+        <v>2712</v>
+      </c>
       <c r="J519" t="s">
-        <v>1555</v>
+        <v>2894</v>
       </c>
       <c r="K519" t="s">
-        <v>1601</v>
+        <v>2846</v>
       </c>
       <c r="L519" t="s">
-        <v>1512</v>
+        <v>2810</v>
       </c>
       <c r="M519" t="s">
-        <v>1441</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="520" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A520" s="1" t="s">
-        <v>1390</v>
+        <v>2700</v>
       </c>
       <c r="B520" t="s">
-        <v>1387</v>
+        <v>2687</v>
       </c>
       <c r="D520" t="s">
-        <v>40</v>
-      </c>
-      <c r="E520"/>
+        <v>2145</v>
+      </c>
+      <c r="E520" s="1" t="s">
+        <v>2700</v>
+      </c>
       <c r="J520" t="s">
-        <v>1556</v>
+        <v>2895</v>
       </c>
       <c r="K520" t="s">
-        <v>1602</v>
+        <v>2847</v>
       </c>
       <c r="L520" t="s">
-        <v>1515</v>
+        <v>2811</v>
       </c>
       <c r="M520" t="s">
-        <v>1443</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="521" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A521" s="1" t="s">
-        <v>1391</v>
+        <v>2713</v>
       </c>
       <c r="B521" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D521" t="s">
-        <v>40</v>
-      </c>
-      <c r="E521" s="1" t="s">
-        <v>1444</v>
+        <v>2687</v>
       </c>
       <c r="J521" t="s">
-        <v>1557</v>
+        <v>2868</v>
       </c>
       <c r="K521" t="s">
-        <v>1603</v>
+        <v>2848</v>
       </c>
       <c r="L521" t="s">
-        <v>1513</v>
+        <v>2792</v>
       </c>
       <c r="M521" t="s">
-        <v>1445</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="522" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A522" s="1" t="s">
-        <v>1392</v>
+        <v>2714</v>
       </c>
       <c r="B522" t="s">
-        <v>1387</v>
+        <v>2687</v>
       </c>
       <c r="D522" t="s">
-        <v>40</v>
-      </c>
-      <c r="E522"/>
+        <v>2145</v>
+      </c>
       <c r="J522" t="s">
-        <v>1558</v>
+        <v>2869</v>
       </c>
       <c r="K522" t="s">
-        <v>1558</v>
+        <v>2826</v>
       </c>
       <c r="L522" t="s">
-        <v>1516</v>
+        <v>2793</v>
       </c>
       <c r="M522" t="s">
-        <v>1446</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="523" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A523" s="1" t="s">
-        <v>1393</v>
+        <v>2715</v>
       </c>
       <c r="B523" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D523" t="s">
-        <v>40</v>
-      </c>
-      <c r="E523"/>
+        <v>2687</v>
+      </c>
+      <c r="E523" s="1" t="s">
+        <v>2715</v>
+      </c>
+      <c r="G523" s="1" t="s">
+        <v>2511</v>
+      </c>
       <c r="J523" t="s">
-        <v>1559</v>
+        <v>2870</v>
       </c>
       <c r="K523" t="s">
-        <v>1604</v>
+        <v>2849</v>
       </c>
       <c r="L523" t="s">
-        <v>1517</v>
+        <v>2812</v>
       </c>
       <c r="M523" t="s">
-        <v>1447</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="524" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A524" s="1" t="s">
-        <v>1394</v>
+        <v>2716</v>
       </c>
       <c r="B524" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D524" t="s">
-        <v>40</v>
-      </c>
-      <c r="E524"/>
+        <v>2687</v>
+      </c>
+      <c r="E524" s="1" t="s">
+        <v>2716</v>
+      </c>
+      <c r="G524" s="1" t="s">
+        <v>2511</v>
+      </c>
       <c r="J524" t="s">
-        <v>1560</v>
+        <v>2871</v>
       </c>
       <c r="K524" t="s">
-        <v>1605</v>
+        <v>2850</v>
       </c>
       <c r="L524" t="s">
-        <v>1518</v>
+        <v>2813</v>
       </c>
       <c r="M524" t="s">
-        <v>1448</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="525" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A525" s="1" t="s">
-        <v>1395</v>
+        <v>2717</v>
       </c>
       <c r="B525" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D525" t="s">
-        <v>90</v>
-      </c>
-      <c r="E525" s="1" t="s">
-        <v>1450</v>
+        <v>2687</v>
       </c>
       <c r="J525" t="s">
-        <v>1561</v>
+        <v>2896</v>
       </c>
       <c r="K525" t="s">
-        <v>1606</v>
+        <v>2851</v>
       </c>
       <c r="L525" t="s">
-        <v>1519</v>
+        <v>2814</v>
       </c>
       <c r="M525" t="s">
-        <v>1449</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="526" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A526" s="1" t="s">
-        <v>1396</v>
+        <v>2718</v>
       </c>
       <c r="B526" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D526" t="s">
-        <v>90</v>
-      </c>
-      <c r="E526"/>
+        <v>2687</v>
+      </c>
       <c r="J526" t="s">
-        <v>1562</v>
+        <v>2872</v>
       </c>
       <c r="K526" t="s">
-        <v>1607</v>
+        <v>2852</v>
       </c>
       <c r="L526" t="s">
-        <v>1520</v>
+        <v>2794</v>
       </c>
       <c r="M526" t="s">
-        <v>1451</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="527" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A527" s="1" t="s">
-        <v>1397</v>
+        <v>2719</v>
       </c>
       <c r="B527" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D527" t="s">
-        <v>90</v>
-      </c>
-      <c r="E527"/>
+        <v>2687</v>
+      </c>
       <c r="J527" t="s">
-        <v>1563</v>
+        <v>2897</v>
       </c>
       <c r="K527" t="s">
-        <v>1608</v>
+        <v>2853</v>
       </c>
       <c r="L527" t="s">
-        <v>1521</v>
+        <v>2795</v>
       </c>
       <c r="M527" t="s">
-        <v>1452</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="528" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A528" s="1" t="s">
-        <v>1398</v>
+        <v>2720</v>
       </c>
       <c r="B528" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D528" t="s">
-        <v>90</v>
-      </c>
-      <c r="E528" s="1" t="s">
-        <v>1454</v>
+        <v>2687</v>
       </c>
       <c r="J528" t="s">
-        <v>1563</v>
+        <v>2873</v>
       </c>
       <c r="K528" t="s">
-        <v>1609</v>
+        <v>2827</v>
       </c>
       <c r="L528" t="s">
-        <v>1521</v>
+        <v>2815</v>
       </c>
       <c r="M528" t="s">
-        <v>1452</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="529" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A529" s="1" t="s">
-        <v>1399</v>
+        <v>2721</v>
       </c>
       <c r="B529" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D529" t="s">
-        <v>90</v>
-      </c>
-      <c r="E529"/>
+        <v>2687</v>
+      </c>
       <c r="J529" t="s">
-        <v>1564</v>
+        <v>2873</v>
       </c>
       <c r="K529" t="s">
-        <v>1609</v>
+        <v>2827</v>
       </c>
       <c r="L529" t="s">
-        <v>1522</v>
+        <v>2815</v>
       </c>
       <c r="M529" t="s">
-        <v>1453</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="530" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A530" s="1" t="s">
-        <v>1401</v>
+        <v>2722</v>
       </c>
       <c r="B530" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D530" t="s">
-        <v>90</v>
-      </c>
-      <c r="E530" s="1" t="s">
-        <v>1455</v>
+        <v>2687</v>
       </c>
       <c r="J530" t="s">
-        <v>1565</v>
+        <v>2898</v>
       </c>
       <c r="K530" t="s">
-        <v>1610</v>
+        <v>2854</v>
       </c>
       <c r="L530" t="s">
-        <v>1523</v>
+        <v>2796</v>
       </c>
       <c r="M530" t="s">
-        <v>1456</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="531" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A531" s="1" t="s">
-        <v>1402</v>
+        <v>2723</v>
       </c>
       <c r="B531" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D531" t="s">
-        <v>90</v>
-      </c>
-      <c r="E531"/>
+        <v>2687</v>
+      </c>
       <c r="J531" t="s">
-        <v>1566</v>
+        <v>2898</v>
       </c>
       <c r="K531" t="s">
-        <v>1611</v>
+        <v>2854</v>
       </c>
       <c r="L531" t="s">
-        <v>1524</v>
+        <v>2796</v>
       </c>
       <c r="M531" t="s">
-        <v>1457</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="532" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A532" s="1" t="s">
-        <v>1459</v>
+        <v>2724</v>
       </c>
       <c r="B532" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D532" t="s">
-        <v>90</v>
-      </c>
-      <c r="E532" s="1" t="s">
-        <v>1460</v>
+        <v>2687</v>
       </c>
       <c r="J532" t="s">
-        <v>1567</v>
+        <v>2898</v>
       </c>
       <c r="K532" t="s">
-        <v>1612</v>
+        <v>2854</v>
       </c>
       <c r="L532" t="s">
-        <v>1525</v>
+        <v>2796</v>
       </c>
       <c r="M532" t="s">
-        <v>1458</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="533" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A533" s="1" t="s">
-        <v>1403</v>
+        <v>2725</v>
       </c>
       <c r="B533" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D533" t="s">
-        <v>90</v>
-      </c>
-      <c r="E533"/>
+        <v>2687</v>
+      </c>
       <c r="J533" t="s">
-        <v>1568</v>
+        <v>2238</v>
       </c>
       <c r="K533" t="s">
-        <v>1613</v>
+        <v>2199</v>
       </c>
       <c r="L533" t="s">
-        <v>1526</v>
+        <v>2161</v>
       </c>
       <c r="M533" t="s">
-        <v>1461</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="534" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A534" s="1" t="s">
-        <v>1404</v>
+        <v>2726</v>
       </c>
       <c r="B534" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D534" t="s">
-        <v>90</v>
-      </c>
-      <c r="E534"/>
+        <v>2687</v>
+      </c>
       <c r="J534" t="s">
-        <v>1569</v>
+        <v>2874</v>
       </c>
       <c r="K534" t="s">
-        <v>1614</v>
+        <v>2828</v>
       </c>
       <c r="L534" t="s">
-        <v>1527</v>
+        <v>2797</v>
       </c>
       <c r="M534" t="s">
-        <v>1462</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="535" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A535" s="1" t="s">
-        <v>1405</v>
+        <v>2727</v>
       </c>
       <c r="B535" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D535" t="s">
-        <v>90</v>
-      </c>
-      <c r="E535"/>
+        <v>2687</v>
+      </c>
       <c r="J535" t="s">
-        <v>1571</v>
+        <v>2874</v>
       </c>
       <c r="K535" t="s">
-        <v>1615</v>
+        <v>2828</v>
       </c>
       <c r="L535" t="s">
-        <v>1570</v>
+        <v>2797</v>
       </c>
       <c r="M535" t="s">
-        <v>1463</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="536" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A536" s="1" t="s">
-        <v>1406</v>
+        <v>2728</v>
       </c>
       <c r="B536" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D536" t="s">
-        <v>90</v>
-      </c>
-      <c r="E536"/>
+        <v>2687</v>
+      </c>
       <c r="J536" t="s">
-        <v>1572</v>
+        <v>2875</v>
       </c>
       <c r="K536" t="s">
-        <v>1616</v>
+        <v>2855</v>
       </c>
       <c r="L536" t="s">
-        <v>1528</v>
+        <v>2816</v>
       </c>
       <c r="M536" t="s">
-        <v>1464</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="537" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A537" s="1" t="s">
-        <v>1407</v>
+        <v>2729</v>
       </c>
       <c r="B537" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D537" t="s">
-        <v>90</v>
-      </c>
-      <c r="E537" s="1" t="s">
-        <v>1465</v>
+        <v>2687</v>
       </c>
       <c r="J537" t="s">
-        <v>1573</v>
+        <v>2876</v>
       </c>
       <c r="K537" t="s">
-        <v>1617</v>
+        <v>2829</v>
       </c>
       <c r="L537" t="s">
-        <v>1529</v>
+        <v>2817</v>
       </c>
       <c r="M537" t="s">
-        <v>1467</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="538" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A538" s="1" t="s">
-        <v>1408</v>
+        <v>2730</v>
       </c>
       <c r="B538" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D538" t="s">
-        <v>90</v>
-      </c>
-      <c r="E538" s="1" t="s">
-        <v>1466</v>
+        <v>2687</v>
       </c>
       <c r="J538" t="s">
-        <v>1574</v>
+        <v>2877</v>
       </c>
       <c r="K538" t="s">
-        <v>1618</v>
+        <v>2830</v>
       </c>
       <c r="L538" t="s">
-        <v>1530</v>
+        <v>2798</v>
       </c>
       <c r="M538" t="s">
-        <v>1468</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="539" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A539" s="1" t="s">
-        <v>1409</v>
+        <v>2731</v>
       </c>
       <c r="B539" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D539" t="s">
-        <v>90</v>
-      </c>
-      <c r="E539"/>
+        <v>2687</v>
+      </c>
       <c r="J539" t="s">
-        <v>1576</v>
+        <v>2250</v>
       </c>
       <c r="K539" t="s">
-        <v>1619</v>
+        <v>2856</v>
       </c>
       <c r="L539" t="s">
-        <v>1531</v>
+        <v>2194</v>
       </c>
       <c r="M539" t="s">
-        <v>1469</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="540" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A540" s="1" t="s">
-        <v>1410</v>
+        <v>2732</v>
       </c>
       <c r="B540" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D540" t="s">
-        <v>90</v>
-      </c>
-      <c r="E540"/>
+        <v>2687</v>
+      </c>
       <c r="J540" t="s">
-        <v>1575</v>
+        <v>2878</v>
       </c>
       <c r="K540" t="s">
-        <v>1620</v>
+        <v>2857</v>
       </c>
       <c r="L540" t="s">
-        <v>1532</v>
+        <v>2799</v>
       </c>
       <c r="M540" t="s">
-        <v>1470</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="541" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A541" s="1" t="s">
-        <v>1411</v>
+        <v>2733</v>
       </c>
       <c r="B541" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D541" t="s">
-        <v>90</v>
-      </c>
-      <c r="E541" s="1" t="s">
-        <v>1472</v>
+        <v>2687</v>
       </c>
       <c r="J541" t="s">
-        <v>1577</v>
+        <v>2879</v>
       </c>
       <c r="K541" t="s">
-        <v>1621</v>
+        <v>2831</v>
       </c>
       <c r="L541" t="s">
-        <v>1533</v>
+        <v>2800</v>
       </c>
       <c r="M541" t="s">
-        <v>1471</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="542" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A542" s="1" t="s">
-        <v>1473</v>
+        <v>2734</v>
       </c>
       <c r="B542" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D542" t="s">
-        <v>90</v>
-      </c>
-      <c r="E542" s="1" t="s">
-        <v>1474</v>
+        <v>2687</v>
       </c>
       <c r="J542" t="s">
-        <v>1578</v>
+        <v>2879</v>
       </c>
       <c r="K542" t="s">
-        <v>1622</v>
+        <v>2831</v>
       </c>
       <c r="L542" t="s">
-        <v>1534</v>
+        <v>2800</v>
       </c>
       <c r="M542" t="s">
-        <v>1476</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="543" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A543" s="1" t="s">
-        <v>1412</v>
+        <v>2735</v>
       </c>
       <c r="B543" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D543" t="s">
-        <v>90</v>
-      </c>
-      <c r="E543" s="1" t="s">
-        <v>1475</v>
+        <v>2687</v>
       </c>
       <c r="J543" t="s">
-        <v>1579</v>
+        <v>2899</v>
       </c>
       <c r="K543" t="s">
-        <v>1623</v>
+        <v>2858</v>
       </c>
       <c r="L543" t="s">
-        <v>1478</v>
+        <v>2801</v>
       </c>
       <c r="M543" t="s">
-        <v>1477</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="544" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A544" s="1" t="s">
-        <v>1413</v>
+        <v>2736</v>
       </c>
       <c r="B544" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D544" t="s">
-        <v>90</v>
-      </c>
-      <c r="E544" s="1" t="s">
-        <v>1479</v>
+        <v>2687</v>
       </c>
       <c r="J544" t="s">
-        <v>1580</v>
+        <v>2880</v>
       </c>
       <c r="K544" t="s">
-        <v>1624</v>
+        <v>2832</v>
       </c>
       <c r="L544" t="s">
-        <v>1535</v>
+        <v>2802</v>
       </c>
       <c r="M544" t="s">
-        <v>1481</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="545" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A545" s="1" t="s">
-        <v>1414</v>
+        <v>39</v>
       </c>
       <c r="B545" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D545" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="E545" s="1" t="s">
-        <v>1480</v>
+        <v>41</v>
       </c>
       <c r="J545" t="s">
-        <v>1580</v>
+        <v>42</v>
       </c>
       <c r="K545" t="s">
-        <v>1624</v>
+        <v>43</v>
       </c>
       <c r="L545" t="s">
-        <v>1535</v>
+        <v>57</v>
       </c>
       <c r="M545" t="s">
-        <v>1481</v>
+        <v>53</v>
       </c>
     </row>
     <row r="546" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A546" s="1" t="s">
-        <v>1415</v>
+        <v>47</v>
       </c>
       <c r="B546" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D546" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="E546" s="1" t="s">
-        <v>1483</v>
+        <v>66</v>
       </c>
       <c r="J546" t="s">
-        <v>1581</v>
+        <v>62</v>
       </c>
       <c r="K546" t="s">
-        <v>1625</v>
+        <v>126</v>
       </c>
       <c r="L546" t="s">
-        <v>1484</v>
+        <v>142</v>
       </c>
       <c r="M546" t="s">
-        <v>1482</v>
+        <v>52</v>
       </c>
     </row>
     <row r="547" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A547" s="1" t="s">
-        <v>1416</v>
+        <v>48</v>
       </c>
       <c r="B547" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D547" t="s">
-        <v>90</v>
-      </c>
-      <c r="E547"/>
-      <c r="J547" t="s">
-        <v>1582</v>
-      </c>
-      <c r="K547" t="s">
-        <v>1626</v>
-      </c>
-      <c r="L547" t="s">
-        <v>1536</v>
+        <v>40</v>
       </c>
       <c r="M547" t="s">
-        <v>1485</v>
+        <v>58</v>
       </c>
     </row>
     <row r="548" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A548" s="1" t="s">
-        <v>1417</v>
+        <v>49</v>
       </c>
       <c r="B548" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D548" t="s">
-        <v>90</v>
-      </c>
-      <c r="E548"/>
+        <v>40</v>
+      </c>
+      <c r="E548" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="J548" t="s">
-        <v>1583</v>
+        <v>63</v>
       </c>
       <c r="K548" t="s">
-        <v>1627</v>
+        <v>127</v>
       </c>
       <c r="L548" t="s">
-        <v>1537</v>
+        <v>2778</v>
       </c>
       <c r="M548" t="s">
-        <v>1486</v>
+        <v>59</v>
       </c>
     </row>
     <row r="549" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A549" s="1" t="s">
-        <v>1418</v>
+        <v>50</v>
       </c>
       <c r="B549" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D549" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="E549" s="1" t="s">
-        <v>1490</v>
+        <v>68</v>
       </c>
       <c r="J549" t="s">
-        <v>1584</v>
+        <v>64</v>
       </c>
       <c r="K549" t="s">
-        <v>1628</v>
+        <v>128</v>
       </c>
       <c r="L549" t="s">
-        <v>1538</v>
+        <v>143</v>
       </c>
       <c r="M549" t="s">
-        <v>1487</v>
+        <v>60</v>
       </c>
     </row>
     <row r="550" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A550" s="1" t="s">
-        <v>1419</v>
+        <v>51</v>
       </c>
       <c r="B550" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D550" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="J550" t="s">
-        <v>918</v>
+        <v>65</v>
       </c>
       <c r="K550" t="s">
-        <v>908</v>
+        <v>129</v>
       </c>
       <c r="L550" t="s">
-        <v>1539</v>
+        <v>144</v>
       </c>
       <c r="M550" t="s">
-        <v>1488</v>
+        <v>61</v>
       </c>
     </row>
     <row r="551" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A551" s="1" t="s">
-        <v>1420</v>
+        <v>69</v>
       </c>
       <c r="B551" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D551" t="s">
-        <v>90</v>
-      </c>
-      <c r="E551" s="1" t="s">
-        <v>1491</v>
+        <v>40</v>
       </c>
       <c r="J551" t="s">
-        <v>1585</v>
+        <v>108</v>
       </c>
       <c r="K551" t="s">
-        <v>1629</v>
+        <v>130</v>
       </c>
       <c r="L551" t="s">
-        <v>1540</v>
+        <v>145</v>
       </c>
       <c r="M551" t="s">
-        <v>1489</v>
+        <v>109</v>
       </c>
     </row>
     <row r="552" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A552" s="1" t="s">
-        <v>1421</v>
+        <v>70</v>
       </c>
       <c r="B552" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D552" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="J552" t="s">
-        <v>1586</v>
+        <v>93</v>
       </c>
       <c r="K552" t="s">
-        <v>886</v>
+        <v>131</v>
       </c>
       <c r="L552" t="s">
-        <v>1541</v>
+        <v>146</v>
       </c>
       <c r="M552" t="s">
-        <v>1498</v>
+        <v>110</v>
       </c>
     </row>
     <row r="553" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A553" s="1" t="s">
-        <v>1422</v>
+        <v>71</v>
       </c>
       <c r="B553" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D553" t="s">
-        <v>91</v>
-      </c>
-      <c r="E553" s="1" t="s">
-        <v>1492</v>
+        <v>40</v>
       </c>
       <c r="J553" t="s">
-        <v>1587</v>
+        <v>94</v>
       </c>
       <c r="K553" t="s">
-        <v>1630</v>
+        <v>94</v>
       </c>
       <c r="L553" t="s">
-        <v>1499</v>
+        <v>147</v>
       </c>
       <c r="M553" t="s">
-        <v>1499</v>
+        <v>111</v>
       </c>
     </row>
     <row r="554" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A554" s="1" t="s">
-        <v>1423</v>
+        <v>72</v>
       </c>
       <c r="B554" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D554" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J554" t="s">
-        <v>1588</v>
+        <v>95</v>
       </c>
       <c r="K554" t="s">
-        <v>1631</v>
+        <v>132</v>
       </c>
       <c r="L554" t="s">
-        <v>1542</v>
+        <v>148</v>
       </c>
       <c r="M554" t="s">
-        <v>1500</v>
+        <v>112</v>
       </c>
     </row>
     <row r="555" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A555" s="1" t="s">
-        <v>1424</v>
+        <v>73</v>
       </c>
       <c r="B555" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D555" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="E555" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="J555" t="s">
-        <v>1589</v>
+        <v>96</v>
       </c>
       <c r="K555" t="s">
-        <v>1632</v>
+        <v>133</v>
       </c>
       <c r="L555" t="s">
-        <v>1543</v>
+        <v>149</v>
       </c>
       <c r="M555" t="s">
-        <v>1501</v>
+        <v>113</v>
       </c>
     </row>
     <row r="556" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A556" s="1" t="s">
-        <v>1425</v>
+        <v>74</v>
       </c>
       <c r="B556" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D556" t="s">
-        <v>1178</v>
-      </c>
-      <c r="E556" s="1" t="s">
-        <v>1493</v>
+        <v>90</v>
       </c>
       <c r="J556" t="s">
-        <v>1590</v>
+        <v>97</v>
       </c>
       <c r="K556" t="s">
-        <v>1633</v>
+        <v>135</v>
       </c>
       <c r="L556" t="s">
-        <v>1544</v>
+        <v>150</v>
       </c>
       <c r="M556" t="s">
-        <v>1502</v>
+        <v>114</v>
       </c>
     </row>
     <row r="557" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A557" s="1" t="s">
-        <v>1426</v>
+        <v>75</v>
       </c>
       <c r="B557" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D557" t="s">
-        <v>89</v>
-      </c>
-      <c r="E557" s="1" t="s">
-        <v>1494</v>
+        <v>90</v>
       </c>
       <c r="J557" t="s">
-        <v>1591</v>
+        <v>98</v>
       </c>
       <c r="K557" t="s">
-        <v>1634</v>
+        <v>134</v>
       </c>
       <c r="L557" t="s">
-        <v>1545</v>
+        <v>151</v>
       </c>
       <c r="M557" t="s">
-        <v>1503</v>
+        <v>115</v>
       </c>
     </row>
     <row r="558" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A558" s="1" t="s">
-        <v>1427</v>
+        <v>76</v>
       </c>
       <c r="B558" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D558" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J558" t="s">
-        <v>1592</v>
+        <v>99</v>
       </c>
       <c r="K558" t="s">
-        <v>1635</v>
+        <v>153</v>
       </c>
       <c r="L558" t="s">
-        <v>1546</v>
+        <v>152</v>
       </c>
       <c r="M558" t="s">
-        <v>1504</v>
+        <v>116</v>
       </c>
     </row>
     <row r="559" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A559" s="1" t="s">
-        <v>1428</v>
+        <v>77</v>
       </c>
       <c r="B559" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D559" t="s">
         <v>91</v>
       </c>
-      <c r="E559" s="1" t="s">
-        <v>1495</v>
-      </c>
       <c r="J559" t="s">
-        <v>1593</v>
-      </c>
-      <c r="K559" t="s">
-        <v>1636</v>
+        <v>100</v>
       </c>
       <c r="L559" t="s">
-        <v>1547</v>
+        <v>154</v>
       </c>
       <c r="M559" t="s">
-        <v>1505</v>
+        <v>117</v>
       </c>
     </row>
     <row r="560" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A560" s="1" t="s">
-        <v>1429</v>
+        <v>78</v>
       </c>
       <c r="B560" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D560" t="s">
-        <v>27</v>
-      </c>
-      <c r="F560" s="1" t="s">
-        <v>1430</v>
+        <v>91</v>
       </c>
       <c r="J560" t="s">
-        <v>1594</v>
+        <v>101</v>
       </c>
       <c r="K560" t="s">
-        <v>1637</v>
+        <v>136</v>
       </c>
       <c r="L560" t="s">
-        <v>1548</v>
+        <v>155</v>
       </c>
       <c r="M560" t="s">
-        <v>1506</v>
+        <v>118</v>
       </c>
     </row>
     <row r="561" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A561" s="1" t="s">
-        <v>1431</v>
+        <v>79</v>
       </c>
       <c r="B561" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D561" t="s">
-        <v>27</v>
-      </c>
-      <c r="E561" s="1" t="s">
-        <v>1438</v>
-      </c>
-      <c r="G561" s="1" t="s">
-        <v>1432</v>
+        <v>91</v>
       </c>
       <c r="J561" t="s">
-        <v>1595</v>
+        <v>101</v>
       </c>
       <c r="K561" t="s">
-        <v>1638</v>
+        <v>136</v>
       </c>
       <c r="L561" t="s">
-        <v>1549</v>
+        <v>155</v>
       </c>
       <c r="M561" t="s">
-        <v>1507</v>
+        <v>118</v>
       </c>
     </row>
     <row r="562" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A562" s="1" t="s">
-        <v>1433</v>
+        <v>80</v>
       </c>
       <c r="B562" t="s">
-        <v>1387</v>
-      </c>
-      <c r="C562" s="1"/>
+        <v>190</v>
+      </c>
       <c r="D562" t="s">
-        <v>27</v>
-      </c>
-      <c r="E562" s="1" t="s">
-        <v>1496</v>
+        <v>91</v>
       </c>
       <c r="J562" t="s">
-        <v>1596</v>
+        <v>102</v>
       </c>
       <c r="K562" t="s">
-        <v>1639</v>
+        <v>137</v>
       </c>
       <c r="L562" t="s">
-        <v>1550</v>
+        <v>156</v>
       </c>
       <c r="M562" t="s">
-        <v>1508</v>
+        <v>119</v>
       </c>
     </row>
     <row r="563" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A563" s="1" t="s">
-        <v>1434</v>
+        <v>81</v>
       </c>
       <c r="B563" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D563" t="s">
-        <v>27</v>
-      </c>
-      <c r="G563" s="1" t="s">
-        <v>1435</v>
+        <v>91</v>
       </c>
       <c r="J563" t="s">
-        <v>1597</v>
+        <v>102</v>
       </c>
       <c r="K563" t="s">
-        <v>1640</v>
+        <v>137</v>
       </c>
       <c r="L563" t="s">
-        <v>1551</v>
+        <v>156</v>
       </c>
       <c r="M563" t="s">
-        <v>1509</v>
+        <v>119</v>
       </c>
     </row>
     <row r="564" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A564" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B564" t="s">
+        <v>190</v>
+      </c>
+      <c r="J564" t="s">
+        <v>103</v>
+      </c>
+      <c r="M564" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="565" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A565" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B565" t="s">
+        <v>190</v>
+      </c>
+      <c r="J565" t="s">
+        <v>104</v>
+      </c>
+      <c r="M565" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="566" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A566" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B566" t="s">
+        <v>190</v>
+      </c>
+      <c r="D566" t="s">
+        <v>27</v>
+      </c>
+      <c r="J566" t="s">
+        <v>105</v>
+      </c>
+      <c r="K566" t="s">
+        <v>138</v>
+      </c>
+      <c r="L566" t="s">
+        <v>157</v>
+      </c>
+      <c r="M566" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="567" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A567" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B567" t="s">
+        <v>190</v>
+      </c>
+      <c r="D567" t="s">
+        <v>27</v>
+      </c>
+      <c r="J567" t="s">
+        <v>94</v>
+      </c>
+      <c r="K567" t="s">
+        <v>139</v>
+      </c>
+      <c r="L567" t="s">
+        <v>157</v>
+      </c>
+      <c r="M567" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="568" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A568" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B568" t="s">
+        <v>190</v>
+      </c>
+      <c r="D568" t="s">
+        <v>27</v>
+      </c>
+      <c r="J568" t="s">
+        <v>106</v>
+      </c>
+      <c r="K568" t="s">
+        <v>140</v>
+      </c>
+      <c r="L568" t="s">
+        <v>158</v>
+      </c>
+      <c r="M568" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="569" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A569" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B569" t="s">
+        <v>190</v>
+      </c>
+      <c r="D569" t="s">
+        <v>27</v>
+      </c>
+      <c r="F569" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J569" t="s">
+        <v>107</v>
+      </c>
+      <c r="K569" t="s">
+        <v>141</v>
+      </c>
+      <c r="L569" t="s">
+        <v>159</v>
+      </c>
+      <c r="M569" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="570" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A570" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B570" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D570" t="s">
+        <v>40</v>
+      </c>
+      <c r="J570" t="s">
+        <v>1553</v>
+      </c>
+      <c r="K570" t="s">
+        <v>1599</v>
+      </c>
+      <c r="L570" t="s">
+        <v>1514</v>
+      </c>
+      <c r="M570" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="571" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A571" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B571" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D571" t="s">
+        <v>90</v>
+      </c>
+      <c r="E571" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="J571" t="s">
+        <v>1554</v>
+      </c>
+      <c r="K571" t="s">
+        <v>1600</v>
+      </c>
+      <c r="L571" t="s">
+        <v>1511</v>
+      </c>
+      <c r="M571" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="572" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A572" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B572" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D572" t="s">
+        <v>40</v>
+      </c>
+      <c r="E572"/>
+      <c r="J572" t="s">
+        <v>1555</v>
+      </c>
+      <c r="K572" t="s">
+        <v>1601</v>
+      </c>
+      <c r="L572" t="s">
+        <v>1512</v>
+      </c>
+      <c r="M572" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="573" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A573" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B573" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D573" t="s">
+        <v>40</v>
+      </c>
+      <c r="E573"/>
+      <c r="J573" t="s">
+        <v>1556</v>
+      </c>
+      <c r="K573" t="s">
+        <v>1602</v>
+      </c>
+      <c r="L573" t="s">
+        <v>1515</v>
+      </c>
+      <c r="M573" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="574" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A574" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B574" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D574" t="s">
+        <v>40</v>
+      </c>
+      <c r="E574" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="J574" t="s">
+        <v>1557</v>
+      </c>
+      <c r="K574" t="s">
+        <v>1603</v>
+      </c>
+      <c r="L574" t="s">
+        <v>1513</v>
+      </c>
+      <c r="M574" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="575" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A575" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B575" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D575" t="s">
+        <v>40</v>
+      </c>
+      <c r="E575"/>
+      <c r="J575" t="s">
+        <v>1558</v>
+      </c>
+      <c r="K575" t="s">
+        <v>1558</v>
+      </c>
+      <c r="L575" t="s">
+        <v>1516</v>
+      </c>
+      <c r="M575" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="576" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A576" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B576" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D576" t="s">
+        <v>40</v>
+      </c>
+      <c r="E576"/>
+      <c r="J576" t="s">
+        <v>1559</v>
+      </c>
+      <c r="K576" t="s">
+        <v>1604</v>
+      </c>
+      <c r="L576" t="s">
+        <v>1517</v>
+      </c>
+      <c r="M576" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="577" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A577" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B577" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D577" t="s">
+        <v>40</v>
+      </c>
+      <c r="E577"/>
+      <c r="J577" t="s">
+        <v>1560</v>
+      </c>
+      <c r="K577" t="s">
+        <v>1605</v>
+      </c>
+      <c r="L577" t="s">
+        <v>1518</v>
+      </c>
+      <c r="M577" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="578" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A578" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B578" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D578" t="s">
+        <v>90</v>
+      </c>
+      <c r="E578" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="J578" t="s">
+        <v>1561</v>
+      </c>
+      <c r="K578" t="s">
+        <v>1606</v>
+      </c>
+      <c r="L578" t="s">
+        <v>1519</v>
+      </c>
+      <c r="M578" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="579" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A579" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B579" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D579" t="s">
+        <v>90</v>
+      </c>
+      <c r="E579"/>
+      <c r="J579" t="s">
+        <v>1562</v>
+      </c>
+      <c r="K579" t="s">
+        <v>1607</v>
+      </c>
+      <c r="L579" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M579" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="580" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A580" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B580" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D580" t="s">
+        <v>90</v>
+      </c>
+      <c r="E580"/>
+      <c r="J580" t="s">
+        <v>1563</v>
+      </c>
+      <c r="K580" t="s">
+        <v>1608</v>
+      </c>
+      <c r="L580" t="s">
+        <v>1521</v>
+      </c>
+      <c r="M580" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="581" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A581" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B581" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D581" t="s">
+        <v>90</v>
+      </c>
+      <c r="E581" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="J581" t="s">
+        <v>1563</v>
+      </c>
+      <c r="K581" t="s">
+        <v>1609</v>
+      </c>
+      <c r="L581" t="s">
+        <v>1521</v>
+      </c>
+      <c r="M581" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="582" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A582" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B582" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D582" t="s">
+        <v>90</v>
+      </c>
+      <c r="E582"/>
+      <c r="J582" t="s">
+        <v>1564</v>
+      </c>
+      <c r="K582" t="s">
+        <v>1609</v>
+      </c>
+      <c r="L582" t="s">
+        <v>1522</v>
+      </c>
+      <c r="M582" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="583" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A583" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D583" t="s">
+        <v>90</v>
+      </c>
+      <c r="E583" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="J583" t="s">
+        <v>1565</v>
+      </c>
+      <c r="K583" t="s">
+        <v>1610</v>
+      </c>
+      <c r="L583" t="s">
+        <v>1523</v>
+      </c>
+      <c r="M583" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="584" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A584" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B584" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D584" t="s">
+        <v>90</v>
+      </c>
+      <c r="E584"/>
+      <c r="J584" t="s">
+        <v>1566</v>
+      </c>
+      <c r="K584" t="s">
+        <v>1611</v>
+      </c>
+      <c r="L584" t="s">
+        <v>1524</v>
+      </c>
+      <c r="M584" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="585" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A585" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B585" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D585" t="s">
+        <v>90</v>
+      </c>
+      <c r="E585" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="J585" t="s">
+        <v>1567</v>
+      </c>
+      <c r="K585" t="s">
+        <v>1612</v>
+      </c>
+      <c r="L585" t="s">
+        <v>1525</v>
+      </c>
+      <c r="M585" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="586" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A586" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B586" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D586" t="s">
+        <v>90</v>
+      </c>
+      <c r="E586"/>
+      <c r="J586" t="s">
+        <v>1568</v>
+      </c>
+      <c r="K586" t="s">
+        <v>1613</v>
+      </c>
+      <c r="L586" t="s">
+        <v>1526</v>
+      </c>
+      <c r="M586" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="587" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A587" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B587" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D587" t="s">
+        <v>90</v>
+      </c>
+      <c r="E587"/>
+      <c r="J587" t="s">
+        <v>1569</v>
+      </c>
+      <c r="K587" t="s">
+        <v>1614</v>
+      </c>
+      <c r="L587" t="s">
+        <v>1527</v>
+      </c>
+      <c r="M587" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="588" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A588" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B588" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D588" t="s">
+        <v>90</v>
+      </c>
+      <c r="E588"/>
+      <c r="J588" t="s">
+        <v>1571</v>
+      </c>
+      <c r="K588" t="s">
+        <v>1615</v>
+      </c>
+      <c r="L588" t="s">
+        <v>1570</v>
+      </c>
+      <c r="M588" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="589" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A589" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B589" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D589" t="s">
+        <v>90</v>
+      </c>
+      <c r="E589"/>
+      <c r="J589" t="s">
+        <v>1572</v>
+      </c>
+      <c r="K589" t="s">
+        <v>1616</v>
+      </c>
+      <c r="L589" t="s">
+        <v>1528</v>
+      </c>
+      <c r="M589" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="590" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A590" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B590" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D590" t="s">
+        <v>90</v>
+      </c>
+      <c r="E590" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="J590" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K590" t="s">
+        <v>1617</v>
+      </c>
+      <c r="L590" t="s">
+        <v>1529</v>
+      </c>
+      <c r="M590" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="591" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A591" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B591" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D591" t="s">
+        <v>90</v>
+      </c>
+      <c r="E591" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="J591" t="s">
+        <v>1574</v>
+      </c>
+      <c r="K591" t="s">
+        <v>1618</v>
+      </c>
+      <c r="L591" t="s">
+        <v>1530</v>
+      </c>
+      <c r="M591" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="592" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A592" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B592" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D592" t="s">
+        <v>90</v>
+      </c>
+      <c r="E592"/>
+      <c r="J592" t="s">
+        <v>1576</v>
+      </c>
+      <c r="K592" t="s">
+        <v>1619</v>
+      </c>
+      <c r="L592" t="s">
+        <v>1531</v>
+      </c>
+      <c r="M592" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="593" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A593" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B593" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D593" t="s">
+        <v>90</v>
+      </c>
+      <c r="E593"/>
+      <c r="J593" t="s">
+        <v>1575</v>
+      </c>
+      <c r="K593" t="s">
+        <v>1620</v>
+      </c>
+      <c r="L593" t="s">
+        <v>1532</v>
+      </c>
+      <c r="M593" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="594" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A594" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B594" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D594" t="s">
+        <v>90</v>
+      </c>
+      <c r="E594" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="J594" t="s">
+        <v>1577</v>
+      </c>
+      <c r="K594" t="s">
+        <v>1621</v>
+      </c>
+      <c r="L594" t="s">
+        <v>1533</v>
+      </c>
+      <c r="M594" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="595" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A595" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B595" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D595" t="s">
+        <v>90</v>
+      </c>
+      <c r="E595" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="J595" t="s">
+        <v>1578</v>
+      </c>
+      <c r="K595" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L595" t="s">
+        <v>1534</v>
+      </c>
+      <c r="M595" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="596" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A596" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B596" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D596" t="s">
+        <v>90</v>
+      </c>
+      <c r="E596" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="J596" t="s">
+        <v>1579</v>
+      </c>
+      <c r="K596" t="s">
+        <v>1623</v>
+      </c>
+      <c r="L596" t="s">
+        <v>1478</v>
+      </c>
+      <c r="M596" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="597" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A597" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B597" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D597" t="s">
+        <v>90</v>
+      </c>
+      <c r="E597" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="J597" t="s">
+        <v>1580</v>
+      </c>
+      <c r="K597" t="s">
+        <v>1624</v>
+      </c>
+      <c r="L597" t="s">
+        <v>1535</v>
+      </c>
+      <c r="M597" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="598" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A598" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B598" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D598" t="s">
+        <v>90</v>
+      </c>
+      <c r="E598" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J598" t="s">
+        <v>1580</v>
+      </c>
+      <c r="K598" t="s">
+        <v>1624</v>
+      </c>
+      <c r="L598" t="s">
+        <v>1535</v>
+      </c>
+      <c r="M598" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="599" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A599" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B599" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D599" t="s">
+        <v>90</v>
+      </c>
+      <c r="E599" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="J599" t="s">
+        <v>1581</v>
+      </c>
+      <c r="K599" t="s">
+        <v>1625</v>
+      </c>
+      <c r="L599" t="s">
+        <v>1484</v>
+      </c>
+      <c r="M599" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="600" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A600" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B600" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D600" t="s">
+        <v>90</v>
+      </c>
+      <c r="E600"/>
+      <c r="J600" t="s">
+        <v>1582</v>
+      </c>
+      <c r="K600" t="s">
+        <v>1626</v>
+      </c>
+      <c r="L600" t="s">
+        <v>1536</v>
+      </c>
+      <c r="M600" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="601" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A601" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B601" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D601" t="s">
+        <v>90</v>
+      </c>
+      <c r="E601"/>
+      <c r="J601" t="s">
+        <v>1583</v>
+      </c>
+      <c r="K601" t="s">
+        <v>1627</v>
+      </c>
+      <c r="L601" t="s">
+        <v>1537</v>
+      </c>
+      <c r="M601" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="602" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A602" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B602" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D602" t="s">
+        <v>89</v>
+      </c>
+      <c r="E602" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="J602" t="s">
+        <v>1584</v>
+      </c>
+      <c r="K602" t="s">
+        <v>1628</v>
+      </c>
+      <c r="L602" t="s">
+        <v>1538</v>
+      </c>
+      <c r="M602" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="603" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A603" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B603" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D603" t="s">
+        <v>91</v>
+      </c>
+      <c r="J603" t="s">
+        <v>918</v>
+      </c>
+      <c r="K603" t="s">
+        <v>908</v>
+      </c>
+      <c r="L603" t="s">
+        <v>1539</v>
+      </c>
+      <c r="M603" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="604" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A604" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B604" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D604" t="s">
+        <v>90</v>
+      </c>
+      <c r="E604" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="J604" t="s">
+        <v>1585</v>
+      </c>
+      <c r="K604" t="s">
+        <v>1629</v>
+      </c>
+      <c r="L604" t="s">
+        <v>1540</v>
+      </c>
+      <c r="M604" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="605" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A605" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B605" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D605" t="s">
+        <v>91</v>
+      </c>
+      <c r="J605" t="s">
+        <v>1586</v>
+      </c>
+      <c r="K605" t="s">
+        <v>886</v>
+      </c>
+      <c r="L605" t="s">
+        <v>1541</v>
+      </c>
+      <c r="M605" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="606" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A606" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B606" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D606" t="s">
+        <v>91</v>
+      </c>
+      <c r="E606" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="J606" t="s">
+        <v>1587</v>
+      </c>
+      <c r="K606" t="s">
+        <v>1630</v>
+      </c>
+      <c r="L606" t="s">
+        <v>1499</v>
+      </c>
+      <c r="M606" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="607" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A607" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B607" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D607" t="s">
+        <v>91</v>
+      </c>
+      <c r="J607" t="s">
+        <v>1588</v>
+      </c>
+      <c r="K607" t="s">
+        <v>1631</v>
+      </c>
+      <c r="L607" t="s">
+        <v>1542</v>
+      </c>
+      <c r="M607" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="608" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A608" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B608" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D608" t="s">
+        <v>91</v>
+      </c>
+      <c r="J608" t="s">
+        <v>1589</v>
+      </c>
+      <c r="K608" t="s">
+        <v>1632</v>
+      </c>
+      <c r="L608" t="s">
+        <v>1543</v>
+      </c>
+      <c r="M608" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="609" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A609" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B609" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D609" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E609" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="J609" t="s">
+        <v>1590</v>
+      </c>
+      <c r="K609" t="s">
+        <v>1633</v>
+      </c>
+      <c r="L609" t="s">
+        <v>1544</v>
+      </c>
+      <c r="M609" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="610" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A610" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B610" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D610" t="s">
+        <v>89</v>
+      </c>
+      <c r="E610" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J610" t="s">
+        <v>1591</v>
+      </c>
+      <c r="K610" t="s">
+        <v>1634</v>
+      </c>
+      <c r="L610" t="s">
+        <v>1545</v>
+      </c>
+      <c r="M610" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="611" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A611" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B611" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D611" t="s">
+        <v>91</v>
+      </c>
+      <c r="J611" t="s">
+        <v>1592</v>
+      </c>
+      <c r="K611" t="s">
+        <v>1635</v>
+      </c>
+      <c r="L611" t="s">
+        <v>1546</v>
+      </c>
+      <c r="M611" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="612" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A612" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B612" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D612" t="s">
+        <v>91</v>
+      </c>
+      <c r="E612" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="J612" t="s">
+        <v>1593</v>
+      </c>
+      <c r="K612" t="s">
+        <v>1636</v>
+      </c>
+      <c r="L612" t="s">
+        <v>1547</v>
+      </c>
+      <c r="M612" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="613" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A613" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B613" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D613" t="s">
+        <v>27</v>
+      </c>
+      <c r="F613" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="J613" t="s">
+        <v>1594</v>
+      </c>
+      <c r="K613" t="s">
+        <v>1637</v>
+      </c>
+      <c r="L613" t="s">
+        <v>1548</v>
+      </c>
+      <c r="M613" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="614" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A614" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B614" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D614" t="s">
+        <v>27</v>
+      </c>
+      <c r="E614" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="G614" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="J614" t="s">
+        <v>1595</v>
+      </c>
+      <c r="K614" t="s">
+        <v>1638</v>
+      </c>
+      <c r="L614" t="s">
+        <v>1549</v>
+      </c>
+      <c r="M614" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="615" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A615" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B615" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C615" s="1"/>
+      <c r="D615" t="s">
+        <v>27</v>
+      </c>
+      <c r="E615" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J615" t="s">
+        <v>1596</v>
+      </c>
+      <c r="K615" t="s">
+        <v>1639</v>
+      </c>
+      <c r="L615" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M615" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="616" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A616" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B616" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D616" t="s">
+        <v>27</v>
+      </c>
+      <c r="G616" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="J616" t="s">
+        <v>1597</v>
+      </c>
+      <c r="K616" t="s">
+        <v>1640</v>
+      </c>
+      <c r="L616" t="s">
+        <v>1551</v>
+      </c>
+      <c r="M616" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="617" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A617" s="1" t="s">
         <v>1436</v>
       </c>
-      <c r="B564" t="s">
+      <c r="B617" t="s">
         <v>1387</v>
       </c>
-      <c r="C564" s="1"/>
-      <c r="D564" t="s">
+      <c r="C617" s="1"/>
+      <c r="D617" t="s">
         <v>27</v>
       </c>
-      <c r="E564" s="1" t="s">
+      <c r="E617" s="1" t="s">
         <v>1497</v>
       </c>
-      <c r="F564" s="1" t="s">
+      <c r="F617" s="1" t="s">
         <v>1437</v>
       </c>
-      <c r="J564" t="s">
+      <c r="J617" t="s">
         <v>1598</v>
       </c>
-      <c r="K564" t="s">
+      <c r="K617" t="s">
         <v>1641</v>
       </c>
-      <c r="L564" t="s">
+      <c r="L617" t="s">
         <v>1552</v>
       </c>
-      <c r="M564" t="s">
+      <c r="M617" t="s">
         <v>1510</v>
       </c>
     </row>

--- a/dictionary/Vocab.xlsx
+++ b/dictionary/Vocab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_Trae\TibetanNote\dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A1BBC1-82EF-4F65-BC8D-DD4A526AD7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CF4AE0-3C8A-42E6-9D91-046B59FEA8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4449" uniqueCount="2900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4605" uniqueCount="3017">
   <si>
     <t>word</t>
   </si>
@@ -8736,6 +8736,357 @@
   </si>
   <si>
     <t>否则；除此之外；也</t>
+  </si>
+  <si>
+    <t>འགྲིལ་བཤད་བརྒྱབ་པ།</t>
+  </si>
+  <si>
+    <t>སྨན་བཅོས་བྱེད་པ།</t>
+  </si>
+  <si>
+    <t>བྱས་པ།</t>
+  </si>
+  <si>
+    <t>སྤོ་བ།</t>
+  </si>
+  <si>
+    <t>སྤོས་པ།</t>
+  </si>
+  <si>
+    <t>ཁང་པ་སྤོ་བ།</t>
+  </si>
+  <si>
+    <t>ངོ་སྤྲོད་བྱེད་པ།</t>
+  </si>
+  <si>
+    <t>ངོ་སྤྲོད་བྱས་པ།</t>
+  </si>
+  <si>
+    <t>ཁྱེར་འགྲོ་བ།</t>
+  </si>
+  <si>
+    <t>ཁྱེར་ཕྱིན་པ།</t>
+  </si>
+  <si>
+    <t>ཁྱེར་ཡོང་བ།</t>
+  </si>
+  <si>
+    <t>འགོ་བཙུགས་པ།</t>
+  </si>
+  <si>
+    <t>འགོ་འཛུག་པ།</t>
+  </si>
+  <si>
+    <t>རག་པ།</t>
+  </si>
+  <si>
+    <t>ཚར་བ།</t>
+  </si>
+  <si>
+    <t>ཕན་པ།</t>
+  </si>
+  <si>
+    <t>བྱུང་བ།</t>
+  </si>
+  <si>
+    <t>འབྱུང་བ།</t>
+  </si>
+  <si>
+    <t>བལྟས་པ།</t>
+  </si>
+  <si>
+    <t>ཡར་ལངས་པ།</t>
+  </si>
+  <si>
+    <t>ཕྱིན་པ།</t>
+  </si>
+  <si>
+    <t>V pres + དགོས་བསམས་པ།</t>
+  </si>
+  <si>
+    <t>V pres + རྩེས་ཡོད་པ།</t>
+  </si>
+  <si>
+    <t>V pst + ནས།</t>
+  </si>
+  <si>
+    <t>V pst + བྱས།</t>
+  </si>
+  <si>
+    <t>V pst + ན།</t>
+  </si>
+  <si>
+    <t>expliquer ; donner des explications</t>
+  </si>
+  <si>
+    <t>སྐད་བཏང་བ།</t>
+  </si>
+  <si>
+    <t>འགྲིལ་བཤད་(explication) + བརྒྱབ་པ་ (vblz)</t>
+  </si>
+  <si>
+    <t>སྨན་(remedy) + བཅོས་(correct) + བྱེད་པ་ (vblz)</t>
+  </si>
+  <si>
+    <t>ཁང་པ་(house) + སྤོ་བ་(move)</t>
+  </si>
+  <si>
+    <t>ངོ་(face) + སྤྲོད་(give) + བྱེད་པ་(vblz)</t>
+  </si>
+  <si>
+    <t>ཁྱེར་(take) + འགྲོ་བ་(go)</t>
+  </si>
+  <si>
+    <t>ཁྱེར་(take) + ཡོང་བ་(come)</t>
+  </si>
+  <si>
+    <t>འགོ་(start) + བཙུགས་པ་(plant)</t>
+  </si>
+  <si>
+    <t>soigner ; donner un traitement</t>
+  </si>
+  <si>
+    <t>déplacer</t>
+  </si>
+  <si>
+    <t>déménager</t>
+  </si>
+  <si>
+    <t>appeler ; inviter</t>
+  </si>
+  <si>
+    <t>présenter</t>
+  </si>
+  <si>
+    <t>emporter</t>
+  </si>
+  <si>
+    <t>apporter</t>
+  </si>
+  <si>
+    <t>commencer</t>
+  </si>
+  <si>
+    <t>obtenir</t>
+  </si>
+  <si>
+    <t>terminer ; se terminer</t>
+  </si>
+  <si>
+    <t>être bénéfique</t>
+  </si>
+  <si>
+    <t>survenir ; se produire ; advenir</t>
+  </si>
+  <si>
+    <t>forme passée du verbe regarder</t>
+  </si>
+  <si>
+    <t>forme passée du verbe se lever</t>
+  </si>
+  <si>
+    <t>forme passée du verbe aller</t>
+  </si>
+  <si>
+    <t>forme passée du verbe faire ; verbalisateur (passé)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avoir envie de </t>
+  </si>
+  <si>
+    <t>avoir l'intention de</t>
+  </si>
+  <si>
+    <t>après avoir ; en</t>
+  </si>
+  <si>
+    <t>si ; quand (évènement futur)</t>
+  </si>
+  <si>
+    <t>treat; give treatment</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>call; invite</t>
+  </si>
+  <si>
+    <t>present</t>
+  </si>
+  <si>
+    <t>bring</t>
+  </si>
+  <si>
+    <t>begin</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>finish; conclude</t>
+  </si>
+  <si>
+    <t>be beneficial</t>
+  </si>
+  <si>
+    <t>past form of the verb to look</t>
+  </si>
+  <si>
+    <t>past form of the verb to rise</t>
+  </si>
+  <si>
+    <t>past form of the verb to go</t>
+  </si>
+  <si>
+    <t>past form of the verb to do; Verbalizer (past)</t>
+  </si>
+  <si>
+    <t>want to</t>
+  </si>
+  <si>
+    <t>intend to</t>
+  </si>
+  <si>
+    <t>explain</t>
+  </si>
+  <si>
+    <t>move house</t>
+  </si>
+  <si>
+    <t>occur; happen</t>
+  </si>
+  <si>
+    <t>after; while</t>
+  </si>
+  <si>
+    <t>if; when (future event)</t>
+  </si>
+  <si>
+    <t>説明する</t>
+  </si>
+  <si>
+    <t>動く</t>
+  </si>
+  <si>
+    <t>持って来る</t>
+  </si>
+  <si>
+    <t>始める</t>
+  </si>
+  <si>
+    <t>したいです</t>
+  </si>
+  <si>
+    <t>するつもりです</t>
+  </si>
+  <si>
+    <t>治療を施す</t>
+  </si>
+  <si>
+    <t>引っ越す</t>
+  </si>
+  <si>
+    <t>呼び出す、招く</t>
+  </si>
+  <si>
+    <t>紹介する</t>
+  </si>
+  <si>
+    <t>持っていく</t>
+  </si>
+  <si>
+    <t>持っている</t>
+  </si>
+  <si>
+    <t>終える</t>
+  </si>
+  <si>
+    <t>有益である</t>
+  </si>
+  <si>
+    <t>起る、起こる</t>
+  </si>
+  <si>
+    <t>動詞 見る の過去形</t>
+  </si>
+  <si>
+    <t>動詞 起きる の過去形</t>
+  </si>
+  <si>
+    <t>動詞 行く の過去形</t>
+  </si>
+  <si>
+    <t>動詞 する の過去形、動詞化語尾</t>
+  </si>
+  <si>
+    <t>後、ながら</t>
+  </si>
+  <si>
+    <t>もし、～とき(将来のイベント)</t>
+  </si>
+  <si>
+    <t>解释</t>
+  </si>
+  <si>
+    <t>移动</t>
+  </si>
+  <si>
+    <t>搬家</t>
+  </si>
+  <si>
+    <t>开始</t>
+  </si>
+  <si>
+    <t>获取</t>
+  </si>
+  <si>
+    <t>有益</t>
+  </si>
+  <si>
+    <t>想要</t>
+  </si>
+  <si>
+    <t>打算</t>
+  </si>
+  <si>
+    <t>后;而</t>
+  </si>
+  <si>
+    <t>如果;何时（未来事件）</t>
+  </si>
+  <si>
+    <t>治疗</t>
+  </si>
+  <si>
+    <t>叫；邀请</t>
+  </si>
+  <si>
+    <t>介绍</t>
+  </si>
+  <si>
+    <t>拿来</t>
+  </si>
+  <si>
+    <t>拿走</t>
+  </si>
+  <si>
+    <t>完成；结束</t>
+  </si>
+  <si>
+    <t>发生；发生</t>
+  </si>
+  <si>
+    <t>动词 看 的过去形式</t>
+  </si>
+  <si>
+    <t>动词 起床 的过去形式</t>
+  </si>
+  <si>
+    <t>动词 去 的过去形式</t>
+  </si>
+  <si>
+    <t>动词 做 的过去形式;Verbalizer（过去）</t>
   </si>
 </sst>
 </file>
@@ -9065,13 +9416,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R617"/>
+  <dimension ref="A1:R639"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H534" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C628" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J541" sqref="J541"/>
+      <selection pane="bottomRight" activeCell="J587" sqref="J587"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.55000000000000004"/>
@@ -17879,6 +18230,9 @@
       <c r="E372" s="1" t="s">
         <v>2068</v>
       </c>
+      <c r="F372" s="1" t="s">
+        <v>2919</v>
+      </c>
       <c r="J372" t="s">
         <v>2256</v>
       </c>
@@ -17948,6 +18302,9 @@
       <c r="D375" t="s">
         <v>27</v>
       </c>
+      <c r="F375" s="1" t="s">
+        <v>2902</v>
+      </c>
       <c r="J375" t="s">
         <v>2259</v>
       </c>
@@ -17997,6 +18354,9 @@
       <c r="D377" t="s">
         <v>27</v>
       </c>
+      <c r="F377" s="1" t="s">
+        <v>2920</v>
+      </c>
       <c r="I377" s="1" t="s">
         <v>2316</v>
       </c>
@@ -18202,6 +18562,9 @@
       <c r="D385" t="s">
         <v>27</v>
       </c>
+      <c r="F385" s="1" t="s">
+        <v>2918</v>
+      </c>
       <c r="J385" t="s">
         <v>2243</v>
       </c>
@@ -22485,574 +22848,530 @@
     </row>
     <row r="570" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A570" s="1" t="s">
-        <v>1388</v>
+        <v>2900</v>
       </c>
       <c r="B570" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D570" t="s">
-        <v>40</v>
+        <v>190</v>
+      </c>
+      <c r="E570" s="1" t="s">
+        <v>2928</v>
+      </c>
+      <c r="F570" s="1" t="s">
+        <v>2314</v>
       </c>
       <c r="J570" t="s">
-        <v>1553</v>
+        <v>2996</v>
       </c>
       <c r="K570" t="s">
-        <v>1599</v>
+        <v>2975</v>
       </c>
       <c r="L570" t="s">
-        <v>1514</v>
+        <v>2970</v>
       </c>
       <c r="M570" t="s">
-        <v>1439</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="571" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A571" s="1" t="s">
-        <v>1400</v>
+        <v>2901</v>
       </c>
       <c r="B571" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D571" t="s">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="E571" s="1" t="s">
-        <v>1442</v>
+        <v>2929</v>
+      </c>
+      <c r="F571" s="1" t="s">
+        <v>2902</v>
       </c>
       <c r="J571" t="s">
-        <v>1554</v>
+        <v>3006</v>
       </c>
       <c r="K571" t="s">
-        <v>1600</v>
+        <v>2981</v>
       </c>
       <c r="L571" t="s">
-        <v>1511</v>
+        <v>2955</v>
       </c>
       <c r="M571" t="s">
-        <v>1440</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="572" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A572" s="1" t="s">
-        <v>1389</v>
+        <v>2903</v>
       </c>
       <c r="B572" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D572" t="s">
-        <v>40</v>
-      </c>
-      <c r="E572"/>
+        <v>190</v>
+      </c>
+      <c r="F572" s="1" t="s">
+        <v>2904</v>
+      </c>
       <c r="J572" t="s">
-        <v>1555</v>
+        <v>2997</v>
       </c>
       <c r="K572" t="s">
-        <v>1601</v>
+        <v>2976</v>
       </c>
       <c r="L572" t="s">
-        <v>1512</v>
+        <v>2956</v>
       </c>
       <c r="M572" t="s">
-        <v>1441</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="573" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A573" s="1" t="s">
-        <v>1390</v>
+        <v>2905</v>
       </c>
       <c r="B573" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D573" t="s">
-        <v>40</v>
-      </c>
-      <c r="E573"/>
+        <v>190</v>
+      </c>
+      <c r="E573" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="F573" s="1" t="s">
+        <v>2904</v>
+      </c>
       <c r="J573" t="s">
-        <v>1556</v>
+        <v>2998</v>
       </c>
       <c r="K573" t="s">
-        <v>1602</v>
+        <v>2982</v>
       </c>
       <c r="L573" t="s">
-        <v>1515</v>
+        <v>2971</v>
       </c>
       <c r="M573" t="s">
-        <v>1443</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="574" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A574" s="1" t="s">
-        <v>1391</v>
+        <v>2927</v>
       </c>
       <c r="B574" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D574" t="s">
-        <v>40</v>
-      </c>
-      <c r="E574" s="1" t="s">
-        <v>1444</v>
+        <v>190</v>
       </c>
       <c r="J574" t="s">
-        <v>1557</v>
+        <v>3007</v>
       </c>
       <c r="K574" t="s">
-        <v>1603</v>
+        <v>2983</v>
       </c>
       <c r="L574" t="s">
-        <v>1513</v>
+        <v>2957</v>
       </c>
       <c r="M574" t="s">
-        <v>1445</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="575" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A575" s="1" t="s">
-        <v>1392</v>
+        <v>2906</v>
       </c>
       <c r="B575" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D575" t="s">
-        <v>40</v>
-      </c>
-      <c r="E575"/>
+        <v>190</v>
+      </c>
+      <c r="E575" s="1" t="s">
+        <v>2931</v>
+      </c>
+      <c r="F575" s="1" t="s">
+        <v>2907</v>
+      </c>
       <c r="J575" t="s">
-        <v>1558</v>
+        <v>3008</v>
       </c>
       <c r="K575" t="s">
-        <v>1558</v>
+        <v>2984</v>
       </c>
       <c r="L575" t="s">
-        <v>1516</v>
+        <v>2958</v>
       </c>
       <c r="M575" t="s">
-        <v>1446</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="576" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A576" s="1" t="s">
-        <v>1393</v>
+        <v>2908</v>
       </c>
       <c r="B576" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D576" t="s">
-        <v>40</v>
-      </c>
-      <c r="E576"/>
+        <v>190</v>
+      </c>
+      <c r="E576" s="1" t="s">
+        <v>2932</v>
+      </c>
+      <c r="F576" s="1" t="s">
+        <v>2909</v>
+      </c>
       <c r="J576" t="s">
-        <v>1559</v>
+        <v>3009</v>
       </c>
       <c r="K576" t="s">
-        <v>1604</v>
+        <v>2985</v>
       </c>
       <c r="L576" t="s">
-        <v>1517</v>
+        <v>2172</v>
       </c>
       <c r="M576" t="s">
-        <v>1447</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="577" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A577" s="1" t="s">
-        <v>1394</v>
+        <v>2910</v>
       </c>
       <c r="B577" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D577" t="s">
-        <v>40</v>
-      </c>
-      <c r="E577"/>
+        <v>190</v>
+      </c>
+      <c r="E577" s="1" t="s">
+        <v>2933</v>
+      </c>
       <c r="J577" t="s">
-        <v>1560</v>
+        <v>3010</v>
       </c>
       <c r="K577" t="s">
-        <v>1605</v>
+        <v>2977</v>
       </c>
       <c r="L577" t="s">
-        <v>1518</v>
+        <v>2959</v>
       </c>
       <c r="M577" t="s">
-        <v>1448</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="578" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A578" s="1" t="s">
-        <v>1395</v>
+        <v>2911</v>
       </c>
       <c r="B578" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D578" t="s">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="E578" s="1" t="s">
-        <v>1450</v>
+        <v>2934</v>
+      </c>
+      <c r="G578" s="1" t="s">
+        <v>2912</v>
       </c>
       <c r="J578" t="s">
-        <v>1561</v>
+        <v>2999</v>
       </c>
       <c r="K578" t="s">
-        <v>1606</v>
+        <v>2978</v>
       </c>
       <c r="L578" t="s">
-        <v>1519</v>
+        <v>2960</v>
       </c>
       <c r="M578" t="s">
-        <v>1449</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="579" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A579" s="1" t="s">
-        <v>1396</v>
+        <v>2913</v>
       </c>
       <c r="B579" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D579" t="s">
-        <v>90</v>
-      </c>
-      <c r="E579"/>
+        <v>2145</v>
+      </c>
       <c r="J579" t="s">
-        <v>1562</v>
+        <v>3000</v>
       </c>
       <c r="K579" t="s">
-        <v>1607</v>
+        <v>2986</v>
       </c>
       <c r="L579" t="s">
-        <v>1520</v>
+        <v>2961</v>
       </c>
       <c r="M579" t="s">
-        <v>1451</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="580" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A580" s="1" t="s">
-        <v>1397</v>
+        <v>2914</v>
       </c>
       <c r="B580" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D580" t="s">
-        <v>90</v>
-      </c>
-      <c r="E580"/>
+        <v>2145</v>
+      </c>
       <c r="J580" t="s">
-        <v>1563</v>
+        <v>3011</v>
       </c>
       <c r="K580" t="s">
-        <v>1608</v>
+        <v>2987</v>
       </c>
       <c r="L580" t="s">
-        <v>1521</v>
+        <v>2962</v>
       </c>
       <c r="M580" t="s">
-        <v>1452</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="581" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A581" s="1" t="s">
-        <v>1398</v>
+        <v>2915</v>
       </c>
       <c r="B581" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D581" t="s">
-        <v>90</v>
-      </c>
-      <c r="E581" s="1" t="s">
-        <v>1454</v>
+        <v>2145</v>
       </c>
       <c r="J581" t="s">
-        <v>1563</v>
+        <v>3001</v>
       </c>
       <c r="K581" t="s">
-        <v>1609</v>
+        <v>2988</v>
       </c>
       <c r="L581" t="s">
-        <v>1521</v>
+        <v>2963</v>
       </c>
       <c r="M581" t="s">
-        <v>1452</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="582" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A582" s="1" t="s">
-        <v>1399</v>
+        <v>2916</v>
       </c>
       <c r="B582" t="s">
-        <v>1387</v>
+        <v>190</v>
       </c>
       <c r="D582" t="s">
-        <v>90</v>
-      </c>
-      <c r="E582"/>
+        <v>2145</v>
+      </c>
+      <c r="G582" s="1" t="s">
+        <v>2917</v>
+      </c>
       <c r="J582" t="s">
-        <v>1564</v>
+        <v>3012</v>
       </c>
       <c r="K582" t="s">
-        <v>1609</v>
+        <v>2989</v>
       </c>
       <c r="L582" t="s">
-        <v>1522</v>
+        <v>2972</v>
       </c>
       <c r="M582" t="s">
-        <v>1453</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="583" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A583" s="1" t="s">
-        <v>1401</v>
+        <v>2918</v>
       </c>
       <c r="B583" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D583" t="s">
-        <v>90</v>
-      </c>
-      <c r="E583" s="1" t="s">
-        <v>1455</v>
+        <v>190</v>
       </c>
       <c r="J583" t="s">
-        <v>1565</v>
+        <v>3013</v>
       </c>
       <c r="K583" t="s">
-        <v>1610</v>
+        <v>2990</v>
       </c>
       <c r="L583" t="s">
-        <v>1523</v>
+        <v>2964</v>
       </c>
       <c r="M583" t="s">
-        <v>1456</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="584" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A584" s="1" t="s">
-        <v>1402</v>
+        <v>2919</v>
       </c>
       <c r="B584" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D584" t="s">
-        <v>90</v>
-      </c>
-      <c r="E584"/>
+        <v>190</v>
+      </c>
       <c r="J584" t="s">
-        <v>1566</v>
+        <v>3014</v>
       </c>
       <c r="K584" t="s">
-        <v>1611</v>
+        <v>2991</v>
       </c>
       <c r="L584" t="s">
-        <v>1524</v>
+        <v>2965</v>
       </c>
       <c r="M584" t="s">
-        <v>1457</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="585" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A585" s="1" t="s">
-        <v>1459</v>
+        <v>2920</v>
       </c>
       <c r="B585" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D585" t="s">
-        <v>90</v>
-      </c>
-      <c r="E585" s="1" t="s">
-        <v>1460</v>
+        <v>190</v>
       </c>
       <c r="J585" t="s">
-        <v>1567</v>
+        <v>3015</v>
       </c>
       <c r="K585" t="s">
-        <v>1612</v>
+        <v>2992</v>
       </c>
       <c r="L585" t="s">
-        <v>1525</v>
+        <v>2966</v>
       </c>
       <c r="M585" t="s">
-        <v>1458</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="586" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A586" s="1" t="s">
-        <v>1403</v>
+        <v>2902</v>
       </c>
       <c r="B586" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D586" t="s">
-        <v>90</v>
-      </c>
-      <c r="E586"/>
+        <v>190</v>
+      </c>
       <c r="J586" t="s">
-        <v>1568</v>
+        <v>3016</v>
       </c>
       <c r="K586" t="s">
-        <v>1613</v>
+        <v>2993</v>
       </c>
       <c r="L586" t="s">
-        <v>1526</v>
+        <v>2967</v>
       </c>
       <c r="M586" t="s">
-        <v>1461</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="587" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A587" s="1" t="s">
-        <v>1404</v>
+        <v>2921</v>
       </c>
       <c r="B587" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D587" t="s">
-        <v>90</v>
-      </c>
-      <c r="E587"/>
+        <v>190</v>
+      </c>
+      <c r="G587" s="1" t="s">
+        <v>1435</v>
+      </c>
       <c r="J587" t="s">
-        <v>1569</v>
+        <v>3002</v>
       </c>
       <c r="K587" t="s">
-        <v>1614</v>
+        <v>2979</v>
       </c>
       <c r="L587" t="s">
-        <v>1527</v>
+        <v>2968</v>
       </c>
       <c r="M587" t="s">
-        <v>1462</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="588" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A588" s="1" t="s">
-        <v>1405</v>
+        <v>2922</v>
       </c>
       <c r="B588" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D588" t="s">
-        <v>90</v>
-      </c>
-      <c r="E588"/>
+        <v>190</v>
+      </c>
       <c r="J588" t="s">
-        <v>1571</v>
+        <v>3003</v>
       </c>
       <c r="K588" t="s">
-        <v>1615</v>
+        <v>2980</v>
       </c>
       <c r="L588" t="s">
-        <v>1570</v>
+        <v>2969</v>
       </c>
       <c r="M588" t="s">
-        <v>1463</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="589" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A589" s="1" t="s">
-        <v>1406</v>
+        <v>2923</v>
       </c>
       <c r="B589" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D589" t="s">
-        <v>90</v>
-      </c>
-      <c r="E589"/>
+        <v>190</v>
+      </c>
       <c r="J589" t="s">
-        <v>1572</v>
+        <v>3004</v>
       </c>
       <c r="K589" t="s">
-        <v>1616</v>
+        <v>2994</v>
       </c>
       <c r="L589" t="s">
-        <v>1528</v>
+        <v>2973</v>
       </c>
       <c r="M589" t="s">
-        <v>1464</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="590" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A590" s="1" t="s">
-        <v>1407</v>
+        <v>2924</v>
       </c>
       <c r="B590" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D590" t="s">
-        <v>90</v>
-      </c>
-      <c r="E590" s="1" t="s">
-        <v>1465</v>
+        <v>190</v>
       </c>
       <c r="J590" t="s">
-        <v>1573</v>
+        <v>3004</v>
       </c>
       <c r="K590" t="s">
-        <v>1617</v>
+        <v>2994</v>
       </c>
       <c r="L590" t="s">
-        <v>1529</v>
+        <v>2973</v>
       </c>
       <c r="M590" t="s">
-        <v>1467</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="591" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A591" s="1" t="s">
-        <v>1408</v>
+        <v>2925</v>
       </c>
       <c r="B591" t="s">
-        <v>1387</v>
-      </c>
-      <c r="D591" t="s">
-        <v>90</v>
-      </c>
-      <c r="E591" s="1" t="s">
-        <v>1466</v>
+        <v>190</v>
       </c>
       <c r="J591" t="s">
-        <v>1574</v>
+        <v>3005</v>
       </c>
       <c r="K591" t="s">
-        <v>1618</v>
+        <v>2995</v>
       </c>
       <c r="L591" t="s">
-        <v>1530</v>
+        <v>2974</v>
       </c>
       <c r="M591" t="s">
-        <v>1468</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="592" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A592" s="1" t="s">
-        <v>1409</v>
+        <v>1388</v>
       </c>
       <c r="B592" t="s">
         <v>1387</v>
       </c>
       <c r="D592" t="s">
-        <v>90</v>
-      </c>
-      <c r="E592"/>
+        <v>40</v>
+      </c>
       <c r="J592" t="s">
-        <v>1576</v>
+        <v>1553</v>
       </c>
       <c r="K592" t="s">
-        <v>1619</v>
+        <v>1599</v>
       </c>
       <c r="L592" t="s">
-        <v>1531</v>
+        <v>1514</v>
       </c>
       <c r="M592" t="s">
-        <v>1469</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="593" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A593" s="1" t="s">
-        <v>1410</v>
+        <v>1400</v>
       </c>
       <c r="B593" t="s">
         <v>1387</v>
@@ -23060,179 +23379,171 @@
       <c r="D593" t="s">
         <v>90</v>
       </c>
-      <c r="E593"/>
+      <c r="E593" s="1" t="s">
+        <v>1442</v>
+      </c>
       <c r="J593" t="s">
-        <v>1575</v>
+        <v>1554</v>
       </c>
       <c r="K593" t="s">
-        <v>1620</v>
+        <v>1600</v>
       </c>
       <c r="L593" t="s">
-        <v>1532</v>
+        <v>1511</v>
       </c>
       <c r="M593" t="s">
-        <v>1470</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="594" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A594" s="1" t="s">
-        <v>1411</v>
+        <v>1389</v>
       </c>
       <c r="B594" t="s">
         <v>1387</v>
       </c>
       <c r="D594" t="s">
-        <v>90</v>
-      </c>
-      <c r="E594" s="1" t="s">
-        <v>1472</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E594"/>
       <c r="J594" t="s">
-        <v>1577</v>
+        <v>1555</v>
       </c>
       <c r="K594" t="s">
-        <v>1621</v>
+        <v>1601</v>
       </c>
       <c r="L594" t="s">
-        <v>1533</v>
+        <v>1512</v>
       </c>
       <c r="M594" t="s">
-        <v>1471</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="595" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A595" s="1" t="s">
-        <v>1473</v>
+        <v>1390</v>
       </c>
       <c r="B595" t="s">
         <v>1387</v>
       </c>
       <c r="D595" t="s">
-        <v>90</v>
-      </c>
-      <c r="E595" s="1" t="s">
-        <v>1474</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E595"/>
       <c r="J595" t="s">
-        <v>1578</v>
+        <v>1556</v>
       </c>
       <c r="K595" t="s">
-        <v>1622</v>
+        <v>1602</v>
       </c>
       <c r="L595" t="s">
-        <v>1534</v>
+        <v>1515</v>
       </c>
       <c r="M595" t="s">
-        <v>1476</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="596" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A596" s="1" t="s">
-        <v>1412</v>
+        <v>1391</v>
       </c>
       <c r="B596" t="s">
         <v>1387</v>
       </c>
       <c r="D596" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="E596" s="1" t="s">
-        <v>1475</v>
+        <v>1444</v>
       </c>
       <c r="J596" t="s">
-        <v>1579</v>
+        <v>1557</v>
       </c>
       <c r="K596" t="s">
-        <v>1623</v>
+        <v>1603</v>
       </c>
       <c r="L596" t="s">
-        <v>1478</v>
+        <v>1513</v>
       </c>
       <c r="M596" t="s">
-        <v>1477</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="597" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A597" s="1" t="s">
-        <v>1413</v>
+        <v>1392</v>
       </c>
       <c r="B597" t="s">
         <v>1387</v>
       </c>
       <c r="D597" t="s">
-        <v>90</v>
-      </c>
-      <c r="E597" s="1" t="s">
-        <v>1479</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E597"/>
       <c r="J597" t="s">
-        <v>1580</v>
+        <v>1558</v>
       </c>
       <c r="K597" t="s">
-        <v>1624</v>
+        <v>1558</v>
       </c>
       <c r="L597" t="s">
-        <v>1535</v>
+        <v>1516</v>
       </c>
       <c r="M597" t="s">
-        <v>1481</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="598" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A598" s="1" t="s">
-        <v>1414</v>
+        <v>1393</v>
       </c>
       <c r="B598" t="s">
         <v>1387</v>
       </c>
       <c r="D598" t="s">
-        <v>90</v>
-      </c>
-      <c r="E598" s="1" t="s">
-        <v>1480</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E598"/>
       <c r="J598" t="s">
-        <v>1580</v>
+        <v>1559</v>
       </c>
       <c r="K598" t="s">
-        <v>1624</v>
+        <v>1604</v>
       </c>
       <c r="L598" t="s">
-        <v>1535</v>
+        <v>1517</v>
       </c>
       <c r="M598" t="s">
-        <v>1481</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="599" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A599" s="1" t="s">
-        <v>1415</v>
+        <v>1394</v>
       </c>
       <c r="B599" t="s">
         <v>1387</v>
       </c>
       <c r="D599" t="s">
-        <v>90</v>
-      </c>
-      <c r="E599" s="1" t="s">
-        <v>1483</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E599"/>
       <c r="J599" t="s">
-        <v>1581</v>
+        <v>1560</v>
       </c>
       <c r="K599" t="s">
-        <v>1625</v>
+        <v>1605</v>
       </c>
       <c r="L599" t="s">
-        <v>1484</v>
+        <v>1518</v>
       </c>
       <c r="M599" t="s">
-        <v>1482</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="600" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A600" s="1" t="s">
-        <v>1416</v>
+        <v>1395</v>
       </c>
       <c r="B600" t="s">
         <v>1387</v>
@@ -23240,23 +23551,25 @@
       <c r="D600" t="s">
         <v>90</v>
       </c>
-      <c r="E600"/>
+      <c r="E600" s="1" t="s">
+        <v>1450</v>
+      </c>
       <c r="J600" t="s">
-        <v>1582</v>
+        <v>1561</v>
       </c>
       <c r="K600" t="s">
-        <v>1626</v>
+        <v>1606</v>
       </c>
       <c r="L600" t="s">
-        <v>1536</v>
+        <v>1519</v>
       </c>
       <c r="M600" t="s">
-        <v>1485</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="601" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A601" s="1" t="s">
-        <v>1417</v>
+        <v>1396</v>
       </c>
       <c r="B601" t="s">
         <v>1387</v>
@@ -23266,70 +23579,71 @@
       </c>
       <c r="E601"/>
       <c r="J601" t="s">
-        <v>1583</v>
+        <v>1562</v>
       </c>
       <c r="K601" t="s">
-        <v>1627</v>
+        <v>1607</v>
       </c>
       <c r="L601" t="s">
-        <v>1537</v>
+        <v>1520</v>
       </c>
       <c r="M601" t="s">
-        <v>1486</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="602" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A602" s="1" t="s">
-        <v>1418</v>
+        <v>1397</v>
       </c>
       <c r="B602" t="s">
         <v>1387</v>
       </c>
       <c r="D602" t="s">
-        <v>89</v>
-      </c>
-      <c r="E602" s="1" t="s">
-        <v>1490</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="E602"/>
       <c r="J602" t="s">
-        <v>1584</v>
+        <v>1563</v>
       </c>
       <c r="K602" t="s">
-        <v>1628</v>
+        <v>1608</v>
       </c>
       <c r="L602" t="s">
-        <v>1538</v>
+        <v>1521</v>
       </c>
       <c r="M602" t="s">
-        <v>1487</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="603" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A603" s="1" t="s">
-        <v>1419</v>
+        <v>1398</v>
       </c>
       <c r="B603" t="s">
         <v>1387</v>
       </c>
       <c r="D603" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="E603" s="1" t="s">
+        <v>1454</v>
       </c>
       <c r="J603" t="s">
-        <v>918</v>
+        <v>1563</v>
       </c>
       <c r="K603" t="s">
-        <v>908</v>
+        <v>1609</v>
       </c>
       <c r="L603" t="s">
-        <v>1539</v>
+        <v>1521</v>
       </c>
       <c r="M603" t="s">
-        <v>1488</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="604" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A604" s="1" t="s">
-        <v>1420</v>
+        <v>1399</v>
       </c>
       <c r="B604" t="s">
         <v>1387</v>
@@ -23337,353 +23651,902 @@
       <c r="D604" t="s">
         <v>90</v>
       </c>
-      <c r="E604" s="1" t="s">
-        <v>1491</v>
-      </c>
+      <c r="E604"/>
       <c r="J604" t="s">
-        <v>1585</v>
+        <v>1564</v>
       </c>
       <c r="K604" t="s">
-        <v>1629</v>
+        <v>1609</v>
       </c>
       <c r="L604" t="s">
-        <v>1540</v>
+        <v>1522</v>
       </c>
       <c r="M604" t="s">
-        <v>1489</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="605" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A605" s="1" t="s">
-        <v>1421</v>
+        <v>1401</v>
       </c>
       <c r="B605" t="s">
         <v>1387</v>
       </c>
       <c r="D605" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="E605" s="1" t="s">
+        <v>1455</v>
       </c>
       <c r="J605" t="s">
-        <v>1586</v>
+        <v>1565</v>
       </c>
       <c r="K605" t="s">
-        <v>886</v>
+        <v>1610</v>
       </c>
       <c r="L605" t="s">
-        <v>1541</v>
+        <v>1523</v>
       </c>
       <c r="M605" t="s">
-        <v>1498</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="606" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A606" s="1" t="s">
-        <v>1422</v>
+        <v>1402</v>
       </c>
       <c r="B606" t="s">
         <v>1387</v>
       </c>
       <c r="D606" t="s">
-        <v>91</v>
-      </c>
-      <c r="E606" s="1" t="s">
-        <v>1492</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="E606"/>
       <c r="J606" t="s">
-        <v>1587</v>
+        <v>1566</v>
       </c>
       <c r="K606" t="s">
-        <v>1630</v>
+        <v>1611</v>
       </c>
       <c r="L606" t="s">
-        <v>1499</v>
+        <v>1524</v>
       </c>
       <c r="M606" t="s">
-        <v>1499</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="607" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A607" s="1" t="s">
-        <v>1423</v>
+        <v>1459</v>
       </c>
       <c r="B607" t="s">
         <v>1387</v>
       </c>
       <c r="D607" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+      <c r="E607" s="1" t="s">
+        <v>1460</v>
       </c>
       <c r="J607" t="s">
-        <v>1588</v>
+        <v>1567</v>
       </c>
       <c r="K607" t="s">
-        <v>1631</v>
+        <v>1612</v>
       </c>
       <c r="L607" t="s">
-        <v>1542</v>
+        <v>1525</v>
       </c>
       <c r="M607" t="s">
-        <v>1500</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="608" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A608" s="1" t="s">
-        <v>1424</v>
+        <v>1403</v>
       </c>
       <c r="B608" t="s">
         <v>1387</v>
       </c>
       <c r="D608" t="s">
-        <v>91</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="E608"/>
       <c r="J608" t="s">
-        <v>1589</v>
+        <v>1568</v>
       </c>
       <c r="K608" t="s">
-        <v>1632</v>
+        <v>1613</v>
       </c>
       <c r="L608" t="s">
-        <v>1543</v>
+        <v>1526</v>
       </c>
       <c r="M608" t="s">
-        <v>1501</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="609" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A609" s="1" t="s">
-        <v>1425</v>
+        <v>1404</v>
       </c>
       <c r="B609" t="s">
         <v>1387</v>
       </c>
       <c r="D609" t="s">
-        <v>1178</v>
-      </c>
-      <c r="E609" s="1" t="s">
-        <v>1493</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="E609"/>
       <c r="J609" t="s">
-        <v>1590</v>
+        <v>1569</v>
       </c>
       <c r="K609" t="s">
-        <v>1633</v>
+        <v>1614</v>
       </c>
       <c r="L609" t="s">
-        <v>1544</v>
+        <v>1527</v>
       </c>
       <c r="M609" t="s">
-        <v>1502</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="610" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A610" s="1" t="s">
-        <v>1426</v>
+        <v>1405</v>
       </c>
       <c r="B610" t="s">
         <v>1387</v>
       </c>
       <c r="D610" t="s">
-        <v>89</v>
-      </c>
-      <c r="E610" s="1" t="s">
-        <v>1494</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="E610"/>
       <c r="J610" t="s">
-        <v>1591</v>
+        <v>1571</v>
       </c>
       <c r="K610" t="s">
-        <v>1634</v>
+        <v>1615</v>
       </c>
       <c r="L610" t="s">
-        <v>1545</v>
+        <v>1570</v>
       </c>
       <c r="M610" t="s">
-        <v>1503</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="611" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A611" s="1" t="s">
-        <v>1427</v>
+        <v>1406</v>
       </c>
       <c r="B611" t="s">
         <v>1387</v>
       </c>
       <c r="D611" t="s">
-        <v>91</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="E611"/>
       <c r="J611" t="s">
-        <v>1592</v>
+        <v>1572</v>
       </c>
       <c r="K611" t="s">
-        <v>1635</v>
+        <v>1616</v>
       </c>
       <c r="L611" t="s">
-        <v>1546</v>
+        <v>1528</v>
       </c>
       <c r="M611" t="s">
-        <v>1504</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="612" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A612" s="1" t="s">
-        <v>1428</v>
+        <v>1407</v>
       </c>
       <c r="B612" t="s">
         <v>1387</v>
       </c>
       <c r="D612" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E612" s="1" t="s">
-        <v>1495</v>
+        <v>1465</v>
       </c>
       <c r="J612" t="s">
-        <v>1593</v>
+        <v>1573</v>
       </c>
       <c r="K612" t="s">
-        <v>1636</v>
+        <v>1617</v>
       </c>
       <c r="L612" t="s">
-        <v>1547</v>
+        <v>1529</v>
       </c>
       <c r="M612" t="s">
-        <v>1505</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="613" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A613" s="1" t="s">
-        <v>1429</v>
+        <v>1408</v>
       </c>
       <c r="B613" t="s">
         <v>1387</v>
       </c>
       <c r="D613" t="s">
-        <v>27</v>
-      </c>
-      <c r="F613" s="1" t="s">
-        <v>1430</v>
+        <v>90</v>
+      </c>
+      <c r="E613" s="1" t="s">
+        <v>1466</v>
       </c>
       <c r="J613" t="s">
-        <v>1594</v>
+        <v>1574</v>
       </c>
       <c r="K613" t="s">
-        <v>1637</v>
+        <v>1618</v>
       </c>
       <c r="L613" t="s">
-        <v>1548</v>
+        <v>1530</v>
       </c>
       <c r="M613" t="s">
-        <v>1506</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="614" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A614" s="1" t="s">
-        <v>1431</v>
+        <v>1409</v>
       </c>
       <c r="B614" t="s">
         <v>1387</v>
       </c>
       <c r="D614" t="s">
-        <v>27</v>
-      </c>
-      <c r="E614" s="1" t="s">
-        <v>1438</v>
-      </c>
-      <c r="G614" s="1" t="s">
-        <v>1432</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="E614"/>
       <c r="J614" t="s">
-        <v>1595</v>
+        <v>1576</v>
       </c>
       <c r="K614" t="s">
-        <v>1638</v>
+        <v>1619</v>
       </c>
       <c r="L614" t="s">
-        <v>1549</v>
+        <v>1531</v>
       </c>
       <c r="M614" t="s">
-        <v>1507</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="615" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A615" s="1" t="s">
-        <v>1433</v>
+        <v>1410</v>
       </c>
       <c r="B615" t="s">
         <v>1387</v>
       </c>
-      <c r="C615" s="1"/>
       <c r="D615" t="s">
-        <v>27</v>
-      </c>
-      <c r="E615" s="1" t="s">
-        <v>1496</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="E615"/>
       <c r="J615" t="s">
-        <v>1596</v>
+        <v>1575</v>
       </c>
       <c r="K615" t="s">
-        <v>1639</v>
+        <v>1620</v>
       </c>
       <c r="L615" t="s">
-        <v>1550</v>
+        <v>1532</v>
       </c>
       <c r="M615" t="s">
-        <v>1508</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="616" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A616" s="1" t="s">
-        <v>1434</v>
+        <v>1411</v>
       </c>
       <c r="B616" t="s">
         <v>1387</v>
       </c>
       <c r="D616" t="s">
-        <v>27</v>
-      </c>
-      <c r="G616" s="1" t="s">
-        <v>1435</v>
+        <v>90</v>
+      </c>
+      <c r="E616" s="1" t="s">
+        <v>1472</v>
       </c>
       <c r="J616" t="s">
-        <v>1597</v>
+        <v>1577</v>
       </c>
       <c r="K616" t="s">
-        <v>1640</v>
+        <v>1621</v>
       </c>
       <c r="L616" t="s">
-        <v>1551</v>
+        <v>1533</v>
       </c>
       <c r="M616" t="s">
-        <v>1509</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="617" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A617" s="1" t="s">
-        <v>1436</v>
+        <v>1473</v>
       </c>
       <c r="B617" t="s">
         <v>1387</v>
       </c>
-      <c r="C617" s="1"/>
       <c r="D617" t="s">
+        <v>90</v>
+      </c>
+      <c r="E617" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="J617" t="s">
+        <v>1578</v>
+      </c>
+      <c r="K617" t="s">
+        <v>1622</v>
+      </c>
+      <c r="L617" t="s">
+        <v>1534</v>
+      </c>
+      <c r="M617" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="618" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A618" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B618" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D618" t="s">
+        <v>90</v>
+      </c>
+      <c r="E618" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="J618" t="s">
+        <v>1579</v>
+      </c>
+      <c r="K618" t="s">
+        <v>1623</v>
+      </c>
+      <c r="L618" t="s">
+        <v>1478</v>
+      </c>
+      <c r="M618" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="619" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A619" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B619" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D619" t="s">
+        <v>90</v>
+      </c>
+      <c r="E619" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="J619" t="s">
+        <v>1580</v>
+      </c>
+      <c r="K619" t="s">
+        <v>1624</v>
+      </c>
+      <c r="L619" t="s">
+        <v>1535</v>
+      </c>
+      <c r="M619" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="620" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A620" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B620" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D620" t="s">
+        <v>90</v>
+      </c>
+      <c r="E620" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J620" t="s">
+        <v>1580</v>
+      </c>
+      <c r="K620" t="s">
+        <v>1624</v>
+      </c>
+      <c r="L620" t="s">
+        <v>1535</v>
+      </c>
+      <c r="M620" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="621" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A621" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B621" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D621" t="s">
+        <v>90</v>
+      </c>
+      <c r="E621" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="J621" t="s">
+        <v>1581</v>
+      </c>
+      <c r="K621" t="s">
+        <v>1625</v>
+      </c>
+      <c r="L621" t="s">
+        <v>1484</v>
+      </c>
+      <c r="M621" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="622" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A622" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B622" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D622" t="s">
+        <v>90</v>
+      </c>
+      <c r="E622"/>
+      <c r="J622" t="s">
+        <v>1582</v>
+      </c>
+      <c r="K622" t="s">
+        <v>1626</v>
+      </c>
+      <c r="L622" t="s">
+        <v>1536</v>
+      </c>
+      <c r="M622" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="623" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A623" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B623" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D623" t="s">
+        <v>90</v>
+      </c>
+      <c r="E623"/>
+      <c r="J623" t="s">
+        <v>1583</v>
+      </c>
+      <c r="K623" t="s">
+        <v>1627</v>
+      </c>
+      <c r="L623" t="s">
+        <v>1537</v>
+      </c>
+      <c r="M623" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="624" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A624" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B624" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D624" t="s">
+        <v>89</v>
+      </c>
+      <c r="E624" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="J624" t="s">
+        <v>1584</v>
+      </c>
+      <c r="K624" t="s">
+        <v>1628</v>
+      </c>
+      <c r="L624" t="s">
+        <v>1538</v>
+      </c>
+      <c r="M624" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="625" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A625" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B625" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D625" t="s">
+        <v>91</v>
+      </c>
+      <c r="J625" t="s">
+        <v>918</v>
+      </c>
+      <c r="K625" t="s">
+        <v>908</v>
+      </c>
+      <c r="L625" t="s">
+        <v>1539</v>
+      </c>
+      <c r="M625" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="626" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A626" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B626" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D626" t="s">
+        <v>90</v>
+      </c>
+      <c r="E626" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="J626" t="s">
+        <v>1585</v>
+      </c>
+      <c r="K626" t="s">
+        <v>1629</v>
+      </c>
+      <c r="L626" t="s">
+        <v>1540</v>
+      </c>
+      <c r="M626" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="627" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A627" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B627" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D627" t="s">
+        <v>91</v>
+      </c>
+      <c r="J627" t="s">
+        <v>1586</v>
+      </c>
+      <c r="K627" t="s">
+        <v>886</v>
+      </c>
+      <c r="L627" t="s">
+        <v>1541</v>
+      </c>
+      <c r="M627" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="628" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A628" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B628" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D628" t="s">
+        <v>91</v>
+      </c>
+      <c r="E628" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="J628" t="s">
+        <v>1587</v>
+      </c>
+      <c r="K628" t="s">
+        <v>1630</v>
+      </c>
+      <c r="L628" t="s">
+        <v>1499</v>
+      </c>
+      <c r="M628" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="629" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A629" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B629" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D629" t="s">
+        <v>91</v>
+      </c>
+      <c r="J629" t="s">
+        <v>1588</v>
+      </c>
+      <c r="K629" t="s">
+        <v>1631</v>
+      </c>
+      <c r="L629" t="s">
+        <v>1542</v>
+      </c>
+      <c r="M629" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="630" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A630" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B630" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D630" t="s">
+        <v>91</v>
+      </c>
+      <c r="J630" t="s">
+        <v>1589</v>
+      </c>
+      <c r="K630" t="s">
+        <v>1632</v>
+      </c>
+      <c r="L630" t="s">
+        <v>1543</v>
+      </c>
+      <c r="M630" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="631" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A631" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D631" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E631" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="J631" t="s">
+        <v>1590</v>
+      </c>
+      <c r="K631" t="s">
+        <v>1633</v>
+      </c>
+      <c r="L631" t="s">
+        <v>1544</v>
+      </c>
+      <c r="M631" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="632" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A632" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D632" t="s">
+        <v>89</v>
+      </c>
+      <c r="E632" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J632" t="s">
+        <v>1591</v>
+      </c>
+      <c r="K632" t="s">
+        <v>1634</v>
+      </c>
+      <c r="L632" t="s">
+        <v>1545</v>
+      </c>
+      <c r="M632" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="633" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A633" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B633" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D633" t="s">
+        <v>91</v>
+      </c>
+      <c r="J633" t="s">
+        <v>1592</v>
+      </c>
+      <c r="K633" t="s">
+        <v>1635</v>
+      </c>
+      <c r="L633" t="s">
+        <v>1546</v>
+      </c>
+      <c r="M633" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="634" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A634" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B634" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D634" t="s">
+        <v>91</v>
+      </c>
+      <c r="E634" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="J634" t="s">
+        <v>1593</v>
+      </c>
+      <c r="K634" t="s">
+        <v>1636</v>
+      </c>
+      <c r="L634" t="s">
+        <v>1547</v>
+      </c>
+      <c r="M634" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="635" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A635" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B635" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D635" t="s">
         <v>27</v>
       </c>
-      <c r="E617" s="1" t="s">
+      <c r="F635" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="J635" t="s">
+        <v>1594</v>
+      </c>
+      <c r="K635" t="s">
+        <v>1637</v>
+      </c>
+      <c r="L635" t="s">
+        <v>1548</v>
+      </c>
+      <c r="M635" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="636" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A636" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B636" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D636" t="s">
+        <v>27</v>
+      </c>
+      <c r="E636" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="G636" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="J636" t="s">
+        <v>1595</v>
+      </c>
+      <c r="K636" t="s">
+        <v>1638</v>
+      </c>
+      <c r="L636" t="s">
+        <v>1549</v>
+      </c>
+      <c r="M636" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="637" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A637" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B637" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C637" s="1"/>
+      <c r="D637" t="s">
+        <v>27</v>
+      </c>
+      <c r="E637" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J637" t="s">
+        <v>1596</v>
+      </c>
+      <c r="K637" t="s">
+        <v>1639</v>
+      </c>
+      <c r="L637" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M637" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="638" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A638" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B638" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D638" t="s">
+        <v>27</v>
+      </c>
+      <c r="G638" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="J638" t="s">
+        <v>1597</v>
+      </c>
+      <c r="K638" t="s">
+        <v>1640</v>
+      </c>
+      <c r="L638" t="s">
+        <v>1551</v>
+      </c>
+      <c r="M638" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="639" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A639" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B639" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C639" s="1"/>
+      <c r="D639" t="s">
+        <v>27</v>
+      </c>
+      <c r="E639" s="1" t="s">
         <v>1497</v>
       </c>
-      <c r="F617" s="1" t="s">
+      <c r="F639" s="1" t="s">
         <v>1437</v>
       </c>
-      <c r="J617" t="s">
+      <c r="J639" t="s">
         <v>1598</v>
       </c>
-      <c r="K617" t="s">
+      <c r="K639" t="s">
         <v>1641</v>
       </c>
-      <c r="L617" t="s">
+      <c r="L639" t="s">
         <v>1552</v>
       </c>
-      <c r="M617" t="s">
+      <c r="M639" t="s">
         <v>1510</v>
       </c>
     </row>

--- a/dictionary/Vocab.xlsx
+++ b/dictionary/Vocab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_Trae\TibetanNote\dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CF4AE0-3C8A-42E6-9D91-046B59FEA8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{FE4C88BA-02A8-4FC7-A6DD-6ABFE20F4F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Vocab" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4605" uniqueCount="3017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5077" uniqueCount="3282">
   <si>
     <t>word</t>
   </si>
@@ -9087,6 +9088,801 @@
   </si>
   <si>
     <t>动词 做 的过去形式;Verbalizer（过去）</t>
+  </si>
+  <si>
+    <t>N.Part.</t>
+  </si>
+  <si>
+    <t>V02-L04</t>
+  </si>
+  <si>
+    <t>བརྩེ་བའི།</t>
+  </si>
+  <si>
+    <t>འབྲོག་མོ།</t>
+  </si>
+  <si>
+    <t>ཉེན་རྟོག་པ།</t>
+  </si>
+  <si>
+    <t>འགོ་ཁྲིད།</t>
+  </si>
+  <si>
+    <t>ཡུལ་སྐོར།</t>
+  </si>
+  <si>
+    <t>རླངས་འཁོར།</t>
+  </si>
+  <si>
+    <t>སྤྱི་སྤྱོད་རླངས་འཁོར།</t>
+  </si>
+  <si>
+    <t>མེ་འཁོར།</t>
+  </si>
+  <si>
+    <t>གནམ་གྲུ་འབབ་ཐང་།</t>
+  </si>
+  <si>
+    <t>གནམ་ཐང་།</t>
+  </si>
+  <si>
+    <t>གནམ་གྲུ་ཐང་།</t>
+  </si>
+  <si>
+    <t>མགྲོན་ཁང་།</t>
+  </si>
+  <si>
+    <t>གྲྭ་ཤག</t>
+  </si>
+  <si>
+    <t>སྦྲ།</t>
+  </si>
+  <si>
+    <t>མཚོ་ཁ།</t>
+  </si>
+  <si>
+    <t>གནས་མཇལ།</t>
+  </si>
+  <si>
+    <t>མཆོད་མཇལ།</t>
+  </si>
+  <si>
+    <t>བབས་ཚུགས།</t>
+  </si>
+  <si>
+    <t>སྤ་སེ།</t>
+  </si>
+  <si>
+    <t>པར་ཆས།</t>
+  </si>
+  <si>
+    <t>བརྩེ་(like) + བ(nmlz) + འི་(gen)</t>
+  </si>
+  <si>
+    <t>ཉེན་རྟོག་(danger/examiber) + པ་(nmlz)</t>
+  </si>
+  <si>
+    <t>འགོ་(start) + ཁྲིད་(take)</t>
+  </si>
+  <si>
+    <t>ཡུལ་(valley) + སྐོར་(turn)</t>
+  </si>
+  <si>
+    <t>རླངས་(vapor) + འཁོར་(machine)</t>
+  </si>
+  <si>
+    <t>སྤྱི་(community) + སྤྱོད་(use) + རླངས་(vapor) + འཁོར་ (turn)</t>
+  </si>
+  <si>
+    <t>མེ་(fire) + འཁོར་(machine)</t>
+  </si>
+  <si>
+    <t>གནམ་(sky) + གྲུ་(boat) + འབབ་(descend) + ཐང་(plain)</t>
+  </si>
+  <si>
+    <t>གནམ་(sky) + ཐང་(plain)</t>
+  </si>
+  <si>
+    <t>གནམ་(sky) + གྲུ་(boat) + ཐང་(plain)</t>
+  </si>
+  <si>
+    <t>མགྲོན་(guest) + ཁང་(building)</t>
+  </si>
+  <si>
+    <t>གྲྭ་(monk) + ཤག་(cellular)</t>
+  </si>
+  <si>
+    <t>མཚོ་(lake) + ཁ་(mouth/edge//face)</t>
+  </si>
+  <si>
+    <t>གནས་(sacred place) + མཇལ་(meet.hon)</t>
+  </si>
+  <si>
+    <t>མཆོད་(offering) + མཇལ་(meet.hon)</t>
+  </si>
+  <si>
+    <t>བབས་(descend) + ཚུགས་(step)</t>
+  </si>
+  <si>
+    <t>སྤ་སེ་ &lt; pass</t>
+  </si>
+  <si>
+    <t>པར་(picture) + ཆས་(object)</t>
+  </si>
+  <si>
+    <t>ཚེས།</t>
+  </si>
+  <si>
+    <t>ཚེས་པ།</t>
+  </si>
+  <si>
+    <t>ཏ་རེ།</t>
+  </si>
+  <si>
+    <t>སྤྱི་ཟླ།</t>
+  </si>
+  <si>
+    <t>ཕྱི་ཟླ།</t>
+  </si>
+  <si>
+    <t>འབྲི།</t>
+  </si>
+  <si>
+    <t>རེ་བ།</t>
+  </si>
+  <si>
+    <t>གོང་ཁེ་པོ།</t>
+  </si>
+  <si>
+    <t>ལྷག་ཙམ།</t>
+  </si>
+  <si>
+    <t>ཙང་།</t>
+  </si>
+  <si>
+    <t>ད་རེས།</t>
+  </si>
+  <si>
+    <t>དེ་དུས།</t>
+  </si>
+  <si>
+    <t>ཐེངས།</t>
+  </si>
+  <si>
+    <t>ཐེངས་མ།</t>
+  </si>
+  <si>
+    <t>ཁ་སང་།</t>
+  </si>
+  <si>
+    <t>ཁ་ས།</t>
+  </si>
+  <si>
+    <t>མདང་དགོང་།</t>
+  </si>
+  <si>
+    <t>ཡིན་བཞག</t>
+  </si>
+  <si>
+    <t>ཡོད་བཞག</t>
+  </si>
+  <si>
+    <t>བཏང་བ།</t>
+  </si>
+  <si>
+    <t>ལན་བརྒྱབ་པ།</t>
+  </si>
+  <si>
+    <t>ཡུལ་སྐོར་བྱེད་པ།</t>
+  </si>
+  <si>
+    <t>པར་བརྒྱབ་པ།</t>
+  </si>
+  <si>
+    <t>འཛེག་པ།</t>
+  </si>
+  <si>
+    <t>འཛེགས་པ།</t>
+  </si>
+  <si>
+    <t>ཐོན་པ།</t>
+  </si>
+  <si>
+    <t>ཕྱོགས་ལ་ཐོན་པ།</t>
+  </si>
+  <si>
+    <t>སྐྱིད་པོ་བཏང་བ།</t>
+  </si>
+  <si>
+    <t>ཕུལ་བ།</t>
+  </si>
+  <si>
+    <t>མཆོད་མཇལ་བྱེད་པ།</t>
+  </si>
+  <si>
+    <t>གནས་མཇལ་ལ་འགྲོ་བ།</t>
+  </si>
+  <si>
+    <t>བཏུངས་པ།</t>
+  </si>
+  <si>
+    <t>སྟབས་ཡག་ནས།</t>
+  </si>
+  <si>
+    <t>འཐོན་པ།</t>
+  </si>
+  <si>
+    <t>འབུལ་བ།</t>
+  </si>
+  <si>
+    <t>ཏ་རེ་ &lt; Hindi</t>
+  </si>
+  <si>
+    <t>སྤྱི་(community) + ཟླ་(month)</t>
+  </si>
+  <si>
+    <t>ཕྱི་(out) + ཟླ་(month)</t>
+  </si>
+  <si>
+    <t>གོང་(price) + ཁེ་པོ་(cheap)</t>
+  </si>
+  <si>
+    <t>ལྷག་(surplus) + ཙམ་(little)</t>
+  </si>
+  <si>
+    <t>ད་(now) + རེས་(turn)</t>
+  </si>
+  <si>
+    <t>དེ་(that) + དུས་(time)</t>
+  </si>
+  <si>
+    <t>ལན་(message) + བརྒྱབ་པ་(vblz.)</t>
+  </si>
+  <si>
+    <t>ཡུལ་སྐོར་ལ་འགྲོ་བ།</t>
+  </si>
+  <si>
+    <t>ཡུལ་(place) + སྐོར་(turn) + ལ་(dat.) + འགྲོ་བ་(go)</t>
+  </si>
+  <si>
+    <t>ཡུལ་(place) + སྐོར་(turn) + བྱེད་པ་(do)</t>
+  </si>
+  <si>
+    <t>པར་(picture) + བརྒྱབ་པ་(vblz.)</t>
+  </si>
+  <si>
+    <t>ཕྱོགས་(direction) + ལ་(dat.) + ཐོན་པ་(leave)</t>
+  </si>
+  <si>
+    <t>སྐྱིད་པོ་(joyful) + བཏང་བ་(vblz.)</t>
+  </si>
+  <si>
+    <t>མཆོད་(offering) + མཇལ་(meet.hon) + བྱེད་པ་(vblz.)</t>
+  </si>
+  <si>
+    <t>གནས་མཇལ་(pilgrimage) + ལ་(dat.) + འགྲོ་བ་(go)</t>
+  </si>
+  <si>
+    <t>སྟབས་(manner) + ཡག་(good) + ནས་(connector)</t>
+  </si>
+  <si>
+    <t>cher ; chère</t>
+  </si>
+  <si>
+    <t>éleveuse nomade</t>
+  </si>
+  <si>
+    <t>policier ; gendarme</t>
+  </si>
+  <si>
+    <t>chef</t>
+  </si>
+  <si>
+    <t>véhicule</t>
+  </si>
+  <si>
+    <t>bus ; car</t>
+  </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>aéroport</t>
+  </si>
+  <si>
+    <t>hôtel ; auberge</t>
+  </si>
+  <si>
+    <t>logement de moine</t>
+  </si>
+  <si>
+    <t>tente (noire traditionnelle des éleveurs)</t>
+  </si>
+  <si>
+    <t>bord de mer</t>
+  </si>
+  <si>
+    <t>pèlerinage</t>
+  </si>
+  <si>
+    <t>visite au monastère</t>
+  </si>
+  <si>
+    <t>visite touristique</t>
+  </si>
+  <si>
+    <t>arrêt ; station</t>
+  </si>
+  <si>
+    <t>billet</t>
+  </si>
+  <si>
+    <t>appareil photo ; caméra</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>mois (calendrier occidental)</t>
+  </si>
+  <si>
+    <t>Dri (femelle du yak)</t>
+  </si>
+  <si>
+    <t>espoir</t>
+  </si>
+  <si>
+    <t>bon marché ; peu cher</t>
+  </si>
+  <si>
+    <t>un peu plus de</t>
+  </si>
+  <si>
+    <t>puisque ; connecteur de cause</t>
+  </si>
+  <si>
+    <t>cette fois-ci</t>
+  </si>
+  <si>
+    <t>à l'époque ; à ce moment-là (futur)</t>
+  </si>
+  <si>
+    <t>fois</t>
+  </si>
+  <si>
+    <t>l'autre jour</t>
+  </si>
+  <si>
+    <t>hier</t>
+  </si>
+  <si>
+    <t>hier soir</t>
+  </si>
+  <si>
+    <t>je suppose que ; j'espère que</t>
+  </si>
+  <si>
+    <t>envoyer ; laisser passer ; verbalisateur</t>
+  </si>
+  <si>
+    <t>répondre</t>
+  </si>
+  <si>
+    <t>faire du tourisme ; voyager</t>
+  </si>
+  <si>
+    <t>faire des photos ; prendre des photos ; photographier</t>
+  </si>
+  <si>
+    <t>grimper ; faire l'ascension</t>
+  </si>
+  <si>
+    <t>partir</t>
+  </si>
+  <si>
+    <t>partir en voyage ; partir au loin</t>
+  </si>
+  <si>
+    <t>s'amuser ; passer du bon temps</t>
+  </si>
+  <si>
+    <t>offrir (humilifique)</t>
+  </si>
+  <si>
+    <t>faire des visites religieuses</t>
+  </si>
+  <si>
+    <t>aller en pèlerinage</t>
+  </si>
+  <si>
+    <t>forme passée du boire</t>
+  </si>
+  <si>
+    <t>heureusement ; par chance</t>
+  </si>
+  <si>
+    <t>policeman; gendarme</t>
+  </si>
+  <si>
+    <t>chief</t>
+  </si>
+  <si>
+    <t>vehicle</t>
+  </si>
+  <si>
+    <t>airport</t>
+  </si>
+  <si>
+    <t>hotel; inn</t>
+  </si>
+  <si>
+    <t>pilgrimage</t>
+  </si>
+  <si>
+    <t>stop; station</t>
+  </si>
+  <si>
+    <t>ticket</t>
+  </si>
+  <si>
+    <t>Dri (female yak)</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>cheap; inexpensive</t>
+  </si>
+  <si>
+    <t>a little more than</t>
+  </si>
+  <si>
+    <t>then; at that time (future)</t>
+  </si>
+  <si>
+    <t>the other day</t>
+  </si>
+  <si>
+    <t>yesterday</t>
+  </si>
+  <si>
+    <t>I suppose that; I hope that</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>leave</t>
+  </si>
+  <si>
+    <t>offer (humilific)</t>
+  </si>
+  <si>
+    <t>make religious visits</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>nomadic breeder</t>
+  </si>
+  <si>
+    <t>sightseeing</t>
+  </si>
+  <si>
+    <t>bus; cargo</t>
+  </si>
+  <si>
+    <t>Monk's accommodation</t>
+  </si>
+  <si>
+    <t>seaside</t>
+  </si>
+  <si>
+    <t>visit to the monastery</t>
+  </si>
+  <si>
+    <t>month (Western calendar)</t>
+  </si>
+  <si>
+    <t>since; cause connector</t>
+  </si>
+  <si>
+    <t>this time</t>
+  </si>
+  <si>
+    <t>last night</t>
+  </si>
+  <si>
+    <t>send; pass; verbaliser</t>
+  </si>
+  <si>
+    <t>go sightseeing; travel</t>
+  </si>
+  <si>
+    <t>take photos; photograph</t>
+  </si>
+  <si>
+    <t>climb</t>
+  </si>
+  <si>
+    <t>go on a trip; go far away</t>
+  </si>
+  <si>
+    <t>have fun; have a good time</t>
+  </si>
+  <si>
+    <t>go on pilgrimage</t>
+  </si>
+  <si>
+    <t>past form of drink</t>
+  </si>
+  <si>
+    <t>fortunately</t>
+  </si>
+  <si>
+    <t>チーフ</t>
+  </si>
+  <si>
+    <t>観光</t>
+  </si>
+  <si>
+    <t>列車</t>
+  </si>
+  <si>
+    <t>空港</t>
+  </si>
+  <si>
+    <t>修道士の宿泊施設</t>
+  </si>
+  <si>
+    <t>海辺</t>
+  </si>
+  <si>
+    <t>巡礼</t>
+  </si>
+  <si>
+    <t>切符</t>
+  </si>
+  <si>
+    <t>日付</t>
+  </si>
+  <si>
+    <t>ドリ(メスのヤク)</t>
+  </si>
+  <si>
+    <t>希望</t>
+  </si>
+  <si>
+    <t>より少し多い</t>
+  </si>
+  <si>
+    <t>この前</t>
+  </si>
+  <si>
+    <t>昨日</t>
+  </si>
+  <si>
+    <t>昨晩</t>
+  </si>
+  <si>
+    <t>答える</t>
+  </si>
+  <si>
+    <t>登る</t>
+  </si>
+  <si>
+    <t>去る</t>
+  </si>
+  <si>
+    <t>宗教的な訪問をする</t>
+  </si>
+  <si>
+    <t>巡礼に行く</t>
+  </si>
+  <si>
+    <t>འབྲོག་(pasture) + མོ་(suffix)</t>
+  </si>
+  <si>
+    <t>警官、憲兵</t>
+  </si>
+  <si>
+    <t>バス、車室</t>
+  </si>
+  <si>
+    <t>ホテル、宿屋</t>
+  </si>
+  <si>
+    <t>テント（伝統的な牧畜民の黒い色の）</t>
+  </si>
+  <si>
+    <t>修道院を訪れる</t>
+  </si>
+  <si>
+    <t>駅</t>
+  </si>
+  <si>
+    <t>カメラ</t>
+  </si>
+  <si>
+    <t>camera</t>
+  </si>
+  <si>
+    <t>月（西暦）</t>
+  </si>
+  <si>
+    <t>から、原因を表す助詞</t>
+  </si>
+  <si>
+    <t>今度</t>
+  </si>
+  <si>
+    <t>そうしたら、その時（未来）</t>
+  </si>
+  <si>
+    <t>と思います、と願っています</t>
+  </si>
+  <si>
+    <t>送信、通る、動詞化語尾</t>
+  </si>
+  <si>
+    <t>観光に行く、旅行する</t>
+  </si>
+  <si>
+    <t>写真を撮る</t>
+  </si>
+  <si>
+    <t>旅行に出かける、遠くへ行く</t>
+  </si>
+  <si>
+    <t>楽しむ、楽しい時間を過ごす</t>
+  </si>
+  <si>
+    <t>申し出す（謙譲語）</t>
+  </si>
+  <si>
+    <t>飲む　の過去形</t>
+  </si>
+  <si>
+    <t>幸いは</t>
+  </si>
+  <si>
+    <t>亲爱的</t>
+  </si>
+  <si>
+    <t>游牧饲养员</t>
+  </si>
+  <si>
+    <t>观光</t>
+  </si>
+  <si>
+    <t>车辆</t>
+  </si>
+  <si>
+    <t>火车</t>
+  </si>
+  <si>
+    <t>飞机场</t>
+  </si>
+  <si>
+    <t>海边</t>
+  </si>
+  <si>
+    <t>朝圣</t>
+  </si>
+  <si>
+    <t>参观修道院</t>
+  </si>
+  <si>
+    <t>票</t>
+  </si>
+  <si>
+    <t>照相机</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>月份（西历）</t>
+  </si>
+  <si>
+    <t>多一点</t>
+  </si>
+  <si>
+    <t>前几天</t>
+  </si>
+  <si>
+    <t>昨天</t>
+  </si>
+  <si>
+    <t>爬</t>
+  </si>
+  <si>
+    <t>离开</t>
+  </si>
+  <si>
+    <t>去朝圣</t>
+  </si>
+  <si>
+    <t>遊牧民の飼育係</t>
+  </si>
+  <si>
+    <t>警察；宪兵</t>
+  </si>
+  <si>
+    <t>老板</t>
+  </si>
+  <si>
+    <t>公交车</t>
+  </si>
+  <si>
+    <t>酒店；宾馆</t>
+  </si>
+  <si>
+    <t>和尚的住处</t>
+  </si>
+  <si>
+    <t>tent (traditional herders' black)</t>
+  </si>
+  <si>
+    <t>帐篷（传统牧民的黑色的）</t>
+  </si>
+  <si>
+    <t>站</t>
+  </si>
+  <si>
+    <t>母牦牛</t>
+  </si>
+  <si>
+    <t>因为；原因连接词</t>
+  </si>
+  <si>
+    <t>这次</t>
+  </si>
+  <si>
+    <t>然后；当时（未来）</t>
+  </si>
+  <si>
+    <t>昨晚</t>
+  </si>
+  <si>
+    <t>我想是这样；我希望</t>
+  </si>
+  <si>
+    <t>发送；通过；动词化词缀</t>
+  </si>
+  <si>
+    <t>回复</t>
+  </si>
+  <si>
+    <t>观光；旅行</t>
+  </si>
+  <si>
+    <t>拍照</t>
+  </si>
+  <si>
+    <t>去旅行；远行</t>
+  </si>
+  <si>
+    <t>玩得愉快；玩得开心</t>
+  </si>
+  <si>
+    <t>给（谦语）</t>
+  </si>
+  <si>
+    <t>宗教参观</t>
+  </si>
+  <si>
+    <t>喝的过去式</t>
+  </si>
+  <si>
+    <t>幸运地</t>
+  </si>
+  <si>
+    <t>次</t>
+  </si>
+  <si>
+    <t>番</t>
   </si>
 </sst>
 </file>
@@ -9416,13 +10212,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R639"/>
+  <dimension ref="A1:R692"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C628" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C677" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J587" sqref="J587"/>
+      <selection pane="bottomRight" activeCell="D682" sqref="D682"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.55000000000000004"/>
@@ -13560,6 +14356,9 @@
       <c r="D172" t="s">
         <v>27</v>
       </c>
+      <c r="F172" s="1" t="s">
+        <v>3088</v>
+      </c>
       <c r="J172" t="s">
         <v>922</v>
       </c>
@@ -21167,6 +21966,9 @@
       <c r="B492" t="s">
         <v>2687</v>
       </c>
+      <c r="D492" t="s">
+        <v>28</v>
+      </c>
       <c r="J492" t="s">
         <v>2881</v>
       </c>
@@ -21187,6 +21989,9 @@
       <c r="B493" t="s">
         <v>2687</v>
       </c>
+      <c r="D493" t="s">
+        <v>28</v>
+      </c>
       <c r="J493" t="s">
         <v>2882</v>
       </c>
@@ -21207,6 +22012,9 @@
       <c r="B494" t="s">
         <v>2687</v>
       </c>
+      <c r="D494" t="s">
+        <v>28</v>
+      </c>
       <c r="J494" t="s">
         <v>2883</v>
       </c>
@@ -21227,6 +22035,9 @@
       <c r="B495" t="s">
         <v>2687</v>
       </c>
+      <c r="D495" t="s">
+        <v>28</v>
+      </c>
       <c r="J495" t="s">
         <v>2884</v>
       </c>
@@ -21247,6 +22058,9 @@
       <c r="B496" t="s">
         <v>2687</v>
       </c>
+      <c r="D496" t="s">
+        <v>40</v>
+      </c>
       <c r="J496" t="s">
         <v>2859</v>
       </c>
@@ -21267,6 +22081,9 @@
       <c r="B497" t="s">
         <v>2687</v>
       </c>
+      <c r="D497" t="s">
+        <v>40</v>
+      </c>
       <c r="E497" s="1" t="s">
         <v>2692</v>
       </c>
@@ -21290,6 +22107,9 @@
       <c r="B498" t="s">
         <v>2687</v>
       </c>
+      <c r="D498" t="s">
+        <v>40</v>
+      </c>
       <c r="E498" s="1" t="s">
         <v>2693</v>
       </c>
@@ -21313,6 +22133,9 @@
       <c r="B499" t="s">
         <v>2687</v>
       </c>
+      <c r="D499" t="s">
+        <v>40</v>
+      </c>
       <c r="E499" s="1" t="s">
         <v>2694</v>
       </c>
@@ -21336,6 +22159,9 @@
       <c r="B500" t="s">
         <v>2687</v>
       </c>
+      <c r="D500" t="s">
+        <v>40</v>
+      </c>
       <c r="E500" s="1" t="s">
         <v>39</v>
       </c>
@@ -21359,6 +22185,9 @@
       <c r="B501" t="s">
         <v>2687</v>
       </c>
+      <c r="D501" t="s">
+        <v>40</v>
+      </c>
       <c r="J501" t="s">
         <v>2656</v>
       </c>
@@ -21379,6 +22208,9 @@
       <c r="B502" t="s">
         <v>2687</v>
       </c>
+      <c r="D502" t="s">
+        <v>40</v>
+      </c>
       <c r="J502" t="s">
         <v>2656</v>
       </c>
@@ -21399,6 +22231,9 @@
       <c r="B503" t="s">
         <v>2687</v>
       </c>
+      <c r="D503" t="s">
+        <v>40</v>
+      </c>
       <c r="E503" s="1" t="s">
         <v>2696</v>
       </c>
@@ -21422,6 +22257,9 @@
       <c r="B504" t="s">
         <v>2687</v>
       </c>
+      <c r="D504" t="s">
+        <v>40</v>
+      </c>
       <c r="J504" t="s">
         <v>2887</v>
       </c>
@@ -21442,6 +22280,9 @@
       <c r="B505" t="s">
         <v>2687</v>
       </c>
+      <c r="D505" t="s">
+        <v>40</v>
+      </c>
       <c r="J505" t="s">
         <v>2888</v>
       </c>
@@ -21462,6 +22303,9 @@
       <c r="B506" t="s">
         <v>2687</v>
       </c>
+      <c r="D506" t="s">
+        <v>40</v>
+      </c>
       <c r="J506" t="s">
         <v>2861</v>
       </c>
@@ -21482,6 +22326,9 @@
       <c r="B507" t="s">
         <v>2687</v>
       </c>
+      <c r="D507" t="s">
+        <v>40</v>
+      </c>
       <c r="E507" s="1" t="s">
         <v>2700</v>
       </c>
@@ -21505,6 +22352,9 @@
       <c r="B508" t="s">
         <v>2687</v>
       </c>
+      <c r="D508" t="s">
+        <v>40</v>
+      </c>
       <c r="J508" t="s">
         <v>2889</v>
       </c>
@@ -21525,6 +22375,9 @@
       <c r="B509" t="s">
         <v>2687</v>
       </c>
+      <c r="D509" t="s">
+        <v>40</v>
+      </c>
       <c r="J509" t="s">
         <v>2889</v>
       </c>
@@ -21545,6 +22398,9 @@
       <c r="B510" t="s">
         <v>2687</v>
       </c>
+      <c r="D510" t="s">
+        <v>40</v>
+      </c>
       <c r="J510" t="s">
         <v>2890</v>
       </c>
@@ -21565,6 +22421,9 @@
       <c r="B511" t="s">
         <v>2687</v>
       </c>
+      <c r="D511" t="s">
+        <v>40</v>
+      </c>
       <c r="E511" s="1" t="s">
         <v>2704</v>
       </c>
@@ -21588,6 +22447,9 @@
       <c r="B512" t="s">
         <v>2687</v>
       </c>
+      <c r="D512" t="s">
+        <v>91</v>
+      </c>
       <c r="J512" t="s">
         <v>2863</v>
       </c>
@@ -21608,6 +22470,9 @@
       <c r="B513" t="s">
         <v>2687</v>
       </c>
+      <c r="D513" t="s">
+        <v>90</v>
+      </c>
       <c r="E513" s="1" t="s">
         <v>2706</v>
       </c>
@@ -21631,6 +22496,9 @@
       <c r="B514" t="s">
         <v>2687</v>
       </c>
+      <c r="D514" t="s">
+        <v>90</v>
+      </c>
       <c r="E514" s="1" t="s">
         <v>2707</v>
       </c>
@@ -21654,6 +22522,9 @@
       <c r="B515" t="s">
         <v>2687</v>
       </c>
+      <c r="D515" t="s">
+        <v>90</v>
+      </c>
       <c r="E515" s="1" t="s">
         <v>2708</v>
       </c>
@@ -21677,6 +22548,9 @@
       <c r="B516" t="s">
         <v>2687</v>
       </c>
+      <c r="D516" t="s">
+        <v>90</v>
+      </c>
       <c r="E516" s="1" t="s">
         <v>2709</v>
       </c>
@@ -21700,6 +22574,9 @@
       <c r="B517" t="s">
         <v>2687</v>
       </c>
+      <c r="D517" t="s">
+        <v>27</v>
+      </c>
       <c r="E517" s="1" t="s">
         <v>2710</v>
       </c>
@@ -21723,6 +22600,9 @@
       <c r="B518" t="s">
         <v>2687</v>
       </c>
+      <c r="D518" t="s">
+        <v>27</v>
+      </c>
       <c r="E518" s="1" t="s">
         <v>2711</v>
       </c>
@@ -21746,6 +22626,9 @@
       <c r="B519" t="s">
         <v>2687</v>
       </c>
+      <c r="D519" t="s">
+        <v>27</v>
+      </c>
       <c r="E519" s="1" t="s">
         <v>2712</v>
       </c>
@@ -21795,6 +22678,9 @@
       <c r="B521" t="s">
         <v>2687</v>
       </c>
+      <c r="D521" t="s">
+        <v>27</v>
+      </c>
       <c r="J521" t="s">
         <v>2868</v>
       </c>
@@ -21838,6 +22724,9 @@
       <c r="B523" t="s">
         <v>2687</v>
       </c>
+      <c r="D523" t="s">
+        <v>27</v>
+      </c>
       <c r="E523" s="1" t="s">
         <v>2715</v>
       </c>
@@ -21864,6 +22753,9 @@
       <c r="B524" t="s">
         <v>2687</v>
       </c>
+      <c r="D524" t="s">
+        <v>27</v>
+      </c>
       <c r="E524" s="1" t="s">
         <v>2716</v>
       </c>
@@ -21890,6 +22782,9 @@
       <c r="B525" t="s">
         <v>2687</v>
       </c>
+      <c r="D525" t="s">
+        <v>2145</v>
+      </c>
       <c r="J525" t="s">
         <v>2896</v>
       </c>
@@ -21930,6 +22825,9 @@
       <c r="B527" t="s">
         <v>2687</v>
       </c>
+      <c r="D527" t="s">
+        <v>89</v>
+      </c>
       <c r="J527" t="s">
         <v>2897</v>
       </c>
@@ -21950,6 +22848,9 @@
       <c r="B528" t="s">
         <v>2687</v>
       </c>
+      <c r="D528" t="s">
+        <v>90</v>
+      </c>
       <c r="J528" t="s">
         <v>2873</v>
       </c>
@@ -21970,6 +22871,9 @@
       <c r="B529" t="s">
         <v>2687</v>
       </c>
+      <c r="D529" t="s">
+        <v>90</v>
+      </c>
       <c r="J529" t="s">
         <v>2873</v>
       </c>
@@ -21990,6 +22894,9 @@
       <c r="B530" t="s">
         <v>2687</v>
       </c>
+      <c r="D530" t="s">
+        <v>89</v>
+      </c>
       <c r="J530" t="s">
         <v>2898</v>
       </c>
@@ -22010,6 +22917,9 @@
       <c r="B531" t="s">
         <v>2687</v>
       </c>
+      <c r="D531" t="s">
+        <v>89</v>
+      </c>
       <c r="J531" t="s">
         <v>2898</v>
       </c>
@@ -22030,6 +22940,9 @@
       <c r="B532" t="s">
         <v>2687</v>
       </c>
+      <c r="D532" t="s">
+        <v>89</v>
+      </c>
       <c r="J532" t="s">
         <v>2898</v>
       </c>
@@ -22050,6 +22963,9 @@
       <c r="B533" t="s">
         <v>2687</v>
       </c>
+      <c r="D533" t="s">
+        <v>40</v>
+      </c>
       <c r="J533" t="s">
         <v>2238</v>
       </c>
@@ -22070,6 +22986,9 @@
       <c r="B534" t="s">
         <v>2687</v>
       </c>
+      <c r="D534" t="s">
+        <v>40</v>
+      </c>
       <c r="J534" t="s">
         <v>2874</v>
       </c>
@@ -22090,6 +23009,9 @@
       <c r="B535" t="s">
         <v>2687</v>
       </c>
+      <c r="D535" t="s">
+        <v>40</v>
+      </c>
       <c r="J535" t="s">
         <v>2874</v>
       </c>
@@ -22110,6 +23032,9 @@
       <c r="B536" t="s">
         <v>2687</v>
       </c>
+      <c r="D536" t="s">
+        <v>40</v>
+      </c>
       <c r="J536" t="s">
         <v>2875</v>
       </c>
@@ -22130,6 +23055,9 @@
       <c r="B537" t="s">
         <v>2687</v>
       </c>
+      <c r="D537" t="s">
+        <v>91</v>
+      </c>
       <c r="J537" t="s">
         <v>2876</v>
       </c>
@@ -22150,6 +23078,9 @@
       <c r="B538" t="s">
         <v>2687</v>
       </c>
+      <c r="D538" t="s">
+        <v>91</v>
+      </c>
       <c r="J538" t="s">
         <v>2877</v>
       </c>
@@ -22170,6 +23101,9 @@
       <c r="B539" t="s">
         <v>2687</v>
       </c>
+      <c r="D539" t="s">
+        <v>2051</v>
+      </c>
       <c r="J539" t="s">
         <v>2250</v>
       </c>
@@ -22190,6 +23124,9 @@
       <c r="B540" t="s">
         <v>2687</v>
       </c>
+      <c r="D540" t="s">
+        <v>3017</v>
+      </c>
       <c r="J540" t="s">
         <v>2878</v>
       </c>
@@ -22853,6 +23790,9 @@
       <c r="B570" t="s">
         <v>190</v>
       </c>
+      <c r="D570" t="s">
+        <v>27</v>
+      </c>
       <c r="E570" s="1" t="s">
         <v>2928</v>
       </c>
@@ -22879,6 +23819,9 @@
       <c r="B571" t="s">
         <v>190</v>
       </c>
+      <c r="D571" t="s">
+        <v>27</v>
+      </c>
       <c r="E571" s="1" t="s">
         <v>2929</v>
       </c>
@@ -22905,6 +23848,9 @@
       <c r="B572" t="s">
         <v>190</v>
       </c>
+      <c r="D572" t="s">
+        <v>27</v>
+      </c>
       <c r="F572" s="1" t="s">
         <v>2904</v>
       </c>
@@ -22928,6 +23874,9 @@
       <c r="B573" t="s">
         <v>190</v>
       </c>
+      <c r="D573" t="s">
+        <v>27</v>
+      </c>
       <c r="E573" s="1" t="s">
         <v>2930</v>
       </c>
@@ -22954,6 +23903,9 @@
       <c r="B574" t="s">
         <v>190</v>
       </c>
+      <c r="D574" t="s">
+        <v>27</v>
+      </c>
       <c r="J574" t="s">
         <v>3007</v>
       </c>
@@ -22974,6 +23926,9 @@
       <c r="B575" t="s">
         <v>190</v>
       </c>
+      <c r="D575" t="s">
+        <v>27</v>
+      </c>
       <c r="E575" s="1" t="s">
         <v>2931</v>
       </c>
@@ -23000,6 +23955,9 @@
       <c r="B576" t="s">
         <v>190</v>
       </c>
+      <c r="D576" t="s">
+        <v>27</v>
+      </c>
       <c r="E576" s="1" t="s">
         <v>2932</v>
       </c>
@@ -23026,6 +23984,9 @@
       <c r="B577" t="s">
         <v>190</v>
       </c>
+      <c r="D577" t="s">
+        <v>27</v>
+      </c>
       <c r="E577" s="1" t="s">
         <v>2933</v>
       </c>
@@ -23049,6 +24010,9 @@
       <c r="B578" t="s">
         <v>190</v>
       </c>
+      <c r="D578" t="s">
+        <v>27</v>
+      </c>
       <c r="E578" s="1" t="s">
         <v>2934</v>
       </c>
@@ -23170,6 +24134,9 @@
       <c r="B583" t="s">
         <v>190</v>
       </c>
+      <c r="D583" t="s">
+        <v>27</v>
+      </c>
       <c r="J583" t="s">
         <v>3013</v>
       </c>
@@ -23190,6 +24157,9 @@
       <c r="B584" t="s">
         <v>190</v>
       </c>
+      <c r="D584" t="s">
+        <v>27</v>
+      </c>
       <c r="J584" t="s">
         <v>3014</v>
       </c>
@@ -23210,6 +24180,9 @@
       <c r="B585" t="s">
         <v>190</v>
       </c>
+      <c r="D585" t="s">
+        <v>27</v>
+      </c>
       <c r="J585" t="s">
         <v>3015</v>
       </c>
@@ -23230,6 +24203,9 @@
       <c r="B586" t="s">
         <v>190</v>
       </c>
+      <c r="D586" t="s">
+        <v>27</v>
+      </c>
       <c r="J586" t="s">
         <v>3016</v>
       </c>
@@ -23250,6 +24226,9 @@
       <c r="B587" t="s">
         <v>190</v>
       </c>
+      <c r="D587" t="s">
+        <v>2471</v>
+      </c>
       <c r="G587" s="1" t="s">
         <v>1435</v>
       </c>
@@ -23273,6 +24252,9 @@
       <c r="B588" t="s">
         <v>190</v>
       </c>
+      <c r="D588" t="s">
+        <v>2471</v>
+      </c>
       <c r="J588" t="s">
         <v>3003</v>
       </c>
@@ -23293,6 +24275,9 @@
       <c r="B589" t="s">
         <v>190</v>
       </c>
+      <c r="D589" t="s">
+        <v>2471</v>
+      </c>
       <c r="J589" t="s">
         <v>3004</v>
       </c>
@@ -23313,6 +24298,9 @@
       <c r="B590" t="s">
         <v>190</v>
       </c>
+      <c r="D590" t="s">
+        <v>2471</v>
+      </c>
       <c r="J590" t="s">
         <v>3004</v>
       </c>
@@ -23333,6 +24321,9 @@
       <c r="B591" t="s">
         <v>190</v>
       </c>
+      <c r="D591" t="s">
+        <v>2471</v>
+      </c>
       <c r="J591" t="s">
         <v>3005</v>
       </c>
@@ -24548,6 +25539,1333 @@
       </c>
       <c r="M639" t="s">
         <v>1510</v>
+      </c>
+    </row>
+    <row r="640" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A640" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="B640" t="s">
+        <v>3018</v>
+      </c>
+      <c r="E640" s="1" t="s">
+        <v>3039</v>
+      </c>
+      <c r="J640" t="s">
+        <v>3236</v>
+      </c>
+      <c r="L640" t="s">
+        <v>3174</v>
+      </c>
+      <c r="M640" t="s">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="641" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A641" s="1" t="s">
+        <v>3020</v>
+      </c>
+      <c r="B641" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D641" t="s">
+        <v>40</v>
+      </c>
+      <c r="E641" s="1" t="s">
+        <v>3214</v>
+      </c>
+      <c r="J641" t="s">
+        <v>3237</v>
+      </c>
+      <c r="K641" t="s">
+        <v>3255</v>
+      </c>
+      <c r="L641" t="s">
+        <v>3175</v>
+      </c>
+      <c r="M641" t="s">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="642" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A642" s="1" t="s">
+        <v>3021</v>
+      </c>
+      <c r="B642" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D642" t="s">
+        <v>40</v>
+      </c>
+      <c r="E642" s="1" t="s">
+        <v>3040</v>
+      </c>
+      <c r="J642" t="s">
+        <v>3256</v>
+      </c>
+      <c r="K642" t="s">
+        <v>3215</v>
+      </c>
+      <c r="L642" t="s">
+        <v>3154</v>
+      </c>
+      <c r="M642" t="s">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="643" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A643" s="1" t="s">
+        <v>3022</v>
+      </c>
+      <c r="B643" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D643" t="s">
+        <v>40</v>
+      </c>
+      <c r="E643" s="1" t="s">
+        <v>3041</v>
+      </c>
+      <c r="J643" t="s">
+        <v>3257</v>
+      </c>
+      <c r="K643" t="s">
+        <v>3194</v>
+      </c>
+      <c r="L643" t="s">
+        <v>3155</v>
+      </c>
+      <c r="M643" t="s">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="644" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A644" s="1" t="s">
+        <v>3023</v>
+      </c>
+      <c r="B644" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D644" t="s">
+        <v>40</v>
+      </c>
+      <c r="E644" s="1" t="s">
+        <v>3042</v>
+      </c>
+      <c r="J644" t="s">
+        <v>3238</v>
+      </c>
+      <c r="K644" t="s">
+        <v>3195</v>
+      </c>
+      <c r="L644" t="s">
+        <v>3176</v>
+      </c>
+      <c r="M644" t="s">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="645" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A645" s="1" t="s">
+        <v>3024</v>
+      </c>
+      <c r="B645" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D645" t="s">
+        <v>40</v>
+      </c>
+      <c r="E645" s="1" t="s">
+        <v>3043</v>
+      </c>
+      <c r="J645" t="s">
+        <v>3239</v>
+      </c>
+      <c r="K645" t="s">
+        <v>131</v>
+      </c>
+      <c r="L645" t="s">
+        <v>3156</v>
+      </c>
+      <c r="M645" t="s">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="646" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A646" s="1" t="s">
+        <v>3025</v>
+      </c>
+      <c r="B646" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D646" t="s">
+        <v>40</v>
+      </c>
+      <c r="E646" s="1" t="s">
+        <v>3044</v>
+      </c>
+      <c r="J646" t="s">
+        <v>3258</v>
+      </c>
+      <c r="K646" t="s">
+        <v>3216</v>
+      </c>
+      <c r="L646" t="s">
+        <v>3177</v>
+      </c>
+      <c r="M646" t="s">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="647" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A647" s="1" t="s">
+        <v>3026</v>
+      </c>
+      <c r="B647" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D647" t="s">
+        <v>40</v>
+      </c>
+      <c r="E647" s="1" t="s">
+        <v>3045</v>
+      </c>
+      <c r="J647" t="s">
+        <v>3240</v>
+      </c>
+      <c r="K647" t="s">
+        <v>3196</v>
+      </c>
+      <c r="L647" t="s">
+        <v>3115</v>
+      </c>
+      <c r="M647" t="s">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="648" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A648" s="1" t="s">
+        <v>3027</v>
+      </c>
+      <c r="B648" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D648" t="s">
+        <v>40</v>
+      </c>
+      <c r="E648" s="1" t="s">
+        <v>3046</v>
+      </c>
+      <c r="J648" t="s">
+        <v>3241</v>
+      </c>
+      <c r="K648" t="s">
+        <v>3197</v>
+      </c>
+      <c r="L648" t="s">
+        <v>3157</v>
+      </c>
+      <c r="M648" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="649" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A649" s="1" t="s">
+        <v>3028</v>
+      </c>
+      <c r="B649" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D649" t="s">
+        <v>40</v>
+      </c>
+      <c r="E649" s="1" t="s">
+        <v>3047</v>
+      </c>
+      <c r="J649" t="s">
+        <v>3241</v>
+      </c>
+      <c r="K649" t="s">
+        <v>3197</v>
+      </c>
+      <c r="L649" t="s">
+        <v>3157</v>
+      </c>
+      <c r="M649" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="650" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A650" s="1" t="s">
+        <v>3029</v>
+      </c>
+      <c r="B650" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D650" t="s">
+        <v>40</v>
+      </c>
+      <c r="E650" s="1" t="s">
+        <v>3048</v>
+      </c>
+      <c r="J650" t="s">
+        <v>3241</v>
+      </c>
+      <c r="K650" t="s">
+        <v>3197</v>
+      </c>
+      <c r="L650" t="s">
+        <v>3157</v>
+      </c>
+      <c r="M650" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="651" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A651" s="1" t="s">
+        <v>3030</v>
+      </c>
+      <c r="B651" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D651" t="s">
+        <v>40</v>
+      </c>
+      <c r="E651" s="1" t="s">
+        <v>3049</v>
+      </c>
+      <c r="J651" t="s">
+        <v>3259</v>
+      </c>
+      <c r="K651" t="s">
+        <v>3217</v>
+      </c>
+      <c r="L651" t="s">
+        <v>3158</v>
+      </c>
+      <c r="M651" t="s">
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="652" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A652" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="B652" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D652" t="s">
+        <v>40</v>
+      </c>
+      <c r="E652" s="1" t="s">
+        <v>3050</v>
+      </c>
+      <c r="J652" t="s">
+        <v>3260</v>
+      </c>
+      <c r="K652" t="s">
+        <v>3198</v>
+      </c>
+      <c r="L652" t="s">
+        <v>3178</v>
+      </c>
+      <c r="M652" t="s">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="653" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A653" s="1" t="s">
+        <v>3032</v>
+      </c>
+      <c r="B653" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D653" t="s">
+        <v>40</v>
+      </c>
+      <c r="J653" t="s">
+        <v>3262</v>
+      </c>
+      <c r="K653" t="s">
+        <v>3218</v>
+      </c>
+      <c r="L653" t="s">
+        <v>3261</v>
+      </c>
+      <c r="M653" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="654" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A654" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="B654" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D654" t="s">
+        <v>40</v>
+      </c>
+      <c r="E654" s="1" t="s">
+        <v>3051</v>
+      </c>
+      <c r="J654" t="s">
+        <v>3242</v>
+      </c>
+      <c r="K654" t="s">
+        <v>3199</v>
+      </c>
+      <c r="L654" t="s">
+        <v>3179</v>
+      </c>
+      <c r="M654" t="s">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="655" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A655" s="1" t="s">
+        <v>3034</v>
+      </c>
+      <c r="B655" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D655" t="s">
+        <v>40</v>
+      </c>
+      <c r="E655" s="1" t="s">
+        <v>3052</v>
+      </c>
+      <c r="J655" t="s">
+        <v>3243</v>
+      </c>
+      <c r="K655" t="s">
+        <v>3200</v>
+      </c>
+      <c r="L655" t="s">
+        <v>3159</v>
+      </c>
+      <c r="M655" t="s">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="656" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A656" s="1" t="s">
+        <v>3035</v>
+      </c>
+      <c r="B656" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D656" t="s">
+        <v>40</v>
+      </c>
+      <c r="E656" s="1" t="s">
+        <v>3053</v>
+      </c>
+      <c r="J656" t="s">
+        <v>3244</v>
+      </c>
+      <c r="K656" t="s">
+        <v>3219</v>
+      </c>
+      <c r="L656" t="s">
+        <v>3180</v>
+      </c>
+      <c r="M656" t="s">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="657" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A657" s="1" t="s">
+        <v>3036</v>
+      </c>
+      <c r="B657" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D657" t="s">
+        <v>40</v>
+      </c>
+      <c r="E657" s="1" t="s">
+        <v>3054</v>
+      </c>
+      <c r="J657" t="s">
+        <v>3263</v>
+      </c>
+      <c r="K657" t="s">
+        <v>3220</v>
+      </c>
+      <c r="L657" t="s">
+        <v>3160</v>
+      </c>
+      <c r="M657" t="s">
+        <v>3124</v>
+      </c>
+    </row>
+    <row r="658" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A658" s="1" t="s">
+        <v>3037</v>
+      </c>
+      <c r="B658" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D658" t="s">
+        <v>40</v>
+      </c>
+      <c r="E658" s="1" t="s">
+        <v>3055</v>
+      </c>
+      <c r="J658" t="s">
+        <v>3245</v>
+      </c>
+      <c r="K658" t="s">
+        <v>3201</v>
+      </c>
+      <c r="L658" t="s">
+        <v>3161</v>
+      </c>
+      <c r="M658" t="s">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="659" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A659" s="1" t="s">
+        <v>3038</v>
+      </c>
+      <c r="B659" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D659" t="s">
+        <v>40</v>
+      </c>
+      <c r="E659" s="1" t="s">
+        <v>3056</v>
+      </c>
+      <c r="J659" t="s">
+        <v>3246</v>
+      </c>
+      <c r="K659" t="s">
+        <v>3221</v>
+      </c>
+      <c r="L659" t="s">
+        <v>3222</v>
+      </c>
+      <c r="M659" t="s">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="660" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A660" s="1" t="s">
+        <v>3057</v>
+      </c>
+      <c r="B660" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D660" t="s">
+        <v>40</v>
+      </c>
+      <c r="J660" t="s">
+        <v>3247</v>
+      </c>
+      <c r="K660" t="s">
+        <v>3202</v>
+      </c>
+      <c r="L660" t="s">
+        <v>3127</v>
+      </c>
+      <c r="M660" t="s">
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="661" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A661" s="1" t="s">
+        <v>3058</v>
+      </c>
+      <c r="B661" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D661" t="s">
+        <v>40</v>
+      </c>
+      <c r="J661" t="s">
+        <v>3247</v>
+      </c>
+      <c r="K661" t="s">
+        <v>3202</v>
+      </c>
+      <c r="L661" t="s">
+        <v>3127</v>
+      </c>
+      <c r="M661" t="s">
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="662" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A662" s="1" t="s">
+        <v>3059</v>
+      </c>
+      <c r="B662" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D662" t="s">
+        <v>40</v>
+      </c>
+      <c r="E662" s="1" t="s">
+        <v>3092</v>
+      </c>
+      <c r="J662" t="s">
+        <v>3247</v>
+      </c>
+      <c r="K662" t="s">
+        <v>3202</v>
+      </c>
+      <c r="L662" t="s">
+        <v>3127</v>
+      </c>
+      <c r="M662" t="s">
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="663" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A663" s="1" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B663" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D663" t="s">
+        <v>40</v>
+      </c>
+      <c r="E663" s="1" t="s">
+        <v>3093</v>
+      </c>
+      <c r="J663" t="s">
+        <v>3248</v>
+      </c>
+      <c r="K663" t="s">
+        <v>3223</v>
+      </c>
+      <c r="L663" t="s">
+        <v>3181</v>
+      </c>
+      <c r="M663" t="s">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="664" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A664" s="1" t="s">
+        <v>3061</v>
+      </c>
+      <c r="B664" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D664" t="s">
+        <v>40</v>
+      </c>
+      <c r="E664" s="1" t="s">
+        <v>3094</v>
+      </c>
+      <c r="J664" t="s">
+        <v>3248</v>
+      </c>
+      <c r="K664" t="s">
+        <v>3223</v>
+      </c>
+      <c r="L664" t="s">
+        <v>3181</v>
+      </c>
+      <c r="M664" t="s">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="665" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A665" s="1" t="s">
+        <v>3062</v>
+      </c>
+      <c r="B665" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D665" t="s">
+        <v>40</v>
+      </c>
+      <c r="J665" t="s">
+        <v>3264</v>
+      </c>
+      <c r="K665" t="s">
+        <v>3203</v>
+      </c>
+      <c r="L665" t="s">
+        <v>3162</v>
+      </c>
+      <c r="M665" t="s">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="666" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A666" s="1" t="s">
+        <v>3063</v>
+      </c>
+      <c r="B666" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D666" t="s">
+        <v>40</v>
+      </c>
+      <c r="J666" t="s">
+        <v>3204</v>
+      </c>
+      <c r="K666" t="s">
+        <v>3204</v>
+      </c>
+      <c r="L666" t="s">
+        <v>3163</v>
+      </c>
+      <c r="M666" t="s">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="667" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A667" s="1" t="s">
+        <v>3064</v>
+      </c>
+      <c r="B667" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D667" t="s">
+        <v>90</v>
+      </c>
+      <c r="E667" s="1" t="s">
+        <v>3095</v>
+      </c>
+      <c r="J667" t="s">
+        <v>1133</v>
+      </c>
+      <c r="K667" t="s">
+        <v>1109</v>
+      </c>
+      <c r="L667" t="s">
+        <v>3164</v>
+      </c>
+      <c r="M667" t="s">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="668" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A668" s="1" t="s">
+        <v>3065</v>
+      </c>
+      <c r="B668" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D668" t="s">
+        <v>90</v>
+      </c>
+      <c r="E668" s="1" t="s">
+        <v>3096</v>
+      </c>
+      <c r="J668" t="s">
+        <v>3249</v>
+      </c>
+      <c r="K668" t="s">
+        <v>3205</v>
+      </c>
+      <c r="L668" t="s">
+        <v>3165</v>
+      </c>
+      <c r="M668" t="s">
+        <v>3132</v>
+      </c>
+    </row>
+    <row r="669" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A669" s="1" t="s">
+        <v>3066</v>
+      </c>
+      <c r="B669" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D669" t="s">
+        <v>2471</v>
+      </c>
+      <c r="J669" t="s">
+        <v>3265</v>
+      </c>
+      <c r="K669" t="s">
+        <v>3224</v>
+      </c>
+      <c r="L669" t="s">
+        <v>3182</v>
+      </c>
+      <c r="M669" t="s">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="670" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A670" s="1" t="s">
+        <v>3067</v>
+      </c>
+      <c r="B670" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D670" t="s">
+        <v>91</v>
+      </c>
+      <c r="E670" s="1" t="s">
+        <v>3097</v>
+      </c>
+      <c r="J670" t="s">
+        <v>3266</v>
+      </c>
+      <c r="K670" t="s">
+        <v>3225</v>
+      </c>
+      <c r="L670" t="s">
+        <v>3183</v>
+      </c>
+      <c r="M670" t="s">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="671" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A671" s="1" t="s">
+        <v>3068</v>
+      </c>
+      <c r="B671" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D671" t="s">
+        <v>91</v>
+      </c>
+      <c r="E671" s="1" t="s">
+        <v>3098</v>
+      </c>
+      <c r="J671" t="s">
+        <v>3267</v>
+      </c>
+      <c r="K671" t="s">
+        <v>3226</v>
+      </c>
+      <c r="L671" t="s">
+        <v>3166</v>
+      </c>
+      <c r="M671" t="s">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="672" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A672" s="1" t="s">
+        <v>3069</v>
+      </c>
+      <c r="B672" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D672" t="s">
+        <v>40</v>
+      </c>
+      <c r="J672" t="s">
+        <v>3280</v>
+      </c>
+      <c r="K672" t="s">
+        <v>3281</v>
+      </c>
+      <c r="L672" t="s">
+        <v>361</v>
+      </c>
+      <c r="M672" t="s">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="673" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A673" s="1" t="s">
+        <v>3070</v>
+      </c>
+      <c r="B673" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D673" t="s">
+        <v>40</v>
+      </c>
+      <c r="J673" t="s">
+        <v>3280</v>
+      </c>
+      <c r="K673" t="s">
+        <v>3281</v>
+      </c>
+      <c r="L673" t="s">
+        <v>361</v>
+      </c>
+      <c r="M673" t="s">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="674" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A674" s="1" t="s">
+        <v>3071</v>
+      </c>
+      <c r="B674" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D674" t="s">
+        <v>91</v>
+      </c>
+      <c r="J674" t="s">
+        <v>3250</v>
+      </c>
+      <c r="K674" t="s">
+        <v>3206</v>
+      </c>
+      <c r="L674" t="s">
+        <v>3167</v>
+      </c>
+      <c r="M674" t="s">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="675" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A675" s="1" t="s">
+        <v>3072</v>
+      </c>
+      <c r="B675" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D675" t="s">
+        <v>91</v>
+      </c>
+      <c r="J675" t="s">
+        <v>3251</v>
+      </c>
+      <c r="K675" t="s">
+        <v>3207</v>
+      </c>
+      <c r="L675" t="s">
+        <v>3168</v>
+      </c>
+      <c r="M675" t="s">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="676" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A676" s="1" t="s">
+        <v>3073</v>
+      </c>
+      <c r="B676" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D676" t="s">
+        <v>91</v>
+      </c>
+      <c r="J676" t="s">
+        <v>3268</v>
+      </c>
+      <c r="K676" t="s">
+        <v>3208</v>
+      </c>
+      <c r="L676" t="s">
+        <v>3184</v>
+      </c>
+      <c r="M676" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="677" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A677" s="1" t="s">
+        <v>3074</v>
+      </c>
+      <c r="B677" t="s">
+        <v>3018</v>
+      </c>
+      <c r="J677" t="s">
+        <v>3269</v>
+      </c>
+      <c r="K677" t="s">
+        <v>3227</v>
+      </c>
+      <c r="L677" t="s">
+        <v>3169</v>
+      </c>
+      <c r="M677" t="s">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="678" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A678" s="1" t="s">
+        <v>3075</v>
+      </c>
+      <c r="B678" t="s">
+        <v>3018</v>
+      </c>
+      <c r="J678" t="s">
+        <v>3269</v>
+      </c>
+      <c r="K678" t="s">
+        <v>3227</v>
+      </c>
+      <c r="L678" t="s">
+        <v>3169</v>
+      </c>
+      <c r="M678" t="s">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="679" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A679" s="1" t="s">
+        <v>3076</v>
+      </c>
+      <c r="B679" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D679" t="s">
+        <v>27</v>
+      </c>
+      <c r="G679" s="1" t="s">
+        <v>2511</v>
+      </c>
+      <c r="J679" t="s">
+        <v>3270</v>
+      </c>
+      <c r="K679" t="s">
+        <v>3228</v>
+      </c>
+      <c r="L679" t="s">
+        <v>3185</v>
+      </c>
+      <c r="M679" t="s">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="680" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A680" s="1" t="s">
+        <v>3077</v>
+      </c>
+      <c r="B680" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D680" t="s">
+        <v>27</v>
+      </c>
+      <c r="E680" s="1" t="s">
+        <v>3099</v>
+      </c>
+      <c r="J680" t="s">
+        <v>3271</v>
+      </c>
+      <c r="K680" t="s">
+        <v>3209</v>
+      </c>
+      <c r="L680" t="s">
+        <v>3170</v>
+      </c>
+      <c r="M680" t="s">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="681" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A681" s="1" t="s">
+        <v>3100</v>
+      </c>
+      <c r="B681" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D681" t="s">
+        <v>27</v>
+      </c>
+      <c r="E681" s="1" t="s">
+        <v>3101</v>
+      </c>
+      <c r="J681" t="s">
+        <v>3272</v>
+      </c>
+      <c r="K681" t="s">
+        <v>3229</v>
+      </c>
+      <c r="L681" t="s">
+        <v>3186</v>
+      </c>
+      <c r="M681" t="s">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="682" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A682" s="1" t="s">
+        <v>3078</v>
+      </c>
+      <c r="B682" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D682" t="s">
+        <v>27</v>
+      </c>
+      <c r="E682" s="1" t="s">
+        <v>3102</v>
+      </c>
+      <c r="J682" t="s">
+        <v>3272</v>
+      </c>
+      <c r="K682" t="s">
+        <v>3229</v>
+      </c>
+      <c r="L682" t="s">
+        <v>3186</v>
+      </c>
+      <c r="M682" t="s">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="683" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A683" s="1" t="s">
+        <v>3079</v>
+      </c>
+      <c r="B683" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D683" t="s">
+        <v>27</v>
+      </c>
+      <c r="E683" s="1" t="s">
+        <v>3103</v>
+      </c>
+      <c r="J683" t="s">
+        <v>3273</v>
+      </c>
+      <c r="K683" t="s">
+        <v>3230</v>
+      </c>
+      <c r="L683" t="s">
+        <v>3187</v>
+      </c>
+      <c r="M683" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="684" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A684" s="1" t="s">
+        <v>3080</v>
+      </c>
+      <c r="B684" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D684" t="s">
+        <v>27</v>
+      </c>
+      <c r="F684" s="1" t="s">
+        <v>3081</v>
+      </c>
+      <c r="J684" t="s">
+        <v>3252</v>
+      </c>
+      <c r="K684" t="s">
+        <v>3210</v>
+      </c>
+      <c r="L684" t="s">
+        <v>3188</v>
+      </c>
+      <c r="M684" t="s">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="685" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A685" s="1" t="s">
+        <v>3082</v>
+      </c>
+      <c r="B685" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D685" t="s">
+        <v>27</v>
+      </c>
+      <c r="J685" t="s">
+        <v>3253</v>
+      </c>
+      <c r="K685" t="s">
+        <v>3211</v>
+      </c>
+      <c r="L685" t="s">
+        <v>3171</v>
+      </c>
+      <c r="M685" t="s">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="686" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A686" s="1" t="s">
+        <v>3083</v>
+      </c>
+      <c r="B686" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D686" t="s">
+        <v>27</v>
+      </c>
+      <c r="E686" s="1" t="s">
+        <v>3104</v>
+      </c>
+      <c r="G686" s="1" t="s">
+        <v>3090</v>
+      </c>
+      <c r="J686" t="s">
+        <v>3274</v>
+      </c>
+      <c r="K686" t="s">
+        <v>3231</v>
+      </c>
+      <c r="L686" t="s">
+        <v>3189</v>
+      </c>
+      <c r="M686" t="s">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="687" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A687" s="1" t="s">
+        <v>3084</v>
+      </c>
+      <c r="B687" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D687" t="s">
+        <v>27</v>
+      </c>
+      <c r="E687" s="1" t="s">
+        <v>3105</v>
+      </c>
+      <c r="G687" s="1" t="s">
+        <v>2511</v>
+      </c>
+      <c r="J687" t="s">
+        <v>3275</v>
+      </c>
+      <c r="K687" t="s">
+        <v>3232</v>
+      </c>
+      <c r="L687" t="s">
+        <v>3190</v>
+      </c>
+      <c r="M687" t="s">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="688" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A688" s="1" t="s">
+        <v>3085</v>
+      </c>
+      <c r="B688" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D688" t="s">
+        <v>27</v>
+      </c>
+      <c r="G688" s="1" t="s">
+        <v>3091</v>
+      </c>
+      <c r="J688" t="s">
+        <v>3276</v>
+      </c>
+      <c r="K688" t="s">
+        <v>3233</v>
+      </c>
+      <c r="L688" t="s">
+        <v>3172</v>
+      </c>
+      <c r="M688" t="s">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="689" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A689" s="1" t="s">
+        <v>3086</v>
+      </c>
+      <c r="B689" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D689" t="s">
+        <v>27</v>
+      </c>
+      <c r="E689" s="1" t="s">
+        <v>3106</v>
+      </c>
+      <c r="J689" t="s">
+        <v>3277</v>
+      </c>
+      <c r="K689" t="s">
+        <v>3212</v>
+      </c>
+      <c r="L689" t="s">
+        <v>3173</v>
+      </c>
+      <c r="M689" t="s">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="690" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A690" s="1" t="s">
+        <v>3087</v>
+      </c>
+      <c r="B690" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D690" t="s">
+        <v>27</v>
+      </c>
+      <c r="E690" s="1" t="s">
+        <v>3107</v>
+      </c>
+      <c r="J690" t="s">
+        <v>3254</v>
+      </c>
+      <c r="K690" t="s">
+        <v>3213</v>
+      </c>
+      <c r="L690" t="s">
+        <v>3191</v>
+      </c>
+      <c r="M690" t="s">
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="691" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A691" s="1" t="s">
+        <v>3088</v>
+      </c>
+      <c r="B691" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D691" t="s">
+        <v>27</v>
+      </c>
+      <c r="J691" t="s">
+        <v>3278</v>
+      </c>
+      <c r="K691" t="s">
+        <v>3234</v>
+      </c>
+      <c r="L691" t="s">
+        <v>3192</v>
+      </c>
+      <c r="M691" t="s">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="692" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A692" s="1" t="s">
+        <v>3089</v>
+      </c>
+      <c r="B692" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D692" t="s">
+        <v>91</v>
+      </c>
+      <c r="E692" s="1" t="s">
+        <v>3108</v>
+      </c>
+      <c r="J692" t="s">
+        <v>3279</v>
+      </c>
+      <c r="K692" t="s">
+        <v>3235</v>
+      </c>
+      <c r="L692" t="s">
+        <v>3193</v>
+      </c>
+      <c r="M692" t="s">
+        <v>3153</v>
       </c>
     </row>
   </sheetData>

--- a/dictionary/Vocab.xlsx
+++ b/dictionary/Vocab.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_Trae\TibetanNote\dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{FE4C88BA-02A8-4FC7-A6DD-6ABFE20F4F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E6DECE-89C4-47F9-9D0C-E537332D6ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Vocab" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5077" uniqueCount="3282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5373" uniqueCount="3491">
   <si>
     <t>word</t>
   </si>
@@ -9883,6 +9882,633 @@
   </si>
   <si>
     <t>番</t>
+  </si>
+  <si>
+    <t>ཅོག་</t>
+  </si>
+  <si>
+    <t>གྲོ་ཞིབ།</t>
+  </si>
+  <si>
+    <t>ཕྱུར་བ།</t>
+  </si>
+  <si>
+    <t>ཕྱུར་སྐམ།</t>
+  </si>
+  <si>
+    <t>ཤ་འབྲས།</t>
+  </si>
+  <si>
+    <t>རྒྱ་མ།</t>
+  </si>
+  <si>
+    <t>འཐུང་ཡག</t>
+  </si>
+  <si>
+    <t>བྱེའུ།</t>
+  </si>
+  <si>
+    <t>བྱ་རྒོད།</t>
+  </si>
+  <si>
+    <t>ཨ་བྲ།</t>
+  </si>
+  <si>
+    <t>རླུང་རྟ།</t>
+  </si>
+  <si>
+    <t>མཐུག་པོ།</t>
+  </si>
+  <si>
+    <t>སྐམ་པོ།</t>
+  </si>
+  <si>
+    <t>ཕྱི་པོ།</t>
+  </si>
+  <si>
+    <t>གཙང་པོ།</t>
+  </si>
+  <si>
+    <t>ག་ལེར།</t>
+  </si>
+  <si>
+    <t>ག་ལེར་ག་ལེར།</t>
+  </si>
+  <si>
+    <t>ཧོབ་དེ་ག་ལ།</t>
+  </si>
+  <si>
+    <t>ཁེ་ཉིན་ཁ།</t>
+  </si>
+  <si>
+    <t>གཞི་ནས།</t>
+  </si>
+  <si>
+    <t>ག་ས་ག་ལ།</t>
+  </si>
+  <si>
+    <t>V02-L05</t>
+  </si>
+  <si>
+    <t>ཕར།</t>
+  </si>
+  <si>
+    <t>ཚུར།</t>
+  </si>
+  <si>
+    <t>རྫོགས་པ།</t>
+  </si>
+  <si>
+    <t>monsieur + prénom</t>
+  </si>
+  <si>
+    <t>farine</t>
+  </si>
+  <si>
+    <t>fromage</t>
+  </si>
+  <si>
+    <t>fromage séché</t>
+  </si>
+  <si>
+    <t>viande bovine à la sauce au curry avec du riz et des pommes de terre</t>
+  </si>
+  <si>
+    <t>livre ; 500 gr</t>
+  </si>
+  <si>
+    <t>boisson</t>
+  </si>
+  <si>
+    <t>oiseau</t>
+  </si>
+  <si>
+    <t>vautour</t>
+  </si>
+  <si>
+    <t>pika</t>
+  </si>
+  <si>
+    <t>lungta ; chance</t>
+  </si>
+  <si>
+    <t>épais</t>
+  </si>
+  <si>
+    <t>sec ; séché</t>
+  </si>
+  <si>
+    <t>tard</t>
+  </si>
+  <si>
+    <t>propre</t>
+  </si>
+  <si>
+    <t>lentement</t>
+  </si>
+  <si>
+    <t>soudain ; tout à coup</t>
+  </si>
+  <si>
+    <t>avant-hier</t>
+  </si>
+  <si>
+    <t>finalement ; enfin</t>
+  </si>
+  <si>
+    <t>partout</t>
+  </si>
+  <si>
+    <t>གྲོ་ཞིབ་</t>
+  </si>
+  <si>
+    <t>ཕྱུར་སྐམ་</t>
+  </si>
+  <si>
+    <t>ཤ་འབྲས་</t>
+  </si>
+  <si>
+    <t>བྱ་རྒོད་</t>
+  </si>
+  <si>
+    <t>རླུང་རྟ་</t>
+  </si>
+  <si>
+    <t>ལམ་སང་།</t>
+  </si>
+  <si>
+    <t>བརླགས་པ།</t>
+  </si>
+  <si>
+    <t>བརླག་པ།</t>
+  </si>
+  <si>
+    <t>རྙེད་པ།</t>
+  </si>
+  <si>
+    <t>དྲན་པ།</t>
+  </si>
+  <si>
+    <t>བརྗེད་པ།</t>
+  </si>
+  <si>
+    <t>ཞེད་པ།</t>
+  </si>
+  <si>
+    <t>ཤི་བ།</t>
+  </si>
+  <si>
+    <t>འཆི་བ།</t>
+  </si>
+  <si>
+    <t>སྐྱེ་བ།</t>
+  </si>
+  <si>
+    <t>སྐྱེས་པ།</t>
+  </si>
+  <si>
+    <t>དཀའ་ལས་ཁག་པ།</t>
+  </si>
+  <si>
+    <t>V.non contr</t>
+  </si>
+  <si>
+    <t>གཡུག་པ།</t>
+  </si>
+  <si>
+    <t>གཡུགས་པ།</t>
+  </si>
+  <si>
+    <t>རླུང་རྟ་བཏང་བ།</t>
+  </si>
+  <si>
+    <t>བཞུགས་པ།</t>
+  </si>
+  <si>
+    <t>སྒོ་ལྕགས་བརྒྱབ་པ།</t>
+  </si>
+  <si>
+    <t>ཉོ་ཆ་བརྒྱབ་པ།</t>
+  </si>
+  <si>
+    <t>ལན་བཞག་པ།</t>
+  </si>
+  <si>
+    <t>བཟོས་པ།</t>
+  </si>
+  <si>
+    <t>གཙང་མ་བཟོ་བ།</t>
+  </si>
+  <si>
+    <t>འཕུར་བ།</t>
+  </si>
+  <si>
+    <t>ཕུར་བ།</t>
+  </si>
+  <si>
+    <t>au loin ; particule indiquant l'éloignment par rapport au locuteur</t>
+  </si>
+  <si>
+    <t>vers le locuteur ; particule indiquant le rapprochement vers le locuteur</t>
+  </si>
+  <si>
+    <t>tout de suite ; immédiatement ; vite</t>
+  </si>
+  <si>
+    <t>être terminé ; ne plus y avoir</t>
+  </si>
+  <si>
+    <t>perdre</t>
+  </si>
+  <si>
+    <t>trouver</t>
+  </si>
+  <si>
+    <t>se souvenir ; penser que</t>
+  </si>
+  <si>
+    <t>oublier</t>
+  </si>
+  <si>
+    <t>avoir peur ; craindre</t>
+  </si>
+  <si>
+    <t>mourir ; s'éteindre (la lumière ; l'électricité ; un appareil)</t>
+  </si>
+  <si>
+    <t>naitre ; pousser (végétaux) ; éprouver (sentiments)</t>
+  </si>
+  <si>
+    <t>être fatigué</t>
+  </si>
+  <si>
+    <t>jeter ; se débarrasser de qqch</t>
+  </si>
+  <si>
+    <t>jeter des "lungta" en l'air</t>
+  </si>
+  <si>
+    <t>rester ; demeurer ; vivre</t>
+  </si>
+  <si>
+    <t>fermer la porte à clé ; verrouiller</t>
+  </si>
+  <si>
+    <t>faire des courses</t>
+  </si>
+  <si>
+    <t>laisser un message</t>
+  </si>
+  <si>
+    <t>laver ; nettoyer</t>
+  </si>
+  <si>
+    <t>s'envoler ; voler</t>
+  </si>
+  <si>
+    <t>Mr. + First Name</t>
+  </si>
+  <si>
+    <t>flour</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>dried cheese</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>vulture</t>
+  </si>
+  <si>
+    <t>thick</t>
+  </si>
+  <si>
+    <t>dry; dried</t>
+  </si>
+  <si>
+    <t>late</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>slowly</t>
+  </si>
+  <si>
+    <t>sudden; suddenly</t>
+  </si>
+  <si>
+    <t>day before yesterday</t>
+  </si>
+  <si>
+    <t>to the speaker; particle indicating the approach to the speaker</t>
+  </si>
+  <si>
+    <t>be completed; no longer be there</t>
+  </si>
+  <si>
+    <t>lose</t>
+  </si>
+  <si>
+    <t>remember; think</t>
+  </si>
+  <si>
+    <t>forget</t>
+  </si>
+  <si>
+    <t>die; turn off (light; electricity; appliance)</t>
+  </si>
+  <si>
+    <t>be tired</t>
+  </si>
+  <si>
+    <t>stay; remain; live</t>
+  </si>
+  <si>
+    <t>lock the door; lock</t>
+  </si>
+  <si>
+    <t>wash; clean</t>
+  </si>
+  <si>
+    <t>beef in curry sauce with rice and potatoes</t>
+  </si>
+  <si>
+    <t>500 g</t>
+  </si>
+  <si>
+    <t>lungta; luck</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>everywhere</t>
+  </si>
+  <si>
+    <t>in the distance; a particle indicating distance from the speaker</t>
+  </si>
+  <si>
+    <t>right away; immediately; quickly</t>
+  </si>
+  <si>
+    <t>find</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>bear; grow (plants); experience (feelings)</t>
+  </si>
+  <si>
+    <t>throw; get rid of something</t>
+  </si>
+  <si>
+    <t>throw "lungta" in the air</t>
+  </si>
+  <si>
+    <t>go shopping</t>
+  </si>
+  <si>
+    <t>leave a message</t>
+  </si>
+  <si>
+    <t>fly</t>
+  </si>
+  <si>
+    <t>小麦粉</t>
+  </si>
+  <si>
+    <t>チーズ</t>
+  </si>
+  <si>
+    <t>ドライチーズ</t>
+  </si>
+  <si>
+    <t>500グラム</t>
+  </si>
+  <si>
+    <t>鳥</t>
+  </si>
+  <si>
+    <t>禿鷹</t>
+  </si>
+  <si>
+    <t>啼兎</t>
+  </si>
+  <si>
+    <t>厚い</t>
+  </si>
+  <si>
+    <t>遅い</t>
+  </si>
+  <si>
+    <t>ゆっくりと</t>
+  </si>
+  <si>
+    <t>一昨日</t>
+  </si>
+  <si>
+    <t>最終的に</t>
+  </si>
+  <si>
+    <t>失う</t>
+  </si>
+  <si>
+    <t>見付ける</t>
+  </si>
+  <si>
+    <t>忘れる</t>
+  </si>
+  <si>
+    <t>疲れる</t>
+  </si>
+  <si>
+    <t>「ルンタ」を空中に投げる</t>
+  </si>
+  <si>
+    <t>買い物に行く</t>
+  </si>
+  <si>
+    <t>飛ぶ</t>
+  </si>
+  <si>
+    <t>牛肉のカレーソースとご飯とジャガイモ</t>
+  </si>
+  <si>
+    <t>ルンタ、運</t>
+  </si>
+  <si>
+    <t>乾く</t>
+  </si>
+  <si>
+    <t>きれい</t>
+  </si>
+  <si>
+    <t>突然</t>
+  </si>
+  <si>
+    <t>どこでも</t>
+  </si>
+  <si>
+    <t>すぐに、直ちに、いち早く</t>
+  </si>
+  <si>
+    <t>完了する、もうそこにはありません</t>
+  </si>
+  <si>
+    <t>思い出す、考える</t>
+  </si>
+  <si>
+    <t>怖い</t>
+  </si>
+  <si>
+    <t>死ぬ、消す(ライト、電気、電化製品)</t>
+  </si>
+  <si>
+    <t>生まれる、成長する（植物）、経験する（感情）</t>
+  </si>
+  <si>
+    <t>投げる、取り除く</t>
+  </si>
+  <si>
+    <t>滞在する、住む、居る</t>
+  </si>
+  <si>
+    <t>鍵をかける</t>
+  </si>
+  <si>
+    <t>伝言を残す</t>
+  </si>
+  <si>
+    <t>洗う、きれいにする</t>
+  </si>
+  <si>
+    <t>面粉</t>
+  </si>
+  <si>
+    <t>奶酪</t>
+  </si>
+  <si>
+    <t>干奶酪</t>
+  </si>
+  <si>
+    <t>咖喱酱牛肉配米饭和土豆</t>
+  </si>
+  <si>
+    <t>500 克</t>
+  </si>
+  <si>
+    <t>鸟</t>
+  </si>
+  <si>
+    <t>秃鹫</t>
+  </si>
+  <si>
+    <t>鼠兔</t>
+  </si>
+  <si>
+    <t>厚</t>
+  </si>
+  <si>
+    <t>晚</t>
+  </si>
+  <si>
+    <t>干净</t>
+  </si>
+  <si>
+    <t>慢慢</t>
+  </si>
+  <si>
+    <t>前天</t>
+  </si>
+  <si>
+    <t>最后</t>
+  </si>
+  <si>
+    <t>到处</t>
+  </si>
+  <si>
+    <t>找到</t>
+  </si>
+  <si>
+    <t>忘记</t>
+  </si>
+  <si>
+    <t>将“lungta”抛向空中</t>
+  </si>
+  <si>
+    <t>留言</t>
+  </si>
+  <si>
+    <t>飞</t>
+  </si>
+  <si>
+    <t>飲み物</t>
+  </si>
+  <si>
+    <t>饮料</t>
+  </si>
+  <si>
+    <t>隆塔；运气</t>
+  </si>
+  <si>
+    <t>干</t>
+  </si>
+  <si>
+    <t>在远处；表示原理说话人的助词</t>
+  </si>
+  <si>
+    <t>遠くで、スピーカーからの距離を示す助詞</t>
+  </si>
+  <si>
+    <t>スピーカーに、スピーカーへの接近を示す助詞</t>
+  </si>
+  <si>
+    <t>向说话者；表示接近说话者的助词</t>
+  </si>
+  <si>
+    <t>马上；迅速</t>
+  </si>
+  <si>
+    <t>完成；没有</t>
+  </si>
+  <si>
+    <t>丢失</t>
+  </si>
+  <si>
+    <t>记得；想</t>
+  </si>
+  <si>
+    <t>害怕</t>
+  </si>
+  <si>
+    <t>死；关闭（灯、电、电）</t>
+  </si>
+  <si>
+    <t>出生；生长（植物）；经验（感受）</t>
+  </si>
+  <si>
+    <t>累</t>
+  </si>
+  <si>
+    <t>扔；摆脱某物</t>
+  </si>
+  <si>
+    <t>留；住</t>
+  </si>
+  <si>
+    <t>锁门；锁</t>
+  </si>
+  <si>
+    <t>购物</t>
+  </si>
+  <si>
+    <t>洗；洗干净</t>
   </si>
 </sst>
 </file>
@@ -10212,13 +10838,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R692"/>
+  <dimension ref="A1:R733"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C677" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C721" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D682" sqref="D682"/>
+      <selection pane="bottomRight" activeCell="F733" sqref="F733"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.55000000000000004"/>
@@ -26868,6 +27494,976 @@
         <v>3153</v>
       </c>
     </row>
+    <row r="693" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A693" s="1" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B693" t="s">
+        <v>3303</v>
+      </c>
+      <c r="L693" t="s">
+        <v>3376</v>
+      </c>
+      <c r="M693" t="s">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="694" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A694" s="1" t="s">
+        <v>3283</v>
+      </c>
+      <c r="B694" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D694" t="s">
+        <v>40</v>
+      </c>
+      <c r="E694" s="1" t="s">
+        <v>3327</v>
+      </c>
+      <c r="J694" t="s">
+        <v>3450</v>
+      </c>
+      <c r="K694" t="s">
+        <v>3414</v>
+      </c>
+      <c r="L694" t="s">
+        <v>3377</v>
+      </c>
+      <c r="M694" t="s">
+        <v>3308</v>
+      </c>
+    </row>
+    <row r="695" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A695" s="1" t="s">
+        <v>3284</v>
+      </c>
+      <c r="B695" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D695" t="s">
+        <v>40</v>
+      </c>
+      <c r="J695" t="s">
+        <v>3451</v>
+      </c>
+      <c r="K695" t="s">
+        <v>3415</v>
+      </c>
+      <c r="L695" t="s">
+        <v>3378</v>
+      </c>
+      <c r="M695" t="s">
+        <v>3309</v>
+      </c>
+    </row>
+    <row r="696" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A696" s="1" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B696" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D696" t="s">
+        <v>40</v>
+      </c>
+      <c r="E696" s="1" t="s">
+        <v>3328</v>
+      </c>
+      <c r="J696" t="s">
+        <v>3452</v>
+      </c>
+      <c r="K696" t="s">
+        <v>3416</v>
+      </c>
+      <c r="L696" t="s">
+        <v>3379</v>
+      </c>
+      <c r="M696" t="s">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="697" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A697" s="1" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B697" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D697" t="s">
+        <v>40</v>
+      </c>
+      <c r="E697" s="1" t="s">
+        <v>3329</v>
+      </c>
+      <c r="J697" t="s">
+        <v>3453</v>
+      </c>
+      <c r="K697" t="s">
+        <v>3433</v>
+      </c>
+      <c r="L697" t="s">
+        <v>3399</v>
+      </c>
+      <c r="M697" t="s">
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="698" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A698" s="1" t="s">
+        <v>3287</v>
+      </c>
+      <c r="B698" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D698" t="s">
+        <v>40</v>
+      </c>
+      <c r="J698" t="s">
+        <v>3454</v>
+      </c>
+      <c r="K698" t="s">
+        <v>3417</v>
+      </c>
+      <c r="L698" t="s">
+        <v>3400</v>
+      </c>
+      <c r="M698" t="s">
+        <v>3312</v>
+      </c>
+    </row>
+    <row r="699" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A699" s="1" t="s">
+        <v>3288</v>
+      </c>
+      <c r="B699" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D699" t="s">
+        <v>40</v>
+      </c>
+      <c r="E699" s="1" t="s">
+        <v>3288</v>
+      </c>
+      <c r="J699" t="s">
+        <v>3471</v>
+      </c>
+      <c r="K699" t="s">
+        <v>3470</v>
+      </c>
+      <c r="L699" t="s">
+        <v>934</v>
+      </c>
+      <c r="M699" t="s">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="700" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A700" s="1" t="s">
+        <v>3289</v>
+      </c>
+      <c r="B700" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D700" t="s">
+        <v>40</v>
+      </c>
+      <c r="J700" t="s">
+        <v>3455</v>
+      </c>
+      <c r="K700" t="s">
+        <v>3418</v>
+      </c>
+      <c r="L700" t="s">
+        <v>3380</v>
+      </c>
+      <c r="M700" t="s">
+        <v>3314</v>
+      </c>
+    </row>
+    <row r="701" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A701" s="1" t="s">
+        <v>3290</v>
+      </c>
+      <c r="B701" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D701" t="s">
+        <v>40</v>
+      </c>
+      <c r="E701" s="1" t="s">
+        <v>3330</v>
+      </c>
+      <c r="J701" t="s">
+        <v>3456</v>
+      </c>
+      <c r="K701" t="s">
+        <v>3419</v>
+      </c>
+      <c r="L701" t="s">
+        <v>3381</v>
+      </c>
+      <c r="M701" t="s">
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="702" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A702" s="1" t="s">
+        <v>3291</v>
+      </c>
+      <c r="B702" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D702" t="s">
+        <v>40</v>
+      </c>
+      <c r="J702" t="s">
+        <v>3457</v>
+      </c>
+      <c r="K702" t="s">
+        <v>3420</v>
+      </c>
+      <c r="L702" t="s">
+        <v>3316</v>
+      </c>
+      <c r="M702" t="s">
+        <v>3316</v>
+      </c>
+    </row>
+    <row r="703" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A703" s="1" t="s">
+        <v>3292</v>
+      </c>
+      <c r="B703" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D703" t="s">
+        <v>40</v>
+      </c>
+      <c r="E703" s="1" t="s">
+        <v>3331</v>
+      </c>
+      <c r="J703" t="s">
+        <v>3472</v>
+      </c>
+      <c r="K703" t="s">
+        <v>3434</v>
+      </c>
+      <c r="L703" t="s">
+        <v>3401</v>
+      </c>
+      <c r="M703" t="s">
+        <v>3317</v>
+      </c>
+    </row>
+    <row r="704" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A704" s="1" t="s">
+        <v>3293</v>
+      </c>
+      <c r="B704" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D704" t="s">
+        <v>90</v>
+      </c>
+      <c r="J704" t="s">
+        <v>3458</v>
+      </c>
+      <c r="K704" t="s">
+        <v>3421</v>
+      </c>
+      <c r="L704" t="s">
+        <v>3382</v>
+      </c>
+      <c r="M704" t="s">
+        <v>3318</v>
+      </c>
+    </row>
+    <row r="705" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A705" s="1" t="s">
+        <v>3294</v>
+      </c>
+      <c r="B705" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D705" t="s">
+        <v>90</v>
+      </c>
+      <c r="J705" t="s">
+        <v>3473</v>
+      </c>
+      <c r="K705" t="s">
+        <v>3435</v>
+      </c>
+      <c r="L705" t="s">
+        <v>3383</v>
+      </c>
+      <c r="M705" t="s">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="706" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A706" s="1" t="s">
+        <v>3295</v>
+      </c>
+      <c r="B706" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D706" t="s">
+        <v>90</v>
+      </c>
+      <c r="J706" t="s">
+        <v>3459</v>
+      </c>
+      <c r="K706" t="s">
+        <v>3422</v>
+      </c>
+      <c r="L706" t="s">
+        <v>3384</v>
+      </c>
+      <c r="M706" t="s">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="707" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A707" s="1" t="s">
+        <v>3296</v>
+      </c>
+      <c r="B707" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D707" t="s">
+        <v>90</v>
+      </c>
+      <c r="J707" t="s">
+        <v>3460</v>
+      </c>
+      <c r="K707" t="s">
+        <v>3436</v>
+      </c>
+      <c r="L707" t="s">
+        <v>3385</v>
+      </c>
+      <c r="M707" t="s">
+        <v>3321</v>
+      </c>
+    </row>
+    <row r="708" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A708" s="1" t="s">
+        <v>3297</v>
+      </c>
+      <c r="B708" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D708" t="s">
+        <v>91</v>
+      </c>
+      <c r="J708" t="s">
+        <v>3461</v>
+      </c>
+      <c r="K708" t="s">
+        <v>3423</v>
+      </c>
+      <c r="L708" t="s">
+        <v>3386</v>
+      </c>
+      <c r="M708" t="s">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="709" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A709" s="1" t="s">
+        <v>3298</v>
+      </c>
+      <c r="B709" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D709" t="s">
+        <v>91</v>
+      </c>
+      <c r="J709" t="s">
+        <v>3461</v>
+      </c>
+      <c r="K709" t="s">
+        <v>3423</v>
+      </c>
+      <c r="L709" t="s">
+        <v>3386</v>
+      </c>
+      <c r="M709" t="s">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="710" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A710" s="1" t="s">
+        <v>3299</v>
+      </c>
+      <c r="B710" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D710" t="s">
+        <v>91</v>
+      </c>
+      <c r="J710" t="s">
+        <v>3437</v>
+      </c>
+      <c r="K710" t="s">
+        <v>3437</v>
+      </c>
+      <c r="L710" t="s">
+        <v>3387</v>
+      </c>
+      <c r="M710" t="s">
+        <v>3323</v>
+      </c>
+    </row>
+    <row r="711" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A711" s="1" t="s">
+        <v>3300</v>
+      </c>
+      <c r="B711" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D711" t="s">
+        <v>91</v>
+      </c>
+      <c r="J711" t="s">
+        <v>3462</v>
+      </c>
+      <c r="K711" t="s">
+        <v>3424</v>
+      </c>
+      <c r="L711" t="s">
+        <v>3388</v>
+      </c>
+      <c r="M711" t="s">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="712" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A712" s="1" t="s">
+        <v>3301</v>
+      </c>
+      <c r="B712" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D712" t="s">
+        <v>91</v>
+      </c>
+      <c r="E712" s="1" t="s">
+        <v>3301</v>
+      </c>
+      <c r="J712" t="s">
+        <v>3463</v>
+      </c>
+      <c r="K712" t="s">
+        <v>3425</v>
+      </c>
+      <c r="L712" t="s">
+        <v>3402</v>
+      </c>
+      <c r="M712" t="s">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="713" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A713" s="1" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B713" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D713" t="s">
+        <v>91</v>
+      </c>
+      <c r="J713" t="s">
+        <v>3464</v>
+      </c>
+      <c r="K713" t="s">
+        <v>3438</v>
+      </c>
+      <c r="L713" t="s">
+        <v>3403</v>
+      </c>
+      <c r="M713" t="s">
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="714" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A714" s="1" t="s">
+        <v>3304</v>
+      </c>
+      <c r="B714" t="s">
+        <v>3303</v>
+      </c>
+      <c r="J714" t="s">
+        <v>3474</v>
+      </c>
+      <c r="K714" t="s">
+        <v>3475</v>
+      </c>
+      <c r="L714" t="s">
+        <v>3404</v>
+      </c>
+      <c r="M714" t="s">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="715" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A715" s="1" t="s">
+        <v>3305</v>
+      </c>
+      <c r="B715" t="s">
+        <v>3303</v>
+      </c>
+      <c r="J715" t="s">
+        <v>3477</v>
+      </c>
+      <c r="K715" t="s">
+        <v>3476</v>
+      </c>
+      <c r="L715" t="s">
+        <v>3389</v>
+      </c>
+      <c r="M715" t="s">
+        <v>3357</v>
+      </c>
+    </row>
+    <row r="716" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A716" s="1" t="s">
+        <v>3332</v>
+      </c>
+      <c r="B716" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D716" t="s">
+        <v>91</v>
+      </c>
+      <c r="J716" t="s">
+        <v>3478</v>
+      </c>
+      <c r="K716" t="s">
+        <v>3439</v>
+      </c>
+      <c r="L716" t="s">
+        <v>3405</v>
+      </c>
+      <c r="M716" t="s">
+        <v>3358</v>
+      </c>
+    </row>
+    <row r="717" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A717" s="1" t="s">
+        <v>3306</v>
+      </c>
+      <c r="B717" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D717" t="s">
+        <v>3344</v>
+      </c>
+      <c r="J717" t="s">
+        <v>3479</v>
+      </c>
+      <c r="K717" t="s">
+        <v>3440</v>
+      </c>
+      <c r="L717" t="s">
+        <v>3390</v>
+      </c>
+      <c r="M717" t="s">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="718" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A718" s="1" t="s">
+        <v>3333</v>
+      </c>
+      <c r="B718" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D718" t="s">
+        <v>3344</v>
+      </c>
+      <c r="G718" s="1" t="s">
+        <v>3334</v>
+      </c>
+      <c r="J718" t="s">
+        <v>3480</v>
+      </c>
+      <c r="K718" t="s">
+        <v>3426</v>
+      </c>
+      <c r="L718" t="s">
+        <v>3391</v>
+      </c>
+      <c r="M718" t="s">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="719" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A719" s="1" t="s">
+        <v>3335</v>
+      </c>
+      <c r="B719" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D719" t="s">
+        <v>3344</v>
+      </c>
+      <c r="J719" t="s">
+        <v>3465</v>
+      </c>
+      <c r="K719" t="s">
+        <v>3427</v>
+      </c>
+      <c r="L719" t="s">
+        <v>3406</v>
+      </c>
+      <c r="M719" t="s">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="720" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A720" s="1" t="s">
+        <v>3336</v>
+      </c>
+      <c r="B720" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D720" t="s">
+        <v>3344</v>
+      </c>
+      <c r="J720" t="s">
+        <v>3481</v>
+      </c>
+      <c r="K720" t="s">
+        <v>3441</v>
+      </c>
+      <c r="L720" t="s">
+        <v>3392</v>
+      </c>
+      <c r="M720" t="s">
+        <v>3362</v>
+      </c>
+    </row>
+    <row r="721" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A721" s="1" t="s">
+        <v>3337</v>
+      </c>
+      <c r="B721" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D721" t="s">
+        <v>3344</v>
+      </c>
+      <c r="J721" t="s">
+        <v>3466</v>
+      </c>
+      <c r="K721" t="s">
+        <v>3428</v>
+      </c>
+      <c r="L721" t="s">
+        <v>3393</v>
+      </c>
+      <c r="M721" t="s">
+        <v>3363</v>
+      </c>
+    </row>
+    <row r="722" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A722" s="1" t="s">
+        <v>3338</v>
+      </c>
+      <c r="B722" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D722" t="s">
+        <v>3344</v>
+      </c>
+      <c r="J722" t="s">
+        <v>3482</v>
+      </c>
+      <c r="K722" t="s">
+        <v>3442</v>
+      </c>
+      <c r="L722" t="s">
+        <v>3407</v>
+      </c>
+      <c r="M722" t="s">
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="723" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A723" s="1" t="s">
+        <v>3339</v>
+      </c>
+      <c r="B723" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D723" t="s">
+        <v>3344</v>
+      </c>
+      <c r="G723" s="1" t="s">
+        <v>3340</v>
+      </c>
+      <c r="J723" t="s">
+        <v>3483</v>
+      </c>
+      <c r="K723" t="s">
+        <v>3443</v>
+      </c>
+      <c r="L723" t="s">
+        <v>3394</v>
+      </c>
+      <c r="M723" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="724" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A724" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="B724" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D724" t="s">
+        <v>3344</v>
+      </c>
+      <c r="F724" s="1" t="s">
+        <v>3342</v>
+      </c>
+      <c r="J724" t="s">
+        <v>3484</v>
+      </c>
+      <c r="K724" t="s">
+        <v>3444</v>
+      </c>
+      <c r="L724" t="s">
+        <v>3408</v>
+      </c>
+      <c r="M724" t="s">
+        <v>3366</v>
+      </c>
+    </row>
+    <row r="725" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A725" s="1" t="s">
+        <v>3343</v>
+      </c>
+      <c r="B725" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D725" t="s">
+        <v>3344</v>
+      </c>
+      <c r="J725" t="s">
+        <v>3485</v>
+      </c>
+      <c r="K725" t="s">
+        <v>3429</v>
+      </c>
+      <c r="L725" t="s">
+        <v>3395</v>
+      </c>
+      <c r="M725" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="726" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A726" s="1" t="s">
+        <v>3345</v>
+      </c>
+      <c r="B726" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D726" t="s">
+        <v>27</v>
+      </c>
+      <c r="F726" s="1" t="s">
+        <v>3346</v>
+      </c>
+      <c r="J726" t="s">
+        <v>3486</v>
+      </c>
+      <c r="K726" t="s">
+        <v>3445</v>
+      </c>
+      <c r="L726" t="s">
+        <v>3409</v>
+      </c>
+      <c r="M726" t="s">
+        <v>3368</v>
+      </c>
+    </row>
+    <row r="727" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A727" s="1" t="s">
+        <v>3347</v>
+      </c>
+      <c r="B727" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D727" t="s">
+        <v>27</v>
+      </c>
+      <c r="J727" t="s">
+        <v>3467</v>
+      </c>
+      <c r="K727" t="s">
+        <v>3430</v>
+      </c>
+      <c r="L727" t="s">
+        <v>3410</v>
+      </c>
+      <c r="M727" t="s">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="728" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A728" s="1" t="s">
+        <v>3348</v>
+      </c>
+      <c r="B728" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D728" t="s">
+        <v>27</v>
+      </c>
+      <c r="J728" t="s">
+        <v>3487</v>
+      </c>
+      <c r="K728" t="s">
+        <v>3446</v>
+      </c>
+      <c r="L728" t="s">
+        <v>3396</v>
+      </c>
+      <c r="M728" t="s">
+        <v>3370</v>
+      </c>
+    </row>
+    <row r="729" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A729" s="1" t="s">
+        <v>3349</v>
+      </c>
+      <c r="B729" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D729" t="s">
+        <v>27</v>
+      </c>
+      <c r="J729" t="s">
+        <v>3488</v>
+      </c>
+      <c r="K729" t="s">
+        <v>3447</v>
+      </c>
+      <c r="L729" t="s">
+        <v>3397</v>
+      </c>
+      <c r="M729" t="s">
+        <v>3371</v>
+      </c>
+    </row>
+    <row r="730" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A730" s="1" t="s">
+        <v>3350</v>
+      </c>
+      <c r="B730" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D730" t="s">
+        <v>27</v>
+      </c>
+      <c r="J730" t="s">
+        <v>3489</v>
+      </c>
+      <c r="K730" t="s">
+        <v>3431</v>
+      </c>
+      <c r="L730" t="s">
+        <v>3411</v>
+      </c>
+      <c r="M730" t="s">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="731" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A731" s="1" t="s">
+        <v>3351</v>
+      </c>
+      <c r="B731" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D731" t="s">
+        <v>27</v>
+      </c>
+      <c r="F731" s="1" t="s">
+        <v>2502</v>
+      </c>
+      <c r="J731" t="s">
+        <v>3468</v>
+      </c>
+      <c r="K731" t="s">
+        <v>3448</v>
+      </c>
+      <c r="L731" t="s">
+        <v>3412</v>
+      </c>
+      <c r="M731" t="s">
+        <v>3373</v>
+      </c>
+    </row>
+    <row r="732" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A732" s="1" t="s">
+        <v>3353</v>
+      </c>
+      <c r="B732" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D732" t="s">
+        <v>27</v>
+      </c>
+      <c r="E732" s="1" t="s">
+        <v>3352</v>
+      </c>
+      <c r="J732" t="s">
+        <v>3490</v>
+      </c>
+      <c r="K732" t="s">
+        <v>3449</v>
+      </c>
+      <c r="L732" t="s">
+        <v>3398</v>
+      </c>
+      <c r="M732" t="s">
+        <v>3374</v>
+      </c>
+    </row>
+    <row r="733" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A733" s="1" t="s">
+        <v>3354</v>
+      </c>
+      <c r="B733" t="s">
+        <v>3303</v>
+      </c>
+      <c r="D733" t="s">
+        <v>27</v>
+      </c>
+      <c r="F733" s="1" t="s">
+        <v>3355</v>
+      </c>
+      <c r="J733" t="s">
+        <v>3469</v>
+      </c>
+      <c r="K733" t="s">
+        <v>3432</v>
+      </c>
+      <c r="L733" t="s">
+        <v>3413</v>
+      </c>
+      <c r="M733" t="s">
+        <v>3375</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
